--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC208"/>
+  <dimension ref="A1:AC206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5169482</v>
+        <v>5169483</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,73 +1067,73 @@
         <v>44933.5</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>3.5</v>
+      </c>
+      <c r="M7">
+        <v>1.8</v>
+      </c>
+      <c r="N7">
+        <v>5.25</v>
+      </c>
+      <c r="O7">
+        <v>3.8</v>
+      </c>
+      <c r="P7">
+        <v>1.571</v>
+      </c>
+      <c r="Q7">
         <v>1</v>
       </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7">
-        <v>2.05</v>
-      </c>
-      <c r="L7">
-        <v>3.3</v>
-      </c>
-      <c r="M7">
-        <v>3.25</v>
-      </c>
-      <c r="N7">
-        <v>1.7</v>
-      </c>
-      <c r="O7">
-        <v>3.75</v>
-      </c>
-      <c r="P7">
-        <v>4.333</v>
-      </c>
-      <c r="Q7">
-        <v>-0.75</v>
-      </c>
       <c r="R7">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S7">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z7">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB7">
-        <v>0.425</v>
+        <v>0.5</v>
       </c>
       <c r="AC7">
         <v>-0.5</v>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5169483</v>
+        <v>5169482</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1156,73 +1156,73 @@
         <v>44933.5</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M8">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="N8">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O8">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P8">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="Q8">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R8">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S8">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V8">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA8">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB8">
-        <v>0.5</v>
+        <v>0.425</v>
       </c>
       <c r="AC8">
         <v>-0.5</v>
@@ -1767,7 +1767,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5169486</v>
+        <v>5169487</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1779,76 +1779,76 @@
         <v>44954.5</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="L15">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M15">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="N15">
-        <v>1.909</v>
+        <v>4.75</v>
       </c>
       <c r="O15">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P15">
-        <v>3.3</v>
+        <v>1.65</v>
       </c>
       <c r="Q15">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R15">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z15">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB15">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5169487</v>
+        <v>5169711</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,76 +1868,76 @@
         <v>44954.5</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K16">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="L16">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="N16">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="O16">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P16">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="Q16">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T16">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U16">
+        <v>1.825</v>
+      </c>
+      <c r="V16">
         <v>1.975</v>
       </c>
-      <c r="V16">
-        <v>1.825</v>
-      </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y16">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z16">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB16">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC16">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5169711</v>
+        <v>5170191</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,76 +1957,76 @@
         <v>44954.5</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="N17">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="O17">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P17">
-        <v>1.5</v>
+        <v>1.666</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R17">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S17">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U17">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V17">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC17">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5170191</v>
+        <v>5170192</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,70 +2046,70 @@
         <v>44954.5</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K18">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="L18">
+        <v>3.5</v>
+      </c>
+      <c r="M18">
         <v>3.6</v>
       </c>
-      <c r="M18">
-        <v>1.7</v>
-      </c>
       <c r="N18">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="O18">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P18">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="Q18">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S18">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U18">
         <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y18">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA18">
-        <v>0.8500000000000001</v>
+        <v>0.3875</v>
       </c>
       <c r="AB18">
         <v>0.925</v>
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5170192</v>
+        <v>5169486</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,73 +2135,73 @@
         <v>44954.5</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K19">
+        <v>1.95</v>
+      </c>
+      <c r="L19">
+        <v>3.4</v>
+      </c>
+      <c r="M19">
+        <v>3.4</v>
+      </c>
+      <c r="N19">
+        <v>1.909</v>
+      </c>
+      <c r="O19">
+        <v>3.4</v>
+      </c>
+      <c r="P19">
+        <v>3.3</v>
+      </c>
+      <c r="Q19">
+        <v>-0.5</v>
+      </c>
+      <c r="R19">
+        <v>1.95</v>
+      </c>
+      <c r="S19">
         <v>1.85</v>
       </c>
-      <c r="L19">
-        <v>3.5</v>
-      </c>
-      <c r="M19">
-        <v>3.6</v>
-      </c>
-      <c r="N19">
-        <v>2.3</v>
-      </c>
-      <c r="O19">
-        <v>3.3</v>
-      </c>
-      <c r="P19">
-        <v>2.7</v>
-      </c>
-      <c r="Q19">
-        <v>-0.25</v>
-      </c>
-      <c r="R19">
-        <v>2.1</v>
-      </c>
-      <c r="S19">
-        <v>1.775</v>
-      </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U19">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V19">
         <v>1.925</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X19">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA19">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5169489</v>
+        <v>5169488</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2224,10 +2224,10 @@
         <v>44961.5</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2251,28 +2251,28 @@
         <v>1.4</v>
       </c>
       <c r="O20">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P20">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="Q20">
         <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S20">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U20">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V20">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W20">
         <v>0.3999999999999999</v>
@@ -2287,13 +2287,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.45</v>
+        <v>0.4875</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2301,7 +2301,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5169488</v>
+        <v>5169489</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2313,10 +2313,10 @@
         <v>44961.5</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2340,28 +2340,28 @@
         <v>1.4</v>
       </c>
       <c r="O21">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P21">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="Q21">
         <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T21">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U21">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
         <v>0.3999999999999999</v>
@@ -2376,13 +2376,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA21">
-        <v>0.4875</v>
+        <v>0.45</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5334685</v>
+        <v>5319762</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,76 +4538,76 @@
         <v>45003.5</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K46">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="L46">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M46">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="N46">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="O46">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P46">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q46">
         <v>0.25</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S46">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T46">
         <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V46">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="X46">
         <v>-1</v>
       </c>
       <c r="Y46">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5319762</v>
+        <v>5334685</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4627,76 +4627,76 @@
         <v>45003.5</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K47">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M47">
+        <v>2.6</v>
+      </c>
+      <c r="N47">
+        <v>2.8</v>
+      </c>
+      <c r="O47">
+        <v>3.5</v>
+      </c>
+      <c r="P47">
         <v>2.1</v>
-      </c>
-      <c r="N47">
-        <v>3</v>
-      </c>
-      <c r="O47">
-        <v>3.3</v>
-      </c>
-      <c r="P47">
-        <v>2.05</v>
       </c>
       <c r="Q47">
         <v>0.25</v>
       </c>
       <c r="R47">
+        <v>1.85</v>
+      </c>
+      <c r="S47">
         <v>1.95</v>
-      </c>
-      <c r="S47">
-        <v>1.9</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="X47">
         <v>-1</v>
       </c>
       <c r="Y47">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z47">
+        <v>-1</v>
+      </c>
+      <c r="AA47">
         <v>0.95</v>
       </c>
-      <c r="AA47">
-        <v>-1</v>
-      </c>
       <c r="AB47">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -5950,7 +5950,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5423468</v>
+        <v>5423459</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5962,73 +5962,73 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K62">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M62">
         <v>2.8</v>
       </c>
       <c r="N62">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P62">
-        <v>2.45</v>
+        <v>2.875</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R62">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S62">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T62">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y62">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA62">
-        <v>0.8999999999999999</v>
+        <v>0.375</v>
       </c>
       <c r="AB62">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5423469</v>
+        <v>5423460</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,76 +6051,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K63">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="L63">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M63">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="N63">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O63">
         <v>3.6</v>
       </c>
       <c r="P63">
-        <v>1.666</v>
+        <v>3.75</v>
       </c>
       <c r="Q63">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S63">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V63">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W63">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>1.025</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5423459</v>
+        <v>5423468</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,73 +6140,73 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="L64">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M64">
         <v>2.8</v>
       </c>
       <c r="N64">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="O64">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P64">
-        <v>2.875</v>
+        <v>2.45</v>
       </c>
       <c r="Q64">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R64">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S64">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="T64">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V64">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
         <v>-1</v>
       </c>
       <c r="X64">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA64">
-        <v>0.375</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB64">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6217,7 +6217,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5423460</v>
+        <v>5423469</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6229,76 +6229,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K65">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M65">
-        <v>3.6</v>
+        <v>1.65</v>
       </c>
       <c r="N65">
-        <v>1.75</v>
+        <v>4.5</v>
       </c>
       <c r="O65">
         <v>3.6</v>
       </c>
       <c r="P65">
-        <v>3.75</v>
+        <v>1.666</v>
       </c>
       <c r="Q65">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R65">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X65">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA65">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6306,7 +6306,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6474707</v>
+        <v>6474708</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6318,13 +6318,13 @@
         <v>45027.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -6333,40 +6333,40 @@
         <v>43</v>
       </c>
       <c r="K66">
+        <v>8</v>
+      </c>
+      <c r="L66">
+        <v>5.25</v>
+      </c>
+      <c r="M66">
+        <v>1.285</v>
+      </c>
+      <c r="N66">
+        <v>11</v>
+      </c>
+      <c r="O66">
+        <v>6</v>
+      </c>
+      <c r="P66">
+        <v>1.181</v>
+      </c>
+      <c r="Q66">
+        <v>1.75</v>
+      </c>
+      <c r="R66">
+        <v>2</v>
+      </c>
+      <c r="S66">
+        <v>1.8</v>
+      </c>
+      <c r="T66">
         <v>2.75</v>
       </c>
-      <c r="L66">
-        <v>3.5</v>
-      </c>
-      <c r="M66">
-        <v>2.25</v>
-      </c>
-      <c r="N66">
-        <v>3.25</v>
-      </c>
-      <c r="O66">
-        <v>3.6</v>
-      </c>
-      <c r="P66">
-        <v>1.95</v>
-      </c>
-      <c r="Q66">
-        <v>0.5</v>
-      </c>
-      <c r="R66">
+      <c r="U66">
         <v>1.8</v>
       </c>
-      <c r="S66">
-        <v>2</v>
-      </c>
-      <c r="T66">
-        <v>2.5</v>
-      </c>
-      <c r="U66">
-        <v>1.925</v>
-      </c>
       <c r="V66">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6375,19 +6375,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.95</v>
+        <v>0.181</v>
       </c>
       <c r="Z66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA66">
+        <v>0.4</v>
+      </c>
+      <c r="AB66">
+        <v>-1</v>
+      </c>
+      <c r="AC66">
         <v>1</v>
-      </c>
-      <c r="AB66">
-        <v>0.925</v>
-      </c>
-      <c r="AC66">
-        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6474708</v>
+        <v>6474707</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,13 +6407,13 @@
         <v>45027.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>2</v>
@@ -6422,40 +6422,40 @@
         <v>43</v>
       </c>
       <c r="K67">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="L67">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M67">
-        <v>1.285</v>
+        <v>2.25</v>
       </c>
       <c r="N67">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="O67">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P67">
-        <v>1.181</v>
+        <v>1.95</v>
       </c>
       <c r="Q67">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R67">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S67">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T67">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V67">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6464,19 +6464,19 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.181</v>
+        <v>0.95</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC67">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6751,7 +6751,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5465543</v>
+        <v>5466903</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6763,10 +6763,10 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6778,43 +6778,43 @@
         <v>45</v>
       </c>
       <c r="K71">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="L71">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M71">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N71">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="O71">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P71">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q71">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S71">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V71">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W71">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6823,16 +6823,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA71">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6840,7 +6840,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5466903</v>
+        <v>5465543</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6852,10 +6852,10 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6867,43 +6867,43 @@
         <v>45</v>
       </c>
       <c r="K72">
-        <v>3.25</v>
+        <v>1.363</v>
       </c>
       <c r="L72">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N72">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="O72">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P72">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R72">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V72">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W72">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6912,16 +6912,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB72">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -9154,7 +9154,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6845827</v>
+        <v>6845659</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9166,10 +9166,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9181,34 +9181,34 @@
         <v>43</v>
       </c>
       <c r="K98">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L98">
         <v>3.6</v>
       </c>
       <c r="M98">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N98">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="O98">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="Q98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R98">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S98">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T98">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
         <v>1.975</v>
@@ -9223,19 +9223,19 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>0.571</v>
+        <v>1.45</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC98">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9421,7 +9421,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6845659</v>
+        <v>6845827</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9433,10 +9433,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G101" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9448,34 +9448,34 @@
         <v>43</v>
       </c>
       <c r="K101">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L101">
         <v>3.6</v>
       </c>
       <c r="M101">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N101">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="O101">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P101">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="Q101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R101">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S101">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U101">
         <v>1.975</v>
@@ -9490,19 +9490,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.45</v>
+        <v>0.571</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB101">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC101">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6848356</v>
+        <v>6845662</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,73 +10501,73 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H113">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K113">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M113">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N113">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O113">
         <v>3.8</v>
       </c>
       <c r="P113">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="Q113">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R113">
+        <v>1.925</v>
+      </c>
+      <c r="S113">
         <v>1.875</v>
-      </c>
-      <c r="S113">
-        <v>1.925</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V113">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W113">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
+        <v>-1</v>
+      </c>
+      <c r="AA113">
         <v>0.875</v>
       </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
       <c r="AB113">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10578,7 +10578,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6845662</v>
+        <v>6845824</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10590,40 +10590,40 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H114">
         <v>2</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K114">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="L114">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M114">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N114">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="O114">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P114">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="Q114">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R114">
         <v>1.925</v>
@@ -10635,31 +10635,31 @@
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V114">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X114">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA114">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AB114">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10667,7 +10667,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6845824</v>
+        <v>6848354</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10679,58 +10679,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
         <v>45</v>
       </c>
       <c r="K115">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M115">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N115">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O115">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P115">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q115">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R115">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S115">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U115">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V115">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W115">
-        <v>0.3999999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10739,16 +10739,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA115">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AC115">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6848354</v>
+        <v>6848356</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,58 +10857,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H117">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>45</v>
       </c>
       <c r="K117">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="L117">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M117">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="N117">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O117">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P117">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="Q117">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T117">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V117">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W117">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10917,16 +10917,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC117">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6845665</v>
+        <v>6848363</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,73 +12014,73 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="L130">
         <v>3.6</v>
       </c>
       <c r="M130">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N130">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="O130">
         <v>4</v>
       </c>
       <c r="P130">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q130">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S130">
         <v>1.825</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U130">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V130">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB130">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6848363</v>
+        <v>6845665</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,73 +12103,73 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K131">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="L131">
         <v>3.6</v>
       </c>
       <c r="M131">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N131">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O131">
         <v>4</v>
       </c>
       <c r="P131">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R131">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
         <v>1.825</v>
       </c>
       <c r="T131">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA131">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB131">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12625,7 +12625,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6848371</v>
+        <v>6848370</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12637,13 +12637,13 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -12652,43 +12652,43 @@
         <v>45</v>
       </c>
       <c r="K137">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="L137">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M137">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N137">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P137">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R137">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S137">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T137">
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V137">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W137">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12697,16 +12697,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC137">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6848370</v>
+        <v>6845667</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,76 +12726,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>43</v>
+      </c>
+      <c r="K138">
+        <v>2.625</v>
+      </c>
+      <c r="L138">
+        <v>3.5</v>
+      </c>
+      <c r="M138">
+        <v>2.5</v>
+      </c>
+      <c r="N138">
+        <v>2.45</v>
+      </c>
+      <c r="O138">
+        <v>3.5</v>
+      </c>
+      <c r="P138">
+        <v>2.7</v>
+      </c>
+      <c r="Q138">
         <v>0</v>
       </c>
-      <c r="J138" t="s">
-        <v>45</v>
-      </c>
-      <c r="K138">
-        <v>1.2</v>
-      </c>
-      <c r="L138">
-        <v>6.5</v>
-      </c>
-      <c r="M138">
-        <v>13</v>
-      </c>
-      <c r="N138">
-        <v>1.3</v>
-      </c>
-      <c r="O138">
-        <v>5.25</v>
-      </c>
-      <c r="P138">
-        <v>8.5</v>
-      </c>
-      <c r="Q138">
-        <v>-1.5</v>
-      </c>
       <c r="R138">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S138">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB138">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6845667</v>
+        <v>6848371</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,76 +12904,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G140" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H140">
+        <v>1</v>
+      </c>
+      <c r="I140">
         <v>0</v>
       </c>
-      <c r="I140">
-        <v>1</v>
-      </c>
       <c r="J140" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K140">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="L140">
         <v>3.5</v>
       </c>
       <c r="M140">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="N140">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="O140">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R140">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S140">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T140">
         <v>2.75</v>
       </c>
       <c r="U140">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
         <v>-1</v>
       </c>
       <c r="AC140">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6848372</v>
+        <v>6845818</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45234.5</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K144">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="L144">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M144">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N144">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="O144">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P144">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q144">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R144">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S144">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U144">
         <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X144">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA144">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
+        <v>-1</v>
+      </c>
+      <c r="AC144">
         <v>0.925</v>
-      </c>
-      <c r="AC144">
-        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6845818</v>
+        <v>6848372</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45234.5</v>
       </c>
       <c r="F145" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G145" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I145">
+        <v>2</v>
+      </c>
+      <c r="J145" t="s">
+        <v>44</v>
+      </c>
+      <c r="K145">
+        <v>2.45</v>
+      </c>
+      <c r="L145">
+        <v>3.4</v>
+      </c>
+      <c r="M145">
+        <v>2.45</v>
+      </c>
+      <c r="N145">
+        <v>2.45</v>
+      </c>
+      <c r="O145">
+        <v>3.5</v>
+      </c>
+      <c r="P145">
+        <v>2.4</v>
+      </c>
+      <c r="Q145">
         <v>0</v>
       </c>
-      <c r="J145" t="s">
-        <v>45</v>
-      </c>
-      <c r="K145">
-        <v>2.7</v>
-      </c>
-      <c r="L145">
-        <v>3.5</v>
-      </c>
-      <c r="M145">
-        <v>2.2</v>
-      </c>
-      <c r="N145">
-        <v>3.6</v>
-      </c>
-      <c r="O145">
-        <v>3.75</v>
-      </c>
-      <c r="P145">
-        <v>1.8</v>
-      </c>
-      <c r="Q145">
-        <v>0.5</v>
-      </c>
       <c r="R145">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S145">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T145">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U145">
         <v>1.925</v>
       </c>
       <c r="V145">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W145">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X145">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA145">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB145">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC145">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -15117,7 +15117,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6848388</v>
+        <v>6848389</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15129,76 +15129,76 @@
         <v>45276.5</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G165" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K165">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L165">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M165">
+        <v>6</v>
+      </c>
+      <c r="N165">
+        <v>1.181</v>
+      </c>
+      <c r="O165">
+        <v>6</v>
+      </c>
+      <c r="P165">
+        <v>12</v>
+      </c>
+      <c r="Q165">
+        <v>-2</v>
+      </c>
+      <c r="R165">
+        <v>1.9</v>
+      </c>
+      <c r="S165">
+        <v>1.95</v>
+      </c>
+      <c r="T165">
         <v>3.25</v>
       </c>
-      <c r="N165">
-        <v>2.3</v>
-      </c>
-      <c r="O165">
-        <v>3.4</v>
-      </c>
-      <c r="P165">
-        <v>2.875</v>
-      </c>
-      <c r="Q165">
-        <v>-0.25</v>
-      </c>
-      <c r="R165">
-        <v>2</v>
-      </c>
-      <c r="S165">
-        <v>1.8</v>
-      </c>
-      <c r="T165">
-        <v>2.75</v>
-      </c>
       <c r="U165">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V165">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA165">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC165">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15384,7 +15384,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6848389</v>
+        <v>6848388</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15396,76 +15396,76 @@
         <v>45276.5</v>
       </c>
       <c r="F168" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G168" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H168">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I168">
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K168">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L168">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M168">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="N168">
-        <v>1.181</v>
+        <v>2.3</v>
       </c>
       <c r="O168">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>12</v>
+        <v>2.875</v>
       </c>
       <c r="Q168">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R168">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S168">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T168">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U168">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V168">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W168">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z168">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA168">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB168">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC168">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -17431,7 +17431,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6845676</v>
+        <v>6845808</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17443,76 +17443,76 @@
         <v>45318.5</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G191" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K191">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M191">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="N191">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="O191">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P191">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q191">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R191">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S191">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T191">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U191">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V191">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W191">
         <v>-1</v>
       </c>
       <c r="X191">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y191">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z191">
         <v>-1</v>
       </c>
       <c r="AA191">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17520,7 +17520,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6845808</v>
+        <v>6845676</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17532,76 +17532,76 @@
         <v>45318.5</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K192">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="L192">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M192">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="N192">
-        <v>1.333</v>
+        <v>1.7</v>
       </c>
       <c r="O192">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P192">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q192">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R192">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S192">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T192">
+        <v>2.75</v>
+      </c>
+      <c r="U192">
+        <v>2</v>
+      </c>
+      <c r="V192">
+        <v>1.8</v>
+      </c>
+      <c r="W192">
+        <v>-1</v>
+      </c>
+      <c r="X192">
+        <v>-1</v>
+      </c>
+      <c r="Y192">
         <v>3</v>
       </c>
-      <c r="U192">
-        <v>1.95</v>
-      </c>
-      <c r="V192">
-        <v>1.85</v>
-      </c>
-      <c r="W192">
-        <v>-1</v>
-      </c>
-      <c r="X192">
-        <v>3.5</v>
-      </c>
-      <c r="Y192">
-        <v>-1</v>
-      </c>
       <c r="Z192">
         <v>-1</v>
       </c>
       <c r="AA192">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17609,7 +17609,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>6845677</v>
+        <v>6845807</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17621,49 +17621,49 @@
         <v>45325.5</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G193" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
         <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K193">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="L193">
+        <v>4.1</v>
+      </c>
+      <c r="M193">
+        <v>1.5</v>
+      </c>
+      <c r="N193">
+        <v>5.25</v>
+      </c>
+      <c r="O193">
         <v>4</v>
       </c>
-      <c r="M193">
-        <v>1.8</v>
-      </c>
-      <c r="N193">
-        <v>2.625</v>
-      </c>
-      <c r="O193">
-        <v>3.6</v>
-      </c>
       <c r="P193">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="Q193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R193">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S193">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
         <v>1.85</v>
@@ -17675,22 +17675,22 @@
         <v>-1</v>
       </c>
       <c r="X193">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z193">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB193">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC193">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17698,7 +17698,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6848408</v>
+        <v>6845677</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17710,76 +17710,76 @@
         <v>45325.5</v>
       </c>
       <c r="F194" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G194" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H194">
+        <v>2</v>
+      </c>
+      <c r="I194">
+        <v>2</v>
+      </c>
+      <c r="J194" t="s">
+        <v>44</v>
+      </c>
+      <c r="K194">
+        <v>3.5</v>
+      </c>
+      <c r="L194">
+        <v>4</v>
+      </c>
+      <c r="M194">
+        <v>1.8</v>
+      </c>
+      <c r="N194">
+        <v>2.625</v>
+      </c>
+      <c r="O194">
+        <v>3.6</v>
+      </c>
+      <c r="P194">
+        <v>2.3</v>
+      </c>
+      <c r="Q194">
         <v>0</v>
       </c>
-      <c r="I194">
-        <v>3</v>
-      </c>
-      <c r="J194" t="s">
-        <v>43</v>
-      </c>
-      <c r="K194">
-        <v>9</v>
-      </c>
-      <c r="L194">
-        <v>6</v>
-      </c>
-      <c r="M194">
-        <v>1.222</v>
-      </c>
-      <c r="N194">
-        <v>7</v>
-      </c>
-      <c r="O194">
-        <v>6.5</v>
-      </c>
-      <c r="P194">
-        <v>1.25</v>
-      </c>
-      <c r="Q194">
-        <v>1.75</v>
-      </c>
       <c r="R194">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S194">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T194">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V194">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W194">
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y194">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA194">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB194">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC194">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="195" spans="1:29">
@@ -17787,7 +17787,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6848407</v>
+        <v>6848408</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17799,13 +17799,13 @@
         <v>45325.5</v>
       </c>
       <c r="F195" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G195" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195">
         <v>3</v>
@@ -17814,40 +17814,40 @@
         <v>43</v>
       </c>
       <c r="K195">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="L195">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M195">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="N195">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="O195">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P195">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q195">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R195">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S195">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T195">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U195">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V195">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W195">
         <v>-1</v>
@@ -17856,19 +17856,19 @@
         <v>-1</v>
       </c>
       <c r="Y195">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Z195">
         <v>-1</v>
       </c>
       <c r="AA195">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB195">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC195">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="196" spans="1:29">
@@ -17876,7 +17876,7 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>6845807</v>
+        <v>6848407</v>
       </c>
       <c r="C196" t="s">
         <v>28</v>
@@ -17888,55 +17888,55 @@
         <v>45325.5</v>
       </c>
       <c r="F196" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G196" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J196" t="s">
         <v>43</v>
       </c>
       <c r="K196">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="L196">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="M196">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N196">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="O196">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P196">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q196">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R196">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S196">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T196">
         <v>2.75</v>
       </c>
       <c r="U196">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V196">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W196">
         <v>-1</v>
@@ -17945,19 +17945,19 @@
         <v>-1</v>
       </c>
       <c r="Y196">
-        <v>0.55</v>
+        <v>1.25</v>
       </c>
       <c r="Z196">
         <v>-1</v>
       </c>
       <c r="AA196">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB196">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB196">
-        <v>-1</v>
-      </c>
       <c r="AC196">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="197" spans="1:29">
@@ -18410,7 +18410,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7572536</v>
+        <v>7705415</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18422,58 +18422,58 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G202" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J202" t="s">
         <v>45</v>
       </c>
       <c r="K202">
-        <v>1.727</v>
+        <v>1.125</v>
       </c>
       <c r="L202">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="M202">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N202">
-        <v>1.909</v>
+        <v>1.125</v>
       </c>
       <c r="O202">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="P202">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="Q202">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R202">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S202">
         <v>1.875</v>
       </c>
       <c r="T202">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U202">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V202">
         <v>1.825</v>
       </c>
       <c r="W202">
-        <v>0.909</v>
+        <v>0.125</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18482,16 +18482,16 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB202">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC202">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18499,7 +18499,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7705415</v>
+        <v>7572536</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18511,58 +18511,58 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F203" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G203" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
         <v>45</v>
       </c>
       <c r="K203">
-        <v>1.125</v>
+        <v>1.727</v>
       </c>
       <c r="L203">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="M203">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N203">
-        <v>1.125</v>
+        <v>1.909</v>
       </c>
       <c r="O203">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="P203">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="Q203">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S203">
         <v>1.875</v>
       </c>
       <c r="T203">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U203">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V203">
         <v>1.825</v>
       </c>
       <c r="W203">
-        <v>0.125</v>
+        <v>0.909</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18571,16 +18571,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA203">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -18615,7 +18615,7 @@
         <v>2.6</v>
       </c>
       <c r="N204">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O204">
         <v>3.6</v>
@@ -18636,10 +18636,10 @@
         <v>2.75</v>
       </c>
       <c r="U204">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V204">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W204">
         <v>0</v>
@@ -18689,31 +18689,31 @@
         <v>3.4</v>
       </c>
       <c r="N205">
-        <v>1.727</v>
+        <v>1.666</v>
       </c>
       <c r="O205">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P205">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="Q205">
         <v>-0.75</v>
       </c>
       <c r="R205">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S205">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T205">
         <v>2.5</v>
       </c>
       <c r="U205">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V205">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W205">
         <v>0</v>
@@ -18775,10 +18775,10 @@
         <v>0</v>
       </c>
       <c r="R206">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S206">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T206">
         <v>2.75</v>
@@ -18802,154 +18802,6 @@
         <v>0</v>
       </c>
       <c r="AA206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:29">
-      <c r="A207" s="1">
-        <v>205</v>
-      </c>
-      <c r="B207">
-        <v>6848414</v>
-      </c>
-      <c r="C207" t="s">
-        <v>28</v>
-      </c>
-      <c r="D207" t="s">
-        <v>28</v>
-      </c>
-      <c r="E207" s="2">
-        <v>45339.5</v>
-      </c>
-      <c r="F207" t="s">
-        <v>33</v>
-      </c>
-      <c r="G207" t="s">
-        <v>32</v>
-      </c>
-      <c r="K207">
-        <v>10</v>
-      </c>
-      <c r="L207">
-        <v>7.5</v>
-      </c>
-      <c r="M207">
-        <v>1.166</v>
-      </c>
-      <c r="N207">
-        <v>10</v>
-      </c>
-      <c r="O207">
-        <v>6.5</v>
-      </c>
-      <c r="P207">
-        <v>1.181</v>
-      </c>
-      <c r="Q207">
-        <v>2</v>
-      </c>
-      <c r="R207">
-        <v>1.9</v>
-      </c>
-      <c r="S207">
-        <v>1.95</v>
-      </c>
-      <c r="T207">
-        <v>3.25</v>
-      </c>
-      <c r="U207">
-        <v>1.9</v>
-      </c>
-      <c r="V207">
-        <v>1.95</v>
-      </c>
-      <c r="W207">
-        <v>0</v>
-      </c>
-      <c r="X207">
-        <v>0</v>
-      </c>
-      <c r="Y207">
-        <v>0</v>
-      </c>
-      <c r="Z207">
-        <v>0</v>
-      </c>
-      <c r="AA207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:29">
-      <c r="A208" s="1">
-        <v>206</v>
-      </c>
-      <c r="B208">
-        <v>6848415</v>
-      </c>
-      <c r="C208" t="s">
-        <v>28</v>
-      </c>
-      <c r="D208" t="s">
-        <v>28</v>
-      </c>
-      <c r="E208" s="2">
-        <v>45339.5</v>
-      </c>
-      <c r="F208" t="s">
-        <v>36</v>
-      </c>
-      <c r="G208" t="s">
-        <v>35</v>
-      </c>
-      <c r="K208">
-        <v>2.1</v>
-      </c>
-      <c r="L208">
-        <v>3.6</v>
-      </c>
-      <c r="M208">
-        <v>2.9</v>
-      </c>
-      <c r="N208">
-        <v>2.1</v>
-      </c>
-      <c r="O208">
-        <v>3.5</v>
-      </c>
-      <c r="P208">
-        <v>2.9</v>
-      </c>
-      <c r="Q208">
-        <v>-0.25</v>
-      </c>
-      <c r="R208">
-        <v>1.925</v>
-      </c>
-      <c r="S208">
-        <v>1.925</v>
-      </c>
-      <c r="T208">
-        <v>2.75</v>
-      </c>
-      <c r="U208">
-        <v>1.975</v>
-      </c>
-      <c r="V208">
-        <v>1.875</v>
-      </c>
-      <c r="W208">
-        <v>0</v>
-      </c>
-      <c r="X208">
-        <v>0</v>
-      </c>
-      <c r="Y208">
-        <v>0</v>
-      </c>
-      <c r="Z208">
-        <v>0</v>
-      </c>
-      <c r="AA208">
         <v>0</v>
       </c>
     </row>

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -513,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC206"/>
+  <dimension ref="A1:AC209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1055,7 +1055,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5169483</v>
+        <v>5169482</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,73 +1067,73 @@
         <v>44933.5</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
-        <v>1.8</v>
+        <v>3.25</v>
       </c>
       <c r="N7">
-        <v>5.25</v>
+        <v>1.7</v>
       </c>
       <c r="O7">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="P7">
-        <v>1.571</v>
+        <v>4.333</v>
       </c>
       <c r="Q7">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R7">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S7">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA7">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB7">
-        <v>0.5</v>
+        <v>0.425</v>
       </c>
       <c r="AC7">
         <v>-0.5</v>
@@ -1144,7 +1144,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5169482</v>
+        <v>5169483</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1156,73 +1156,73 @@
         <v>44933.5</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>3.5</v>
+      </c>
+      <c r="M8">
+        <v>1.8</v>
+      </c>
+      <c r="N8">
+        <v>5.25</v>
+      </c>
+      <c r="O8">
+        <v>3.8</v>
+      </c>
+      <c r="P8">
+        <v>1.571</v>
+      </c>
+      <c r="Q8">
         <v>1</v>
       </c>
-      <c r="J8" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8">
-        <v>2.05</v>
-      </c>
-      <c r="L8">
-        <v>3.3</v>
-      </c>
-      <c r="M8">
-        <v>3.25</v>
-      </c>
-      <c r="N8">
-        <v>1.7</v>
-      </c>
-      <c r="O8">
-        <v>3.75</v>
-      </c>
-      <c r="P8">
-        <v>4.333</v>
-      </c>
-      <c r="Q8">
-        <v>-0.75</v>
-      </c>
       <c r="R8">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S8">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V8">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W8">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X8">
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Z8">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AB8">
-        <v>0.425</v>
+        <v>0.5</v>
       </c>
       <c r="AC8">
         <v>-0.5</v>
@@ -1767,7 +1767,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5169487</v>
+        <v>5169486</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1779,76 +1779,76 @@
         <v>44954.5</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K15">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="L15">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M15">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="N15">
-        <v>4.75</v>
+        <v>1.909</v>
       </c>
       <c r="O15">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P15">
-        <v>1.65</v>
+        <v>3.3</v>
       </c>
       <c r="Q15">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T15">
         <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA15">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5169711</v>
+        <v>5169487</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,76 +1868,76 @@
         <v>44954.5</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="N16">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
+        <v>1.975</v>
+      </c>
+      <c r="V16">
         <v>1.825</v>
       </c>
-      <c r="V16">
-        <v>1.975</v>
-      </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC16">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -1945,7 +1945,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5170191</v>
+        <v>5169711</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1957,76 +1957,76 @@
         <v>44954.5</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17">
+        <v>4.8</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>1.55</v>
+      </c>
+      <c r="N17">
+        <v>5.75</v>
+      </c>
+      <c r="O17">
+        <v>4</v>
+      </c>
+      <c r="P17">
+        <v>1.5</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>1.8</v>
+      </c>
+      <c r="T17">
+        <v>2.5</v>
+      </c>
+      <c r="U17">
+        <v>1.825</v>
+      </c>
+      <c r="V17">
+        <v>1.975</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
         <v>3</v>
       </c>
-      <c r="J17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17">
-        <v>4.2</v>
-      </c>
-      <c r="L17">
-        <v>3.6</v>
-      </c>
-      <c r="M17">
-        <v>1.7</v>
-      </c>
-      <c r="N17">
-        <v>4.333</v>
-      </c>
-      <c r="O17">
-        <v>3.75</v>
-      </c>
-      <c r="P17">
-        <v>1.666</v>
-      </c>
-      <c r="Q17">
-        <v>0.75</v>
-      </c>
-      <c r="R17">
-        <v>1.95</v>
-      </c>
-      <c r="S17">
-        <v>1.85</v>
-      </c>
-      <c r="T17">
-        <v>2.75</v>
-      </c>
-      <c r="U17">
-        <v>1.925</v>
-      </c>
-      <c r="V17">
-        <v>1.875</v>
-      </c>
-      <c r="W17">
-        <v>-1</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
       <c r="Y17">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA17">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2034,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5170192</v>
+        <v>5170191</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2046,70 +2046,70 @@
         <v>44954.5</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18">
+        <v>4.2</v>
+      </c>
+      <c r="L18">
+        <v>3.6</v>
+      </c>
+      <c r="M18">
+        <v>1.7</v>
+      </c>
+      <c r="N18">
+        <v>4.333</v>
+      </c>
+      <c r="O18">
+        <v>3.75</v>
+      </c>
+      <c r="P18">
+        <v>1.666</v>
+      </c>
+      <c r="Q18">
+        <v>0.75</v>
+      </c>
+      <c r="R18">
+        <v>1.95</v>
+      </c>
+      <c r="S18">
         <v>1.85</v>
       </c>
-      <c r="L18">
-        <v>3.5</v>
-      </c>
-      <c r="M18">
-        <v>3.6</v>
-      </c>
-      <c r="N18">
-        <v>2.3</v>
-      </c>
-      <c r="O18">
-        <v>3.3</v>
-      </c>
-      <c r="P18">
-        <v>2.7</v>
-      </c>
-      <c r="Q18">
-        <v>-0.25</v>
-      </c>
-      <c r="R18">
-        <v>2.1</v>
-      </c>
-      <c r="S18">
-        <v>1.775</v>
-      </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
         <v>1.925</v>
       </c>
       <c r="V18">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.3875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB18">
         <v>0.925</v>
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5169486</v>
+        <v>5170192</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,73 +2135,73 @@
         <v>44954.5</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="L19">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N19">
-        <v>1.909</v>
+        <v>2.3</v>
       </c>
       <c r="O19">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P19">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q19">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S19">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V19">
         <v>1.925</v>
       </c>
       <c r="W19">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y19">
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB19">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC19">
         <v>-1</v>
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5169488</v>
+        <v>5169489</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2224,10 +2224,10 @@
         <v>44961.5</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2251,28 +2251,28 @@
         <v>1.4</v>
       </c>
       <c r="O20">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="P20">
-        <v>5.25</v>
+        <v>7</v>
       </c>
       <c r="Q20">
         <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="V20">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W20">
         <v>0.3999999999999999</v>
@@ -2287,13 +2287,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>0.4875</v>
+        <v>0.45</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2301,7 +2301,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5169489</v>
+        <v>5169488</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2313,10 +2313,10 @@
         <v>44961.5</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2340,28 +2340,28 @@
         <v>1.4</v>
       </c>
       <c r="O21">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P21">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="Q21">
         <v>-1.25</v>
       </c>
       <c r="R21">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S21">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U21">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="V21">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W21">
         <v>0.3999999999999999</v>
@@ -2376,13 +2376,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA21">
-        <v>0.45</v>
+        <v>0.4875</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -3814,7 +3814,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>5279592</v>
+        <v>5279593</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3826,13 +3826,13 @@
         <v>44989.5</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3841,43 +3841,43 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>1.615</v>
+        <v>1.333</v>
       </c>
       <c r="L38">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="M38">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="N38">
-        <v>1.571</v>
+        <v>1.166</v>
       </c>
       <c r="O38">
-        <v>3.8</v>
+        <v>6.5</v>
       </c>
       <c r="P38">
-        <v>4.75</v>
+        <v>13</v>
       </c>
       <c r="Q38">
-        <v>-0.75</v>
+        <v>-2</v>
       </c>
       <c r="R38">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
+        <v>1.925</v>
+      </c>
+      <c r="T38">
+        <v>3.25</v>
+      </c>
+      <c r="U38">
         <v>2.025</v>
       </c>
-      <c r="T38">
-        <v>2.5</v>
-      </c>
-      <c r="U38">
-        <v>1.95</v>
-      </c>
       <c r="V38">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W38">
-        <v>0.571</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X38">
         <v>-1</v>
@@ -3886,16 +3886,16 @@
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0.7749999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3903,7 +3903,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>5279593</v>
+        <v>5279594</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3915,13 +3915,13 @@
         <v>44989.5</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3930,43 +3930,43 @@
         <v>45</v>
       </c>
       <c r="K39">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="L39">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="M39">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N39">
-        <v>1.166</v>
+        <v>1.444</v>
       </c>
       <c r="O39">
-        <v>6.5</v>
+        <v>4.333</v>
       </c>
       <c r="P39">
-        <v>13</v>
+        <v>5.25</v>
       </c>
       <c r="Q39">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S39">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="T39">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
-        <v>2.025</v>
+        <v>1.7</v>
       </c>
       <c r="V39">
-        <v>1.825</v>
+        <v>2.2</v>
       </c>
       <c r="W39">
-        <v>0.1659999999999999</v>
+        <v>0.444</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3975,16 +3975,16 @@
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0.925</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA39">
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3992,7 +3992,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>5279594</v>
+        <v>5279592</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -4004,10 +4004,10 @@
         <v>44989.5</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>2</v>
@@ -4019,43 +4019,43 @@
         <v>45</v>
       </c>
       <c r="K40">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="L40">
+        <v>3.9</v>
+      </c>
+      <c r="M40">
+        <v>4.2</v>
+      </c>
+      <c r="N40">
+        <v>1.571</v>
+      </c>
+      <c r="O40">
         <v>3.8</v>
       </c>
-      <c r="M40">
-        <v>4</v>
-      </c>
-      <c r="N40">
-        <v>1.444</v>
-      </c>
-      <c r="O40">
-        <v>4.333</v>
-      </c>
       <c r="P40">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q40">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R40">
         <v>1.775</v>
       </c>
       <c r="S40">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="V40">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="W40">
-        <v>0.444</v>
+        <v>0.571</v>
       </c>
       <c r="X40">
         <v>-1</v>
@@ -4073,7 +4073,7 @@
         <v>-1</v>
       </c>
       <c r="AC40">
-        <v>1.2</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5334685</v>
+        <v>5319761</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4627,40 +4627,40 @@
         <v>45003.5</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K47">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="L47">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M47">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N47">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="O47">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P47">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R47">
         <v>1.85</v>
@@ -4669,22 +4669,22 @@
         <v>1.95</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V47">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y47">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z47">
         <v>-1</v>
@@ -4693,10 +4693,10 @@
         <v>0.95</v>
       </c>
       <c r="AB47">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4704,7 +4704,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5319761</v>
+        <v>5319760</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4716,43 +4716,43 @@
         <v>45003.5</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K48">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L48">
         <v>4</v>
       </c>
       <c r="M48">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N48">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O48">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P48">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q48">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R48">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S48">
         <v>1.95</v>
@@ -4761,31 +4761,31 @@
         <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V48">
         <v>1.95</v>
       </c>
       <c r="W48">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X48">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA48">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC48">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4793,7 +4793,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>5319760</v>
+        <v>5319759</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4805,58 +4805,58 @@
         <v>45003.5</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>45</v>
       </c>
       <c r="K49">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N49">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="O49">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P49">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q49">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R49">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S49">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T49">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U49">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V49">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="X49">
         <v>-1</v>
@@ -4865,13 +4865,13 @@
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4882,7 +4882,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>5319759</v>
+        <v>5334685</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4894,49 +4894,49 @@
         <v>45003.5</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H50">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="L50">
-        <v>4.6</v>
+        <v>3.6</v>
       </c>
       <c r="M50">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N50">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="O50">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P50">
-        <v>12</v>
+        <v>2.1</v>
       </c>
       <c r="Q50">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R50">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S50">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
         <v>1.875</v>
@@ -4945,19 +4945,19 @@
         <v>1.925</v>
       </c>
       <c r="W50">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z50">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB50">
         <v>0.875</v>
@@ -5950,7 +5950,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>5423459</v>
+        <v>5423469</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5962,76 +5962,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K62">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="L62">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M62">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="N62">
-        <v>2.25</v>
+        <v>4.5</v>
       </c>
       <c r="O62">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P62">
-        <v>2.875</v>
+        <v>1.666</v>
       </c>
       <c r="Q62">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R62">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S62">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T62">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="X62">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA62">
-        <v>0.375</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6039,7 +6039,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>5423460</v>
+        <v>5423459</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6051,76 +6051,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
         <v>44</v>
       </c>
       <c r="K63">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M63">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N63">
+        <v>2.25</v>
+      </c>
+      <c r="O63">
+        <v>3.2</v>
+      </c>
+      <c r="P63">
+        <v>2.875</v>
+      </c>
+      <c r="Q63">
+        <v>-0.25</v>
+      </c>
+      <c r="R63">
+        <v>2.05</v>
+      </c>
+      <c r="S63">
         <v>1.75</v>
       </c>
-      <c r="O63">
-        <v>3.6</v>
-      </c>
-      <c r="P63">
-        <v>3.75</v>
-      </c>
-      <c r="Q63">
+      <c r="T63">
+        <v>2.25</v>
+      </c>
+      <c r="U63">
+        <v>1.925</v>
+      </c>
+      <c r="V63">
+        <v>1.875</v>
+      </c>
+      <c r="W63">
+        <v>-1</v>
+      </c>
+      <c r="X63">
+        <v>2.2</v>
+      </c>
+      <c r="Y63">
+        <v>-1</v>
+      </c>
+      <c r="Z63">
         <v>-0.5</v>
       </c>
-      <c r="R63">
-        <v>1.8</v>
-      </c>
-      <c r="S63">
-        <v>2</v>
-      </c>
-      <c r="T63">
-        <v>2.75</v>
-      </c>
-      <c r="U63">
-        <v>2</v>
-      </c>
-      <c r="V63">
-        <v>1.8</v>
-      </c>
-      <c r="W63">
-        <v>-1</v>
-      </c>
-      <c r="X63">
-        <v>2.6</v>
-      </c>
-      <c r="Y63">
-        <v>-1</v>
-      </c>
-      <c r="Z63">
-        <v>-1</v>
-      </c>
       <c r="AA63">
-        <v>1</v>
+        <v>0.375</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC63">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5423468</v>
+        <v>5423460</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,76 +6140,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>44</v>
+      </c>
+      <c r="K64">
+        <v>1.8</v>
+      </c>
+      <c r="L64">
+        <v>3.6</v>
+      </c>
+      <c r="M64">
+        <v>3.6</v>
+      </c>
+      <c r="N64">
+        <v>1.75</v>
+      </c>
+      <c r="O64">
+        <v>3.6</v>
+      </c>
+      <c r="P64">
+        <v>3.75</v>
+      </c>
+      <c r="Q64">
+        <v>-0.5</v>
+      </c>
+      <c r="R64">
+        <v>1.8</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
+        <v>2</v>
+      </c>
+      <c r="V64">
+        <v>1.8</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>2.6</v>
+      </c>
+      <c r="Y64">
+        <v>-1</v>
+      </c>
+      <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
         <v>1</v>
       </c>
-      <c r="I64">
-        <v>2</v>
-      </c>
-      <c r="J64" t="s">
-        <v>43</v>
-      </c>
-      <c r="K64">
-        <v>2.15</v>
-      </c>
-      <c r="L64">
-        <v>3.4</v>
-      </c>
-      <c r="M64">
-        <v>2.8</v>
-      </c>
-      <c r="N64">
-        <v>2.45</v>
-      </c>
-      <c r="O64">
-        <v>3.4</v>
-      </c>
-      <c r="P64">
-        <v>2.45</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>1.9</v>
-      </c>
-      <c r="S64">
-        <v>1.9</v>
-      </c>
-      <c r="T64">
-        <v>2.5</v>
-      </c>
-      <c r="U64">
-        <v>1.85</v>
-      </c>
-      <c r="V64">
-        <v>1.95</v>
-      </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>1.45</v>
-      </c>
-      <c r="Z64">
-        <v>-1</v>
-      </c>
-      <c r="AA64">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6217,7 +6217,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>5423469</v>
+        <v>5423468</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6229,76 +6229,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65">
         <v>1</v>
       </c>
       <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65" t="s">
+        <v>43</v>
+      </c>
+      <c r="K65">
+        <v>2.15</v>
+      </c>
+      <c r="L65">
+        <v>3.4</v>
+      </c>
+      <c r="M65">
+        <v>2.8</v>
+      </c>
+      <c r="N65">
+        <v>2.45</v>
+      </c>
+      <c r="O65">
+        <v>3.4</v>
+      </c>
+      <c r="P65">
+        <v>2.45</v>
+      </c>
+      <c r="Q65">
         <v>0</v>
       </c>
-      <c r="J65" t="s">
-        <v>45</v>
-      </c>
-      <c r="K65">
-        <v>4.2</v>
-      </c>
-      <c r="L65">
-        <v>3.75</v>
-      </c>
-      <c r="M65">
-        <v>1.65</v>
-      </c>
-      <c r="N65">
-        <v>4.5</v>
-      </c>
-      <c r="O65">
-        <v>3.6</v>
-      </c>
-      <c r="P65">
-        <v>1.666</v>
-      </c>
-      <c r="Q65">
-        <v>0.75</v>
-      </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S65">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
         <v>2.5</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V65">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="X65">
         <v>-1</v>
       </c>
       <c r="Y65">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC65">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6306,7 +6306,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6474708</v>
+        <v>6474707</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6318,13 +6318,13 @@
         <v>45027.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>2</v>
@@ -6333,40 +6333,40 @@
         <v>43</v>
       </c>
       <c r="K66">
-        <v>8</v>
+        <v>2.75</v>
       </c>
       <c r="L66">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M66">
-        <v>1.285</v>
+        <v>2.25</v>
       </c>
       <c r="N66">
-        <v>11</v>
+        <v>3.25</v>
       </c>
       <c r="O66">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="P66">
-        <v>1.181</v>
+        <v>1.95</v>
       </c>
       <c r="Q66">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R66">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S66">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W66">
         <v>-1</v>
@@ -6375,19 +6375,19 @@
         <v>-1</v>
       </c>
       <c r="Y66">
-        <v>0.181</v>
+        <v>0.95</v>
       </c>
       <c r="Z66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA66">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC66">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6395,7 +6395,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6474707</v>
+        <v>6474708</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6407,13 +6407,13 @@
         <v>45027.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>2</v>
@@ -6422,40 +6422,40 @@
         <v>43</v>
       </c>
       <c r="K67">
+        <v>8</v>
+      </c>
+      <c r="L67">
+        <v>5.25</v>
+      </c>
+      <c r="M67">
+        <v>1.285</v>
+      </c>
+      <c r="N67">
+        <v>11</v>
+      </c>
+      <c r="O67">
+        <v>6</v>
+      </c>
+      <c r="P67">
+        <v>1.181</v>
+      </c>
+      <c r="Q67">
+        <v>1.75</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
+        <v>1.8</v>
+      </c>
+      <c r="T67">
         <v>2.75</v>
       </c>
-      <c r="L67">
-        <v>3.5</v>
-      </c>
-      <c r="M67">
-        <v>2.25</v>
-      </c>
-      <c r="N67">
-        <v>3.25</v>
-      </c>
-      <c r="O67">
-        <v>3.6</v>
-      </c>
-      <c r="P67">
-        <v>1.95</v>
-      </c>
-      <c r="Q67">
-        <v>0.5</v>
-      </c>
-      <c r="R67">
+      <c r="U67">
         <v>1.8</v>
       </c>
-      <c r="S67">
-        <v>2</v>
-      </c>
-      <c r="T67">
-        <v>2.5</v>
-      </c>
-      <c r="U67">
-        <v>1.925</v>
-      </c>
       <c r="V67">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W67">
         <v>-1</v>
@@ -6464,19 +6464,19 @@
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>0.95</v>
+        <v>0.181</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
+        <v>0.4</v>
+      </c>
+      <c r="AB67">
+        <v>-1</v>
+      </c>
+      <c r="AC67">
         <v>1</v>
-      </c>
-      <c r="AB67">
-        <v>0.925</v>
-      </c>
-      <c r="AC67">
-        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6751,7 +6751,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>5466903</v>
+        <v>5465543</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6763,10 +6763,10 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H71">
         <v>2</v>
@@ -6778,43 +6778,43 @@
         <v>45</v>
       </c>
       <c r="K71">
-        <v>3.25</v>
+        <v>1.363</v>
       </c>
       <c r="L71">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M71">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="O71">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P71">
-        <v>2.2</v>
+        <v>8.5</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R71">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S71">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U71">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V71">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W71">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6823,16 +6823,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB71">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6840,7 +6840,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>5465543</v>
+        <v>5466903</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6852,10 +6852,10 @@
         <v>45031.45833333334</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H72">
         <v>2</v>
@@ -6867,43 +6867,43 @@
         <v>45</v>
       </c>
       <c r="K72">
-        <v>1.363</v>
+        <v>3.25</v>
       </c>
       <c r="L72">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M72">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="O72">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P72">
-        <v>8.5</v>
+        <v>2.2</v>
       </c>
       <c r="Q72">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S72">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V72">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W72">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6912,16 +6912,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA72">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>0.4</v>
+        <v>0.825</v>
       </c>
       <c r="AC72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -9154,7 +9154,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6845659</v>
+        <v>6845827</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9166,10 +9166,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F98" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -9181,34 +9181,34 @@
         <v>43</v>
       </c>
       <c r="K98">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L98">
         <v>3.6</v>
       </c>
       <c r="M98">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N98">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P98">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="Q98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R98">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S98">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U98">
         <v>1.975</v>
@@ -9223,19 +9223,19 @@
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>1.45</v>
+        <v>0.571</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB98">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC98">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9421,7 +9421,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>6845827</v>
+        <v>6845659</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9433,10 +9433,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9448,34 +9448,34 @@
         <v>43</v>
       </c>
       <c r="K101">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="L101">
         <v>3.6</v>
       </c>
       <c r="M101">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="N101">
-        <v>4.75</v>
+        <v>2.55</v>
       </c>
       <c r="O101">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P101">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="Q101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T101">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U101">
         <v>1.975</v>
@@ -9490,19 +9490,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>0.571</v>
+        <v>1.45</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AC101">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9599,7 +9599,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6845660</v>
+        <v>6848350</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9611,76 +9611,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K103">
+        <v>1.75</v>
+      </c>
+      <c r="L103">
+        <v>3.6</v>
+      </c>
+      <c r="M103">
+        <v>3.8</v>
+      </c>
+      <c r="N103">
         <v>2.05</v>
       </c>
-      <c r="L103">
+      <c r="O103">
         <v>3.4</v>
       </c>
-      <c r="M103">
-        <v>3</v>
-      </c>
-      <c r="N103">
-        <v>2.2</v>
-      </c>
-      <c r="O103">
+      <c r="P103">
         <v>3.5</v>
-      </c>
-      <c r="P103">
-        <v>3.1</v>
       </c>
       <c r="Q103">
         <v>-0.25</v>
       </c>
       <c r="R103">
+        <v>1.8</v>
+      </c>
+      <c r="S103">
+        <v>2.05</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
         <v>1.975</v>
       </c>
-      <c r="S103">
+      <c r="V103">
         <v>1.875</v>
       </c>
-      <c r="T103">
-        <v>3</v>
-      </c>
-      <c r="U103">
-        <v>2.025</v>
-      </c>
-      <c r="V103">
-        <v>1.825</v>
-      </c>
       <c r="W103">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA103">
+        <v>-1</v>
+      </c>
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.875</v>
-      </c>
-      <c r="AB103">
-        <v>0</v>
-      </c>
-      <c r="AC103">
-        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9688,7 +9688,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6845826</v>
+        <v>6845660</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9700,76 +9700,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G104" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H104">
         <v>1</v>
       </c>
       <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104" t="s">
+        <v>43</v>
+      </c>
+      <c r="K104">
+        <v>2.05</v>
+      </c>
+      <c r="L104">
+        <v>3.4</v>
+      </c>
+      <c r="M104">
+        <v>3</v>
+      </c>
+      <c r="N104">
+        <v>2.2</v>
+      </c>
+      <c r="O104">
+        <v>3.5</v>
+      </c>
+      <c r="P104">
+        <v>3.1</v>
+      </c>
+      <c r="Q104">
+        <v>-0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.975</v>
+      </c>
+      <c r="S104">
+        <v>1.875</v>
+      </c>
+      <c r="T104">
+        <v>3</v>
+      </c>
+      <c r="U104">
+        <v>2.025</v>
+      </c>
+      <c r="V104">
+        <v>1.825</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>-1</v>
+      </c>
+      <c r="Y104">
+        <v>2.1</v>
+      </c>
+      <c r="Z104">
+        <v>-1</v>
+      </c>
+      <c r="AA104">
+        <v>0.875</v>
+      </c>
+      <c r="AB104">
         <v>0</v>
       </c>
-      <c r="J104" t="s">
-        <v>45</v>
-      </c>
-      <c r="K104">
-        <v>1.571</v>
-      </c>
-      <c r="L104">
-        <v>3.75</v>
-      </c>
-      <c r="M104">
-        <v>4.75</v>
-      </c>
-      <c r="N104">
-        <v>1.4</v>
-      </c>
-      <c r="O104">
-        <v>4.75</v>
-      </c>
-      <c r="P104">
-        <v>6.5</v>
-      </c>
-      <c r="Q104">
-        <v>-1.25</v>
-      </c>
-      <c r="R104">
-        <v>1.85</v>
-      </c>
-      <c r="S104">
-        <v>1.95</v>
-      </c>
-      <c r="T104">
-        <v>3.25</v>
-      </c>
-      <c r="U104">
-        <v>1.95</v>
-      </c>
-      <c r="V104">
-        <v>1.85</v>
-      </c>
-      <c r="W104">
-        <v>0.3999999999999999</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
-        <v>-0.5</v>
-      </c>
-      <c r="AA104">
-        <v>0.475</v>
-      </c>
-      <c r="AB104">
-        <v>-1</v>
-      </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9777,7 +9777,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6848349</v>
+        <v>6845826</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9789,58 +9789,58 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H105">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
         <v>45</v>
       </c>
       <c r="K105">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M105">
-        <v>2.9</v>
+        <v>4.75</v>
       </c>
       <c r="N105">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P105">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q105">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R105">
-        <v>1.775</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V105">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9849,16 +9849,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB105">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9866,7 +9866,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6848350</v>
+        <v>6848349</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9878,58 +9878,58 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
         <v>45</v>
       </c>
       <c r="K106">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="N106">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="O106">
+        <v>3.75</v>
+      </c>
+      <c r="P106">
         <v>3.4</v>
-      </c>
-      <c r="P106">
-        <v>3.5</v>
       </c>
       <c r="Q106">
         <v>-0.25</v>
       </c>
       <c r="R106">
+        <v>1.775</v>
+      </c>
+      <c r="S106">
+        <v>2.025</v>
+      </c>
+      <c r="T106">
+        <v>3</v>
+      </c>
+      <c r="U106">
+        <v>2</v>
+      </c>
+      <c r="V106">
         <v>1.8</v>
       </c>
-      <c r="S106">
-        <v>2.05</v>
-      </c>
-      <c r="T106">
-        <v>2.75</v>
-      </c>
-      <c r="U106">
-        <v>1.975</v>
-      </c>
-      <c r="V106">
-        <v>1.875</v>
-      </c>
       <c r="W106">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9938,16 +9938,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC106">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10489,7 +10489,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6845662</v>
+        <v>6848356</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10501,73 +10501,73 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I113">
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K113">
-        <v>2.1</v>
+        <v>1.909</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="N113">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="O113">
         <v>3.8</v>
       </c>
       <c r="P113">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="Q113">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R113">
+        <v>1.875</v>
+      </c>
+      <c r="S113">
         <v>1.925</v>
-      </c>
-      <c r="S113">
-        <v>1.875</v>
       </c>
       <c r="T113">
         <v>2.75</v>
       </c>
       <c r="U113">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V113">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X113">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA113">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC113">
         <v>-1</v>
@@ -10578,7 +10578,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6845824</v>
+        <v>6845662</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10590,40 +10590,40 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>2</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K114">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="L114">
+        <v>3.5</v>
+      </c>
+      <c r="M114">
+        <v>3</v>
+      </c>
+      <c r="N114">
+        <v>1.727</v>
+      </c>
+      <c r="O114">
+        <v>3.8</v>
+      </c>
+      <c r="P114">
         <v>4</v>
       </c>
-      <c r="M114">
-        <v>5.5</v>
-      </c>
-      <c r="N114">
-        <v>1.4</v>
-      </c>
-      <c r="O114">
-        <v>4.2</v>
-      </c>
-      <c r="P114">
-        <v>6.5</v>
-      </c>
       <c r="Q114">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R114">
         <v>1.925</v>
@@ -10635,31 +10635,31 @@
         <v>2.75</v>
       </c>
       <c r="U114">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V114">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W114">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AB114">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC114">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10667,7 +10667,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6848354</v>
+        <v>6845824</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10679,58 +10679,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="s">
         <v>45</v>
       </c>
       <c r="K115">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L115">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M115">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N115">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O115">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P115">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R115">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T115">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V115">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W115">
-        <v>1.7</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10739,16 +10739,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB115">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AC115">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6848356</v>
+        <v>6848354</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,58 +10857,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H117">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>45</v>
       </c>
       <c r="K117">
-        <v>1.909</v>
+        <v>2.5</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M117">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="N117">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="O117">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P117">
-        <v>5.75</v>
+        <v>2.4</v>
       </c>
       <c r="Q117">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R117">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S117">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U117">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V117">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W117">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10917,16 +10917,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA117">
         <v>-1</v>
       </c>
       <c r="AB117">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6848363</v>
+        <v>6845665</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,73 +12014,73 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="L130">
         <v>3.6</v>
       </c>
       <c r="M130">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N130">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O130">
         <v>4</v>
       </c>
       <c r="P130">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
         <v>1.825</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA130">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB130">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6845665</v>
+        <v>6848363</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,73 +12103,73 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="L131">
         <v>3.6</v>
       </c>
       <c r="M131">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N131">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="O131">
         <v>4</v>
       </c>
       <c r="P131">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S131">
         <v>1.825</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U131">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W131">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB131">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12625,7 +12625,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6848370</v>
+        <v>6848371</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12637,13 +12637,13 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -12652,43 +12652,43 @@
         <v>45</v>
       </c>
       <c r="K137">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="L137">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M137">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N137">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O137">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q137">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S137">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T137">
         <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W137">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X137">
         <v>-1</v>
@@ -12697,16 +12697,16 @@
         <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA137">
         <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC137">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12892,7 +12892,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6848371</v>
+        <v>6848370</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12904,13 +12904,13 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F140" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -12919,43 +12919,43 @@
         <v>45</v>
       </c>
       <c r="K140">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="L140">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M140">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="N140">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P140">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="Q140">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R140">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T140">
         <v>2.75</v>
       </c>
       <c r="U140">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V140">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W140">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12964,16 +12964,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA140">
         <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC140">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -13248,7 +13248,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6845818</v>
+        <v>6848372</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13260,76 +13260,76 @@
         <v>45234.5</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G144" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144" t="s">
+        <v>44</v>
+      </c>
+      <c r="K144">
+        <v>2.45</v>
+      </c>
+      <c r="L144">
+        <v>3.4</v>
+      </c>
+      <c r="M144">
+        <v>2.45</v>
+      </c>
+      <c r="N144">
+        <v>2.45</v>
+      </c>
+      <c r="O144">
+        <v>3.5</v>
+      </c>
+      <c r="P144">
+        <v>2.4</v>
+      </c>
+      <c r="Q144">
         <v>0</v>
       </c>
-      <c r="J144" t="s">
-        <v>45</v>
-      </c>
-      <c r="K144">
-        <v>2.7</v>
-      </c>
-      <c r="L144">
-        <v>3.5</v>
-      </c>
-      <c r="M144">
-        <v>2.2</v>
-      </c>
-      <c r="N144">
-        <v>3.6</v>
-      </c>
-      <c r="O144">
-        <v>3.75</v>
-      </c>
-      <c r="P144">
-        <v>1.8</v>
-      </c>
-      <c r="Q144">
-        <v>0.5</v>
-      </c>
       <c r="R144">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S144">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T144">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U144">
         <v>1.925</v>
       </c>
       <c r="V144">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W144">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y144">
         <v>-1</v>
       </c>
       <c r="Z144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB144">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC144">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13337,7 +13337,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>6848372</v>
+        <v>6845818</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -13349,76 +13349,76 @@
         <v>45234.5</v>
       </c>
       <c r="F145" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G145" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K145">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="L145">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M145">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="N145">
-        <v>2.45</v>
+        <v>3.6</v>
       </c>
       <c r="O145">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P145">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q145">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R145">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S145">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T145">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U145">
         <v>1.925</v>
       </c>
       <c r="V145">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W145">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X145">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y145">
         <v>-1</v>
       </c>
       <c r="Z145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA145">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB145">
+        <v>-1</v>
+      </c>
+      <c r="AC145">
         <v>0.925</v>
-      </c>
-      <c r="AC145">
-        <v>-1</v>
       </c>
     </row>
     <row r="146" spans="1:29">
@@ -15117,7 +15117,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>6848389</v>
+        <v>6848388</v>
       </c>
       <c r="C165" t="s">
         <v>28</v>
@@ -15129,76 +15129,76 @@
         <v>45276.5</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H165">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>1</v>
       </c>
       <c r="J165" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K165">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="L165">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M165">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="N165">
-        <v>1.181</v>
+        <v>2.3</v>
       </c>
       <c r="O165">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P165">
-        <v>12</v>
+        <v>2.875</v>
       </c>
       <c r="Q165">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R165">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S165">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T165">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U165">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V165">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W165">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Z165">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-0</v>
+        <v>0.8</v>
       </c>
       <c r="AB165">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="166" spans="1:29">
@@ -15384,7 +15384,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6848388</v>
+        <v>6848389</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15396,76 +15396,76 @@
         <v>45276.5</v>
       </c>
       <c r="F168" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I168">
         <v>1</v>
       </c>
       <c r="J168" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K168">
-        <v>2.1</v>
+        <v>1.333</v>
       </c>
       <c r="L168">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M168">
+        <v>6</v>
+      </c>
+      <c r="N168">
+        <v>1.181</v>
+      </c>
+      <c r="O168">
+        <v>6</v>
+      </c>
+      <c r="P168">
+        <v>12</v>
+      </c>
+      <c r="Q168">
+        <v>-2</v>
+      </c>
+      <c r="R168">
+        <v>1.9</v>
+      </c>
+      <c r="S168">
+        <v>1.95</v>
+      </c>
+      <c r="T168">
         <v>3.25</v>
       </c>
-      <c r="N168">
-        <v>2.3</v>
-      </c>
-      <c r="O168">
-        <v>3.4</v>
-      </c>
-      <c r="P168">
-        <v>2.875</v>
-      </c>
-      <c r="Q168">
-        <v>-0.25</v>
-      </c>
-      <c r="R168">
-        <v>2</v>
-      </c>
-      <c r="S168">
-        <v>1.8</v>
-      </c>
-      <c r="T168">
-        <v>2.75</v>
-      </c>
       <c r="U168">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V168">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W168">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA168">
-        <v>0.8</v>
+        <v>-0</v>
       </c>
       <c r="AB168">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC168">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="169" spans="1:29">
@@ -15918,7 +15918,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>6848396</v>
+        <v>6848394</v>
       </c>
       <c r="C174" t="s">
         <v>28</v>
@@ -15930,58 +15930,58 @@
         <v>45290.5</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G174" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J174" t="s">
         <v>45</v>
       </c>
       <c r="K174">
-        <v>1.833</v>
+        <v>1.285</v>
       </c>
       <c r="L174">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M174">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N174">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O174">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P174">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="Q174">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R174">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S174">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T174">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U174">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V174">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W174">
-        <v>0.833</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X174">
         <v>-1</v>
@@ -15990,16 +15990,16 @@
         <v>-1</v>
       </c>
       <c r="Z174">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA174">
         <v>-1</v>
       </c>
       <c r="AB174">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC174">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="175" spans="1:29">
@@ -16007,7 +16007,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6848394</v>
+        <v>6848396</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16019,58 +16019,58 @@
         <v>45290.5</v>
       </c>
       <c r="F175" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G175" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H175">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="s">
         <v>45</v>
       </c>
       <c r="K175">
-        <v>1.285</v>
+        <v>1.833</v>
       </c>
       <c r="L175">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M175">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="N175">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="O175">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="P175">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="Q175">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="R175">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S175">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T175">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U175">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V175">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W175">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="X175">
         <v>-1</v>
@@ -16079,16 +16079,16 @@
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA175">
         <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="176" spans="1:29">
@@ -18588,7 +18588,7 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>6845679</v>
+        <v>7746295</v>
       </c>
       <c r="C204" t="s">
         <v>28</v>
@@ -18597,49 +18597,49 @@
         <v>28</v>
       </c>
       <c r="E204" s="2">
-        <v>45339.5</v>
+        <v>45342.69791666666</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G204" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="K204">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="L204">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M204">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="N204">
-        <v>2.3</v>
+        <v>1.285</v>
       </c>
       <c r="O204">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="P204">
-        <v>2.625</v>
+        <v>8</v>
       </c>
       <c r="Q204">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R204">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S204">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T204">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U204">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V204">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W204">
         <v>0</v>
@@ -18662,7 +18662,7 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>6845805</v>
+        <v>6848416</v>
       </c>
       <c r="C205" t="s">
         <v>28</v>
@@ -18671,49 +18671,49 @@
         <v>28</v>
       </c>
       <c r="E205" s="2">
-        <v>45339.5</v>
+        <v>45346.5</v>
       </c>
       <c r="F205" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G205" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K205">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L205">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M205">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N205">
-        <v>1.666</v>
+        <v>1.615</v>
       </c>
       <c r="O205">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P205">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q205">
         <v>-0.75</v>
       </c>
       <c r="R205">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S205">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="T205">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V205">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W205">
         <v>0</v>
@@ -18736,7 +18736,7 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>6848413</v>
+        <v>6848417</v>
       </c>
       <c r="C206" t="s">
         <v>28</v>
@@ -18745,34 +18745,34 @@
         <v>28</v>
       </c>
       <c r="E206" s="2">
-        <v>45339.5</v>
+        <v>45346.5</v>
       </c>
       <c r="F206" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G206" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K206">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="L206">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M206">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="N206">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="O206">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="P206">
-        <v>2.3</v>
+        <v>1.363</v>
       </c>
       <c r="Q206">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R206">
         <v>2.05</v>
@@ -18781,13 +18781,13 @@
         <v>1.8</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U206">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V206">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W206">
         <v>0</v>
@@ -18802,6 +18802,228 @@
         <v>0</v>
       </c>
       <c r="AA206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>6848419</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F207" t="s">
+        <v>39</v>
+      </c>
+      <c r="G207" t="s">
+        <v>33</v>
+      </c>
+      <c r="K207">
+        <v>1.166</v>
+      </c>
+      <c r="L207">
+        <v>7</v>
+      </c>
+      <c r="M207">
+        <v>11</v>
+      </c>
+      <c r="N207">
+        <v>1.125</v>
+      </c>
+      <c r="O207">
+        <v>7</v>
+      </c>
+      <c r="P207">
+        <v>15</v>
+      </c>
+      <c r="Q207">
+        <v>-2.25</v>
+      </c>
+      <c r="R207">
+        <v>1.9</v>
+      </c>
+      <c r="S207">
+        <v>1.95</v>
+      </c>
+      <c r="T207">
+        <v>3.5</v>
+      </c>
+      <c r="U207">
+        <v>1.95</v>
+      </c>
+      <c r="V207">
+        <v>1.9</v>
+      </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Y207">
+        <v>0</v>
+      </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
+      <c r="AA207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>6845804</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45346.5</v>
+      </c>
+      <c r="F208" t="s">
+        <v>40</v>
+      </c>
+      <c r="G208" t="s">
+        <v>38</v>
+      </c>
+      <c r="K208">
+        <v>1.4</v>
+      </c>
+      <c r="L208">
+        <v>4.5</v>
+      </c>
+      <c r="M208">
+        <v>5.5</v>
+      </c>
+      <c r="N208">
+        <v>1.4</v>
+      </c>
+      <c r="O208">
+        <v>4.75</v>
+      </c>
+      <c r="P208">
+        <v>6</v>
+      </c>
+      <c r="Q208">
+        <v>-1.25</v>
+      </c>
+      <c r="R208">
+        <v>1.95</v>
+      </c>
+      <c r="S208">
+        <v>1.9</v>
+      </c>
+      <c r="T208">
+        <v>2.75</v>
+      </c>
+      <c r="U208">
+        <v>1.85</v>
+      </c>
+      <c r="V208">
+        <v>2</v>
+      </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>6848418</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45346.60416666666</v>
+      </c>
+      <c r="F209" t="s">
+        <v>32</v>
+      </c>
+      <c r="G209" t="s">
+        <v>36</v>
+      </c>
+      <c r="K209">
+        <v>2</v>
+      </c>
+      <c r="L209">
+        <v>3.6</v>
+      </c>
+      <c r="M209">
+        <v>3</v>
+      </c>
+      <c r="N209">
+        <v>1.727</v>
+      </c>
+      <c r="O209">
+        <v>3.8</v>
+      </c>
+      <c r="P209">
+        <v>4</v>
+      </c>
+      <c r="Q209">
+        <v>-0.75</v>
+      </c>
+      <c r="R209">
+        <v>2.025</v>
+      </c>
+      <c r="S209">
+        <v>1.825</v>
+      </c>
+      <c r="T209">
+        <v>2.75</v>
+      </c>
+      <c r="U209">
+        <v>1.85</v>
+      </c>
+      <c r="V209">
+        <v>2</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
         <v>0</v>
       </c>
     </row>

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -1856,7 +1856,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5169711</v>
+        <v>5169487</v>
       </c>
       <c r="C16" t="s">
         <v>28</v>
@@ -1868,76 +1868,76 @@
         <v>44954.5</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K16">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M16">
-        <v>1.55</v>
+        <v>2.05</v>
       </c>
       <c r="N16">
-        <v>5.75</v>
+        <v>4.75</v>
       </c>
       <c r="O16">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P16">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="Q16">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S16">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T16">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U16">
+        <v>1.975</v>
+      </c>
+      <c r="V16">
         <v>1.825</v>
       </c>
-      <c r="V16">
-        <v>1.975</v>
-      </c>
       <c r="W16">
         <v>-1</v>
       </c>
       <c r="X16">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y16">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA16">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB16">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AC16">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="17" spans="1:29">
@@ -2123,7 +2123,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5169487</v>
+        <v>5169711</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2135,76 +2135,76 @@
         <v>44954.5</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K19">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="L19">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>2.05</v>
+        <v>1.55</v>
       </c>
       <c r="N19">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="O19">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="Q19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="R19">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U19">
+        <v>1.825</v>
+      </c>
+      <c r="V19">
         <v>1.975</v>
       </c>
-      <c r="V19">
-        <v>1.825</v>
-      </c>
       <c r="W19">
         <v>-1</v>
       </c>
       <c r="X19">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y19">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2212,7 +2212,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5169490</v>
+        <v>5169489</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2224,13 +2224,13 @@
         <v>44961.5</v>
       </c>
       <c r="F20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -2239,34 +2239,34 @@
         <v>45</v>
       </c>
       <c r="K20">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M20">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N20">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="O20">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P20">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="Q20">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R20">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S20">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
         <v>1.85</v>
@@ -2275,7 +2275,7 @@
         <v>1.95</v>
       </c>
       <c r="W20">
-        <v>0.6000000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2284,10 +2284,10 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB20">
         <v>-1</v>
@@ -2301,7 +2301,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5170189</v>
+        <v>5169490</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2313,13 +2313,13 @@
         <v>44961.5</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -2328,43 +2328,43 @@
         <v>45</v>
       </c>
       <c r="K21">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="L21">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M21">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="O21">
         <v>3.8</v>
       </c>
       <c r="P21">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R21">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="S21">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V21">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W21">
-        <v>0.55</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2373,16 +2373,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA21">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
         <v>-1</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2390,7 +2390,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5169489</v>
+        <v>5170189</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2402,10 +2402,10 @@
         <v>44961.5</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2417,43 +2417,43 @@
         <v>45</v>
       </c>
       <c r="K22">
-        <v>1.363</v>
+        <v>1.833</v>
       </c>
       <c r="L22">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M22">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="N22">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="O22">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P22">
-        <v>7</v>
+        <v>5.25</v>
       </c>
       <c r="Q22">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T22">
         <v>2.75</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="V22">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>0.3999999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2462,16 +2462,16 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>0.45</v>
+        <v>-0</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -3369,7 +3369,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>5169495</v>
+        <v>5169494</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3381,76 +3381,76 @@
         <v>44982.5</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33">
+        <v>2.1</v>
+      </c>
+      <c r="L33">
+        <v>3.25</v>
+      </c>
+      <c r="M33">
+        <v>3.1</v>
+      </c>
+      <c r="N33">
+        <v>2.625</v>
+      </c>
+      <c r="O33">
+        <v>3.3</v>
+      </c>
+      <c r="P33">
+        <v>2.4</v>
+      </c>
+      <c r="Q33">
         <v>0</v>
       </c>
-      <c r="J33" t="s">
-        <v>45</v>
-      </c>
-      <c r="K33">
-        <v>2</v>
-      </c>
-      <c r="L33">
-        <v>3.4</v>
-      </c>
-      <c r="M33">
-        <v>3.2</v>
-      </c>
-      <c r="N33">
-        <v>2.3</v>
-      </c>
-      <c r="O33">
-        <v>3.1</v>
-      </c>
-      <c r="P33">
-        <v>2.8</v>
-      </c>
-      <c r="Q33">
-        <v>-0.25</v>
-      </c>
       <c r="R33">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V33">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W33">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z33">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3458,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5169713</v>
+        <v>5169495</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3470,13 +3470,13 @@
         <v>44982.5</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3485,43 +3485,43 @@
         <v>45</v>
       </c>
       <c r="K34">
-        <v>1.727</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M34">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="N34">
-        <v>1.75</v>
+        <v>2.3</v>
       </c>
       <c r="O34">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P34">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="Q34">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S34">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U34">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V34">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W34">
-        <v>0.75</v>
+        <v>1.3</v>
       </c>
       <c r="X34">
         <v>-1</v>
@@ -3530,16 +3530,16 @@
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0.8</v>
+        <v>1.025</v>
       </c>
       <c r="AA34">
         <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3547,7 +3547,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5170187</v>
+        <v>5169713</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3559,76 +3559,76 @@
         <v>44982.5</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>4.2</v>
+        <v>1.727</v>
       </c>
       <c r="L35">
         <v>3.6</v>
       </c>
       <c r="M35">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="N35">
-        <v>4.5</v>
+        <v>1.75</v>
       </c>
       <c r="O35">
         <v>3.6</v>
       </c>
       <c r="P35">
-        <v>1.666</v>
+        <v>3.8</v>
       </c>
       <c r="Q35">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R35">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V35">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X35">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA35">
         <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC35">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3636,7 +3636,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5169494</v>
+        <v>5170187</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3648,76 +3648,76 @@
         <v>44982.5</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H36">
         <v>1</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K36">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="L36">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="N36">
-        <v>2.625</v>
+        <v>4.5</v>
       </c>
       <c r="O36">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P36">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="Q36">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S36">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T36">
         <v>2.75</v>
       </c>
       <c r="U36">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V36">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W36">
         <v>-1</v>
       </c>
       <c r="X36">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y36">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA36">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4259,7 +4259,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5299622</v>
+        <v>5319758</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4271,76 +4271,76 @@
         <v>44996.5</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K43">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="L43">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M43">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N43">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="O43">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P43">
-        <v>1.8</v>
+        <v>2.45</v>
       </c>
       <c r="Q43">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S43">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T43">
         <v>2.75</v>
       </c>
       <c r="U43">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V43">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W43">
         <v>-1</v>
       </c>
       <c r="X43">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z43">
+        <v>-1</v>
+      </c>
+      <c r="AA43">
+        <v>0.875</v>
+      </c>
+      <c r="AB43">
+        <v>-1</v>
+      </c>
+      <c r="AC43">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA43">
-        <v>-1</v>
-      </c>
-      <c r="AB43">
-        <v>-1</v>
-      </c>
-      <c r="AC43">
-        <v>0.95</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4348,7 +4348,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>5299621</v>
+        <v>5299622</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4360,46 +4360,46 @@
         <v>44996.5</v>
       </c>
       <c r="F44" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G44" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K44">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M44">
-        <v>3.75</v>
+        <v>1.833</v>
       </c>
       <c r="N44">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="O44">
         <v>3.6</v>
       </c>
       <c r="P44">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T44">
         <v>2.75</v>
@@ -4411,25 +4411,25 @@
         <v>1.95</v>
       </c>
       <c r="W44">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4437,7 +4437,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>5319758</v>
+        <v>5299621</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4449,43 +4449,43 @@
         <v>44996.5</v>
       </c>
       <c r="F45" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K45">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L45">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M45">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="N45">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="O45">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P45">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="Q45">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
         <v>1.875</v>
@@ -4494,31 +4494,31 @@
         <v>2.75</v>
       </c>
       <c r="U45">
+        <v>1.9</v>
+      </c>
+      <c r="V45">
         <v>1.95</v>
       </c>
-      <c r="V45">
-        <v>1.85</v>
-      </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4526,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>5319761</v>
+        <v>5319760</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4538,43 +4538,43 @@
         <v>45003.5</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K46">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="L46">
         <v>4</v>
       </c>
       <c r="M46">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="N46">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="O46">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="P46">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Q46">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R46">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S46">
         <v>1.95</v>
@@ -4583,31 +4583,31 @@
         <v>2.75</v>
       </c>
       <c r="U46">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
         <v>1.95</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X46">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB46">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC46">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4615,7 +4615,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>5319760</v>
+        <v>5319759</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4627,58 +4627,58 @@
         <v>45003.5</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H47">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
         <v>45</v>
       </c>
       <c r="K47">
-        <v>1.5</v>
+        <v>1.333</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>4.6</v>
       </c>
       <c r="M47">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N47">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="O47">
-        <v>3.8</v>
+        <v>5.5</v>
       </c>
       <c r="P47">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="Q47">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R47">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S47">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W47">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4687,13 +4687,13 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA47">
         <v>-1</v>
       </c>
       <c r="AB47">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC47">
         <v>-1</v>
@@ -4704,7 +4704,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>5319759</v>
+        <v>5319761</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4716,76 +4716,76 @@
         <v>45003.5</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K48">
-        <v>1.333</v>
+        <v>1.6</v>
       </c>
       <c r="L48">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="M48">
+        <v>4.2</v>
+      </c>
+      <c r="N48">
+        <v>1.4</v>
+      </c>
+      <c r="O48">
+        <v>4.2</v>
+      </c>
+      <c r="P48">
         <v>7</v>
       </c>
-      <c r="N48">
-        <v>1.2</v>
-      </c>
-      <c r="O48">
-        <v>5.5</v>
-      </c>
-      <c r="P48">
-        <v>12</v>
-      </c>
       <c r="Q48">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R48">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S48">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T48">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U48">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V48">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W48">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X48">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB48">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -5861,7 +5861,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>5423460</v>
+        <v>5423468</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5873,76 +5873,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61" t="s">
+        <v>43</v>
+      </c>
+      <c r="K61">
+        <v>2.15</v>
+      </c>
+      <c r="L61">
+        <v>3.4</v>
+      </c>
+      <c r="M61">
+        <v>2.8</v>
+      </c>
+      <c r="N61">
+        <v>2.45</v>
+      </c>
+      <c r="O61">
+        <v>3.4</v>
+      </c>
+      <c r="P61">
+        <v>2.45</v>
+      </c>
+      <c r="Q61">
         <v>0</v>
       </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61" t="s">
-        <v>44</v>
-      </c>
-      <c r="K61">
-        <v>1.8</v>
-      </c>
-      <c r="L61">
-        <v>3.6</v>
-      </c>
-      <c r="M61">
-        <v>3.6</v>
-      </c>
-      <c r="N61">
-        <v>1.75</v>
-      </c>
-      <c r="O61">
-        <v>3.6</v>
-      </c>
-      <c r="P61">
-        <v>3.75</v>
-      </c>
-      <c r="Q61">
-        <v>-0.5</v>
-      </c>
       <c r="R61">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S61">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T61">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U61">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V61">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z61">
         <v>-1</v>
       </c>
       <c r="AA61">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB61">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC61">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -6128,7 +6128,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>5423468</v>
+        <v>5423460</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6140,76 +6140,76 @@
         <v>45024.45833333334</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>44</v>
+      </c>
+      <c r="K64">
+        <v>1.8</v>
+      </c>
+      <c r="L64">
+        <v>3.6</v>
+      </c>
+      <c r="M64">
+        <v>3.6</v>
+      </c>
+      <c r="N64">
+        <v>1.75</v>
+      </c>
+      <c r="O64">
+        <v>3.6</v>
+      </c>
+      <c r="P64">
+        <v>3.75</v>
+      </c>
+      <c r="Q64">
+        <v>-0.5</v>
+      </c>
+      <c r="R64">
+        <v>1.8</v>
+      </c>
+      <c r="S64">
+        <v>2</v>
+      </c>
+      <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
+        <v>2</v>
+      </c>
+      <c r="V64">
+        <v>1.8</v>
+      </c>
+      <c r="W64">
+        <v>-1</v>
+      </c>
+      <c r="X64">
+        <v>2.6</v>
+      </c>
+      <c r="Y64">
+        <v>-1</v>
+      </c>
+      <c r="Z64">
+        <v>-1</v>
+      </c>
+      <c r="AA64">
         <v>1</v>
       </c>
-      <c r="I64">
-        <v>2</v>
-      </c>
-      <c r="J64" t="s">
-        <v>43</v>
-      </c>
-      <c r="K64">
-        <v>2.15</v>
-      </c>
-      <c r="L64">
-        <v>3.4</v>
-      </c>
-      <c r="M64">
-        <v>2.8</v>
-      </c>
-      <c r="N64">
-        <v>2.45</v>
-      </c>
-      <c r="O64">
-        <v>3.4</v>
-      </c>
-      <c r="P64">
-        <v>2.45</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>1.9</v>
-      </c>
-      <c r="S64">
-        <v>1.9</v>
-      </c>
-      <c r="T64">
-        <v>2.5</v>
-      </c>
-      <c r="U64">
-        <v>1.85</v>
-      </c>
-      <c r="V64">
-        <v>1.95</v>
-      </c>
-      <c r="W64">
-        <v>-1</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>1.45</v>
-      </c>
-      <c r="Z64">
-        <v>-1</v>
-      </c>
-      <c r="AA64">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -8442,7 +8442,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6848338</v>
+        <v>6845830</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8454,13 +8454,13 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -8469,43 +8469,43 @@
         <v>45</v>
       </c>
       <c r="K90">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L90">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N90">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="O90">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P90">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="Q90">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S90">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W90">
-        <v>0.333</v>
+        <v>0.95</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8514,16 +8514,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8531,7 +8531,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6845830</v>
+        <v>6848339</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8543,76 +8543,76 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="N91">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O91">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="Q91">
         <v>-0.25</v>
       </c>
       <c r="R91">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S91">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V91">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W91">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z91">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8620,7 +8620,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6848339</v>
+        <v>6848338</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8632,76 +8632,76 @@
         <v>45143.45833333334</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92">
         <v>0</v>
       </c>
-      <c r="I92">
-        <v>2</v>
-      </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K92">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="M92">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="P92">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="Q92">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R92">
+        <v>1.925</v>
+      </c>
+      <c r="S92">
+        <v>1.875</v>
+      </c>
+      <c r="T92">
+        <v>3</v>
+      </c>
+      <c r="U92">
         <v>1.775</v>
       </c>
-      <c r="S92">
+      <c r="V92">
         <v>2.025</v>
       </c>
-      <c r="T92">
-        <v>2.5</v>
-      </c>
-      <c r="U92">
-        <v>1.825</v>
-      </c>
-      <c r="V92">
-        <v>1.975</v>
-      </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8976,7 +8976,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6848343</v>
+        <v>6848344</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8988,55 +8988,55 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H96">
         <v>1</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
         <v>43</v>
       </c>
       <c r="K96">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="L96">
         <v>3.5</v>
       </c>
       <c r="M96">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N96">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="O96">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S96">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U96">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V96">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W96">
         <v>-1</v>
@@ -9045,19 +9045,19 @@
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z96">
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AB96">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9065,7 +9065,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6848344</v>
+        <v>6848343</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9077,56 +9077,56 @@
         <v>45150.45833333334</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J97" t="s">
         <v>43</v>
       </c>
       <c r="K97">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="L97">
         <v>3.5</v>
       </c>
       <c r="M97">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N97">
+        <v>2.6</v>
+      </c>
+      <c r="O97">
         <v>3.5</v>
       </c>
-      <c r="O97">
-        <v>3.6</v>
-      </c>
       <c r="P97">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="Q97">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
+        <v>1.8</v>
+      </c>
+      <c r="S97">
+        <v>2.05</v>
+      </c>
+      <c r="T97">
+        <v>2.75</v>
+      </c>
+      <c r="U97">
+        <v>1.95</v>
+      </c>
+      <c r="V97">
         <v>1.9</v>
       </c>
-      <c r="S97">
-        <v>1.95</v>
-      </c>
-      <c r="T97">
-        <v>3</v>
-      </c>
-      <c r="U97">
-        <v>2</v>
-      </c>
-      <c r="V97">
-        <v>1.85</v>
-      </c>
       <c r="W97">
         <v>-1</v>
       </c>
@@ -9134,19 +9134,19 @@
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>0.8500000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
+        <v>1.05</v>
+      </c>
+      <c r="AB97">
         <v>0.95</v>
       </c>
-      <c r="AB97">
-        <v>0</v>
-      </c>
       <c r="AC97">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9599,7 +9599,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6845660</v>
+        <v>6848350</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9611,76 +9611,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H103">
         <v>1</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K103">
+        <v>1.75</v>
+      </c>
+      <c r="L103">
+        <v>3.6</v>
+      </c>
+      <c r="M103">
+        <v>3.8</v>
+      </c>
+      <c r="N103">
         <v>2.05</v>
       </c>
-      <c r="L103">
+      <c r="O103">
         <v>3.4</v>
       </c>
-      <c r="M103">
-        <v>3</v>
-      </c>
-      <c r="N103">
-        <v>2.2</v>
-      </c>
-      <c r="O103">
+      <c r="P103">
         <v>3.5</v>
-      </c>
-      <c r="P103">
-        <v>3.1</v>
       </c>
       <c r="Q103">
         <v>-0.25</v>
       </c>
       <c r="R103">
+        <v>1.8</v>
+      </c>
+      <c r="S103">
+        <v>2.05</v>
+      </c>
+      <c r="T103">
+        <v>2.75</v>
+      </c>
+      <c r="U103">
         <v>1.975</v>
       </c>
-      <c r="S103">
+      <c r="V103">
         <v>1.875</v>
       </c>
-      <c r="T103">
-        <v>3</v>
-      </c>
-      <c r="U103">
-        <v>2.025</v>
-      </c>
-      <c r="V103">
-        <v>1.825</v>
-      </c>
       <c r="W103">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA103">
+        <v>-1</v>
+      </c>
+      <c r="AB103">
+        <v>-1</v>
+      </c>
+      <c r="AC103">
         <v>0.875</v>
-      </c>
-      <c r="AB103">
-        <v>0</v>
-      </c>
-      <c r="AC103">
-        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9866,7 +9866,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6848350</v>
+        <v>6845660</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9878,76 +9878,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>1</v>
       </c>
       <c r="I106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K106">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M106">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="N106">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="O106">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P106">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q106">
         <v>-0.25</v>
       </c>
       <c r="R106">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S106">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U106">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V106">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W106">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z106">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA106">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC106">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -10756,7 +10756,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6848355</v>
+        <v>6848356</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10768,55 +10768,55 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
         <v>45</v>
       </c>
       <c r="K116">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M116">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N116">
         <v>1.5</v>
       </c>
       <c r="O116">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P116">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q116">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R116">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S116">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V116">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
         <v>0.5</v>
@@ -10828,16 +10828,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA116">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10845,7 +10845,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6848356</v>
+        <v>6848355</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10857,55 +10857,55 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H117">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>45</v>
       </c>
       <c r="K117">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="L117">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M117">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="N117">
         <v>1.5</v>
       </c>
       <c r="O117">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="P117">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q117">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R117">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S117">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U117">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V117">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W117">
         <v>0.5</v>
@@ -10917,16 +10917,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB117">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10934,7 +10934,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6848359</v>
+        <v>6845663</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10946,76 +10946,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K118">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="L118">
         <v>3.6</v>
       </c>
       <c r="M118">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="N118">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="O118">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P118">
-        <v>3.1</v>
+        <v>1.615</v>
       </c>
       <c r="Q118">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R118">
+        <v>2</v>
+      </c>
+      <c r="S118">
         <v>1.8</v>
       </c>
-      <c r="S118">
-        <v>2</v>
-      </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U118">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V118">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W118">
+        <v>-1</v>
+      </c>
+      <c r="X118">
+        <v>3</v>
+      </c>
+      <c r="Y118">
+        <v>-1</v>
+      </c>
+      <c r="Z118">
         <v>1</v>
       </c>
-      <c r="X118">
-        <v>-1</v>
-      </c>
-      <c r="Y118">
-        <v>-1</v>
-      </c>
-      <c r="Z118">
-        <v>0.8</v>
-      </c>
       <c r="AA118">
         <v>-1</v>
       </c>
       <c r="AB118">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC118">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11023,7 +11023,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6845663</v>
+        <v>6848359</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11035,76 +11035,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F119" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G119" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K119">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="L119">
         <v>3.6</v>
       </c>
       <c r="M119">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="N119">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="O119">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P119">
-        <v>1.615</v>
+        <v>3.1</v>
       </c>
       <c r="Q119">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S119">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T119">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X119">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11913,7 +11913,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6848364</v>
+        <v>6848363</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11925,76 +11925,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J129" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K129">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="L129">
         <v>3.6</v>
       </c>
       <c r="M129">
+        <v>2.1</v>
+      </c>
+      <c r="N129">
         <v>3.6</v>
       </c>
-      <c r="N129">
-        <v>1.909</v>
-      </c>
       <c r="O129">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P129">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q129">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S129">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U129">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V129">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W129">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z129">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB129">
-        <v>0.4375</v>
+        <v>1.025</v>
       </c>
       <c r="AC129">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12002,7 +12002,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6848363</v>
+        <v>6845665</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,73 +12014,73 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K130">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="L130">
         <v>3.6</v>
       </c>
       <c r="M130">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N130">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O130">
         <v>4</v>
       </c>
       <c r="P130">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R130">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
         <v>1.825</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA130">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB130">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12091,7 +12091,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6845665</v>
+        <v>6848364</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12103,58 +12103,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J131" t="s">
         <v>45</v>
       </c>
       <c r="K131">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="L131">
         <v>3.6</v>
       </c>
       <c r="M131">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N131">
-        <v>1.571</v>
+        <v>1.909</v>
       </c>
       <c r="O131">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
         <v>1.875</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
-        <v>0.571</v>
+        <v>0.909</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12163,16 +12163,16 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12714,7 +12714,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6848370</v>
+        <v>6845667</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12726,76 +12726,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G138" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138" t="s">
+        <v>43</v>
+      </c>
+      <c r="K138">
+        <v>2.625</v>
+      </c>
+      <c r="L138">
+        <v>3.5</v>
+      </c>
+      <c r="M138">
+        <v>2.5</v>
+      </c>
+      <c r="N138">
+        <v>2.45</v>
+      </c>
+      <c r="O138">
+        <v>3.5</v>
+      </c>
+      <c r="P138">
+        <v>2.7</v>
+      </c>
+      <c r="Q138">
         <v>0</v>
       </c>
-      <c r="J138" t="s">
-        <v>45</v>
-      </c>
-      <c r="K138">
-        <v>1.2</v>
-      </c>
-      <c r="L138">
-        <v>6.5</v>
-      </c>
-      <c r="M138">
-        <v>13</v>
-      </c>
-      <c r="N138">
-        <v>1.3</v>
-      </c>
-      <c r="O138">
-        <v>5.25</v>
-      </c>
-      <c r="P138">
-        <v>8.5</v>
-      </c>
-      <c r="Q138">
-        <v>-1.5</v>
-      </c>
       <c r="R138">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S138">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T138">
         <v>2.75</v>
       </c>
       <c r="U138">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V138">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W138">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB138">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC138">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12803,7 +12803,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6845667</v>
+        <v>6848370</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12815,76 +12815,76 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G139" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H139">
+        <v>3</v>
+      </c>
+      <c r="I139">
         <v>0</v>
       </c>
-      <c r="I139">
-        <v>1</v>
-      </c>
       <c r="J139" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K139">
-        <v>2.625</v>
+        <v>1.2</v>
       </c>
       <c r="L139">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="M139">
-        <v>2.5</v>
+        <v>13</v>
       </c>
       <c r="N139">
-        <v>2.45</v>
+        <v>1.3</v>
       </c>
       <c r="O139">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P139">
-        <v>2.7</v>
+        <v>8.5</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R139">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S139">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T139">
         <v>2.75</v>
       </c>
       <c r="U139">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V139">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA139">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AC139">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -13515,7 +13515,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6845668</v>
+        <v>6848378</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13527,76 +13527,76 @@
         <v>45241.5</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147">
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K147">
-        <v>2.2</v>
+        <v>1.666</v>
       </c>
       <c r="L147">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M147">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="N147">
-        <v>2.5</v>
+        <v>1.727</v>
       </c>
       <c r="O147">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P147">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q147">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R147">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S147">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T147">
+        <v>3</v>
+      </c>
+      <c r="U147">
+        <v>1.825</v>
+      </c>
+      <c r="V147">
+        <v>1.975</v>
+      </c>
+      <c r="W147">
+        <v>-1</v>
+      </c>
+      <c r="X147">
         <v>2.75</v>
       </c>
-      <c r="U147">
-        <v>1.775</v>
-      </c>
-      <c r="V147">
-        <v>2.025</v>
-      </c>
-      <c r="W147">
-        <v>-1</v>
-      </c>
-      <c r="X147">
-        <v>-1</v>
-      </c>
       <c r="Y147">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13604,7 +13604,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6848378</v>
+        <v>6845668</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13616,76 +13616,76 @@
         <v>45241.5</v>
       </c>
       <c r="F148" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G148" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K148">
-        <v>1.666</v>
+        <v>2.2</v>
       </c>
       <c r="L148">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M148">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="N148">
-        <v>1.727</v>
+        <v>2.5</v>
       </c>
       <c r="O148">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P148">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="Q148">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R148">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="S148">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T148">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V148">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W148">
         <v>-1</v>
       </c>
       <c r="X148">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z148">
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB148">
         <v>-1</v>
       </c>
       <c r="AC148">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -14316,7 +14316,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7414972</v>
+        <v>7392209</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14328,19 +14328,19 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F156" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G156" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K156">
         <v>6.5</v>
@@ -14352,52 +14352,52 @@
         <v>1.444</v>
       </c>
       <c r="N156">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="O156">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P156">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="Q156">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S156">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T156">
         <v>3</v>
       </c>
       <c r="U156">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V156">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W156">
         <v>-1</v>
       </c>
       <c r="X156">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y156">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA156">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC156">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14405,7 +14405,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7392209</v>
+        <v>7414972</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14417,19 +14417,19 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G157" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K157">
         <v>6.5</v>
@@ -14441,52 +14441,52 @@
         <v>1.444</v>
       </c>
       <c r="N157">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="O157">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P157">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q157">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R157">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S157">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T157">
         <v>3</v>
       </c>
       <c r="U157">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V157">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W157">
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y157">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z157">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA157">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC157">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14672,7 +14672,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6845814</v>
+        <v>6848386</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14684,76 +14684,76 @@
         <v>45269.5</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G160" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H160">
+        <v>2</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160" t="s">
+        <v>45</v>
+      </c>
+      <c r="K160">
+        <v>1.4</v>
+      </c>
+      <c r="L160">
+        <v>5</v>
+      </c>
+      <c r="M160">
+        <v>7</v>
+      </c>
+      <c r="N160">
+        <v>1.3</v>
+      </c>
+      <c r="O160">
+        <v>5.5</v>
+      </c>
+      <c r="P160">
+        <v>10</v>
+      </c>
+      <c r="Q160">
+        <v>-1.5</v>
+      </c>
+      <c r="R160">
+        <v>1.825</v>
+      </c>
+      <c r="S160">
+        <v>1.975</v>
+      </c>
+      <c r="T160">
+        <v>3</v>
+      </c>
+      <c r="U160">
+        <v>1.975</v>
+      </c>
+      <c r="V160">
+        <v>1.825</v>
+      </c>
+      <c r="W160">
+        <v>0.3</v>
+      </c>
+      <c r="X160">
+        <v>-1</v>
+      </c>
+      <c r="Y160">
+        <v>-1</v>
+      </c>
+      <c r="Z160">
+        <v>-1</v>
+      </c>
+      <c r="AA160">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB160">
         <v>0</v>
       </c>
-      <c r="I160">
-        <v>0</v>
-      </c>
-      <c r="J160" t="s">
-        <v>44</v>
-      </c>
-      <c r="K160">
-        <v>4.75</v>
-      </c>
-      <c r="L160">
-        <v>4.333</v>
-      </c>
-      <c r="M160">
-        <v>1.615</v>
-      </c>
-      <c r="N160">
-        <v>6</v>
-      </c>
-      <c r="O160">
-        <v>4.333</v>
-      </c>
-      <c r="P160">
-        <v>1.4</v>
-      </c>
-      <c r="Q160">
-        <v>1.25</v>
-      </c>
-      <c r="R160">
-        <v>1.925</v>
-      </c>
-      <c r="S160">
-        <v>1.925</v>
-      </c>
-      <c r="T160">
-        <v>2.75</v>
-      </c>
-      <c r="U160">
-        <v>1.9</v>
-      </c>
-      <c r="V160">
-        <v>1.95</v>
-      </c>
-      <c r="W160">
-        <v>-1</v>
-      </c>
-      <c r="X160">
-        <v>3.333</v>
-      </c>
-      <c r="Y160">
-        <v>-1</v>
-      </c>
-      <c r="Z160">
-        <v>0.925</v>
-      </c>
-      <c r="AA160">
-        <v>-1</v>
-      </c>
-      <c r="AB160">
-        <v>-1</v>
-      </c>
       <c r="AC160">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14761,7 +14761,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6848385</v>
+        <v>6845814</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14773,76 +14773,76 @@
         <v>45269.5</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G161" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K161">
+        <v>4.75</v>
+      </c>
+      <c r="L161">
+        <v>4.333</v>
+      </c>
+      <c r="M161">
+        <v>1.615</v>
+      </c>
+      <c r="N161">
+        <v>6</v>
+      </c>
+      <c r="O161">
+        <v>4.333</v>
+      </c>
+      <c r="P161">
+        <v>1.4</v>
+      </c>
+      <c r="Q161">
+        <v>1.25</v>
+      </c>
+      <c r="R161">
+        <v>1.925</v>
+      </c>
+      <c r="S161">
+        <v>1.925</v>
+      </c>
+      <c r="T161">
         <v>2.75</v>
-      </c>
-      <c r="L161">
-        <v>3.6</v>
-      </c>
-      <c r="M161">
-        <v>2.375</v>
-      </c>
-      <c r="N161">
-        <v>7.5</v>
-      </c>
-      <c r="O161">
-        <v>5</v>
-      </c>
-      <c r="P161">
-        <v>1.3</v>
-      </c>
-      <c r="Q161">
-        <v>1.5</v>
-      </c>
-      <c r="R161">
-        <v>1.975</v>
-      </c>
-      <c r="S161">
-        <v>1.825</v>
-      </c>
-      <c r="T161">
-        <v>3.25</v>
       </c>
       <c r="U161">
         <v>1.9</v>
       </c>
       <c r="V161">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W161">
         <v>-1</v>
       </c>
       <c r="X161">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y161">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z161">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA161">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB161">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC161">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="162" spans="1:29">
@@ -14850,7 +14850,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6848386</v>
+        <v>6848385</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14862,76 +14862,76 @@
         <v>45269.5</v>
       </c>
       <c r="F162" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J162" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K162">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L162">
+        <v>3.6</v>
+      </c>
+      <c r="M162">
+        <v>2.375</v>
+      </c>
+      <c r="N162">
+        <v>7.5</v>
+      </c>
+      <c r="O162">
         <v>5</v>
       </c>
-      <c r="M162">
-        <v>7</v>
-      </c>
-      <c r="N162">
+      <c r="P162">
         <v>1.3</v>
       </c>
-      <c r="O162">
-        <v>5.5</v>
-      </c>
-      <c r="P162">
-        <v>10</v>
-      </c>
       <c r="Q162">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R162">
+        <v>1.975</v>
+      </c>
+      <c r="S162">
         <v>1.825</v>
       </c>
-      <c r="S162">
-        <v>1.975</v>
-      </c>
       <c r="T162">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U162">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V162">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W162">
+        <v>-1</v>
+      </c>
+      <c r="X162">
+        <v>-1</v>
+      </c>
+      <c r="Y162">
         <v>0.3</v>
       </c>
-      <c r="X162">
-        <v>-1</v>
-      </c>
-      <c r="Y162">
-        <v>-1</v>
-      </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB162">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC162">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -15028,7 +15028,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>6845813</v>
+        <v>6845672</v>
       </c>
       <c r="C164" t="s">
         <v>28</v>
@@ -15040,55 +15040,55 @@
         <v>45276.5</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G164" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H164">
         <v>1</v>
       </c>
       <c r="I164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
         <v>43</v>
       </c>
       <c r="K164">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L164">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M164">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N164">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="O164">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="P164">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="Q164">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R164">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S164">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T164">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U164">
         <v>1.8</v>
       </c>
       <c r="V164">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -15097,13 +15097,13 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB164">
         <v>0.8</v>
@@ -15384,7 +15384,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>6845672</v>
+        <v>6845813</v>
       </c>
       <c r="C168" t="s">
         <v>28</v>
@@ -15396,55 +15396,55 @@
         <v>45276.5</v>
       </c>
       <c r="F168" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G168" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H168">
         <v>1</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J168" t="s">
         <v>43</v>
       </c>
       <c r="K168">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M168">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N168">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="O168">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P168">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q168">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R168">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S168">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U168">
         <v>1.8</v>
       </c>
       <c r="V168">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W168">
         <v>-1</v>
@@ -15453,13 +15453,13 @@
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="Z168">
         <v>-1</v>
       </c>
       <c r="AA168">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB168">
         <v>0.8</v>
@@ -16007,7 +16007,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>6845811</v>
+        <v>6848394</v>
       </c>
       <c r="C175" t="s">
         <v>28</v>
@@ -16019,73 +16019,73 @@
         <v>45290.5</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G175" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175" t="s">
+        <v>45</v>
+      </c>
+      <c r="K175">
+        <v>1.285</v>
+      </c>
+      <c r="L175">
         <v>5</v>
       </c>
-      <c r="J175" t="s">
-        <v>43</v>
-      </c>
-      <c r="K175">
-        <v>9</v>
-      </c>
-      <c r="L175">
-        <v>5.5</v>
-      </c>
       <c r="M175">
-        <v>1.222</v>
+        <v>7.5</v>
       </c>
       <c r="N175">
-        <v>34</v>
+        <v>1.166</v>
       </c>
       <c r="O175">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="P175">
-        <v>1.045</v>
+        <v>11</v>
       </c>
       <c r="Q175">
+        <v>-2</v>
+      </c>
+      <c r="R175">
+        <v>1.85</v>
+      </c>
+      <c r="S175">
+        <v>1.95</v>
+      </c>
+      <c r="T175">
         <v>3.25</v>
       </c>
-      <c r="R175">
-        <v>1.975</v>
-      </c>
-      <c r="S175">
-        <v>1.875</v>
-      </c>
-      <c r="T175">
-        <v>4.25</v>
-      </c>
       <c r="U175">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V175">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W175">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>0.04499999999999993</v>
+        <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA175">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB175">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16096,7 +16096,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>6845674</v>
+        <v>6845811</v>
       </c>
       <c r="C176" t="s">
         <v>28</v>
@@ -16108,76 +16108,76 @@
         <v>45290.5</v>
       </c>
       <c r="F176" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G176" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I176">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J176" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K176">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="L176">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M176">
-        <v>2.3</v>
+        <v>1.222</v>
       </c>
       <c r="N176">
-        <v>3.4</v>
+        <v>34</v>
       </c>
       <c r="O176">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="P176">
-        <v>1.85</v>
+        <v>1.045</v>
       </c>
       <c r="Q176">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R176">
+        <v>1.975</v>
+      </c>
+      <c r="S176">
         <v>1.875</v>
       </c>
-      <c r="S176">
+      <c r="T176">
+        <v>4.25</v>
+      </c>
+      <c r="U176">
         <v>1.925</v>
       </c>
-      <c r="T176">
-        <v>2.75</v>
-      </c>
-      <c r="U176">
-        <v>1.95</v>
-      </c>
       <c r="V176">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W176">
         <v>-1</v>
       </c>
       <c r="X176">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
-        <v>-1</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z176">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA176">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC176">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="177" spans="1:29">
@@ -16185,7 +16185,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6848394</v>
+        <v>6845674</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16197,49 +16197,49 @@
         <v>45290.5</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G177" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H177">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K177">
-        <v>1.285</v>
+        <v>2.55</v>
       </c>
       <c r="L177">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="M177">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="N177">
-        <v>1.166</v>
+        <v>3.4</v>
       </c>
       <c r="O177">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P177">
-        <v>11</v>
+        <v>1.85</v>
       </c>
       <c r="Q177">
-        <v>-2</v>
+        <v>0.5</v>
       </c>
       <c r="R177">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T177">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U177">
         <v>1.95</v>
@@ -16248,25 +16248,25 @@
         <v>1.85</v>
       </c>
       <c r="W177">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X177">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y177">
         <v>-1</v>
       </c>
       <c r="Z177">
+        <v>0.875</v>
+      </c>
+      <c r="AA177">
+        <v>-1</v>
+      </c>
+      <c r="AB177">
+        <v>-1</v>
+      </c>
+      <c r="AC177">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA177">
-        <v>-1</v>
-      </c>
-      <c r="AB177">
-        <v>0.95</v>
-      </c>
-      <c r="AC177">
-        <v>-1</v>
       </c>
     </row>
     <row r="178" spans="1:29">
@@ -17164,7 +17164,7 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>6848406</v>
+        <v>6845676</v>
       </c>
       <c r="C188" t="s">
         <v>28</v>
@@ -17176,49 +17176,49 @@
         <v>45318.5</v>
       </c>
       <c r="F188" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G188" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H188">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K188">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L188">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M188">
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="N188">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="O188">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="P188">
-        <v>2.55</v>
+        <v>4</v>
       </c>
       <c r="Q188">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R188">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S188">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T188">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U188">
         <v>2</v>
@@ -17227,25 +17227,25 @@
         <v>1.8</v>
       </c>
       <c r="W188">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X188">
         <v>-1</v>
       </c>
       <c r="Y188">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z188">
+        <v>-1</v>
+      </c>
+      <c r="AA188">
+        <v>0.875</v>
+      </c>
+      <c r="AB188">
+        <v>-1</v>
+      </c>
+      <c r="AC188">
         <v>0.8</v>
-      </c>
-      <c r="AA188">
-        <v>-1</v>
-      </c>
-      <c r="AB188">
-        <v>1</v>
-      </c>
-      <c r="AC188">
-        <v>-1</v>
       </c>
     </row>
     <row r="189" spans="1:29">
@@ -17253,7 +17253,7 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>6845676</v>
+        <v>6848404</v>
       </c>
       <c r="C189" t="s">
         <v>28</v>
@@ -17265,40 +17265,40 @@
         <v>45318.5</v>
       </c>
       <c r="F189" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G189" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H189">
         <v>0</v>
       </c>
       <c r="I189">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J189" t="s">
         <v>43</v>
       </c>
       <c r="K189">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="M189">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="N189">
-        <v>1.7</v>
+        <v>9</v>
       </c>
       <c r="O189">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="P189">
-        <v>4</v>
+        <v>1.25</v>
       </c>
       <c r="Q189">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R189">
         <v>1.925</v>
@@ -17310,10 +17310,10 @@
         <v>2.75</v>
       </c>
       <c r="U189">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V189">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W189">
         <v>-1</v>
@@ -17322,7 +17322,7 @@
         <v>-1</v>
       </c>
       <c r="Y189">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="Z189">
         <v>-1</v>
@@ -17331,10 +17331,10 @@
         <v>0.875</v>
       </c>
       <c r="AB189">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC189">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="190" spans="1:29">
@@ -17342,7 +17342,7 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>6848404</v>
+        <v>6848405</v>
       </c>
       <c r="C190" t="s">
         <v>28</v>
@@ -17354,76 +17354,76 @@
         <v>45318.5</v>
       </c>
       <c r="F190" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="G190" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H190">
+        <v>3</v>
+      </c>
+      <c r="I190">
         <v>0</v>
       </c>
-      <c r="I190">
+      <c r="J190" t="s">
+        <v>45</v>
+      </c>
+      <c r="K190">
+        <v>1.444</v>
+      </c>
+      <c r="L190">
         <v>5</v>
       </c>
-      <c r="J190" t="s">
-        <v>43</v>
-      </c>
-      <c r="K190">
-        <v>6</v>
-      </c>
-      <c r="L190">
-        <v>4.333</v>
-      </c>
       <c r="M190">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="N190">
+        <v>1.25</v>
+      </c>
+      <c r="O190">
+        <v>5.5</v>
+      </c>
+      <c r="P190">
         <v>9</v>
       </c>
-      <c r="O190">
-        <v>4.75</v>
-      </c>
-      <c r="P190">
-        <v>1.25</v>
-      </c>
       <c r="Q190">
-        <v>1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R190">
+        <v>1.875</v>
+      </c>
+      <c r="S190">
         <v>1.925</v>
       </c>
-      <c r="S190">
-        <v>1.875</v>
-      </c>
       <c r="T190">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U190">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V190">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W190">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X190">
         <v>-1</v>
       </c>
       <c r="Y190">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z190">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA190">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB190">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC190">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="191" spans="1:29">
@@ -17431,7 +17431,7 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>6848405</v>
+        <v>6845808</v>
       </c>
       <c r="C191" t="s">
         <v>28</v>
@@ -17443,76 +17443,76 @@
         <v>45318.5</v>
       </c>
       <c r="F191" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G191" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K191">
-        <v>1.444</v>
+        <v>1.4</v>
       </c>
       <c r="L191">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M191">
+        <v>6</v>
+      </c>
+      <c r="N191">
+        <v>1.333</v>
+      </c>
+      <c r="O191">
         <v>4.5</v>
-      </c>
-      <c r="N191">
-        <v>1.25</v>
-      </c>
-      <c r="O191">
-        <v>5.5</v>
       </c>
       <c r="P191">
         <v>9</v>
       </c>
       <c r="Q191">
-        <v>-1.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R191">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="S191">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T191">
+        <v>3</v>
+      </c>
+      <c r="U191">
+        <v>1.95</v>
+      </c>
+      <c r="V191">
+        <v>1.85</v>
+      </c>
+      <c r="W191">
+        <v>-1</v>
+      </c>
+      <c r="X191">
         <v>3.5</v>
       </c>
-      <c r="U191">
-        <v>1.825</v>
-      </c>
-      <c r="V191">
-        <v>1.975</v>
-      </c>
-      <c r="W191">
-        <v>0.25</v>
-      </c>
-      <c r="X191">
-        <v>-1</v>
-      </c>
       <c r="Y191">
         <v>-1</v>
       </c>
       <c r="Z191">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA191">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB191">
         <v>-1</v>
       </c>
       <c r="AC191">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="192" spans="1:29">
@@ -17520,7 +17520,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>6845808</v>
+        <v>6848406</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17532,76 +17532,76 @@
         <v>45318.5</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G192" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H192">
+        <v>5</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192" t="s">
+        <v>45</v>
+      </c>
+      <c r="K192">
+        <v>2.4</v>
+      </c>
+      <c r="L192">
+        <v>3.4</v>
+      </c>
+      <c r="M192">
+        <v>2.5</v>
+      </c>
+      <c r="N192">
+        <v>2.5</v>
+      </c>
+      <c r="O192">
+        <v>3.25</v>
+      </c>
+      <c r="P192">
+        <v>2.55</v>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192">
+        <v>1.8</v>
+      </c>
+      <c r="S192">
+        <v>2</v>
+      </c>
+      <c r="T192">
+        <v>2.5</v>
+      </c>
+      <c r="U192">
+        <v>2</v>
+      </c>
+      <c r="V192">
+        <v>1.8</v>
+      </c>
+      <c r="W192">
+        <v>1.5</v>
+      </c>
+      <c r="X192">
+        <v>-1</v>
+      </c>
+      <c r="Y192">
+        <v>-1</v>
+      </c>
+      <c r="Z192">
+        <v>0.8</v>
+      </c>
+      <c r="AA192">
+        <v>-1</v>
+      </c>
+      <c r="AB192">
         <v>1</v>
       </c>
-      <c r="I192">
-        <v>1</v>
-      </c>
-      <c r="J192" t="s">
-        <v>44</v>
-      </c>
-      <c r="K192">
-        <v>1.4</v>
-      </c>
-      <c r="L192">
-        <v>4.333</v>
-      </c>
-      <c r="M192">
-        <v>6</v>
-      </c>
-      <c r="N192">
-        <v>1.333</v>
-      </c>
-      <c r="O192">
-        <v>4.5</v>
-      </c>
-      <c r="P192">
-        <v>9</v>
-      </c>
-      <c r="Q192">
-        <v>-1.5</v>
-      </c>
-      <c r="R192">
-        <v>1.975</v>
-      </c>
-      <c r="S192">
-        <v>1.825</v>
-      </c>
-      <c r="T192">
-        <v>3</v>
-      </c>
-      <c r="U192">
-        <v>1.95</v>
-      </c>
-      <c r="V192">
-        <v>1.85</v>
-      </c>
-      <c r="W192">
-        <v>-1</v>
-      </c>
-      <c r="X192">
-        <v>3.5</v>
-      </c>
-      <c r="Y192">
-        <v>-1</v>
-      </c>
-      <c r="Z192">
-        <v>-1</v>
-      </c>
-      <c r="AA192">
-        <v>0.825</v>
-      </c>
-      <c r="AB192">
-        <v>-1</v>
-      </c>
       <c r="AC192">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17698,7 +17698,7 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>6848407</v>
+        <v>6845677</v>
       </c>
       <c r="C194" t="s">
         <v>28</v>
@@ -17710,37 +17710,37 @@
         <v>45325.5</v>
       </c>
       <c r="F194" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G194" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="H194">
         <v>2</v>
       </c>
       <c r="I194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K194">
+        <v>3.5</v>
+      </c>
+      <c r="L194">
+        <v>4</v>
+      </c>
+      <c r="M194">
+        <v>1.8</v>
+      </c>
+      <c r="N194">
         <v>2.625</v>
-      </c>
-      <c r="L194">
-        <v>3.75</v>
-      </c>
-      <c r="M194">
-        <v>2.25</v>
-      </c>
-      <c r="N194">
-        <v>2.7</v>
       </c>
       <c r="O194">
         <v>3.6</v>
       </c>
       <c r="P194">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q194">
         <v>0</v>
@@ -17752,31 +17752,31 @@
         <v>1.775</v>
       </c>
       <c r="T194">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U194">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V194">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W194">
         <v>-1</v>
       </c>
       <c r="X194">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y194">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z194">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA194">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB194">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC194">
         <v>-1</v>
@@ -17787,7 +17787,7 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>6845677</v>
+        <v>6848407</v>
       </c>
       <c r="C195" t="s">
         <v>28</v>
@@ -17799,37 +17799,37 @@
         <v>45325.5</v>
       </c>
       <c r="F195" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G195" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H195">
         <v>2</v>
       </c>
       <c r="I195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J195" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K195">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M195">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="N195">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="O195">
         <v>3.6</v>
       </c>
       <c r="P195">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q195">
         <v>0</v>
@@ -17841,31 +17841,31 @@
         <v>1.775</v>
       </c>
       <c r="T195">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U195">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V195">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W195">
         <v>-1</v>
       </c>
       <c r="X195">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y195">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z195">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA195">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB195">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC195">
         <v>-1</v>
@@ -18410,7 +18410,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7572536</v>
+        <v>7705415</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18422,58 +18422,58 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F202" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G202" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J202" t="s">
         <v>45</v>
       </c>
       <c r="K202">
-        <v>1.727</v>
+        <v>1.125</v>
       </c>
       <c r="L202">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="M202">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N202">
-        <v>1.909</v>
+        <v>1.125</v>
       </c>
       <c r="O202">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="P202">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="Q202">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R202">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S202">
         <v>1.875</v>
       </c>
       <c r="T202">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U202">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V202">
         <v>1.825</v>
       </c>
       <c r="W202">
-        <v>0.909</v>
+        <v>0.125</v>
       </c>
       <c r="X202">
         <v>-1</v>
@@ -18482,16 +18482,16 @@
         <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA202">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB202">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC202">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18499,7 +18499,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7705415</v>
+        <v>7572536</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18511,58 +18511,58 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F203" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G203" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H203">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J203" t="s">
         <v>45</v>
       </c>
       <c r="K203">
-        <v>1.125</v>
+        <v>1.727</v>
       </c>
       <c r="L203">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="M203">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N203">
-        <v>1.125</v>
+        <v>1.909</v>
       </c>
       <c r="O203">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="P203">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="Q203">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R203">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S203">
         <v>1.875</v>
       </c>
       <c r="T203">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U203">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V203">
         <v>1.825</v>
       </c>
       <c r="W203">
-        <v>0.125</v>
+        <v>0.909</v>
       </c>
       <c r="X203">
         <v>-1</v>
@@ -18571,16 +18571,16 @@
         <v>-1</v>
       </c>
       <c r="Z203">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA203">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB203">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC203">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="204" spans="1:29">
@@ -19122,7 +19122,7 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>6845804</v>
+        <v>6848419</v>
       </c>
       <c r="C210" t="s">
         <v>28</v>
@@ -19134,46 +19134,46 @@
         <v>45346.5</v>
       </c>
       <c r="F210" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G210" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K210">
-        <v>1.4</v>
+        <v>1.166</v>
       </c>
       <c r="L210">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M210">
-        <v>5.5</v>
+        <v>11</v>
       </c>
       <c r="N210">
-        <v>1.363</v>
+        <v>1.222</v>
       </c>
       <c r="O210">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="P210">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Q210">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R210">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S210">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T210">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U210">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V210">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W210">
         <v>0</v>
@@ -19196,7 +19196,7 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>6848416</v>
+        <v>6845804</v>
       </c>
       <c r="C211" t="s">
         <v>28</v>
@@ -19208,46 +19208,46 @@
         <v>45346.5</v>
       </c>
       <c r="F211" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G211" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K211">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="L211">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M211">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N211">
-        <v>1.571</v>
+        <v>1.4</v>
       </c>
       <c r="O211">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="P211">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="Q211">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R211">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S211">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T211">
         <v>3</v>
       </c>
       <c r="U211">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V211">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W211">
         <v>0</v>
@@ -19270,7 +19270,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>6848417</v>
+        <v>6848416</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19282,46 +19282,46 @@
         <v>45346.5</v>
       </c>
       <c r="F212" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G212" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="K212">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="L212">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M212">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="N212">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="O212">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P212">
-        <v>1.363</v>
+        <v>4.333</v>
       </c>
       <c r="Q212">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R212">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S212">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T212">
         <v>3</v>
       </c>
       <c r="U212">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V212">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W212">
         <v>0</v>
@@ -19344,7 +19344,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>6848419</v>
+        <v>6848417</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19356,46 +19356,46 @@
         <v>45346.5</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G213" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K213">
-        <v>1.166</v>
+        <v>5.5</v>
       </c>
       <c r="L213">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M213">
-        <v>11</v>
+        <v>1.363</v>
       </c>
       <c r="N213">
-        <v>1.111</v>
+        <v>8</v>
       </c>
       <c r="O213">
-        <v>8.5</v>
+        <v>5.75</v>
       </c>
       <c r="P213">
-        <v>19</v>
+        <v>1.285</v>
       </c>
       <c r="Q213">
-        <v>-2.25</v>
+        <v>1.75</v>
       </c>
       <c r="R213">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S213">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T213">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U213">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V213">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W213">
         <v>0</v>
@@ -19448,7 +19448,7 @@
         <v>2.1</v>
       </c>
       <c r="O214">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P214">
         <v>2.9</v>
@@ -19463,7 +19463,7 @@
         <v>1.95</v>
       </c>
       <c r="T214">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U214">
         <v>1.875</v>

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -14672,7 +14672,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6848387</v>
+        <v>6848385</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14684,55 +14684,55 @@
         <v>45269.5</v>
       </c>
       <c r="F160" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H160">
         <v>1</v>
       </c>
       <c r="I160">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J160" t="s">
         <v>43</v>
       </c>
       <c r="K160">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L160">
         <v>3.6</v>
       </c>
       <c r="M160">
+        <v>2.375</v>
+      </c>
+      <c r="N160">
+        <v>7.5</v>
+      </c>
+      <c r="O160">
+        <v>5</v>
+      </c>
+      <c r="P160">
+        <v>1.3</v>
+      </c>
+      <c r="Q160">
+        <v>1.5</v>
+      </c>
+      <c r="R160">
+        <v>1.975</v>
+      </c>
+      <c r="S160">
+        <v>1.825</v>
+      </c>
+      <c r="T160">
         <v>3.25</v>
       </c>
-      <c r="N160">
-        <v>2.05</v>
-      </c>
-      <c r="O160">
-        <v>3.6</v>
-      </c>
-      <c r="P160">
-        <v>3.3</v>
-      </c>
-      <c r="Q160">
-        <v>-0.25</v>
-      </c>
-      <c r="R160">
-        <v>1.8</v>
-      </c>
-      <c r="S160">
-        <v>2</v>
-      </c>
-      <c r="T160">
-        <v>2.75</v>
-      </c>
       <c r="U160">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V160">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
         <v>-1</v>
@@ -14741,16 +14741,16 @@
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="Z160">
         <v>-1</v>
       </c>
       <c r="AA160">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB160">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC160">
         <v>-1</v>
@@ -14761,7 +14761,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>6848385</v>
+        <v>6848387</v>
       </c>
       <c r="C161" t="s">
         <v>28</v>
@@ -14773,56 +14773,56 @@
         <v>45269.5</v>
       </c>
       <c r="F161" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G161" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H161">
         <v>1</v>
       </c>
       <c r="I161">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J161" t="s">
         <v>43</v>
       </c>
       <c r="K161">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L161">
         <v>3.6</v>
       </c>
       <c r="M161">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="N161">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="O161">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P161">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q161">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R161">
+        <v>1.8</v>
+      </c>
+      <c r="S161">
+        <v>2</v>
+      </c>
+      <c r="T161">
+        <v>2.75</v>
+      </c>
+      <c r="U161">
+        <v>1.825</v>
+      </c>
+      <c r="V161">
         <v>1.975</v>
       </c>
-      <c r="S161">
-        <v>1.825</v>
-      </c>
-      <c r="T161">
-        <v>3.25</v>
-      </c>
-      <c r="U161">
-        <v>1.9</v>
-      </c>
-      <c r="V161">
-        <v>1.9</v>
-      </c>
       <c r="W161">
         <v>-1</v>
       </c>
@@ -14830,16 +14830,16 @@
         <v>-1</v>
       </c>
       <c r="Y161">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="Z161">
         <v>-1</v>
       </c>
       <c r="AA161">
+        <v>1</v>
+      </c>
+      <c r="AB161">
         <v>0.825</v>
-      </c>
-      <c r="AB161">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC161">
         <v>-1</v>

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -103,7 +103,7 @@
     <t>Scotland League One</t>
   </si>
   <si>
-    <t>Hamilton</t>
+    <t>Queen of South</t>
   </si>
   <si>
     <t>Montrose</t>
@@ -112,19 +112,10 @@
     <t>Falkirk</t>
   </si>
   <si>
-    <t>Queen of South</t>
+    <t>Hamilton</t>
   </si>
   <si>
     <t>Stirling</t>
-  </si>
-  <si>
-    <t>Alloa</t>
-  </si>
-  <si>
-    <t>Annan Athletic</t>
-  </si>
-  <si>
-    <t>FC Edinburgh</t>
   </si>
   <si>
     <t>Cove Rangers</t>
@@ -133,10 +124,19 @@
     <t>Kelty Hearts</t>
   </si>
   <si>
-    <t>H</t>
+    <t>Alloa</t>
+  </si>
+  <si>
+    <t>FC Edinburgh</t>
+  </si>
+  <si>
+    <t>Annan Athletic</t>
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6845830</v>
+        <v>6848340</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -613,73 +613,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L2">
         <v>3.75</v>
       </c>
       <c r="M2">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N2">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O2">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R2">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S2">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V2">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W2">
+        <v>-1</v>
+      </c>
+      <c r="X2">
+        <v>-1</v>
+      </c>
+      <c r="Y2">
+        <v>2.4</v>
+      </c>
+      <c r="Z2">
+        <v>-1</v>
+      </c>
+      <c r="AA2">
+        <v>0.925</v>
+      </c>
+      <c r="AB2">
         <v>0.95</v>
       </c>
-      <c r="X2">
-        <v>-1</v>
-      </c>
-      <c r="Y2">
-        <v>-1</v>
-      </c>
-      <c r="Z2">
-        <v>0.8</v>
-      </c>
-      <c r="AA2">
-        <v>-1</v>
-      </c>
-      <c r="AB2">
-        <v>-1</v>
-      </c>
       <c r="AC2">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -702,7 +702,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3">
         <v>2.4</v>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>1.444</v>
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6848340</v>
+        <v>6845830</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -883,70 +883,70 @@
         <v>34</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>40</v>
       </c>
       <c r="K5">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>3.75</v>
       </c>
       <c r="M5">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="N5">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="Q5">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T5">
         <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K6">
         <v>2.4</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6848342</v>
+        <v>6845658</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,73 +1058,73 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L7">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M7">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N7">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="O7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P7">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q7">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R7">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S7">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U7">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V7">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W7">
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y7">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC7">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6848343</v>
+        <v>6845829</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,52 +1147,52 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="N8">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="O8">
         <v>3.5</v>
       </c>
       <c r="P8">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q8">
         <v>0.25</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1201,19 +1201,19 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6848344</v>
+        <v>6848342</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,52 +1236,52 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>3.6</v>
+      </c>
+      <c r="M9">
+        <v>3.2</v>
+      </c>
+      <c r="N9">
+        <v>2.25</v>
+      </c>
+      <c r="O9">
+        <v>3.4</v>
+      </c>
+      <c r="P9">
         <v>2.8</v>
       </c>
-      <c r="L9">
-        <v>3.5</v>
-      </c>
-      <c r="M9">
-        <v>2.2</v>
-      </c>
-      <c r="N9">
-        <v>3.5</v>
-      </c>
-      <c r="O9">
-        <v>3.6</v>
-      </c>
-      <c r="P9">
-        <v>1.85</v>
-      </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S9">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1290,19 +1290,19 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>0.8500000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6845658</v>
+        <v>6848344</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,73 +1325,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="L10">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M10">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N10">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P10">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="Q10">
         <v>0.5</v>
       </c>
       <c r="R10">
+        <v>1.9</v>
+      </c>
+      <c r="S10">
+        <v>1.95</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
         <v>1.85</v>
       </c>
-      <c r="S10">
-        <v>2</v>
-      </c>
-      <c r="T10">
-        <v>2.5</v>
-      </c>
-      <c r="U10">
-        <v>1.85</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB10">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6845829</v>
+        <v>6848343</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1414,52 +1414,52 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="L11">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="N11">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="O11">
         <v>3.5</v>
       </c>
       <c r="P11">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="Q11">
         <v>0.25</v>
       </c>
       <c r="R11">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S11">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T11">
         <v>2.75</v>
       </c>
       <c r="U11">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V11">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W11">
         <v>-1</v>
@@ -1468,19 +1468,19 @@
         <v>-1</v>
       </c>
       <c r="Y11">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="Z11">
         <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC11">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,10 +1500,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K12">
         <v>1.8</v>
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6845827</v>
+        <v>6848346</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1589,76 +1589,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
         <v>36</v>
       </c>
-      <c r="G13" t="s">
-        <v>29</v>
-      </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>40</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L13">
         <v>3.6</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N13">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>2.5</v>
+      </c>
+      <c r="U13">
+        <v>1.875</v>
+      </c>
+      <c r="V13">
         <v>1.975</v>
       </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="U13">
-        <v>1.975</v>
-      </c>
-      <c r="V13">
-        <v>1.825</v>
-      </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6848346</v>
+        <v>6845659</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,76 +1678,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>34</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="s">
         <v>39</v>
       </c>
       <c r="K14">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L14">
         <v>3.6</v>
       </c>
       <c r="M14">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N14">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O14">
         <v>3.5</v>
       </c>
       <c r="P14">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S14">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W14">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X14">
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z14">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB14">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6845659</v>
+        <v>6845827</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,10 +1767,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1779,37 +1779,37 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="O15">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P15">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S15">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T15">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15">
         <v>1.975</v>
@@ -1824,19 +1824,19 @@
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>1.45</v>
+        <v>0.571</v>
       </c>
       <c r="Z15">
         <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB15">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K16">
         <v>1.615</v>
@@ -1933,7 +1933,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6845660</v>
+        <v>6845826</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1945,76 +1945,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>40</v>
       </c>
       <c r="K17">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="L17">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M17">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="N17">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="O17">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="P17">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="Q17">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R17">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S17">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U17">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X17">
         <v>-1</v>
       </c>
       <c r="Y17">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA17">
-        <v>0.875</v>
+        <v>0.475</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6845826</v>
+        <v>6845660</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,76 +2034,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
         <v>29</v>
-      </c>
-      <c r="G18" t="s">
-        <v>30</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>39</v>
       </c>
       <c r="K18">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="L18">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M18">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="O18">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q18">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S18">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W18">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>0.475</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2123,10 +2123,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -2135,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19">
         <v>2.1</v>
@@ -2215,7 +2215,7 @@
         <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K20">
         <v>1.75</v>
@@ -2301,7 +2301,7 @@
         <v>45164.5625</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>31</v>
@@ -2313,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K21">
         <v>2.8</v>
@@ -2390,7 +2390,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
         <v>30</v>
@@ -2402,7 +2402,7 @@
         <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K22">
         <v>1.8</v>
@@ -2479,10 +2479,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" t="s">
         <v>38</v>
-      </c>
-      <c r="G23" t="s">
-        <v>35</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2556,7 +2556,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6848351</v>
+        <v>6845825</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2568,76 +2568,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L24">
+        <v>3.6</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>3.6</v>
+      </c>
+      <c r="O24">
         <v>3.75</v>
       </c>
-      <c r="M24">
-        <v>1.666</v>
-      </c>
-      <c r="N24">
-        <v>10</v>
-      </c>
-      <c r="O24">
-        <v>5.5</v>
-      </c>
       <c r="P24">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="Q24">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y24">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA24">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2657,10 +2657,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
         <v>34</v>
-      </c>
-      <c r="G25" t="s">
-        <v>37</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K25">
         <v>2.4</v>
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6845825</v>
+        <v>6848351</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,76 +2746,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N26">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="O26">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P26">
-        <v>1.833</v>
+        <v>1.222</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="R26">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S26">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T26">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U26">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V26">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z26">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB26">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2823,7 +2823,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6848356</v>
+        <v>6845662</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2835,73 +2835,73 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I27">
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>1.909</v>
+        <v>2.1</v>
       </c>
       <c r="L27">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M27">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="O27">
         <v>3.8</v>
       </c>
       <c r="P27">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="Q27">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R27">
+        <v>1.925</v>
+      </c>
+      <c r="S27">
         <v>1.875</v>
-      </c>
-      <c r="S27">
-        <v>1.925</v>
       </c>
       <c r="T27">
         <v>2.75</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W27">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
+        <v>-1</v>
+      </c>
+      <c r="AA27">
         <v>0.875</v>
       </c>
-      <c r="AA27">
-        <v>-1</v>
-      </c>
       <c r="AB27">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC27">
         <v>-1</v>
@@ -2912,7 +2912,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6848354</v>
+        <v>6845824</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2924,58 +2924,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="L28">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="N28">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="O28">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R28">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T28">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
-        <v>1.7</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2984,16 +2984,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AC28">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6848355</v>
+        <v>6848356</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,55 +3013,55 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K29">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N29">
         <v>1.5</v>
       </c>
       <c r="O29">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
         <v>0.5</v>
@@ -3073,16 +3073,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA29">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6845662</v>
+        <v>6848355</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3102,49 +3102,49 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="L30">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M30">
+        <v>4.2</v>
+      </c>
+      <c r="N30">
+        <v>1.5</v>
+      </c>
+      <c r="O30">
+        <v>4.75</v>
+      </c>
+      <c r="P30">
+        <v>5.25</v>
+      </c>
+      <c r="Q30">
+        <v>-1.25</v>
+      </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
+      <c r="S30">
+        <v>1.8</v>
+      </c>
+      <c r="T30">
         <v>3</v>
-      </c>
-      <c r="N30">
-        <v>1.727</v>
-      </c>
-      <c r="O30">
-        <v>3.8</v>
-      </c>
-      <c r="P30">
-        <v>4</v>
-      </c>
-      <c r="Q30">
-        <v>-0.75</v>
-      </c>
-      <c r="R30">
-        <v>1.925</v>
-      </c>
-      <c r="S30">
-        <v>1.875</v>
-      </c>
-      <c r="T30">
-        <v>2.75</v>
       </c>
       <c r="U30">
         <v>1.9</v>
@@ -3153,25 +3153,25 @@
         <v>1.9</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X30">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA30">
-        <v>0.875</v>
+        <v>0.4</v>
       </c>
       <c r="AB30">
+        <v>-1</v>
+      </c>
+      <c r="AC30">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6845824</v>
+        <v>6848354</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3191,58 +3191,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M31">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N31">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q31">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V31">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
-        <v>0.3999999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3251,16 +3251,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA31">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3280,10 +3280,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -3369,10 +3369,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s">
         <v>32</v>
-      </c>
-      <c r="G33" t="s">
-        <v>29</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3381,7 +3381,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3446,7 +3446,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6848357</v>
+        <v>6848359</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3458,76 +3458,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K34">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L34">
         <v>3.6</v>
       </c>
       <c r="M34">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="N34">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="O34">
         <v>3.6</v>
       </c>
       <c r="P34">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R34">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T34">
         <v>2.75</v>
       </c>
       <c r="U34">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V34">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X34">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
         <v>-1</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
         <v>-1</v>
       </c>
       <c r="AC34">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3535,7 +3535,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6848359</v>
+        <v>6848357</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3547,76 +3547,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K35">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L35">
         <v>3.6</v>
       </c>
       <c r="M35">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="O35">
         <v>3.6</v>
       </c>
       <c r="P35">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S35">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T35">
         <v>2.75</v>
       </c>
       <c r="U35">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB35">
         <v>-1</v>
       </c>
       <c r="AC35">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3636,7 +3636,7 @@
         <v>45192.5625</v>
       </c>
       <c r="F36" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>31</v>
@@ -3648,7 +3648,7 @@
         <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K36">
         <v>3.6</v>
@@ -3725,10 +3725,10 @@
         <v>45198.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K37">
         <v>1.444</v>
@@ -3802,7 +3802,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6848361</v>
+        <v>6848360</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3814,61 +3814,61 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K38">
-        <v>1.5</v>
+        <v>1.727</v>
       </c>
       <c r="L38">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M38">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="N38">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="O38">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="P38">
-        <v>9.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q38">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T38">
         <v>3</v>
       </c>
       <c r="U38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V38">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y38">
         <v>-1</v>
@@ -3877,13 +3877,13 @@
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AB38">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3891,7 +3891,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6848362</v>
+        <v>6848361</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3903,58 +3903,58 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>3</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K39">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="M39">
-        <v>2.625</v>
+        <v>4.75</v>
       </c>
       <c r="N39">
-        <v>2.4</v>
+        <v>1.25</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P39">
-        <v>2.5</v>
+        <v>9.5</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-1.75</v>
       </c>
       <c r="R39">
+        <v>1.95</v>
+      </c>
+      <c r="S39">
         <v>1.85</v>
       </c>
-      <c r="S39">
-        <v>1.95</v>
-      </c>
       <c r="T39">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U39">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W39">
-        <v>1.4</v>
+        <v>0.25</v>
       </c>
       <c r="X39">
         <v>-1</v>
@@ -3963,13 +3963,13 @@
         <v>-1</v>
       </c>
       <c r="Z39">
+        <v>-1</v>
+      </c>
+      <c r="AA39">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA39">
-        <v>-1</v>
-      </c>
       <c r="AB39">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AC39">
         <v>-1</v>
@@ -3980,7 +3980,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6848360</v>
+        <v>6848362</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3992,76 +3992,76 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K40">
-        <v>1.727</v>
+        <v>2.25</v>
       </c>
       <c r="L40">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M40">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="N40">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P40">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S40">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T40">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U40">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V40">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X40">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
         <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA40">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC40">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4084,7 +4084,7 @@
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4158,7 +4158,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6845665</v>
+        <v>6848365</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4170,76 +4170,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J42" t="s">
         <v>39</v>
       </c>
       <c r="K42">
-        <v>1.75</v>
+        <v>2.15</v>
       </c>
       <c r="L42">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="N42">
-        <v>1.571</v>
+        <v>2.05</v>
       </c>
       <c r="O42">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P42">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S42">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
+        <v>1.925</v>
+      </c>
+      <c r="V42">
         <v>1.875</v>
       </c>
-      <c r="V42">
-        <v>1.925</v>
-      </c>
       <c r="W42">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AB42">
+        <v>-1</v>
+      </c>
+      <c r="AC42">
         <v>0.875</v>
-      </c>
-      <c r="AC42">
-        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:29">
@@ -4247,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6848363</v>
+        <v>6848364</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4259,76 +4259,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F43" t="s">
+        <v>30</v>
+      </c>
+      <c r="G43" t="s">
         <v>36</v>
       </c>
-      <c r="G43" t="s">
-        <v>38</v>
-      </c>
       <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
         <v>1</v>
-      </c>
-      <c r="I43">
-        <v>4</v>
       </c>
       <c r="J43" t="s">
         <v>40</v>
       </c>
       <c r="K43">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="L43">
         <v>3.6</v>
       </c>
       <c r="M43">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N43">
+        <v>1.909</v>
+      </c>
+      <c r="O43">
         <v>3.6</v>
       </c>
-      <c r="O43">
-        <v>4</v>
-      </c>
       <c r="P43">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q43">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U43">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>1.025</v>
+        <v>0.4375</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4336,7 +4336,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6848364</v>
+        <v>6845665</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4348,58 +4348,58 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K44">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="L44">
         <v>3.6</v>
       </c>
       <c r="M44">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="N44">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="O44">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P44">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U44">
         <v>1.875</v>
       </c>
       <c r="V44">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
-        <v>0.909</v>
+        <v>0.571</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4408,16 +4408,16 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AC44">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4425,7 +4425,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6848365</v>
+        <v>6848363</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4437,55 +4437,55 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K45">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="L45">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M45">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="N45">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="O45">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P45">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R45">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U45">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W45">
         <v>-1</v>
@@ -4494,19 +4494,19 @@
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="Z45">
         <v>-1</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4529,7 +4529,7 @@
         <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4615,10 +4615,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4692,7 +4692,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6848367</v>
+        <v>6848368</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4704,55 +4704,55 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K48">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="L48">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M48">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="N48">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="O48">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="P48">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="Q48">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R48">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S48">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T48">
         <v>3</v>
       </c>
       <c r="U48">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V48">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4761,19 +4761,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>1.3</v>
+        <v>0.45</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA48">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4781,7 +4781,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6848368</v>
+        <v>6848366</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4793,76 +4793,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
         <v>1</v>
-      </c>
-      <c r="I49">
-        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>40</v>
       </c>
       <c r="K49">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L49">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="M49">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>5.75</v>
+        <v>2.6</v>
       </c>
       <c r="O49">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P49">
-        <v>1.45</v>
+        <v>2.4</v>
       </c>
       <c r="Q49">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R49">
+        <v>1.975</v>
+      </c>
+      <c r="S49">
+        <v>1.825</v>
+      </c>
+      <c r="T49">
+        <v>2.75</v>
+      </c>
+      <c r="U49">
+        <v>1.925</v>
+      </c>
+      <c r="V49">
         <v>1.875</v>
       </c>
-      <c r="S49">
-        <v>1.925</v>
-      </c>
-      <c r="T49">
-        <v>3</v>
-      </c>
-      <c r="U49">
-        <v>2</v>
-      </c>
-      <c r="V49">
-        <v>1.8</v>
-      </c>
       <c r="W49">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.4375</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA49">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC49">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4870,7 +4870,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6848366</v>
+        <v>6848367</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4882,13 +4882,13 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G50" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -4900,58 +4900,58 @@
         <v>2.1</v>
       </c>
       <c r="L50">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M50">
+        <v>2.875</v>
+      </c>
+      <c r="N50">
+        <v>2.75</v>
+      </c>
+      <c r="O50">
+        <v>3.5</v>
+      </c>
+      <c r="P50">
+        <v>2.3</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>2.05</v>
+      </c>
+      <c r="S50">
+        <v>1.8</v>
+      </c>
+      <c r="T50">
         <v>3</v>
       </c>
-      <c r="N50">
-        <v>2.6</v>
-      </c>
-      <c r="O50">
-        <v>3.3</v>
-      </c>
-      <c r="P50">
-        <v>2.4</v>
-      </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
+      <c r="U50">
         <v>1.975</v>
-      </c>
-      <c r="S50">
-        <v>1.825</v>
-      </c>
-      <c r="T50">
-        <v>2.75</v>
-      </c>
-      <c r="U50">
-        <v>1.925</v>
       </c>
       <c r="V50">
         <v>1.875</v>
       </c>
       <c r="W50">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z50">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4971,7 +4971,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G51" t="s">
         <v>33</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K51">
         <v>2.25</v>
@@ -5063,7 +5063,7 @@
         <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K52">
         <v>1.2</v>
@@ -5149,10 +5149,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G53" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5161,7 +5161,7 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K53">
         <v>3.2</v>
@@ -5238,10 +5238,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K54">
         <v>2.625</v>
@@ -5330,7 +5330,7 @@
         <v>30</v>
       </c>
       <c r="G55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K55">
         <v>4.5</v>
@@ -5404,7 +5404,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6845818</v>
+        <v>6848372</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5416,76 +5416,76 @@
         <v>45234.5</v>
       </c>
       <c r="F56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="L56">
+        <v>3.4</v>
+      </c>
+      <c r="M56">
+        <v>2.45</v>
+      </c>
+      <c r="N56">
+        <v>2.45</v>
+      </c>
+      <c r="O56">
         <v>3.5</v>
       </c>
-      <c r="M56">
-        <v>2.2</v>
-      </c>
-      <c r="N56">
-        <v>3.6</v>
-      </c>
-      <c r="O56">
-        <v>3.75</v>
-      </c>
       <c r="P56">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q56">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S56">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T56">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U56">
         <v>1.925</v>
       </c>
       <c r="V56">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W56">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X56">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y56">
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB56">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC56">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5493,7 +5493,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6848372</v>
+        <v>6848373</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5505,73 +5505,73 @@
         <v>45234.5</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K57">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="N57">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="O57">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="P57">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R57">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T57">
         <v>3</v>
       </c>
       <c r="U57">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W57">
         <v>-1</v>
       </c>
       <c r="X57">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB57">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5582,7 +5582,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6848373</v>
+        <v>6845818</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5594,76 +5594,76 @@
         <v>45234.5</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>40</v>
       </c>
       <c r="K58">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="L58">
+        <v>3.5</v>
+      </c>
+      <c r="M58">
+        <v>2.2</v>
+      </c>
+      <c r="N58">
+        <v>3.6</v>
+      </c>
+      <c r="O58">
         <v>3.75</v>
       </c>
-      <c r="M58">
-        <v>1.909</v>
-      </c>
-      <c r="N58">
-        <v>2.8</v>
-      </c>
-      <c r="O58">
-        <v>3.8</v>
-      </c>
       <c r="P58">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R58">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S58">
         <v>1.85</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U58">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V58">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
+        <v>-1</v>
+      </c>
+      <c r="Z58">
         <v>1</v>
       </c>
-      <c r="Z58">
-        <v>-1</v>
-      </c>
       <c r="AA58">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5671,7 +5671,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6848374</v>
+        <v>6848375</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5683,76 +5683,76 @@
         <v>45234.5</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K59">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M59">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="N59">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="O59">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P59">
-        <v>1.363</v>
+        <v>2.9</v>
       </c>
       <c r="Q59">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S59">
+        <v>1.95</v>
+      </c>
+      <c r="T59">
+        <v>2.5</v>
+      </c>
+      <c r="U59">
         <v>1.85</v>
       </c>
-      <c r="T59">
-        <v>3</v>
-      </c>
-      <c r="U59">
+      <c r="V59">
         <v>1.95</v>
       </c>
-      <c r="V59">
+      <c r="W59">
+        <v>-1</v>
+      </c>
+      <c r="X59">
+        <v>-1</v>
+      </c>
+      <c r="Y59">
         <v>1.9</v>
       </c>
-      <c r="W59">
-        <v>-1</v>
-      </c>
-      <c r="X59">
-        <v>3.2</v>
-      </c>
-      <c r="Y59">
-        <v>-1</v>
-      </c>
       <c r="Z59">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB59">
         <v>-1</v>
       </c>
       <c r="AC59">
-        <v>0.8999999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5760,7 +5760,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6848375</v>
+        <v>6848374</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5772,76 +5772,76 @@
         <v>45234.5</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K60">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="L60">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M60">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="N60">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="O60">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P60">
-        <v>2.9</v>
+        <v>1.363</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R60">
+        <v>2</v>
+      </c>
+      <c r="S60">
         <v>1.85</v>
       </c>
-      <c r="S60">
+      <c r="T60">
+        <v>3</v>
+      </c>
+      <c r="U60">
         <v>1.95</v>
       </c>
-      <c r="T60">
-        <v>2.5</v>
-      </c>
-      <c r="U60">
-        <v>1.85</v>
-      </c>
       <c r="V60">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W60">
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y60">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
         <v>-1</v>
       </c>
       <c r="AC60">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5849,7 +5849,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6845817</v>
+        <v>6845668</v>
       </c>
       <c r="C61" t="s">
         <v>28</v>
@@ -5861,76 +5861,76 @@
         <v>45241.5</v>
       </c>
       <c r="F61" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H61">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" t="s">
         <v>39</v>
       </c>
       <c r="K61">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="L61">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M61">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="N61">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="O61">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="P61">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="Q61">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R61">
+        <v>1.775</v>
+      </c>
+      <c r="S61">
         <v>2.025</v>
-      </c>
-      <c r="S61">
-        <v>1.825</v>
       </c>
       <c r="T61">
         <v>2.75</v>
       </c>
       <c r="U61">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="V61">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W61">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X61">
         <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z61">
+        <v>-1</v>
+      </c>
+      <c r="AA61">
         <v>1.025</v>
       </c>
-      <c r="AA61">
-        <v>-1</v>
-      </c>
       <c r="AB61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="62" spans="1:29">
@@ -5938,7 +5938,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6848376</v>
+        <v>6845817</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5950,46 +5950,46 @@
         <v>45241.5</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K62">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="L62">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M62">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N62">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="O62">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P62">
-        <v>2.625</v>
+        <v>8</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R62">
+        <v>2.025</v>
+      </c>
+      <c r="S62">
         <v>1.825</v>
-      </c>
-      <c r="S62">
-        <v>2.025</v>
       </c>
       <c r="T62">
         <v>2.75</v>
@@ -6001,7 +6001,7 @@
         <v>1.975</v>
       </c>
       <c r="W62">
-        <v>1.4</v>
+        <v>0.333</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6010,16 +6010,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC62">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6027,7 +6027,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6845668</v>
+        <v>6848376</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6039,43 +6039,43 @@
         <v>45241.5</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
         <v>40</v>
       </c>
       <c r="K63">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="L63">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M63">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="N63">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="O63">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P63">
-        <v>2.25</v>
+        <v>2.625</v>
       </c>
       <c r="Q63">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S63">
         <v>2.025</v>
@@ -6084,31 +6084,31 @@
         <v>2.75</v>
       </c>
       <c r="U63">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="V63">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="X63">
         <v>-1</v>
       </c>
       <c r="Y63">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z63">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6131,7 +6131,7 @@
         <v>31</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6140,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K64">
         <v>1.166</v>
@@ -6220,7 +6220,7 @@
         <v>30</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6306,7 +6306,7 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G66" t="s">
         <v>30</v>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K66">
         <v>1.85</v>
@@ -6383,7 +6383,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6845669</v>
+        <v>6848381</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6395,40 +6395,40 @@
         <v>45248.5</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
         <v>3</v>
-      </c>
-      <c r="I67">
-        <v>1</v>
       </c>
       <c r="J67" t="s">
         <v>39</v>
       </c>
       <c r="K67">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="L67">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M67">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="N67">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O67">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="P67">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="Q67">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
         <v>1.825</v>
@@ -6440,28 +6440,28 @@
         <v>2.75</v>
       </c>
       <c r="U67">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V67">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X67">
         <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z67">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB67">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC67">
         <v>-1</v>
@@ -6484,10 +6484,10 @@
         <v>45248.5</v>
       </c>
       <c r="F68" t="s">
+        <v>37</v>
+      </c>
+      <c r="G68" t="s">
         <v>36</v>
-      </c>
-      <c r="G68" t="s">
-        <v>34</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -6496,7 +6496,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K68">
         <v>3.2</v>
@@ -6561,7 +6561,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6848381</v>
+        <v>6845669</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6573,40 +6573,40 @@
         <v>45248.5</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
         <v>1</v>
-      </c>
-      <c r="I69">
-        <v>3</v>
       </c>
       <c r="J69" t="s">
         <v>40</v>
       </c>
       <c r="K69">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="L69">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M69">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="N69">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O69">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P69">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
         <v>1.825</v>
@@ -6618,28 +6618,28 @@
         <v>2.75</v>
       </c>
       <c r="U69">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AC69">
         <v>-1</v>
@@ -6650,7 +6650,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7414972</v>
+        <v>7392209</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6662,19 +6662,19 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K70">
         <v>6.5</v>
@@ -6686,52 +6686,52 @@
         <v>1.444</v>
       </c>
       <c r="N70">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="Q70">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T70">
         <v>3</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y70">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA70">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6739,7 +6739,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7392209</v>
+        <v>7414972</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6751,19 +6751,19 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K71">
         <v>6.5</v>
@@ -6775,52 +6775,52 @@
         <v>1.444</v>
       </c>
       <c r="N71">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P71">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q71">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R71">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T71">
         <v>3</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z71">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC71">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6840,10 +6840,10 @@
         <v>45262.5</v>
       </c>
       <c r="F72" t="s">
+        <v>32</v>
+      </c>
+      <c r="G72" t="s">
         <v>29</v>
-      </c>
-      <c r="G72" t="s">
-        <v>32</v>
       </c>
       <c r="H72">
         <v>5</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K72">
         <v>1.5</v>
@@ -6929,10 +6929,10 @@
         <v>45269.5</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7006,7 +7006,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6845671</v>
+        <v>6848385</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7018,10 +7018,10 @@
         <v>45269.5</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7030,44 +7030,44 @@
         <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K74">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="L74">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="N74">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="P74">
-        <v>1.95</v>
+        <v>1.3</v>
       </c>
       <c r="Q74">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R74">
+        <v>1.975</v>
+      </c>
+      <c r="S74">
+        <v>1.825</v>
+      </c>
+      <c r="T74">
+        <v>3.25</v>
+      </c>
+      <c r="U74">
         <v>1.9</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.9</v>
       </c>
-      <c r="T74">
-        <v>2.75</v>
-      </c>
-      <c r="U74">
-        <v>1.8</v>
-      </c>
-      <c r="V74">
-        <v>2</v>
-      </c>
       <c r="W74">
         <v>-1</v>
       </c>
@@ -7075,16 +7075,16 @@
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.95</v>
+        <v>0.3</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
+        <v>0.825</v>
+      </c>
+      <c r="AB74">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB74">
-        <v>0.8</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6848386</v>
+        <v>6845671</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,76 +7107,76 @@
         <v>45269.5</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
         <v>39</v>
       </c>
       <c r="K75">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="L75">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="M75">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="N75">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="O75">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="P75">
-        <v>10</v>
+        <v>1.95</v>
       </c>
       <c r="Q75">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W75">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X75">
         <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z75">
         <v>-1</v>
       </c>
       <c r="AA75">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB75">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC75">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7199,7 +7199,7 @@
         <v>30</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7208,7 +7208,7 @@
         <v>4</v>
       </c>
       <c r="J76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K76">
         <v>2.1</v>
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6848385</v>
+        <v>6848386</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,76 +7285,76 @@
         <v>45269.5</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
         <v>1</v>
-      </c>
-      <c r="I77">
-        <v>3</v>
       </c>
       <c r="J77" t="s">
         <v>40</v>
       </c>
       <c r="K77">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L77">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M77">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="N77">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P77">
-        <v>1.3</v>
+        <v>10</v>
       </c>
       <c r="Q77">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R77">
+        <v>1.825</v>
+      </c>
+      <c r="S77">
         <v>1.975</v>
       </c>
-      <c r="S77">
+      <c r="T77">
+        <v>3</v>
+      </c>
+      <c r="U77">
+        <v>1.975</v>
+      </c>
+      <c r="V77">
         <v>1.825</v>
       </c>
-      <c r="T77">
-        <v>3.25</v>
-      </c>
-      <c r="U77">
-        <v>1.9</v>
-      </c>
-      <c r="V77">
-        <v>1.9</v>
-      </c>
       <c r="W77">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X77">
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB77">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC77">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7362,7 +7362,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6848390</v>
+        <v>6845813</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7374,76 +7374,76 @@
         <v>45276.5</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H78">
         <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K78">
-        <v>2.15</v>
+        <v>2.375</v>
       </c>
       <c r="L78">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M78">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="N78">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P78">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R78">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S78">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T78">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V78">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z78">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AB78">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7451,7 +7451,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6848389</v>
+        <v>6845672</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7463,73 +7463,73 @@
         <v>45276.5</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
       </c>
       <c r="H79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>39</v>
       </c>
       <c r="K79">
-        <v>1.333</v>
+        <v>1.571</v>
       </c>
       <c r="L79">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M79">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N79">
-        <v>1.181</v>
+        <v>1.7</v>
       </c>
       <c r="O79">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="Q79">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
         <v>1.9</v>
       </c>
       <c r="S79">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="T79">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W79">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X79">
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA79">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB79">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AC79">
         <v>-1</v>
@@ -7552,7 +7552,7 @@
         <v>45276.5</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G80" t="s">
         <v>30</v>
@@ -7564,7 +7564,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K80">
         <v>2.1</v>
@@ -7629,7 +7629,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6845813</v>
+        <v>6848389</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7644,70 +7644,70 @@
         <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H81">
+        <v>3</v>
+      </c>
+      <c r="I81">
         <v>1</v>
-      </c>
-      <c r="I81">
-        <v>3</v>
       </c>
       <c r="J81" t="s">
         <v>40</v>
       </c>
       <c r="K81">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="L81">
+        <v>5</v>
+      </c>
+      <c r="M81">
+        <v>6</v>
+      </c>
+      <c r="N81">
+        <v>1.181</v>
+      </c>
+      <c r="O81">
+        <v>6</v>
+      </c>
+      <c r="P81">
+        <v>12</v>
+      </c>
+      <c r="Q81">
+        <v>-2</v>
+      </c>
+      <c r="R81">
+        <v>1.9</v>
+      </c>
+      <c r="S81">
+        <v>1.95</v>
+      </c>
+      <c r="T81">
         <v>3.25</v>
       </c>
-      <c r="M81">
-        <v>3</v>
-      </c>
-      <c r="N81">
-        <v>2.7</v>
-      </c>
-      <c r="O81">
-        <v>3.1</v>
-      </c>
-      <c r="P81">
-        <v>2.7</v>
-      </c>
-      <c r="Q81">
-        <v>0</v>
-      </c>
-      <c r="R81">
-        <v>2.025</v>
-      </c>
-      <c r="S81">
-        <v>1.825</v>
-      </c>
-      <c r="T81">
-        <v>2.25</v>
-      </c>
       <c r="U81">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X81">
         <v>-1</v>
       </c>
       <c r="Y81">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA81">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB81">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC81">
         <v>-1</v>
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6845672</v>
+        <v>6848390</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,76 +7730,76 @@
         <v>45276.5</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H82">
         <v>1</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K82">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N82">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="O82">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="Q82">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
+        <v>2</v>
+      </c>
+      <c r="V82">
         <v>1.8</v>
       </c>
-      <c r="V82">
-        <v>2</v>
-      </c>
       <c r="W82">
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y82">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z82">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AB82">
+        <v>-1</v>
+      </c>
+      <c r="AC82">
         <v>0.8</v>
-      </c>
-      <c r="AC82">
-        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7819,10 +7819,10 @@
         <v>45283.5</v>
       </c>
       <c r="F83" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7896,7 +7896,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6848391</v>
+        <v>6848393</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7908,76 +7908,76 @@
         <v>45283.5</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
         <v>41</v>
       </c>
       <c r="K84">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L84">
         <v>3.4</v>
       </c>
       <c r="M84">
+        <v>3.1</v>
+      </c>
+      <c r="N84">
         <v>2.5</v>
       </c>
-      <c r="N84">
-        <v>2.05</v>
-      </c>
       <c r="O84">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P84">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R84">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T84">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="V84">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W84">
         <v>-1</v>
       </c>
       <c r="X84">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7985,7 +7985,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6848392</v>
+        <v>6848391</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -7997,76 +7997,76 @@
         <v>45283.5</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K85">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="L85">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="M85">
-        <v>1.444</v>
+        <v>2.5</v>
       </c>
       <c r="N85">
-        <v>9</v>
+        <v>2.05</v>
       </c>
       <c r="O85">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P85">
-        <v>1.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q85">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R85">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S85">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T85">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W85">
         <v>-1</v>
       </c>
       <c r="X85">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y85">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA85">
-        <v>0.8500000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="AB85">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC85">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8074,7 +8074,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6848393</v>
+        <v>6848392</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8086,76 +8086,76 @@
         <v>45283.5</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K86">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M86">
-        <v>3.1</v>
+        <v>1.444</v>
       </c>
       <c r="N86">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="O86">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="P86">
-        <v>2.55</v>
+        <v>1.25</v>
       </c>
       <c r="Q86">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R86">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S86">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U86">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V86">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
         <v>-1</v>
       </c>
       <c r="X86">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC86">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8175,10 +8175,10 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F87" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" t="s">
         <v>37</v>
-      </c>
-      <c r="G87" t="s">
-        <v>36</v>
       </c>
       <c r="H87">
         <v>7</v>
@@ -8187,7 +8187,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K87">
         <v>1.083</v>
@@ -8252,7 +8252,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6848394</v>
+        <v>6845811</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8264,73 +8264,73 @@
         <v>45290.5</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
         <v>5</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
       </c>
       <c r="J88" t="s">
         <v>39</v>
       </c>
       <c r="K88">
-        <v>1.285</v>
+        <v>9</v>
       </c>
       <c r="L88">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M88">
-        <v>7.5</v>
+        <v>1.222</v>
       </c>
       <c r="N88">
-        <v>1.166</v>
+        <v>34</v>
       </c>
       <c r="O88">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="P88">
-        <v>11</v>
+        <v>1.045</v>
       </c>
       <c r="Q88">
-        <v>-2</v>
+        <v>3.25</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T88">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z88">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8341,7 +8341,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6845811</v>
+        <v>6845674</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8353,76 +8353,76 @@
         <v>45290.5</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K89">
-        <v>9</v>
+        <v>2.55</v>
       </c>
       <c r="L89">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M89">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="N89">
-        <v>34</v>
+        <v>3.4</v>
       </c>
       <c r="O89">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>1.045</v>
+        <v>1.85</v>
       </c>
       <c r="Q89">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y89">
-        <v>0.04499999999999993</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6845674</v>
+        <v>6848396</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,61 +8442,61 @@
         <v>45290.5</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K90">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="L90">
         <v>3.5</v>
       </c>
       <c r="M90">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N90">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="O90">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q90">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
         <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X90">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y90">
         <v>-1</v>
@@ -8508,10 +8508,10 @@
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8519,7 +8519,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6848396</v>
+        <v>6848394</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8531,58 +8531,58 @@
         <v>45290.5</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K91">
-        <v>1.833</v>
+        <v>1.285</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M91">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N91">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="P91">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W91">
-        <v>0.833</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8591,16 +8591,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC91">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8608,7 +8608,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6845675</v>
+        <v>6848397</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8620,61 +8620,61 @@
         <v>45297.5</v>
       </c>
       <c r="F92" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92" t="s">
         <v>37</v>
       </c>
-      <c r="G92" t="s">
-        <v>38</v>
-      </c>
       <c r="H92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K92">
-        <v>1.666</v>
+        <v>1.05</v>
       </c>
       <c r="L92">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="M92">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="N92">
-        <v>1.666</v>
+        <v>1.083</v>
       </c>
       <c r="O92">
-        <v>3.75</v>
+        <v>9.5</v>
       </c>
       <c r="P92">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="Q92">
-        <v>-0.75</v>
+        <v>-2.75</v>
       </c>
       <c r="R92">
         <v>1.875</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U92">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V92">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X92">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
         <v>-1</v>
@@ -8683,13 +8683,13 @@
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8697,7 +8697,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6848397</v>
+        <v>6848399</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8709,58 +8709,58 @@
         <v>45297.5</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K93">
-        <v>1.05</v>
+        <v>1.333</v>
       </c>
       <c r="L93">
-        <v>11</v>
+        <v>4.5</v>
       </c>
       <c r="M93">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="N93">
-        <v>1.083</v>
+        <v>1.2</v>
       </c>
       <c r="O93">
-        <v>9.5</v>
+        <v>5.75</v>
       </c>
       <c r="P93">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="Q93">
-        <v>-2.75</v>
+        <v>-2</v>
       </c>
       <c r="R93">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S93">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T93">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>0.08299999999999996</v>
+        <v>0.2</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8772,13 +8772,13 @@
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB93">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8786,7 +8786,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6848398</v>
+        <v>6845675</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8798,10 +8798,10 @@
         <v>45297.5</v>
       </c>
       <c r="F94" t="s">
+        <v>34</v>
+      </c>
+      <c r="G94" t="s">
         <v>35</v>
-      </c>
-      <c r="G94" t="s">
-        <v>30</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8813,58 +8813,58 @@
         <v>41</v>
       </c>
       <c r="K94">
-        <v>3.4</v>
+        <v>1.666</v>
       </c>
       <c r="L94">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M94">
-        <v>1.909</v>
+        <v>4.333</v>
       </c>
       <c r="N94">
+        <v>1.666</v>
+      </c>
+      <c r="O94">
+        <v>3.75</v>
+      </c>
+      <c r="P94">
+        <v>4</v>
+      </c>
+      <c r="Q94">
+        <v>-0.75</v>
+      </c>
+      <c r="R94">
+        <v>1.875</v>
+      </c>
+      <c r="S94">
+        <v>1.925</v>
+      </c>
+      <c r="T94">
         <v>3</v>
       </c>
-      <c r="O94">
-        <v>3.3</v>
-      </c>
-      <c r="P94">
-        <v>2.15</v>
-      </c>
-      <c r="Q94">
-        <v>0.25</v>
-      </c>
-      <c r="R94">
-        <v>1.95</v>
-      </c>
-      <c r="S94">
-        <v>1.85</v>
-      </c>
-      <c r="T94">
+      <c r="U94">
+        <v>2</v>
+      </c>
+      <c r="V94">
+        <v>1.8</v>
+      </c>
+      <c r="W94">
+        <v>-1</v>
+      </c>
+      <c r="X94">
         <v>2.75</v>
       </c>
-      <c r="U94">
-        <v>1.975</v>
-      </c>
-      <c r="V94">
-        <v>1.825</v>
-      </c>
-      <c r="W94">
-        <v>-1</v>
-      </c>
-      <c r="X94">
-        <v>2.3</v>
-      </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB94">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8875,7 +8875,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6848399</v>
+        <v>6848398</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8887,76 +8887,76 @@
         <v>45297.5</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G95" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="L95">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
-        <v>8</v>
+        <v>1.909</v>
       </c>
       <c r="N95">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="O95">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="P95">
-        <v>12</v>
+        <v>2.15</v>
       </c>
       <c r="Q95">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S95">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T95">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V95">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W95">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA95">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8979,7 +8979,7 @@
         <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -8988,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K96">
         <v>1.444</v>
@@ -9065,10 +9065,10 @@
         <v>45304.5</v>
       </c>
       <c r="F97" t="s">
+        <v>35</v>
+      </c>
+      <c r="G97" t="s">
         <v>38</v>
-      </c>
-      <c r="G97" t="s">
-        <v>35</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9166,7 +9166,7 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K98">
         <v>1.8</v>
@@ -9243,10 +9243,10 @@
         <v>45304.5</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9332,10 +9332,10 @@
         <v>45304.5</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9344,7 +9344,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K100">
         <v>1.666</v>
@@ -9421,7 +9421,7 @@
         <v>45304.52083333334</v>
       </c>
       <c r="F101" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
         <v>31</v>
@@ -9498,7 +9498,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6848406</v>
+        <v>6845808</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9510,76 +9510,76 @@
         <v>45318.5</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H102">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K102">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M102">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="N102">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="O102">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="P102">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="Q102">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R102">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S102">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U102">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V102">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W102">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9599,10 +9599,10 @@
         <v>45318.5</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9611,7 +9611,7 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K103">
         <v>1.666</v>
@@ -9688,7 +9688,7 @@
         <v>45318.5</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G104" t="s">
         <v>31</v>
@@ -9700,7 +9700,7 @@
         <v>5</v>
       </c>
       <c r="J104" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K104">
         <v>6</v>
@@ -9765,7 +9765,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6848405</v>
+        <v>6848406</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9777,58 +9777,58 @@
         <v>45318.5</v>
       </c>
       <c r="F105" t="s">
+        <v>33</v>
+      </c>
+      <c r="G105" t="s">
         <v>35</v>
       </c>
-      <c r="G105" t="s">
-        <v>36</v>
-      </c>
       <c r="H105">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I105">
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K105">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="L105">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="N105">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="O105">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P105">
-        <v>9</v>
+        <v>2.55</v>
       </c>
       <c r="Q105">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="R105">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T105">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V105">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W105">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9837,16 +9837,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9854,7 +9854,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6845808</v>
+        <v>6848405</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9866,76 +9866,76 @@
         <v>45318.5</v>
       </c>
       <c r="F106" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G106" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K106">
-        <v>1.4</v>
+        <v>1.444</v>
       </c>
       <c r="L106">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M106">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N106">
-        <v>1.333</v>
+        <v>1.25</v>
       </c>
       <c r="O106">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="P106">
         <v>9</v>
       </c>
       <c r="Q106">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R106">
+        <v>1.875</v>
+      </c>
+      <c r="S106">
+        <v>1.925</v>
+      </c>
+      <c r="T106">
+        <v>3.5</v>
+      </c>
+      <c r="U106">
+        <v>1.825</v>
+      </c>
+      <c r="V106">
         <v>1.975</v>
       </c>
-      <c r="S106">
-        <v>1.825</v>
-      </c>
-      <c r="T106">
-        <v>3</v>
-      </c>
-      <c r="U106">
-        <v>1.95</v>
-      </c>
-      <c r="V106">
-        <v>1.85</v>
-      </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X106">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA106">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
         <v>-1</v>
       </c>
       <c r="AC106">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9943,7 +9943,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6845677</v>
+        <v>6845807</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9955,49 +9955,49 @@
         <v>45325.5</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K107">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="L107">
+        <v>4.1</v>
+      </c>
+      <c r="M107">
+        <v>1.5</v>
+      </c>
+      <c r="N107">
+        <v>5.25</v>
+      </c>
+      <c r="O107">
         <v>4</v>
       </c>
-      <c r="M107">
-        <v>1.8</v>
-      </c>
-      <c r="N107">
-        <v>2.625</v>
-      </c>
-      <c r="O107">
-        <v>3.6</v>
-      </c>
       <c r="P107">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R107">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S107">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U107">
         <v>1.85</v>
@@ -10009,22 +10009,22 @@
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB107">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6845807</v>
+        <v>6848407</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,55 +10044,55 @@
         <v>45325.5</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K108">
-        <v>5.5</v>
+        <v>2.625</v>
       </c>
       <c r="L108">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="M108">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="N108">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="O108">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P108">
-        <v>1.55</v>
+        <v>2.25</v>
       </c>
       <c r="Q108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S108">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T108">
         <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10101,19 +10101,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0.55</v>
+        <v>1.25</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AB108">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
       <c r="AC108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10121,7 +10121,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6848407</v>
+        <v>6848408</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10133,55 +10133,55 @@
         <v>45325.5</v>
       </c>
       <c r="F109" t="s">
+        <v>37</v>
+      </c>
+      <c r="G109" t="s">
         <v>35</v>
       </c>
-      <c r="G109" t="s">
-        <v>34</v>
-      </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>3</v>
       </c>
       <c r="J109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K109">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="L109">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M109">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="N109">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="O109">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P109">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="R109">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S109">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W109">
         <v>-1</v>
@@ -10190,19 +10190,19 @@
         <v>-1</v>
       </c>
       <c r="Y109">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Z109">
         <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB109">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10210,7 +10210,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6848408</v>
+        <v>6845677</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10222,76 +10222,76 @@
         <v>45325.5</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G110" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K110">
-        <v>9</v>
+        <v>3.5</v>
       </c>
       <c r="L110">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M110">
-        <v>1.222</v>
+        <v>1.8</v>
       </c>
       <c r="N110">
-        <v>7</v>
+        <v>2.625</v>
       </c>
       <c r="O110">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="P110">
-        <v>1.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q110">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="R110">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S110">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T110">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y110">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA110">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10323,7 +10323,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K111">
         <v>2.3</v>
@@ -10403,7 +10403,7 @@
         <v>30</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -10412,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K112">
         <v>1.1</v>
@@ -10489,10 +10489,10 @@
         <v>45332.5</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10578,7 +10578,7 @@
         <v>45332.5</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G114" t="s">
         <v>33</v>
@@ -10590,7 +10590,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K114">
         <v>2</v>
@@ -10667,10 +10667,10 @@
         <v>45332.5</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H115">
         <v>2</v>
@@ -10679,7 +10679,7 @@
         <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K115">
         <v>1.2</v>
@@ -10744,7 +10744,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7572536</v>
+        <v>7705415</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10756,58 +10756,58 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K116">
-        <v>1.727</v>
+        <v>1.125</v>
       </c>
       <c r="L116">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="M116">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N116">
-        <v>1.909</v>
+        <v>1.125</v>
       </c>
       <c r="O116">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="P116">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="Q116">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R116">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S116">
         <v>1.875</v>
       </c>
       <c r="T116">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V116">
         <v>1.825</v>
       </c>
       <c r="W116">
-        <v>0.909</v>
+        <v>0.125</v>
       </c>
       <c r="X116">
         <v>-1</v>
@@ -10816,16 +10816,16 @@
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB116">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC116">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10833,7 +10833,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7705415</v>
+        <v>7572536</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10845,58 +10845,58 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F117" t="s">
+        <v>36</v>
+      </c>
+      <c r="G117" t="s">
         <v>38</v>
       </c>
-      <c r="G117" t="s">
-        <v>36</v>
-      </c>
       <c r="H117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K117">
-        <v>1.125</v>
+        <v>1.727</v>
       </c>
       <c r="L117">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="M117">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="N117">
-        <v>1.125</v>
+        <v>1.909</v>
       </c>
       <c r="O117">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="P117">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="Q117">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R117">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S117">
         <v>1.875</v>
       </c>
       <c r="T117">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U117">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V117">
         <v>1.825</v>
       </c>
       <c r="W117">
-        <v>0.125</v>
+        <v>0.909</v>
       </c>
       <c r="X117">
         <v>-1</v>
@@ -10905,16 +10905,16 @@
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA117">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10922,7 +10922,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6845805</v>
+        <v>6845679</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10934,58 +10934,58 @@
         <v>45339.5</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K118">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L118">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N118">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="O118">
         <v>3.6</v>
       </c>
       <c r="P118">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
         <v>1.9</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>0.6659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -10994,10 +10994,10 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
         <v>0.8999999999999999</v>
@@ -11023,7 +11023,7 @@
         <v>45339.5</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
         <v>33</v>
@@ -11035,7 +11035,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K119">
         <v>2.6</v>
@@ -11100,7 +11100,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6845679</v>
+        <v>6845805</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11112,58 +11112,58 @@
         <v>45339.5</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G120" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H120">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K120">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L120">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M120">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N120">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="O120">
         <v>3.6</v>
       </c>
       <c r="P120">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R120">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S120">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
         <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>1.3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X120">
         <v>-1</v>
@@ -11172,10 +11172,10 @@
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB120">
         <v>0.8999999999999999</v>
@@ -11189,7 +11189,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6848414</v>
+        <v>6848415</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11201,76 +11201,76 @@
         <v>45339.5</v>
       </c>
       <c r="F121" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H121">
+        <v>4</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121" t="s">
+        <v>40</v>
+      </c>
+      <c r="K121">
+        <v>2.1</v>
+      </c>
+      <c r="L121">
+        <v>3.6</v>
+      </c>
+      <c r="M121">
+        <v>2.9</v>
+      </c>
+      <c r="N121">
+        <v>2</v>
+      </c>
+      <c r="O121">
+        <v>3.5</v>
+      </c>
+      <c r="P121">
+        <v>3.2</v>
+      </c>
+      <c r="Q121">
+        <v>-0.25</v>
+      </c>
+      <c r="R121">
+        <v>1.775</v>
+      </c>
+      <c r="S121">
+        <v>2.025</v>
+      </c>
+      <c r="T121">
+        <v>2.5</v>
+      </c>
+      <c r="U121">
+        <v>1.8</v>
+      </c>
+      <c r="V121">
+        <v>2</v>
+      </c>
+      <c r="W121">
         <v>1</v>
       </c>
-      <c r="I121">
-        <v>1</v>
-      </c>
-      <c r="J121" t="s">
-        <v>41</v>
-      </c>
-      <c r="K121">
-        <v>10</v>
-      </c>
-      <c r="L121">
-        <v>7.5</v>
-      </c>
-      <c r="M121">
-        <v>1.166</v>
-      </c>
-      <c r="N121">
-        <v>15</v>
-      </c>
-      <c r="O121">
-        <v>7.5</v>
-      </c>
-      <c r="P121">
-        <v>1.125</v>
-      </c>
-      <c r="Q121">
-        <v>2.25</v>
-      </c>
-      <c r="R121">
-        <v>1.875</v>
-      </c>
-      <c r="S121">
-        <v>1.925</v>
-      </c>
-      <c r="T121">
-        <v>3.25</v>
-      </c>
-      <c r="U121">
-        <v>1.875</v>
-      </c>
-      <c r="V121">
-        <v>1.925</v>
-      </c>
-      <c r="W121">
-        <v>-1</v>
-      </c>
       <c r="X121">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA121">
         <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11278,7 +11278,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6848415</v>
+        <v>6848414</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11290,76 +11290,76 @@
         <v>45339.5</v>
       </c>
       <c r="F122" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K122">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="L122">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M122">
-        <v>2.9</v>
+        <v>1.166</v>
       </c>
       <c r="N122">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O122">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P122">
-        <v>3.2</v>
+        <v>1.125</v>
       </c>
       <c r="Q122">
-        <v>-0.25</v>
+        <v>2.25</v>
       </c>
       <c r="R122">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S122">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U122">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V122">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W122">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y122">
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AA122">
         <v>-1</v>
       </c>
       <c r="AB122">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K123">
         <v>1.25</v>
@@ -11456,7 +11456,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6845804</v>
+        <v>6848416</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11468,70 +11468,70 @@
         <v>45346.5</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
         <v>1</v>
-      </c>
-      <c r="I124">
-        <v>2</v>
       </c>
       <c r="J124" t="s">
         <v>40</v>
       </c>
       <c r="K124">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="L124">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M124">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N124">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="O124">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="Q124">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R124">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S124">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T124">
         <v>3</v>
       </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V124">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>4.75</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA124">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB124">
         <v>0</v>
@@ -11545,7 +11545,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6848416</v>
+        <v>6848419</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11557,58 +11557,58 @@
         <v>45346.5</v>
       </c>
       <c r="F125" t="s">
+        <v>33</v>
+      </c>
+      <c r="G125" t="s">
         <v>37</v>
       </c>
-      <c r="G125" t="s">
-        <v>35</v>
-      </c>
       <c r="H125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K125">
-        <v>1.666</v>
+        <v>1.166</v>
       </c>
       <c r="L125">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M125">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="N125">
-        <v>1.6</v>
+        <v>1.222</v>
       </c>
       <c r="O125">
-        <v>4</v>
+        <v>5.75</v>
       </c>
       <c r="P125">
-        <v>4.333</v>
+        <v>10</v>
       </c>
       <c r="Q125">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R125">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="S125">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U125">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
-        <v>0.6000000000000001</v>
+        <v>0.222</v>
       </c>
       <c r="X125">
         <v>-1</v>
@@ -11617,16 +11617,16 @@
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.3875</v>
+        <v>0.825</v>
       </c>
       <c r="AA125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AC125">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11646,7 +11646,7 @@
         <v>45346.5</v>
       </c>
       <c r="F126" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G126" t="s">
         <v>31</v>
@@ -11658,7 +11658,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K126">
         <v>5.5</v>
@@ -11723,7 +11723,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6848419</v>
+        <v>6845804</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11735,49 +11735,49 @@
         <v>45346.5</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G127" t="s">
         <v>36</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
         <v>39</v>
       </c>
       <c r="K127">
-        <v>1.166</v>
+        <v>1.4</v>
       </c>
       <c r="L127">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="M127">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="N127">
-        <v>1.222</v>
+        <v>1.4</v>
       </c>
       <c r="O127">
+        <v>4.75</v>
+      </c>
+      <c r="P127">
         <v>5.75</v>
       </c>
-      <c r="P127">
-        <v>10</v>
-      </c>
       <c r="Q127">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R127">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S127">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T127">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U127">
         <v>1.95</v>
@@ -11786,25 +11786,25 @@
         <v>1.85</v>
       </c>
       <c r="W127">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>4.75</v>
       </c>
       <c r="Z127">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB127">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11824,7 +11824,7 @@
         <v>45346.60416666666</v>
       </c>
       <c r="F128" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G128" t="s">
         <v>30</v>
@@ -11836,7 +11836,7 @@
         <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K128">
         <v>2</v>
@@ -11896,7 +11896,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:29">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -11916,7 +11916,16 @@
         <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>41</v>
       </c>
       <c r="K129">
         <v>5</v>
@@ -11928,49 +11937,55 @@
         <v>1.533</v>
       </c>
       <c r="N129">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="O129">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P129">
-        <v>1.571</v>
+        <v>1.65</v>
       </c>
       <c r="Q129">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="R129">
+        <v>2</v>
+      </c>
+      <c r="S129">
         <v>1.85</v>
-      </c>
-      <c r="S129">
-        <v>2</v>
       </c>
       <c r="T129">
         <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V129">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB129">
+        <v>-1</v>
+      </c>
+      <c r="AC129">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="130" spans="1:29">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -11990,7 +12005,7 @@
         <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K130">
         <v>2.15</v>
@@ -12002,31 +12017,31 @@
         <v>2.9</v>
       </c>
       <c r="N130">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="O130">
         <v>3.4</v>
       </c>
       <c r="P130">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q130">
         <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T130">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V130">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
         <v>0</v>
@@ -12044,12 +12059,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:29">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6937667</v>
+        <v>6920622</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12061,40 +12076,40 @@
         <v>45353.5</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K131">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="L131">
-        <v>5.25</v>
+        <v>3.9</v>
       </c>
       <c r="M131">
-        <v>1.333</v>
+        <v>1.7</v>
       </c>
       <c r="N131">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="O131">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P131">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="Q131">
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R131">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S131">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
         <v>1.925</v>
@@ -12118,12 +12133,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:29">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6937668</v>
+        <v>6937667</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12135,46 +12150,46 @@
         <v>45353.5</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K132">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="L132">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="M132">
-        <v>9.5</v>
+        <v>1.333</v>
       </c>
       <c r="N132">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="O132">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="P132">
-        <v>10</v>
+        <v>1.333</v>
       </c>
       <c r="Q132">
-        <v>-2.25</v>
+        <v>1.25</v>
       </c>
       <c r="R132">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T132">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U132">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W132">
         <v>0</v>
@@ -12192,12 +12207,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:27">
+    <row r="133" spans="1:29">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6920622</v>
+        <v>6937668</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12209,47 +12224,47 @@
         <v>45353.5</v>
       </c>
       <c r="F133" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133" t="s">
         <v>38</v>
       </c>
-      <c r="G133" t="s">
-        <v>29</v>
-      </c>
       <c r="K133">
-        <v>4</v>
+        <v>1.166</v>
       </c>
       <c r="L133">
-        <v>3.9</v>
+        <v>7.5</v>
       </c>
       <c r="M133">
-        <v>1.7</v>
+        <v>9.5</v>
       </c>
       <c r="N133">
-        <v>4</v>
+        <v>1.166</v>
       </c>
       <c r="O133">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="P133">
-        <v>1.7</v>
+        <v>9.5</v>
       </c>
       <c r="Q133">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R133">
+        <v>1.8</v>
+      </c>
+      <c r="S133">
+        <v>2.05</v>
+      </c>
+      <c r="T133">
+        <v>3.5</v>
+      </c>
+      <c r="U133">
+        <v>1.975</v>
+      </c>
+      <c r="V133">
         <v>1.875</v>
       </c>
-      <c r="S133">
-        <v>1.975</v>
-      </c>
-      <c r="T133">
-        <v>2.75</v>
-      </c>
-      <c r="U133">
-        <v>1.925</v>
-      </c>
-      <c r="V133">
-        <v>1.925</v>
-      </c>
       <c r="W133">
         <v>0</v>
       </c>
@@ -12266,7 +12281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:27">
+    <row r="134" spans="1:29">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -12283,7 +12298,7 @@
         <v>45353.5</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G134" t="s">
         <v>33</v>
@@ -12298,22 +12313,22 @@
         <v>3.4</v>
       </c>
       <c r="N134">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="O134">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P134">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q134">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R134">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S134">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T134">
         <v>2.75</v>

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -103,10 +103,10 @@
     <t>Scotland League One</t>
   </si>
   <si>
-    <t>Queen of South</t>
+    <t>Stirling</t>
   </si>
   <si>
-    <t>Stirling</t>
+    <t>Queen of South</t>
   </si>
   <si>
     <t>Montrose</t>
@@ -133,10 +133,10 @@
     <t>Annan Athletic</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6848340</v>
+        <v>6848341</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -613,73 +613,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
       <c r="K2">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L2">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="N2">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="O2">
         <v>4</v>
       </c>
       <c r="P2">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q2">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R2">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T2">
         <v>2.75</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA2">
+        <v>-0.5</v>
+      </c>
+      <c r="AB2">
+        <v>-1</v>
+      </c>
+      <c r="AC2">
         <v>0.925</v>
-      </c>
-      <c r="AB2">
-        <v>0.95</v>
-      </c>
-      <c r="AC2">
-        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6848341</v>
+        <v>6848340</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
       </c>
       <c r="K3">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M3">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="N3">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="O3">
         <v>4</v>
       </c>
       <c r="P3">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q3">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z3">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -800,7 +800,7 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4">
         <v>2.4</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5">
         <v>1.444</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -1058,7 +1058,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -1067,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>2.8</v>
@@ -1147,7 +1147,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -1245,7 +1245,7 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K9">
         <v>3.3</v>
@@ -1423,7 +1423,7 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11">
         <v>2.7</v>
@@ -1500,7 +1500,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" t="s">
         <v>38</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12">
         <v>1.8</v>
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6845827</v>
+        <v>6848346</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1589,76 +1589,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
         <v>39</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L13">
         <v>3.6</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N13">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="O13">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P13">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="Q13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S13">
+        <v>2</v>
+      </c>
+      <c r="T13">
+        <v>2.5</v>
+      </c>
+      <c r="U13">
+        <v>1.875</v>
+      </c>
+      <c r="V13">
         <v>1.975</v>
       </c>
-      <c r="T13">
-        <v>3</v>
-      </c>
-      <c r="U13">
-        <v>1.975</v>
-      </c>
-      <c r="V13">
-        <v>1.825</v>
-      </c>
       <c r="W13">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1666,7 +1666,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6845659</v>
+        <v>6845827</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1678,10 +1678,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1690,37 +1690,37 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>3.6</v>
       </c>
       <c r="M14">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="N14">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="O14">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P14">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T14">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U14">
         <v>1.975</v>
@@ -1735,19 +1735,19 @@
         <v>-1</v>
       </c>
       <c r="Y14">
-        <v>1.45</v>
+        <v>0.571</v>
       </c>
       <c r="Z14">
         <v>-1</v>
       </c>
       <c r="AA14">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB14">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1755,7 +1755,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6848346</v>
+        <v>6845659</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1767,76 +1767,76 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J15" t="s">
         <v>40</v>
       </c>
       <c r="K15">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L15">
         <v>3.6</v>
       </c>
       <c r="M15">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N15">
-        <v>2.375</v>
+        <v>2.55</v>
       </c>
       <c r="O15">
         <v>3.5</v>
       </c>
       <c r="P15">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S15">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U15">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="V15">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X15">
         <v>-1</v>
       </c>
       <c r="Y15">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Z15">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB15">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1859,7 +1859,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>3</v>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K16">
         <v>1.615</v>
@@ -1948,7 +1948,7 @@
         <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -1957,7 +1957,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K17">
         <v>2.05</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18">
         <v>1.571</v>
@@ -2135,7 +2135,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19">
         <v>2.1</v>
@@ -2212,7 +2212,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
         <v>36</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K20">
         <v>1.75</v>
@@ -2313,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="J21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K21">
         <v>2.8</v>
@@ -2378,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6845825</v>
+        <v>6848351</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2390,76 +2390,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N22">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="O22">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P22">
-        <v>1.833</v>
+        <v>1.222</v>
       </c>
       <c r="Q22">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="R22">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S22">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T22">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U22">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z22">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB22">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K23">
         <v>2.4</v>
@@ -2556,7 +2556,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6848351</v>
+        <v>6845825</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2568,76 +2568,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L24">
+        <v>3.6</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>3.6</v>
+      </c>
+      <c r="O24">
         <v>3.75</v>
       </c>
-      <c r="M24">
-        <v>1.666</v>
-      </c>
-      <c r="N24">
-        <v>10</v>
-      </c>
-      <c r="O24">
-        <v>5.5</v>
-      </c>
       <c r="P24">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="Q24">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y24">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA24">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2746,7 +2746,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
@@ -2758,7 +2758,7 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K26">
         <v>1.8</v>
@@ -2912,7 +2912,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6848356</v>
+        <v>6845824</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2924,58 +2924,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K28">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L28">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="N28">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="O28">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P28">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q28">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="R28">
+        <v>1.925</v>
+      </c>
+      <c r="S28">
         <v>1.875</v>
-      </c>
-      <c r="S28">
-        <v>1.925</v>
       </c>
       <c r="T28">
         <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V28">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W28">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2984,16 +2984,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB28">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3001,7 +3001,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6848355</v>
+        <v>6848356</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3013,55 +3013,55 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M29">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N29">
         <v>1.5</v>
       </c>
       <c r="O29">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="P29">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S29">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
         <v>0.5</v>
@@ -3073,16 +3073,16 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA29">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3090,7 +3090,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6848354</v>
+        <v>6848355</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3102,58 +3102,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
         <v>30</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="L30">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="N30">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="O30">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="P30">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q30">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T30">
         <v>3</v>
       </c>
       <c r="U30">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="X30">
         <v>-1</v>
@@ -3162,16 +3162,16 @@
         <v>-1</v>
       </c>
       <c r="Z30">
+        <v>-0.5</v>
+      </c>
+      <c r="AA30">
+        <v>0.4</v>
+      </c>
+      <c r="AB30">
+        <v>-1</v>
+      </c>
+      <c r="AC30">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA30">
-        <v>-1</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>-0</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3179,7 +3179,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6845824</v>
+        <v>6848354</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3191,58 +3191,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K31">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M31">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="N31">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="O31">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="Q31">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S31">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V31">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
-        <v>0.3999999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3251,16 +3251,16 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA31">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3369,7 +3369,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -3381,7 +3381,7 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K33">
         <v>2.7</v>
@@ -3550,7 +3550,7 @@
         <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K35">
         <v>2.2</v>
@@ -3648,7 +3648,7 @@
         <v>5</v>
       </c>
       <c r="J36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K36">
         <v>3.6</v>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K37">
         <v>1.444</v>
@@ -3915,7 +3915,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K39">
         <v>1.5</v>
@@ -3995,7 +3995,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4004,7 +4004,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K40">
         <v>2.25</v>
@@ -4081,7 +4081,7 @@
         <v>45199.5625</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
         <v>37</v>
@@ -4158,7 +4158,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6848363</v>
+        <v>6845665</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4170,73 +4170,73 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
         <v>39</v>
       </c>
       <c r="K42">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="L42">
         <v>3.6</v>
       </c>
       <c r="M42">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N42">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O42">
         <v>4</v>
       </c>
       <c r="P42">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q42">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R42">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S42">
         <v>1.825</v>
       </c>
       <c r="T42">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U42">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB42">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4247,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6845665</v>
+        <v>6848363</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4259,73 +4259,73 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J43" t="s">
         <v>40</v>
       </c>
       <c r="K43">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="L43">
         <v>3.6</v>
       </c>
       <c r="M43">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N43">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="O43">
         <v>4</v>
       </c>
       <c r="P43">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q43">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R43">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S43">
         <v>1.825</v>
       </c>
       <c r="T43">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U43">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V43">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W43">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB43">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4360,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K44">
         <v>1.85</v>
@@ -4437,10 +4437,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45" t="s">
         <v>29</v>
-      </c>
-      <c r="G45" t="s">
-        <v>30</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -4449,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K45">
         <v>2.15</v>
@@ -4627,7 +4627,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K47">
         <v>2.1</v>
@@ -4704,7 +4704,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -4716,7 +4716,7 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K48">
         <v>4.333</v>
@@ -4796,7 +4796,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -4805,7 +4805,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K49">
         <v>2.1</v>
@@ -4983,7 +4983,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K51">
         <v>3.2</v>
@@ -5060,7 +5060,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>37</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K52">
         <v>2.625</v>
@@ -5161,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K53">
         <v>1.2</v>
@@ -5241,7 +5241,7 @@
         <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -5250,7 +5250,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K54">
         <v>2.25</v>
@@ -5339,7 +5339,7 @@
         <v>3</v>
       </c>
       <c r="J55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K55">
         <v>4.5</v>
@@ -5416,7 +5416,7 @@
         <v>45234.5</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
         <v>35</v>
@@ -5428,7 +5428,7 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K56">
         <v>2.1</v>
@@ -5505,7 +5505,7 @@
         <v>45234.5</v>
       </c>
       <c r="F57" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
         <v>32</v>
@@ -5606,7 +5606,7 @@
         <v>5</v>
       </c>
       <c r="J58" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K58">
         <v>3.1</v>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K60">
         <v>2.7</v>
@@ -5864,7 +5864,7 @@
         <v>33</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H61">
         <v>5</v>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K61">
         <v>1.4</v>
@@ -5953,7 +5953,7 @@
         <v>35</v>
       </c>
       <c r="G62" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -5962,7 +5962,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K62">
         <v>2.5</v>
@@ -6140,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K64">
         <v>1.166</v>
@@ -6229,7 +6229,7 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K65">
         <v>2.2</v>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K66">
         <v>1.85</v>
@@ -6398,7 +6398,7 @@
         <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6407,7 +6407,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K67">
         <v>1.666</v>
@@ -6484,7 +6484,7 @@
         <v>45248.5</v>
       </c>
       <c r="F68" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G68" t="s">
         <v>36</v>
@@ -6496,7 +6496,7 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K68">
         <v>2.4</v>
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K69">
         <v>3.2</v>
@@ -6763,7 +6763,7 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K71">
         <v>6.5</v>
@@ -6843,7 +6843,7 @@
         <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H72">
         <v>5</v>
@@ -6852,7 +6852,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K72">
         <v>1.5</v>
@@ -6917,7 +6917,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6848386</v>
+        <v>6848385</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6929,76 +6929,76 @@
         <v>45269.5</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J73" t="s">
         <v>40</v>
       </c>
       <c r="K73">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L73">
+        <v>3.6</v>
+      </c>
+      <c r="M73">
+        <v>2.375</v>
+      </c>
+      <c r="N73">
+        <v>7.5</v>
+      </c>
+      <c r="O73">
         <v>5</v>
       </c>
-      <c r="M73">
-        <v>7</v>
-      </c>
-      <c r="N73">
+      <c r="P73">
         <v>1.3</v>
       </c>
-      <c r="O73">
-        <v>5.5</v>
-      </c>
-      <c r="P73">
-        <v>10</v>
-      </c>
       <c r="Q73">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R73">
+        <v>1.975</v>
+      </c>
+      <c r="S73">
         <v>1.825</v>
       </c>
-      <c r="S73">
-        <v>1.975</v>
-      </c>
       <c r="T73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U73">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W73">
+        <v>-1</v>
+      </c>
+      <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
         <v>0.3</v>
       </c>
-      <c r="X73">
-        <v>-1</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7006,7 +7006,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6848385</v>
+        <v>6848386</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7018,76 +7018,76 @@
         <v>45269.5</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
         <v>1</v>
-      </c>
-      <c r="I74">
-        <v>3</v>
       </c>
       <c r="J74" t="s">
         <v>39</v>
       </c>
       <c r="K74">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M74">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="N74">
-        <v>7.5</v>
+        <v>1.3</v>
       </c>
       <c r="O74">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="P74">
-        <v>1.3</v>
+        <v>10</v>
       </c>
       <c r="Q74">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R74">
+        <v>1.825</v>
+      </c>
+      <c r="S74">
         <v>1.975</v>
       </c>
-      <c r="S74">
+      <c r="T74">
+        <v>3</v>
+      </c>
+      <c r="U74">
+        <v>1.975</v>
+      </c>
+      <c r="V74">
         <v>1.825</v>
       </c>
-      <c r="T74">
-        <v>3.25</v>
-      </c>
-      <c r="U74">
-        <v>1.9</v>
-      </c>
-      <c r="V74">
-        <v>1.9</v>
-      </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7119,7 +7119,7 @@
         <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K75">
         <v>4</v>
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6848387</v>
+        <v>6845814</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,76 +7196,76 @@
         <v>45269.5</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>4.75</v>
       </c>
       <c r="L76">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M76">
-        <v>3.25</v>
+        <v>1.615</v>
       </c>
       <c r="N76">
-        <v>2.05</v>
+        <v>6</v>
       </c>
       <c r="O76">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P76">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R76">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
         <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y76">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB76">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC76">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6845814</v>
+        <v>6848387</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,76 +7285,76 @@
         <v>45269.5</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K77">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="L77">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M77">
-        <v>1.615</v>
+        <v>3.25</v>
       </c>
       <c r="N77">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="O77">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q77">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S77">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T77">
         <v>2.75</v>
       </c>
       <c r="U77">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V77">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W77">
         <v>-1</v>
       </c>
       <c r="X77">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z77">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA77">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB77">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC77">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:29">
@@ -7374,7 +7374,7 @@
         <v>45276.5</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
         <v>38</v>
@@ -7475,7 +7475,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K79">
         <v>2.1</v>
@@ -7552,7 +7552,7 @@
         <v>45276.5</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
         <v>34</v>
@@ -7564,7 +7564,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K80">
         <v>1.333</v>
@@ -7653,7 +7653,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K81">
         <v>2.375</v>
@@ -7742,7 +7742,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K82">
         <v>1.571</v>
@@ -7831,7 +7831,7 @@
         <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K83">
         <v>6</v>
@@ -7908,10 +7908,10 @@
         <v>45283.5</v>
       </c>
       <c r="F84" t="s">
+        <v>29</v>
+      </c>
+      <c r="G84" t="s">
         <v>30</v>
-      </c>
-      <c r="G84" t="s">
-        <v>29</v>
       </c>
       <c r="H84">
         <v>1</v>
@@ -8187,7 +8187,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K87">
         <v>1.083</v>
@@ -8252,7 +8252,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6848396</v>
+        <v>6845674</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8264,61 +8264,61 @@
         <v>45290.5</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G88" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K88">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="L88">
         <v>3.5</v>
       </c>
       <c r="M88">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="N88">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="O88">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P88">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q88">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R88">
         <v>1.875</v>
       </c>
       <c r="S88">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T88">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U88">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="V88">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W88">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X88">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y88">
         <v>-1</v>
@@ -8330,10 +8330,10 @@
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC88">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8341,7 +8341,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6845674</v>
+        <v>6845811</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8353,76 +8353,76 @@
         <v>45290.5</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K89">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="L89">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M89">
-        <v>2.3</v>
+        <v>1.222</v>
       </c>
       <c r="N89">
-        <v>3.4</v>
+        <v>34</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="P89">
-        <v>1.85</v>
+        <v>1.045</v>
       </c>
       <c r="Q89">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="R89">
+        <v>1.975</v>
+      </c>
+      <c r="S89">
         <v>1.875</v>
       </c>
-      <c r="S89">
+      <c r="T89">
+        <v>4.25</v>
+      </c>
+      <c r="U89">
         <v>1.925</v>
       </c>
-      <c r="T89">
-        <v>2.75</v>
-      </c>
-      <c r="U89">
-        <v>1.95</v>
-      </c>
       <c r="V89">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
-        <v>-1</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z89">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AA89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6845811</v>
+        <v>6848396</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,76 +8442,76 @@
         <v>45290.5</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H90">
         <v>2</v>
       </c>
       <c r="I90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
         <v>39</v>
       </c>
       <c r="K90">
-        <v>9</v>
+        <v>1.833</v>
       </c>
       <c r="L90">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>1.222</v>
+        <v>3.5</v>
       </c>
       <c r="N90">
-        <v>34</v>
+        <v>1.833</v>
       </c>
       <c r="O90">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>1.045</v>
+        <v>3.5</v>
       </c>
       <c r="Q90">
-        <v>3.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R90">
+        <v>1.875</v>
+      </c>
+      <c r="S90">
         <v>1.975</v>
       </c>
-      <c r="S90">
-        <v>1.875</v>
-      </c>
       <c r="T90">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.04499999999999993</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8534,7 +8534,7 @@
         <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H91">
         <v>5</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K91">
         <v>1.285</v>
@@ -8623,7 +8623,7 @@
         <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8632,7 +8632,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K92">
         <v>1.333</v>
@@ -8810,7 +8810,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K94">
         <v>1.05</v>
@@ -8988,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K96">
         <v>1.444</v>
@@ -9053,7 +9053,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6848401</v>
+        <v>6848402</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9065,76 +9065,76 @@
         <v>45304.5</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K97">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L97">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="M97">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N97">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="O97">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="V97">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9142,7 +9142,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6845809</v>
+        <v>6848401</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9154,76 +9154,76 @@
         <v>45304.5</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K98">
         <v>1.666</v>
       </c>
       <c r="L98">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="M98">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="N98">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="O98">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="P98">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q98">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S98">
+        <v>1.85</v>
+      </c>
+      <c r="T98">
+        <v>2.75</v>
+      </c>
+      <c r="U98">
         <v>1.8</v>
       </c>
-      <c r="T98">
-        <v>3</v>
-      </c>
-      <c r="U98">
-        <v>1.95</v>
-      </c>
       <c r="V98">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W98">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB98">
+        <v>-1</v>
+      </c>
+      <c r="AC98">
         <v>1</v>
-      </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
-      <c r="AB98">
-        <v>-1</v>
-      </c>
-      <c r="AC98">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9231,7 +9231,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6848402</v>
+        <v>6845809</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9243,76 +9243,76 @@
         <v>45304.5</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H99">
+        <v>2</v>
+      </c>
+      <c r="I99">
         <v>0</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
       </c>
       <c r="J99" t="s">
         <v>39</v>
       </c>
       <c r="K99">
+        <v>1.666</v>
+      </c>
+      <c r="L99">
+        <v>4.1</v>
+      </c>
+      <c r="M99">
+        <v>4</v>
+      </c>
+      <c r="N99">
+        <v>1.444</v>
+      </c>
+      <c r="O99">
+        <v>4.75</v>
+      </c>
+      <c r="P99">
+        <v>5.25</v>
+      </c>
+      <c r="Q99">
+        <v>-1.25</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
         <v>1.8</v>
       </c>
-      <c r="L99">
-        <v>4</v>
-      </c>
-      <c r="M99">
-        <v>3.5</v>
-      </c>
-      <c r="N99">
-        <v>2.25</v>
-      </c>
-      <c r="O99">
-        <v>3.5</v>
-      </c>
-      <c r="P99">
-        <v>2.7</v>
-      </c>
-      <c r="Q99">
-        <v>-0.25</v>
-      </c>
-      <c r="R99">
-        <v>2.025</v>
-      </c>
-      <c r="S99">
-        <v>1.775</v>
-      </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U99">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V99">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA99">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9332,7 +9332,7 @@
         <v>45304.5</v>
       </c>
       <c r="F100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G100" t="s">
         <v>35</v>
@@ -9510,7 +9510,7 @@
         <v>45318.5</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
         <v>36</v>
@@ -9522,7 +9522,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K102">
         <v>2.4</v>
@@ -9611,7 +9611,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K103">
         <v>1.444</v>
@@ -9700,7 +9700,7 @@
         <v>5</v>
       </c>
       <c r="J104" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K104">
         <v>6</v>
@@ -9869,7 +9869,7 @@
         <v>37</v>
       </c>
       <c r="G106" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -9878,7 +9878,7 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K106">
         <v>1.666</v>
@@ -9955,7 +9955,7 @@
         <v>45325.5</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
         <v>37</v>
@@ -10056,7 +10056,7 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K108">
         <v>9</v>
@@ -10133,7 +10133,7 @@
         <v>45325.5</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
         <v>33</v>
@@ -10145,7 +10145,7 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K109">
         <v>5.5</v>
@@ -10234,7 +10234,7 @@
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K110">
         <v>2.625</v>
@@ -10311,7 +10311,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
         <v>31</v>
@@ -10323,7 +10323,7 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K111">
         <v>2.3</v>
@@ -10412,7 +10412,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K112">
         <v>1.1</v>
@@ -10477,7 +10477,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6848411</v>
+        <v>6848410</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10489,76 +10489,76 @@
         <v>45332.5</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
         <v>29</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K113">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M113">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="N113">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P113">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="Q113">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R113">
+        <v>1.975</v>
+      </c>
+      <c r="S113">
         <v>1.825</v>
       </c>
-      <c r="S113">
-        <v>1.975</v>
-      </c>
       <c r="T113">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X113">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA113">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10566,7 +10566,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6848410</v>
+        <v>6845806</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10578,40 +10578,40 @@
         <v>45332.5</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J114" t="s">
         <v>40</v>
       </c>
       <c r="K114">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="L114">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M114">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="N114">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="O114">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="P114">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="Q114">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R114">
         <v>1.975</v>
@@ -10620,34 +10620,34 @@
         <v>1.825</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U114">
+        <v>1.95</v>
+      </c>
+      <c r="V114">
         <v>1.85</v>
       </c>
-      <c r="V114">
-        <v>1.95</v>
-      </c>
       <c r="W114">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Z114">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10655,7 +10655,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6845806</v>
+        <v>6848411</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10667,76 +10667,76 @@
         <v>45332.5</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K115">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="L115">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M115">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="N115">
-        <v>1.2</v>
+        <v>2.375</v>
       </c>
       <c r="O115">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="P115">
-        <v>10</v>
+        <v>2.6</v>
       </c>
       <c r="Q115">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="R115">
+        <v>1.825</v>
+      </c>
+      <c r="S115">
         <v>1.975</v>
       </c>
-      <c r="S115">
-        <v>1.825</v>
-      </c>
       <c r="T115">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U115">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V115">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y115">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB115">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10768,7 +10768,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K116">
         <v>1.727</v>
@@ -10857,7 +10857,7 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K117">
         <v>1.125</v>
@@ -10937,7 +10937,7 @@
         <v>38</v>
       </c>
       <c r="G118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H118">
         <v>2</v>
@@ -10946,7 +10946,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K118">
         <v>2.6</v>
@@ -11035,7 +11035,7 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K119">
         <v>2.1</v>
@@ -11115,7 +11115,7 @@
         <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11189,7 +11189,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6845679</v>
+        <v>6845805</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11201,58 +11201,58 @@
         <v>45339.5</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K121">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L121">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M121">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N121">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="O121">
         <v>3.6</v>
       </c>
       <c r="P121">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S121">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
         <v>1.9</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>1.3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11261,10 +11261,10 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB121">
         <v>0.8999999999999999</v>
@@ -11278,7 +11278,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6845805</v>
+        <v>6845679</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11290,58 +11290,58 @@
         <v>45339.5</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K122">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L122">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M122">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N122">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="O122">
         <v>3.6</v>
       </c>
       <c r="P122">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q122">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
         <v>1.9</v>
       </c>
       <c r="V122">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W122">
-        <v>0.6659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11350,10 +11350,10 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB122">
         <v>0.8999999999999999</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K123">
         <v>1.25</v>
@@ -11480,7 +11480,7 @@
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K124">
         <v>1.4</v>
@@ -11569,7 +11569,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K125">
         <v>1.666</v>
@@ -11658,7 +11658,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K126">
         <v>5.5</v>
@@ -11735,7 +11735,7 @@
         <v>45346.5</v>
       </c>
       <c r="F127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
         <v>34</v>
@@ -11747,7 +11747,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K127">
         <v>1.166</v>
@@ -11824,7 +11824,7 @@
         <v>45346.60416666666</v>
       </c>
       <c r="F128" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G128" t="s">
         <v>31</v>
@@ -11836,7 +11836,7 @@
         <v>3</v>
       </c>
       <c r="J128" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K128">
         <v>2</v>
@@ -11913,7 +11913,7 @@
         <v>45349.69791666666</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G129" t="s">
         <v>33</v>
@@ -12014,7 +12014,7 @@
         <v>3</v>
       </c>
       <c r="J130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K130">
         <v>2.15</v>
@@ -12103,7 +12103,7 @@
         <v>5</v>
       </c>
       <c r="J131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K131">
         <v>4</v>
@@ -12180,10 +12180,10 @@
         <v>45353.5</v>
       </c>
       <c r="F132" t="s">
+        <v>30</v>
+      </c>
+      <c r="G132" t="s">
         <v>29</v>
-      </c>
-      <c r="G132" t="s">
-        <v>30</v>
       </c>
       <c r="H132">
         <v>2</v>
@@ -12257,7 +12257,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6937668</v>
+        <v>6937667</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12269,76 +12269,76 @@
         <v>45353.5</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K133">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="L133">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="M133">
-        <v>9.5</v>
+        <v>1.333</v>
       </c>
       <c r="N133">
-        <v>1.125</v>
+        <v>9</v>
       </c>
       <c r="O133">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="P133">
-        <v>12</v>
+        <v>1.25</v>
       </c>
       <c r="Q133">
-        <v>-2.25</v>
+        <v>1.75</v>
       </c>
       <c r="R133">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S133">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T133">
         <v>3.5</v>
       </c>
       <c r="U133">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12346,7 +12346,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6937667</v>
+        <v>6937668</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12358,76 +12358,76 @@
         <v>45353.5</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K134">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="L134">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="M134">
-        <v>1.333</v>
+        <v>9.5</v>
       </c>
       <c r="N134">
+        <v>1.125</v>
+      </c>
+      <c r="O134">
         <v>9</v>
       </c>
-      <c r="O134">
-        <v>5.5</v>
-      </c>
       <c r="P134">
-        <v>1.25</v>
+        <v>12</v>
       </c>
       <c r="Q134">
-        <v>1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T134">
         <v>3.5</v>
       </c>
       <c r="U134">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y134">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12459,7 +12459,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K135">
         <v>5.5</v>
@@ -12524,7 +12524,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6958683</v>
+        <v>6937670</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12536,67 +12536,67 @@
         <v>45360.5</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
         <v>40</v>
       </c>
       <c r="K136">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M136">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="N136">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="O136">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P136">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R136">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S136">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T136">
         <v>3</v>
       </c>
       <c r="U136">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X136">
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z136">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA136">
         <v>-1</v>
@@ -12613,7 +12613,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6937670</v>
+        <v>6958683</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12625,67 +12625,67 @@
         <v>45360.5</v>
       </c>
       <c r="F137" t="s">
+        <v>38</v>
+      </c>
+      <c r="G137" t="s">
         <v>30</v>
       </c>
-      <c r="G137" t="s">
-        <v>32</v>
-      </c>
       <c r="H137">
+        <v>2</v>
+      </c>
+      <c r="I137">
         <v>1</v>
-      </c>
-      <c r="I137">
-        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>39</v>
       </c>
       <c r="K137">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="L137">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="N137">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="O137">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="Q137">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T137">
         <v>3</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA137">
         <v>-1</v>
@@ -12726,7 +12726,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K138">
         <v>1.909</v>
@@ -12815,7 +12815,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K139">
         <v>1.111</v>
@@ -12904,7 +12904,7 @@
         <v>4</v>
       </c>
       <c r="J140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K140">
         <v>1.727</v>
@@ -12993,7 +12993,7 @@
         <v>5</v>
       </c>
       <c r="J141" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K141">
         <v>10</v>
@@ -13082,7 +13082,7 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K142">
         <v>2.55</v>
@@ -13162,7 +13162,7 @@
         <v>33</v>
       </c>
       <c r="G143" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13171,7 +13171,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K143">
         <v>1.25</v>
@@ -13337,7 +13337,7 @@
         <v>45367.60416666666</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>32</v>
@@ -13349,7 +13349,7 @@
         <v>4</v>
       </c>
       <c r="J145" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K145">
         <v>8</v>
@@ -13438,7 +13438,7 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K146">
         <v>2.6</v>
@@ -13503,7 +13503,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6994939</v>
+        <v>6994938</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13515,58 +13515,58 @@
         <v>45374.5</v>
       </c>
       <c r="F147" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G147" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H147">
+        <v>4</v>
+      </c>
+      <c r="I147">
         <v>1</v>
       </c>
-      <c r="I147">
-        <v>0</v>
-      </c>
       <c r="J147" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K147">
-        <v>2.625</v>
+        <v>1.04</v>
       </c>
       <c r="L147">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M147">
-        <v>2.25</v>
+        <v>26</v>
       </c>
       <c r="N147">
-        <v>2.45</v>
+        <v>1.025</v>
       </c>
       <c r="O147">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="P147">
-        <v>2.45</v>
+        <v>34</v>
       </c>
       <c r="Q147">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="R147">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S147">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T147">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="U147">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V147">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W147">
-        <v>1.45</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="X147">
         <v>-1</v>
@@ -13575,16 +13575,16 @@
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB147">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC147">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13592,7 +13592,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6994938</v>
+        <v>6994939</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13604,58 +13604,58 @@
         <v>45374.5</v>
       </c>
       <c r="F148" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H148">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K148">
-        <v>1.04</v>
+        <v>2.625</v>
       </c>
       <c r="L148">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="M148">
-        <v>26</v>
+        <v>2.25</v>
       </c>
       <c r="N148">
-        <v>1.025</v>
+        <v>2.45</v>
       </c>
       <c r="O148">
-        <v>12</v>
+        <v>3.4</v>
       </c>
       <c r="P148">
-        <v>34</v>
+        <v>2.45</v>
       </c>
       <c r="Q148">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="R148">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S148">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T148">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="U148">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V148">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W148">
-        <v>0.02499999999999991</v>
+        <v>1.45</v>
       </c>
       <c r="X148">
         <v>-1</v>
@@ -13664,16 +13664,16 @@
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA148">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13696,7 +13696,7 @@
         <v>35</v>
       </c>
       <c r="G149" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -13705,7 +13705,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K149">
         <v>1.909</v>
@@ -13794,7 +13794,7 @@
         <v>3</v>
       </c>
       <c r="J150" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K150">
         <v>3.3</v>
@@ -13883,7 +13883,7 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K151">
         <v>2.3</v>
@@ -13987,10 +13987,10 @@
         <v>-0.75</v>
       </c>
       <c r="R152">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
         <v>3.25</v>
@@ -14037,7 +14037,7 @@
         <v>37</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K153">
         <v>1.75</v>
@@ -14111,7 +14111,7 @@
         <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K154">
         <v>1.363</v>
@@ -14144,10 +14144,10 @@
         <v>3</v>
       </c>
       <c r="U154">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V154">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W154">
         <v>0</v>
@@ -14197,31 +14197,31 @@
         <v>6.5</v>
       </c>
       <c r="N155">
-        <v>1.181</v>
+        <v>1.25</v>
       </c>
       <c r="O155">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="P155">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q155">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R155">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S155">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T155">
         <v>3.25</v>
       </c>
       <c r="U155">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V155">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W155">
         <v>0</v>

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -112,10 +112,10 @@
     <t>Montrose</t>
   </si>
   <si>
-    <t>Falkirk</t>
+    <t>Hamilton</t>
   </si>
   <si>
-    <t>Hamilton</t>
+    <t>Falkirk</t>
   </si>
   <si>
     <t>FC Edinburgh</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC156"/>
+  <dimension ref="A1:AC151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6848338</v>
+        <v>6845830</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -880,10 +880,10 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -892,43 +892,43 @@
         <v>39</v>
       </c>
       <c r="K5">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="N5">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="O5">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P5">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="Q5">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U5">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V5">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W5">
-        <v>0.333</v>
+        <v>0.95</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -937,16 +937,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -954,7 +954,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6845830</v>
+        <v>6848338</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -969,10 +969,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -981,43 +981,43 @@
         <v>39</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="L6">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M6">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="N6">
-        <v>1.95</v>
+        <v>1.333</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="P6">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T6">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U6">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V6">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W6">
-        <v>0.95</v>
+        <v>0.333</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1026,16 +1026,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1236,7 +1236,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1325,7 +1325,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1681,7 +1681,7 @@
         <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1856,7 +1856,7 @@
         <v>45160.65625</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
         <v>29</v>
@@ -2034,7 +2034,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
         <v>31</v>
@@ -2304,7 +2304,7 @@
         <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -2378,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6848351</v>
+        <v>6845825</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2390,76 +2390,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L22">
+        <v>3.6</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>3.6</v>
+      </c>
+      <c r="O22">
         <v>3.75</v>
       </c>
-      <c r="M22">
-        <v>1.666</v>
-      </c>
-      <c r="N22">
-        <v>10</v>
-      </c>
-      <c r="O22">
-        <v>5.5</v>
-      </c>
       <c r="P22">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="Q22">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S22">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T22">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U22">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V22">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W22">
         <v>-1</v>
       </c>
       <c r="X22">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y22">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z22">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA22">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB22">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC22">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2556,7 +2556,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6845825</v>
+        <v>6848351</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2568,76 +2568,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L24">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N24">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="O24">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P24">
-        <v>1.833</v>
+        <v>1.222</v>
       </c>
       <c r="Q24">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="R24">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S24">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U24">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V24">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z24">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB24">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2924,7 +2924,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -3102,7 +3102,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
         <v>30</v>
@@ -3372,7 +3372,7 @@
         <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3639,7 +3639,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -3725,7 +3725,7 @@
         <v>45198.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
         <v>38</v>
@@ -3903,7 +3903,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G39" t="s">
         <v>31</v>
@@ -4158,7 +4158,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6845665</v>
+        <v>6848363</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4170,73 +4170,73 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K42">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="L42">
         <v>3.6</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N42">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="O42">
         <v>4</v>
       </c>
       <c r="P42">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S42">
         <v>1.825</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB42">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4247,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6848363</v>
+        <v>6845665</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4259,73 +4259,73 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I43">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K43">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="L43">
         <v>3.6</v>
       </c>
       <c r="M43">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N43">
-        <v>3.6</v>
+        <v>1.571</v>
       </c>
       <c r="O43">
         <v>4</v>
       </c>
       <c r="P43">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="Q43">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="R43">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S43">
         <v>1.825</v>
       </c>
       <c r="T43">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U43">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA43">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
       <c r="AB43">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AC43">
         <v>-1</v>
@@ -4526,10 +4526,10 @@
         <v>45206.5625</v>
       </c>
       <c r="F46" t="s">
+        <v>33</v>
+      </c>
+      <c r="G46" t="s">
         <v>32</v>
-      </c>
-      <c r="G46" t="s">
-        <v>33</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4707,7 +4707,7 @@
         <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>1</v>
@@ -4882,7 +4882,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
         <v>34</v>
@@ -5149,7 +5149,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G53" t="s">
         <v>35</v>
@@ -5330,7 +5330,7 @@
         <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5508,7 +5508,7 @@
         <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5775,7 +5775,7 @@
         <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5861,7 +5861,7 @@
         <v>45241.5</v>
       </c>
       <c r="F61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G61" t="s">
         <v>29</v>
@@ -6128,7 +6128,7 @@
         <v>45241.5</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G64" t="s">
         <v>34</v>
@@ -6665,7 +6665,7 @@
         <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -6754,7 +6754,7 @@
         <v>38</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -6840,7 +6840,7 @@
         <v>45262.5</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G72" t="s">
         <v>30</v>
@@ -6917,7 +6917,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6848385</v>
+        <v>6848386</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6929,76 +6929,76 @@
         <v>45269.5</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H73">
+        <v>2</v>
+      </c>
+      <c r="I73">
         <v>1</v>
       </c>
-      <c r="I73">
+      <c r="J73" t="s">
+        <v>39</v>
+      </c>
+      <c r="K73">
+        <v>1.4</v>
+      </c>
+      <c r="L73">
+        <v>5</v>
+      </c>
+      <c r="M73">
+        <v>7</v>
+      </c>
+      <c r="N73">
+        <v>1.3</v>
+      </c>
+      <c r="O73">
+        <v>5.5</v>
+      </c>
+      <c r="P73">
+        <v>10</v>
+      </c>
+      <c r="Q73">
+        <v>-1.5</v>
+      </c>
+      <c r="R73">
+        <v>1.825</v>
+      </c>
+      <c r="S73">
+        <v>1.975</v>
+      </c>
+      <c r="T73">
         <v>3</v>
       </c>
-      <c r="J73" t="s">
-        <v>40</v>
-      </c>
-      <c r="K73">
-        <v>2.75</v>
-      </c>
-      <c r="L73">
-        <v>3.6</v>
-      </c>
-      <c r="M73">
-        <v>2.375</v>
-      </c>
-      <c r="N73">
-        <v>7.5</v>
-      </c>
-      <c r="O73">
-        <v>5</v>
-      </c>
-      <c r="P73">
-        <v>1.3</v>
-      </c>
-      <c r="Q73">
-        <v>1.5</v>
-      </c>
-      <c r="R73">
+      <c r="U73">
         <v>1.975</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>1.825</v>
       </c>
-      <c r="T73">
-        <v>3.25</v>
-      </c>
-      <c r="U73">
-        <v>1.9</v>
-      </c>
-      <c r="V73">
-        <v>1.9</v>
-      </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
         <v>-1</v>
       </c>
       <c r="AA73">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB73">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7006,7 +7006,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6848386</v>
+        <v>6848385</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7018,76 +7018,76 @@
         <v>45269.5</v>
       </c>
       <c r="F74" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K74">
-        <v>1.4</v>
+        <v>2.75</v>
       </c>
       <c r="L74">
+        <v>3.6</v>
+      </c>
+      <c r="M74">
+        <v>2.375</v>
+      </c>
+      <c r="N74">
+        <v>7.5</v>
+      </c>
+      <c r="O74">
         <v>5</v>
       </c>
-      <c r="M74">
-        <v>7</v>
-      </c>
-      <c r="N74">
+      <c r="P74">
         <v>1.3</v>
       </c>
-      <c r="O74">
-        <v>5.5</v>
-      </c>
-      <c r="P74">
-        <v>10</v>
-      </c>
       <c r="Q74">
-        <v>-1.5</v>
+        <v>1.5</v>
       </c>
       <c r="R74">
+        <v>1.975</v>
+      </c>
+      <c r="S74">
         <v>1.825</v>
       </c>
-      <c r="S74">
-        <v>1.975</v>
-      </c>
       <c r="T74">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U74">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
+        <v>-1</v>
+      </c>
+      <c r="X74">
+        <v>-1</v>
+      </c>
+      <c r="Y74">
         <v>0.3</v>
       </c>
-      <c r="X74">
-        <v>-1</v>
-      </c>
-      <c r="Y74">
-        <v>-1</v>
-      </c>
       <c r="Z74">
         <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7199,7 +7199,7 @@
         <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7641,10 +7641,10 @@
         <v>45276.5</v>
       </c>
       <c r="F81" t="s">
+        <v>32</v>
+      </c>
+      <c r="G81" t="s">
         <v>33</v>
-      </c>
-      <c r="G81" t="s">
-        <v>32</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7822,7 +7822,7 @@
         <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -7997,7 +7997,7 @@
         <v>45283.5</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85" t="s">
         <v>36</v>
@@ -8252,7 +8252,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6845674</v>
+        <v>6848396</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8264,61 +8264,61 @@
         <v>45290.5</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88">
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K88">
-        <v>2.55</v>
+        <v>1.833</v>
       </c>
       <c r="L88">
         <v>3.5</v>
       </c>
       <c r="M88">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="N88">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="O88">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P88">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="Q88">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R88">
         <v>1.875</v>
       </c>
       <c r="S88">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T88">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W88">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X88">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
         <v>-1</v>
@@ -8330,10 +8330,10 @@
         <v>-1</v>
       </c>
       <c r="AB88">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC88">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="89" spans="1:29">
@@ -8341,7 +8341,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6845811</v>
+        <v>6845674</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8353,76 +8353,76 @@
         <v>45290.5</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K89">
-        <v>9</v>
+        <v>2.55</v>
       </c>
       <c r="L89">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M89">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="N89">
-        <v>34</v>
+        <v>3.4</v>
       </c>
       <c r="O89">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="P89">
-        <v>1.045</v>
+        <v>1.85</v>
       </c>
       <c r="Q89">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R89">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S89">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T89">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="U89">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V89">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W89">
         <v>-1</v>
       </c>
       <c r="X89">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y89">
-        <v>0.04499999999999993</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA89">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB89">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6848396</v>
+        <v>6845811</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,76 +8442,76 @@
         <v>45290.5</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>2</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K90">
-        <v>1.833</v>
+        <v>9</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M90">
-        <v>3.5</v>
+        <v>1.222</v>
       </c>
       <c r="N90">
-        <v>1.833</v>
+        <v>34</v>
       </c>
       <c r="O90">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="P90">
-        <v>3.5</v>
+        <v>1.045</v>
       </c>
       <c r="Q90">
+        <v>3.25</v>
+      </c>
+      <c r="R90">
+        <v>1.975</v>
+      </c>
+      <c r="S90">
+        <v>1.875</v>
+      </c>
+      <c r="T90">
+        <v>4.25</v>
+      </c>
+      <c r="U90">
+        <v>1.925</v>
+      </c>
+      <c r="V90">
+        <v>1.925</v>
+      </c>
+      <c r="W90">
+        <v>-1</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
+        <v>0.04499999999999993</v>
+      </c>
+      <c r="Z90">
+        <v>0.4875</v>
+      </c>
+      <c r="AA90">
         <v>-0.5</v>
       </c>
-      <c r="R90">
-        <v>1.875</v>
-      </c>
-      <c r="S90">
-        <v>1.975</v>
-      </c>
-      <c r="T90">
-        <v>3</v>
-      </c>
-      <c r="U90">
-        <v>2.025</v>
-      </c>
-      <c r="V90">
-        <v>1.825</v>
-      </c>
-      <c r="W90">
-        <v>0.833</v>
-      </c>
-      <c r="X90">
-        <v>-1</v>
-      </c>
-      <c r="Y90">
-        <v>-1</v>
-      </c>
-      <c r="Z90">
-        <v>0.875</v>
-      </c>
-      <c r="AA90">
-        <v>-1</v>
-      </c>
       <c r="AB90">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8531,7 +8531,7 @@
         <v>45290.5</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -8608,7 +8608,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6848399</v>
+        <v>6845675</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8620,76 +8620,76 @@
         <v>45297.5</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H92">
+        <v>2</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K92">
+        <v>1.666</v>
+      </c>
+      <c r="L92">
+        <v>3.75</v>
+      </c>
+      <c r="M92">
+        <v>4.333</v>
+      </c>
+      <c r="N92">
+        <v>1.666</v>
+      </c>
+      <c r="O92">
+        <v>3.75</v>
+      </c>
+      <c r="P92">
+        <v>4</v>
+      </c>
+      <c r="Q92">
+        <v>-0.75</v>
+      </c>
+      <c r="R92">
+        <v>1.875</v>
+      </c>
+      <c r="S92">
+        <v>1.925</v>
+      </c>
+      <c r="T92">
+        <v>3</v>
+      </c>
+      <c r="U92">
+        <v>2</v>
+      </c>
+      <c r="V92">
+        <v>1.8</v>
+      </c>
+      <c r="W92">
+        <v>-1</v>
+      </c>
+      <c r="X92">
+        <v>2.75</v>
+      </c>
+      <c r="Y92">
+        <v>-1</v>
+      </c>
+      <c r="Z92">
+        <v>-1</v>
+      </c>
+      <c r="AA92">
+        <v>0.925</v>
+      </c>
+      <c r="AB92">
         <v>1</v>
       </c>
-      <c r="I92">
-        <v>0</v>
-      </c>
-      <c r="J92" t="s">
-        <v>39</v>
-      </c>
-      <c r="K92">
-        <v>1.333</v>
-      </c>
-      <c r="L92">
-        <v>4.5</v>
-      </c>
-      <c r="M92">
-        <v>8</v>
-      </c>
-      <c r="N92">
-        <v>1.2</v>
-      </c>
-      <c r="O92">
-        <v>5.75</v>
-      </c>
-      <c r="P92">
-        <v>12</v>
-      </c>
-      <c r="Q92">
-        <v>-2</v>
-      </c>
-      <c r="R92">
-        <v>2.05</v>
-      </c>
-      <c r="S92">
-        <v>1.8</v>
-      </c>
-      <c r="T92">
-        <v>3.25</v>
-      </c>
-      <c r="U92">
-        <v>2</v>
-      </c>
-      <c r="V92">
-        <v>1.85</v>
-      </c>
-      <c r="W92">
-        <v>0.2</v>
-      </c>
-      <c r="X92">
-        <v>-1</v>
-      </c>
-      <c r="Y92">
-        <v>-1</v>
-      </c>
-      <c r="Z92">
-        <v>-1</v>
-      </c>
-      <c r="AA92">
-        <v>0.8</v>
-      </c>
-      <c r="AB92">
-        <v>-1</v>
-      </c>
       <c r="AC92">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8697,7 +8697,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6848398</v>
+        <v>6848399</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8709,76 +8709,76 @@
         <v>45297.5</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K93">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M93">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="N93">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="O93">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="P93">
-        <v>2.15</v>
+        <v>12</v>
       </c>
       <c r="Q93">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S93">
+        <v>1.8</v>
+      </c>
+      <c r="T93">
+        <v>3.25</v>
+      </c>
+      <c r="U93">
+        <v>2</v>
+      </c>
+      <c r="V93">
         <v>1.85</v>
       </c>
-      <c r="T93">
-        <v>2.75</v>
-      </c>
-      <c r="U93">
-        <v>1.975</v>
-      </c>
-      <c r="V93">
-        <v>1.825</v>
-      </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="X93">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB93">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8786,7 +8786,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6848397</v>
+        <v>6848398</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8798,76 +8798,76 @@
         <v>45297.5</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
+        <v>2</v>
+      </c>
+      <c r="J94" t="s">
+        <v>41</v>
+      </c>
+      <c r="K94">
+        <v>3.4</v>
+      </c>
+      <c r="L94">
+        <v>3.6</v>
+      </c>
+      <c r="M94">
+        <v>1.909</v>
+      </c>
+      <c r="N94">
         <v>3</v>
       </c>
-      <c r="I94">
-        <v>1</v>
-      </c>
-      <c r="J94" t="s">
-        <v>39</v>
-      </c>
-      <c r="K94">
-        <v>1.05</v>
-      </c>
-      <c r="L94">
-        <v>11</v>
-      </c>
-      <c r="M94">
-        <v>15</v>
-      </c>
-      <c r="N94">
-        <v>1.083</v>
-      </c>
       <c r="O94">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="P94">
-        <v>23</v>
+        <v>2.15</v>
       </c>
       <c r="Q94">
-        <v>-2.75</v>
+        <v>0.25</v>
       </c>
       <c r="R94">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S94">
+        <v>1.85</v>
+      </c>
+      <c r="T94">
+        <v>2.75</v>
+      </c>
+      <c r="U94">
         <v>1.975</v>
       </c>
-      <c r="T94">
-        <v>3.75</v>
-      </c>
-      <c r="U94">
-        <v>1.8</v>
-      </c>
       <c r="V94">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W94">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y94">
         <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA94">
+        <v>-0.5</v>
+      </c>
+      <c r="AB94">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AB94">
-        <v>0.4</v>
-      </c>
       <c r="AC94">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="95" spans="1:29">
@@ -8875,7 +8875,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6845675</v>
+        <v>6848397</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8887,61 +8887,61 @@
         <v>45297.5</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K95">
-        <v>1.666</v>
+        <v>1.05</v>
       </c>
       <c r="L95">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="M95">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="N95">
-        <v>1.666</v>
+        <v>1.083</v>
       </c>
       <c r="O95">
-        <v>3.75</v>
+        <v>9.5</v>
       </c>
       <c r="P95">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="Q95">
-        <v>-0.75</v>
+        <v>-2.75</v>
       </c>
       <c r="R95">
         <v>1.875</v>
       </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T95">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="X95">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
@@ -8950,13 +8950,13 @@
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB95">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8976,7 +8976,7 @@
         <v>45300.69791666666</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G96" t="s">
         <v>37</v>
@@ -9243,7 +9243,7 @@
         <v>45304.5</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G99" t="s">
         <v>37</v>
@@ -9424,7 +9424,7 @@
         <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H101">
         <v>2</v>
@@ -9691,7 +9691,7 @@
         <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9777,7 +9777,7 @@
         <v>45318.5</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
         <v>31</v>
@@ -10136,7 +10136,7 @@
         <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -10477,7 +10477,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6848410</v>
+        <v>6848411</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10489,76 +10489,76 @@
         <v>45332.5</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K113">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L113">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M113">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="N113">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="O113">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P113">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q113">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R113">
+        <v>1.825</v>
+      </c>
+      <c r="S113">
         <v>1.975</v>
       </c>
-      <c r="S113">
-        <v>1.825</v>
-      </c>
       <c r="T113">
+        <v>2.75</v>
+      </c>
+      <c r="U113">
+        <v>2</v>
+      </c>
+      <c r="V113">
+        <v>1.8</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
         <v>2.5</v>
       </c>
-      <c r="U113">
-        <v>1.85</v>
-      </c>
-      <c r="V113">
-        <v>1.95</v>
-      </c>
-      <c r="W113">
-        <v>1.2</v>
-      </c>
-      <c r="X113">
-        <v>-1</v>
-      </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB113">
         <v>-1</v>
       </c>
       <c r="AC113">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10566,7 +10566,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6845806</v>
+        <v>6848410</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10578,40 +10578,40 @@
         <v>45332.5</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>39</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>3.4</v>
+      </c>
+      <c r="M114">
+        <v>3.3</v>
+      </c>
+      <c r="N114">
+        <v>2.2</v>
+      </c>
+      <c r="O114">
+        <v>3.3</v>
+      </c>
+      <c r="P114">
         <v>3</v>
       </c>
-      <c r="J114" t="s">
-        <v>40</v>
-      </c>
-      <c r="K114">
-        <v>1.2</v>
-      </c>
-      <c r="L114">
-        <v>5.5</v>
-      </c>
-      <c r="M114">
-        <v>11</v>
-      </c>
-      <c r="N114">
-        <v>1.2</v>
-      </c>
-      <c r="O114">
-        <v>6</v>
-      </c>
-      <c r="P114">
-        <v>10</v>
-      </c>
       <c r="Q114">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R114">
         <v>1.975</v>
@@ -10620,34 +10620,34 @@
         <v>1.825</v>
       </c>
       <c r="T114">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
+        <v>1.85</v>
+      </c>
+      <c r="V114">
         <v>1.95</v>
       </c>
-      <c r="V114">
-        <v>1.85</v>
-      </c>
       <c r="W114">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
         <v>0.95</v>
-      </c>
-      <c r="AC114">
-        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10655,7 +10655,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6848411</v>
+        <v>6845806</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10667,76 +10667,76 @@
         <v>45332.5</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K115">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="L115">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="M115">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N115">
-        <v>2.375</v>
+        <v>1.2</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="P115">
-        <v>2.6</v>
+        <v>10</v>
       </c>
       <c r="Q115">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="R115">
+        <v>1.975</v>
+      </c>
+      <c r="S115">
         <v>1.825</v>
       </c>
-      <c r="S115">
-        <v>1.975</v>
-      </c>
       <c r="T115">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U115">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V115">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W115">
         <v>-1</v>
       </c>
       <c r="X115">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -11189,7 +11189,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6845805</v>
+        <v>6845679</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11201,58 +11201,58 @@
         <v>45339.5</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>39</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L121">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M121">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N121">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="O121">
         <v>3.6</v>
       </c>
       <c r="P121">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q121">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
         <v>1.9</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>0.6659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11261,10 +11261,10 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
         <v>0.8999999999999999</v>
@@ -11278,7 +11278,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6845679</v>
+        <v>6845805</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11290,58 +11290,58 @@
         <v>45339.5</v>
       </c>
       <c r="F122" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
         <v>39</v>
       </c>
       <c r="K122">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L122">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M122">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N122">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="O122">
         <v>3.6</v>
       </c>
       <c r="P122">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S122">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U122">
         <v>1.9</v>
       </c>
       <c r="V122">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W122">
-        <v>1.3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X122">
         <v>-1</v>
@@ -11350,10 +11350,10 @@
         <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB122">
         <v>0.8999999999999999</v>
@@ -11379,7 +11379,7 @@
         <v>45342.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G123" t="s">
         <v>31</v>
@@ -11468,7 +11468,7 @@
         <v>45346.5</v>
       </c>
       <c r="F124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G124" t="s">
         <v>35</v>
@@ -11649,7 +11649,7 @@
         <v>36</v>
       </c>
       <c r="G126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -11916,7 +11916,7 @@
         <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -12094,7 +12094,7 @@
         <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -12257,7 +12257,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6937667</v>
+        <v>6937668</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12269,76 +12269,76 @@
         <v>45353.5</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K133">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="L133">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="M133">
-        <v>1.333</v>
+        <v>9.5</v>
       </c>
       <c r="N133">
+        <v>1.125</v>
+      </c>
+      <c r="O133">
         <v>9</v>
       </c>
-      <c r="O133">
-        <v>5.5</v>
-      </c>
       <c r="P133">
-        <v>1.25</v>
+        <v>12</v>
       </c>
       <c r="Q133">
-        <v>1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T133">
         <v>3.5</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Y133">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB133">
         <v>-1</v>
       </c>
       <c r="AC133">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12346,7 +12346,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6937668</v>
+        <v>6937667</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12358,76 +12358,76 @@
         <v>45353.5</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K134">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="L134">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="M134">
-        <v>9.5</v>
+        <v>1.333</v>
       </c>
       <c r="N134">
-        <v>1.125</v>
+        <v>9</v>
       </c>
       <c r="O134">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="P134">
-        <v>12</v>
+        <v>1.25</v>
       </c>
       <c r="Q134">
-        <v>-2.25</v>
+        <v>1.75</v>
       </c>
       <c r="R134">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T134">
         <v>3.5</v>
       </c>
       <c r="U134">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V134">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB134">
         <v>-1</v>
       </c>
       <c r="AC134">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12450,7 +12450,7 @@
         <v>37</v>
       </c>
       <c r="G135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -12539,7 +12539,7 @@
         <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12803,7 +12803,7 @@
         <v>45360.5</v>
       </c>
       <c r="F139" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G139" t="s">
         <v>34</v>
@@ -13159,7 +13159,7 @@
         <v>45367.5</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G143" t="s">
         <v>29</v>
@@ -13340,7 +13340,7 @@
         <v>30</v>
       </c>
       <c r="G145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H145">
         <v>1</v>
@@ -13515,7 +13515,7 @@
         <v>45374.5</v>
       </c>
       <c r="F147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
         <v>34</v>
@@ -13785,7 +13785,7 @@
         <v>37</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H150">
         <v>1</v>
@@ -13941,376 +13941,6 @@
       </c>
       <c r="AC151">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:29">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>7024091</v>
-      </c>
-      <c r="C152" t="s">
-        <v>28</v>
-      </c>
-      <c r="D152" t="s">
-        <v>28</v>
-      </c>
-      <c r="E152" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F152" t="s">
-        <v>35</v>
-      </c>
-      <c r="G152" t="s">
-        <v>38</v>
-      </c>
-      <c r="K152">
-        <v>1.8</v>
-      </c>
-      <c r="L152">
-        <v>3.6</v>
-      </c>
-      <c r="M152">
-        <v>3.5</v>
-      </c>
-      <c r="N152">
-        <v>1.615</v>
-      </c>
-      <c r="O152">
-        <v>3.8</v>
-      </c>
-      <c r="P152">
-        <v>4.5</v>
-      </c>
-      <c r="Q152">
-        <v>-0.75</v>
-      </c>
-      <c r="R152">
-        <v>1.9</v>
-      </c>
-      <c r="S152">
-        <v>1.95</v>
-      </c>
-      <c r="T152">
-        <v>3.25</v>
-      </c>
-      <c r="U152">
-        <v>1.975</v>
-      </c>
-      <c r="V152">
-        <v>1.875</v>
-      </c>
-      <c r="W152">
-        <v>0</v>
-      </c>
-      <c r="X152">
-        <v>0</v>
-      </c>
-      <c r="Y152">
-        <v>0</v>
-      </c>
-      <c r="Z152">
-        <v>0</v>
-      </c>
-      <c r="AA152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:29">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>7024092</v>
-      </c>
-      <c r="C153" t="s">
-        <v>28</v>
-      </c>
-      <c r="D153" t="s">
-        <v>28</v>
-      </c>
-      <c r="E153" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F153" t="s">
-        <v>37</v>
-      </c>
-      <c r="G153" t="s">
-        <v>29</v>
-      </c>
-      <c r="K153">
-        <v>1.75</v>
-      </c>
-      <c r="L153">
-        <v>3.6</v>
-      </c>
-      <c r="M153">
-        <v>3.75</v>
-      </c>
-      <c r="N153">
-        <v>2.05</v>
-      </c>
-      <c r="O153">
-        <v>3.5</v>
-      </c>
-      <c r="P153">
-        <v>3.2</v>
-      </c>
-      <c r="Q153">
-        <v>-0.25</v>
-      </c>
-      <c r="R153">
-        <v>1.85</v>
-      </c>
-      <c r="S153">
-        <v>2</v>
-      </c>
-      <c r="T153">
-        <v>2.75</v>
-      </c>
-      <c r="U153">
-        <v>1.975</v>
-      </c>
-      <c r="V153">
-        <v>1.875</v>
-      </c>
-      <c r="W153">
-        <v>0</v>
-      </c>
-      <c r="X153">
-        <v>0</v>
-      </c>
-      <c r="Y153">
-        <v>0</v>
-      </c>
-      <c r="Z153">
-        <v>0</v>
-      </c>
-      <c r="AA153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:29">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>7024093</v>
-      </c>
-      <c r="C154" t="s">
-        <v>28</v>
-      </c>
-      <c r="D154" t="s">
-        <v>28</v>
-      </c>
-      <c r="E154" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F154" t="s">
-        <v>33</v>
-      </c>
-      <c r="G154" t="s">
-        <v>30</v>
-      </c>
-      <c r="K154">
-        <v>1.363</v>
-      </c>
-      <c r="L154">
-        <v>4.333</v>
-      </c>
-      <c r="M154">
-        <v>6.5</v>
-      </c>
-      <c r="N154">
-        <v>1.4</v>
-      </c>
-      <c r="O154">
-        <v>4.2</v>
-      </c>
-      <c r="P154">
-        <v>6.5</v>
-      </c>
-      <c r="Q154">
-        <v>-1.25</v>
-      </c>
-      <c r="R154">
-        <v>1.925</v>
-      </c>
-      <c r="S154">
-        <v>1.925</v>
-      </c>
-      <c r="T154">
-        <v>3</v>
-      </c>
-      <c r="U154">
-        <v>2.025</v>
-      </c>
-      <c r="V154">
-        <v>1.825</v>
-      </c>
-      <c r="W154">
-        <v>0</v>
-      </c>
-      <c r="X154">
-        <v>0</v>
-      </c>
-      <c r="Y154">
-        <v>0</v>
-      </c>
-      <c r="Z154">
-        <v>0</v>
-      </c>
-      <c r="AA154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:29">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>7024094</v>
-      </c>
-      <c r="C155" t="s">
-        <v>28</v>
-      </c>
-      <c r="D155" t="s">
-        <v>28</v>
-      </c>
-      <c r="E155" s="2">
-        <v>45381.5</v>
-      </c>
-      <c r="F155" t="s">
-        <v>36</v>
-      </c>
-      <c r="G155" t="s">
-        <v>34</v>
-      </c>
-      <c r="K155">
-        <v>1.3</v>
-      </c>
-      <c r="L155">
-        <v>5.25</v>
-      </c>
-      <c r="M155">
-        <v>6.5</v>
-      </c>
-      <c r="N155">
-        <v>1.25</v>
-      </c>
-      <c r="O155">
-        <v>5.75</v>
-      </c>
-      <c r="P155">
-        <v>9</v>
-      </c>
-      <c r="Q155">
-        <v>-1.75</v>
-      </c>
-      <c r="R155">
-        <v>1.925</v>
-      </c>
-      <c r="S155">
-        <v>1.925</v>
-      </c>
-      <c r="T155">
-        <v>3.25</v>
-      </c>
-      <c r="U155">
-        <v>2.025</v>
-      </c>
-      <c r="V155">
-        <v>1.825</v>
-      </c>
-      <c r="W155">
-        <v>0</v>
-      </c>
-      <c r="X155">
-        <v>0</v>
-      </c>
-      <c r="Y155">
-        <v>0</v>
-      </c>
-      <c r="Z155">
-        <v>0</v>
-      </c>
-      <c r="AA155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:29">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156">
-        <v>7024095</v>
-      </c>
-      <c r="C156" t="s">
-        <v>28</v>
-      </c>
-      <c r="D156" t="s">
-        <v>28</v>
-      </c>
-      <c r="E156" s="2">
-        <v>45381.60416666666</v>
-      </c>
-      <c r="F156" t="s">
-        <v>31</v>
-      </c>
-      <c r="G156" t="s">
-        <v>32</v>
-      </c>
-      <c r="K156">
-        <v>4.75</v>
-      </c>
-      <c r="L156">
-        <v>4</v>
-      </c>
-      <c r="M156">
-        <v>1.533</v>
-      </c>
-      <c r="N156">
-        <v>6.5</v>
-      </c>
-      <c r="O156">
-        <v>4.75</v>
-      </c>
-      <c r="P156">
-        <v>1.363</v>
-      </c>
-      <c r="Q156">
-        <v>1.25</v>
-      </c>
-      <c r="R156">
-        <v>2.025</v>
-      </c>
-      <c r="S156">
-        <v>1.825</v>
-      </c>
-      <c r="T156">
-        <v>2.75</v>
-      </c>
-      <c r="U156">
-        <v>1.8</v>
-      </c>
-      <c r="V156">
-        <v>2.05</v>
-      </c>
-      <c r="W156">
-        <v>0</v>
-      </c>
-      <c r="X156">
-        <v>0</v>
-      </c>
-      <c r="Y156">
-        <v>0</v>
-      </c>
-      <c r="Z156">
-        <v>0</v>
-      </c>
-      <c r="AA156">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -7006,7 +7006,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6845671</v>
+        <v>6845814</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7018,76 +7018,76 @@
         <v>45269.5</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K74">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="L74">
-        <v>3.9</v>
+        <v>4.333</v>
       </c>
       <c r="M74">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="N74">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="O74">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P74">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="Q74">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R74">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
         <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V74">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y74">
+        <v>-1</v>
+      </c>
+      <c r="Z74">
+        <v>0.925</v>
+      </c>
+      <c r="AA74">
+        <v>-1</v>
+      </c>
+      <c r="AB74">
+        <v>-1</v>
+      </c>
+      <c r="AC74">
         <v>0.95</v>
-      </c>
-      <c r="Z74">
-        <v>-1</v>
-      </c>
-      <c r="AA74">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB74">
-        <v>0.8</v>
-      </c>
-      <c r="AC74">
-        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6845814</v>
+        <v>6845671</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,76 +7107,76 @@
         <v>45269.5</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K75">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="L75">
-        <v>4.333</v>
+        <v>3.9</v>
       </c>
       <c r="M75">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="N75">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="O75">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P75">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="Q75">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z75">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB75">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6848387</v>
+        <v>6848385</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,55 +7196,55 @@
         <v>45269.5</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J76" t="s">
         <v>40</v>
       </c>
       <c r="K76">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L76">
         <v>3.6</v>
       </c>
       <c r="M76">
+        <v>2.375</v>
+      </c>
+      <c r="N76">
+        <v>7.5</v>
+      </c>
+      <c r="O76">
+        <v>5</v>
+      </c>
+      <c r="P76">
+        <v>1.3</v>
+      </c>
+      <c r="Q76">
+        <v>1.5</v>
+      </c>
+      <c r="R76">
+        <v>1.975</v>
+      </c>
+      <c r="S76">
+        <v>1.825</v>
+      </c>
+      <c r="T76">
         <v>3.25</v>
       </c>
-      <c r="N76">
-        <v>2.05</v>
-      </c>
-      <c r="O76">
-        <v>3.6</v>
-      </c>
-      <c r="P76">
-        <v>3.3</v>
-      </c>
-      <c r="Q76">
-        <v>-0.25</v>
-      </c>
-      <c r="R76">
-        <v>1.8</v>
-      </c>
-      <c r="S76">
-        <v>2</v>
-      </c>
-      <c r="T76">
-        <v>2.75</v>
-      </c>
       <c r="U76">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W76">
         <v>-1</v>
@@ -7253,16 +7253,16 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB76">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6848385</v>
+        <v>6848387</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,56 +7285,56 @@
         <v>45269.5</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J77" t="s">
         <v>40</v>
       </c>
       <c r="K77">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L77">
         <v>3.6</v>
       </c>
       <c r="M77">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="N77">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="O77">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P77">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q77">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R77">
+        <v>1.8</v>
+      </c>
+      <c r="S77">
+        <v>2</v>
+      </c>
+      <c r="T77">
+        <v>2.75</v>
+      </c>
+      <c r="U77">
+        <v>1.825</v>
+      </c>
+      <c r="V77">
         <v>1.975</v>
       </c>
-      <c r="S77">
-        <v>1.825</v>
-      </c>
-      <c r="T77">
-        <v>3.25</v>
-      </c>
-      <c r="U77">
-        <v>1.9</v>
-      </c>
-      <c r="V77">
-        <v>1.9</v>
-      </c>
       <c r="W77">
         <v>-1</v>
       </c>
@@ -7342,16 +7342,16 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
+        <v>1</v>
+      </c>
+      <c r="AB77">
         <v>0.825</v>
-      </c>
-      <c r="AB77">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -10477,7 +10477,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6848412</v>
+        <v>6845806</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10489,76 +10489,76 @@
         <v>45332.5</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H113">
+        <v>2</v>
+      </c>
+      <c r="I113">
         <v>3</v>
       </c>
-      <c r="I113">
-        <v>0</v>
-      </c>
       <c r="J113" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K113">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="L113">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="M113">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N113">
-        <v>1.142</v>
+        <v>1.2</v>
       </c>
       <c r="O113">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P113">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q113">
-        <v>-2.25</v>
+        <v>-2</v>
       </c>
       <c r="R113">
+        <v>1.975</v>
+      </c>
+      <c r="S113">
+        <v>1.825</v>
+      </c>
+      <c r="T113">
+        <v>3.25</v>
+      </c>
+      <c r="U113">
         <v>1.95</v>
       </c>
-      <c r="S113">
+      <c r="V113">
         <v>1.85</v>
       </c>
-      <c r="T113">
-        <v>3.5</v>
-      </c>
-      <c r="U113">
-        <v>1.975</v>
-      </c>
-      <c r="V113">
-        <v>1.825</v>
-      </c>
       <c r="W113">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Z113">
+        <v>-1</v>
+      </c>
+      <c r="AA113">
+        <v>0.825</v>
+      </c>
+      <c r="AB113">
         <v>0.95</v>
       </c>
-      <c r="AA113">
-        <v>-1</v>
-      </c>
-      <c r="AB113">
-        <v>-1</v>
-      </c>
       <c r="AC113">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10566,7 +10566,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6845806</v>
+        <v>6848412</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10578,76 +10578,76 @@
         <v>45332.5</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K114">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="L114">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="M114">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N114">
-        <v>1.2</v>
+        <v>1.142</v>
       </c>
       <c r="O114">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P114">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q114">
-        <v>-2</v>
+        <v>-2.25</v>
       </c>
       <c r="R114">
+        <v>1.95</v>
+      </c>
+      <c r="S114">
+        <v>1.85</v>
+      </c>
+      <c r="T114">
+        <v>3.5</v>
+      </c>
+      <c r="U114">
         <v>1.975</v>
       </c>
-      <c r="S114">
+      <c r="V114">
         <v>1.825</v>
       </c>
-      <c r="T114">
-        <v>3.25</v>
-      </c>
-      <c r="U114">
-        <v>1.95</v>
-      </c>
-      <c r="V114">
-        <v>1.85</v>
-      </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA114">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
+        <v>-1</v>
+      </c>
+      <c r="AC114">
         <v>0.825</v>
-      </c>
-      <c r="AB114">
-        <v>0.95</v>
-      </c>
-      <c r="AC114">
-        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10922,7 +10922,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6845679</v>
+        <v>6845805</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10934,58 +10934,58 @@
         <v>45339.5</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>39</v>
       </c>
       <c r="K118">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L118">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M118">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N118">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="O118">
         <v>3.6</v>
       </c>
       <c r="P118">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R118">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T118">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U118">
         <v>1.9</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W118">
-        <v>1.3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -10994,10 +10994,10 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB118">
         <v>0.8999999999999999</v>
@@ -11011,7 +11011,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6848413</v>
+        <v>6848414</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11023,76 +11023,76 @@
         <v>45339.5</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G119" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K119">
-        <v>2.6</v>
+        <v>10</v>
       </c>
       <c r="L119">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M119">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="N119">
-        <v>2.625</v>
+        <v>15</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P119">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="Q119">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="R119">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S119">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X119">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC119">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11100,7 +11100,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6848414</v>
+        <v>6848413</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11112,76 +11112,76 @@
         <v>45339.5</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K120">
-        <v>10</v>
+        <v>2.6</v>
       </c>
       <c r="L120">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="M120">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="N120">
-        <v>15</v>
+        <v>2.625</v>
       </c>
       <c r="O120">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P120">
-        <v>1.125</v>
+        <v>2.3</v>
       </c>
       <c r="Q120">
-        <v>2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S120">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T120">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X120">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC120">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11189,7 +11189,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6845805</v>
+        <v>6845679</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11201,58 +11201,58 @@
         <v>45339.5</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J121" t="s">
         <v>39</v>
       </c>
       <c r="K121">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L121">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M121">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N121">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="O121">
         <v>3.6</v>
       </c>
       <c r="P121">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q121">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T121">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
         <v>1.9</v>
       </c>
       <c r="V121">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>0.6659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11261,10 +11261,10 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA121">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
         <v>0.8999999999999999</v>
@@ -11456,7 +11456,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6848417</v>
+        <v>6848419</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11468,76 +11468,76 @@
         <v>45346.5</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G124" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H124">
+        <v>4</v>
+      </c>
+      <c r="I124">
         <v>0</v>
       </c>
-      <c r="I124">
-        <v>1</v>
-      </c>
       <c r="J124" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K124">
-        <v>5.5</v>
+        <v>1.166</v>
       </c>
       <c r="L124">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M124">
-        <v>1.363</v>
+        <v>11</v>
       </c>
       <c r="N124">
-        <v>8.5</v>
+        <v>1.222</v>
       </c>
       <c r="O124">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="P124">
-        <v>1.25</v>
+        <v>10</v>
       </c>
       <c r="Q124">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U124">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V124">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC124">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11545,7 +11545,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6848419</v>
+        <v>6848417</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11557,76 +11557,76 @@
         <v>45346.5</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K125">
-        <v>1.166</v>
+        <v>5.5</v>
       </c>
       <c r="L125">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M125">
-        <v>11</v>
+        <v>1.363</v>
       </c>
       <c r="N125">
-        <v>1.222</v>
+        <v>8.5</v>
       </c>
       <c r="O125">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P125">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="Q125">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V125">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W125">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z125">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12613,7 +12613,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6937670</v>
+        <v>6937669</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12625,55 +12625,55 @@
         <v>45360.5</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J137" t="s">
         <v>40</v>
       </c>
       <c r="K137">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="L137">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M137">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="N137">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="O137">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="P137">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="Q137">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12682,19 +12682,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.3</v>
+        <v>1.75</v>
       </c>
       <c r="Z137">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB137">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC137">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12702,7 +12702,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6937669</v>
+        <v>6944520</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12714,76 +12714,76 @@
         <v>45360.5</v>
       </c>
       <c r="F138" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I138">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K138">
-        <v>1.727</v>
+        <v>1.909</v>
       </c>
       <c r="L138">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M138">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N138">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="O138">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P138">
-        <v>2.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q138">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R138">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S138">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T138">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U138">
+        <v>2</v>
+      </c>
+      <c r="V138">
         <v>1.8</v>
       </c>
-      <c r="V138">
-        <v>2</v>
-      </c>
       <c r="W138">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z138">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB138">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC138">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12791,7 +12791,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6944520</v>
+        <v>6958683</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12803,58 +12803,58 @@
         <v>45360.5</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="s">
         <v>39</v>
       </c>
       <c r="K139">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="L139">
         <v>3.6</v>
       </c>
       <c r="M139">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="N139">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="O139">
         <v>3.4</v>
       </c>
       <c r="P139">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="Q139">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S139">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T139">
         <v>3</v>
       </c>
       <c r="U139">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V139">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12863,7 +12863,7 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA139">
         <v>-1</v>
@@ -12880,7 +12880,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6958683</v>
+        <v>6937670</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12892,67 +12892,67 @@
         <v>45360.5</v>
       </c>
       <c r="F140" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G140" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K140">
-        <v>2.375</v>
+        <v>7</v>
       </c>
       <c r="L140">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M140">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="N140">
-        <v>2.625</v>
+        <v>7.5</v>
       </c>
       <c r="O140">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P140">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="Q140">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="R140">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S140">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T140">
         <v>3</v>
       </c>
       <c r="U140">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V140">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W140">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z140">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA140">
         <v>-1</v>
@@ -14037,7 +14037,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7024091</v>
+        <v>7024093</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14049,62 +14049,62 @@
         <v>45381.5</v>
       </c>
       <c r="F153" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G153" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153" t="s">
         <v>41</v>
       </c>
       <c r="K153">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="L153">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M153">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N153">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O153">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P153">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="Q153">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R153">
         <v>1.95</v>
       </c>
       <c r="S153">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T153">
+        <v>2.75</v>
+      </c>
+      <c r="U153">
+        <v>1.875</v>
+      </c>
+      <c r="V153">
+        <v>1.925</v>
+      </c>
+      <c r="W153">
+        <v>-1</v>
+      </c>
+      <c r="X153">
         <v>3</v>
       </c>
-      <c r="U153">
-        <v>1.85</v>
-      </c>
-      <c r="V153">
-        <v>2</v>
-      </c>
-      <c r="W153">
-        <v>-1</v>
-      </c>
-      <c r="X153">
-        <v>2.5</v>
-      </c>
       <c r="Y153">
         <v>-1</v>
       </c>
@@ -14112,13 +14112,13 @@
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14126,7 +14126,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7024093</v>
+        <v>7024094</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14138,76 +14138,76 @@
         <v>45381.5</v>
       </c>
       <c r="F154" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G154" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K154">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="L154">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="M154">
         <v>6.5</v>
       </c>
       <c r="N154">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="O154">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="P154">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q154">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S154">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T154">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U154">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V154">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W154">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X154">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA154">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB154">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC154">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14215,7 +14215,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7024094</v>
+        <v>7024091</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14227,76 +14227,76 @@
         <v>45381.5</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K155">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="L155">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="M155">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N155">
-        <v>1.285</v>
+        <v>1.95</v>
       </c>
       <c r="O155">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="P155">
-        <v>8.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q155">
-        <v>-1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R155">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S155">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T155">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U155">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V155">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W155">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y155">
         <v>-1</v>
       </c>
       <c r="Z155">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB155">
+        <v>-1</v>
+      </c>
+      <c r="AC155">
         <v>1</v>
-      </c>
-      <c r="AC155">
-        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -7006,7 +7006,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6845814</v>
+        <v>6845671</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7018,76 +7018,76 @@
         <v>45269.5</v>
       </c>
       <c r="F74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K74">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="L74">
-        <v>4.333</v>
+        <v>3.9</v>
       </c>
       <c r="M74">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="N74">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="O74">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="P74">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="Q74">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T74">
         <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W74">
         <v>-1</v>
       </c>
       <c r="X74">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7095,7 +7095,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6845671</v>
+        <v>6845814</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7107,76 +7107,76 @@
         <v>45269.5</v>
       </c>
       <c r="F75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K75">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="L75">
-        <v>3.9</v>
+        <v>4.333</v>
       </c>
       <c r="M75">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="N75">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="O75">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="P75">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="Q75">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R75">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
         <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y75">
+        <v>-1</v>
+      </c>
+      <c r="Z75">
+        <v>0.925</v>
+      </c>
+      <c r="AA75">
+        <v>-1</v>
+      </c>
+      <c r="AB75">
+        <v>-1</v>
+      </c>
+      <c r="AC75">
         <v>0.95</v>
-      </c>
-      <c r="Z75">
-        <v>-1</v>
-      </c>
-      <c r="AA75">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB75">
-        <v>0.8</v>
-      </c>
-      <c r="AC75">
-        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7184,7 +7184,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6848385</v>
+        <v>6848387</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7196,56 +7196,56 @@
         <v>45269.5</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>1</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J76" t="s">
         <v>40</v>
       </c>
       <c r="K76">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="L76">
         <v>3.6</v>
       </c>
       <c r="M76">
-        <v>2.375</v>
+        <v>3.25</v>
       </c>
       <c r="N76">
-        <v>7.5</v>
+        <v>2.05</v>
       </c>
       <c r="O76">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="P76">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="Q76">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
+        <v>1.8</v>
+      </c>
+      <c r="S76">
+        <v>2</v>
+      </c>
+      <c r="T76">
+        <v>2.75</v>
+      </c>
+      <c r="U76">
+        <v>1.825</v>
+      </c>
+      <c r="V76">
         <v>1.975</v>
       </c>
-      <c r="S76">
-        <v>1.825</v>
-      </c>
-      <c r="T76">
-        <v>3.25</v>
-      </c>
-      <c r="U76">
-        <v>1.9</v>
-      </c>
-      <c r="V76">
-        <v>1.9</v>
-      </c>
       <c r="W76">
         <v>-1</v>
       </c>
@@ -7253,16 +7253,16 @@
         <v>-1</v>
       </c>
       <c r="Y76">
-        <v>0.3</v>
+        <v>2.3</v>
       </c>
       <c r="Z76">
         <v>-1</v>
       </c>
       <c r="AA76">
+        <v>1</v>
+      </c>
+      <c r="AB76">
         <v>0.825</v>
-      </c>
-      <c r="AB76">
-        <v>0.8999999999999999</v>
       </c>
       <c r="AC76">
         <v>-1</v>
@@ -7273,7 +7273,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6848387</v>
+        <v>6848385</v>
       </c>
       <c r="C77" t="s">
         <v>28</v>
@@ -7285,55 +7285,55 @@
         <v>45269.5</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
       </c>
       <c r="I77">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J77" t="s">
         <v>40</v>
       </c>
       <c r="K77">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L77">
         <v>3.6</v>
       </c>
       <c r="M77">
+        <v>2.375</v>
+      </c>
+      <c r="N77">
+        <v>7.5</v>
+      </c>
+      <c r="O77">
+        <v>5</v>
+      </c>
+      <c r="P77">
+        <v>1.3</v>
+      </c>
+      <c r="Q77">
+        <v>1.5</v>
+      </c>
+      <c r="R77">
+        <v>1.975</v>
+      </c>
+      <c r="S77">
+        <v>1.825</v>
+      </c>
+      <c r="T77">
         <v>3.25</v>
       </c>
-      <c r="N77">
-        <v>2.05</v>
-      </c>
-      <c r="O77">
-        <v>3.6</v>
-      </c>
-      <c r="P77">
-        <v>3.3</v>
-      </c>
-      <c r="Q77">
-        <v>-0.25</v>
-      </c>
-      <c r="R77">
-        <v>1.8</v>
-      </c>
-      <c r="S77">
-        <v>2</v>
-      </c>
-      <c r="T77">
-        <v>2.75</v>
-      </c>
       <c r="U77">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V77">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W77">
         <v>-1</v>
@@ -7342,16 +7342,16 @@
         <v>-1</v>
       </c>
       <c r="Y77">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="Z77">
         <v>-1</v>
       </c>
       <c r="AA77">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB77">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC77">
         <v>-1</v>
@@ -10477,7 +10477,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6845806</v>
+        <v>6848412</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10489,76 +10489,76 @@
         <v>45332.5</v>
       </c>
       <c r="F113" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K113">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="L113">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="M113">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N113">
-        <v>1.2</v>
+        <v>1.142</v>
       </c>
       <c r="O113">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P113">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q113">
-        <v>-2</v>
+        <v>-2.25</v>
       </c>
       <c r="R113">
+        <v>1.95</v>
+      </c>
+      <c r="S113">
+        <v>1.85</v>
+      </c>
+      <c r="T113">
+        <v>3.5</v>
+      </c>
+      <c r="U113">
         <v>1.975</v>
       </c>
-      <c r="S113">
+      <c r="V113">
         <v>1.825</v>
       </c>
-      <c r="T113">
-        <v>3.25</v>
-      </c>
-      <c r="U113">
-        <v>1.95</v>
-      </c>
-      <c r="V113">
-        <v>1.85</v>
-      </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA113">
+        <v>-1</v>
+      </c>
+      <c r="AB113">
+        <v>-1</v>
+      </c>
+      <c r="AC113">
         <v>0.825</v>
-      </c>
-      <c r="AB113">
-        <v>0.95</v>
-      </c>
-      <c r="AC113">
-        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10566,7 +10566,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6848412</v>
+        <v>6845806</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10578,76 +10578,76 @@
         <v>45332.5</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
         <v>3</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
       <c r="J114" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K114">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="L114">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="M114">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="N114">
-        <v>1.142</v>
+        <v>1.2</v>
       </c>
       <c r="O114">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P114">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="Q114">
-        <v>-2.25</v>
+        <v>-2</v>
       </c>
       <c r="R114">
+        <v>1.975</v>
+      </c>
+      <c r="S114">
+        <v>1.825</v>
+      </c>
+      <c r="T114">
+        <v>3.25</v>
+      </c>
+      <c r="U114">
         <v>1.95</v>
       </c>
-      <c r="S114">
+      <c r="V114">
         <v>1.85</v>
       </c>
-      <c r="T114">
-        <v>3.5</v>
-      </c>
-      <c r="U114">
-        <v>1.975</v>
-      </c>
-      <c r="V114">
-        <v>1.825</v>
-      </c>
       <c r="W114">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Z114">
+        <v>-1</v>
+      </c>
+      <c r="AA114">
+        <v>0.825</v>
+      </c>
+      <c r="AB114">
         <v>0.95</v>
       </c>
-      <c r="AA114">
-        <v>-1</v>
-      </c>
-      <c r="AB114">
-        <v>-1</v>
-      </c>
       <c r="AC114">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10922,7 +10922,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6845805</v>
+        <v>6845679</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10934,58 +10934,58 @@
         <v>45339.5</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H118">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>39</v>
       </c>
       <c r="K118">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="L118">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M118">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N118">
-        <v>1.666</v>
+        <v>2.3</v>
       </c>
       <c r="O118">
         <v>3.6</v>
       </c>
       <c r="P118">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="Q118">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R118">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S118">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
         <v>1.9</v>
       </c>
       <c r="V118">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>0.6659999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="X118">
         <v>-1</v>
@@ -10994,10 +10994,10 @@
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA118">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
         <v>0.8999999999999999</v>
@@ -11011,7 +11011,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6848414</v>
+        <v>6848413</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11023,76 +11023,76 @@
         <v>45339.5</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119">
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K119">
-        <v>10</v>
+        <v>2.6</v>
       </c>
       <c r="L119">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="M119">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="N119">
-        <v>15</v>
+        <v>2.625</v>
       </c>
       <c r="O119">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="P119">
-        <v>1.125</v>
+        <v>2.3</v>
       </c>
       <c r="Q119">
-        <v>2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="S119">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T119">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V119">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X119">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AA119">
         <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AC119">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11100,7 +11100,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6848413</v>
+        <v>6848414</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11112,76 +11112,76 @@
         <v>45339.5</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K120">
-        <v>2.6</v>
+        <v>10</v>
       </c>
       <c r="L120">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M120">
-        <v>2.3</v>
+        <v>1.166</v>
       </c>
       <c r="N120">
-        <v>2.625</v>
+        <v>15</v>
       </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="P120">
-        <v>2.3</v>
+        <v>1.125</v>
       </c>
       <c r="Q120">
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="R120">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="S120">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T120">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U120">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="Y120">
         <v>-1</v>
       </c>
       <c r="Z120">
-        <v>0.75</v>
+        <v>0.875</v>
       </c>
       <c r="AA120">
         <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AC120">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11189,7 +11189,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6845679</v>
+        <v>6845805</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11201,58 +11201,58 @@
         <v>45339.5</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G121" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
         <v>39</v>
       </c>
       <c r="K121">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L121">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M121">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N121">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="O121">
         <v>3.6</v>
       </c>
       <c r="P121">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R121">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S121">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
         <v>1.9</v>
       </c>
       <c r="V121">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W121">
-        <v>1.3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X121">
         <v>-1</v>
@@ -11261,10 +11261,10 @@
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB121">
         <v>0.8999999999999999</v>
@@ -11456,7 +11456,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6848419</v>
+        <v>6848417</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11468,76 +11468,76 @@
         <v>45346.5</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H124">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K124">
-        <v>1.166</v>
+        <v>5.5</v>
       </c>
       <c r="L124">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M124">
-        <v>11</v>
+        <v>1.363</v>
       </c>
       <c r="N124">
-        <v>1.222</v>
+        <v>8.5</v>
       </c>
       <c r="O124">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="P124">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="Q124">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="R124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V124">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W124">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X124">
         <v>-1</v>
       </c>
       <c r="Y124">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z124">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11545,7 +11545,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6848417</v>
+        <v>6848419</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11557,76 +11557,76 @@
         <v>45346.5</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H125">
+        <v>4</v>
+      </c>
+      <c r="I125">
         <v>0</v>
       </c>
-      <c r="I125">
-        <v>1</v>
-      </c>
       <c r="J125" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K125">
-        <v>5.5</v>
+        <v>1.166</v>
       </c>
       <c r="L125">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M125">
-        <v>1.363</v>
+        <v>11</v>
       </c>
       <c r="N125">
-        <v>8.5</v>
+        <v>1.222</v>
       </c>
       <c r="O125">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="P125">
-        <v>1.25</v>
+        <v>10</v>
       </c>
       <c r="Q125">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U125">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X125">
         <v>-1</v>
       </c>
       <c r="Y125">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC125">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12613,7 +12613,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6937669</v>
+        <v>6937670</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12625,56 +12625,56 @@
         <v>45360.5</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G137" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H137">
         <v>1</v>
       </c>
       <c r="I137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>40</v>
       </c>
       <c r="K137">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="L137">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M137">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="N137">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="O137">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P137">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="Q137">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R137">
+        <v>1.9</v>
+      </c>
+      <c r="S137">
+        <v>1.9</v>
+      </c>
+      <c r="T137">
+        <v>3</v>
+      </c>
+      <c r="U137">
         <v>1.975</v>
       </c>
-      <c r="S137">
+      <c r="V137">
         <v>1.825</v>
       </c>
-      <c r="T137">
-        <v>2.75</v>
-      </c>
-      <c r="U137">
-        <v>1.8</v>
-      </c>
-      <c r="V137">
-        <v>2</v>
-      </c>
       <c r="W137">
         <v>-1</v>
       </c>
@@ -12682,19 +12682,19 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>1.75</v>
+        <v>0.3</v>
       </c>
       <c r="Z137">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA137">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB137">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC137">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12702,7 +12702,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6944520</v>
+        <v>6937669</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12714,76 +12714,76 @@
         <v>45360.5</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J138" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K138">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M138">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N138">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P138">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R138">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S138">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T138">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V138">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W138">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z138">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB138">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC138">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="139" spans="1:29">
@@ -12791,7 +12791,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6958683</v>
+        <v>6944520</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12803,58 +12803,58 @@
         <v>45360.5</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G139" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="s">
         <v>39</v>
       </c>
       <c r="K139">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="L139">
         <v>3.6</v>
       </c>
       <c r="M139">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="N139">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="O139">
         <v>3.4</v>
       </c>
       <c r="P139">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q139">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R139">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S139">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T139">
         <v>3</v>
       </c>
       <c r="U139">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V139">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W139">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="X139">
         <v>-1</v>
@@ -12863,7 +12863,7 @@
         <v>-1</v>
       </c>
       <c r="Z139">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA139">
         <v>-1</v>
@@ -12880,7 +12880,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6937670</v>
+        <v>6958683</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12892,67 +12892,67 @@
         <v>45360.5</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H140">
+        <v>2</v>
+      </c>
+      <c r="I140">
         <v>1</v>
       </c>
-      <c r="I140">
-        <v>2</v>
-      </c>
       <c r="J140" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K140">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="L140">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="N140">
-        <v>7.5</v>
+        <v>2.625</v>
       </c>
       <c r="O140">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="Q140">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="R140">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S140">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T140">
         <v>3</v>
       </c>
       <c r="U140">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W140">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X140">
         <v>-1</v>
       </c>
       <c r="Y140">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA140">
         <v>-1</v>
@@ -14037,7 +14037,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7024093</v>
+        <v>7024091</v>
       </c>
       <c r="C153" t="s">
         <v>28</v>
@@ -14049,61 +14049,61 @@
         <v>45381.5</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153" t="s">
         <v>41</v>
       </c>
       <c r="K153">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="L153">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M153">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="N153">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O153">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P153">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="Q153">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R153">
         <v>1.95</v>
       </c>
       <c r="S153">
+        <v>1.9</v>
+      </c>
+      <c r="T153">
+        <v>3</v>
+      </c>
+      <c r="U153">
         <v>1.85</v>
       </c>
-      <c r="T153">
-        <v>2.75</v>
-      </c>
-      <c r="U153">
-        <v>1.875</v>
-      </c>
       <c r="V153">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W153">
         <v>-1</v>
       </c>
       <c r="X153">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Y153">
         <v>-1</v>
@@ -14112,13 +14112,13 @@
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB153">
         <v>-1</v>
       </c>
       <c r="AC153">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:29">
@@ -14126,7 +14126,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7024094</v>
+        <v>7024093</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14138,76 +14138,76 @@
         <v>45381.5</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G154" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K154">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="L154">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="M154">
         <v>6.5</v>
       </c>
       <c r="N154">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="O154">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P154">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Q154">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R154">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S154">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T154">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U154">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V154">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W154">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X154">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y154">
         <v>-1</v>
       </c>
       <c r="Z154">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB154">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC154">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14215,7 +14215,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7024091</v>
+        <v>7024094</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14227,76 +14227,76 @@
         <v>45381.5</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K155">
+        <v>1.3</v>
+      </c>
+      <c r="L155">
+        <v>5.25</v>
+      </c>
+      <c r="M155">
+        <v>6.5</v>
+      </c>
+      <c r="N155">
+        <v>1.285</v>
+      </c>
+      <c r="O155">
+        <v>5.5</v>
+      </c>
+      <c r="P155">
+        <v>8.5</v>
+      </c>
+      <c r="Q155">
+        <v>-1.75</v>
+      </c>
+      <c r="R155">
+        <v>1.975</v>
+      </c>
+      <c r="S155">
+        <v>1.825</v>
+      </c>
+      <c r="T155">
+        <v>3.25</v>
+      </c>
+      <c r="U155">
+        <v>2</v>
+      </c>
+      <c r="V155">
         <v>1.8</v>
       </c>
-      <c r="L155">
-        <v>3.6</v>
-      </c>
-      <c r="M155">
-        <v>3.5</v>
-      </c>
-      <c r="N155">
-        <v>1.95</v>
-      </c>
-      <c r="O155">
-        <v>3.5</v>
-      </c>
-      <c r="P155">
-        <v>3.3</v>
-      </c>
-      <c r="Q155">
+      <c r="W155">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X155">
+        <v>-1</v>
+      </c>
+      <c r="Y155">
+        <v>-1</v>
+      </c>
+      <c r="Z155">
+        <v>0.4875</v>
+      </c>
+      <c r="AA155">
         <v>-0.5</v>
       </c>
-      <c r="R155">
-        <v>1.95</v>
-      </c>
-      <c r="S155">
-        <v>1.9</v>
-      </c>
-      <c r="T155">
-        <v>3</v>
-      </c>
-      <c r="U155">
-        <v>1.85</v>
-      </c>
-      <c r="V155">
-        <v>2</v>
-      </c>
-      <c r="W155">
-        <v>-1</v>
-      </c>
-      <c r="X155">
-        <v>2.5</v>
-      </c>
-      <c r="Y155">
-        <v>-1</v>
-      </c>
-      <c r="Z155">
-        <v>-1</v>
-      </c>
-      <c r="AA155">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC155">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="803" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -106,19 +106,16 @@
     <t>Falkirk</t>
   </si>
   <si>
-    <t>Queen of South</t>
+    <t>Montrose</t>
   </si>
   <si>
-    <t>Montrose</t>
+    <t>Queen of South</t>
   </si>
   <si>
     <t>Stirling</t>
   </si>
   <si>
     <t>Hamilton</t>
-  </si>
-  <si>
-    <t>FC Edinburgh</t>
   </si>
   <si>
     <t>Annan Athletic</t>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>Cove Rangers</t>
+  </si>
+  <si>
+    <t>FC Edinburgh</t>
   </si>
   <si>
     <t>H</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC161"/>
+  <dimension ref="A1:AC156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>3</v>
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6848340</v>
+        <v>6848339</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -705,49 +705,49 @@
         <v>36</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J3" t="s">
         <v>40</v>
       </c>
       <c r="K3">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L3">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
+        <v>2.5</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>3.5</v>
+      </c>
+      <c r="P3">
         <v>3.1</v>
       </c>
-      <c r="N3">
-        <v>1.833</v>
-      </c>
-      <c r="O3">
-        <v>4</v>
-      </c>
-      <c r="P3">
-        <v>3.4</v>
-      </c>
       <c r="Q3">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T3">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -756,19 +756,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Z3">
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB3">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6848339</v>
+        <v>6848340</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,73 +791,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" t="s">
         <v>40</v>
       </c>
       <c r="K4">
+        <v>1.909</v>
+      </c>
+      <c r="L4">
+        <v>3.75</v>
+      </c>
+      <c r="M4">
+        <v>3.1</v>
+      </c>
+      <c r="N4">
+        <v>1.833</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>3.4</v>
+      </c>
+      <c r="Q4">
+        <v>-0.5</v>
+      </c>
+      <c r="R4">
+        <v>1.875</v>
+      </c>
+      <c r="S4">
+        <v>1.925</v>
+      </c>
+      <c r="T4">
+        <v>2.75</v>
+      </c>
+      <c r="U4">
+        <v>1.95</v>
+      </c>
+      <c r="V4">
+        <v>1.85</v>
+      </c>
+      <c r="W4">
+        <v>-1</v>
+      </c>
+      <c r="X4">
+        <v>-1</v>
+      </c>
+      <c r="Y4">
         <v>2.4</v>
       </c>
-      <c r="L4">
-        <v>3.4</v>
-      </c>
-      <c r="M4">
-        <v>2.5</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>3.5</v>
-      </c>
-      <c r="P4">
-        <v>3.1</v>
-      </c>
-      <c r="Q4">
-        <v>-0.25</v>
-      </c>
-      <c r="R4">
-        <v>1.775</v>
-      </c>
-      <c r="S4">
-        <v>2.025</v>
-      </c>
-      <c r="T4">
-        <v>2.5</v>
-      </c>
-      <c r="U4">
-        <v>1.825</v>
-      </c>
-      <c r="V4">
-        <v>1.975</v>
-      </c>
-      <c r="W4">
-        <v>-1</v>
-      </c>
-      <c r="X4">
-        <v>-1</v>
-      </c>
-      <c r="Y4">
-        <v>2.1</v>
-      </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6848344</v>
+        <v>6848343</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,47 +1064,47 @@
         <v>1</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J7" t="s">
         <v>40</v>
       </c>
       <c r="K7">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="L7">
         <v>3.5</v>
       </c>
       <c r="M7">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N7">
+        <v>2.6</v>
+      </c>
+      <c r="O7">
         <v>3.5</v>
       </c>
-      <c r="O7">
-        <v>3.6</v>
-      </c>
       <c r="P7">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="Q7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
+        <v>1.8</v>
+      </c>
+      <c r="S7">
+        <v>2.05</v>
+      </c>
+      <c r="T7">
+        <v>2.75</v>
+      </c>
+      <c r="U7">
+        <v>1.95</v>
+      </c>
+      <c r="V7">
         <v>1.9</v>
       </c>
-      <c r="S7">
-        <v>1.95</v>
-      </c>
-      <c r="T7">
-        <v>3</v>
-      </c>
-      <c r="U7">
-        <v>2</v>
-      </c>
-      <c r="V7">
-        <v>1.85</v>
-      </c>
       <c r="W7">
         <v>-1</v>
       </c>
@@ -1112,19 +1112,19 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.8500000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
+        <v>1.05</v>
+      </c>
+      <c r="AB7">
         <v>0.95</v>
       </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
       <c r="AC7">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6848343</v>
+        <v>6848342</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,52 +1147,52 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>1</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
       </c>
       <c r="J8" t="s">
         <v>40</v>
       </c>
       <c r="K8">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M8">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N8">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O8">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q8">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R8">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S8">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T8">
         <v>2.75</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
         <v>-1</v>
@@ -1201,19 +1201,19 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB8">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6848342</v>
+        <v>6845829</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,43 +1236,43 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
         <v>40</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L9">
         <v>3.6</v>
       </c>
       <c r="M9">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="N9">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P9">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q9">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T9">
         <v>2.75</v>
@@ -1281,7 +1281,7 @@
         <v>1.975</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1290,19 +1290,19 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB9">
+        <v>-1</v>
+      </c>
+      <c r="AC9">
         <v>0.825</v>
-      </c>
-      <c r="AB9">
-        <v>-1</v>
-      </c>
-      <c r="AC9">
-        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6845829</v>
+        <v>6845658</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,73 +1325,73 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K10">
+        <v>2.15</v>
+      </c>
+      <c r="L10">
         <v>3.3</v>
       </c>
-      <c r="L10">
-        <v>3.6</v>
-      </c>
       <c r="M10">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="N10">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="O10">
         <v>3.5</v>
       </c>
       <c r="P10">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="Q10">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R10">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S10">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T10">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V10">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W10">
         <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y10">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC10">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1399,7 +1399,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6845658</v>
+        <v>6848344</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1414,73 +1414,73 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="L11">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M11">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="N11">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O11">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="Q11">
         <v>0.5</v>
       </c>
       <c r="R11">
+        <v>1.9</v>
+      </c>
+      <c r="S11">
+        <v>1.95</v>
+      </c>
+      <c r="T11">
+        <v>3</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
         <v>1.85</v>
       </c>
-      <c r="S11">
-        <v>2</v>
-      </c>
-      <c r="T11">
-        <v>2.5</v>
-      </c>
-      <c r="U11">
-        <v>1.85</v>
-      </c>
-      <c r="V11">
-        <v>2</v>
-      </c>
       <c r="W11">
         <v>-1</v>
       </c>
       <c r="X11">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z11">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB11">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC11">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1500,10 +1500,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -1589,7 +1589,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
         <v>33</v>
@@ -1678,10 +1678,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14">
         <v>3</v>
@@ -1767,10 +1767,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1945,10 +1945,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2037,7 +2037,7 @@
         <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -2123,10 +2123,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2215,7 +2215,7 @@
         <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2301,7 +2301,7 @@
         <v>45164.5625</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
         <v>29</v>
@@ -2390,10 +2390,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -2467,7 +2467,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6848352</v>
+        <v>6848353</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2479,76 +2479,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K23">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M23">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="N23">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="O23">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P23">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q23">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S23">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T23">
         <v>3</v>
       </c>
       <c r="U23">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V23">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W23">
         <v>-1</v>
       </c>
       <c r="X23">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2556,7 +2556,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6848351</v>
+        <v>6848352</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2568,76 +2568,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
         <v>34</v>
       </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K24">
+        <v>1.6</v>
+      </c>
+      <c r="L24">
         <v>4</v>
       </c>
-      <c r="L24">
-        <v>3.75</v>
-      </c>
       <c r="M24">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="N24">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="O24">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P24">
-        <v>1.222</v>
+        <v>3.4</v>
       </c>
       <c r="Q24">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T24">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y24">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB24">
         <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2645,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6845825</v>
+        <v>6848351</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2657,76 +2657,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L25">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="N25">
-        <v>3.6</v>
+        <v>10</v>
       </c>
       <c r="O25">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P25">
-        <v>1.833</v>
+        <v>1.222</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="R25">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S25">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z25">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB25">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2734,7 +2734,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6848353</v>
+        <v>6845825</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2746,73 +2746,73 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H26">
         <v>2</v>
       </c>
       <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26">
         <v>3</v>
-      </c>
-      <c r="J26" t="s">
-        <v>40</v>
-      </c>
-      <c r="K26">
-        <v>1.8</v>
       </c>
       <c r="L26">
         <v>3.6</v>
       </c>
       <c r="M26">
+        <v>2</v>
+      </c>
+      <c r="N26">
         <v>3.6</v>
-      </c>
-      <c r="N26">
-        <v>1.666</v>
       </c>
       <c r="O26">
         <v>3.75</v>
       </c>
       <c r="P26">
-        <v>4.5</v>
+        <v>1.833</v>
       </c>
       <c r="Q26">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R26">
+        <v>1.975</v>
+      </c>
+      <c r="S26">
+        <v>1.875</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
         <v>1.85</v>
       </c>
-      <c r="S26">
-        <v>1.95</v>
-      </c>
-      <c r="T26">
-        <v>3</v>
-      </c>
-      <c r="U26">
-        <v>1.875</v>
-      </c>
       <c r="V26">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W26">
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y26">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA26">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2835,10 +2835,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -2924,10 +2924,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H28">
         <v>5</v>
@@ -3016,7 +3016,7 @@
         <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -3102,7 +3102,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
         <v>32</v>
@@ -3194,7 +3194,7 @@
         <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H31">
         <v>1</v>
@@ -3280,7 +3280,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
         <v>33</v>
@@ -3369,10 +3369,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H33">
         <v>2</v>
@@ -3458,7 +3458,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
         <v>32</v>
@@ -3547,10 +3547,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G35" t="s">
         <v>35</v>
-      </c>
-      <c r="G35" t="s">
-        <v>36</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3636,7 +3636,7 @@
         <v>45192.5625</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>29</v>
@@ -3728,7 +3728,7 @@
         <v>33</v>
       </c>
       <c r="G37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -3817,7 +3817,7 @@
         <v>29</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H38">
         <v>3</v>
@@ -3903,10 +3903,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -3992,10 +3992,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4084,7 +4084,7 @@
         <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4158,7 +4158,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6845665</v>
+        <v>6848363</v>
       </c>
       <c r="C42" t="s">
         <v>28</v>
@@ -4173,70 +4173,70 @@
         <v>38</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I42">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K42">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="L42">
         <v>3.6</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="N42">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="O42">
         <v>4</v>
       </c>
       <c r="P42">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="Q42">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R42">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S42">
         <v>1.825</v>
       </c>
       <c r="T42">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U42">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W42">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X42">
         <v>-1</v>
       </c>
       <c r="Y42">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
       <c r="AB42">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AC42">
         <v>-1</v>
@@ -4247,7 +4247,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6848363</v>
+        <v>6848364</v>
       </c>
       <c r="C43" t="s">
         <v>28</v>
@@ -4259,76 +4259,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
         <v>1</v>
       </c>
-      <c r="I43">
-        <v>4</v>
-      </c>
       <c r="J43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K43">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="L43">
         <v>3.6</v>
       </c>
       <c r="M43">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="N43">
+        <v>1.909</v>
+      </c>
+      <c r="O43">
         <v>3.6</v>
       </c>
-      <c r="O43">
-        <v>4</v>
-      </c>
       <c r="P43">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="Q43">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R43">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S43">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T43">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U43">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V43">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W43">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X43">
         <v>-1</v>
       </c>
       <c r="Y43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>1.025</v>
+        <v>0.4375</v>
       </c>
       <c r="AC43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:29">
@@ -4336,7 +4336,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6848364</v>
+        <v>6848365</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4351,73 +4351,73 @@
         <v>31</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K44">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="L44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="N44">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="O44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P44">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q44">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T44">
         <v>2.75</v>
       </c>
       <c r="U44">
+        <v>1.925</v>
+      </c>
+      <c r="V44">
         <v>1.875</v>
       </c>
-      <c r="V44">
-        <v>1.975</v>
-      </c>
       <c r="W44">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z44">
+        <v>-1</v>
+      </c>
+      <c r="AA44">
         <v>1</v>
       </c>
-      <c r="AA44">
-        <v>-1</v>
-      </c>
       <c r="AB44">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4425,7 +4425,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6848365</v>
+        <v>6845665</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4437,76 +4437,76 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>2</v>
+      </c>
+      <c r="J45" t="s">
+        <v>39</v>
+      </c>
+      <c r="K45">
+        <v>1.75</v>
+      </c>
+      <c r="L45">
+        <v>3.6</v>
+      </c>
+      <c r="M45">
+        <v>4</v>
+      </c>
+      <c r="N45">
+        <v>1.571</v>
+      </c>
+      <c r="O45">
+        <v>4</v>
+      </c>
+      <c r="P45">
+        <v>4.5</v>
+      </c>
+      <c r="Q45">
+        <v>-1</v>
+      </c>
+      <c r="R45">
+        <v>1.975</v>
+      </c>
+      <c r="S45">
+        <v>1.825</v>
+      </c>
+      <c r="T45">
+        <v>3</v>
+      </c>
+      <c r="U45">
+        <v>1.875</v>
+      </c>
+      <c r="V45">
+        <v>1.925</v>
+      </c>
+      <c r="W45">
+        <v>0.571</v>
+      </c>
+      <c r="X45">
+        <v>-1</v>
+      </c>
+      <c r="Y45">
+        <v>-1</v>
+      </c>
+      <c r="Z45">
         <v>0</v>
       </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45" t="s">
-        <v>40</v>
-      </c>
-      <c r="K45">
-        <v>2.15</v>
-      </c>
-      <c r="L45">
-        <v>3.5</v>
-      </c>
-      <c r="M45">
-        <v>2.9</v>
-      </c>
-      <c r="N45">
-        <v>2.05</v>
-      </c>
-      <c r="O45">
-        <v>3.5</v>
-      </c>
-      <c r="P45">
-        <v>3.2</v>
-      </c>
-      <c r="Q45">
-        <v>-0.25</v>
-      </c>
-      <c r="R45">
-        <v>1.8</v>
-      </c>
-      <c r="S45">
-        <v>2</v>
-      </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
-      <c r="U45">
-        <v>1.925</v>
-      </c>
-      <c r="V45">
-        <v>1.875</v>
-      </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
-      <c r="X45">
-        <v>-1</v>
-      </c>
-      <c r="Y45">
-        <v>2.2</v>
-      </c>
-      <c r="Z45">
-        <v>-1</v>
-      </c>
       <c r="AA45">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC45">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4704,10 +4704,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -4796,7 +4796,7 @@
         <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4882,10 +4882,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F50" t="s">
+        <v>35</v>
+      </c>
+      <c r="G50" t="s">
         <v>36</v>
-      </c>
-      <c r="G50" t="s">
-        <v>37</v>
       </c>
       <c r="H50">
         <v>3</v>
@@ -4971,10 +4971,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -5048,7 +5048,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6848369</v>
+        <v>6848370</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5060,7 +5060,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
         <v>35</v>
@@ -5069,49 +5069,49 @@
         <v>3</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>39</v>
       </c>
       <c r="K52">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="M52">
-        <v>2.1</v>
+        <v>13</v>
       </c>
       <c r="N52">
-        <v>3.2</v>
+        <v>1.3</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P52">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="Q52">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R52">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S52">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T52">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V52">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
-        <v>2.2</v>
+        <v>0.3</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5120,16 +5120,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5137,7 +5137,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6848370</v>
+        <v>6848371</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5149,13 +5149,13 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F53" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -5164,43 +5164,43 @@
         <v>39</v>
       </c>
       <c r="K53">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="L53">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="N53">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O53">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P53">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q53">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R53">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S53">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T53">
         <v>2.75</v>
       </c>
       <c r="U53">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X53">
         <v>-1</v>
@@ -5209,16 +5209,16 @@
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AA53">
         <v>-1</v>
       </c>
       <c r="AB53">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5226,7 +5226,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6848371</v>
+        <v>6848369</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5238,58 +5238,58 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>39</v>
       </c>
       <c r="K54">
-        <v>2.25</v>
+        <v>3.2</v>
       </c>
       <c r="L54">
+        <v>3.6</v>
+      </c>
+      <c r="M54">
+        <v>2.1</v>
+      </c>
+      <c r="N54">
+        <v>3.2</v>
+      </c>
+      <c r="O54">
+        <v>4</v>
+      </c>
+      <c r="P54">
+        <v>2</v>
+      </c>
+      <c r="Q54">
+        <v>0.5</v>
+      </c>
+      <c r="R54">
+        <v>1.85</v>
+      </c>
+      <c r="S54">
+        <v>1.95</v>
+      </c>
+      <c r="T54">
         <v>3.5</v>
       </c>
-      <c r="M54">
-        <v>3</v>
-      </c>
-      <c r="N54">
-        <v>2.375</v>
-      </c>
-      <c r="O54">
-        <v>3.4</v>
-      </c>
-      <c r="P54">
-        <v>2.9</v>
-      </c>
-      <c r="Q54">
-        <v>-0.25</v>
-      </c>
-      <c r="R54">
-        <v>2.025</v>
-      </c>
-      <c r="S54">
-        <v>1.775</v>
-      </c>
-      <c r="T54">
-        <v>2.75</v>
-      </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V54">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
-        <v>1.375</v>
+        <v>2.2</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5298,16 +5298,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>1.025</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC54">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5327,7 +5327,7 @@
         <v>45227.5625</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G55" t="s">
         <v>33</v>
@@ -5416,7 +5416,7 @@
         <v>45234.5</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G56" t="s">
         <v>33</v>
@@ -5505,10 +5505,10 @@
         <v>45234.5</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H57">
         <v>2</v>
@@ -5594,10 +5594,10 @@
         <v>45234.5</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5683,7 +5683,7 @@
         <v>45234.5</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>29</v>
@@ -5775,7 +5775,7 @@
         <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5861,10 +5861,10 @@
         <v>45241.5</v>
       </c>
       <c r="F61" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" t="s">
         <v>37</v>
-      </c>
-      <c r="G61" t="s">
-        <v>38</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -5950,10 +5950,10 @@
         <v>45241.5</v>
       </c>
       <c r="F62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -6042,7 +6042,7 @@
         <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6128,10 +6128,10 @@
         <v>45241.5</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6306,10 +6306,10 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6395,10 +6395,10 @@
         <v>45248.5</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -6484,10 +6484,10 @@
         <v>45248.5</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -6573,7 +6573,7 @@
         <v>45248.5</v>
       </c>
       <c r="F69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -6650,7 +6650,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7392209</v>
+        <v>7414972</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6662,19 +6662,19 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K70">
         <v>6.5</v>
@@ -6686,52 +6686,52 @@
         <v>1.444</v>
       </c>
       <c r="N70">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="O70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P70">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q70">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R70">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S70">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T70">
         <v>3</v>
       </c>
       <c r="U70">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V70">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z70">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6739,7 +6739,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7414972</v>
+        <v>7392209</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6751,19 +6751,19 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K71">
         <v>6.5</v>
@@ -6775,52 +6775,52 @@
         <v>1.444</v>
       </c>
       <c r="N71">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="O71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P71">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="Q71">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R71">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T71">
         <v>3</v>
       </c>
       <c r="U71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V71">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y71">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA71">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6843,7 +6843,7 @@
         <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>5</v>
@@ -6932,7 +6932,7 @@
         <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H73">
         <v>2</v>
@@ -7018,10 +7018,10 @@
         <v>45269.5</v>
       </c>
       <c r="F74" t="s">
+        <v>30</v>
+      </c>
+      <c r="G74" t="s">
         <v>31</v>
-      </c>
-      <c r="G74" t="s">
-        <v>30</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -7107,7 +7107,7 @@
         <v>45269.5</v>
       </c>
       <c r="F75" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
         <v>32</v>
@@ -7196,7 +7196,7 @@
         <v>45269.5</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G76" t="s">
         <v>33</v>
@@ -7285,10 +7285,10 @@
         <v>45269.5</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7377,7 +7377,7 @@
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7463,10 +7463,10 @@
         <v>45276.5</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H79">
         <v>3</v>
@@ -7552,10 +7552,10 @@
         <v>45276.5</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -7730,10 +7730,10 @@
         <v>45276.5</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         <v>33</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7908,10 +7908,10 @@
         <v>45283.5</v>
       </c>
       <c r="F84" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7997,7 +7997,7 @@
         <v>45283.5</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
         <v>29</v>
@@ -8089,7 +8089,7 @@
         <v>32</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8175,10 +8175,10 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F87" t="s">
+        <v>37</v>
+      </c>
+      <c r="G87" t="s">
         <v>38</v>
-      </c>
-      <c r="G87" t="s">
-        <v>34</v>
       </c>
       <c r="H87">
         <v>7</v>
@@ -8252,7 +8252,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6848394</v>
+        <v>6845811</v>
       </c>
       <c r="C88" t="s">
         <v>28</v>
@@ -8264,73 +8264,73 @@
         <v>45290.5</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H88">
+        <v>2</v>
+      </c>
+      <c r="I88">
         <v>5</v>
       </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
       <c r="J88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K88">
-        <v>1.285</v>
+        <v>9</v>
       </c>
       <c r="L88">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M88">
-        <v>7.5</v>
+        <v>1.222</v>
       </c>
       <c r="N88">
-        <v>1.166</v>
+        <v>34</v>
       </c>
       <c r="O88">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="P88">
-        <v>11</v>
+        <v>1.045</v>
       </c>
       <c r="Q88">
-        <v>-2</v>
+        <v>3.25</v>
       </c>
       <c r="R88">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S88">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T88">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="U88">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V88">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W88">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X88">
         <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="Z88">
-        <v>0.8500000000000001</v>
+        <v>0.4875</v>
       </c>
       <c r="AA88">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB88">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AC88">
         <v>-1</v>
@@ -8341,7 +8341,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6845674</v>
+        <v>6848394</v>
       </c>
       <c r="C89" t="s">
         <v>28</v>
@@ -8353,49 +8353,49 @@
         <v>45290.5</v>
       </c>
       <c r="F89" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G89" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K89">
-        <v>2.55</v>
+        <v>1.285</v>
       </c>
       <c r="L89">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="M89">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="N89">
-        <v>3.4</v>
+        <v>1.166</v>
       </c>
       <c r="O89">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="P89">
+        <v>11</v>
+      </c>
+      <c r="Q89">
+        <v>-2</v>
+      </c>
+      <c r="R89">
         <v>1.85</v>
       </c>
-      <c r="Q89">
-        <v>0.5</v>
-      </c>
-      <c r="R89">
-        <v>1.875</v>
-      </c>
       <c r="S89">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T89">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U89">
         <v>1.95</v>
@@ -8404,25 +8404,25 @@
         <v>1.85</v>
       </c>
       <c r="W89">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X89">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y89">
         <v>-1</v>
       </c>
       <c r="Z89">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA89">
         <v>-1</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:29">
@@ -8430,7 +8430,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6845811</v>
+        <v>6845674</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8442,76 +8442,76 @@
         <v>45290.5</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>9</v>
+        <v>2.55</v>
       </c>
       <c r="L90">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>1.222</v>
+        <v>2.3</v>
       </c>
       <c r="N90">
-        <v>34</v>
+        <v>3.4</v>
       </c>
       <c r="O90">
-        <v>13</v>
+        <v>3.6</v>
       </c>
       <c r="P90">
-        <v>1.045</v>
+        <v>1.85</v>
       </c>
       <c r="Q90">
-        <v>3.25</v>
+        <v>0.5</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S90">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>4.25</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
         <v>-1</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y90">
-        <v>0.04499999999999993</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AA90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8531,10 +8531,10 @@
         <v>45290.5</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8623,7 +8623,7 @@
         <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8709,10 +8709,10 @@
         <v>45297.5</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8798,10 +8798,10 @@
         <v>45297.5</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -8887,10 +8887,10 @@
         <v>45297.5</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H95">
         <v>3</v>
@@ -8979,7 +8979,7 @@
         <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -9053,7 +9053,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6845809</v>
+        <v>6848402</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9065,76 +9065,76 @@
         <v>45304.5</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K97">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="L97">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M97">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="N97">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="O97">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="Q97">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T97">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V97">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W97">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB97">
         <v>-1</v>
       </c>
       <c r="AC97">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9142,7 +9142,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6848402</v>
+        <v>6848401</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9154,76 +9154,76 @@
         <v>45304.5</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K98">
+        <v>1.666</v>
+      </c>
+      <c r="L98">
+        <v>3.9</v>
+      </c>
+      <c r="M98">
+        <v>4.2</v>
+      </c>
+      <c r="N98">
+        <v>1.85</v>
+      </c>
+      <c r="O98">
+        <v>3.75</v>
+      </c>
+      <c r="P98">
+        <v>3.3</v>
+      </c>
+      <c r="Q98">
+        <v>-0.5</v>
+      </c>
+      <c r="R98">
+        <v>1.95</v>
+      </c>
+      <c r="S98">
+        <v>1.85</v>
+      </c>
+      <c r="T98">
+        <v>2.75</v>
+      </c>
+      <c r="U98">
         <v>1.8</v>
       </c>
-      <c r="L98">
-        <v>4</v>
-      </c>
-      <c r="M98">
-        <v>3.5</v>
-      </c>
-      <c r="N98">
-        <v>2.25</v>
-      </c>
-      <c r="O98">
-        <v>3.5</v>
-      </c>
-      <c r="P98">
-        <v>2.7</v>
-      </c>
-      <c r="Q98">
-        <v>-0.25</v>
-      </c>
-      <c r="R98">
-        <v>2.025</v>
-      </c>
-      <c r="S98">
-        <v>1.775</v>
-      </c>
-      <c r="T98">
-        <v>2.25</v>
-      </c>
-      <c r="U98">
-        <v>1.775</v>
-      </c>
       <c r="V98">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y98">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9231,7 +9231,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6848401</v>
+        <v>6845809</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9243,76 +9243,76 @@
         <v>45304.5</v>
       </c>
       <c r="F99" t="s">
+        <v>33</v>
+      </c>
+      <c r="G99" t="s">
         <v>37</v>
       </c>
-      <c r="G99" t="s">
-        <v>35</v>
-      </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K99">
         <v>1.666</v>
       </c>
       <c r="L99">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="M99">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="N99">
+        <v>1.444</v>
+      </c>
+      <c r="O99">
+        <v>4.75</v>
+      </c>
+      <c r="P99">
+        <v>5.25</v>
+      </c>
+      <c r="Q99">
+        <v>-1.25</v>
+      </c>
+      <c r="R99">
+        <v>2</v>
+      </c>
+      <c r="S99">
+        <v>1.8</v>
+      </c>
+      <c r="T99">
+        <v>3</v>
+      </c>
+      <c r="U99">
+        <v>1.95</v>
+      </c>
+      <c r="V99">
         <v>1.85</v>
       </c>
-      <c r="O99">
-        <v>3.75</v>
-      </c>
-      <c r="P99">
-        <v>3.3</v>
-      </c>
-      <c r="Q99">
-        <v>-0.5</v>
-      </c>
-      <c r="R99">
-        <v>1.95</v>
-      </c>
-      <c r="S99">
-        <v>1.85</v>
-      </c>
-      <c r="T99">
-        <v>2.75</v>
-      </c>
-      <c r="U99">
-        <v>1.8</v>
-      </c>
-      <c r="V99">
-        <v>2</v>
-      </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="X99">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA99">
+        <v>-1</v>
+      </c>
+      <c r="AB99">
+        <v>-1</v>
+      </c>
+      <c r="AC99">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AB99">
-        <v>-1</v>
-      </c>
-      <c r="AC99">
-        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9332,10 +9332,10 @@
         <v>45304.5</v>
       </c>
       <c r="F100" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9421,7 +9421,7 @@
         <v>45304.52083333334</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
         <v>29</v>
@@ -9513,7 +9513,7 @@
         <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>5</v>
@@ -9599,10 +9599,10 @@
         <v>45318.5</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9691,7 +9691,7 @@
         <v>33</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9777,7 +9777,7 @@
         <v>45318.5</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
         <v>29</v>
@@ -9866,10 +9866,10 @@
         <v>45318.5</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H106">
         <v>3</v>
@@ -9943,7 +9943,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6848407</v>
+        <v>6845677</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9955,37 +9955,37 @@
         <v>45325.5</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K107">
+        <v>3.5</v>
+      </c>
+      <c r="L107">
+        <v>4</v>
+      </c>
+      <c r="M107">
+        <v>1.8</v>
+      </c>
+      <c r="N107">
         <v>2.625</v>
-      </c>
-      <c r="L107">
-        <v>3.75</v>
-      </c>
-      <c r="M107">
-        <v>2.25</v>
-      </c>
-      <c r="N107">
-        <v>2.7</v>
       </c>
       <c r="O107">
         <v>3.6</v>
       </c>
       <c r="P107">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q107">
         <v>0</v>
@@ -9997,31 +9997,31 @@
         <v>1.775</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V107">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W107">
         <v>-1</v>
       </c>
       <c r="X107">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y107">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA107">
-        <v>0.7749999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB107">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6845677</v>
+        <v>6848407</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,37 +10044,37 @@
         <v>45325.5</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>2</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K108">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M108">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="N108">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="O108">
         <v>3.6</v>
       </c>
       <c r="P108">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q108">
         <v>0</v>
@@ -10086,31 +10086,31 @@
         <v>1.775</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V108">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB108">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10133,7 +10133,7 @@
         <v>45325.5</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
         <v>33</v>
@@ -10222,10 +10222,10 @@
         <v>45325.5</v>
       </c>
       <c r="F110" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -10314,7 +10314,7 @@
         <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10400,10 +10400,10 @@
         <v>45332.5</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -10489,7 +10489,7 @@
         <v>45332.5</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G113" t="s">
         <v>32</v>
@@ -10581,7 +10581,7 @@
         <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10667,10 +10667,10 @@
         <v>45332.5</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H115">
         <v>3</v>
@@ -10756,10 +10756,10 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10845,10 +10845,10 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H117">
         <v>3</v>
@@ -10934,10 +10934,10 @@
         <v>45339.5</v>
       </c>
       <c r="F118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H118">
         <v>4</v>
@@ -11023,10 +11023,10 @@
         <v>45339.5</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -11112,7 +11112,7 @@
         <v>45339.5</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
         <v>32</v>
@@ -11290,10 +11290,10 @@
         <v>45339.5</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H122">
         <v>4</v>
@@ -11382,7 +11382,7 @@
         <v>29</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H123">
         <v>3</v>
@@ -11468,7 +11468,7 @@
         <v>45346.5</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G124" t="s">
         <v>29</v>
@@ -11557,10 +11557,10 @@
         <v>45346.5</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G125" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11649,7 +11649,7 @@
         <v>33</v>
       </c>
       <c r="G126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H126">
         <v>1</v>
@@ -11738,7 +11738,7 @@
         <v>32</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H127">
         <v>4</v>
@@ -11824,10 +11824,10 @@
         <v>45346.60416666666</v>
       </c>
       <c r="F128" t="s">
+        <v>31</v>
+      </c>
+      <c r="G128" t="s">
         <v>30</v>
-      </c>
-      <c r="G128" t="s">
-        <v>31</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -12005,7 +12005,7 @@
         <v>29</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H130">
         <v>1</v>
@@ -12079,7 +12079,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6920622</v>
+        <v>6920595</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12091,73 +12091,73 @@
         <v>45353.5</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I131">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K131">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="L131">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="N131">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="O131">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q131">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S131">
+        <v>1.825</v>
+      </c>
+      <c r="T131">
+        <v>2.5</v>
+      </c>
+      <c r="U131">
+        <v>1.825</v>
+      </c>
+      <c r="V131">
         <v>2.025</v>
       </c>
-      <c r="T131">
-        <v>3</v>
-      </c>
-      <c r="U131">
-        <v>2</v>
-      </c>
-      <c r="V131">
-        <v>1.8</v>
-      </c>
       <c r="W131">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA131">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12168,7 +12168,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6920595</v>
+        <v>6921319</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12183,34 +12183,34 @@
         <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H132">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K132">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L132">
         <v>3.5</v>
       </c>
       <c r="M132">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N132">
         <v>2.25</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P132">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q132">
         <v>-0.25</v>
@@ -12225,28 +12225,28 @@
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V132">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12257,7 +12257,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6937667</v>
+        <v>6920622</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12269,55 +12269,55 @@
         <v>45353.5</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H133">
         <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J133" t="s">
         <v>40</v>
       </c>
       <c r="K133">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="L133">
-        <v>5.25</v>
+        <v>3.9</v>
       </c>
       <c r="M133">
-        <v>1.333</v>
+        <v>1.7</v>
       </c>
       <c r="N133">
-        <v>9</v>
+        <v>4.333</v>
       </c>
       <c r="O133">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="P133">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="Q133">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="R133">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="S133">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T133">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W133">
         <v>-1</v>
@@ -12326,19 +12326,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.25</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12346,7 +12346,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6921319</v>
+        <v>6937667</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12358,76 +12358,76 @@
         <v>45353.5</v>
       </c>
       <c r="F134" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G134" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K134">
+        <v>6.5</v>
+      </c>
+      <c r="L134">
+        <v>5.25</v>
+      </c>
+      <c r="M134">
+        <v>1.333</v>
+      </c>
+      <c r="N134">
+        <v>9</v>
+      </c>
+      <c r="O134">
+        <v>5.5</v>
+      </c>
+      <c r="P134">
+        <v>1.25</v>
+      </c>
+      <c r="Q134">
+        <v>1.75</v>
+      </c>
+      <c r="R134">
         <v>1.95</v>
       </c>
-      <c r="L134">
+      <c r="S134">
+        <v>1.85</v>
+      </c>
+      <c r="T134">
         <v>3.5</v>
       </c>
-      <c r="M134">
-        <v>3.4</v>
-      </c>
-      <c r="N134">
-        <v>2.25</v>
-      </c>
-      <c r="O134">
-        <v>3.2</v>
-      </c>
-      <c r="P134">
-        <v>3</v>
-      </c>
-      <c r="Q134">
-        <v>-0.25</v>
-      </c>
-      <c r="R134">
-        <v>2.025</v>
-      </c>
-      <c r="S134">
-        <v>1.825</v>
-      </c>
-      <c r="T134">
-        <v>2.5</v>
-      </c>
       <c r="U134">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V134">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z134">
         <v>-0.5</v>
       </c>
       <c r="AA134">
-        <v>0.4125</v>
+        <v>0.425</v>
       </c>
       <c r="AB134">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12447,7 +12447,7 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G135" t="s">
         <v>29</v>
@@ -12536,10 +12536,10 @@
         <v>45360.5</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H136">
         <v>1</v>
@@ -12628,7 +12628,7 @@
         <v>33</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H137">
         <v>1</v>
@@ -12714,10 +12714,10 @@
         <v>45360.5</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H138">
         <v>2</v>
@@ -12892,10 +12892,10 @@
         <v>45360.5</v>
       </c>
       <c r="F140" t="s">
+        <v>35</v>
+      </c>
+      <c r="G140" t="s">
         <v>36</v>
-      </c>
-      <c r="G140" t="s">
-        <v>37</v>
       </c>
       <c r="H140">
         <v>3</v>
@@ -12981,10 +12981,10 @@
         <v>45367.5</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H141">
         <v>1</v>
@@ -13070,10 +13070,10 @@
         <v>45367.5</v>
       </c>
       <c r="F142" t="s">
+        <v>36</v>
+      </c>
+      <c r="G142" t="s">
         <v>37</v>
-      </c>
-      <c r="G142" t="s">
-        <v>38</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -13159,10 +13159,10 @@
         <v>45367.5</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H143">
         <v>2</v>
@@ -13337,7 +13337,7 @@
         <v>45367.60416666666</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
         <v>29</v>
@@ -13426,10 +13426,10 @@
         <v>45370.69791666666</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13515,7 +13515,7 @@
         <v>45374.5</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G147" t="s">
         <v>33</v>
@@ -13607,7 +13607,7 @@
         <v>29</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H148">
         <v>4</v>
@@ -13693,10 +13693,10 @@
         <v>45374.5</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G149" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H149">
         <v>3</v>
@@ -13782,10 +13782,10 @@
         <v>45374.5</v>
       </c>
       <c r="F150" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G150" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -13874,7 +13874,7 @@
         <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H151">
         <v>1</v>
@@ -13960,10 +13960,10 @@
         <v>45381.5</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G152" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H152">
         <v>3</v>
@@ -14052,7 +14052,7 @@
         <v>33</v>
       </c>
       <c r="G153" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14138,7 +14138,7 @@
         <v>45381.5</v>
       </c>
       <c r="F154" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
         <v>32</v>
@@ -14227,10 +14227,10 @@
         <v>45381.5</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H155">
         <v>1</v>
@@ -14316,7 +14316,7 @@
         <v>45381.60416666666</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G156" t="s">
         <v>29</v>
@@ -14386,376 +14386,6 @@
       </c>
       <c r="AC156">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:29">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157">
-        <v>7060654</v>
-      </c>
-      <c r="C157" t="s">
-        <v>28</v>
-      </c>
-      <c r="D157" t="s">
-        <v>28</v>
-      </c>
-      <c r="E157" s="2">
-        <v>45388.45833333334</v>
-      </c>
-      <c r="F157" t="s">
-        <v>32</v>
-      </c>
-      <c r="G157" t="s">
-        <v>36</v>
-      </c>
-      <c r="K157">
-        <v>2.75</v>
-      </c>
-      <c r="L157">
-        <v>3.6</v>
-      </c>
-      <c r="M157">
-        <v>2.2</v>
-      </c>
-      <c r="N157">
-        <v>2.45</v>
-      </c>
-      <c r="O157">
-        <v>3.6</v>
-      </c>
-      <c r="P157">
-        <v>2.45</v>
-      </c>
-      <c r="Q157">
-        <v>0</v>
-      </c>
-      <c r="R157">
-        <v>1.925</v>
-      </c>
-      <c r="S157">
-        <v>1.925</v>
-      </c>
-      <c r="T157">
-        <v>2.75</v>
-      </c>
-      <c r="U157">
-        <v>1.975</v>
-      </c>
-      <c r="V157">
-        <v>1.875</v>
-      </c>
-      <c r="W157">
-        <v>0</v>
-      </c>
-      <c r="X157">
-        <v>0</v>
-      </c>
-      <c r="Y157">
-        <v>0</v>
-      </c>
-      <c r="Z157">
-        <v>0</v>
-      </c>
-      <c r="AA157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:29">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>7060652</v>
-      </c>
-      <c r="C158" t="s">
-        <v>28</v>
-      </c>
-      <c r="D158" t="s">
-        <v>28</v>
-      </c>
-      <c r="E158" s="2">
-        <v>45388.45833333334</v>
-      </c>
-      <c r="F158" t="s">
-        <v>34</v>
-      </c>
-      <c r="G158" t="s">
-        <v>31</v>
-      </c>
-      <c r="K158">
-        <v>13</v>
-      </c>
-      <c r="L158">
-        <v>9</v>
-      </c>
-      <c r="M158">
-        <v>1.1</v>
-      </c>
-      <c r="N158">
-        <v>7</v>
-      </c>
-      <c r="O158">
-        <v>5.5</v>
-      </c>
-      <c r="P158">
-        <v>1.285</v>
-      </c>
-      <c r="Q158">
-        <v>1.75</v>
-      </c>
-      <c r="R158">
-        <v>1.85</v>
-      </c>
-      <c r="S158">
-        <v>2</v>
-      </c>
-      <c r="T158">
-        <v>3.25</v>
-      </c>
-      <c r="U158">
-        <v>1.9</v>
-      </c>
-      <c r="V158">
-        <v>1.95</v>
-      </c>
-      <c r="W158">
-        <v>0</v>
-      </c>
-      <c r="X158">
-        <v>0</v>
-      </c>
-      <c r="Y158">
-        <v>0</v>
-      </c>
-      <c r="Z158">
-        <v>0</v>
-      </c>
-      <c r="AA158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:29">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159">
-        <v>7060651</v>
-      </c>
-      <c r="C159" t="s">
-        <v>28</v>
-      </c>
-      <c r="D159" t="s">
-        <v>28</v>
-      </c>
-      <c r="E159" s="2">
-        <v>45388.45833333334</v>
-      </c>
-      <c r="F159" t="s">
-        <v>35</v>
-      </c>
-      <c r="G159" t="s">
-        <v>33</v>
-      </c>
-      <c r="K159">
-        <v>3.75</v>
-      </c>
-      <c r="L159">
-        <v>4.8</v>
-      </c>
-      <c r="M159">
-        <v>1.615</v>
-      </c>
-      <c r="N159">
-        <v>4</v>
-      </c>
-      <c r="O159">
-        <v>4.75</v>
-      </c>
-      <c r="P159">
-        <v>1.55</v>
-      </c>
-      <c r="Q159">
-        <v>1</v>
-      </c>
-      <c r="R159">
-        <v>1.875</v>
-      </c>
-      <c r="S159">
-        <v>1.975</v>
-      </c>
-      <c r="T159">
-        <v>3</v>
-      </c>
-      <c r="U159">
-        <v>1.875</v>
-      </c>
-      <c r="V159">
-        <v>1.975</v>
-      </c>
-      <c r="W159">
-        <v>0</v>
-      </c>
-      <c r="X159">
-        <v>0</v>
-      </c>
-      <c r="Y159">
-        <v>0</v>
-      </c>
-      <c r="Z159">
-        <v>0</v>
-      </c>
-      <c r="AA159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:29">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160">
-        <v>7060491</v>
-      </c>
-      <c r="C160" t="s">
-        <v>28</v>
-      </c>
-      <c r="D160" t="s">
-        <v>28</v>
-      </c>
-      <c r="E160" s="2">
-        <v>45388.45833333334</v>
-      </c>
-      <c r="F160" t="s">
-        <v>30</v>
-      </c>
-      <c r="G160" t="s">
-        <v>37</v>
-      </c>
-      <c r="K160">
-        <v>2.2</v>
-      </c>
-      <c r="L160">
-        <v>3.4</v>
-      </c>
-      <c r="M160">
-        <v>2.875</v>
-      </c>
-      <c r="N160">
-        <v>1.85</v>
-      </c>
-      <c r="O160">
-        <v>3.5</v>
-      </c>
-      <c r="P160">
-        <v>3.75</v>
-      </c>
-      <c r="Q160">
-        <v>-0.5</v>
-      </c>
-      <c r="R160">
-        <v>1.975</v>
-      </c>
-      <c r="S160">
-        <v>1.875</v>
-      </c>
-      <c r="T160">
-        <v>3</v>
-      </c>
-      <c r="U160">
-        <v>2</v>
-      </c>
-      <c r="V160">
-        <v>1.85</v>
-      </c>
-      <c r="W160">
-        <v>0</v>
-      </c>
-      <c r="X160">
-        <v>0</v>
-      </c>
-      <c r="Y160">
-        <v>0</v>
-      </c>
-      <c r="Z160">
-        <v>0</v>
-      </c>
-      <c r="AA160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:27">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>7060653</v>
-      </c>
-      <c r="C161" t="s">
-        <v>28</v>
-      </c>
-      <c r="D161" t="s">
-        <v>28</v>
-      </c>
-      <c r="E161" s="2">
-        <v>45388.5625</v>
-      </c>
-      <c r="F161" t="s">
-        <v>29</v>
-      </c>
-      <c r="G161" t="s">
-        <v>38</v>
-      </c>
-      <c r="K161">
-        <v>1.571</v>
-      </c>
-      <c r="L161">
-        <v>4.8</v>
-      </c>
-      <c r="M161">
-        <v>4</v>
-      </c>
-      <c r="N161">
-        <v>1.25</v>
-      </c>
-      <c r="O161">
-        <v>7</v>
-      </c>
-      <c r="P161">
-        <v>8.5</v>
-      </c>
-      <c r="Q161">
-        <v>-1.75</v>
-      </c>
-      <c r="R161">
-        <v>1.9</v>
-      </c>
-      <c r="S161">
-        <v>1.95</v>
-      </c>
-      <c r="T161">
-        <v>3.25</v>
-      </c>
-      <c r="U161">
-        <v>1.95</v>
-      </c>
-      <c r="V161">
-        <v>1.9</v>
-      </c>
-      <c r="W161">
-        <v>0</v>
-      </c>
-      <c r="X161">
-        <v>0</v>
-      </c>
-      <c r="Y161">
-        <v>0</v>
-      </c>
-      <c r="Z161">
-        <v>0</v>
-      </c>
-      <c r="AA161">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -118,9 +118,6 @@
     <t>Stirling</t>
   </si>
   <si>
-    <t>Kelty Hearts</t>
-  </si>
-  <si>
     <t>FC Edinburgh</t>
   </si>
   <si>
@@ -128,6 +125,9 @@
   </si>
   <si>
     <t>Alloa</t>
+  </si>
+  <si>
+    <t>Kelty Hearts</t>
   </si>
   <si>
     <t>Cove Rangers</t>
@@ -702,7 +702,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>3</v>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -969,7 +969,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6845829</v>
+        <v>6848344</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,10 +1058,10 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -1070,40 +1070,40 @@
         <v>40</v>
       </c>
       <c r="K7">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="L7">
+        <v>3.5</v>
+      </c>
+      <c r="M7">
+        <v>2.2</v>
+      </c>
+      <c r="N7">
+        <v>3.5</v>
+      </c>
+      <c r="O7">
         <v>3.6</v>
       </c>
-      <c r="M7">
+      <c r="P7">
+        <v>1.85</v>
+      </c>
+      <c r="Q7">
+        <v>0.5</v>
+      </c>
+      <c r="R7">
+        <v>1.9</v>
+      </c>
+      <c r="S7">
         <v>1.95</v>
       </c>
-      <c r="N7">
-        <v>2.8</v>
-      </c>
-      <c r="O7">
-        <v>3.5</v>
-      </c>
-      <c r="P7">
-        <v>2.2</v>
-      </c>
-      <c r="Q7">
-        <v>0.25</v>
-      </c>
-      <c r="R7">
-        <v>1.825</v>
-      </c>
-      <c r="S7">
-        <v>1.975</v>
-      </c>
       <c r="T7">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U7">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V7">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1112,19 +1112,19 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.2</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6848344</v>
+        <v>6848343</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,53 +1147,53 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J8" t="s">
         <v>40</v>
       </c>
       <c r="K8">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="L8">
         <v>3.5</v>
       </c>
       <c r="M8">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N8">
+        <v>2.6</v>
+      </c>
+      <c r="O8">
         <v>3.5</v>
       </c>
-      <c r="O8">
-        <v>3.6</v>
-      </c>
       <c r="P8">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
+        <v>1.8</v>
+      </c>
+      <c r="S8">
+        <v>2.05</v>
+      </c>
+      <c r="T8">
+        <v>2.75</v>
+      </c>
+      <c r="U8">
+        <v>1.95</v>
+      </c>
+      <c r="V8">
         <v>1.9</v>
       </c>
-      <c r="S8">
-        <v>1.95</v>
-      </c>
-      <c r="T8">
-        <v>3</v>
-      </c>
-      <c r="U8">
-        <v>2</v>
-      </c>
-      <c r="V8">
-        <v>1.85</v>
-      </c>
       <c r="W8">
         <v>-1</v>
       </c>
@@ -1201,19 +1201,19 @@
         <v>-1</v>
       </c>
       <c r="Y8">
-        <v>0.8500000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Z8">
         <v>-1</v>
       </c>
       <c r="AA8">
+        <v>1.05</v>
+      </c>
+      <c r="AB8">
         <v>0.95</v>
       </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
       <c r="AC8">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6848343</v>
+        <v>6848342</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,52 +1236,52 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>1</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
       </c>
       <c r="J9" t="s">
         <v>40</v>
       </c>
       <c r="K9">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M9">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N9">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q9">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R9">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S9">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T9">
         <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V9">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
         <v>-1</v>
@@ -1290,19 +1290,19 @@
         <v>-1</v>
       </c>
       <c r="Y9">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Z9">
         <v>-1</v>
       </c>
       <c r="AA9">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB9">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1310,7 +1310,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6848342</v>
+        <v>6845829</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1325,43 +1325,43 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>40</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L10">
         <v>3.6</v>
       </c>
       <c r="M10">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="N10">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="O10">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P10">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R10">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S10">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T10">
         <v>2.75</v>
@@ -1370,7 +1370,7 @@
         <v>1.975</v>
       </c>
       <c r="V10">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W10">
         <v>-1</v>
@@ -1379,19 +1379,19 @@
         <v>-1</v>
       </c>
       <c r="Y10">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="Z10">
         <v>-1</v>
       </c>
       <c r="AA10">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB10">
+        <v>-1</v>
+      </c>
+      <c r="AC10">
         <v>0.825</v>
-      </c>
-      <c r="AB10">
-        <v>-1</v>
-      </c>
-      <c r="AC10">
-        <v>0.875</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1503,7 +1503,7 @@
         <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -1767,7 +1767,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>29</v>
@@ -2123,10 +2123,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>3</v>
@@ -2215,7 +2215,7 @@
         <v>33</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -2301,7 +2301,7 @@
         <v>45164.5625</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>30</v>
@@ -2378,7 +2378,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6845661</v>
+        <v>6848351</v>
       </c>
       <c r="C22" t="s">
         <v>28</v>
@@ -2390,76 +2390,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M22">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="N22">
-        <v>2.875</v>
+        <v>10</v>
       </c>
       <c r="O22">
+        <v>5.5</v>
+      </c>
+      <c r="P22">
+        <v>1.222</v>
+      </c>
+      <c r="Q22">
+        <v>1.75</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1.8</v>
+      </c>
+      <c r="T22">
         <v>3.5</v>
       </c>
-      <c r="P22">
-        <v>2.2</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>2.025</v>
-      </c>
-      <c r="S22">
-        <v>1.775</v>
-      </c>
-      <c r="T22">
-        <v>2.75</v>
-      </c>
       <c r="U22">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W22">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="X22">
         <v>-1</v>
       </c>
       <c r="Y22">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z22">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB22">
         <v>-1</v>
       </c>
       <c r="AC22">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:29">
@@ -2467,7 +2467,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6845825</v>
+        <v>6845661</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2479,76 +2479,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="L23">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="N23">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O23">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P23">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="Q23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S23">
+        <v>1.775</v>
+      </c>
+      <c r="T23">
+        <v>2.75</v>
+      </c>
+      <c r="U23">
+        <v>1.9</v>
+      </c>
+      <c r="V23">
+        <v>1.9</v>
+      </c>
+      <c r="W23">
         <v>1.875</v>
       </c>
-      <c r="T23">
-        <v>2.5</v>
-      </c>
-      <c r="U23">
-        <v>1.85</v>
-      </c>
-      <c r="V23">
-        <v>2</v>
-      </c>
-      <c r="W23">
-        <v>-1</v>
-      </c>
       <c r="X23">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AA23">
         <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:29">
@@ -2556,7 +2556,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6848351</v>
+        <v>6845825</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2568,76 +2568,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24">
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L24">
+        <v>3.6</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>3.6</v>
+      </c>
+      <c r="O24">
         <v>3.75</v>
       </c>
-      <c r="M24">
-        <v>1.666</v>
-      </c>
-      <c r="N24">
-        <v>10</v>
-      </c>
-      <c r="O24">
-        <v>5.5</v>
-      </c>
       <c r="P24">
-        <v>1.222</v>
+        <v>1.833</v>
       </c>
       <c r="Q24">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T24">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W24">
         <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y24">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA24">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC24">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2657,10 +2657,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2838,7 +2838,7 @@
         <v>31</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <v>5</v>
@@ -3013,7 +3013,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -3105,7 +3105,7 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>2</v>
@@ -3194,7 +3194,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3280,7 +3280,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
         <v>38</v>
@@ -3369,10 +3369,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
         <v>36</v>
-      </c>
-      <c r="G33" t="s">
-        <v>37</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -3636,7 +3636,7 @@
         <v>45192.5625</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
         <v>30</v>
@@ -3728,7 +3728,7 @@
         <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -3814,7 +3814,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -3992,10 +3992,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -4173,7 +4173,7 @@
         <v>31</v>
       </c>
       <c r="G42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H42">
         <v>2</v>
@@ -4259,10 +4259,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -4351,7 +4351,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H44">
         <v>3</v>
@@ -4615,7 +4615,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
         <v>32</v>
@@ -4704,10 +4704,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" t="s">
         <v>37</v>
-      </c>
-      <c r="G48" t="s">
-        <v>34</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4885,7 +4885,7 @@
         <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5060,10 +5060,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F52" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" t="s">
         <v>35</v>
-      </c>
-      <c r="G52" t="s">
-        <v>36</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5152,7 +5152,7 @@
         <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5238,7 +5238,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
         <v>33</v>
@@ -5416,10 +5416,10 @@
         <v>45234.5</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H56">
         <v>2</v>
@@ -5594,7 +5594,7 @@
         <v>45234.5</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
         <v>31</v>
@@ -5775,7 +5775,7 @@
         <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5864,7 +5864,7 @@
         <v>31</v>
       </c>
       <c r="G61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5950,7 +5950,7 @@
         <v>45241.5</v>
       </c>
       <c r="F62" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
         <v>38</v>
@@ -6131,7 +6131,7 @@
         <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64">
         <v>2</v>
@@ -6217,7 +6217,7 @@
         <v>45241.5</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -6395,10 +6395,10 @@
         <v>45248.5</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H67">
         <v>3</v>
@@ -6487,7 +6487,7 @@
         <v>32</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6662,7 +6662,7 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
         <v>29</v>
@@ -6929,7 +6929,7 @@
         <v>45269.5</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
         <v>38</v>
@@ -7018,7 +7018,7 @@
         <v>45269.5</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
         <v>33</v>
@@ -7107,7 +7107,7 @@
         <v>45269.5</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
         <v>29</v>
@@ -7288,7 +7288,7 @@
         <v>30</v>
       </c>
       <c r="G77" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H77">
         <v>2</v>
@@ -7362,7 +7362,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6848388</v>
+        <v>6845672</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7374,55 +7374,55 @@
         <v>45276.5</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>40</v>
       </c>
       <c r="K78">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="L78">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M78">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="N78">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R78">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S78">
+        <v>1.9</v>
+      </c>
+      <c r="T78">
+        <v>2.5</v>
+      </c>
+      <c r="U78">
         <v>1.8</v>
       </c>
-      <c r="T78">
-        <v>2.75</v>
-      </c>
-      <c r="U78">
-        <v>2</v>
-      </c>
       <c r="V78">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7431,19 +7431,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.875</v>
+        <v>3.75</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB78">
         <v>0.8</v>
       </c>
-      <c r="AB78">
-        <v>-1</v>
-      </c>
       <c r="AC78">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7540,7 +7540,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6845672</v>
+        <v>6848388</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7552,56 +7552,56 @@
         <v>45276.5</v>
       </c>
       <c r="F80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80">
         <v>1</v>
-      </c>
-      <c r="I80">
-        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>40</v>
       </c>
       <c r="K80">
-        <v>1.571</v>
+        <v>2.1</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M80">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="N80">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="O80">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>4.75</v>
+        <v>2.875</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S80">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U80">
+        <v>2</v>
+      </c>
+      <c r="V80">
         <v>1.8</v>
       </c>
-      <c r="V80">
-        <v>2</v>
-      </c>
       <c r="W80">
         <v>-1</v>
       </c>
@@ -7609,19 +7609,19 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>3.75</v>
+        <v>1.875</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB80">
+        <v>-1</v>
+      </c>
+      <c r="AC80">
         <v>0.8</v>
-      </c>
-      <c r="AC80">
-        <v>-1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7629,7 +7629,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6848390</v>
+        <v>6848389</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7641,76 +7641,76 @@
         <v>45276.5</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K81">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="L81">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M81">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="N81">
-        <v>2.15</v>
+        <v>1.181</v>
       </c>
       <c r="O81">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="P81">
-        <v>3.2</v>
+        <v>12</v>
       </c>
       <c r="Q81">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="R81">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S81">
         <v>1.95</v>
       </c>
       <c r="T81">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V81">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W81">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X81">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA81">
-        <v>0.475</v>
+        <v>-0</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7718,7 +7718,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6848389</v>
+        <v>6848390</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7730,76 +7730,76 @@
         <v>45276.5</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
         <v>35</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K82">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="L82">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M82">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="N82">
-        <v>1.181</v>
+        <v>2.15</v>
       </c>
       <c r="O82">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="P82">
-        <v>12</v>
+        <v>3.2</v>
       </c>
       <c r="Q82">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S82">
         <v>1.95</v>
       </c>
       <c r="T82">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U82">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V82">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W82">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA82">
-        <v>-0</v>
+        <v>0.475</v>
       </c>
       <c r="AB82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -7822,7 +7822,7 @@
         <v>29</v>
       </c>
       <c r="G83" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7997,7 +7997,7 @@
         <v>45283.5</v>
       </c>
       <c r="F85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
@@ -8086,7 +8086,7 @@
         <v>45283.5</v>
       </c>
       <c r="F86" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>31</v>
@@ -8178,7 +8178,7 @@
         <v>38</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H87">
         <v>7</v>
@@ -8267,7 +8267,7 @@
         <v>32</v>
       </c>
       <c r="G88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8531,7 +8531,7 @@
         <v>45290.5</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
         <v>29</v>
@@ -8623,7 +8623,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8709,10 +8709,10 @@
         <v>45297.5</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H93">
         <v>3</v>
@@ -8798,7 +8798,7 @@
         <v>45297.5</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G94" t="s">
         <v>31</v>
@@ -9068,7 +9068,7 @@
         <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H97">
         <v>1</v>
@@ -9332,10 +9332,10 @@
         <v>45304.5</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9421,7 +9421,7 @@
         <v>45304.52083333334</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
         <v>30</v>
@@ -9498,7 +9498,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6848405</v>
+        <v>6848404</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9513,73 +9513,73 @@
         <v>36</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K102">
-        <v>1.444</v>
+        <v>6</v>
       </c>
       <c r="L102">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M102">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="N102">
+        <v>9</v>
+      </c>
+      <c r="O102">
+        <v>4.75</v>
+      </c>
+      <c r="P102">
         <v>1.25</v>
       </c>
-      <c r="O102">
-        <v>5.5</v>
-      </c>
-      <c r="P102">
-        <v>9</v>
-      </c>
       <c r="Q102">
-        <v>-1.75</v>
+        <v>1.5</v>
       </c>
       <c r="R102">
+        <v>1.925</v>
+      </c>
+      <c r="S102">
         <v>1.875</v>
       </c>
-      <c r="S102">
-        <v>1.925</v>
-      </c>
       <c r="T102">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V102">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
         <v>0.25</v>
       </c>
-      <c r="X102">
-        <v>-1</v>
-      </c>
-      <c r="Y102">
-        <v>-1</v>
-      </c>
       <c r="Z102">
+        <v>-1</v>
+      </c>
+      <c r="AA102">
         <v>0.875</v>
       </c>
-      <c r="AA102">
-        <v>-1</v>
-      </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9587,7 +9587,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6848404</v>
+        <v>6845808</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9599,76 +9599,76 @@
         <v>45318.5</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="L103">
         <v>4.333</v>
       </c>
       <c r="M103">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="N103">
+        <v>1.333</v>
+      </c>
+      <c r="O103">
+        <v>4.5</v>
+      </c>
+      <c r="P103">
         <v>9</v>
       </c>
-      <c r="O103">
-        <v>4.75</v>
-      </c>
-      <c r="P103">
-        <v>1.25</v>
-      </c>
       <c r="Q103">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R103">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S103">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T103">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U103">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V103">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W103">
         <v>-1</v>
       </c>
       <c r="X103">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y103">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9676,7 +9676,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6845808</v>
+        <v>6845676</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9688,76 +9688,76 @@
         <v>45318.5</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K104">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="L104">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="M104">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="N104">
-        <v>1.333</v>
+        <v>1.7</v>
       </c>
       <c r="O104">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="P104">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q104">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R104">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
+        <v>2.75</v>
+      </c>
+      <c r="U104">
+        <v>2</v>
+      </c>
+      <c r="V104">
+        <v>1.8</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>-1</v>
+      </c>
+      <c r="Y104">
         <v>3</v>
       </c>
-      <c r="U104">
-        <v>1.95</v>
-      </c>
-      <c r="V104">
-        <v>1.85</v>
-      </c>
-      <c r="W104">
-        <v>-1</v>
-      </c>
-      <c r="X104">
-        <v>3.5</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
       <c r="Z104">
         <v>-1</v>
       </c>
       <c r="AA104">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB104">
         <v>-1</v>
       </c>
       <c r="AC104">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9765,7 +9765,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6845676</v>
+        <v>6848405</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9777,76 +9777,76 @@
         <v>45318.5</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H105">
+        <v>3</v>
+      </c>
+      <c r="I105">
         <v>0</v>
       </c>
-      <c r="I105">
-        <v>2</v>
-      </c>
       <c r="J105" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K105">
-        <v>1.666</v>
+        <v>1.444</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M105">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="N105">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="O105">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P105">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R105">
+        <v>1.875</v>
+      </c>
+      <c r="S105">
         <v>1.925</v>
       </c>
-      <c r="S105">
-        <v>1.875</v>
-      </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U105">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V105">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA105">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
         <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9869,7 +9869,7 @@
         <v>33</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>5</v>
@@ -10044,10 +10044,10 @@
         <v>45325.5</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -10133,10 +10133,10 @@
         <v>45325.5</v>
       </c>
       <c r="F109" t="s">
+        <v>35</v>
+      </c>
+      <c r="G109" t="s">
         <v>36</v>
-      </c>
-      <c r="G109" t="s">
-        <v>37</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -10403,7 +10403,7 @@
         <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H112">
         <v>3</v>
@@ -10489,7 +10489,7 @@
         <v>45332.5</v>
       </c>
       <c r="F113" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G113" t="s">
         <v>32</v>
@@ -10581,7 +10581,7 @@
         <v>29</v>
       </c>
       <c r="G114" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H114">
         <v>2</v>
@@ -10667,7 +10667,7 @@
         <v>45332.5</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G115" t="s">
         <v>33</v>
@@ -10756,10 +10756,10 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F116" t="s">
+        <v>37</v>
+      </c>
+      <c r="G116" t="s">
         <v>34</v>
-      </c>
-      <c r="G116" t="s">
-        <v>35</v>
       </c>
       <c r="H116">
         <v>3</v>
@@ -10845,10 +10845,10 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -10937,7 +10937,7 @@
         <v>31</v>
       </c>
       <c r="G118" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H118">
         <v>4</v>
@@ -11023,7 +11023,7 @@
         <v>45339.5</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G119" t="s">
         <v>32</v>
@@ -11112,7 +11112,7 @@
         <v>45339.5</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
         <v>33</v>
@@ -11290,7 +11290,7 @@
         <v>45339.5</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G122" t="s">
         <v>38</v>
@@ -11471,7 +11471,7 @@
         <v>38</v>
       </c>
       <c r="G124" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H124">
         <v>2</v>
@@ -11560,7 +11560,7 @@
         <v>29</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H125">
         <v>1</v>
@@ -11646,7 +11646,7 @@
         <v>45346.5</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G126" t="s">
         <v>30</v>
@@ -11738,7 +11738,7 @@
         <v>33</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H127">
         <v>4</v>
@@ -12005,7 +12005,7 @@
         <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H130">
         <v>4</v>
@@ -12079,7 +12079,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6937668</v>
+        <v>6937667</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12091,76 +12091,76 @@
         <v>45353.5</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G131" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K131">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="L131">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="M131">
-        <v>9.5</v>
+        <v>1.333</v>
       </c>
       <c r="N131">
-        <v>1.125</v>
+        <v>9</v>
       </c>
       <c r="O131">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="P131">
-        <v>12</v>
+        <v>1.25</v>
       </c>
       <c r="Q131">
-        <v>-2.25</v>
+        <v>1.75</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T131">
         <v>3.5</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB131">
         <v>-1</v>
       </c>
       <c r="AC131">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12168,7 +12168,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6937667</v>
+        <v>6921319</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12180,76 +12180,76 @@
         <v>45353.5</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132">
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K132">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="L132">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="M132">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="N132">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="O132">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="P132">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="Q132">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S132">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y132">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
         <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>0.425</v>
+        <v>0.4125</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12257,7 +12257,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6921319</v>
+        <v>6920622</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12269,52 +12269,52 @@
         <v>45353.5</v>
       </c>
       <c r="F133" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J133" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K133">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="L133">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M133">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="N133">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="O133">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P133">
+        <v>1.6</v>
+      </c>
+      <c r="Q133">
+        <v>1</v>
+      </c>
+      <c r="R133">
+        <v>1.775</v>
+      </c>
+      <c r="S133">
+        <v>2.025</v>
+      </c>
+      <c r="T133">
         <v>3</v>
       </c>
-      <c r="Q133">
-        <v>-0.25</v>
-      </c>
-      <c r="R133">
-        <v>2.025</v>
-      </c>
-      <c r="S133">
-        <v>1.825</v>
-      </c>
-      <c r="T133">
-        <v>2.5</v>
-      </c>
       <c r="U133">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V133">
         <v>1.8</v>
@@ -12323,19 +12323,19 @@
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AB133">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -12346,7 +12346,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6920622</v>
+        <v>6937668</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12358,76 +12358,76 @@
         <v>45353.5</v>
       </c>
       <c r="F134" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I134">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K134">
-        <v>4</v>
+        <v>1.166</v>
       </c>
       <c r="L134">
-        <v>3.9</v>
+        <v>7.5</v>
       </c>
       <c r="M134">
-        <v>1.7</v>
+        <v>9.5</v>
       </c>
       <c r="N134">
-        <v>4.333</v>
+        <v>1.125</v>
       </c>
       <c r="O134">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="P134">
-        <v>1.6</v>
+        <v>12</v>
       </c>
       <c r="Q134">
+        <v>-2.25</v>
+      </c>
+      <c r="R134">
+        <v>1.8</v>
+      </c>
+      <c r="S134">
+        <v>2</v>
+      </c>
+      <c r="T134">
+        <v>3.5</v>
+      </c>
+      <c r="U134">
+        <v>1.85</v>
+      </c>
+      <c r="V134">
+        <v>1.95</v>
+      </c>
+      <c r="W134">
+        <v>-1</v>
+      </c>
+      <c r="X134">
+        <v>8</v>
+      </c>
+      <c r="Y134">
+        <v>-1</v>
+      </c>
+      <c r="Z134">
+        <v>-1</v>
+      </c>
+      <c r="AA134">
         <v>1</v>
       </c>
-      <c r="R134">
-        <v>1.775</v>
-      </c>
-      <c r="S134">
-        <v>2.025</v>
-      </c>
-      <c r="T134">
-        <v>3</v>
-      </c>
-      <c r="U134">
-        <v>2</v>
-      </c>
-      <c r="V134">
-        <v>1.8</v>
-      </c>
-      <c r="W134">
-        <v>-1</v>
-      </c>
-      <c r="X134">
-        <v>-1</v>
-      </c>
-      <c r="Y134">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="Z134">
-        <v>-1</v>
-      </c>
-      <c r="AA134">
-        <v>1.025</v>
-      </c>
       <c r="AB134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12524,7 +12524,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6958683</v>
+        <v>6936981</v>
       </c>
       <c r="C136" t="s">
         <v>28</v>
@@ -12536,58 +12536,58 @@
         <v>45360.5</v>
       </c>
       <c r="F136" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G136" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="s">
         <v>39</v>
       </c>
       <c r="K136">
-        <v>2.375</v>
+        <v>1.111</v>
       </c>
       <c r="L136">
-        <v>3.6</v>
+        <v>9</v>
       </c>
       <c r="M136">
-        <v>2.5</v>
+        <v>15</v>
       </c>
       <c r="N136">
-        <v>2.625</v>
+        <v>1.04</v>
       </c>
       <c r="O136">
-        <v>3.4</v>
+        <v>15</v>
       </c>
       <c r="P136">
-        <v>2.3</v>
+        <v>34</v>
       </c>
       <c r="Q136">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
       <c r="R136">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S136">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T136">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="U136">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V136">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W136">
-        <v>1.625</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="X136">
         <v>-1</v>
@@ -12596,16 +12596,16 @@
         <v>-1</v>
       </c>
       <c r="Z136">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA136">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB136">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC136">
-        <v>-0</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="137" spans="1:29">
@@ -12613,7 +12613,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6944520</v>
+        <v>6937669</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12625,76 +12625,76 @@
         <v>45360.5</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G137" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K137">
-        <v>1.909</v>
+        <v>1.727</v>
       </c>
       <c r="L137">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M137">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N137">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="O137">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P137">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q137">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R137">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S137">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T137">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U137">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V137">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W137">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z137">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA137">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB137">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AC137">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="138" spans="1:29">
@@ -12791,7 +12791,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>6937669</v>
+        <v>6958683</v>
       </c>
       <c r="C139" t="s">
         <v>28</v>
@@ -12803,76 +12803,76 @@
         <v>45360.5</v>
       </c>
       <c r="F139" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H139">
+        <v>2</v>
+      </c>
+      <c r="I139">
         <v>1</v>
       </c>
-      <c r="I139">
-        <v>4</v>
-      </c>
       <c r="J139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K139">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L139">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M139">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="N139">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="O139">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P139">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="Q139">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R139">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S139">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="T139">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U139">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V139">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W139">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="X139">
         <v>-1</v>
       </c>
       <c r="Y139">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z139">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA139">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB139">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AC139">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="140" spans="1:29">
@@ -12880,7 +12880,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6936981</v>
+        <v>6944520</v>
       </c>
       <c r="C140" t="s">
         <v>28</v>
@@ -12892,13 +12892,13 @@
         <v>45360.5</v>
       </c>
       <c r="F140" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -12907,43 +12907,43 @@
         <v>39</v>
       </c>
       <c r="K140">
-        <v>1.111</v>
+        <v>1.909</v>
       </c>
       <c r="L140">
-        <v>9</v>
+        <v>3.6</v>
       </c>
       <c r="M140">
-        <v>15</v>
+        <v>3.4</v>
       </c>
       <c r="N140">
-        <v>1.04</v>
+        <v>1.909</v>
       </c>
       <c r="O140">
-        <v>15</v>
+        <v>3.4</v>
       </c>
       <c r="P140">
-        <v>34</v>
+        <v>3.6</v>
       </c>
       <c r="Q140">
-        <v>-3.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R140">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S140">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T140">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="U140">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V140">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W140">
-        <v>0.04000000000000004</v>
+        <v>0.909</v>
       </c>
       <c r="X140">
         <v>-1</v>
@@ -12952,16 +12952,16 @@
         <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA140">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB140">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC140">
-        <v>0.825</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="141" spans="1:29">
@@ -12981,10 +12981,10 @@
         <v>45367.5</v>
       </c>
       <c r="F141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G141" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13073,7 +13073,7 @@
         <v>31</v>
       </c>
       <c r="G142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H142">
         <v>1</v>
@@ -13248,7 +13248,7 @@
         <v>45367.5</v>
       </c>
       <c r="F144" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G144" t="s">
         <v>38</v>
@@ -13426,10 +13426,10 @@
         <v>45370.69791666666</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13515,7 +13515,7 @@
         <v>45374.5</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G147" t="s">
         <v>32</v>
@@ -13604,10 +13604,10 @@
         <v>45374.5</v>
       </c>
       <c r="F148" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H148">
         <v>3</v>
@@ -13785,7 +13785,7 @@
         <v>30</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H150">
         <v>4</v>
@@ -13960,10 +13960,10 @@
         <v>45381.5</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H152">
         <v>1</v>
@@ -14227,10 +14227,10 @@
         <v>45381.5</v>
       </c>
       <c r="F155" t="s">
+        <v>37</v>
+      </c>
+      <c r="G155" t="s">
         <v>34</v>
-      </c>
-      <c r="G155" t="s">
-        <v>35</v>
       </c>
       <c r="H155">
         <v>3</v>
@@ -14408,7 +14408,7 @@
         <v>33</v>
       </c>
       <c r="G157" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14494,7 +14494,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G158" t="s">
         <v>29</v>
@@ -14571,7 +14571,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7060652</v>
+        <v>7060491</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14583,76 +14583,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G159" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K159">
-        <v>13</v>
+        <v>2.2</v>
       </c>
       <c r="L159">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="M159">
-        <v>1.1</v>
+        <v>2.875</v>
       </c>
       <c r="N159">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="O159">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="P159">
-        <v>1.285</v>
+        <v>3.5</v>
       </c>
       <c r="Q159">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R159">
+        <v>2</v>
+      </c>
+      <c r="S159">
         <v>1.85</v>
       </c>
-      <c r="S159">
-        <v>2</v>
-      </c>
       <c r="T159">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U159">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V159">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W159">
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>4.5</v>
+        <v>-1</v>
       </c>
       <c r="Y159">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z159">
+        <v>-1</v>
+      </c>
+      <c r="AA159">
         <v>0.8500000000000001</v>
       </c>
-      <c r="AA159">
-        <v>-1</v>
-      </c>
       <c r="AB159">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AC159">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14660,7 +14660,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7060491</v>
+        <v>7060652</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14672,76 +14672,76 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G160" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K160">
-        <v>2.2</v>
+        <v>13</v>
       </c>
       <c r="L160">
-        <v>3.4</v>
+        <v>9</v>
       </c>
       <c r="M160">
-        <v>2.875</v>
+        <v>1.1</v>
       </c>
       <c r="N160">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O160">
+        <v>5.5</v>
+      </c>
+      <c r="P160">
+        <v>1.285</v>
+      </c>
+      <c r="Q160">
+        <v>1.75</v>
+      </c>
+      <c r="R160">
+        <v>1.85</v>
+      </c>
+      <c r="S160">
+        <v>2</v>
+      </c>
+      <c r="T160">
         <v>3.25</v>
       </c>
-      <c r="P160">
-        <v>3.5</v>
-      </c>
-      <c r="Q160">
-        <v>-0.5</v>
-      </c>
-      <c r="R160">
-        <v>2</v>
-      </c>
-      <c r="S160">
-        <v>1.85</v>
-      </c>
-      <c r="T160">
-        <v>2.75</v>
-      </c>
       <c r="U160">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V160">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W160">
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>-1</v>
+        <v>4.5</v>
       </c>
       <c r="Y160">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA160">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AC160">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:29">

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -103,13 +103,13 @@
     <t>Scotland League One</t>
   </si>
   <si>
+    <t>Montrose</t>
+  </si>
+  <si>
     <t>Queen of South</t>
   </si>
   <si>
     <t>Hamilton</t>
-  </si>
-  <si>
-    <t>Montrose</t>
   </si>
   <si>
     <t>Falkirk</t>
@@ -118,13 +118,13 @@
     <t>Stirling</t>
   </si>
   <si>
-    <t>Annan Athletic</t>
-  </si>
-  <si>
     <t>Alloa</t>
   </si>
   <si>
     <t>Cove Rangers</t>
+  </si>
+  <si>
+    <t>Annan Athletic</t>
   </si>
   <si>
     <t>Kelty Hearts</t>
@@ -501,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC172"/>
+  <dimension ref="A1:AC167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6848340</v>
+        <v>6848339</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -613,52 +613,52 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
         <v>39</v>
       </c>
       <c r="K2">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="L2">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
+        <v>2.5</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>3.5</v>
+      </c>
+      <c r="P2">
         <v>3.1</v>
       </c>
-      <c r="N2">
-        <v>1.833</v>
-      </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
-      <c r="P2">
-        <v>3.4</v>
-      </c>
       <c r="Q2">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S2">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -667,19 +667,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AB2">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -687,7 +687,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6845830</v>
+        <v>6848340</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -702,73 +702,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="L3">
         <v>3.75</v>
       </c>
       <c r="M3">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="N3">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O3">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
         <v>2.75</v>
       </c>
       <c r="U3">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
+        <v>-1</v>
+      </c>
+      <c r="X3">
+        <v>-1</v>
+      </c>
+      <c r="Y3">
+        <v>2.4</v>
+      </c>
+      <c r="Z3">
+        <v>-1</v>
+      </c>
+      <c r="AA3">
+        <v>0.925</v>
+      </c>
+      <c r="AB3">
         <v>0.95</v>
       </c>
-      <c r="X3">
-        <v>-1</v>
-      </c>
-      <c r="Y3">
-        <v>-1</v>
-      </c>
-      <c r="Z3">
-        <v>0.8</v>
-      </c>
-      <c r="AA3">
-        <v>-1</v>
-      </c>
-      <c r="AB3">
-        <v>-1</v>
-      </c>
       <c r="AC3">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -776,7 +776,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6848339</v>
+        <v>6845830</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -791,73 +791,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
       <c r="J4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M4">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="O4">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P4">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q4">
         <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA4">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -880,7 +880,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>3</v>
@@ -1043,7 +1043,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6848343</v>
+        <v>6848342</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1058,52 +1058,52 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>1</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
       </c>
       <c r="J7" t="s">
         <v>39</v>
       </c>
       <c r="K7">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M7">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N7">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="O7">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P7">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="Q7">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S7">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T7">
         <v>2.75</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W7">
         <v>-1</v>
@@ -1112,19 +1112,19 @@
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Z7">
         <v>-1</v>
       </c>
       <c r="AA7">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1132,7 +1132,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6848342</v>
+        <v>6845658</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1147,73 +1147,73 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="L8">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M8">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="N8">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P8">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="Q8">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S8">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T8">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y8">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1221,7 +1221,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6845658</v>
+        <v>6848343</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1236,70 +1236,70 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K9">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="L9">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M9">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="N9">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="O9">
         <v>3.5</v>
       </c>
       <c r="P9">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R9">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S9">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T9">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y9">
-        <v>-1</v>
+        <v>1.4</v>
       </c>
       <c r="Z9">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB9">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC9">
         <v>-1</v>
@@ -1325,7 +1325,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -1488,7 +1488,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6848347</v>
+        <v>6848346</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1500,13 +1500,13 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
         <v>34</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1515,43 +1515,43 @@
         <v>40</v>
       </c>
       <c r="K12">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="L12">
         <v>3.6</v>
       </c>
       <c r="M12">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="N12">
-        <v>1.45</v>
+        <v>2.375</v>
       </c>
       <c r="O12">
-        <v>4.333</v>
+        <v>3.5</v>
       </c>
       <c r="P12">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="Q12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>2.5</v>
+      </c>
+      <c r="U12">
+        <v>1.875</v>
+      </c>
+      <c r="V12">
         <v>1.975</v>
       </c>
-      <c r="T12">
-        <v>3</v>
-      </c>
-      <c r="U12">
-        <v>1.925</v>
-      </c>
-      <c r="V12">
-        <v>1.875</v>
-      </c>
       <c r="W12">
-        <v>0.45</v>
+        <v>1.375</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1560,13 +1560,13 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC12">
         <v>-1</v>
@@ -1577,7 +1577,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6848346</v>
+        <v>6848347</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1589,13 +1589,13 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1604,43 +1604,43 @@
         <v>40</v>
       </c>
       <c r="K13">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="L13">
         <v>3.6</v>
       </c>
       <c r="M13">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N13">
-        <v>2.375</v>
+        <v>1.45</v>
       </c>
       <c r="O13">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="P13">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T13">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U13">
+        <v>1.925</v>
+      </c>
+      <c r="V13">
         <v>1.875</v>
       </c>
-      <c r="V13">
-        <v>1.975</v>
-      </c>
       <c r="W13">
-        <v>1.375</v>
+        <v>0.45</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1649,13 +1649,13 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC13">
         <v>-1</v>
@@ -1681,7 +1681,7 @@
         <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1767,10 +1767,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1945,10 +1945,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -2022,7 +2022,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6848349</v>
+        <v>6845660</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2034,76 +2034,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K18">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L18">
         <v>3.4</v>
       </c>
       <c r="M18">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="N18">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="O18">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P18">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q18">
         <v>-0.25</v>
       </c>
       <c r="R18">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S18">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T18">
         <v>3</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V18">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Z18">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2111,7 +2111,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6845660</v>
+        <v>6848349</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2126,73 +2126,73 @@
         <v>36</v>
       </c>
       <c r="G19" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19">
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L19">
         <v>3.4</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="N19">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="O19">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P19">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q19">
         <v>-0.25</v>
       </c>
       <c r="R19">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S19">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T19">
         <v>3</v>
       </c>
       <c r="U19">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V19">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA19">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2301,7 +2301,7 @@
         <v>45164.5625</v>
       </c>
       <c r="F21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G21" t="s">
         <v>32</v>
@@ -2390,10 +2390,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" t="s">
         <v>29</v>
-      </c>
-      <c r="G22" t="s">
-        <v>31</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -2482,7 +2482,7 @@
         <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2660,7 +2660,7 @@
         <v>33</v>
       </c>
       <c r="G25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -2746,10 +2746,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="F26" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" t="s">
         <v>35</v>
-      </c>
-      <c r="G26" t="s">
-        <v>36</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -2838,7 +2838,7 @@
         <v>32</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2924,7 +2924,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G28" t="s">
         <v>38</v>
@@ -3013,7 +3013,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -3102,7 +3102,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G30" t="s">
         <v>37</v>
@@ -3191,10 +3191,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -3280,7 +3280,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
         <v>33</v>
@@ -3357,7 +3357,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6848357</v>
+        <v>6845823</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3369,76 +3369,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K33">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="L33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M33">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="N33">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P33">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R33">
+        <v>1.975</v>
+      </c>
+      <c r="S33">
         <v>1.875</v>
-      </c>
-      <c r="S33">
-        <v>1.925</v>
       </c>
       <c r="T33">
         <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC33">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3446,7 +3446,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6845823</v>
+        <v>6845663</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3458,52 +3458,52 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34">
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K34">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="L34">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M34">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="N34">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="O34">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P34">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="Q34">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R34">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U34">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V34">
         <v>1.975</v>
@@ -3512,22 +3512,22 @@
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y34">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA34">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB34">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AC34">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3535,7 +3535,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6845663</v>
+        <v>6848357</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3547,76 +3547,76 @@
         <v>45192.45833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>41</v>
       </c>
       <c r="K35">
-        <v>3.3</v>
+        <v>2.25</v>
       </c>
       <c r="L35">
         <v>3.6</v>
       </c>
       <c r="M35">
+        <v>2.7</v>
+      </c>
+      <c r="N35">
+        <v>2.4</v>
+      </c>
+      <c r="O35">
+        <v>3.6</v>
+      </c>
+      <c r="P35">
+        <v>2.5</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>1.875</v>
+      </c>
+      <c r="S35">
+        <v>1.925</v>
+      </c>
+      <c r="T35">
+        <v>2.75</v>
+      </c>
+      <c r="U35">
+        <v>1.85</v>
+      </c>
+      <c r="V35">
         <v>1.95</v>
       </c>
-      <c r="N35">
-        <v>4.2</v>
-      </c>
-      <c r="O35">
-        <v>4</v>
-      </c>
-      <c r="P35">
-        <v>1.615</v>
-      </c>
-      <c r="Q35">
-        <v>0.75</v>
-      </c>
-      <c r="R35">
-        <v>2</v>
-      </c>
-      <c r="S35">
-        <v>1.8</v>
-      </c>
-      <c r="T35">
-        <v>3</v>
-      </c>
-      <c r="U35">
-        <v>1.825</v>
-      </c>
-      <c r="V35">
-        <v>1.975</v>
-      </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB35">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3725,10 +3725,10 @@
         <v>45198.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H37">
         <v>5</v>
@@ -3814,7 +3814,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
         <v>38</v>
@@ -3906,7 +3906,7 @@
         <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H39">
         <v>3</v>
@@ -3995,7 +3995,7 @@
         <v>37</v>
       </c>
       <c r="G40" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>3</v>
@@ -4084,7 +4084,7 @@
         <v>33</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>2</v>
@@ -4170,10 +4170,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" t="s">
         <v>36</v>
-      </c>
-      <c r="G42" t="s">
-        <v>34</v>
       </c>
       <c r="H42">
         <v>3</v>
@@ -4348,10 +4348,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H44">
         <v>2</v>
@@ -4437,7 +4437,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="F45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
         <v>33</v>
@@ -4529,7 +4529,7 @@
         <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -4615,7 +4615,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G47" t="s">
         <v>38</v>
@@ -4692,7 +4692,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6848368</v>
+        <v>6848367</v>
       </c>
       <c r="C48" t="s">
         <v>28</v>
@@ -4704,55 +4704,55 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
         <v>1</v>
-      </c>
-      <c r="I48">
-        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>39</v>
       </c>
       <c r="K48">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L48">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="M48">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="N48">
-        <v>5.75</v>
+        <v>2.75</v>
       </c>
       <c r="O48">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="P48">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="Q48">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R48">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S48">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T48">
         <v>3</v>
       </c>
       <c r="U48">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V48">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W48">
         <v>-1</v>
@@ -4761,19 +4761,19 @@
         <v>-1</v>
       </c>
       <c r="Y48">
-        <v>0.45</v>
+        <v>1.3</v>
       </c>
       <c r="Z48">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA48">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB48">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC48">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:29">
@@ -4781,7 +4781,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6848366</v>
+        <v>6848368</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4793,76 +4793,76 @@
         <v>45220.45833333334</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="J49" t="s">
+        <v>39</v>
+      </c>
+      <c r="K49">
+        <v>4.333</v>
+      </c>
+      <c r="L49">
+        <v>3.8</v>
+      </c>
+      <c r="M49">
+        <v>1.65</v>
+      </c>
+      <c r="N49">
+        <v>5.75</v>
+      </c>
+      <c r="O49">
+        <v>4.2</v>
+      </c>
+      <c r="P49">
+        <v>1.45</v>
+      </c>
+      <c r="Q49">
+        <v>1.25</v>
+      </c>
+      <c r="R49">
+        <v>1.875</v>
+      </c>
+      <c r="S49">
+        <v>1.925</v>
+      </c>
+      <c r="T49">
         <v>3</v>
       </c>
-      <c r="I49">
-        <v>1</v>
-      </c>
-      <c r="J49" t="s">
-        <v>40</v>
-      </c>
-      <c r="K49">
-        <v>2.1</v>
-      </c>
-      <c r="L49">
-        <v>3.4</v>
-      </c>
-      <c r="M49">
-        <v>3</v>
-      </c>
-      <c r="N49">
-        <v>2.6</v>
-      </c>
-      <c r="O49">
-        <v>3.3</v>
-      </c>
-      <c r="P49">
-        <v>2.4</v>
-      </c>
-      <c r="Q49">
+      <c r="U49">
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <v>1.8</v>
+      </c>
+      <c r="W49">
+        <v>-1</v>
+      </c>
+      <c r="X49">
+        <v>-1</v>
+      </c>
+      <c r="Y49">
+        <v>0.45</v>
+      </c>
+      <c r="Z49">
+        <v>0.4375</v>
+      </c>
+      <c r="AA49">
+        <v>-0.5</v>
+      </c>
+      <c r="AB49">
         <v>0</v>
       </c>
-      <c r="R49">
-        <v>1.975</v>
-      </c>
-      <c r="S49">
-        <v>1.825</v>
-      </c>
-      <c r="T49">
-        <v>2.75</v>
-      </c>
-      <c r="U49">
-        <v>1.925</v>
-      </c>
-      <c r="V49">
-        <v>1.875</v>
-      </c>
-      <c r="W49">
-        <v>1.6</v>
-      </c>
-      <c r="X49">
-        <v>-1</v>
-      </c>
-      <c r="Y49">
-        <v>-1</v>
-      </c>
-      <c r="Z49">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AA49">
-        <v>-1</v>
-      </c>
-      <c r="AB49">
-        <v>0.925</v>
-      </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4870,7 +4870,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6848367</v>
+        <v>6848366</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4885,73 +4885,73 @@
         <v>34</v>
       </c>
       <c r="G50" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K50">
         <v>2.1</v>
       </c>
       <c r="L50">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M50">
-        <v>2.875</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="O50">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="P50">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="Q50">
         <v>0</v>
       </c>
       <c r="R50">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S50">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U50">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
         <v>1.875</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA50">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -5063,7 +5063,7 @@
         <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5152,7 +5152,7 @@
         <v>38</v>
       </c>
       <c r="G53" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H53">
         <v>3</v>
@@ -5238,10 +5238,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5327,10 +5327,10 @@
         <v>45227.5625</v>
       </c>
       <c r="F55" t="s">
+        <v>29</v>
+      </c>
+      <c r="G55" t="s">
         <v>31</v>
-      </c>
-      <c r="G55" t="s">
-        <v>30</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5416,7 +5416,7 @@
         <v>45234.5</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
         <v>37</v>
@@ -5505,10 +5505,10 @@
         <v>45234.5</v>
       </c>
       <c r="F57" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5597,7 +5597,7 @@
         <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H58">
         <v>1</v>
@@ -5683,7 +5683,7 @@
         <v>45234.5</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -5775,7 +5775,7 @@
         <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -5861,10 +5861,10 @@
         <v>45241.5</v>
       </c>
       <c r="F61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H61">
         <v>1</v>
@@ -5953,7 +5953,7 @@
         <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -6039,7 +6039,7 @@
         <v>45241.5</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
         <v>33</v>
@@ -6128,10 +6128,10 @@
         <v>45241.5</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6306,10 +6306,10 @@
         <v>45244.69791666666</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6395,7 +6395,7 @@
         <v>45248.5</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
         <v>33</v>
@@ -6487,7 +6487,7 @@
         <v>38</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H68">
         <v>3</v>
@@ -6573,7 +6573,7 @@
         <v>45248.5</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>37</v>
@@ -6650,7 +6650,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7414972</v>
+        <v>7392209</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6662,19 +6662,19 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K70">
         <v>6.5</v>
@@ -6686,52 +6686,52 @@
         <v>1.444</v>
       </c>
       <c r="N70">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P70">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="Q70">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R70">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T70">
         <v>3</v>
       </c>
       <c r="U70">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V70">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W70">
         <v>-1</v>
       </c>
       <c r="X70">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Y70">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AA70">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6739,7 +6739,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7392209</v>
+        <v>7414972</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6751,19 +6751,19 @@
         <v>45258.69791666666</v>
       </c>
       <c r="F71" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" t="s">
         <v>31</v>
       </c>
-      <c r="G71" t="s">
-        <v>32</v>
-      </c>
       <c r="H71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K71">
         <v>6.5</v>
@@ -6775,52 +6775,52 @@
         <v>1.444</v>
       </c>
       <c r="N71">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="O71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P71">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="Q71">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="R71">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S71">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T71">
         <v>3</v>
       </c>
       <c r="U71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V71">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W71">
         <v>-1</v>
       </c>
       <c r="X71">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z71">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC71">
-        <v>1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6840,10 +6840,10 @@
         <v>45262.5</v>
       </c>
       <c r="F72" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" t="s">
         <v>30</v>
-      </c>
-      <c r="G72" t="s">
-        <v>29</v>
       </c>
       <c r="H72">
         <v>5</v>
@@ -6929,10 +6929,10 @@
         <v>45269.5</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -7196,10 +7196,10 @@
         <v>45269.5</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -7285,10 +7285,10 @@
         <v>45269.5</v>
       </c>
       <c r="F77" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7377,7 +7377,7 @@
         <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -7463,7 +7463,7 @@
         <v>45276.5</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
         <v>38</v>
@@ -7552,7 +7552,7 @@
         <v>45276.5</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
         <v>32</v>
@@ -7644,7 +7644,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7730,10 +7730,10 @@
         <v>45276.5</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7819,7 +7819,7 @@
         <v>45283.5</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G83" t="s">
         <v>37</v>
@@ -7908,10 +7908,10 @@
         <v>45283.5</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H84">
         <v>2</v>
@@ -7997,7 +7997,7 @@
         <v>45283.5</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G85" t="s">
         <v>32</v>
@@ -8089,7 +8089,7 @@
         <v>33</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>1</v>
@@ -8175,7 +8175,7 @@
         <v>45283.52083333334</v>
       </c>
       <c r="F87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8264,10 +8264,10 @@
         <v>45290.5</v>
       </c>
       <c r="F88" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H88">
         <v>2</v>
@@ -8442,10 +8442,10 @@
         <v>45290.5</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8534,7 +8534,7 @@
         <v>38</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H91">
         <v>2</v>
@@ -8623,7 +8623,7 @@
         <v>32</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8709,10 +8709,10 @@
         <v>45297.5</v>
       </c>
       <c r="F93" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H93">
         <v>2</v>
@@ -8798,7 +8798,7 @@
         <v>45297.5</v>
       </c>
       <c r="F94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G94" t="s">
         <v>38</v>
@@ -8887,7 +8887,7 @@
         <v>45297.5</v>
       </c>
       <c r="F95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G95" t="s">
         <v>37</v>
@@ -8979,7 +8979,7 @@
         <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H96">
         <v>4</v>
@@ -9065,10 +9065,10 @@
         <v>45304.5</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H97">
         <v>2</v>
@@ -9142,7 +9142,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6848402</v>
+        <v>6848403</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9154,76 +9154,76 @@
         <v>45304.5</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K98">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="L98">
         <v>4</v>
       </c>
       <c r="M98">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="N98">
+        <v>2.7</v>
+      </c>
+      <c r="O98">
+        <v>3.25</v>
+      </c>
+      <c r="P98">
+        <v>2.3</v>
+      </c>
+      <c r="Q98">
+        <v>0.25</v>
+      </c>
+      <c r="R98">
+        <v>1.775</v>
+      </c>
+      <c r="S98">
+        <v>2.025</v>
+      </c>
+      <c r="T98">
+        <v>2.5</v>
+      </c>
+      <c r="U98">
+        <v>1.85</v>
+      </c>
+      <c r="V98">
+        <v>1.95</v>
+      </c>
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
         <v>2.25</v>
       </c>
-      <c r="O98">
-        <v>3.5</v>
-      </c>
-      <c r="P98">
-        <v>2.7</v>
-      </c>
-      <c r="Q98">
-        <v>-0.25</v>
-      </c>
-      <c r="R98">
-        <v>2.025</v>
-      </c>
-      <c r="S98">
-        <v>1.775</v>
-      </c>
-      <c r="T98">
-        <v>2.25</v>
-      </c>
-      <c r="U98">
-        <v>1.775</v>
-      </c>
-      <c r="V98">
-        <v>2.025</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
       <c r="Y98">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AA98">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9231,7 +9231,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6848403</v>
+        <v>6848402</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9246,73 +9246,73 @@
         <v>29</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K99">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L99">
         <v>4</v>
       </c>
       <c r="M99">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="N99">
+        <v>2.25</v>
+      </c>
+      <c r="O99">
+        <v>3.5</v>
+      </c>
+      <c r="P99">
         <v>2.7</v>
       </c>
-      <c r="O99">
-        <v>3.25</v>
-      </c>
-      <c r="P99">
-        <v>2.3</v>
-      </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
+        <v>2.025</v>
+      </c>
+      <c r="S99">
         <v>1.775</v>
       </c>
-      <c r="S99">
+      <c r="T99">
+        <v>2.25</v>
+      </c>
+      <c r="U99">
+        <v>1.775</v>
+      </c>
+      <c r="V99">
         <v>2.025</v>
       </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>1.85</v>
-      </c>
-      <c r="V99">
-        <v>1.95</v>
-      </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Z99">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9335,7 +9335,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -9510,10 +9510,10 @@
         <v>45318.5</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9599,7 +9599,7 @@
         <v>45318.5</v>
       </c>
       <c r="F103" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G103" t="s">
         <v>38</v>
@@ -9688,10 +9688,10 @@
         <v>45318.5</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9866,7 +9866,7 @@
         <v>45318.5</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G106" t="s">
         <v>32</v>
@@ -10032,7 +10032,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6848407</v>
+        <v>6845807</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10044,55 +10044,55 @@
         <v>45325.5</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
         <v>39</v>
       </c>
       <c r="K108">
-        <v>2.625</v>
+        <v>5.5</v>
       </c>
       <c r="L108">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="M108">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="N108">
-        <v>2.7</v>
+        <v>5.25</v>
       </c>
       <c r="O108">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P108">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R108">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T108">
         <v>2.75</v>
       </c>
       <c r="U108">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W108">
         <v>-1</v>
@@ -10101,19 +10101,19 @@
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>1.25</v>
+        <v>0.55</v>
       </c>
       <c r="Z108">
         <v>-1</v>
       </c>
       <c r="AA108">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB108">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10121,7 +10121,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6845807</v>
+        <v>6845677</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10133,49 +10133,49 @@
         <v>45325.5</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109" t="s">
+        <v>41</v>
+      </c>
+      <c r="K109">
+        <v>3.5</v>
+      </c>
+      <c r="L109">
+        <v>4</v>
+      </c>
+      <c r="M109">
+        <v>1.8</v>
+      </c>
+      <c r="N109">
+        <v>2.625</v>
+      </c>
+      <c r="O109">
+        <v>3.6</v>
+      </c>
+      <c r="P109">
+        <v>2.3</v>
+      </c>
+      <c r="Q109">
         <v>0</v>
       </c>
-      <c r="I109">
-        <v>2</v>
-      </c>
-      <c r="J109" t="s">
-        <v>39</v>
-      </c>
-      <c r="K109">
-        <v>5.5</v>
-      </c>
-      <c r="L109">
-        <v>4.1</v>
-      </c>
-      <c r="M109">
-        <v>1.5</v>
-      </c>
-      <c r="N109">
-        <v>5.25</v>
-      </c>
-      <c r="O109">
-        <v>4</v>
-      </c>
-      <c r="P109">
-        <v>1.55</v>
-      </c>
-      <c r="Q109">
-        <v>1</v>
-      </c>
       <c r="R109">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S109">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T109">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U109">
         <v>1.85</v>
@@ -10187,22 +10187,22 @@
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y109">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA109">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC109">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10210,7 +10210,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6845677</v>
+        <v>6848407</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10222,37 +10222,37 @@
         <v>45325.5</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H110">
         <v>2</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K110">
-        <v>3.5</v>
+        <v>2.625</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M110">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="N110">
-        <v>2.625</v>
+        <v>2.7</v>
       </c>
       <c r="O110">
         <v>3.6</v>
       </c>
       <c r="P110">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q110">
         <v>0</v>
@@ -10264,31 +10264,31 @@
         <v>1.775</v>
       </c>
       <c r="T110">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V110">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB110">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10314,7 +10314,7 @@
         <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -10400,10 +10400,10 @@
         <v>45332.5</v>
       </c>
       <c r="F112" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H112">
         <v>2</v>
@@ -10489,7 +10489,7 @@
         <v>45332.5</v>
       </c>
       <c r="F113" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G113" t="s">
         <v>33</v>
@@ -10578,7 +10578,7 @@
         <v>45332.5</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10670,7 +10670,7 @@
         <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -10756,10 +10756,10 @@
         <v>45335.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H116">
         <v>2</v>
@@ -10934,10 +10934,10 @@
         <v>45339.5</v>
       </c>
       <c r="F118" t="s">
+        <v>34</v>
+      </c>
+      <c r="G118" t="s">
         <v>35</v>
-      </c>
-      <c r="G118" t="s">
-        <v>36</v>
       </c>
       <c r="H118">
         <v>4</v>
@@ -11023,7 +11023,7 @@
         <v>45339.5</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
         <v>33</v>
@@ -11115,7 +11115,7 @@
         <v>38</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H120">
         <v>1</v>
@@ -11201,7 +11201,7 @@
         <v>45339.5</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G121" t="s">
         <v>37</v>
@@ -11293,7 +11293,7 @@
         <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -11382,7 +11382,7 @@
         <v>32</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H123">
         <v>3</v>
@@ -11468,10 +11468,10 @@
         <v>45346.5</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G124" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H124">
         <v>1</v>
@@ -11557,10 +11557,10 @@
         <v>45346.5</v>
       </c>
       <c r="F125" t="s">
+        <v>35</v>
+      </c>
+      <c r="G125" t="s">
         <v>36</v>
-      </c>
-      <c r="G125" t="s">
-        <v>34</v>
       </c>
       <c r="H125">
         <v>2</v>
@@ -11824,10 +11824,10 @@
         <v>45346.60416666666</v>
       </c>
       <c r="F128" t="s">
+        <v>30</v>
+      </c>
+      <c r="G128" t="s">
         <v>29</v>
-      </c>
-      <c r="G128" t="s">
-        <v>31</v>
       </c>
       <c r="H128">
         <v>2</v>
@@ -11916,7 +11916,7 @@
         <v>33</v>
       </c>
       <c r="G129" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -11990,7 +11990,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6920595</v>
+        <v>6921319</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12002,37 +12002,37 @@
         <v>45353.5</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H130">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K130">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L130">
         <v>3.5</v>
       </c>
       <c r="M130">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="N130">
         <v>2.25</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P130">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="Q130">
         <v>-0.25</v>
@@ -12047,28 +12047,28 @@
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V130">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W130">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AB130">
-        <v>0.825</v>
+        <v>1.05</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12079,7 +12079,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6920622</v>
+        <v>6920595</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12091,73 +12091,73 @@
         <v>45353.5</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I131">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J131" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K131">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="L131">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="M131">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="N131">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="O131">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="Q131">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="S131">
+        <v>1.825</v>
+      </c>
+      <c r="T131">
+        <v>2.5</v>
+      </c>
+      <c r="U131">
+        <v>1.825</v>
+      </c>
+      <c r="V131">
         <v>2.025</v>
       </c>
-      <c r="T131">
-        <v>3</v>
-      </c>
-      <c r="U131">
-        <v>2</v>
-      </c>
-      <c r="V131">
-        <v>1.8</v>
-      </c>
       <c r="W131">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA131">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12168,7 +12168,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6921319</v>
+        <v>6920622</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12180,52 +12180,52 @@
         <v>45353.5</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J132" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K132">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="M132">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="N132">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="O132">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="P132">
+        <v>1.6</v>
+      </c>
+      <c r="Q132">
+        <v>1</v>
+      </c>
+      <c r="R132">
+        <v>1.775</v>
+      </c>
+      <c r="S132">
+        <v>2.025</v>
+      </c>
+      <c r="T132">
         <v>3</v>
       </c>
-      <c r="Q132">
-        <v>-0.25</v>
-      </c>
-      <c r="R132">
-        <v>2.025</v>
-      </c>
-      <c r="S132">
-        <v>1.825</v>
-      </c>
-      <c r="T132">
-        <v>2.5</v>
-      </c>
       <c r="U132">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V132">
         <v>1.8</v>
@@ -12234,19 +12234,19 @@
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AB132">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12272,7 +12272,7 @@
         <v>38</v>
       </c>
       <c r="G133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -12361,7 +12361,7 @@
         <v>32</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12447,7 +12447,7 @@
         <v>45356.69791666666</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G135" t="s">
         <v>32</v>
@@ -12536,7 +12536,7 @@
         <v>45360.5</v>
       </c>
       <c r="F136" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G136" t="s">
         <v>38</v>
@@ -12613,7 +12613,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6937670</v>
+        <v>6944520</v>
       </c>
       <c r="C137" t="s">
         <v>28</v>
@@ -12625,67 +12625,67 @@
         <v>45360.5</v>
       </c>
       <c r="F137" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G137" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K137">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="L137">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="M137">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="N137">
-        <v>7.5</v>
+        <v>1.909</v>
       </c>
       <c r="O137">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P137">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="Q137">
-        <v>1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R137">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S137">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T137">
         <v>3</v>
       </c>
       <c r="U137">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V137">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W137">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X137">
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Z137">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA137">
         <v>-1</v>
@@ -12702,7 +12702,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6944520</v>
+        <v>6937670</v>
       </c>
       <c r="C138" t="s">
         <v>28</v>
@@ -12714,67 +12714,67 @@
         <v>45360.5</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G138" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K138">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="L138">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M138">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="N138">
-        <v>1.909</v>
+        <v>7.5</v>
       </c>
       <c r="O138">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P138">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="Q138">
-        <v>-0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R138">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S138">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T138">
         <v>3</v>
       </c>
       <c r="U138">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V138">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W138">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X138">
         <v>-1</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Z138">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA138">
         <v>-1</v>
@@ -12803,10 +12803,10 @@
         <v>45360.5</v>
       </c>
       <c r="F139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12892,10 +12892,10 @@
         <v>45360.5</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G140" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H140">
         <v>2</v>
@@ -12984,7 +12984,7 @@
         <v>37</v>
       </c>
       <c r="G141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -13070,7 +13070,7 @@
         <v>45367.5</v>
       </c>
       <c r="F142" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
         <v>33</v>
@@ -13159,10 +13159,10 @@
         <v>45367.5</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G143" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13251,7 +13251,7 @@
         <v>38</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H144">
         <v>2</v>
@@ -13337,7 +13337,7 @@
         <v>45367.60416666666</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G145" t="s">
         <v>32</v>
@@ -13429,7 +13429,7 @@
         <v>37</v>
       </c>
       <c r="G146" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H146">
         <v>2</v>
@@ -13503,7 +13503,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6994678</v>
+        <v>6994939</v>
       </c>
       <c r="C147" t="s">
         <v>28</v>
@@ -13515,76 +13515,76 @@
         <v>45374.5</v>
       </c>
       <c r="F147" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G147" t="s">
         <v>29</v>
       </c>
       <c r="H147">
+        <v>1</v>
+      </c>
+      <c r="I147">
         <v>0</v>
       </c>
-      <c r="I147">
-        <v>2</v>
-      </c>
       <c r="J147" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K147">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="L147">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M147">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="N147">
-        <v>1.833</v>
+        <v>2.45</v>
       </c>
       <c r="O147">
         <v>3.4</v>
       </c>
       <c r="P147">
-        <v>3.75</v>
+        <v>2.45</v>
       </c>
       <c r="Q147">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R147">
+        <v>1.875</v>
+      </c>
+      <c r="S147">
         <v>1.925</v>
       </c>
-      <c r="S147">
-        <v>1.875</v>
-      </c>
       <c r="T147">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U147">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V147">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W147">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X147">
         <v>-1</v>
       </c>
       <c r="Y147">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA147">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB147">
         <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:29">
@@ -13592,7 +13592,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6994939</v>
+        <v>6994937</v>
       </c>
       <c r="C148" t="s">
         <v>28</v>
@@ -13604,7 +13604,7 @@
         <v>45374.5</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G148" t="s">
         <v>31</v>
@@ -13613,31 +13613,31 @@
         <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J148" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K148">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="L148">
         <v>3.5</v>
       </c>
       <c r="M148">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="N148">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="O148">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P148">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="Q148">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="R148">
         <v>1.875</v>
@@ -13646,34 +13646,34 @@
         <v>1.925</v>
       </c>
       <c r="T148">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U148">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V148">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W148">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X148">
         <v>-1</v>
       </c>
       <c r="Y148">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Z148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:29">
@@ -13681,7 +13681,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6994937</v>
+        <v>6994938</v>
       </c>
       <c r="C149" t="s">
         <v>28</v>
@@ -13693,73 +13693,73 @@
         <v>45374.5</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G149" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H149">
+        <v>4</v>
+      </c>
+      <c r="I149">
         <v>1</v>
       </c>
-      <c r="I149">
-        <v>3</v>
-      </c>
       <c r="J149" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K149">
-        <v>3.3</v>
+        <v>1.04</v>
       </c>
       <c r="L149">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="M149">
-        <v>1.909</v>
+        <v>26</v>
       </c>
       <c r="N149">
-        <v>4.2</v>
+        <v>1.025</v>
       </c>
       <c r="O149">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="P149">
-        <v>1.666</v>
+        <v>34</v>
       </c>
       <c r="Q149">
-        <v>0.75</v>
+        <v>-3.75</v>
       </c>
       <c r="R149">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="S149">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T149">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="U149">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V149">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W149">
-        <v>-1</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="X149">
         <v>-1</v>
       </c>
       <c r="Y149">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z149">
         <v>-1</v>
       </c>
       <c r="AA149">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB149">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC149">
         <v>-1</v>
@@ -13770,7 +13770,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6994938</v>
+        <v>6994936</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13782,49 +13782,49 @@
         <v>45374.5</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G150" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
         <v>40</v>
       </c>
       <c r="K150">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="L150">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="M150">
-        <v>26</v>
+        <v>2.6</v>
       </c>
       <c r="N150">
-        <v>1.025</v>
+        <v>1.95</v>
       </c>
       <c r="O150">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="P150">
-        <v>34</v>
+        <v>3.1</v>
       </c>
       <c r="Q150">
-        <v>-3.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R150">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S150">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T150">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="U150">
         <v>1.9</v>
@@ -13833,7 +13833,7 @@
         <v>1.9</v>
       </c>
       <c r="W150">
-        <v>0.02499999999999991</v>
+        <v>0.95</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13842,10 +13842,10 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA150">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
         <v>0.8999999999999999</v>
@@ -13859,7 +13859,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6994936</v>
+        <v>6994678</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13874,73 +13874,73 @@
         <v>34</v>
       </c>
       <c r="G151" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K151">
-        <v>2.3</v>
+        <v>1.909</v>
       </c>
       <c r="L151">
         <v>3.4</v>
       </c>
       <c r="M151">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N151">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="O151">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P151">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q151">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R151">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="S151">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="T151">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U151">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V151">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W151">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X151">
         <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z151">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB151">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC151">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -13960,10 +13960,10 @@
         <v>45381.5</v>
       </c>
       <c r="F152" t="s">
+        <v>31</v>
+      </c>
+      <c r="G152" t="s">
         <v>30</v>
-      </c>
-      <c r="G152" t="s">
-        <v>29</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -14138,10 +14138,10 @@
         <v>45381.5</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G154" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14227,7 +14227,7 @@
         <v>45381.5</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G155" t="s">
         <v>33</v>
@@ -14316,7 +14316,7 @@
         <v>45381.60416666666</v>
       </c>
       <c r="F156" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G156" t="s">
         <v>32</v>
@@ -14408,7 +14408,7 @@
         <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -14494,10 +14494,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G158" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14583,7 +14583,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="F159" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G159" t="s">
         <v>37</v>
@@ -14675,7 +14675,7 @@
         <v>33</v>
       </c>
       <c r="G160" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H160">
         <v>1</v>
@@ -14764,7 +14764,7 @@
         <v>32</v>
       </c>
       <c r="G161" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H161">
         <v>5</v>
@@ -14850,7 +14850,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G162" t="s">
         <v>38</v>
@@ -14939,10 +14939,10 @@
         <v>45395.45833333334</v>
       </c>
       <c r="F163" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H163">
         <v>4</v>
@@ -15117,10 +15117,10 @@
         <v>45395.45833333334</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15206,7 +15206,7 @@
         <v>45395.5625</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G166" t="s">
         <v>32</v>
@@ -15298,7 +15298,7 @@
         <v>38</v>
       </c>
       <c r="G167" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H167">
         <v>1</v>
@@ -15365,376 +15365,6 @@
       </c>
       <c r="AC167">
         <v>0.8999999999999999</v>
-      </c>
-    </row>
-    <row r="168" spans="1:29">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>7157543</v>
-      </c>
-      <c r="C168" t="s">
-        <v>28</v>
-      </c>
-      <c r="D168" t="s">
-        <v>28</v>
-      </c>
-      <c r="E168" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F168" t="s">
-        <v>31</v>
-      </c>
-      <c r="G168" t="s">
-        <v>30</v>
-      </c>
-      <c r="K168">
-        <v>4.333</v>
-      </c>
-      <c r="L168">
-        <v>4</v>
-      </c>
-      <c r="M168">
-        <v>1.571</v>
-      </c>
-      <c r="N168">
-        <v>3.3</v>
-      </c>
-      <c r="O168">
-        <v>4</v>
-      </c>
-      <c r="P168">
-        <v>1.8</v>
-      </c>
-      <c r="Q168">
-        <v>0.5</v>
-      </c>
-      <c r="R168">
-        <v>1.975</v>
-      </c>
-      <c r="S168">
-        <v>1.875</v>
-      </c>
-      <c r="T168">
-        <v>3</v>
-      </c>
-      <c r="U168">
-        <v>2.025</v>
-      </c>
-      <c r="V168">
-        <v>1.825</v>
-      </c>
-      <c r="W168">
-        <v>0</v>
-      </c>
-      <c r="X168">
-        <v>0</v>
-      </c>
-      <c r="Y168">
-        <v>0</v>
-      </c>
-      <c r="Z168">
-        <v>0</v>
-      </c>
-      <c r="AA168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:29">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>7157542</v>
-      </c>
-      <c r="C169" t="s">
-        <v>28</v>
-      </c>
-      <c r="D169" t="s">
-        <v>28</v>
-      </c>
-      <c r="E169" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F169" t="s">
-        <v>32</v>
-      </c>
-      <c r="G169" t="s">
-        <v>37</v>
-      </c>
-      <c r="K169">
-        <v>1.2</v>
-      </c>
-      <c r="L169">
-        <v>6.5</v>
-      </c>
-      <c r="M169">
-        <v>8</v>
-      </c>
-      <c r="N169">
-        <v>1.166</v>
-      </c>
-      <c r="O169">
-        <v>6.5</v>
-      </c>
-      <c r="P169">
-        <v>11</v>
-      </c>
-      <c r="Q169">
-        <v>-2.25</v>
-      </c>
-      <c r="R169">
-        <v>2.025</v>
-      </c>
-      <c r="S169">
-        <v>1.825</v>
-      </c>
-      <c r="T169">
-        <v>3.5</v>
-      </c>
-      <c r="U169">
-        <v>1.85</v>
-      </c>
-      <c r="V169">
-        <v>2</v>
-      </c>
-      <c r="W169">
-        <v>0</v>
-      </c>
-      <c r="X169">
-        <v>0</v>
-      </c>
-      <c r="Y169">
-        <v>0</v>
-      </c>
-      <c r="Z169">
-        <v>0</v>
-      </c>
-      <c r="AA169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:29">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>7157541</v>
-      </c>
-      <c r="C170" t="s">
-        <v>28</v>
-      </c>
-      <c r="D170" t="s">
-        <v>28</v>
-      </c>
-      <c r="E170" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F170" t="s">
-        <v>38</v>
-      </c>
-      <c r="G170" t="s">
-        <v>34</v>
-      </c>
-      <c r="K170">
-        <v>5.5</v>
-      </c>
-      <c r="L170">
-        <v>5.5</v>
-      </c>
-      <c r="M170">
-        <v>1.333</v>
-      </c>
-      <c r="N170">
-        <v>5</v>
-      </c>
-      <c r="O170">
-        <v>5.75</v>
-      </c>
-      <c r="P170">
-        <v>1.363</v>
-      </c>
-      <c r="Q170">
-        <v>1.5</v>
-      </c>
-      <c r="R170">
-        <v>1.85</v>
-      </c>
-      <c r="S170">
-        <v>2</v>
-      </c>
-      <c r="T170">
-        <v>3.5</v>
-      </c>
-      <c r="U170">
-        <v>2</v>
-      </c>
-      <c r="V170">
-        <v>1.85</v>
-      </c>
-      <c r="W170">
-        <v>0</v>
-      </c>
-      <c r="X170">
-        <v>0</v>
-      </c>
-      <c r="Y170">
-        <v>0</v>
-      </c>
-      <c r="Z170">
-        <v>0</v>
-      </c>
-      <c r="AA170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:29">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171">
-        <v>7128384</v>
-      </c>
-      <c r="C171" t="s">
-        <v>28</v>
-      </c>
-      <c r="D171" t="s">
-        <v>28</v>
-      </c>
-      <c r="E171" s="2">
-        <v>45402.45833333334</v>
-      </c>
-      <c r="F171" t="s">
-        <v>33</v>
-      </c>
-      <c r="G171" t="s">
-        <v>29</v>
-      </c>
-      <c r="K171">
-        <v>2.25</v>
-      </c>
-      <c r="L171">
-        <v>3.75</v>
-      </c>
-      <c r="M171">
-        <v>2.5</v>
-      </c>
-      <c r="N171">
-        <v>2.4</v>
-      </c>
-      <c r="O171">
-        <v>3.75</v>
-      </c>
-      <c r="P171">
-        <v>2.3</v>
-      </c>
-      <c r="Q171">
-        <v>0</v>
-      </c>
-      <c r="R171">
-        <v>1.95</v>
-      </c>
-      <c r="S171">
-        <v>1.9</v>
-      </c>
-      <c r="T171">
-        <v>2.75</v>
-      </c>
-      <c r="U171">
-        <v>1.975</v>
-      </c>
-      <c r="V171">
-        <v>1.875</v>
-      </c>
-      <c r="W171">
-        <v>0</v>
-      </c>
-      <c r="X171">
-        <v>0</v>
-      </c>
-      <c r="Y171">
-        <v>0</v>
-      </c>
-      <c r="Z171">
-        <v>0</v>
-      </c>
-      <c r="AA171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:29">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172">
-        <v>7158345</v>
-      </c>
-      <c r="C172" t="s">
-        <v>28</v>
-      </c>
-      <c r="D172" t="s">
-        <v>28</v>
-      </c>
-      <c r="E172" s="2">
-        <v>45402.5625</v>
-      </c>
-      <c r="F172" t="s">
-        <v>36</v>
-      </c>
-      <c r="G172" t="s">
-        <v>35</v>
-      </c>
-      <c r="K172">
-        <v>2.4</v>
-      </c>
-      <c r="L172">
-        <v>3.6</v>
-      </c>
-      <c r="M172">
-        <v>2.4</v>
-      </c>
-      <c r="N172">
-        <v>2.55</v>
-      </c>
-      <c r="O172">
-        <v>3.75</v>
-      </c>
-      <c r="P172">
-        <v>2.25</v>
-      </c>
-      <c r="Q172">
-        <v>0</v>
-      </c>
-      <c r="R172">
-        <v>2.05</v>
-      </c>
-      <c r="S172">
-        <v>1.8</v>
-      </c>
-      <c r="T172">
-        <v>3.25</v>
-      </c>
-      <c r="U172">
-        <v>2</v>
-      </c>
-      <c r="V172">
-        <v>1.85</v>
-      </c>
-      <c r="W172">
-        <v>0</v>
-      </c>
-      <c r="X172">
-        <v>0</v>
-      </c>
-      <c r="Y172">
-        <v>0</v>
-      </c>
-      <c r="Z172">
-        <v>0</v>
-      </c>
-      <c r="AA172">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="41">
   <si>
     <t>id</t>
   </si>
@@ -97,21 +97,6 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7158346</t>
-  </si>
-  <si>
-    <t>7171741</t>
-  </si>
-  <si>
-    <t>7190971</t>
-  </si>
-  <si>
-    <t>7190972</t>
-  </si>
-  <si>
-    <t>7191185</t>
-  </si>
-  <si>
     <t>Scotland League One</t>
   </si>
   <si>
@@ -121,22 +106,22 @@
     <t>Falkirk</t>
   </si>
   <si>
-    <t>Queen of South</t>
+    <t>Montrose</t>
   </si>
   <si>
     <t>Stirling</t>
   </si>
   <si>
-    <t>Montrose</t>
-  </si>
-  <si>
-    <t>Annan Athletic</t>
+    <t>Queen of South</t>
   </si>
   <si>
     <t>Cove Rangers</t>
   </si>
   <si>
     <t>Kelty Hearts</t>
+  </si>
+  <si>
+    <t>Annan Athletic</t>
   </si>
   <si>
     <t>FC Edinburgh</t>
@@ -513,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB177"/>
+  <dimension ref="A1:AB172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,16 +595,16 @@
         <v>6845830</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D2" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
         <v>33</v>
-      </c>
-      <c r="F2" t="s">
-        <v>39</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -628,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -696,16 +681,16 @@
         <v>6848338</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G3">
         <v>3</v>
@@ -714,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J3">
         <v>1.444</v>
@@ -779,64 +764,64 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6848340</v>
+        <v>6848339</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J4">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="K4">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="L4">
+        <v>2.5</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>3.5</v>
+      </c>
+      <c r="O4">
         <v>3.1</v>
       </c>
-      <c r="M4">
-        <v>1.833</v>
-      </c>
-      <c r="N4">
-        <v>4</v>
-      </c>
-      <c r="O4">
-        <v>3.4</v>
-      </c>
       <c r="P4">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q4">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T4">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V4">
         <v>-1</v>
@@ -845,19 +830,19 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -868,16 +853,16 @@
         <v>6848341</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
         <v>36</v>
-      </c>
-      <c r="F5" t="s">
-        <v>41</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -886,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J5">
         <v>2.4</v>
@@ -951,85 +936,85 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6848339</v>
+        <v>6848340</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
         <v>37</v>
       </c>
-      <c r="F6" t="s">
-        <v>40</v>
-      </c>
       <c r="G6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J6">
+        <v>1.909</v>
+      </c>
+      <c r="K6">
+        <v>3.75</v>
+      </c>
+      <c r="L6">
+        <v>3.1</v>
+      </c>
+      <c r="M6">
+        <v>1.833</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>3.4</v>
+      </c>
+      <c r="P6">
+        <v>-0.5</v>
+      </c>
+      <c r="Q6">
+        <v>1.875</v>
+      </c>
+      <c r="R6">
+        <v>1.925</v>
+      </c>
+      <c r="S6">
+        <v>2.75</v>
+      </c>
+      <c r="T6">
+        <v>1.95</v>
+      </c>
+      <c r="U6">
+        <v>1.85</v>
+      </c>
+      <c r="V6">
+        <v>-1</v>
+      </c>
+      <c r="W6">
+        <v>-1</v>
+      </c>
+      <c r="X6">
         <v>2.4</v>
       </c>
-      <c r="K6">
-        <v>3.4</v>
-      </c>
-      <c r="L6">
-        <v>2.5</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>3.5</v>
-      </c>
-      <c r="O6">
-        <v>3.1</v>
-      </c>
-      <c r="P6">
-        <v>-0.25</v>
-      </c>
-      <c r="Q6">
-        <v>1.775</v>
-      </c>
-      <c r="R6">
-        <v>2.025</v>
-      </c>
-      <c r="S6">
-        <v>2.5</v>
-      </c>
-      <c r="T6">
-        <v>1.825</v>
-      </c>
-      <c r="U6">
-        <v>1.975</v>
-      </c>
-      <c r="V6">
-        <v>-1</v>
-      </c>
-      <c r="W6">
-        <v>-1</v>
-      </c>
-      <c r="X6">
-        <v>2.1</v>
-      </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB6">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1037,82 +1022,82 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6848343</v>
+        <v>6845658</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D7" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J7">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="K7">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L7">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="M7">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N7">
         <v>3.5</v>
       </c>
       <c r="O7">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="P7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q7">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R7">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S7">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T7">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V7">
         <v>-1</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X7">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y7">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA7">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB7">
         <v>-1</v>
@@ -1123,85 +1108,85 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6845658</v>
+        <v>6845829</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
         <v>39</v>
       </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>45</v>
-      </c>
       <c r="J8">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="K8">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L8">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="M8">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="N8">
         <v>3.5</v>
       </c>
       <c r="O8">
-        <v>1.909</v>
+        <v>2.2</v>
       </c>
       <c r="P8">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q8">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R8">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S8">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T8">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U8">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
         <v>-1</v>
       </c>
       <c r="W8">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X8">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA8">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1209,64 +1194,64 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6845829</v>
+        <v>6848343</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J9">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="K9">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L9">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="M9">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N9">
         <v>3.5</v>
       </c>
       <c r="O9">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="P9">
         <v>0.25</v>
       </c>
       <c r="Q9">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R9">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S9">
         <v>2.75</v>
       </c>
       <c r="T9">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V9">
         <v>-1</v>
@@ -1275,19 +1260,19 @@
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1298,16 +1283,16 @@
         <v>6848344</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1316,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J10">
         <v>2.8</v>
@@ -1384,16 +1369,16 @@
         <v>6848342</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1402,7 +1387,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1467,67 +1452,67 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6848346</v>
+        <v>6848347</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J12">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="K12">
         <v>3.6</v>
       </c>
       <c r="L12">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="M12">
-        <v>2.375</v>
+        <v>1.45</v>
       </c>
       <c r="N12">
-        <v>3.5</v>
+        <v>4.333</v>
       </c>
       <c r="O12">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q12">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S12">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T12">
+        <v>1.925</v>
+      </c>
+      <c r="U12">
         <v>1.875</v>
       </c>
-      <c r="U12">
-        <v>1.975</v>
-      </c>
       <c r="V12">
-        <v>1.375</v>
+        <v>0.45</v>
       </c>
       <c r="W12">
         <v>-1</v>
@@ -1536,13 +1521,13 @@
         <v>-1</v>
       </c>
       <c r="Y12">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="Z12">
         <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AB12">
         <v>-1</v>
@@ -1553,85 +1538,85 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6845827</v>
+        <v>6848346</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="K13">
         <v>3.6</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="M13">
-        <v>4.75</v>
+        <v>2.375</v>
       </c>
       <c r="N13">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O13">
-        <v>1.571</v>
+        <v>2.6</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
+        <v>2.5</v>
+      </c>
+      <c r="T13">
+        <v>1.875</v>
+      </c>
+      <c r="U13">
         <v>1.975</v>
       </c>
-      <c r="S13">
-        <v>3</v>
-      </c>
-      <c r="T13">
-        <v>1.975</v>
-      </c>
-      <c r="U13">
-        <v>1.825</v>
-      </c>
       <c r="V13">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:28">
@@ -1639,19 +1624,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6845659</v>
+        <v>6845827</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1660,37 +1645,37 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J14">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="K14">
         <v>3.6</v>
       </c>
       <c r="L14">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="N14">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O14">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R14">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S14">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T14">
         <v>1.975</v>
@@ -1705,19 +1690,19 @@
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>1.45</v>
+        <v>0.571</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA14">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -1725,85 +1710,85 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6848347</v>
+        <v>6845659</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>3</v>
       </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J15">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="K15">
         <v>3.6</v>
       </c>
       <c r="L15">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="M15">
+        <v>2.55</v>
+      </c>
+      <c r="N15">
+        <v>3.5</v>
+      </c>
+      <c r="O15">
+        <v>2.45</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1.875</v>
+      </c>
+      <c r="R15">
+        <v>1.925</v>
+      </c>
+      <c r="S15">
+        <v>2.75</v>
+      </c>
+      <c r="T15">
+        <v>1.975</v>
+      </c>
+      <c r="U15">
+        <v>1.825</v>
+      </c>
+      <c r="V15">
+        <v>-1</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
         <v>1.45</v>
       </c>
-      <c r="N15">
-        <v>4.333</v>
-      </c>
-      <c r="O15">
-        <v>5</v>
-      </c>
-      <c r="P15">
-        <v>-1</v>
-      </c>
-      <c r="Q15">
-        <v>1.825</v>
-      </c>
-      <c r="R15">
-        <v>1.975</v>
-      </c>
-      <c r="S15">
-        <v>3</v>
-      </c>
-      <c r="T15">
-        <v>1.925</v>
-      </c>
-      <c r="U15">
-        <v>1.875</v>
-      </c>
-      <c r="V15">
-        <v>0.45</v>
-      </c>
-      <c r="W15">
-        <v>-1</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
       <c r="Y15">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA15">
-        <v>0.925</v>
+        <v>0.4875</v>
       </c>
       <c r="AB15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -1814,16 +1799,16 @@
         <v>7054311</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2">
         <v>45160.65625</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1832,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J16">
         <v>1.615</v>
@@ -1900,16 +1885,16 @@
         <v>6848350</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1918,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J17">
         <v>1.75</v>
@@ -1986,16 +1971,16 @@
         <v>6845660</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2004,7 +1989,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J18">
         <v>2.05</v>
@@ -2072,16 +2057,16 @@
         <v>6845826</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D19" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2090,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J19">
         <v>1.571</v>
@@ -2158,16 +2143,16 @@
         <v>6848349</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D20" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2176,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J20">
         <v>2.1</v>
@@ -2244,16 +2229,16 @@
         <v>6848348</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
         <v>45164.5625</v>
       </c>
       <c r="E21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2262,7 +2247,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J21">
         <v>2.8</v>
@@ -2330,16 +2315,16 @@
         <v>6848352</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D22" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2348,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J22">
         <v>1.6</v>
@@ -2416,16 +2401,16 @@
         <v>6848351</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D23" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2434,7 +2419,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J23">
         <v>4</v>
@@ -2502,16 +2487,16 @@
         <v>6845825</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D24" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2520,7 +2505,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -2588,16 +2573,16 @@
         <v>6845661</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D25" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -2606,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J25">
         <v>2.4</v>
@@ -2674,16 +2659,16 @@
         <v>6848353</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D26" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2692,7 +2677,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J26">
         <v>1.8</v>
@@ -2760,16 +2745,16 @@
         <v>6848356</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D27" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G27">
         <v>5</v>
@@ -2778,7 +2763,7 @@
         <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J27">
         <v>1.909</v>
@@ -2846,25 +2831,25 @@
         <v>6845662</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D28" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+      <c r="H28">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
         <v>40</v>
-      </c>
-      <c r="G28">
-        <v>2</v>
-      </c>
-      <c r="H28">
-        <v>2</v>
-      </c>
-      <c r="I28" t="s">
-        <v>45</v>
       </c>
       <c r="J28">
         <v>2.1</v>
@@ -2932,16 +2917,16 @@
         <v>6845824</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -2950,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J29">
         <v>1.5</v>
@@ -3018,16 +3003,16 @@
         <v>6848354</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3036,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J30">
         <v>2.5</v>
@@ -3104,16 +3089,16 @@
         <v>6848355</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D31" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -3122,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J31">
         <v>1.65</v>
@@ -3190,16 +3175,16 @@
         <v>6848359</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D32" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3208,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J32">
         <v>2.2</v>
@@ -3276,16 +3261,16 @@
         <v>6848357</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3294,7 +3279,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>2.25</v>
@@ -3362,16 +3347,16 @@
         <v>6845823</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D34" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3380,7 +3365,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J34">
         <v>2.7</v>
@@ -3448,16 +3433,16 @@
         <v>6845663</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D35" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -3466,7 +3451,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J35">
         <v>3.3</v>
@@ -3534,16 +3519,16 @@
         <v>6848358</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D36" s="2">
         <v>45192.5625</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3552,7 +3537,7 @@
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J36">
         <v>3.6</v>
@@ -3620,16 +3605,16 @@
         <v>6845822</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D37" s="2">
         <v>45198.65625</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -3638,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J37">
         <v>1.444</v>
@@ -3706,16 +3691,16 @@
         <v>6848360</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D38" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3724,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J38">
         <v>1.727</v>
@@ -3792,16 +3777,16 @@
         <v>6848361</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D39" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F39" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -3810,7 +3795,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J39">
         <v>1.5</v>
@@ -3878,16 +3863,16 @@
         <v>6848362</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D40" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -3896,7 +3881,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J40">
         <v>2.25</v>
@@ -3964,16 +3949,16 @@
         <v>6845664</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D41" s="2">
         <v>45199.5625</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3982,7 +3967,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J41">
         <v>2.1</v>
@@ -4050,16 +4035,16 @@
         <v>6848363</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D42" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -4068,7 +4053,7 @@
         <v>4</v>
       </c>
       <c r="I42" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J42">
         <v>2.9</v>
@@ -4136,16 +4121,16 @@
         <v>6845665</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D43" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>3</v>
@@ -4154,7 +4139,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J43">
         <v>1.75</v>
@@ -4222,16 +4207,16 @@
         <v>6848365</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4240,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J44">
         <v>2.15</v>
@@ -4308,16 +4293,16 @@
         <v>6848364</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F45" t="s">
         <v>37</v>
-      </c>
-      <c r="F45" t="s">
-        <v>42</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4326,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J45">
         <v>1.85</v>
@@ -4394,16 +4379,16 @@
         <v>6845821</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2">
         <v>45206.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F46" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4412,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J46">
         <v>2.2</v>
@@ -4480,16 +4465,16 @@
         <v>6848368</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D47" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4498,7 +4483,7 @@
         <v>2</v>
       </c>
       <c r="I47" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J47">
         <v>4.333</v>
@@ -4566,16 +4551,16 @@
         <v>6848367</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D48" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -4584,7 +4569,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J48">
         <v>2.1</v>
@@ -4652,16 +4637,16 @@
         <v>6848366</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D49" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4670,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J49">
         <v>2.1</v>
@@ -4738,16 +4723,16 @@
         <v>6845820</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D50" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F50" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4756,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J50">
         <v>1.181</v>
@@ -4824,16 +4809,16 @@
         <v>6848371</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G51">
         <v>1</v>
@@ -4842,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J51">
         <v>2.25</v>
@@ -4910,16 +4895,16 @@
         <v>6848370</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D52" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4928,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J52">
         <v>1.2</v>
@@ -4996,16 +4981,16 @@
         <v>6845667</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D53" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F53" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -5014,7 +4999,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J53">
         <v>2.625</v>
@@ -5082,16 +5067,16 @@
         <v>6848369</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D54" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -5100,7 +5085,7 @@
         <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J54">
         <v>3.2</v>
@@ -5168,16 +5153,16 @@
         <v>6845819</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D55" s="2">
         <v>45227.5625</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5186,7 +5171,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J55">
         <v>4.5</v>
@@ -5254,16 +5239,16 @@
         <v>6845818</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D56" s="2">
         <v>45234.5</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5272,7 +5257,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J56">
         <v>2.7</v>
@@ -5340,25 +5325,25 @@
         <v>6848372</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D57" s="2">
         <v>45234.5</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F57" t="s">
+        <v>34</v>
+      </c>
+      <c r="G57">
+        <v>2</v>
+      </c>
+      <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57" t="s">
         <v>40</v>
-      </c>
-      <c r="G57">
-        <v>2</v>
-      </c>
-      <c r="H57">
-        <v>2</v>
-      </c>
-      <c r="I57" t="s">
-        <v>45</v>
       </c>
       <c r="J57">
         <v>2.45</v>
@@ -5423,52 +5408,52 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6848374</v>
+        <v>6848373</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D58" s="2">
         <v>45234.5</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I58" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J58">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="K58">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L58">
-        <v>1.615</v>
+        <v>1.909</v>
       </c>
       <c r="M58">
-        <v>6.5</v>
+        <v>2.8</v>
       </c>
       <c r="N58">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="O58">
-        <v>1.363</v>
+        <v>2</v>
       </c>
       <c r="P58">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q58">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R58">
         <v>1.85</v>
@@ -5477,31 +5462,31 @@
         <v>3</v>
       </c>
       <c r="T58">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U58">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V58">
         <v>-1</v>
       </c>
       <c r="W58">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB58">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5509,64 +5494,64 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6848373</v>
+        <v>6848375</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2">
         <v>45234.5</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
         <v>37</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J59">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="K59">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L59">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="M59">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="N59">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O59">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="P59">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q59">
+        <v>1.85</v>
+      </c>
+      <c r="R59">
         <v>1.95</v>
       </c>
-      <c r="R59">
+      <c r="S59">
+        <v>2.5</v>
+      </c>
+      <c r="T59">
         <v>1.85</v>
       </c>
-      <c r="S59">
-        <v>3</v>
-      </c>
-      <c r="T59">
-        <v>1.825</v>
-      </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V59">
         <v>-1</v>
@@ -5575,19 +5560,19 @@
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5595,85 +5580,85 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6848375</v>
+        <v>6848374</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D60" s="2">
         <v>45234.5</v>
       </c>
       <c r="E60" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J60">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="K60">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L60">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="M60">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="N60">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O60">
-        <v>2.9</v>
+        <v>1.363</v>
       </c>
       <c r="P60">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="Q60">
+        <v>2</v>
+      </c>
+      <c r="R60">
         <v>1.85</v>
       </c>
-      <c r="R60">
+      <c r="S60">
+        <v>3</v>
+      </c>
+      <c r="T60">
         <v>1.95</v>
       </c>
-      <c r="S60">
-        <v>2.5</v>
-      </c>
-      <c r="T60">
-        <v>1.85</v>
-      </c>
       <c r="U60">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V60">
         <v>-1</v>
       </c>
       <c r="W60">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="X60">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z60">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA60">
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.95</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5684,16 +5669,16 @@
         <v>6848378</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D61" s="2">
         <v>45241.5</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -5702,7 +5687,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J61">
         <v>1.666</v>
@@ -5770,16 +5755,16 @@
         <v>6848376</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D62" s="2">
         <v>45241.5</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G62">
         <v>1</v>
@@ -5788,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J62">
         <v>2.5</v>
@@ -5856,16 +5841,16 @@
         <v>6848377</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D63" s="2">
         <v>45241.5</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5874,7 +5859,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J63">
         <v>1.166</v>
@@ -5942,16 +5927,16 @@
         <v>6845668</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D64" s="2">
         <v>45241.5</v>
       </c>
       <c r="E64" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -5960,7 +5945,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J64">
         <v>2.2</v>
@@ -6028,16 +6013,16 @@
         <v>6845817</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D65" s="2">
         <v>45241.5</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G65">
         <v>5</v>
@@ -6046,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J65">
         <v>1.4</v>
@@ -6114,16 +6099,16 @@
         <v>7393864</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D66" s="2">
         <v>45244.69791666666</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6132,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J66">
         <v>1.85</v>
@@ -6200,16 +6185,16 @@
         <v>6848381</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D67" s="2">
         <v>45248.5</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6218,7 +6203,7 @@
         <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J67">
         <v>2.4</v>
@@ -6286,16 +6271,16 @@
         <v>6845669</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D68" s="2">
         <v>45248.5</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F68" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6304,7 +6289,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J68">
         <v>1.666</v>
@@ -6372,16 +6357,16 @@
         <v>6848379</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D69" s="2">
         <v>45248.5</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6390,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J69">
         <v>3.2</v>
@@ -6458,16 +6443,16 @@
         <v>7392209</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D70" s="2">
         <v>45258.69791666666</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6476,7 +6461,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J70">
         <v>6.5</v>
@@ -6544,16 +6529,16 @@
         <v>7414972</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D71" s="2">
         <v>45258.69791666666</v>
       </c>
       <c r="E71" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6562,7 +6547,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J71">
         <v>6.5</v>
@@ -6630,16 +6615,16 @@
         <v>6845815</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D72" s="2">
         <v>45262.5</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G72">
         <v>5</v>
@@ -6648,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J72">
         <v>1.5</v>
@@ -6716,16 +6701,16 @@
         <v>6848385</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D73" s="2">
         <v>45269.5</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6734,7 +6719,7 @@
         <v>3</v>
       </c>
       <c r="I73" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J73">
         <v>2.75</v>
@@ -6802,16 +6787,16 @@
         <v>6848386</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D74" s="2">
         <v>45269.5</v>
       </c>
       <c r="E74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" t="s">
         <v>34</v>
-      </c>
-      <c r="F74" t="s">
-        <v>40</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6820,7 +6805,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J74">
         <v>1.4</v>
@@ -6888,16 +6873,16 @@
         <v>6848387</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D75" s="2">
         <v>45269.5</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6906,7 +6891,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J75">
         <v>2.1</v>
@@ -6974,16 +6959,16 @@
         <v>6845671</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D76" s="2">
         <v>45269.5</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6992,7 +6977,7 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J76">
         <v>4</v>
@@ -7060,16 +7045,16 @@
         <v>6845814</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D77" s="2">
         <v>45269.5</v>
       </c>
       <c r="E77" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7078,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J77">
         <v>4.75</v>
@@ -7146,16 +7131,16 @@
         <v>6845813</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D78" s="2">
         <v>45276.5</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F78" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7164,7 +7149,7 @@
         <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J78">
         <v>2.375</v>
@@ -7232,16 +7217,16 @@
         <v>6848388</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D79" s="2">
         <v>45276.5</v>
       </c>
       <c r="E79" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G79">
         <v>0</v>
@@ -7250,7 +7235,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J79">
         <v>2.1</v>
@@ -7318,16 +7303,16 @@
         <v>6848389</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D80" s="2">
         <v>45276.5</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G80">
         <v>3</v>
@@ -7336,7 +7321,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J80">
         <v>1.333</v>
@@ -7404,16 +7389,16 @@
         <v>6848390</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D81" s="2">
         <v>45276.5</v>
       </c>
       <c r="E81" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7422,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J81">
         <v>2.15</v>
@@ -7490,16 +7475,16 @@
         <v>6845672</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D82" s="2">
         <v>45276.5</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F82" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7508,7 +7493,7 @@
         <v>2</v>
       </c>
       <c r="I82" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J82">
         <v>1.571</v>
@@ -7573,85 +7558,85 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6848393</v>
+        <v>6848391</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2">
         <v>45283.5</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F83" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J83">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K83">
         <v>3.4</v>
       </c>
       <c r="L83">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="M83">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="N83">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O83">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q83">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R83">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S83">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T83">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U83">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V83">
         <v>-1</v>
       </c>
       <c r="W83">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z83">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB83">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7659,85 +7644,85 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6848391</v>
+        <v>6848393</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
         <v>45283.5</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F84" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J84">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="K84">
         <v>3.4</v>
       </c>
       <c r="L84">
+        <v>3.1</v>
+      </c>
+      <c r="M84">
         <v>2.5</v>
       </c>
-      <c r="M84">
-        <v>2.05</v>
-      </c>
       <c r="N84">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="P84">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q84">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R84">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S84">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="T84">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="U84">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V84">
         <v>-1</v>
       </c>
       <c r="W84">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z84">
-        <v>0.5125</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7748,16 +7733,16 @@
         <v>6845812</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D85" s="2">
         <v>45283.5</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7766,7 +7751,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J85">
         <v>1.4</v>
@@ -7834,16 +7819,16 @@
         <v>6848392</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
         <v>45283.5</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -7852,7 +7837,7 @@
         <v>3</v>
       </c>
       <c r="I86" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J86">
         <v>6</v>
@@ -7920,16 +7905,16 @@
         <v>6845673</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D87" s="2">
         <v>45283.52083333334</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G87">
         <v>7</v>
@@ -7938,7 +7923,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J87">
         <v>1.083</v>
@@ -8006,16 +7991,16 @@
         <v>6848394</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D88" s="2">
         <v>45290.5</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G88">
         <v>5</v>
@@ -8024,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J88">
         <v>1.285</v>
@@ -8092,16 +8077,16 @@
         <v>6848396</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D89" s="2">
         <v>45290.5</v>
       </c>
       <c r="E89" t="s">
+        <v>32</v>
+      </c>
+      <c r="F89" t="s">
         <v>35</v>
-      </c>
-      <c r="F89" t="s">
-        <v>38</v>
       </c>
       <c r="G89">
         <v>2</v>
@@ -8110,7 +8095,7 @@
         <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J89">
         <v>1.833</v>
@@ -8178,16 +8163,16 @@
         <v>6845811</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D90" s="2">
         <v>45290.5</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8196,7 +8181,7 @@
         <v>5</v>
       </c>
       <c r="I90" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J90">
         <v>9</v>
@@ -8264,16 +8249,16 @@
         <v>6845674</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D91" s="2">
         <v>45290.5</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8282,7 +8267,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J91">
         <v>2.55</v>
@@ -8350,16 +8335,16 @@
         <v>6848399</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2">
         <v>45297.5</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8368,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J92">
         <v>1.333</v>
@@ -8436,16 +8421,16 @@
         <v>6848398</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D93" s="2">
         <v>45297.5</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F93" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8454,7 +8439,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J93">
         <v>3.4</v>
@@ -8522,16 +8507,16 @@
         <v>6848397</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D94" s="2">
         <v>45297.5</v>
       </c>
       <c r="E94" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G94">
         <v>3</v>
@@ -8540,7 +8525,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J94">
         <v>1.05</v>
@@ -8608,25 +8593,25 @@
         <v>6845675</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D95" s="2">
         <v>45297.5</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F95" t="s">
+        <v>34</v>
+      </c>
+      <c r="G95">
+        <v>2</v>
+      </c>
+      <c r="H95">
+        <v>2</v>
+      </c>
+      <c r="I95" t="s">
         <v>40</v>
-      </c>
-      <c r="G95">
-        <v>2</v>
-      </c>
-      <c r="H95">
-        <v>2</v>
-      </c>
-      <c r="I95" t="s">
-        <v>45</v>
       </c>
       <c r="J95">
         <v>1.666</v>
@@ -8694,16 +8679,16 @@
         <v>7564856</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D96" s="2">
         <v>45300.69791666666</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G96">
         <v>4</v>
@@ -8712,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J96">
         <v>1.444</v>
@@ -8780,16 +8765,16 @@
         <v>6848401</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D97" s="2">
         <v>45304.5</v>
       </c>
       <c r="E97" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8798,7 +8783,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J97">
         <v>1.666</v>
@@ -8863,85 +8848,85 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6848402</v>
+        <v>6848403</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D98" s="2">
         <v>45304.5</v>
       </c>
       <c r="E98" t="s">
+        <v>32</v>
+      </c>
+      <c r="F98" t="s">
         <v>37</v>
       </c>
-      <c r="F98" t="s">
-        <v>36</v>
-      </c>
       <c r="G98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J98">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K98">
         <v>4</v>
       </c>
       <c r="L98">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M98">
+        <v>2.7</v>
+      </c>
+      <c r="N98">
+        <v>3.25</v>
+      </c>
+      <c r="O98">
+        <v>2.3</v>
+      </c>
+      <c r="P98">
+        <v>0.25</v>
+      </c>
+      <c r="Q98">
+        <v>1.775</v>
+      </c>
+      <c r="R98">
+        <v>2.025</v>
+      </c>
+      <c r="S98">
+        <v>2.5</v>
+      </c>
+      <c r="T98">
+        <v>1.85</v>
+      </c>
+      <c r="U98">
+        <v>1.95</v>
+      </c>
+      <c r="V98">
+        <v>-1</v>
+      </c>
+      <c r="W98">
         <v>2.25</v>
       </c>
-      <c r="N98">
-        <v>3.5</v>
-      </c>
-      <c r="O98">
-        <v>2.7</v>
-      </c>
-      <c r="P98">
-        <v>-0.25</v>
-      </c>
-      <c r="Q98">
-        <v>2.025</v>
-      </c>
-      <c r="R98">
-        <v>1.775</v>
-      </c>
-      <c r="S98">
-        <v>2.25</v>
-      </c>
-      <c r="T98">
-        <v>1.775</v>
-      </c>
-      <c r="U98">
-        <v>2.025</v>
-      </c>
-      <c r="V98">
-        <v>-1</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
       <c r="X98">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z98">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8949,85 +8934,85 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6848403</v>
+        <v>6848402</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D99" s="2">
         <v>45304.5</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J99">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="K99">
         <v>4</v>
       </c>
       <c r="L99">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="M99">
+        <v>2.25</v>
+      </c>
+      <c r="N99">
+        <v>3.5</v>
+      </c>
+      <c r="O99">
         <v>2.7</v>
       </c>
-      <c r="N99">
-        <v>3.25</v>
-      </c>
-      <c r="O99">
-        <v>2.3</v>
-      </c>
       <c r="P99">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q99">
+        <v>2.025</v>
+      </c>
+      <c r="R99">
         <v>1.775</v>
       </c>
-      <c r="R99">
+      <c r="S99">
+        <v>2.25</v>
+      </c>
+      <c r="T99">
+        <v>1.775</v>
+      </c>
+      <c r="U99">
         <v>2.025</v>
       </c>
-      <c r="S99">
-        <v>2.5</v>
-      </c>
-      <c r="T99">
-        <v>1.85</v>
-      </c>
-      <c r="U99">
-        <v>1.95</v>
-      </c>
       <c r="V99">
         <v>-1</v>
       </c>
       <c r="W99">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y99">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-0.5</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9038,17 +9023,17 @@
         <v>6845809</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D100" s="2">
         <v>45304.5</v>
       </c>
       <c r="E100" t="s">
+        <v>28</v>
+      </c>
+      <c r="F100" t="s">
         <v>33</v>
       </c>
-      <c r="F100" t="s">
-        <v>39</v>
-      </c>
       <c r="G100">
         <v>2</v>
       </c>
@@ -9056,7 +9041,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J100">
         <v>1.666</v>
@@ -9124,16 +9109,16 @@
         <v>6848400</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D101" s="2">
         <v>45304.52083333334</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9142,7 +9127,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J101">
         <v>26</v>
@@ -9210,16 +9195,16 @@
         <v>6845808</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D102" s="2">
         <v>45318.5</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G102">
         <v>1</v>
@@ -9228,7 +9213,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J102">
         <v>1.4</v>
@@ -9296,25 +9281,25 @@
         <v>6845676</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D103" s="2">
         <v>45318.5</v>
       </c>
       <c r="E103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F103" t="s">
+        <v>32</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>2</v>
+      </c>
+      <c r="I103" t="s">
         <v>39</v>
-      </c>
-      <c r="F103" t="s">
-        <v>35</v>
-      </c>
-      <c r="G103">
-        <v>0</v>
-      </c>
-      <c r="H103">
-        <v>2</v>
-      </c>
-      <c r="I103" t="s">
-        <v>44</v>
       </c>
       <c r="J103">
         <v>1.666</v>
@@ -9382,16 +9367,16 @@
         <v>6848406</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D104" s="2">
         <v>45318.5</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>5</v>
@@ -9400,7 +9385,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J104">
         <v>2.4</v>
@@ -9468,16 +9453,16 @@
         <v>6848405</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D105" s="2">
         <v>45318.5</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9486,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J105">
         <v>1.444</v>
@@ -9554,16 +9539,16 @@
         <v>6848404</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D106" s="2">
         <v>45318.5</v>
       </c>
       <c r="E106" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F106" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9572,7 +9557,7 @@
         <v>5</v>
       </c>
       <c r="I106" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J106">
         <v>6</v>
@@ -9640,16 +9625,16 @@
         <v>6848408</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D107" s="2">
         <v>45325.5</v>
       </c>
       <c r="E107" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G107">
         <v>0</v>
@@ -9658,7 +9643,7 @@
         <v>3</v>
       </c>
       <c r="I107" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J107">
         <v>9</v>
@@ -9723,58 +9708,58 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6845807</v>
+        <v>6845677</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D108" s="2">
         <v>45325.5</v>
       </c>
       <c r="E108" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F108" t="s">
         <v>33</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108">
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J108">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="K108">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L108">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="M108">
-        <v>5.25</v>
+        <v>2.625</v>
       </c>
       <c r="N108">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O108">
-        <v>1.55</v>
+        <v>2.3</v>
       </c>
       <c r="P108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q108">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S108">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T108">
         <v>1.85</v>
@@ -9786,22 +9771,22 @@
         <v>-1</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X108">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z108">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB108">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -9812,16 +9797,16 @@
         <v>6848407</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D109" s="2">
         <v>45325.5</v>
       </c>
       <c r="E109" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9830,7 +9815,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J109">
         <v>2.625</v>
@@ -9895,58 +9880,58 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6845677</v>
+        <v>6845807</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D110" s="2">
         <v>45325.5</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F110" t="s">
+        <v>28</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110" t="s">
         <v>39</v>
       </c>
-      <c r="G110">
-        <v>2</v>
-      </c>
-      <c r="H110">
-        <v>2</v>
-      </c>
-      <c r="I110" t="s">
-        <v>45</v>
-      </c>
       <c r="J110">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="K110">
+        <v>4.1</v>
+      </c>
+      <c r="L110">
+        <v>1.5</v>
+      </c>
+      <c r="M110">
+        <v>5.25</v>
+      </c>
+      <c r="N110">
         <v>4</v>
       </c>
-      <c r="L110">
-        <v>1.8</v>
-      </c>
-      <c r="M110">
-        <v>2.625</v>
-      </c>
-      <c r="N110">
-        <v>3.6</v>
-      </c>
       <c r="O110">
-        <v>2.3</v>
+        <v>1.55</v>
       </c>
       <c r="P110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q110">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R110">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S110">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T110">
         <v>1.85</v>
@@ -9958,22 +9943,22 @@
         <v>-1</v>
       </c>
       <c r="W110">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Y110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA110">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -9984,16 +9969,16 @@
         <v>7737668</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D111" s="2">
         <v>45328.69791666666</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F111" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10002,7 +9987,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J111">
         <v>2.3</v>
@@ -10070,25 +10055,25 @@
         <v>6848411</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D112" s="2">
         <v>45332.5</v>
       </c>
       <c r="E112" t="s">
+        <v>34</v>
+      </c>
+      <c r="F112" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
         <v>40</v>
-      </c>
-      <c r="F112" t="s">
-        <v>35</v>
-      </c>
-      <c r="G112">
-        <v>0</v>
-      </c>
-      <c r="H112">
-        <v>0</v>
-      </c>
-      <c r="I112" t="s">
-        <v>45</v>
       </c>
       <c r="J112">
         <v>2.25</v>
@@ -10156,16 +10141,16 @@
         <v>6848412</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2">
         <v>45332.5</v>
       </c>
       <c r="E113" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G113">
         <v>3</v>
@@ -10174,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J113">
         <v>1.1</v>
@@ -10242,16 +10227,16 @@
         <v>6848410</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D114" s="2">
         <v>45332.5</v>
       </c>
       <c r="E114" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10260,7 +10245,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J114">
         <v>2</v>
@@ -10328,16 +10313,16 @@
         <v>6845806</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D115" s="2">
         <v>45332.5</v>
       </c>
       <c r="E115" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -10346,7 +10331,7 @@
         <v>3</v>
       </c>
       <c r="I115" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J115">
         <v>1.2</v>
@@ -10414,16 +10399,16 @@
         <v>7572536</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D116" s="2">
         <v>45335.69791666666</v>
       </c>
       <c r="E116" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F116" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10432,7 +10417,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J116">
         <v>1.727</v>
@@ -10500,16 +10485,16 @@
         <v>7705415</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D117" s="2">
         <v>45335.69791666666</v>
       </c>
       <c r="E117" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G117">
         <v>3</v>
@@ -10518,7 +10503,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J117">
         <v>1.125</v>
@@ -10586,16 +10571,16 @@
         <v>6848413</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D118" s="2">
         <v>45339.5</v>
       </c>
       <c r="E118" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10604,7 +10589,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J118">
         <v>2.6</v>
@@ -10672,16 +10657,16 @@
         <v>6845679</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D119" s="2">
         <v>45339.5</v>
       </c>
       <c r="E119" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F119" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G119">
         <v>4</v>
@@ -10690,7 +10675,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J119">
         <v>2.25</v>
@@ -10758,16 +10743,16 @@
         <v>6848415</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D120" s="2">
         <v>45339.5</v>
       </c>
       <c r="E120" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G120">
         <v>4</v>
@@ -10776,7 +10761,7 @@
         <v>2</v>
       </c>
       <c r="I120" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J120">
         <v>2.1</v>
@@ -10844,16 +10829,16 @@
         <v>6848414</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D121" s="2">
         <v>45339.5</v>
       </c>
       <c r="E121" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F121" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G121">
         <v>1</v>
@@ -10862,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J121">
         <v>10</v>
@@ -10930,16 +10915,16 @@
         <v>6845805</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D122" s="2">
         <v>45339.5</v>
       </c>
       <c r="E122" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F122" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G122">
         <v>3</v>
@@ -10948,7 +10933,7 @@
         <v>2</v>
       </c>
       <c r="I122" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J122">
         <v>2</v>
@@ -11016,16 +11001,16 @@
         <v>7746295</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D123" s="2">
         <v>45342.69791666666</v>
       </c>
       <c r="E123" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F123" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G123">
         <v>3</v>
@@ -11034,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J123">
         <v>1.25</v>
@@ -11102,16 +11087,16 @@
         <v>6848417</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D124" s="2">
         <v>45346.5</v>
       </c>
       <c r="E124" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -11120,7 +11105,7 @@
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J124">
         <v>5.5</v>
@@ -11188,16 +11173,16 @@
         <v>6848416</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D125" s="2">
         <v>45346.5</v>
       </c>
       <c r="E125" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G125">
         <v>2</v>
@@ -11206,7 +11191,7 @@
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J125">
         <v>1.666</v>
@@ -11274,16 +11259,16 @@
         <v>6845804</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D126" s="2">
         <v>45346.5</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11292,7 +11277,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J126">
         <v>1.4</v>
@@ -11360,16 +11345,16 @@
         <v>6848419</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D127" s="2">
         <v>45346.5</v>
       </c>
       <c r="E127" t="s">
+        <v>31</v>
+      </c>
+      <c r="F127" t="s">
         <v>36</v>
-      </c>
-      <c r="F127" t="s">
-        <v>41</v>
       </c>
       <c r="G127">
         <v>4</v>
@@ -11378,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J127">
         <v>1.166</v>
@@ -11446,16 +11431,16 @@
         <v>6848418</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D128" s="2">
         <v>45346.60416666666</v>
       </c>
       <c r="E128" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F128" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11464,7 +11449,7 @@
         <v>3</v>
       </c>
       <c r="I128" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -11532,16 +11517,16 @@
         <v>7752946</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D129" s="2">
         <v>45349.69791666666</v>
       </c>
       <c r="E129" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F129" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11550,7 +11535,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J129">
         <v>5</v>
@@ -11615,85 +11600,85 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6920595</v>
+        <v>6937667</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D130" s="2">
         <v>45353.5</v>
       </c>
       <c r="E130" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G130">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I130" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J130">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="K130">
+        <v>5.25</v>
+      </c>
+      <c r="L130">
+        <v>1.333</v>
+      </c>
+      <c r="M130">
+        <v>9</v>
+      </c>
+      <c r="N130">
+        <v>5.5</v>
+      </c>
+      <c r="O130">
+        <v>1.25</v>
+      </c>
+      <c r="P130">
+        <v>1.75</v>
+      </c>
+      <c r="Q130">
+        <v>1.95</v>
+      </c>
+      <c r="R130">
+        <v>1.85</v>
+      </c>
+      <c r="S130">
         <v>3.5</v>
       </c>
-      <c r="L130">
-        <v>2.9</v>
-      </c>
-      <c r="M130">
-        <v>2.25</v>
-      </c>
-      <c r="N130">
-        <v>3.4</v>
-      </c>
-      <c r="O130">
-        <v>2.8</v>
-      </c>
-      <c r="P130">
-        <v>-0.25</v>
-      </c>
-      <c r="Q130">
-        <v>2.025</v>
-      </c>
-      <c r="R130">
-        <v>1.825</v>
-      </c>
-      <c r="S130">
-        <v>2.5</v>
-      </c>
       <c r="T130">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U130">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V130">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y130">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AA130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11701,82 +11686,82 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6920622</v>
+        <v>6920595</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D131" s="2">
         <v>45353.5</v>
       </c>
       <c r="E131" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="F131" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H131">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I131" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J131">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="K131">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="L131">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="M131">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N131">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O131">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="P131">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q131">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="R131">
+        <v>1.825</v>
+      </c>
+      <c r="S131">
+        <v>2.5</v>
+      </c>
+      <c r="T131">
+        <v>1.825</v>
+      </c>
+      <c r="U131">
         <v>2.025</v>
       </c>
-      <c r="S131">
-        <v>3</v>
-      </c>
-      <c r="T131">
-        <v>2</v>
-      </c>
-      <c r="U131">
-        <v>1.8</v>
-      </c>
       <c r="V131">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z131">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AB131">
         <v>-1</v>
@@ -11787,61 +11772,61 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6921319</v>
+        <v>6920622</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D132" s="2">
         <v>45353.5</v>
       </c>
       <c r="E132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I132" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="J132">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="K132">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="L132">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="M132">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="N132">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="O132">
+        <v>1.6</v>
+      </c>
+      <c r="P132">
+        <v>1</v>
+      </c>
+      <c r="Q132">
+        <v>1.775</v>
+      </c>
+      <c r="R132">
+        <v>2.025</v>
+      </c>
+      <c r="S132">
         <v>3</v>
       </c>
-      <c r="P132">
-        <v>-0.25</v>
-      </c>
-      <c r="Q132">
-        <v>2.025</v>
-      </c>
-      <c r="R132">
-        <v>1.825</v>
-      </c>
-      <c r="S132">
-        <v>2.5</v>
-      </c>
       <c r="T132">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="U132">
         <v>1.8</v>
@@ -11850,19 +11835,19 @@
         <v>-1</v>
       </c>
       <c r="W132">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AA132">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AB132">
         <v>-1</v>
@@ -11873,85 +11858,85 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6937667</v>
+        <v>6921319</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D133" s="2">
         <v>45353.5</v>
       </c>
       <c r="E133" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F133" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H133">
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J133">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="K133">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="L133">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="M133">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="N133">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="O133">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="P133">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q133">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R133">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S133">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T133">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="U133">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
         <v>-1</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X133">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-0.5</v>
       </c>
       <c r="Z133">
-        <v>0.425</v>
+        <v>0.4125</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -11962,16 +11947,16 @@
         <v>6937668</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2">
         <v>45353.5</v>
       </c>
       <c r="E134" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -11980,7 +11965,7 @@
         <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J134">
         <v>1.166</v>
@@ -12048,16 +12033,16 @@
         <v>7782706</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D135" s="2">
         <v>45356.69791666666</v>
       </c>
       <c r="E135" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12066,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J135">
         <v>5.5</v>
@@ -12131,67 +12116,67 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>6958683</v>
+        <v>6944520</v>
       </c>
       <c r="C136" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D136" s="2">
         <v>45360.5</v>
       </c>
       <c r="E136" t="s">
+        <v>37</v>
+      </c>
+      <c r="F136" t="s">
+        <v>34</v>
+      </c>
+      <c r="G136">
+        <v>3</v>
+      </c>
+      <c r="H136">
+        <v>0</v>
+      </c>
+      <c r="I136" t="s">
         <v>38</v>
       </c>
-      <c r="F136" t="s">
-        <v>35</v>
-      </c>
-      <c r="G136">
-        <v>2</v>
-      </c>
-      <c r="H136">
-        <v>1</v>
-      </c>
-      <c r="I136" t="s">
-        <v>43</v>
-      </c>
       <c r="J136">
-        <v>2.375</v>
+        <v>1.909</v>
       </c>
       <c r="K136">
         <v>3.6</v>
       </c>
       <c r="L136">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="M136">
-        <v>2.625</v>
+        <v>1.909</v>
       </c>
       <c r="N136">
         <v>3.4</v>
       </c>
       <c r="O136">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="P136">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q136">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="R136">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="S136">
         <v>3</v>
       </c>
       <c r="T136">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U136">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V136">
-        <v>1.625</v>
+        <v>0.909</v>
       </c>
       <c r="W136">
         <v>-1</v>
@@ -12200,7 +12185,7 @@
         <v>-1</v>
       </c>
       <c r="Y136">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="Z136">
         <v>-1</v>
@@ -12217,67 +12202,67 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>6944520</v>
+        <v>6958683</v>
       </c>
       <c r="C137" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D137" s="2">
         <v>45360.5</v>
       </c>
       <c r="E137" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J137">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="K137">
         <v>3.6</v>
       </c>
       <c r="L137">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="M137">
-        <v>1.909</v>
+        <v>2.625</v>
       </c>
       <c r="N137">
         <v>3.4</v>
       </c>
       <c r="O137">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="P137">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q137">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="R137">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S137">
         <v>3</v>
       </c>
       <c r="T137">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U137">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V137">
-        <v>0.909</v>
+        <v>1.625</v>
       </c>
       <c r="W137">
         <v>-1</v>
@@ -12286,7 +12271,7 @@
         <v>-1</v>
       </c>
       <c r="Y137">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="Z137">
         <v>-1</v>
@@ -12303,65 +12288,65 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>6937669</v>
+        <v>6937670</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D138" s="2">
         <v>45360.5</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G138">
         <v>1</v>
       </c>
       <c r="H138">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J138">
-        <v>1.727</v>
+        <v>7</v>
       </c>
       <c r="K138">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>1.333</v>
       </c>
       <c r="M138">
-        <v>2.2</v>
+        <v>7.5</v>
       </c>
       <c r="N138">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="O138">
-        <v>2.75</v>
+        <v>1.3</v>
       </c>
       <c r="P138">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q138">
+        <v>1.9</v>
+      </c>
+      <c r="R138">
+        <v>1.9</v>
+      </c>
+      <c r="S138">
+        <v>3</v>
+      </c>
+      <c r="T138">
         <v>1.975</v>
       </c>
-      <c r="R138">
+      <c r="U138">
         <v>1.825</v>
       </c>
-      <c r="S138">
-        <v>2.75</v>
-      </c>
-      <c r="T138">
-        <v>1.8</v>
-      </c>
-      <c r="U138">
-        <v>2</v>
-      </c>
       <c r="V138">
         <v>-1</v>
       </c>
@@ -12369,19 +12354,19 @@
         <v>-1</v>
       </c>
       <c r="X138">
-        <v>1.75</v>
+        <v>0.3</v>
       </c>
       <c r="Y138">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z138">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA138">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB138">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:28">
@@ -12392,16 +12377,16 @@
         <v>6936981</v>
       </c>
       <c r="C139" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D139" s="2">
         <v>45360.5</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12410,7 +12395,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J139">
         <v>1.111</v>
@@ -12475,64 +12460,64 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>6937670</v>
+        <v>6937669</v>
       </c>
       <c r="C140" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D140" s="2">
         <v>45360.5</v>
       </c>
       <c r="E140" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G140">
         <v>1</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I140" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J140">
-        <v>7</v>
+        <v>1.727</v>
       </c>
       <c r="K140">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L140">
-        <v>1.333</v>
+        <v>4</v>
       </c>
       <c r="M140">
-        <v>7.5</v>
+        <v>2.2</v>
       </c>
       <c r="N140">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="O140">
-        <v>1.3</v>
+        <v>2.75</v>
       </c>
       <c r="P140">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q140">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="R140">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S140">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T140">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U140">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V140">
         <v>-1</v>
@@ -12541,19 +12526,19 @@
         <v>-1</v>
       </c>
       <c r="X140">
-        <v>0.3</v>
+        <v>1.75</v>
       </c>
       <c r="Y140">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z140">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA140">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB140">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="141" spans="1:28">
@@ -12564,16 +12549,16 @@
         <v>6974333</v>
       </c>
       <c r="C141" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D141" s="2">
         <v>45367.5</v>
       </c>
       <c r="E141" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F141" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12582,7 +12567,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J141">
         <v>2.55</v>
@@ -12650,16 +12635,16 @@
         <v>6958684</v>
       </c>
       <c r="C142" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D142" s="2">
         <v>45367.5</v>
       </c>
       <c r="E142" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G142">
         <v>3</v>
@@ -12668,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J142">
         <v>1.25</v>
@@ -12736,16 +12721,16 @@
         <v>6958685</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45367.5</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12754,7 +12739,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J143">
         <v>1.615</v>
@@ -12822,16 +12807,16 @@
         <v>6974332</v>
       </c>
       <c r="C144" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45367.5</v>
       </c>
       <c r="E144" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F144" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G144">
         <v>2</v>
@@ -12840,7 +12825,7 @@
         <v>5</v>
       </c>
       <c r="I144" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J144">
         <v>10</v>
@@ -12908,16 +12893,16 @@
         <v>6974334</v>
       </c>
       <c r="C145" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D145" s="2">
         <v>45367.60416666666</v>
       </c>
       <c r="E145" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12926,7 +12911,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J145">
         <v>8</v>
@@ -12994,16 +12979,16 @@
         <v>7752947</v>
       </c>
       <c r="C146" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D146" s="2">
         <v>45370.69791666666</v>
       </c>
       <c r="E146" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F146" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13012,7 +12997,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J146">
         <v>2.6</v>
@@ -13080,16 +13065,16 @@
         <v>6994939</v>
       </c>
       <c r="C147" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D147" s="2">
         <v>45374.5</v>
       </c>
       <c r="E147" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13098,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J147">
         <v>2.625</v>
@@ -13166,16 +13151,16 @@
         <v>6994938</v>
       </c>
       <c r="C148" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D148" s="2">
         <v>45374.5</v>
       </c>
       <c r="E148" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F148" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -13184,7 +13169,7 @@
         <v>1</v>
       </c>
       <c r="I148" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J148">
         <v>1.04</v>
@@ -13252,16 +13237,16 @@
         <v>6994937</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D149" s="2">
         <v>45374.5</v>
       </c>
       <c r="E149" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F149" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -13270,7 +13255,7 @@
         <v>3</v>
       </c>
       <c r="I149" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J149">
         <v>3.3</v>
@@ -13338,16 +13323,16 @@
         <v>6994936</v>
       </c>
       <c r="C150" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D150" s="2">
         <v>45374.5</v>
       </c>
       <c r="E150" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13356,7 +13341,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J150">
         <v>2.3</v>
@@ -13424,16 +13409,16 @@
         <v>6994678</v>
       </c>
       <c r="C151" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D151" s="2">
         <v>45374.5</v>
       </c>
       <c r="E151" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13442,7 +13427,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J151">
         <v>1.909</v>
@@ -13510,16 +13495,16 @@
         <v>7024093</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D152" s="2">
         <v>45381.5</v>
       </c>
       <c r="E152" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G152">
         <v>0</v>
@@ -13528,7 +13513,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J152">
         <v>1.363</v>
@@ -13596,16 +13581,16 @@
         <v>7024092</v>
       </c>
       <c r="C153" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D153" s="2">
         <v>45381.5</v>
       </c>
       <c r="E153" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G153">
         <v>4</v>
@@ -13614,7 +13599,7 @@
         <v>2</v>
       </c>
       <c r="I153" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J153">
         <v>1.75</v>
@@ -13682,16 +13667,16 @@
         <v>7024094</v>
       </c>
       <c r="C154" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D154" s="2">
         <v>45381.5</v>
       </c>
       <c r="E154" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F154" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G154">
         <v>3</v>
@@ -13700,7 +13685,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J154">
         <v>1.3</v>
@@ -13768,16 +13753,16 @@
         <v>7024091</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D155" s="2">
         <v>45381.5</v>
       </c>
       <c r="E155" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G155">
         <v>1</v>
@@ -13786,7 +13771,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J155">
         <v>1.8</v>
@@ -13854,16 +13839,16 @@
         <v>7024095</v>
       </c>
       <c r="C156" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D156" s="2">
         <v>45381.60416666666</v>
       </c>
       <c r="E156" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13872,7 +13857,7 @@
         <v>7</v>
       </c>
       <c r="I156" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J156">
         <v>4.75</v>
@@ -13940,16 +13925,16 @@
         <v>7060652</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D157" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F157" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13958,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J157">
         <v>13</v>
@@ -14026,16 +14011,16 @@
         <v>7060491</v>
       </c>
       <c r="C158" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D158" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14044,7 +14029,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J158">
         <v>2.2</v>
@@ -14109,64 +14094,64 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7060651</v>
+        <v>7060654</v>
       </c>
       <c r="C159" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D159" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E159" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G159">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I159" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J159">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="K159">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="L159">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="M159">
+        <v>2.55</v>
+      </c>
+      <c r="N159">
         <v>3.5</v>
       </c>
-      <c r="N159">
-        <v>4.75</v>
-      </c>
       <c r="O159">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="P159">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q159">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R159">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S159">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T159">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U159">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V159">
         <v>-1</v>
@@ -14175,16 +14160,16 @@
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>0.6659999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA159">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB159">
         <v>-1</v>
@@ -14195,64 +14180,64 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7060654</v>
+        <v>7060651</v>
       </c>
       <c r="C160" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D160" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E160" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F160" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="G160">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I160" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J160">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="K160">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="L160">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="M160">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N160">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O160">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="P160">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q160">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R160">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S160">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T160">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U160">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V160">
         <v>-1</v>
@@ -14261,16 +14246,16 @@
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>1.375</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA160">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB160">
         <v>-1</v>
@@ -14284,16 +14269,16 @@
         <v>7060653</v>
       </c>
       <c r="C161" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D161" s="2">
         <v>45388.5625</v>
       </c>
       <c r="E161" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F161" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G161">
         <v>5</v>
@@ -14302,7 +14287,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J161">
         <v>1.571</v>
@@ -14370,16 +14355,16 @@
         <v>7128380</v>
       </c>
       <c r="C162" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D162" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -14388,7 +14373,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J162">
         <v>2.1</v>
@@ -14456,16 +14441,16 @@
         <v>7128383</v>
       </c>
       <c r="C163" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D163" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14474,7 +14459,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J163">
         <v>1.111</v>
@@ -14542,16 +14527,16 @@
         <v>7107442</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F164" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G164">
         <v>1</v>
@@ -14560,7 +14545,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J164">
         <v>2</v>
@@ -14628,16 +14613,16 @@
         <v>7128381</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D165" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E165" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F165" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G165">
         <v>4</v>
@@ -14646,7 +14631,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J165">
         <v>2.95</v>
@@ -14714,16 +14699,16 @@
         <v>7128382</v>
       </c>
       <c r="C166" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D166" s="2">
         <v>45395.5625</v>
       </c>
       <c r="E166" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14732,7 +14717,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J166">
         <v>2.625</v>
@@ -14800,16 +14785,16 @@
         <v>8074738</v>
       </c>
       <c r="C167" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D167" s="2">
         <v>45398.65625</v>
       </c>
       <c r="E167" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F167" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14818,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J167">
         <v>11</v>
@@ -14886,16 +14871,16 @@
         <v>7157543</v>
       </c>
       <c r="C168" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D168" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F168" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14904,7 +14889,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J168">
         <v>4.333</v>
@@ -14972,25 +14957,25 @@
         <v>7157542</v>
       </c>
       <c r="C169" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D169" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E169" t="s">
+        <v>29</v>
+      </c>
+      <c r="F169" t="s">
         <v>34</v>
       </c>
-      <c r="F169" t="s">
+      <c r="G169">
+        <v>2</v>
+      </c>
+      <c r="H169">
+        <v>2</v>
+      </c>
+      <c r="I169" t="s">
         <v>40</v>
-      </c>
-      <c r="G169">
-        <v>2</v>
-      </c>
-      <c r="H169">
-        <v>2</v>
-      </c>
-      <c r="I169" t="s">
-        <v>45</v>
       </c>
       <c r="J169">
         <v>1.2</v>
@@ -15058,16 +15043,16 @@
         <v>7157541</v>
       </c>
       <c r="C170" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D170" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F170" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15076,7 +15061,7 @@
         <v>2</v>
       </c>
       <c r="I170" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J170">
         <v>5.5</v>
@@ -15144,16 +15129,16 @@
         <v>7128384</v>
       </c>
       <c r="C171" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D171" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -15162,7 +15147,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="J171">
         <v>2.25</v>
@@ -15230,16 +15215,16 @@
         <v>7158345</v>
       </c>
       <c r="C172" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D172" s="2">
         <v>45402.5625</v>
       </c>
       <c r="E172" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F172" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15248,7 +15233,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="J172">
         <v>2.4</v>
@@ -15306,331 +15291,6 @@
       </c>
       <c r="AB172">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:28">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173" t="s">
-        <v>27</v>
-      </c>
-      <c r="C173" t="s">
-        <v>32</v>
-      </c>
-      <c r="D173" s="2">
-        <v>45409.45833333334</v>
-      </c>
-      <c r="E173" t="s">
-        <v>41</v>
-      </c>
-      <c r="F173" t="s">
-        <v>36</v>
-      </c>
-      <c r="J173">
-        <v>5</v>
-      </c>
-      <c r="K173">
-        <v>5</v>
-      </c>
-      <c r="L173">
-        <v>1.4</v>
-      </c>
-      <c r="M173">
-        <v>8</v>
-      </c>
-      <c r="N173">
-        <v>4.75</v>
-      </c>
-      <c r="O173">
-        <v>1.333</v>
-      </c>
-      <c r="P173">
-        <v>1.5</v>
-      </c>
-      <c r="Q173">
-        <v>1.9</v>
-      </c>
-      <c r="R173">
-        <v>1.95</v>
-      </c>
-      <c r="S173">
-        <v>3.25</v>
-      </c>
-      <c r="T173">
-        <v>2.025</v>
-      </c>
-      <c r="U173">
-        <v>1.825</v>
-      </c>
-      <c r="V173">
-        <v>0</v>
-      </c>
-      <c r="W173">
-        <v>0</v>
-      </c>
-      <c r="X173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:28">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174" t="s">
-        <v>28</v>
-      </c>
-      <c r="C174" t="s">
-        <v>32</v>
-      </c>
-      <c r="D174" s="2">
-        <v>45409.45833333334</v>
-      </c>
-      <c r="E174" t="s">
-        <v>38</v>
-      </c>
-      <c r="F174" t="s">
-        <v>34</v>
-      </c>
-      <c r="J174">
-        <v>4.333</v>
-      </c>
-      <c r="K174">
-        <v>4.333</v>
-      </c>
-      <c r="L174">
-        <v>1.533</v>
-      </c>
-      <c r="M174">
-        <v>5</v>
-      </c>
-      <c r="N174">
-        <v>5</v>
-      </c>
-      <c r="O174">
-        <v>1.4</v>
-      </c>
-      <c r="P174">
-        <v>1.25</v>
-      </c>
-      <c r="Q174">
-        <v>1.95</v>
-      </c>
-      <c r="R174">
-        <v>1.9</v>
-      </c>
-      <c r="S174">
-        <v>3.5</v>
-      </c>
-      <c r="T174">
-        <v>1.975</v>
-      </c>
-      <c r="U174">
-        <v>1.875</v>
-      </c>
-      <c r="V174">
-        <v>0</v>
-      </c>
-      <c r="W174">
-        <v>0</v>
-      </c>
-      <c r="X174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:28">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175" t="s">
-        <v>29</v>
-      </c>
-      <c r="C175" t="s">
-        <v>32</v>
-      </c>
-      <c r="D175" s="2">
-        <v>45409.45833333334</v>
-      </c>
-      <c r="E175" t="s">
-        <v>42</v>
-      </c>
-      <c r="F175" t="s">
-        <v>33</v>
-      </c>
-      <c r="J175">
-        <v>3.8</v>
-      </c>
-      <c r="K175">
-        <v>3.8</v>
-      </c>
-      <c r="L175">
-        <v>1.7</v>
-      </c>
-      <c r="M175">
-        <v>3.4</v>
-      </c>
-      <c r="N175">
-        <v>3.8</v>
-      </c>
-      <c r="O175">
-        <v>1.75</v>
-      </c>
-      <c r="P175">
-        <v>0.5</v>
-      </c>
-      <c r="Q175">
-        <v>2.025</v>
-      </c>
-      <c r="R175">
-        <v>1.825</v>
-      </c>
-      <c r="S175">
-        <v>3</v>
-      </c>
-      <c r="T175">
-        <v>1.925</v>
-      </c>
-      <c r="U175">
-        <v>1.925</v>
-      </c>
-      <c r="V175">
-        <v>0</v>
-      </c>
-      <c r="W175">
-        <v>0</v>
-      </c>
-      <c r="X175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:28">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176" t="s">
-        <v>30</v>
-      </c>
-      <c r="C176" t="s">
-        <v>32</v>
-      </c>
-      <c r="D176" s="2">
-        <v>45409.45833333334</v>
-      </c>
-      <c r="E176" t="s">
-        <v>35</v>
-      </c>
-      <c r="F176" t="s">
-        <v>39</v>
-      </c>
-      <c r="J176">
-        <v>2.25</v>
-      </c>
-      <c r="K176">
-        <v>3.75</v>
-      </c>
-      <c r="L176">
-        <v>2.5</v>
-      </c>
-      <c r="M176">
-        <v>1.85</v>
-      </c>
-      <c r="N176">
-        <v>4</v>
-      </c>
-      <c r="O176">
-        <v>3.1</v>
-      </c>
-      <c r="P176">
-        <v>-0.5</v>
-      </c>
-      <c r="Q176">
-        <v>1.925</v>
-      </c>
-      <c r="R176">
-        <v>1.925</v>
-      </c>
-      <c r="S176">
-        <v>3</v>
-      </c>
-      <c r="T176">
-        <v>2.025</v>
-      </c>
-      <c r="U176">
-        <v>1.825</v>
-      </c>
-      <c r="V176">
-        <v>0</v>
-      </c>
-      <c r="W176">
-        <v>0</v>
-      </c>
-      <c r="X176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:24">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177" t="s">
-        <v>31</v>
-      </c>
-      <c r="C177" t="s">
-        <v>32</v>
-      </c>
-      <c r="D177" s="2">
-        <v>45409.45833333334</v>
-      </c>
-      <c r="E177" t="s">
-        <v>40</v>
-      </c>
-      <c r="F177" t="s">
-        <v>37</v>
-      </c>
-      <c r="J177">
-        <v>2.3</v>
-      </c>
-      <c r="K177">
-        <v>3.6</v>
-      </c>
-      <c r="L177">
-        <v>2.5</v>
-      </c>
-      <c r="M177">
-        <v>2.05</v>
-      </c>
-      <c r="N177">
-        <v>3.75</v>
-      </c>
-      <c r="O177">
-        <v>2.875</v>
-      </c>
-      <c r="P177">
-        <v>-0.25</v>
-      </c>
-      <c r="Q177">
-        <v>1.875</v>
-      </c>
-      <c r="R177">
-        <v>1.975</v>
-      </c>
-      <c r="S177">
-        <v>2.75</v>
-      </c>
-      <c r="T177">
-        <v>1.85</v>
-      </c>
-      <c r="U177">
-        <v>2</v>
-      </c>
-      <c r="V177">
-        <v>0</v>
-      </c>
-      <c r="W177">
-        <v>0</v>
-      </c>
-      <c r="X177">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -1882,7 +1882,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6845660</v>
+        <v>6848349</v>
       </c>
       <c r="C17" t="s">
         <v>27</v>
@@ -1891,76 +1891,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K17">
         <v>3.4</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M17">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N17">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O17">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P17">
         <v>-0.25</v>
       </c>
       <c r="Q17">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R17">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S17">
         <v>3</v>
       </c>
       <c r="T17">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U17">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V17">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z17">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -2140,7 +2140,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6848349</v>
+        <v>6845660</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -2149,76 +2149,76 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J20">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K20">
         <v>3.4</v>
       </c>
       <c r="L20">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N20">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O20">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P20">
         <v>-0.25</v>
       </c>
       <c r="Q20">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R20">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
         <v>3</v>
       </c>
       <c r="T20">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U20">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y20">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2742,7 +2742,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6848356</v>
+        <v>6848355</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2751,55 +2751,55 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G27">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="s">
         <v>38</v>
       </c>
       <c r="J27">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="K27">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M27">
         <v>1.5</v>
       </c>
       <c r="N27">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="O27">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="P27">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q27">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T27">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U27">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
         <v>0.5</v>
@@ -2811,16 +2811,16 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z27">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2828,7 +2828,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6848355</v>
+        <v>6848356</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2837,55 +2837,55 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F28" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="s">
         <v>38</v>
       </c>
       <c r="J28">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L28">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
         <v>1.5</v>
       </c>
       <c r="N28">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="O28">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="P28">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S28">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T28">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V28">
         <v>0.5</v>
@@ -2897,16 +2897,16 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z28">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB28">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2914,7 +2914,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6845662</v>
+        <v>6845824</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -2923,40 +2923,40 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J29">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="K29">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M29">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="N29">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O29">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P29">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q29">
         <v>1.925</v>
@@ -2968,31 +2968,31 @@
         <v>2.75</v>
       </c>
       <c r="T29">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U29">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V29">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W29">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z29">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA29">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3000,7 +3000,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6845824</v>
+        <v>6848354</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3009,58 +3009,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="s">
         <v>38</v>
       </c>
       <c r="J30">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="K30">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L30">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="M30">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N30">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="O30">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="P30">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q30">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R30">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S30">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T30">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V30">
-        <v>0.3999999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3069,16 +3069,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z30">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.4125</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3086,7 +3086,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6848354</v>
+        <v>6845662</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -3095,76 +3095,76 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31">
+        <v>2.1</v>
+      </c>
+      <c r="K31">
+        <v>3.5</v>
+      </c>
+      <c r="L31">
         <v>3</v>
       </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>38</v>
-      </c>
-      <c r="J31">
-        <v>2.5</v>
-      </c>
-      <c r="K31">
-        <v>3.25</v>
-      </c>
-      <c r="L31">
-        <v>2.6</v>
-      </c>
       <c r="M31">
-        <v>2.7</v>
+        <v>1.727</v>
       </c>
       <c r="N31">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O31">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="P31">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q31">
+        <v>1.925</v>
+      </c>
+      <c r="R31">
+        <v>1.875</v>
+      </c>
+      <c r="S31">
+        <v>2.75</v>
+      </c>
+      <c r="T31">
         <v>1.9</v>
       </c>
-      <c r="R31">
-        <v>1.95</v>
-      </c>
-      <c r="S31">
-        <v>3</v>
-      </c>
-      <c r="T31">
-        <v>2.05</v>
-      </c>
       <c r="U31">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
+        <v>-1</v>
+      </c>
+      <c r="Z31">
+        <v>0.875</v>
+      </c>
+      <c r="AA31">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z31">
-        <v>-1</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
       <c r="AB31">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -9794,7 +9794,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6848407</v>
+        <v>6848408</v>
       </c>
       <c r="C109" t="s">
         <v>27</v>
@@ -9803,13 +9803,13 @@
         <v>45325.5</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H109">
         <v>3</v>
@@ -9818,40 +9818,40 @@
         <v>39</v>
       </c>
       <c r="J109">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="K109">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="L109">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="M109">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="N109">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="O109">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="P109">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Q109">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R109">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S109">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T109">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U109">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V109">
         <v>-1</v>
@@ -9860,19 +9860,19 @@
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA109">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -9880,7 +9880,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6848408</v>
+        <v>6848407</v>
       </c>
       <c r="C110" t="s">
         <v>27</v>
@@ -9889,13 +9889,13 @@
         <v>45325.5</v>
       </c>
       <c r="E110" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H110">
         <v>3</v>
@@ -9904,61 +9904,61 @@
         <v>39</v>
       </c>
       <c r="J110">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="K110">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="L110">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="M110">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="N110">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="O110">
+        <v>2.25</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110">
+        <v>2.025</v>
+      </c>
+      <c r="R110">
+        <v>1.775</v>
+      </c>
+      <c r="S110">
+        <v>2.75</v>
+      </c>
+      <c r="T110">
+        <v>1.9</v>
+      </c>
+      <c r="U110">
+        <v>1.9</v>
+      </c>
+      <c r="V110">
+        <v>-1</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
         <v>1.25</v>
       </c>
-      <c r="P110">
-        <v>1.75</v>
-      </c>
-      <c r="Q110">
-        <v>1.9</v>
-      </c>
-      <c r="R110">
-        <v>1.9</v>
-      </c>
-      <c r="S110">
-        <v>3.5</v>
-      </c>
-      <c r="T110">
-        <v>1.925</v>
-      </c>
-      <c r="U110">
-        <v>1.875</v>
-      </c>
-      <c r="V110">
-        <v>-1</v>
-      </c>
-      <c r="W110">
-        <v>-1</v>
-      </c>
-      <c r="X110">
-        <v>0.25</v>
-      </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA110">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
       <c r="AB110">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:28">

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -95,6 +95,21 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
+  </si>
+  <si>
+    <t>7222591</t>
+  </si>
+  <si>
+    <t>7222592</t>
+  </si>
+  <si>
+    <t>7222593</t>
+  </si>
+  <si>
+    <t>7222594</t>
+  </si>
+  <si>
+    <t>7222590</t>
   </si>
   <si>
     <t>Scotland League One</t>
@@ -498,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB177"/>
+  <dimension ref="A1:AB182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,16 +610,16 @@
         <v>6848341</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D2" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -613,7 +628,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>2.4</v>
@@ -681,16 +696,16 @@
         <v>6845830</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -699,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -767,16 +782,16 @@
         <v>6848340</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D4" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -785,7 +800,7 @@
         <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>1.909</v>
@@ -853,16 +868,16 @@
         <v>6848339</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D5" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -871,7 +886,7 @@
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>2.4</v>
@@ -939,16 +954,16 @@
         <v>6848338</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D6" s="2">
         <v>45143.45833333334</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -957,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J6">
         <v>1.444</v>
@@ -1025,16 +1040,16 @@
         <v>6848342</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D7" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
         <v>33</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1043,7 +1058,7 @@
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -1111,16 +1126,16 @@
         <v>6848343</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D8" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1129,7 +1144,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J8">
         <v>2.7</v>
@@ -1197,16 +1212,16 @@
         <v>6845829</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D9" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1215,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J9">
         <v>3.3</v>
@@ -1283,16 +1298,16 @@
         <v>6845658</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -1301,7 +1316,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J10">
         <v>2.15</v>
@@ -1369,16 +1384,16 @@
         <v>6848344</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2">
         <v>45150.45833333334</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1387,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>2.8</v>
@@ -1455,16 +1470,16 @@
         <v>6845659</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1473,7 +1488,7 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>2.5</v>
@@ -1541,16 +1556,16 @@
         <v>6848346</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>2</v>
@@ -1559,7 +1574,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J13">
         <v>2.4</v>
@@ -1627,16 +1642,16 @@
         <v>6845827</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1645,7 +1660,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J14">
         <v>3</v>
@@ -1713,16 +1728,16 @@
         <v>6848347</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D15" s="2">
         <v>45157.45833333334</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1731,7 +1746,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J15">
         <v>1.8</v>
@@ -1799,16 +1814,16 @@
         <v>7054311</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D16" s="2">
         <v>45160.65625</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1817,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J16">
         <v>1.615</v>
@@ -1882,85 +1897,85 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6848349</v>
+        <v>6845660</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D17" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E17" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="J17">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K17">
         <v>3.4</v>
       </c>
       <c r="L17">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N17">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O17">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P17">
         <v>-0.25</v>
       </c>
       <c r="Q17">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="R17">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
         <v>3</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="U17">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y17">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:28">
@@ -1971,16 +1986,16 @@
         <v>6848350</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1989,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J18">
         <v>1.75</v>
@@ -2057,16 +2072,16 @@
         <v>6845826</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2075,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J19">
         <v>1.571</v>
@@ -2140,85 +2155,85 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6845660</v>
+        <v>6848349</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2">
         <v>45164.45833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J20">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K20">
         <v>3.4</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="M20">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="N20">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O20">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P20">
         <v>-0.25</v>
       </c>
       <c r="Q20">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="R20">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S20">
         <v>3</v>
       </c>
       <c r="T20">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:28">
@@ -2229,16 +2244,16 @@
         <v>6848348</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2">
         <v>45164.5625</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2247,7 +2262,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>2.8</v>
@@ -2315,16 +2330,16 @@
         <v>6848352</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D22" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -2333,7 +2348,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J22">
         <v>1.6</v>
@@ -2401,16 +2416,16 @@
         <v>6845661</v>
       </c>
       <c r="C23" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -2419,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J23">
         <v>2.4</v>
@@ -2487,16 +2502,16 @@
         <v>6845825</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D24" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2505,7 +2520,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J24">
         <v>3</v>
@@ -2573,17 +2588,17 @@
         <v>6848351</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D25" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
         <v>37</v>
       </c>
-      <c r="F25" t="s">
-        <v>32</v>
-      </c>
       <c r="G25">
         <v>0</v>
       </c>
@@ -2591,7 +2606,7 @@
         <v>2</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>4</v>
@@ -2659,16 +2674,16 @@
         <v>6848353</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>45171.45833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -2677,7 +2692,7 @@
         <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>1.8</v>
@@ -2742,64 +2757,64 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6848355</v>
+        <v>6848356</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J27">
-        <v>1.65</v>
+        <v>1.909</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L27">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M27">
         <v>1.5</v>
       </c>
       <c r="N27">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="O27">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="P27">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T27">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V27">
         <v>0.5</v>
@@ -2811,16 +2826,16 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z27">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB27">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2828,64 +2843,64 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6848356</v>
+        <v>6848355</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J28">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="K28">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M28">
         <v>1.5</v>
       </c>
       <c r="N28">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="O28">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="P28">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q28">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
         <v>0.5</v>
@@ -2897,16 +2912,16 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2914,49 +2929,49 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6845824</v>
+        <v>6845662</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G29">
         <v>2</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J29">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K29">
+        <v>3.5</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>1.727</v>
+      </c>
+      <c r="N29">
+        <v>3.8</v>
+      </c>
+      <c r="O29">
         <v>4</v>
       </c>
-      <c r="L29">
-        <v>5.5</v>
-      </c>
-      <c r="M29">
-        <v>1.4</v>
-      </c>
-      <c r="N29">
-        <v>4.2</v>
-      </c>
-      <c r="O29">
-        <v>6.5</v>
-      </c>
       <c r="P29">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q29">
         <v>1.925</v>
@@ -2968,31 +2983,31 @@
         <v>2.75</v>
       </c>
       <c r="T29">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U29">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V29">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AA29">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3000,10 +3015,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6848354</v>
+        <v>6845824</v>
       </c>
       <c r="C30" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2">
         <v>45185.45833333334</v>
@@ -3012,55 +3027,55 @@
         <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J30">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="K30">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L30">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="M30">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="N30">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="O30">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="P30">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q30">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R30">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S30">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T30">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="U30">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.7</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W30">
         <v>-1</v>
@@ -3069,16 +3084,16 @@
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>0.4125</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3086,85 +3101,85 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6845662</v>
+        <v>6848354</v>
       </c>
       <c r="C31" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D31" s="2">
         <v>45185.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J31">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K31">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L31">
+        <v>2.6</v>
+      </c>
+      <c r="M31">
+        <v>2.7</v>
+      </c>
+      <c r="N31">
+        <v>3.3</v>
+      </c>
+      <c r="O31">
+        <v>2.4</v>
+      </c>
+      <c r="P31">
+        <v>0.25</v>
+      </c>
+      <c r="Q31">
+        <v>1.9</v>
+      </c>
+      <c r="R31">
+        <v>1.95</v>
+      </c>
+      <c r="S31">
         <v>3</v>
       </c>
-      <c r="M31">
-        <v>1.727</v>
-      </c>
-      <c r="N31">
-        <v>3.8</v>
-      </c>
-      <c r="O31">
-        <v>4</v>
-      </c>
-      <c r="P31">
-        <v>-0.75</v>
-      </c>
-      <c r="Q31">
-        <v>1.925</v>
-      </c>
-      <c r="R31">
-        <v>1.875</v>
-      </c>
-      <c r="S31">
-        <v>2.75</v>
-      </c>
       <c r="T31">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U31">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V31">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="W31">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z31">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3175,16 +3190,16 @@
         <v>6845663</v>
       </c>
       <c r="C32" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D32" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G32">
         <v>2</v>
@@ -3193,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="I32" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J32">
         <v>3.3</v>
@@ -3261,16 +3276,16 @@
         <v>6848357</v>
       </c>
       <c r="C33" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D33" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3279,7 +3294,7 @@
         <v>1</v>
       </c>
       <c r="I33" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J33">
         <v>2.25</v>
@@ -3347,16 +3362,16 @@
         <v>6848359</v>
       </c>
       <c r="C34" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D34" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3365,7 +3380,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J34">
         <v>2.2</v>
@@ -3433,16 +3448,16 @@
         <v>6845823</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D35" s="2">
         <v>45192.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3451,7 +3466,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>2.7</v>
@@ -3519,16 +3534,16 @@
         <v>6848358</v>
       </c>
       <c r="C36" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D36" s="2">
         <v>45192.5625</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3537,7 +3552,7 @@
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J36">
         <v>3.6</v>
@@ -3605,16 +3620,16 @@
         <v>6845822</v>
       </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D37" s="2">
         <v>45198.65625</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -3623,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J37">
         <v>1.444</v>
@@ -3691,16 +3706,16 @@
         <v>6848360</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D38" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3709,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J38">
         <v>1.727</v>
@@ -3777,16 +3792,16 @@
         <v>6848362</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D39" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E39" t="s">
+        <v>40</v>
+      </c>
+      <c r="F39" t="s">
         <v>35</v>
-      </c>
-      <c r="F39" t="s">
-        <v>30</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -3795,7 +3810,7 @@
         <v>1</v>
       </c>
       <c r="I39" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J39">
         <v>2.25</v>
@@ -3863,16 +3878,16 @@
         <v>6848361</v>
       </c>
       <c r="C40" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D40" s="2">
         <v>45199.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -3881,7 +3896,7 @@
         <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J40">
         <v>1.5</v>
@@ -3949,16 +3964,16 @@
         <v>6845664</v>
       </c>
       <c r="C41" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D41" s="2">
         <v>45199.5625</v>
       </c>
       <c r="E41" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -3967,7 +3982,7 @@
         <v>2</v>
       </c>
       <c r="I41" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J41">
         <v>2.1</v>
@@ -4035,16 +4050,16 @@
         <v>6848364</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D42" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G42">
         <v>2</v>
@@ -4053,7 +4068,7 @@
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J42">
         <v>1.85</v>
@@ -4121,16 +4136,16 @@
         <v>6848363</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4139,7 +4154,7 @@
         <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>2.9</v>
@@ -4207,16 +4222,16 @@
         <v>6848365</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -4225,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="I44" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J44">
         <v>2.15</v>
@@ -4293,16 +4308,16 @@
         <v>6845665</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2">
         <v>45206.45833333334</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4311,7 +4326,7 @@
         <v>2</v>
       </c>
       <c r="I45" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J45">
         <v>1.75</v>
@@ -4379,16 +4394,16 @@
         <v>6845821</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2">
         <v>45206.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4397,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J46">
         <v>2.2</v>
@@ -4465,16 +4480,16 @@
         <v>6845820</v>
       </c>
       <c r="C47" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D47" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4483,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="I47" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J47">
         <v>1.181</v>
@@ -4551,16 +4566,16 @@
         <v>6848366</v>
       </c>
       <c r="C48" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D48" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F48" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4569,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J48">
         <v>2.1</v>
@@ -4637,16 +4652,16 @@
         <v>6848367</v>
       </c>
       <c r="C49" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D49" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4655,7 +4670,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J49">
         <v>2.1</v>
@@ -4723,16 +4738,16 @@
         <v>6848368</v>
       </c>
       <c r="C50" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D50" s="2">
         <v>45220.45833333334</v>
       </c>
       <c r="E50" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -4741,7 +4756,7 @@
         <v>2</v>
       </c>
       <c r="I50" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J50">
         <v>4.333</v>
@@ -4809,16 +4824,16 @@
         <v>6848370</v>
       </c>
       <c r="C51" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D51" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G51">
         <v>3</v>
@@ -4827,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J51">
         <v>1.2</v>
@@ -4895,16 +4910,16 @@
         <v>6845667</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D52" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F52" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G52">
         <v>0</v>
@@ -4913,7 +4928,7 @@
         <v>1</v>
       </c>
       <c r="I52" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J52">
         <v>2.625</v>
@@ -4981,16 +4996,16 @@
         <v>6848369</v>
       </c>
       <c r="C53" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -4999,7 +5014,7 @@
         <v>2</v>
       </c>
       <c r="I53" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J53">
         <v>3.2</v>
@@ -5067,16 +5082,16 @@
         <v>6848371</v>
       </c>
       <c r="C54" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2">
         <v>45227.45833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5085,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J54">
         <v>2.25</v>
@@ -5153,16 +5168,16 @@
         <v>6845819</v>
       </c>
       <c r="C55" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2">
         <v>45227.5625</v>
       </c>
       <c r="E55" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5171,7 +5186,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J55">
         <v>4.5</v>
@@ -5239,16 +5254,16 @@
         <v>6848374</v>
       </c>
       <c r="C56" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D56" s="2">
         <v>45234.5</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5257,7 +5272,7 @@
         <v>1</v>
       </c>
       <c r="I56" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J56">
         <v>4</v>
@@ -5325,16 +5340,16 @@
         <v>6848373</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D57" s="2">
         <v>45234.5</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5343,7 +5358,7 @@
         <v>5</v>
       </c>
       <c r="I57" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J57">
         <v>3.1</v>
@@ -5411,16 +5426,16 @@
         <v>6848372</v>
       </c>
       <c r="C58" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D58" s="2">
         <v>45234.5</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5429,7 +5444,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J58">
         <v>2.45</v>
@@ -5497,16 +5512,16 @@
         <v>6845818</v>
       </c>
       <c r="C59" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D59" s="2">
         <v>45234.5</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5515,7 +5530,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J59">
         <v>2.7</v>
@@ -5583,16 +5598,16 @@
         <v>6848375</v>
       </c>
       <c r="C60" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D60" s="2">
         <v>45234.5</v>
       </c>
       <c r="E60" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5601,7 +5616,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J60">
         <v>2.1</v>
@@ -5669,16 +5684,16 @@
         <v>6845668</v>
       </c>
       <c r="C61" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2">
         <v>45241.5</v>
       </c>
       <c r="E61" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G61">
         <v>0</v>
@@ -5687,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J61">
         <v>2.2</v>
@@ -5755,16 +5770,16 @@
         <v>6845817</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D62" s="2">
         <v>45241.5</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G62">
         <v>5</v>
@@ -5773,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J62">
         <v>1.4</v>
@@ -5841,16 +5856,16 @@
         <v>6848377</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D63" s="2">
         <v>45241.5</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5859,7 +5874,7 @@
         <v>1</v>
       </c>
       <c r="I63" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J63">
         <v>1.166</v>
@@ -5927,16 +5942,16 @@
         <v>6848376</v>
       </c>
       <c r="C64" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D64" s="2">
         <v>45241.5</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5945,7 +5960,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J64">
         <v>2.5</v>
@@ -6013,16 +6028,16 @@
         <v>6848378</v>
       </c>
       <c r="C65" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D65" s="2">
         <v>45241.5</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6031,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J65">
         <v>1.666</v>
@@ -6099,16 +6114,16 @@
         <v>7393864</v>
       </c>
       <c r="C66" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2">
         <v>45244.69791666666</v>
       </c>
       <c r="E66" t="s">
+        <v>41</v>
+      </c>
+      <c r="F66" t="s">
         <v>36</v>
-      </c>
-      <c r="F66" t="s">
-        <v>31</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6117,7 +6132,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J66">
         <v>1.85</v>
@@ -6185,16 +6200,16 @@
         <v>6848381</v>
       </c>
       <c r="C67" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2">
         <v>45248.5</v>
       </c>
       <c r="E67" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6203,7 +6218,7 @@
         <v>3</v>
       </c>
       <c r="I67" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J67">
         <v>2.4</v>
@@ -6271,16 +6286,16 @@
         <v>6845669</v>
       </c>
       <c r="C68" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D68" s="2">
         <v>45248.5</v>
       </c>
       <c r="E68" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6289,7 +6304,7 @@
         <v>1</v>
       </c>
       <c r="I68" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J68">
         <v>1.666</v>
@@ -6357,16 +6372,16 @@
         <v>6848379</v>
       </c>
       <c r="C69" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2">
         <v>45248.5</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -6375,7 +6390,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J69">
         <v>3.2</v>
@@ -6443,16 +6458,16 @@
         <v>7414972</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D70" s="2">
         <v>45258.69791666666</v>
       </c>
       <c r="E70" t="s">
+        <v>39</v>
+      </c>
+      <c r="F70" t="s">
         <v>34</v>
-      </c>
-      <c r="F70" t="s">
-        <v>29</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6461,7 +6476,7 @@
         <v>2</v>
       </c>
       <c r="I70" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J70">
         <v>6.5</v>
@@ -6529,16 +6544,16 @@
         <v>7392209</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D71" s="2">
         <v>45258.69791666666</v>
       </c>
       <c r="E71" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -6547,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J71">
         <v>6.5</v>
@@ -6615,16 +6630,16 @@
         <v>6845815</v>
       </c>
       <c r="C72" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D72" s="2">
         <v>45262.5</v>
       </c>
       <c r="E72" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G72">
         <v>5</v>
@@ -6633,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J72">
         <v>1.5</v>
@@ -6701,16 +6716,16 @@
         <v>6848385</v>
       </c>
       <c r="C73" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D73" s="2">
         <v>45269.5</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F73" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6719,7 +6734,7 @@
         <v>3</v>
       </c>
       <c r="I73" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J73">
         <v>2.75</v>
@@ -6787,16 +6802,16 @@
         <v>6848386</v>
       </c>
       <c r="C74" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2">
         <v>45269.5</v>
       </c>
       <c r="E74" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6805,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J74">
         <v>1.4</v>
@@ -6873,16 +6888,16 @@
         <v>6848387</v>
       </c>
       <c r="C75" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2">
         <v>45269.5</v>
       </c>
       <c r="E75" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6891,7 +6906,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J75">
         <v>2.1</v>
@@ -6959,16 +6974,16 @@
         <v>6845671</v>
       </c>
       <c r="C76" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2">
         <v>45269.5</v>
       </c>
       <c r="E76" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G76">
         <v>1</v>
@@ -6977,7 +6992,7 @@
         <v>3</v>
       </c>
       <c r="I76" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J76">
         <v>4</v>
@@ -7045,16 +7060,16 @@
         <v>6845814</v>
       </c>
       <c r="C77" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D77" s="2">
         <v>45269.5</v>
       </c>
       <c r="E77" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G77">
         <v>0</v>
@@ -7063,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J77">
         <v>4.75</v>
@@ -7131,16 +7146,16 @@
         <v>6848389</v>
       </c>
       <c r="C78" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D78" s="2">
         <v>45276.5</v>
       </c>
       <c r="E78" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7149,7 +7164,7 @@
         <v>1</v>
       </c>
       <c r="I78" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J78">
         <v>1.333</v>
@@ -7217,16 +7232,16 @@
         <v>6848390</v>
       </c>
       <c r="C79" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D79" s="2">
         <v>45276.5</v>
       </c>
       <c r="E79" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F79" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7235,7 +7250,7 @@
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J79">
         <v>2.15</v>
@@ -7303,16 +7318,16 @@
         <v>6845672</v>
       </c>
       <c r="C80" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D80" s="2">
         <v>45276.5</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7321,7 +7336,7 @@
         <v>2</v>
       </c>
       <c r="I80" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J80">
         <v>1.571</v>
@@ -7389,16 +7404,16 @@
         <v>6845813</v>
       </c>
       <c r="C81" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D81" s="2">
         <v>45276.5</v>
       </c>
       <c r="E81" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7407,7 +7422,7 @@
         <v>3</v>
       </c>
       <c r="I81" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J81">
         <v>2.375</v>
@@ -7475,16 +7490,16 @@
         <v>6848388</v>
       </c>
       <c r="C82" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D82" s="2">
         <v>45276.5</v>
       </c>
       <c r="E82" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -7493,7 +7508,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J82">
         <v>2.1</v>
@@ -7561,16 +7576,16 @@
         <v>6848391</v>
       </c>
       <c r="C83" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D83" s="2">
         <v>45283.5</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -7579,7 +7594,7 @@
         <v>2</v>
       </c>
       <c r="I83" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J83">
         <v>2.5</v>
@@ -7647,16 +7662,16 @@
         <v>6848393</v>
       </c>
       <c r="C84" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D84" s="2">
         <v>45283.5</v>
       </c>
       <c r="E84" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7665,7 +7680,7 @@
         <v>1</v>
       </c>
       <c r="I84" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J84">
         <v>2.1</v>
@@ -7733,16 +7748,16 @@
         <v>6848392</v>
       </c>
       <c r="C85" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D85" s="2">
         <v>45283.5</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7751,7 +7766,7 @@
         <v>3</v>
       </c>
       <c r="I85" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J85">
         <v>6</v>
@@ -7819,16 +7834,16 @@
         <v>6845812</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2">
         <v>45283.5</v>
       </c>
       <c r="E86" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7837,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J86">
         <v>1.4</v>
@@ -7905,16 +7920,16 @@
         <v>6845673</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2">
         <v>45283.52083333334</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G87">
         <v>7</v>
@@ -7923,7 +7938,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J87">
         <v>1.083</v>
@@ -7991,16 +8006,16 @@
         <v>6848396</v>
       </c>
       <c r="C88" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D88" s="2">
         <v>45290.5</v>
       </c>
       <c r="E88" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8009,7 +8024,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J88">
         <v>1.833</v>
@@ -8077,16 +8092,16 @@
         <v>6848394</v>
       </c>
       <c r="C89" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D89" s="2">
         <v>45290.5</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F89" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G89">
         <v>5</v>
@@ -8095,7 +8110,7 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J89">
         <v>1.285</v>
@@ -8163,16 +8178,16 @@
         <v>6845811</v>
       </c>
       <c r="C90" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D90" s="2">
         <v>45290.5</v>
       </c>
       <c r="E90" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8181,7 +8196,7 @@
         <v>5</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J90">
         <v>9</v>
@@ -8249,16 +8264,16 @@
         <v>6845674</v>
       </c>
       <c r="C91" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D91" s="2">
         <v>45290.5</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8267,7 +8282,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J91">
         <v>2.55</v>
@@ -8335,16 +8350,16 @@
         <v>6848399</v>
       </c>
       <c r="C92" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D92" s="2">
         <v>45297.5</v>
       </c>
       <c r="E92" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8353,7 +8368,7 @@
         <v>0</v>
       </c>
       <c r="I92" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J92">
         <v>1.333</v>
@@ -8421,16 +8436,16 @@
         <v>6845675</v>
       </c>
       <c r="C93" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D93" s="2">
         <v>45297.5</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G93">
         <v>2</v>
@@ -8439,7 +8454,7 @@
         <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J93">
         <v>1.666</v>
@@ -8507,16 +8522,16 @@
         <v>6848398</v>
       </c>
       <c r="C94" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D94" s="2">
         <v>45297.5</v>
       </c>
       <c r="E94" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8525,7 +8540,7 @@
         <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J94">
         <v>3.4</v>
@@ -8593,16 +8608,16 @@
         <v>6848397</v>
       </c>
       <c r="C95" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D95" s="2">
         <v>45297.5</v>
       </c>
       <c r="E95" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F95" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G95">
         <v>3</v>
@@ -8611,7 +8626,7 @@
         <v>1</v>
       </c>
       <c r="I95" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J95">
         <v>1.05</v>
@@ -8679,16 +8694,16 @@
         <v>7564856</v>
       </c>
       <c r="C96" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D96" s="2">
         <v>45300.69791666666</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G96">
         <v>4</v>
@@ -8697,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J96">
         <v>1.444</v>
@@ -8765,16 +8780,16 @@
         <v>6848403</v>
       </c>
       <c r="C97" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D97" s="2">
         <v>45304.5</v>
       </c>
       <c r="E97" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8783,7 +8798,7 @@
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J97">
         <v>2</v>
@@ -8851,16 +8866,16 @@
         <v>6848402</v>
       </c>
       <c r="C98" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D98" s="2">
         <v>45304.5</v>
       </c>
       <c r="E98" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F98" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G98">
         <v>0</v>
@@ -8869,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J98">
         <v>1.8</v>
@@ -8937,16 +8952,16 @@
         <v>6848401</v>
       </c>
       <c r="C99" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D99" s="2">
         <v>45304.5</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F99" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8955,7 +8970,7 @@
         <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J99">
         <v>1.666</v>
@@ -9023,16 +9038,16 @@
         <v>6845809</v>
       </c>
       <c r="C100" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D100" s="2">
         <v>45304.5</v>
       </c>
       <c r="E100" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G100">
         <v>2</v>
@@ -9041,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J100">
         <v>1.666</v>
@@ -9109,17 +9124,17 @@
         <v>6848400</v>
       </c>
       <c r="C101" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D101" s="2">
         <v>45304.52083333334</v>
       </c>
       <c r="E101" t="s">
+        <v>42</v>
+      </c>
+      <c r="F101" t="s">
         <v>37</v>
       </c>
-      <c r="F101" t="s">
-        <v>32</v>
-      </c>
       <c r="G101">
         <v>2</v>
       </c>
@@ -9127,7 +9142,7 @@
         <v>2</v>
       </c>
       <c r="I101" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J101">
         <v>26</v>
@@ -9195,16 +9210,16 @@
         <v>6848406</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D102" s="2">
         <v>45318.5</v>
       </c>
       <c r="E102" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G102">
         <v>5</v>
@@ -9213,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J102">
         <v>2.4</v>
@@ -9281,16 +9296,16 @@
         <v>6848405</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D103" s="2">
         <v>45318.5</v>
       </c>
       <c r="E103" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G103">
         <v>3</v>
@@ -9299,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J103">
         <v>1.444</v>
@@ -9367,16 +9382,16 @@
         <v>6848404</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D104" s="2">
         <v>45318.5</v>
       </c>
       <c r="E104" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9385,7 +9400,7 @@
         <v>5</v>
       </c>
       <c r="I104" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J104">
         <v>6</v>
@@ -9453,16 +9468,16 @@
         <v>6845808</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D105" s="2">
         <v>45318.5</v>
       </c>
       <c r="E105" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F105" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -9471,7 +9486,7 @@
         <v>1</v>
       </c>
       <c r="I105" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J105">
         <v>1.4</v>
@@ -9539,16 +9554,16 @@
         <v>6845676</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D106" s="2">
         <v>45318.5</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -9557,7 +9572,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J106">
         <v>1.666</v>
@@ -9625,16 +9640,16 @@
         <v>6845677</v>
       </c>
       <c r="C107" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D107" s="2">
         <v>45325.5</v>
       </c>
       <c r="E107" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9643,7 +9658,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J107">
         <v>3.5</v>
@@ -9711,16 +9726,16 @@
         <v>6845807</v>
       </c>
       <c r="C108" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D108" s="2">
         <v>45325.5</v>
       </c>
       <c r="E108" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F108" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9729,7 +9744,7 @@
         <v>2</v>
       </c>
       <c r="I108" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J108">
         <v>5.5</v>
@@ -9794,85 +9809,85 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>6848408</v>
+        <v>6848407</v>
       </c>
       <c r="C109" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D109" s="2">
         <v>45325.5</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F109" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H109">
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J109">
-        <v>9</v>
+        <v>2.625</v>
       </c>
       <c r="K109">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="L109">
-        <v>1.222</v>
+        <v>2.25</v>
       </c>
       <c r="M109">
-        <v>7</v>
+        <v>2.7</v>
       </c>
       <c r="N109">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="O109">
+        <v>2.25</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109">
+        <v>2.025</v>
+      </c>
+      <c r="R109">
+        <v>1.775</v>
+      </c>
+      <c r="S109">
+        <v>2.75</v>
+      </c>
+      <c r="T109">
+        <v>1.9</v>
+      </c>
+      <c r="U109">
+        <v>1.9</v>
+      </c>
+      <c r="V109">
+        <v>-1</v>
+      </c>
+      <c r="W109">
+        <v>-1</v>
+      </c>
+      <c r="X109">
         <v>1.25</v>
       </c>
-      <c r="P109">
-        <v>1.75</v>
-      </c>
-      <c r="Q109">
-        <v>1.9</v>
-      </c>
-      <c r="R109">
-        <v>1.9</v>
-      </c>
-      <c r="S109">
-        <v>3.5</v>
-      </c>
-      <c r="T109">
-        <v>1.925</v>
-      </c>
-      <c r="U109">
-        <v>1.875</v>
-      </c>
-      <c r="V109">
-        <v>-1</v>
-      </c>
-      <c r="W109">
-        <v>-1</v>
-      </c>
-      <c r="X109">
-        <v>0.25</v>
-      </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA109">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AA109">
-        <v>-1</v>
-      </c>
       <c r="AB109">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -9880,64 +9895,64 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6848407</v>
+        <v>6848408</v>
       </c>
       <c r="C110" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D110" s="2">
         <v>45325.5</v>
       </c>
       <c r="E110" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H110">
         <v>3</v>
       </c>
       <c r="I110" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J110">
-        <v>2.625</v>
+        <v>9</v>
       </c>
       <c r="K110">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="L110">
-        <v>2.25</v>
+        <v>1.222</v>
       </c>
       <c r="M110">
-        <v>2.7</v>
+        <v>7</v>
       </c>
       <c r="N110">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="O110">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="P110">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="Q110">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="R110">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S110">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="T110">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U110">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
         <v>-1</v>
@@ -9946,19 +9961,19 @@
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0.7749999999999999</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA110">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -9969,16 +9984,16 @@
         <v>7737668</v>
       </c>
       <c r="C111" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D111" s="2">
         <v>45328.69791666666</v>
       </c>
       <c r="E111" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9987,7 +10002,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J111">
         <v>2.3</v>
@@ -10055,16 +10070,16 @@
         <v>6845806</v>
       </c>
       <c r="C112" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D112" s="2">
         <v>45332.5</v>
       </c>
       <c r="E112" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G112">
         <v>2</v>
@@ -10073,7 +10088,7 @@
         <v>3</v>
       </c>
       <c r="I112" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J112">
         <v>1.2</v>
@@ -10141,16 +10156,16 @@
         <v>6848410</v>
       </c>
       <c r="C113" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D113" s="2">
         <v>45332.5</v>
       </c>
       <c r="E113" t="s">
+        <v>38</v>
+      </c>
+      <c r="F113" t="s">
         <v>33</v>
-      </c>
-      <c r="F113" t="s">
-        <v>28</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10159,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J113">
         <v>2</v>
@@ -10227,17 +10242,17 @@
         <v>6848411</v>
       </c>
       <c r="C114" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D114" s="2">
         <v>45332.5</v>
       </c>
       <c r="E114" t="s">
+        <v>40</v>
+      </c>
+      <c r="F114" t="s">
         <v>35</v>
       </c>
-      <c r="F114" t="s">
-        <v>30</v>
-      </c>
       <c r="G114">
         <v>0</v>
       </c>
@@ -10245,7 +10260,7 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J114">
         <v>2.25</v>
@@ -10313,16 +10328,16 @@
         <v>6848412</v>
       </c>
       <c r="C115" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D115" s="2">
         <v>45332.5</v>
       </c>
       <c r="E115" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G115">
         <v>3</v>
@@ -10331,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J115">
         <v>1.1</v>
@@ -10399,16 +10414,16 @@
         <v>7572536</v>
       </c>
       <c r="C116" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D116" s="2">
         <v>45335.69791666666</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10417,7 +10432,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J116">
         <v>1.727</v>
@@ -10485,16 +10500,16 @@
         <v>7705415</v>
       </c>
       <c r="C117" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D117" s="2">
         <v>45335.69791666666</v>
       </c>
       <c r="E117" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G117">
         <v>3</v>
@@ -10503,7 +10518,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J117">
         <v>1.125</v>
@@ -10571,16 +10586,16 @@
         <v>6848415</v>
       </c>
       <c r="C118" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D118" s="2">
         <v>45339.5</v>
       </c>
       <c r="E118" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G118">
         <v>4</v>
@@ -10589,7 +10604,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J118">
         <v>2.1</v>
@@ -10657,16 +10672,16 @@
         <v>6848414</v>
       </c>
       <c r="C119" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D119" s="2">
         <v>45339.5</v>
       </c>
       <c r="E119" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10675,7 +10690,7 @@
         <v>1</v>
       </c>
       <c r="I119" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J119">
         <v>10</v>
@@ -10743,16 +10758,16 @@
         <v>6848413</v>
       </c>
       <c r="C120" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D120" s="2">
         <v>45339.5</v>
       </c>
       <c r="E120" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G120">
         <v>2</v>
@@ -10761,7 +10776,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J120">
         <v>2.6</v>
@@ -10829,16 +10844,16 @@
         <v>6845805</v>
       </c>
       <c r="C121" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D121" s="2">
         <v>45339.5</v>
       </c>
       <c r="E121" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10847,7 +10862,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J121">
         <v>2</v>
@@ -10915,16 +10930,16 @@
         <v>6845679</v>
       </c>
       <c r="C122" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D122" s="2">
         <v>45339.5</v>
       </c>
       <c r="E122" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F122" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G122">
         <v>4</v>
@@ -10933,7 +10948,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J122">
         <v>2.25</v>
@@ -11001,16 +11016,16 @@
         <v>7746295</v>
       </c>
       <c r="C123" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D123" s="2">
         <v>45342.69791666666</v>
       </c>
       <c r="E123" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F123" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G123">
         <v>3</v>
@@ -11019,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J123">
         <v>1.25</v>
@@ -11087,16 +11102,16 @@
         <v>6848419</v>
       </c>
       <c r="C124" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D124" s="2">
         <v>45346.5</v>
       </c>
       <c r="E124" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F124" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G124">
         <v>4</v>
@@ -11105,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="I124" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J124">
         <v>1.166</v>
@@ -11173,16 +11188,16 @@
         <v>6845804</v>
       </c>
       <c r="C125" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D125" s="2">
         <v>45346.5</v>
       </c>
       <c r="E125" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G125">
         <v>1</v>
@@ -11191,7 +11206,7 @@
         <v>2</v>
       </c>
       <c r="I125" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J125">
         <v>1.4</v>
@@ -11259,16 +11274,16 @@
         <v>6848416</v>
       </c>
       <c r="C126" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D126" s="2">
         <v>45346.5</v>
       </c>
       <c r="E126" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G126">
         <v>2</v>
@@ -11277,7 +11292,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J126">
         <v>1.666</v>
@@ -11345,16 +11360,16 @@
         <v>6848417</v>
       </c>
       <c r="C127" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D127" s="2">
         <v>45346.5</v>
       </c>
       <c r="E127" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F127" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -11363,7 +11378,7 @@
         <v>1</v>
       </c>
       <c r="I127" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J127">
         <v>5.5</v>
@@ -11431,16 +11446,16 @@
         <v>6848418</v>
       </c>
       <c r="C128" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D128" s="2">
         <v>45346.60416666666</v>
       </c>
       <c r="E128" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F128" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11449,7 +11464,7 @@
         <v>3</v>
       </c>
       <c r="I128" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -11517,16 +11532,16 @@
         <v>7752946</v>
       </c>
       <c r="C129" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D129" s="2">
         <v>45349.69791666666</v>
       </c>
       <c r="E129" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11535,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J129">
         <v>5</v>
@@ -11603,16 +11618,16 @@
         <v>6920595</v>
       </c>
       <c r="C130" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D130" s="2">
         <v>45353.5</v>
       </c>
       <c r="E130" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F130" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G130">
         <v>4</v>
@@ -11621,7 +11636,7 @@
         <v>3</v>
       </c>
       <c r="I130" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J130">
         <v>2.15</v>
@@ -11689,16 +11704,16 @@
         <v>6937668</v>
       </c>
       <c r="C131" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D131" s="2">
         <v>45353.5</v>
       </c>
       <c r="E131" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F131" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G131">
         <v>1</v>
@@ -11707,7 +11722,7 @@
         <v>1</v>
       </c>
       <c r="I131" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J131">
         <v>1.166</v>
@@ -11775,16 +11790,16 @@
         <v>6937667</v>
       </c>
       <c r="C132" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D132" s="2">
         <v>45353.5</v>
       </c>
       <c r="E132" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -11793,7 +11808,7 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J132">
         <v>6.5</v>
@@ -11861,16 +11876,16 @@
         <v>6921319</v>
       </c>
       <c r="C133" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D133" s="2">
         <v>45353.5</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F133" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G133">
         <v>2</v>
@@ -11879,7 +11894,7 @@
         <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J133">
         <v>1.95</v>
@@ -11947,16 +11962,16 @@
         <v>6920622</v>
       </c>
       <c r="C134" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D134" s="2">
         <v>45353.5</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -11965,7 +11980,7 @@
         <v>5</v>
       </c>
       <c r="I134" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J134">
         <v>4</v>
@@ -12033,16 +12048,16 @@
         <v>7782706</v>
       </c>
       <c r="C135" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D135" s="2">
         <v>45356.69791666666</v>
       </c>
       <c r="E135" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12051,7 +12066,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J135">
         <v>5.5</v>
@@ -12119,16 +12134,16 @@
         <v>6936981</v>
       </c>
       <c r="C136" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D136" s="2">
         <v>45360.5</v>
       </c>
       <c r="E136" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12137,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J136">
         <v>1.111</v>
@@ -12205,16 +12220,16 @@
         <v>6937670</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D137" s="2">
         <v>45360.5</v>
       </c>
       <c r="E137" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12223,7 +12238,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J137">
         <v>7</v>
@@ -12291,16 +12306,16 @@
         <v>6937669</v>
       </c>
       <c r="C138" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D138" s="2">
         <v>45360.5</v>
       </c>
       <c r="E138" t="s">
+        <v>41</v>
+      </c>
+      <c r="F138" t="s">
         <v>36</v>
-      </c>
-      <c r="F138" t="s">
-        <v>31</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12309,7 +12324,7 @@
         <v>4</v>
       </c>
       <c r="I138" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J138">
         <v>1.727</v>
@@ -12377,16 +12392,16 @@
         <v>6944520</v>
       </c>
       <c r="C139" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D139" s="2">
         <v>45360.5</v>
       </c>
       <c r="E139" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F139" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -12395,7 +12410,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J139">
         <v>1.909</v>
@@ -12463,16 +12478,16 @@
         <v>6958683</v>
       </c>
       <c r="C140" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D140" s="2">
         <v>45360.5</v>
       </c>
       <c r="E140" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12481,7 +12496,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J140">
         <v>2.375</v>
@@ -12549,16 +12564,16 @@
         <v>6974333</v>
       </c>
       <c r="C141" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D141" s="2">
         <v>45367.5</v>
       </c>
       <c r="E141" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G141">
         <v>0</v>
@@ -12567,7 +12582,7 @@
         <v>1</v>
       </c>
       <c r="I141" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J141">
         <v>2.55</v>
@@ -12635,16 +12650,16 @@
         <v>6974332</v>
       </c>
       <c r="C142" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D142" s="2">
         <v>45367.5</v>
       </c>
       <c r="E142" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F142" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -12653,7 +12668,7 @@
         <v>5</v>
       </c>
       <c r="I142" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J142">
         <v>10</v>
@@ -12721,16 +12736,16 @@
         <v>6958685</v>
       </c>
       <c r="C143" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D143" s="2">
         <v>45367.5</v>
       </c>
       <c r="E143" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -12739,7 +12754,7 @@
         <v>1</v>
       </c>
       <c r="I143" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J143">
         <v>1.615</v>
@@ -12807,16 +12822,16 @@
         <v>6958684</v>
       </c>
       <c r="C144" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D144" s="2">
         <v>45367.5</v>
       </c>
       <c r="E144" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -12825,7 +12840,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J144">
         <v>1.25</v>
@@ -12893,16 +12908,16 @@
         <v>6974334</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D145" s="2">
         <v>45367.60416666666</v>
       </c>
       <c r="E145" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12911,7 +12926,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J145">
         <v>8</v>
@@ -12979,16 +12994,16 @@
         <v>7752947</v>
       </c>
       <c r="C146" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D146" s="2">
         <v>45370.69791666666</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -12997,7 +13012,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J146">
         <v>2.6</v>
@@ -13065,16 +13080,16 @@
         <v>6994939</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D147" s="2">
         <v>45374.5</v>
       </c>
       <c r="E147" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13083,7 +13098,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J147">
         <v>2.625</v>
@@ -13151,16 +13166,16 @@
         <v>6994937</v>
       </c>
       <c r="C148" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D148" s="2">
         <v>45374.5</v>
       </c>
       <c r="E148" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F148" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13169,7 +13184,7 @@
         <v>3</v>
       </c>
       <c r="I148" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J148">
         <v>3.3</v>
@@ -13237,16 +13252,16 @@
         <v>6994938</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D149" s="2">
         <v>45374.5</v>
       </c>
       <c r="E149" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F149" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G149">
         <v>4</v>
@@ -13255,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J149">
         <v>1.04</v>
@@ -13323,16 +13338,16 @@
         <v>6994936</v>
       </c>
       <c r="C150" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D150" s="2">
         <v>45374.5</v>
       </c>
       <c r="E150" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F150" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13341,7 +13356,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J150">
         <v>2.3</v>
@@ -13409,16 +13424,16 @@
         <v>6994678</v>
       </c>
       <c r="C151" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D151" s="2">
         <v>45374.5</v>
       </c>
       <c r="E151" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -13427,7 +13442,7 @@
         <v>2</v>
       </c>
       <c r="I151" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J151">
         <v>1.909</v>
@@ -13495,16 +13510,16 @@
         <v>7024094</v>
       </c>
       <c r="C152" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D152" s="2">
         <v>45381.5</v>
       </c>
       <c r="E152" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G152">
         <v>3</v>
@@ -13513,7 +13528,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J152">
         <v>1.3</v>
@@ -13581,16 +13596,16 @@
         <v>7024093</v>
       </c>
       <c r="C153" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D153" s="2">
         <v>45381.5</v>
       </c>
       <c r="E153" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13599,7 +13614,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J153">
         <v>1.363</v>
@@ -13667,16 +13682,16 @@
         <v>7024091</v>
       </c>
       <c r="C154" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D154" s="2">
         <v>45381.5</v>
       </c>
       <c r="E154" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13685,7 +13700,7 @@
         <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J154">
         <v>1.8</v>
@@ -13753,16 +13768,16 @@
         <v>7024092</v>
       </c>
       <c r="C155" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D155" s="2">
         <v>45381.5</v>
       </c>
       <c r="E155" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F155" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G155">
         <v>4</v>
@@ -13771,7 +13786,7 @@
         <v>2</v>
       </c>
       <c r="I155" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J155">
         <v>1.75</v>
@@ -13839,16 +13854,16 @@
         <v>7024095</v>
       </c>
       <c r="C156" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D156" s="2">
         <v>45381.60416666666</v>
       </c>
       <c r="E156" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F156" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13857,7 +13872,7 @@
         <v>7</v>
       </c>
       <c r="I156" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J156">
         <v>4.75</v>
@@ -13925,16 +13940,16 @@
         <v>7060654</v>
       </c>
       <c r="C157" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D157" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -13943,7 +13958,7 @@
         <v>5</v>
       </c>
       <c r="I157" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J157">
         <v>2.75</v>
@@ -14011,16 +14026,16 @@
         <v>7060651</v>
       </c>
       <c r="C158" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D158" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E158" t="s">
+        <v>39</v>
+      </c>
+      <c r="F158" t="s">
         <v>34</v>
-      </c>
-      <c r="F158" t="s">
-        <v>29</v>
       </c>
       <c r="G158">
         <v>1</v>
@@ -14029,7 +14044,7 @@
         <v>3</v>
       </c>
       <c r="I158" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J158">
         <v>3.75</v>
@@ -14097,16 +14112,16 @@
         <v>7060652</v>
       </c>
       <c r="C159" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D159" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G159">
         <v>0</v>
@@ -14115,7 +14130,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J159">
         <v>13</v>
@@ -14183,16 +14198,16 @@
         <v>7060491</v>
       </c>
       <c r="C160" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D160" s="2">
         <v>45388.45833333334</v>
       </c>
       <c r="E160" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G160">
         <v>1</v>
@@ -14201,7 +14216,7 @@
         <v>2</v>
       </c>
       <c r="I160" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J160">
         <v>2.2</v>
@@ -14269,16 +14284,16 @@
         <v>7060653</v>
       </c>
       <c r="C161" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D161" s="2">
         <v>45388.5625</v>
       </c>
       <c r="E161" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G161">
         <v>5</v>
@@ -14287,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J161">
         <v>1.571</v>
@@ -14355,16 +14370,16 @@
         <v>7128383</v>
       </c>
       <c r="C162" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D162" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14373,7 +14388,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J162">
         <v>1.111</v>
@@ -14441,16 +14456,16 @@
         <v>7107442</v>
       </c>
       <c r="C163" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D163" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F163" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G163">
         <v>1</v>
@@ -14459,7 +14474,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J163">
         <v>2</v>
@@ -14524,85 +14539,85 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7128380</v>
+        <v>7128381</v>
       </c>
       <c r="C164" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D164" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F164" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G164">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J164">
-        <v>2.1</v>
+        <v>2.95</v>
       </c>
       <c r="K164">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L164">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="M164">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N164">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O164">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="P164">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q164">
+        <v>1.875</v>
+      </c>
+      <c r="R164">
         <v>1.975</v>
       </c>
-      <c r="R164">
-        <v>1.875</v>
-      </c>
       <c r="S164">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T164">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U164">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V164">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W164">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X164">
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z164">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB164">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:28">
@@ -14610,85 +14625,85 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7128381</v>
+        <v>7128380</v>
       </c>
       <c r="C165" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D165" s="2">
         <v>45395.45833333334</v>
       </c>
       <c r="E165" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F165" t="s">
         <v>36</v>
       </c>
       <c r="G165">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J165">
-        <v>2.95</v>
+        <v>2.1</v>
       </c>
       <c r="K165">
+        <v>3.7</v>
+      </c>
+      <c r="L165">
+        <v>2.875</v>
+      </c>
+      <c r="M165">
+        <v>2.15</v>
+      </c>
+      <c r="N165">
         <v>3.75</v>
       </c>
-      <c r="L165">
-        <v>2.05</v>
-      </c>
-      <c r="M165">
-        <v>2.3</v>
-      </c>
-      <c r="N165">
-        <v>3.8</v>
-      </c>
       <c r="O165">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="P165">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q165">
+        <v>1.975</v>
+      </c>
+      <c r="R165">
         <v>1.875</v>
       </c>
-      <c r="R165">
-        <v>1.975</v>
-      </c>
       <c r="S165">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T165">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U165">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V165">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA165">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:28">
@@ -14699,16 +14714,16 @@
         <v>7128382</v>
       </c>
       <c r="C166" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D166" s="2">
         <v>45395.5625</v>
       </c>
       <c r="E166" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F166" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14717,7 +14732,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J166">
         <v>2.625</v>
@@ -14785,16 +14800,16 @@
         <v>8074738</v>
       </c>
       <c r="C167" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D167" s="2">
         <v>45398.65625</v>
       </c>
       <c r="E167" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F167" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14803,7 +14818,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J167">
         <v>11</v>
@@ -14871,16 +14886,16 @@
         <v>7157543</v>
       </c>
       <c r="C168" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D168" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F168" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -14889,7 +14904,7 @@
         <v>2</v>
       </c>
       <c r="I168" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J168">
         <v>4.333</v>
@@ -14957,16 +14972,16 @@
         <v>7157542</v>
       </c>
       <c r="C169" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D169" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E169" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -14975,7 +14990,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J169">
         <v>1.2</v>
@@ -15043,16 +15058,16 @@
         <v>7128384</v>
       </c>
       <c r="C170" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D170" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G170">
         <v>0</v>
@@ -15061,7 +15076,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J170">
         <v>2.25</v>
@@ -15129,16 +15144,16 @@
         <v>7157541</v>
       </c>
       <c r="C171" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D171" s="2">
         <v>45402.45833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F171" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15147,7 +15162,7 @@
         <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J171">
         <v>5.5</v>
@@ -15215,16 +15230,16 @@
         <v>7158345</v>
       </c>
       <c r="C172" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D172" s="2">
         <v>45402.5625</v>
       </c>
       <c r="E172" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F172" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15233,7 +15248,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J172">
         <v>2.4</v>
@@ -15301,16 +15316,16 @@
         <v>7190971</v>
       </c>
       <c r="C173" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D173" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E173" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G173">
         <v>0</v>
@@ -15319,7 +15334,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J173">
         <v>3.8</v>
@@ -15387,16 +15402,16 @@
         <v>7171741</v>
       </c>
       <c r="C174" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D174" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E174" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F174" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -15405,7 +15420,7 @@
         <v>3</v>
       </c>
       <c r="I174" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J174">
         <v>4.333</v>
@@ -15473,16 +15488,16 @@
         <v>7190972</v>
       </c>
       <c r="C175" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D175" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F175" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G175">
         <v>2</v>
@@ -15491,7 +15506,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J175">
         <v>2.25</v>
@@ -15559,16 +15574,16 @@
         <v>7191185</v>
       </c>
       <c r="C176" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D176" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -15577,7 +15592,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J176">
         <v>2.3</v>
@@ -15645,16 +15660,16 @@
         <v>7158346</v>
       </c>
       <c r="C177" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D177" s="2">
         <v>45409.45833333334</v>
       </c>
       <c r="E177" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F177" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15663,7 +15678,7 @@
         <v>3</v>
       </c>
       <c r="I177" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J177">
         <v>5</v>
@@ -15721,6 +15736,331 @@
       </c>
       <c r="AB177">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:28">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>27</v>
+      </c>
+      <c r="C178" t="s">
+        <v>32</v>
+      </c>
+      <c r="D178" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="E178" t="s">
+        <v>37</v>
+      </c>
+      <c r="F178" t="s">
+        <v>38</v>
+      </c>
+      <c r="J178">
+        <v>1.285</v>
+      </c>
+      <c r="K178">
+        <v>5.75</v>
+      </c>
+      <c r="L178">
+        <v>7</v>
+      </c>
+      <c r="M178">
+        <v>1.222</v>
+      </c>
+      <c r="N178">
+        <v>6.5</v>
+      </c>
+      <c r="O178">
+        <v>8.5</v>
+      </c>
+      <c r="P178">
+        <v>-2</v>
+      </c>
+      <c r="Q178">
+        <v>2</v>
+      </c>
+      <c r="R178">
+        <v>1.85</v>
+      </c>
+      <c r="S178">
+        <v>3.5</v>
+      </c>
+      <c r="T178">
+        <v>1.9</v>
+      </c>
+      <c r="U178">
+        <v>1.95</v>
+      </c>
+      <c r="V178">
+        <v>0</v>
+      </c>
+      <c r="W178">
+        <v>0</v>
+      </c>
+      <c r="X178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:28">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>28</v>
+      </c>
+      <c r="C179" t="s">
+        <v>32</v>
+      </c>
+      <c r="D179" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="E179" t="s">
+        <v>33</v>
+      </c>
+      <c r="F179" t="s">
+        <v>39</v>
+      </c>
+      <c r="J179">
+        <v>2.375</v>
+      </c>
+      <c r="K179">
+        <v>3.6</v>
+      </c>
+      <c r="L179">
+        <v>2.5</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>3.5</v>
+      </c>
+      <c r="O179">
+        <v>3.1</v>
+      </c>
+      <c r="P179">
+        <v>-0.25</v>
+      </c>
+      <c r="Q179">
+        <v>1.825</v>
+      </c>
+      <c r="R179">
+        <v>2.025</v>
+      </c>
+      <c r="S179">
+        <v>2.75</v>
+      </c>
+      <c r="T179">
+        <v>1.825</v>
+      </c>
+      <c r="U179">
+        <v>2.025</v>
+      </c>
+      <c r="V179">
+        <v>0</v>
+      </c>
+      <c r="W179">
+        <v>0</v>
+      </c>
+      <c r="X179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:28">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>29</v>
+      </c>
+      <c r="C180" t="s">
+        <v>32</v>
+      </c>
+      <c r="D180" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="E180" t="s">
+        <v>34</v>
+      </c>
+      <c r="F180" t="s">
+        <v>40</v>
+      </c>
+      <c r="J180">
+        <v>1.666</v>
+      </c>
+      <c r="K180">
+        <v>3.8</v>
+      </c>
+      <c r="L180">
+        <v>4.333</v>
+      </c>
+      <c r="M180">
+        <v>1.5</v>
+      </c>
+      <c r="N180">
+        <v>4</v>
+      </c>
+      <c r="O180">
+        <v>5.5</v>
+      </c>
+      <c r="P180">
+        <v>-1</v>
+      </c>
+      <c r="Q180">
+        <v>1.925</v>
+      </c>
+      <c r="R180">
+        <v>1.925</v>
+      </c>
+      <c r="S180">
+        <v>2.75</v>
+      </c>
+      <c r="T180">
+        <v>1.875</v>
+      </c>
+      <c r="U180">
+        <v>1.975</v>
+      </c>
+      <c r="V180">
+        <v>0</v>
+      </c>
+      <c r="W180">
+        <v>0</v>
+      </c>
+      <c r="X180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:28">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>30</v>
+      </c>
+      <c r="C181" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="E181" t="s">
+        <v>36</v>
+      </c>
+      <c r="F181" t="s">
+        <v>35</v>
+      </c>
+      <c r="J181">
+        <v>2.5</v>
+      </c>
+      <c r="K181">
+        <v>3.6</v>
+      </c>
+      <c r="L181">
+        <v>2.4</v>
+      </c>
+      <c r="M181">
+        <v>2.3</v>
+      </c>
+      <c r="N181">
+        <v>3.6</v>
+      </c>
+      <c r="O181">
+        <v>2.55</v>
+      </c>
+      <c r="P181">
+        <v>0</v>
+      </c>
+      <c r="Q181">
+        <v>1.825</v>
+      </c>
+      <c r="R181">
+        <v>2.025</v>
+      </c>
+      <c r="S181">
+        <v>2.75</v>
+      </c>
+      <c r="T181">
+        <v>1.85</v>
+      </c>
+      <c r="U181">
+        <v>2</v>
+      </c>
+      <c r="V181">
+        <v>0</v>
+      </c>
+      <c r="W181">
+        <v>0</v>
+      </c>
+      <c r="X181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:28">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>31</v>
+      </c>
+      <c r="C182" t="s">
+        <v>32</v>
+      </c>
+      <c r="D182" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="E182" t="s">
+        <v>41</v>
+      </c>
+      <c r="F182" t="s">
+        <v>42</v>
+      </c>
+      <c r="J182">
+        <v>1.5</v>
+      </c>
+      <c r="K182">
+        <v>4.333</v>
+      </c>
+      <c r="L182">
+        <v>5</v>
+      </c>
+      <c r="M182">
+        <v>1.25</v>
+      </c>
+      <c r="N182">
+        <v>5</v>
+      </c>
+      <c r="O182">
+        <v>9</v>
+      </c>
+      <c r="P182">
+        <v>-1.75</v>
+      </c>
+      <c r="Q182">
+        <v>1.875</v>
+      </c>
+      <c r="R182">
+        <v>1.975</v>
+      </c>
+      <c r="S182">
+        <v>3.5</v>
+      </c>
+      <c r="T182">
+        <v>1.85</v>
+      </c>
+      <c r="U182">
+        <v>2</v>
+      </c>
+      <c r="V182">
+        <v>0</v>
+      </c>
+      <c r="W182">
+        <v>0</v>
+      </c>
+      <c r="X182">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -115,6 +115,9 @@
     <t>Hamilton</t>
   </si>
   <si>
+    <t>Annan Athletic</t>
+  </si>
+  <si>
     <t>Kelty Hearts</t>
   </si>
   <si>
@@ -125,9 +128,6 @@
   </si>
   <si>
     <t>Cove Rangers</t>
-  </si>
-  <si>
-    <t>Annan Athletic</t>
   </si>
   <si>
     <t>A</t>
@@ -604,7 +604,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -690,7 +690,7 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -776,7 +776,7 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -862,7 +862,7 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G5">
         <v>3</v>
@@ -948,7 +948,7 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1022,7 +1022,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6845829</v>
+        <v>6848343</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
@@ -1034,52 +1034,52 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" t="s">
         <v>38</v>
       </c>
       <c r="J7">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="K7">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L7">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="M7">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N7">
         <v>3.5</v>
       </c>
       <c r="O7">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="P7">
         <v>0.25</v>
       </c>
       <c r="Q7">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="R7">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S7">
         <v>2.75</v>
       </c>
       <c r="T7">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U7">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V7">
         <v>-1</v>
@@ -1088,19 +1088,19 @@
         <v>-1</v>
       </c>
       <c r="X7">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="Y7">
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AA7">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB7">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1108,7 +1108,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6848342</v>
+        <v>6845829</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -1120,43 +1120,43 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="s">
         <v>38</v>
       </c>
       <c r="J8">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="K8">
         <v>3.6</v>
       </c>
       <c r="L8">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="M8">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="N8">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O8">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="P8">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q8">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="R8">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="S8">
         <v>2.75</v>
@@ -1165,7 +1165,7 @@
         <v>1.975</v>
       </c>
       <c r="U8">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
         <v>-1</v>
@@ -1174,19 +1174,19 @@
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AA8">
+        <v>-1</v>
+      </c>
+      <c r="AB8">
         <v>0.825</v>
-      </c>
-      <c r="AA8">
-        <v>-1</v>
-      </c>
-      <c r="AB8">
-        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -1194,7 +1194,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6848344</v>
+        <v>6848342</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1206,52 +1206,52 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>1</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
       </c>
       <c r="I9" t="s">
         <v>38</v>
       </c>
       <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>3.6</v>
+      </c>
+      <c r="L9">
+        <v>3.2</v>
+      </c>
+      <c r="M9">
+        <v>2.25</v>
+      </c>
+      <c r="N9">
+        <v>3.4</v>
+      </c>
+      <c r="O9">
         <v>2.8</v>
       </c>
-      <c r="K9">
-        <v>3.5</v>
-      </c>
-      <c r="L9">
-        <v>2.2</v>
-      </c>
-      <c r="M9">
-        <v>3.5</v>
-      </c>
-      <c r="N9">
-        <v>3.6</v>
-      </c>
-      <c r="O9">
-        <v>1.85</v>
-      </c>
       <c r="P9">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q9">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R9">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S9">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T9">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U9">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V9">
         <v>-1</v>
@@ -1260,19 +1260,19 @@
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>0.8500000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -1280,7 +1280,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6845658</v>
+        <v>6848344</v>
       </c>
       <c r="C10" t="s">
         <v>27</v>
@@ -1292,73 +1292,73 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J10">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="K10">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="L10">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="M10">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N10">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O10">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="P10">
         <v>0.5</v>
       </c>
       <c r="Q10">
+        <v>1.9</v>
+      </c>
+      <c r="R10">
+        <v>1.95</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <v>2</v>
+      </c>
+      <c r="U10">
         <v>1.85</v>
       </c>
-      <c r="R10">
-        <v>2</v>
-      </c>
-      <c r="S10">
-        <v>2.5</v>
-      </c>
-      <c r="T10">
-        <v>1.85</v>
-      </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
       <c r="V10">
         <v>-1</v>
       </c>
       <c r="W10">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Y10">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z10">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA10">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -1366,7 +1366,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6848343</v>
+        <v>6845658</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
@@ -1378,70 +1378,70 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J11">
-        <v>2.7</v>
+        <v>2.15</v>
       </c>
       <c r="K11">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="L11">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="M11">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N11">
         <v>3.5</v>
       </c>
       <c r="O11">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="P11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q11">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R11">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S11">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T11">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="U11">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V11">
         <v>-1</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X11">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z11">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA11">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB11">
         <v>-1</v>
@@ -1464,7 +1464,7 @@
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
         <v>32</v>
@@ -1633,10 +1633,10 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>2</v>
@@ -1722,7 +1722,7 @@
         <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G15">
         <v>3</v>
@@ -1891,7 +1891,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
         <v>31</v>
@@ -2063,10 +2063,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -2152,7 +2152,7 @@
         <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2235,7 +2235,7 @@
         <v>45164.5625</v>
       </c>
       <c r="E21" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
         <v>30</v>
@@ -2321,7 +2321,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
         <v>30</v>
@@ -2398,7 +2398,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6845825</v>
+        <v>6845661</v>
       </c>
       <c r="C23" t="s">
         <v>27</v>
@@ -2407,76 +2407,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="K23">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="M23">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="N23">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O23">
-        <v>1.833</v>
+        <v>2.2</v>
       </c>
       <c r="P23">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="R23">
+        <v>1.775</v>
+      </c>
+      <c r="S23">
+        <v>2.75</v>
+      </c>
+      <c r="T23">
+        <v>1.9</v>
+      </c>
+      <c r="U23">
+        <v>1.9</v>
+      </c>
+      <c r="V23">
         <v>1.875</v>
       </c>
-      <c r="S23">
-        <v>2.5</v>
-      </c>
-      <c r="T23">
-        <v>1.85</v>
-      </c>
-      <c r="U23">
-        <v>2</v>
-      </c>
-      <c r="V23">
-        <v>-1</v>
-      </c>
       <c r="W23">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="Z23">
         <v>-1</v>
       </c>
       <c r="AA23">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:28">
@@ -2484,7 +2484,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6845661</v>
+        <v>6845825</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2493,76 +2493,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J24">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="K24">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L24">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>3.6</v>
+      </c>
+      <c r="N24">
+        <v>3.75</v>
+      </c>
+      <c r="O24">
+        <v>1.833</v>
+      </c>
+      <c r="P24">
+        <v>0.5</v>
+      </c>
+      <c r="Q24">
+        <v>1.975</v>
+      </c>
+      <c r="R24">
+        <v>1.875</v>
+      </c>
+      <c r="S24">
         <v>2.5</v>
       </c>
-      <c r="M24">
-        <v>2.875</v>
-      </c>
-      <c r="N24">
-        <v>3.5</v>
-      </c>
-      <c r="O24">
-        <v>2.2</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>2.025</v>
-      </c>
-      <c r="R24">
-        <v>1.775</v>
-      </c>
-      <c r="S24">
+      <c r="T24">
+        <v>1.85</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <v>-1</v>
+      </c>
+      <c r="W24">
         <v>2.75</v>
       </c>
-      <c r="T24">
-        <v>1.9</v>
-      </c>
-      <c r="U24">
-        <v>1.9</v>
-      </c>
-      <c r="V24">
-        <v>1.875</v>
-      </c>
-      <c r="W24">
-        <v>-1</v>
-      </c>
       <c r="X24">
         <v>-1</v>
       </c>
       <c r="Y24">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z24">
         <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB24">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2665,10 +2665,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" t="s">
         <v>33</v>
-      </c>
-      <c r="F26" t="s">
-        <v>37</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -2742,7 +2742,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6848354</v>
+        <v>6848355</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2751,13 +2751,13 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2766,43 +2766,43 @@
         <v>39</v>
       </c>
       <c r="J27">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="K27">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="M27">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N27">
-        <v>3.3</v>
+        <v>4.75</v>
       </c>
       <c r="O27">
-        <v>2.4</v>
+        <v>5.25</v>
       </c>
       <c r="P27">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q27">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R27">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S27">
         <v>3</v>
       </c>
       <c r="T27">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="U27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V27">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2811,16 +2811,16 @@
         <v>-1</v>
       </c>
       <c r="Y27">
+        <v>-0.5</v>
+      </c>
+      <c r="Z27">
+        <v>0.4</v>
+      </c>
+      <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="Z27">
-        <v>-1</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2828,7 +2828,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6848355</v>
+        <v>6848354</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2837,13 +2837,13 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2852,43 +2852,43 @@
         <v>39</v>
       </c>
       <c r="J28">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L28">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="M28">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="N28">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="O28">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="P28">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q28">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R28">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S28">
         <v>3</v>
       </c>
       <c r="T28">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U28">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V28">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="W28">
         <v>-1</v>
@@ -2897,16 +2897,16 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z28">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB28">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2926,7 +2926,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G29">
         <v>5</v>
@@ -3000,7 +3000,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6845662</v>
+        <v>6845824</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3009,40 +3009,40 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J30">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="K30">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M30">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="N30">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P30">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q30">
         <v>1.925</v>
@@ -3054,31 +3054,31 @@
         <v>2.75</v>
       </c>
       <c r="T30">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W30">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z30">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA30">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3086,7 +3086,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6845824</v>
+        <v>6845662</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -3095,7 +3095,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
         <v>34</v>
@@ -3104,31 +3104,31 @@
         <v>2</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J31">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K31">
+        <v>3.5</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>1.727</v>
+      </c>
+      <c r="N31">
+        <v>3.8</v>
+      </c>
+      <c r="O31">
         <v>4</v>
       </c>
-      <c r="L31">
-        <v>5.5</v>
-      </c>
-      <c r="M31">
-        <v>1.4</v>
-      </c>
-      <c r="N31">
-        <v>4.2</v>
-      </c>
-      <c r="O31">
-        <v>6.5</v>
-      </c>
       <c r="P31">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q31">
         <v>1.925</v>
@@ -3140,31 +3140,31 @@
         <v>2.75</v>
       </c>
       <c r="T31">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AA31">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3267,10 +3267,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3439,10 +3439,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3525,7 +3525,7 @@
         <v>45192.5625</v>
       </c>
       <c r="E36" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F36" t="s">
         <v>30</v>
@@ -3614,7 +3614,7 @@
         <v>32</v>
       </c>
       <c r="F37" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -3697,7 +3697,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F38" t="s">
         <v>31</v>
@@ -3783,10 +3783,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3958,7 +3958,7 @@
         <v>29</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G41">
         <v>2</v>
@@ -4130,7 +4130,7 @@
         <v>28</v>
       </c>
       <c r="F43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4213,10 +4213,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4299,10 +4299,10 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G45">
         <v>3</v>
@@ -4474,7 +4474,7 @@
         <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4557,7 +4557,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F48" t="s">
         <v>31</v>
@@ -4643,10 +4643,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E49" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" t="s">
         <v>34</v>
-      </c>
-      <c r="F49" t="s">
-        <v>33</v>
       </c>
       <c r="G49">
         <v>3</v>
@@ -4818,7 +4818,7 @@
         <v>31</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G51">
         <v>0</v>
@@ -4901,10 +4901,10 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F52" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G52">
         <v>3</v>
@@ -4990,7 +4990,7 @@
         <v>30</v>
       </c>
       <c r="F53" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>3</v>
@@ -5073,7 +5073,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
         <v>29</v>
@@ -5245,7 +5245,7 @@
         <v>45234.5</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
         <v>32</v>
@@ -5331,10 +5331,10 @@
         <v>45234.5</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G57">
         <v>2</v>
@@ -5417,7 +5417,7 @@
         <v>45234.5</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
         <v>28</v>
@@ -5592,7 +5592,7 @@
         <v>29</v>
       </c>
       <c r="F60" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5666,7 +5666,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6845668</v>
+        <v>6845817</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
@@ -5675,76 +5675,76 @@
         <v>45241.5</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J61">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="K61">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L61">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="M61">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="N61">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="O61">
-        <v>2.25</v>
+        <v>8</v>
       </c>
       <c r="P61">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q61">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="R61">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S61">
         <v>2.75</v>
       </c>
       <c r="T61">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="U61">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V61">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W61">
         <v>-1</v>
       </c>
       <c r="X61">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="Z61">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA61">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB61">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="62" spans="1:28">
@@ -5752,7 +5752,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6845817</v>
+        <v>6845668</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
@@ -5761,76 +5761,76 @@
         <v>45241.5</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G62">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J62">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="K62">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="L62">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="M62">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="N62">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="O62">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="P62">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q62">
+        <v>1.775</v>
+      </c>
+      <c r="R62">
         <v>2.025</v>
-      </c>
-      <c r="R62">
-        <v>1.825</v>
       </c>
       <c r="S62">
         <v>2.75</v>
       </c>
       <c r="T62">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="U62">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V62">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W62">
         <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y62">
+        <v>-1</v>
+      </c>
+      <c r="Z62">
         <v>1.025</v>
       </c>
-      <c r="Z62">
-        <v>-1</v>
-      </c>
       <c r="AA62">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="63" spans="1:28">
@@ -5847,7 +5847,7 @@
         <v>45241.5</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
         <v>31</v>
@@ -5936,7 +5936,7 @@
         <v>30</v>
       </c>
       <c r="F64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G64">
         <v>2</v>
@@ -6022,7 +6022,7 @@
         <v>28</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6105,7 +6105,7 @@
         <v>45244.69791666666</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F66" t="s">
         <v>28</v>
@@ -6182,7 +6182,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6848381</v>
+        <v>6848379</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
@@ -6191,76 +6191,76 @@
         <v>45248.5</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J67">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="K67">
         <v>3.6</v>
       </c>
       <c r="L67">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="M67">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="N67">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O67">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="P67">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R67">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S67">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T67">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U67">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V67">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB67">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:28">
@@ -6268,7 +6268,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6848379</v>
+        <v>6845669</v>
       </c>
       <c r="C68" t="s">
         <v>27</v>
@@ -6277,58 +6277,58 @@
         <v>45248.5</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G68">
         <v>3</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I68" t="s">
         <v>39</v>
       </c>
       <c r="J68">
-        <v>3.2</v>
+        <v>1.666</v>
       </c>
       <c r="K68">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="L68">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="M68">
-        <v>4</v>
+        <v>1.666</v>
       </c>
       <c r="N68">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O68">
-        <v>1.75</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q68">
+        <v>1.825</v>
+      </c>
+      <c r="R68">
+        <v>1.975</v>
+      </c>
+      <c r="S68">
+        <v>2.75</v>
+      </c>
+      <c r="T68">
+        <v>1.95</v>
+      </c>
+      <c r="U68">
         <v>1.85</v>
       </c>
-      <c r="R68">
-        <v>2</v>
-      </c>
-      <c r="S68">
-        <v>3</v>
-      </c>
-      <c r="T68">
-        <v>1.9</v>
-      </c>
-      <c r="U68">
-        <v>1.95</v>
-      </c>
       <c r="V68">
-        <v>3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W68">
         <v>-1</v>
@@ -6337,16 +6337,16 @@
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>0.8500000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="Z68">
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:28">
@@ -6354,7 +6354,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6845669</v>
+        <v>6848381</v>
       </c>
       <c r="C69" t="s">
         <v>27</v>
@@ -6363,40 +6363,40 @@
         <v>45248.5</v>
       </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
         <v>3</v>
       </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
       <c r="I69" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J69">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="K69">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="L69">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="M69">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="N69">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O69">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P69">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q69">
         <v>1.825</v>
@@ -6408,28 +6408,28 @@
         <v>2.75</v>
       </c>
       <c r="T69">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V69">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA69">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB69">
         <v>-1</v>
@@ -6449,7 +6449,7 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E70" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F70" t="s">
         <v>32</v>
@@ -6710,7 +6710,7 @@
         <v>30</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G73">
         <v>2</v>
@@ -6793,7 +6793,7 @@
         <v>45269.5</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
         <v>29</v>
@@ -6870,7 +6870,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6848387</v>
+        <v>6845671</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
@@ -6879,55 +6879,55 @@
         <v>45269.5</v>
       </c>
       <c r="E75" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I75" t="s">
         <v>38</v>
       </c>
       <c r="J75">
-        <v>2.1</v>
+        <v>4</v>
       </c>
       <c r="K75">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="L75">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="M75">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="N75">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O75">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="P75">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q75">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R75">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
         <v>2.75</v>
       </c>
       <c r="T75">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U75">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V75">
         <v>-1</v>
@@ -6936,16 +6936,16 @@
         <v>-1</v>
       </c>
       <c r="X75">
-        <v>2.3</v>
+        <v>0.95</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA75">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB75">
         <v>-1</v>
@@ -6956,7 +6956,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6845814</v>
+        <v>6848387</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -6965,76 +6965,76 @@
         <v>45269.5</v>
       </c>
       <c r="E76" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J76">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="K76">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="L76">
-        <v>1.615</v>
+        <v>3.25</v>
       </c>
       <c r="M76">
-        <v>6</v>
+        <v>2.05</v>
       </c>
       <c r="N76">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="O76">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="P76">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q76">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S76">
         <v>2.75</v>
       </c>
       <c r="T76">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U76">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V76">
         <v>-1</v>
       </c>
       <c r="W76">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y76">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z76">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA76">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7042,7 +7042,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6845671</v>
+        <v>6845814</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
@@ -7051,76 +7051,76 @@
         <v>45269.5</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J77">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="K77">
-        <v>3.9</v>
+        <v>4.333</v>
       </c>
       <c r="L77">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="M77">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N77">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="O77">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="P77">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q77">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R77">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S77">
         <v>2.75</v>
       </c>
       <c r="T77">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U77">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V77">
         <v>-1</v>
       </c>
       <c r="W77">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X77">
+        <v>-1</v>
+      </c>
+      <c r="Y77">
+        <v>0.925</v>
+      </c>
+      <c r="Z77">
+        <v>-1</v>
+      </c>
+      <c r="AA77">
+        <v>-1</v>
+      </c>
+      <c r="AB77">
         <v>0.95</v>
-      </c>
-      <c r="Y77">
-        <v>-1</v>
-      </c>
-      <c r="Z77">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA77">
-        <v>0.8</v>
-      </c>
-      <c r="AB77">
-        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:28">
@@ -7140,7 +7140,7 @@
         <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G78">
         <v>1</v>
@@ -7214,7 +7214,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6848389</v>
+        <v>6848388</v>
       </c>
       <c r="C79" t="s">
         <v>27</v>
@@ -7223,76 +7223,76 @@
         <v>45276.5</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H79">
         <v>1</v>
       </c>
       <c r="I79" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J79">
-        <v>1.333</v>
+        <v>2.1</v>
       </c>
       <c r="K79">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L79">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M79">
-        <v>1.181</v>
+        <v>2.3</v>
       </c>
       <c r="N79">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="O79">
-        <v>12</v>
+        <v>2.875</v>
       </c>
       <c r="P79">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q79">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R79">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S79">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T79">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U79">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V79">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>1.875</v>
       </c>
       <c r="Y79">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="80" spans="1:28">
@@ -7300,7 +7300,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6845813</v>
+        <v>6848389</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
@@ -7309,73 +7309,73 @@
         <v>45276.5</v>
       </c>
       <c r="E80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80">
         <v>1</v>
       </c>
-      <c r="H80">
-        <v>3</v>
-      </c>
       <c r="I80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J80">
-        <v>2.375</v>
+        <v>1.333</v>
       </c>
       <c r="K80">
+        <v>5</v>
+      </c>
+      <c r="L80">
+        <v>6</v>
+      </c>
+      <c r="M80">
+        <v>1.181</v>
+      </c>
+      <c r="N80">
+        <v>6</v>
+      </c>
+      <c r="O80">
+        <v>12</v>
+      </c>
+      <c r="P80">
+        <v>-2</v>
+      </c>
+      <c r="Q80">
+        <v>1.9</v>
+      </c>
+      <c r="R80">
+        <v>1.95</v>
+      </c>
+      <c r="S80">
         <v>3.25</v>
       </c>
-      <c r="L80">
-        <v>3</v>
-      </c>
-      <c r="M80">
-        <v>2.7</v>
-      </c>
-      <c r="N80">
-        <v>3.1</v>
-      </c>
-      <c r="O80">
-        <v>2.7</v>
-      </c>
-      <c r="P80">
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <v>2.025</v>
-      </c>
-      <c r="R80">
-        <v>1.825</v>
-      </c>
-      <c r="S80">
-        <v>2.25</v>
-      </c>
       <c r="T80">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U80">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V80">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z80">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA80">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7386,7 +7386,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6848388</v>
+        <v>6845672</v>
       </c>
       <c r="C81" t="s">
         <v>27</v>
@@ -7395,55 +7395,55 @@
         <v>45276.5</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I81" t="s">
         <v>38</v>
       </c>
       <c r="J81">
-        <v>2.1</v>
+        <v>1.571</v>
       </c>
       <c r="K81">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L81">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M81">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="N81">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="O81">
-        <v>2.875</v>
+        <v>4.75</v>
       </c>
       <c r="P81">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R81">
+        <v>1.9</v>
+      </c>
+      <c r="S81">
+        <v>2.5</v>
+      </c>
+      <c r="T81">
         <v>1.8</v>
       </c>
-      <c r="S81">
-        <v>2.75</v>
-      </c>
-      <c r="T81">
-        <v>2</v>
-      </c>
       <c r="U81">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V81">
         <v>-1</v>
@@ -7452,19 +7452,19 @@
         <v>-1</v>
       </c>
       <c r="X81">
-        <v>1.875</v>
+        <v>3.75</v>
       </c>
       <c r="Y81">
         <v>-1</v>
       </c>
       <c r="Z81">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AA81">
         <v>0.8</v>
       </c>
-      <c r="AA81">
-        <v>-1</v>
-      </c>
       <c r="AB81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:28">
@@ -7472,7 +7472,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6845672</v>
+        <v>6845813</v>
       </c>
       <c r="C82" t="s">
         <v>27</v>
@@ -7481,55 +7481,55 @@
         <v>45276.5</v>
       </c>
       <c r="E82" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F82" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I82" t="s">
         <v>38</v>
       </c>
       <c r="J82">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="K82">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L82">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M82">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="N82">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="O82">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="P82">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="R82">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S82">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T82">
         <v>1.8</v>
       </c>
       <c r="U82">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V82">
         <v>-1</v>
@@ -7538,13 +7538,13 @@
         <v>-1</v>
       </c>
       <c r="X82">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA82">
         <v>0.8</v>
@@ -7653,7 +7653,7 @@
         <v>45283.5</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F84" t="s">
         <v>30</v>
@@ -7742,7 +7742,7 @@
         <v>32</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -7825,7 +7825,7 @@
         <v>45283.5</v>
       </c>
       <c r="E86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
         <v>28</v>
@@ -7911,10 +7911,10 @@
         <v>45283.52083333334</v>
       </c>
       <c r="E87" t="s">
+        <v>37</v>
+      </c>
+      <c r="F87" t="s">
         <v>36</v>
-      </c>
-      <c r="F87" t="s">
-        <v>35</v>
       </c>
       <c r="G87">
         <v>7</v>
@@ -8000,7 +8000,7 @@
         <v>28</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -8083,7 +8083,7 @@
         <v>45290.5</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
         <v>32</v>
@@ -8160,7 +8160,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6848394</v>
+        <v>6848396</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8169,58 +8169,58 @@
         <v>45290.5</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="s">
         <v>39</v>
       </c>
       <c r="J90">
-        <v>1.285</v>
+        <v>1.833</v>
       </c>
       <c r="K90">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L90">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M90">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="N90">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="O90">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="P90">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="Q90">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S90">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T90">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U90">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V90">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="W90">
         <v>-1</v>
@@ -8229,16 +8229,16 @@
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z90">
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8246,7 +8246,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6848396</v>
+        <v>6848394</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -8255,58 +8255,58 @@
         <v>45290.5</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="s">
         <v>39</v>
       </c>
       <c r="J91">
-        <v>1.833</v>
+        <v>1.285</v>
       </c>
       <c r="K91">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="L91">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="M91">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="N91">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="P91">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="Q91">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="R91">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T91">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U91">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V91">
-        <v>0.833</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8315,16 +8315,16 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8332,7 +8332,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6845675</v>
+        <v>6848397</v>
       </c>
       <c r="C92" t="s">
         <v>27</v>
@@ -8341,61 +8341,61 @@
         <v>45297.5</v>
       </c>
       <c r="E92" t="s">
+        <v>35</v>
+      </c>
+      <c r="F92" t="s">
         <v>36</v>
       </c>
-      <c r="F92" t="s">
-        <v>33</v>
-      </c>
       <c r="G92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J92">
-        <v>1.666</v>
+        <v>1.05</v>
       </c>
       <c r="K92">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="L92">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="M92">
-        <v>1.666</v>
+        <v>1.083</v>
       </c>
       <c r="N92">
-        <v>3.75</v>
+        <v>9.5</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="P92">
-        <v>-0.75</v>
+        <v>-2.75</v>
       </c>
       <c r="Q92">
         <v>1.875</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S92">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="T92">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U92">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V92">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="W92">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8404,13 +8404,13 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA92">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8418,7 +8418,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6848397</v>
+        <v>6845675</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
@@ -8427,61 +8427,61 @@
         <v>45297.5</v>
       </c>
       <c r="E93" t="s">
+        <v>37</v>
+      </c>
+      <c r="F93" t="s">
         <v>34</v>
       </c>
-      <c r="F93" t="s">
-        <v>35</v>
-      </c>
       <c r="G93">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J93">
-        <v>1.05</v>
+        <v>1.666</v>
       </c>
       <c r="K93">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="L93">
-        <v>15</v>
+        <v>4.333</v>
       </c>
       <c r="M93">
-        <v>1.083</v>
+        <v>1.666</v>
       </c>
       <c r="N93">
-        <v>9.5</v>
+        <v>3.75</v>
       </c>
       <c r="O93">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>-2.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q93">
         <v>1.875</v>
       </c>
       <c r="R93">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="T93">
+        <v>2</v>
+      </c>
+      <c r="U93">
         <v>1.8</v>
       </c>
-      <c r="U93">
-        <v>2.05</v>
-      </c>
       <c r="V93">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8490,13 +8490,13 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA93">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AB93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:28">
@@ -8513,7 +8513,7 @@
         <v>45297.5</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F94" t="s">
         <v>28</v>
@@ -8688,7 +8688,7 @@
         <v>30</v>
       </c>
       <c r="F96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G96">
         <v>4</v>
@@ -8762,7 +8762,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6848402</v>
+        <v>6848403</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -8771,76 +8771,76 @@
         <v>45304.5</v>
       </c>
       <c r="E97" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J97">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="K97">
         <v>4</v>
       </c>
       <c r="L97">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="M97">
+        <v>2.7</v>
+      </c>
+      <c r="N97">
+        <v>3.25</v>
+      </c>
+      <c r="O97">
+        <v>2.3</v>
+      </c>
+      <c r="P97">
+        <v>0.25</v>
+      </c>
+      <c r="Q97">
+        <v>1.775</v>
+      </c>
+      <c r="R97">
+        <v>2.025</v>
+      </c>
+      <c r="S97">
+        <v>2.5</v>
+      </c>
+      <c r="T97">
+        <v>1.85</v>
+      </c>
+      <c r="U97">
+        <v>1.95</v>
+      </c>
+      <c r="V97">
+        <v>-1</v>
+      </c>
+      <c r="W97">
         <v>2.25</v>
       </c>
-      <c r="N97">
-        <v>3.5</v>
-      </c>
-      <c r="O97">
-        <v>2.7</v>
-      </c>
-      <c r="P97">
-        <v>-0.25</v>
-      </c>
-      <c r="Q97">
-        <v>2.025</v>
-      </c>
-      <c r="R97">
-        <v>1.775</v>
-      </c>
-      <c r="S97">
-        <v>2.25</v>
-      </c>
-      <c r="T97">
-        <v>1.775</v>
-      </c>
-      <c r="U97">
-        <v>2.025</v>
-      </c>
-      <c r="V97">
-        <v>-1</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
       <c r="X97">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="Z97">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -8848,7 +8848,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6848401</v>
+        <v>6848402</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -8857,76 +8857,76 @@
         <v>45304.5</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F98" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J98">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="K98">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L98">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="N98">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O98">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="P98">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q98">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="R98">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T98">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="U98">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V98">
         <v>-1</v>
       </c>
       <c r="W98">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8934,7 +8934,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6845809</v>
+        <v>6848401</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -8943,76 +8943,76 @@
         <v>45304.5</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J99">
         <v>1.666</v>
       </c>
       <c r="K99">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M99">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="N99">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="O99">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P99">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q99">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R99">
+        <v>1.85</v>
+      </c>
+      <c r="S99">
+        <v>2.75</v>
+      </c>
+      <c r="T99">
         <v>1.8</v>
       </c>
-      <c r="S99">
-        <v>3</v>
-      </c>
-      <c r="T99">
-        <v>1.95</v>
-      </c>
       <c r="U99">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V99">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA99">
+        <v>-1</v>
+      </c>
+      <c r="AB99">
         <v>1</v>
-      </c>
-      <c r="Z99">
-        <v>-1</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9020,7 +9020,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6848403</v>
+        <v>6845809</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9029,76 +9029,76 @@
         <v>45304.5</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G100">
+        <v>2</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>39</v>
+      </c>
+      <c r="J100">
+        <v>1.666</v>
+      </c>
+      <c r="K100">
+        <v>4.1</v>
+      </c>
+      <c r="L100">
+        <v>4</v>
+      </c>
+      <c r="M100">
+        <v>1.444</v>
+      </c>
+      <c r="N100">
+        <v>4.75</v>
+      </c>
+      <c r="O100">
+        <v>5.25</v>
+      </c>
+      <c r="P100">
+        <v>-1.25</v>
+      </c>
+      <c r="Q100">
+        <v>2</v>
+      </c>
+      <c r="R100">
+        <v>1.8</v>
+      </c>
+      <c r="S100">
+        <v>3</v>
+      </c>
+      <c r="T100">
+        <v>1.95</v>
+      </c>
+      <c r="U100">
+        <v>1.85</v>
+      </c>
+      <c r="V100">
+        <v>0.444</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
         <v>1</v>
       </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-      <c r="I100" t="s">
-        <v>40</v>
-      </c>
-      <c r="J100">
-        <v>2</v>
-      </c>
-      <c r="K100">
-        <v>4</v>
-      </c>
-      <c r="L100">
-        <v>2.9</v>
-      </c>
-      <c r="M100">
-        <v>2.7</v>
-      </c>
-      <c r="N100">
-        <v>3.25</v>
-      </c>
-      <c r="O100">
-        <v>2.3</v>
-      </c>
-      <c r="P100">
-        <v>0.25</v>
-      </c>
-      <c r="Q100">
-        <v>1.775</v>
-      </c>
-      <c r="R100">
-        <v>2.025</v>
-      </c>
-      <c r="S100">
-        <v>2.5</v>
-      </c>
-      <c r="T100">
-        <v>1.85</v>
-      </c>
-      <c r="U100">
-        <v>1.95</v>
-      </c>
-      <c r="V100">
-        <v>-1</v>
-      </c>
-      <c r="W100">
-        <v>2.25</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>0.3875</v>
-      </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9115,7 +9115,7 @@
         <v>45304.52083333334</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F101" t="s">
         <v>30</v>
@@ -9201,7 +9201,7 @@
         <v>45318.5</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
         <v>31</v>
@@ -9373,7 +9373,7 @@
         <v>45318.5</v>
       </c>
       <c r="E104" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F104" t="s">
         <v>30</v>
@@ -9459,10 +9459,10 @@
         <v>45318.5</v>
       </c>
       <c r="E105" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G105">
         <v>3</v>
@@ -9548,7 +9548,7 @@
         <v>29</v>
       </c>
       <c r="F106" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G106">
         <v>5</v>
@@ -9634,7 +9634,7 @@
         <v>29</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G107">
         <v>2</v>
@@ -9803,10 +9803,10 @@
         <v>45325.5</v>
       </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -9889,10 +9889,10 @@
         <v>45325.5</v>
       </c>
       <c r="E110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -10064,7 +10064,7 @@
         <v>28</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G112">
         <v>3</v>
@@ -10150,7 +10150,7 @@
         <v>32</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G113">
         <v>2</v>
@@ -10224,7 +10224,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6848411</v>
+        <v>6848410</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -10233,76 +10233,76 @@
         <v>45332.5</v>
       </c>
       <c r="E114" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H114">
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J114">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K114">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L114">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="M114">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="N114">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O114">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="P114">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q114">
+        <v>1.975</v>
+      </c>
+      <c r="R114">
         <v>1.825</v>
       </c>
-      <c r="R114">
-        <v>1.975</v>
-      </c>
       <c r="S114">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T114">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U114">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V114">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W114">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
         <v>-1</v>
       </c>
       <c r="AB114">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10310,7 +10310,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6848410</v>
+        <v>6848411</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -10322,73 +10322,73 @@
         <v>34</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J115">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K115">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L115">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="M115">
-        <v>2.2</v>
+        <v>2.375</v>
       </c>
       <c r="N115">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="O115">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="P115">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q115">
+        <v>1.825</v>
+      </c>
+      <c r="R115">
         <v>1.975</v>
       </c>
-      <c r="R115">
-        <v>1.825</v>
-      </c>
       <c r="S115">
+        <v>2.75</v>
+      </c>
+      <c r="T115">
+        <v>2</v>
+      </c>
+      <c r="U115">
+        <v>1.8</v>
+      </c>
+      <c r="V115">
+        <v>-1</v>
+      </c>
+      <c r="W115">
         <v>2.5</v>
       </c>
-      <c r="T115">
-        <v>1.85</v>
-      </c>
-      <c r="U115">
-        <v>1.95</v>
-      </c>
-      <c r="V115">
-        <v>1.2</v>
-      </c>
-      <c r="W115">
-        <v>-1</v>
-      </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10405,10 +10405,10 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10491,10 +10491,10 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G117">
         <v>3</v>
@@ -10568,7 +10568,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6845679</v>
+        <v>6845805</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
@@ -10577,58 +10577,58 @@
         <v>45339.5</v>
       </c>
       <c r="E118" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F118" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" t="s">
         <v>39</v>
       </c>
       <c r="J118">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K118">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L118">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>2.3</v>
+        <v>1.666</v>
       </c>
       <c r="N118">
         <v>3.6</v>
       </c>
       <c r="O118">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="P118">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="Q118">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R118">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S118">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T118">
         <v>1.9</v>
       </c>
       <c r="U118">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V118">
-        <v>1.3</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="W118">
         <v>-1</v>
@@ -10637,10 +10637,10 @@
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA118">
         <v>0.8999999999999999</v>
@@ -10654,7 +10654,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6848413</v>
+        <v>6845679</v>
       </c>
       <c r="C119" t="s">
         <v>27</v>
@@ -10663,13 +10663,13 @@
         <v>45339.5</v>
       </c>
       <c r="E119" t="s">
+        <v>35</v>
+      </c>
+      <c r="F119" t="s">
         <v>37</v>
       </c>
-      <c r="F119" t="s">
-        <v>29</v>
-      </c>
       <c r="G119">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H119">
         <v>1</v>
@@ -10678,31 +10678,31 @@
         <v>39</v>
       </c>
       <c r="J119">
+        <v>2.25</v>
+      </c>
+      <c r="K119">
+        <v>3.75</v>
+      </c>
+      <c r="L119">
         <v>2.6</v>
       </c>
-      <c r="K119">
+      <c r="M119">
+        <v>2.3</v>
+      </c>
+      <c r="N119">
         <v>3.6</v>
       </c>
-      <c r="L119">
-        <v>2.3</v>
-      </c>
-      <c r="M119">
+      <c r="O119">
         <v>2.625</v>
       </c>
-      <c r="N119">
-        <v>3.5</v>
-      </c>
-      <c r="O119">
-        <v>2.3</v>
-      </c>
       <c r="P119">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q119">
-        <v>1.75</v>
+        <v>1.825</v>
       </c>
       <c r="R119">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S119">
         <v>2.75</v>
@@ -10711,10 +10711,10 @@
         <v>1.9</v>
       </c>
       <c r="U119">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V119">
-        <v>1.625</v>
+        <v>1.3</v>
       </c>
       <c r="W119">
         <v>-1</v>
@@ -10723,16 +10723,16 @@
         <v>-1</v>
       </c>
       <c r="Y119">
-        <v>0.75</v>
+        <v>0.825</v>
       </c>
       <c r="Z119">
         <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.45</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:28">
@@ -10740,7 +10740,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6848414</v>
+        <v>6848413</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
@@ -10749,76 +10749,76 @@
         <v>45339.5</v>
       </c>
       <c r="E120" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H120">
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J120">
-        <v>10</v>
+        <v>2.6</v>
       </c>
       <c r="K120">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="L120">
-        <v>1.166</v>
+        <v>2.3</v>
       </c>
       <c r="M120">
-        <v>15</v>
+        <v>2.625</v>
       </c>
       <c r="N120">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="O120">
-        <v>1.125</v>
+        <v>2.3</v>
       </c>
       <c r="P120">
-        <v>2.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q120">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="R120">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S120">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T120">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="U120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="W120">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="Z120">
         <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB120">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="121" spans="1:28">
@@ -10826,7 +10826,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6848415</v>
+        <v>6848414</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
@@ -10835,76 +10835,76 @@
         <v>45339.5</v>
       </c>
       <c r="E121" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J121">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="K121">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="L121">
-        <v>2.9</v>
+        <v>1.166</v>
       </c>
       <c r="M121">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N121">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="O121">
-        <v>3.2</v>
+        <v>1.125</v>
       </c>
       <c r="P121">
-        <v>-0.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q121">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R121">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T121">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -10912,7 +10912,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6845805</v>
+        <v>6848415</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -10921,13 +10921,13 @@
         <v>45339.5</v>
       </c>
       <c r="E122" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G122">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -10936,43 +10936,43 @@
         <v>39</v>
       </c>
       <c r="J122">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K122">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L122">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="M122">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="N122">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O122">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="P122">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q122">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R122">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S122">
         <v>2.5</v>
       </c>
       <c r="T122">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U122">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V122">
-        <v>0.6659999999999999</v>
+        <v>1</v>
       </c>
       <c r="W122">
         <v>-1</v>
@@ -10981,13 +10981,13 @@
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z122">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
         <v>-1</v>
@@ -11084,7 +11084,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6848417</v>
+        <v>6848416</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
@@ -11093,76 +11093,76 @@
         <v>45346.5</v>
       </c>
       <c r="E124" t="s">
+        <v>37</v>
+      </c>
+      <c r="F124" t="s">
         <v>33</v>
       </c>
-      <c r="F124" t="s">
-        <v>30</v>
-      </c>
       <c r="G124">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H124">
         <v>1</v>
       </c>
       <c r="I124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J124">
-        <v>5.5</v>
+        <v>1.666</v>
       </c>
       <c r="K124">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="L124">
-        <v>1.363</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>8.5</v>
+        <v>1.6</v>
       </c>
       <c r="N124">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O124">
-        <v>1.25</v>
+        <v>4.333</v>
       </c>
       <c r="P124">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="Q124">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S124">
         <v>3</v>
       </c>
       <c r="T124">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V124">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.8999999999999999</v>
+        <v>0.3875</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11170,7 +11170,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6848416</v>
+        <v>6848417</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -11179,76 +11179,76 @@
         <v>45346.5</v>
       </c>
       <c r="E125" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J125">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="K125">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="M125">
-        <v>1.6</v>
+        <v>8.5</v>
       </c>
       <c r="N125">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O125">
-        <v>4.333</v>
+        <v>1.25</v>
       </c>
       <c r="P125">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q125">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="R125">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
         <v>3</v>
       </c>
       <c r="T125">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y125">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11268,7 +11268,7 @@
         <v>32</v>
       </c>
       <c r="F126" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11354,7 +11354,7 @@
         <v>29</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G127">
         <v>4</v>
@@ -11612,7 +11612,7 @@
         <v>28</v>
       </c>
       <c r="F130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G130">
         <v>4</v>
@@ -11781,7 +11781,7 @@
         <v>45353.5</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
         <v>32</v>
@@ -11858,7 +11858,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6937668</v>
+        <v>6937667</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
@@ -11867,76 +11867,76 @@
         <v>45353.5</v>
       </c>
       <c r="E133" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F133" t="s">
         <v>37</v>
       </c>
       <c r="G133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J133">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="K133">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="L133">
-        <v>9.5</v>
+        <v>1.333</v>
       </c>
       <c r="M133">
-        <v>1.125</v>
+        <v>9</v>
       </c>
       <c r="N133">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="O133">
-        <v>12</v>
+        <v>1.25</v>
       </c>
       <c r="P133">
-        <v>-2.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q133">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R133">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S133">
         <v>3.5</v>
       </c>
       <c r="T133">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U133">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V133">
         <v>-1</v>
       </c>
       <c r="W133">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z133">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA133">
         <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="134" spans="1:28">
@@ -11944,7 +11944,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6937667</v>
+        <v>6937668</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
@@ -11953,76 +11953,76 @@
         <v>45353.5</v>
       </c>
       <c r="E134" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F134" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J134">
-        <v>6.5</v>
+        <v>1.166</v>
       </c>
       <c r="K134">
-        <v>5.25</v>
+        <v>7.5</v>
       </c>
       <c r="L134">
-        <v>1.333</v>
+        <v>9.5</v>
       </c>
       <c r="M134">
+        <v>1.125</v>
+      </c>
+      <c r="N134">
         <v>9</v>
       </c>
-      <c r="N134">
-        <v>5.5</v>
-      </c>
       <c r="O134">
-        <v>1.25</v>
+        <v>12</v>
       </c>
       <c r="P134">
-        <v>1.75</v>
+        <v>-2.25</v>
       </c>
       <c r="Q134">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R134">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S134">
         <v>3.5</v>
       </c>
       <c r="T134">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U134">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V134">
         <v>-1</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X134">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z134">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AA134">
         <v>-1</v>
       </c>
       <c r="AB134">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:28">
@@ -12039,7 +12039,7 @@
         <v>45356.69791666666</v>
       </c>
       <c r="E135" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
         <v>30</v>
@@ -12128,7 +12128,7 @@
         <v>32</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -12211,7 +12211,7 @@
         <v>45360.5</v>
       </c>
       <c r="E137" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F137" t="s">
         <v>28</v>
@@ -12383,10 +12383,10 @@
         <v>45360.5</v>
       </c>
       <c r="E139" t="s">
+        <v>35</v>
+      </c>
+      <c r="F139" t="s">
         <v>34</v>
-      </c>
-      <c r="F139" t="s">
-        <v>33</v>
       </c>
       <c r="G139">
         <v>3</v>
@@ -12469,7 +12469,7 @@
         <v>45360.5</v>
       </c>
       <c r="E140" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
         <v>31</v>
@@ -12546,7 +12546,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6958685</v>
+        <v>6974332</v>
       </c>
       <c r="C141" t="s">
         <v>27</v>
@@ -12555,76 +12555,76 @@
         <v>45367.5</v>
       </c>
       <c r="E141" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="F141" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I141" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J141">
-        <v>1.615</v>
+        <v>10</v>
       </c>
       <c r="K141">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="L141">
-        <v>4.75</v>
+        <v>1.166</v>
       </c>
       <c r="M141">
-        <v>1.8</v>
+        <v>10</v>
       </c>
       <c r="N141">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="O141">
-        <v>4</v>
+        <v>1.181</v>
       </c>
       <c r="P141">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="Q141">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="R141">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S141">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T141">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U141">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V141">
         <v>-1</v>
       </c>
       <c r="W141">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X141">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB141">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:28">
@@ -12632,7 +12632,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6974332</v>
+        <v>6958685</v>
       </c>
       <c r="C142" t="s">
         <v>27</v>
@@ -12641,76 +12641,76 @@
         <v>45367.5</v>
       </c>
       <c r="E142" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I142" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J142">
-        <v>10</v>
+        <v>1.615</v>
       </c>
       <c r="K142">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="L142">
-        <v>1.166</v>
+        <v>4.75</v>
       </c>
       <c r="M142">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N142">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="O142">
-        <v>1.181</v>
+        <v>4</v>
       </c>
       <c r="P142">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="Q142">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R142">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T142">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U142">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V142">
         <v>-1</v>
       </c>
       <c r="W142">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X142">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Y142">
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AA142">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB142">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="143" spans="1:28">
@@ -12813,10 +12813,10 @@
         <v>45367.5</v>
       </c>
       <c r="E144" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -12985,10 +12985,10 @@
         <v>45370.69791666666</v>
       </c>
       <c r="E146" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F146" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13160,7 +13160,7 @@
         <v>30</v>
       </c>
       <c r="F148" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G148">
         <v>4</v>
@@ -13243,7 +13243,7 @@
         <v>45374.5</v>
       </c>
       <c r="E149" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F149" t="s">
         <v>32</v>
@@ -13329,10 +13329,10 @@
         <v>45374.5</v>
       </c>
       <c r="E150" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G150">
         <v>3</v>
@@ -13415,7 +13415,7 @@
         <v>45374.5</v>
       </c>
       <c r="E151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F151" t="s">
         <v>31</v>
@@ -13587,10 +13587,10 @@
         <v>45381.5</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G153">
         <v>3</v>
@@ -13673,10 +13673,10 @@
         <v>45381.5</v>
       </c>
       <c r="E154" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G154">
         <v>1</v>
@@ -13759,7 +13759,7 @@
         <v>45381.5</v>
       </c>
       <c r="E155" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F155" t="s">
         <v>29</v>
@@ -13922,7 +13922,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7060651</v>
+        <v>7060491</v>
       </c>
       <c r="C157" t="s">
         <v>27</v>
@@ -13931,55 +13931,55 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F157" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G157">
         <v>1</v>
       </c>
       <c r="H157">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="s">
         <v>38</v>
       </c>
       <c r="J157">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="K157">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="L157">
-        <v>1.615</v>
+        <v>2.875</v>
       </c>
       <c r="M157">
+        <v>2</v>
+      </c>
+      <c r="N157">
+        <v>3.25</v>
+      </c>
+      <c r="O157">
         <v>3.5</v>
       </c>
-      <c r="N157">
-        <v>4.75</v>
-      </c>
-      <c r="O157">
-        <v>1.666</v>
-      </c>
       <c r="P157">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q157">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R157">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S157">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T157">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U157">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V157">
         <v>-1</v>
@@ -13988,19 +13988,19 @@
         <v>-1</v>
       </c>
       <c r="X157">
-        <v>0.6659999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="Y157">
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA157">
-        <v>0.8</v>
+        <v>0.4625</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="158" spans="1:28">
@@ -14008,7 +14008,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7060654</v>
+        <v>7060651</v>
       </c>
       <c r="C158" t="s">
         <v>27</v>
@@ -14017,55 +14017,55 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F158" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G158">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I158" t="s">
         <v>38</v>
       </c>
       <c r="J158">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="K158">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="L158">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="M158">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N158">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O158">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="P158">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q158">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R158">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S158">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T158">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U158">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V158">
         <v>-1</v>
@@ -14074,16 +14074,16 @@
         <v>-1</v>
       </c>
       <c r="X158">
-        <v>1.375</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y158">
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA158">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB158">
         <v>-1</v>
@@ -14094,7 +14094,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7060491</v>
+        <v>7060654</v>
       </c>
       <c r="C159" t="s">
         <v>27</v>
@@ -14103,40 +14103,40 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E159" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F159" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G159">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I159" t="s">
         <v>38</v>
       </c>
       <c r="J159">
+        <v>2.75</v>
+      </c>
+      <c r="K159">
+        <v>3.6</v>
+      </c>
+      <c r="L159">
         <v>2.2</v>
       </c>
-      <c r="K159">
-        <v>3.4</v>
-      </c>
-      <c r="L159">
-        <v>2.875</v>
-      </c>
       <c r="M159">
-        <v>2</v>
+        <v>2.55</v>
       </c>
       <c r="N159">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="O159">
-        <v>3.5</v>
+        <v>2.375</v>
       </c>
       <c r="P159">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q159">
         <v>2</v>
@@ -14148,10 +14148,10 @@
         <v>2.75</v>
       </c>
       <c r="T159">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V159">
         <v>-1</v>
@@ -14160,7 +14160,7 @@
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>2.5</v>
+        <v>1.375</v>
       </c>
       <c r="Y159">
         <v>-1</v>
@@ -14169,10 +14169,10 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AA159">
-        <v>0.4625</v>
+        <v>1</v>
       </c>
       <c r="AB159">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="160" spans="1:28">
@@ -14189,7 +14189,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E160" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F160" t="s">
         <v>28</v>
@@ -14278,7 +14278,7 @@
         <v>30</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G161">
         <v>5</v>
@@ -14364,7 +14364,7 @@
         <v>31</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14438,7 +14438,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7128381</v>
+        <v>7128380</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
@@ -14447,76 +14447,76 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G163">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J163">
-        <v>2.95</v>
+        <v>2.1</v>
       </c>
       <c r="K163">
+        <v>3.7</v>
+      </c>
+      <c r="L163">
+        <v>2.875</v>
+      </c>
+      <c r="M163">
+        <v>2.15</v>
+      </c>
+      <c r="N163">
         <v>3.75</v>
       </c>
-      <c r="L163">
-        <v>2.05</v>
-      </c>
-      <c r="M163">
-        <v>2.3</v>
-      </c>
-      <c r="N163">
-        <v>3.8</v>
-      </c>
       <c r="O163">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="P163">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q163">
+        <v>1.975</v>
+      </c>
+      <c r="R163">
         <v>1.875</v>
       </c>
-      <c r="R163">
-        <v>1.975</v>
-      </c>
       <c r="S163">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T163">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U163">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V163">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA163">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB163">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:28">
@@ -14533,7 +14533,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F164" t="s">
         <v>29</v>
@@ -14610,7 +14610,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7128380</v>
+        <v>7128381</v>
       </c>
       <c r="C165" t="s">
         <v>27</v>
@@ -14619,76 +14619,76 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E165" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F165" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G165">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J165">
-        <v>2.1</v>
+        <v>2.95</v>
       </c>
       <c r="K165">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L165">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="M165">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="N165">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O165">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="P165">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="Q165">
+        <v>1.875</v>
+      </c>
+      <c r="R165">
         <v>1.975</v>
       </c>
-      <c r="R165">
-        <v>1.875</v>
-      </c>
       <c r="S165">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T165">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U165">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V165">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W165">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="Z165">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB165">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="166" spans="1:28">
@@ -14791,7 +14791,7 @@
         <v>45398.65625</v>
       </c>
       <c r="E167" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F167" t="s">
         <v>28</v>
@@ -14966,7 +14966,7 @@
         <v>30</v>
       </c>
       <c r="F169" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G169">
         <v>2</v>
@@ -15040,7 +15040,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>7128384</v>
+        <v>7157541</v>
       </c>
       <c r="C170" t="s">
         <v>27</v>
@@ -15049,76 +15049,76 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F170" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J170">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="K170">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="L170">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="M170">
-        <v>2.15</v>
+        <v>5</v>
       </c>
       <c r="N170">
-        <v>3.75</v>
+        <v>5.75</v>
       </c>
       <c r="O170">
-        <v>2.625</v>
+        <v>1.363</v>
       </c>
       <c r="P170">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="Q170">
+        <v>1.825</v>
+      </c>
+      <c r="R170">
         <v>1.975</v>
       </c>
-      <c r="R170">
+      <c r="S170">
+        <v>3.5</v>
+      </c>
+      <c r="T170">
+        <v>1.975</v>
+      </c>
+      <c r="U170">
         <v>1.825</v>
       </c>
-      <c r="S170">
-        <v>2.75</v>
-      </c>
-      <c r="T170">
-        <v>2</v>
-      </c>
-      <c r="U170">
-        <v>1.8</v>
-      </c>
       <c r="V170">
         <v>-1</v>
       </c>
       <c r="W170">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X170">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Y170">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="Z170">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AA170">
         <v>-1</v>
       </c>
       <c r="AB170">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="171" spans="1:28">
@@ -15126,7 +15126,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7157541</v>
+        <v>7128384</v>
       </c>
       <c r="C171" t="s">
         <v>27</v>
@@ -15135,76 +15135,76 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F171" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J171">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="K171">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="L171">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="M171">
-        <v>5</v>
+        <v>2.15</v>
       </c>
       <c r="N171">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="O171">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="P171">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q171">
+        <v>1.975</v>
+      </c>
+      <c r="R171">
         <v>1.825</v>
       </c>
-      <c r="R171">
-        <v>1.975</v>
-      </c>
       <c r="S171">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T171">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U171">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V171">
         <v>-1</v>
       </c>
       <c r="W171">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X171">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Y171">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="Z171">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AA171">
         <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="172" spans="1:28">
@@ -15221,10 +15221,10 @@
         <v>45402.5625</v>
       </c>
       <c r="E172" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F172" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -15307,7 +15307,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E173" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F173" t="s">
         <v>29</v>
@@ -15393,7 +15393,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E174" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F174" t="s">
         <v>30</v>
@@ -15479,7 +15479,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F175" t="s">
         <v>32</v>
@@ -15565,7 +15565,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F176" t="s">
         <v>28</v>
@@ -15654,7 +15654,7 @@
         <v>31</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G177">
         <v>2</v>
@@ -15826,7 +15826,7 @@
         <v>29</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G179">
         <v>1</v>
@@ -15912,7 +15912,7 @@
         <v>32</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G180">
         <v>4</v>
@@ -15995,10 +15995,10 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E181" t="s">
+        <v>37</v>
+      </c>
+      <c r="F181" t="s">
         <v>36</v>
-      </c>
-      <c r="F181" t="s">
-        <v>35</v>
       </c>
       <c r="G181">
         <v>3</v>
@@ -16084,7 +16084,7 @@
         <v>30</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G182">
         <v>2</v>

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -106,13 +106,13 @@
     <t>Montrose</t>
   </si>
   <si>
-    <t>Falkirk</t>
-  </si>
-  <si>
     <t>Hamilton</t>
   </si>
   <si>
     <t>Stirling</t>
+  </si>
+  <si>
+    <t>Falkirk</t>
   </si>
   <si>
     <t>Cove Rangers</t>
@@ -764,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6848338</v>
+        <v>6845830</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -776,10 +776,10 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -788,43 +788,43 @@
         <v>39</v>
       </c>
       <c r="J4">
-        <v>1.444</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="L4">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="M4">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="N4">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="O4">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="P4">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q4">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="R4">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S4">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T4">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U4">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>0.333</v>
+        <v>0.95</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -833,16 +833,16 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6845830</v>
+        <v>6848341</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -862,7 +862,7 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -874,43 +874,43 @@
         <v>39</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K5">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L5">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="M5">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="N5">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O5">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q5">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S5">
         <v>2.75</v>
       </c>
       <c r="T5">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>0.95</v>
+        <v>0.7</v>
       </c>
       <c r="W5">
         <v>-1</v>
@@ -919,16 +919,16 @@
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -936,7 +936,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6848341</v>
+        <v>6848338</v>
       </c>
       <c r="C6" t="s">
         <v>27</v>
@@ -948,10 +948,10 @@
         <v>32</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -960,43 +960,43 @@
         <v>39</v>
       </c>
       <c r="J6">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="K6">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="L6">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="M6">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P6">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="Q6">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S6">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T6">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="U6">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V6">
-        <v>0.7</v>
+        <v>0.333</v>
       </c>
       <c r="W6">
         <v>-1</v>
@@ -1005,16 +1005,16 @@
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.45</v>
+        <v>0.925</v>
       </c>
       <c r="Z6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -1034,7 +1034,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1120,7 +1120,7 @@
         <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1464,7 +1464,7 @@
         <v>37</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1805,10 +1805,10 @@
         <v>45160.65625</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1891,7 +1891,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s">
         <v>29</v>
@@ -1977,7 +1977,7 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
         <v>34</v>
@@ -2238,7 +2238,7 @@
         <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2407,10 +2407,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G23">
         <v>2</v>
@@ -2484,7 +2484,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6848351</v>
+        <v>6848352</v>
       </c>
       <c r="C24" t="s">
         <v>27</v>
@@ -2493,76 +2493,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F24" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J24">
+        <v>1.6</v>
+      </c>
+      <c r="K24">
         <v>4</v>
       </c>
-      <c r="K24">
-        <v>3.75</v>
-      </c>
       <c r="L24">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="M24">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="N24">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O24">
-        <v>1.222</v>
+        <v>3.4</v>
       </c>
       <c r="P24">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="R24">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S24">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T24">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="U24">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V24">
         <v>-1</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X24">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:28">
@@ -2570,7 +2570,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6848352</v>
+        <v>6848353</v>
       </c>
       <c r="C25" t="s">
         <v>27</v>
@@ -2579,76 +2579,76 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J25">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L25">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="M25">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O25">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="P25">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="Q25">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="R25">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S25">
         <v>3</v>
       </c>
       <c r="T25">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U25">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
         <v>-1</v>
       </c>
       <c r="W25">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB25">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:28">
@@ -2656,7 +2656,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6848353</v>
+        <v>6848351</v>
       </c>
       <c r="C26" t="s">
         <v>27</v>
@@ -2665,55 +2665,55 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I26" t="s">
         <v>38</v>
       </c>
       <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>3.75</v>
+      </c>
+      <c r="L26">
+        <v>1.666</v>
+      </c>
+      <c r="M26">
+        <v>10</v>
+      </c>
+      <c r="N26">
+        <v>5.5</v>
+      </c>
+      <c r="O26">
+        <v>1.222</v>
+      </c>
+      <c r="P26">
+        <v>1.75</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26">
         <v>1.8</v>
       </c>
-      <c r="K26">
-        <v>3.6</v>
-      </c>
-      <c r="L26">
-        <v>3.6</v>
-      </c>
-      <c r="M26">
-        <v>1.666</v>
-      </c>
-      <c r="N26">
-        <v>3.75</v>
-      </c>
-      <c r="O26">
-        <v>4.5</v>
-      </c>
-      <c r="P26">
-        <v>-0.75</v>
-      </c>
-      <c r="Q26">
-        <v>1.85</v>
-      </c>
-      <c r="R26">
-        <v>1.95</v>
-      </c>
       <c r="S26">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="T26">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V26">
         <v>-1</v>
@@ -2722,19 +2722,19 @@
         <v>-1</v>
       </c>
       <c r="X26">
-        <v>3.5</v>
+        <v>0.222</v>
       </c>
       <c r="Y26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z26">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AA26">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="27" spans="1:28">
@@ -2751,7 +2751,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
@@ -3012,7 +3012,7 @@
         <v>36</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30">
         <v>3</v>
@@ -3095,7 +3095,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
         <v>35</v>
@@ -3270,7 +3270,7 @@
         <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -3344,7 +3344,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6845663</v>
+        <v>6845823</v>
       </c>
       <c r="C34" t="s">
         <v>27</v>
@@ -3353,52 +3353,52 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J34">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="K34">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L34">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="M34">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O34">
-        <v>1.615</v>
+        <v>2.1</v>
       </c>
       <c r="P34">
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q34">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S34">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T34">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U34">
         <v>1.975</v>
@@ -3407,22 +3407,22 @@
         <v>-1</v>
       </c>
       <c r="W34">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA34">
-        <v>0.825</v>
+        <v>0.4375</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="35" spans="1:28">
@@ -3430,7 +3430,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6845823</v>
+        <v>6845663</v>
       </c>
       <c r="C35" t="s">
         <v>27</v>
@@ -3439,52 +3439,52 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J35">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="K35">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L35">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="M35">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="N35">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O35">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="P35">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q35">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R35">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T35">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U35">
         <v>1.975</v>
@@ -3493,22 +3493,22 @@
         <v>-1</v>
       </c>
       <c r="W35">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X35">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z35">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>0.4375</v>
+        <v>0.825</v>
       </c>
       <c r="AB35">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:28">
@@ -3528,7 +3528,7 @@
         <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3611,7 +3611,7 @@
         <v>45198.65625</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
         <v>36</v>
@@ -3783,7 +3783,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
         <v>29</v>
@@ -3955,7 +3955,7 @@
         <v>45199.5625</v>
       </c>
       <c r="E41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
         <v>33</v>
@@ -4302,7 +4302,7 @@
         <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4385,10 +4385,10 @@
         <v>45206.5625</v>
       </c>
       <c r="E46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" t="s">
         <v>30</v>
-      </c>
-      <c r="F46" t="s">
-        <v>31</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4471,10 +4471,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" t="s">
         <v>32</v>
-      </c>
-      <c r="F47" t="s">
-        <v>30</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4729,7 +4729,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F50" t="s">
         <v>37</v>
@@ -4990,7 +4990,7 @@
         <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G53">
         <v>1</v>
@@ -5073,7 +5073,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F54" t="s">
         <v>35</v>
@@ -5162,7 +5162,7 @@
         <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5248,7 +5248,7 @@
         <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5420,7 +5420,7 @@
         <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5494,7 +5494,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6848375</v>
+        <v>6848373</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
@@ -5503,55 +5503,55 @@
         <v>45234.5</v>
       </c>
       <c r="E59" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I59" t="s">
         <v>38</v>
       </c>
       <c r="J59">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="K59">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L59">
+        <v>1.909</v>
+      </c>
+      <c r="M59">
         <v>2.8</v>
       </c>
-      <c r="M59">
-        <v>2.05</v>
-      </c>
       <c r="N59">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O59">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="P59">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q59">
+        <v>1.95</v>
+      </c>
+      <c r="R59">
         <v>1.85</v>
       </c>
-      <c r="R59">
-        <v>1.95</v>
-      </c>
       <c r="S59">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T59">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U59">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V59">
         <v>-1</v>
@@ -5560,19 +5560,19 @@
         <v>-1</v>
       </c>
       <c r="X59">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="Y59">
         <v>-1</v>
       </c>
       <c r="Z59">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA59">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB59">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5580,7 +5580,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6848373</v>
+        <v>6848375</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
@@ -5589,55 +5589,55 @@
         <v>45234.5</v>
       </c>
       <c r="E60" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I60" t="s">
         <v>38</v>
       </c>
       <c r="J60">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="K60">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="L60">
-        <v>1.909</v>
+        <v>2.8</v>
       </c>
       <c r="M60">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="N60">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O60">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="P60">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q60">
+        <v>1.85</v>
+      </c>
+      <c r="R60">
         <v>1.95</v>
       </c>
-      <c r="R60">
+      <c r="S60">
+        <v>2.5</v>
+      </c>
+      <c r="T60">
         <v>1.85</v>
       </c>
-      <c r="S60">
-        <v>3</v>
-      </c>
-      <c r="T60">
-        <v>1.825</v>
-      </c>
       <c r="U60">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V60">
         <v>-1</v>
@@ -5646,19 +5646,19 @@
         <v>-1</v>
       </c>
       <c r="X60">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="Y60">
         <v>-1</v>
       </c>
       <c r="Z60">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA60">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB60">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="61" spans="1:28">
@@ -5675,10 +5675,10 @@
         <v>45241.5</v>
       </c>
       <c r="E61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61" t="s">
         <v>31</v>
-      </c>
-      <c r="F61" t="s">
-        <v>32</v>
       </c>
       <c r="G61">
         <v>5</v>
@@ -5847,7 +5847,7 @@
         <v>45241.5</v>
       </c>
       <c r="E63" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
         <v>37</v>
@@ -6194,7 +6194,7 @@
         <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G67">
         <v>3</v>
@@ -6452,7 +6452,7 @@
         <v>29</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6621,7 +6621,7 @@
         <v>45262.5</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F72" t="s">
         <v>28</v>
@@ -6710,7 +6710,7 @@
         <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6784,7 +6784,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6848386</v>
+        <v>6845814</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -6793,76 +6793,76 @@
         <v>45269.5</v>
       </c>
       <c r="E74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F74" t="s">
         <v>30</v>
       </c>
-      <c r="F74" t="s">
-        <v>34</v>
-      </c>
       <c r="G74">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J74">
+        <v>4.75</v>
+      </c>
+      <c r="K74">
+        <v>4.333</v>
+      </c>
+      <c r="L74">
+        <v>1.615</v>
+      </c>
+      <c r="M74">
+        <v>6</v>
+      </c>
+      <c r="N74">
+        <v>4.333</v>
+      </c>
+      <c r="O74">
         <v>1.4</v>
       </c>
-      <c r="K74">
-        <v>5</v>
-      </c>
-      <c r="L74">
-        <v>7</v>
-      </c>
-      <c r="M74">
-        <v>1.3</v>
-      </c>
-      <c r="N74">
-        <v>5.5</v>
-      </c>
-      <c r="O74">
-        <v>10</v>
-      </c>
       <c r="P74">
-        <v>-1.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q74">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="R74">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T74">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6870,7 +6870,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6845814</v>
+        <v>6845671</v>
       </c>
       <c r="C75" t="s">
         <v>27</v>
@@ -6879,76 +6879,76 @@
         <v>45269.5</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J75">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="K75">
-        <v>4.333</v>
+        <v>3.9</v>
       </c>
       <c r="L75">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="M75">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N75">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O75">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="P75">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q75">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S75">
         <v>2.75</v>
       </c>
       <c r="T75">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U75">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V75">
         <v>-1</v>
       </c>
       <c r="W75">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y75">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z75">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA75">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB75">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="76" spans="1:28">
@@ -6956,7 +6956,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6845671</v>
+        <v>6848386</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
@@ -6965,76 +6965,76 @@
         <v>45269.5</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G76">
+        <v>2</v>
+      </c>
+      <c r="H76">
         <v>1</v>
       </c>
-      <c r="H76">
+      <c r="I76" t="s">
+        <v>39</v>
+      </c>
+      <c r="J76">
+        <v>1.4</v>
+      </c>
+      <c r="K76">
+        <v>5</v>
+      </c>
+      <c r="L76">
+        <v>7</v>
+      </c>
+      <c r="M76">
+        <v>1.3</v>
+      </c>
+      <c r="N76">
+        <v>5.5</v>
+      </c>
+      <c r="O76">
+        <v>10</v>
+      </c>
+      <c r="P76">
+        <v>-1.5</v>
+      </c>
+      <c r="Q76">
+        <v>1.825</v>
+      </c>
+      <c r="R76">
+        <v>1.975</v>
+      </c>
+      <c r="S76">
         <v>3</v>
       </c>
-      <c r="I76" t="s">
-        <v>38</v>
-      </c>
-      <c r="J76">
-        <v>4</v>
-      </c>
-      <c r="K76">
-        <v>3.9</v>
-      </c>
-      <c r="L76">
-        <v>1.8</v>
-      </c>
-      <c r="M76">
-        <v>3.4</v>
-      </c>
-      <c r="N76">
-        <v>3.8</v>
-      </c>
-      <c r="O76">
-        <v>1.95</v>
-      </c>
-      <c r="P76">
-        <v>0.5</v>
-      </c>
-      <c r="Q76">
-        <v>1.9</v>
-      </c>
-      <c r="R76">
-        <v>1.9</v>
-      </c>
-      <c r="S76">
-        <v>2.75</v>
-      </c>
       <c r="T76">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U76">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V76">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="W76">
         <v>-1</v>
       </c>
       <c r="X76">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA76">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB76">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:28">
@@ -7395,7 +7395,7 @@
         <v>45276.5</v>
       </c>
       <c r="E81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F81" t="s">
         <v>36</v>
@@ -7481,10 +7481,10 @@
         <v>45276.5</v>
       </c>
       <c r="E82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7567,7 +7567,7 @@
         <v>45283.5</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
         <v>34</v>
@@ -7644,7 +7644,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6848391</v>
+        <v>6848392</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7653,76 +7653,76 @@
         <v>45283.5</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F84" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J84">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="K84">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="L84">
-        <v>2.5</v>
+        <v>1.444</v>
       </c>
       <c r="M84">
-        <v>2.05</v>
+        <v>9</v>
       </c>
       <c r="N84">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>1.25</v>
       </c>
       <c r="P84">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q84">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="R84">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S84">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="T84">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U84">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V84">
         <v>-1</v>
       </c>
       <c r="W84">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X84">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y84">
+        <v>-1</v>
+      </c>
+      <c r="Z84">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA84">
         <v>-0.5</v>
       </c>
-      <c r="Z84">
-        <v>0.5125</v>
-      </c>
-      <c r="AA84">
-        <v>0.7749999999999999</v>
-      </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7730,7 +7730,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6848392</v>
+        <v>6848393</v>
       </c>
       <c r="C85" t="s">
         <v>27</v>
@@ -7739,76 +7739,76 @@
         <v>45283.5</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F85" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J85">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="K85">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="L85">
-        <v>1.444</v>
+        <v>3.1</v>
       </c>
       <c r="M85">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="N85">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="O85">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="P85">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="R85">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T85">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U85">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V85">
         <v>-1</v>
       </c>
       <c r="W85">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X85">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z85">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="86" spans="1:28">
@@ -7816,7 +7816,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6848393</v>
+        <v>6848391</v>
       </c>
       <c r="C86" t="s">
         <v>27</v>
@@ -7825,76 +7825,76 @@
         <v>45283.5</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" t="s">
         <v>40</v>
       </c>
       <c r="J86">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="K86">
         <v>3.4</v>
       </c>
       <c r="L86">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="M86">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="N86">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O86">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q86">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="R86">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S86">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T86">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="U86">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V86">
         <v>-1</v>
       </c>
       <c r="W86">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB86">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:28">
@@ -8000,7 +8000,7 @@
         <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8169,10 +8169,10 @@
         <v>45290.5</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90">
         <v>5</v>
@@ -8341,7 +8341,7 @@
         <v>45297.5</v>
       </c>
       <c r="E92" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
         <v>28</v>
@@ -8685,7 +8685,7 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E96" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
         <v>33</v>
@@ -8762,7 +8762,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6848402</v>
+        <v>6848401</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
@@ -8771,76 +8771,76 @@
         <v>45304.5</v>
       </c>
       <c r="E97" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F97" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97">
         <v>1</v>
       </c>
       <c r="I97" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J97">
+        <v>1.666</v>
+      </c>
+      <c r="K97">
+        <v>3.9</v>
+      </c>
+      <c r="L97">
+        <v>4.2</v>
+      </c>
+      <c r="M97">
+        <v>1.85</v>
+      </c>
+      <c r="N97">
+        <v>3.75</v>
+      </c>
+      <c r="O97">
+        <v>3.3</v>
+      </c>
+      <c r="P97">
+        <v>-0.5</v>
+      </c>
+      <c r="Q97">
+        <v>1.95</v>
+      </c>
+      <c r="R97">
+        <v>1.85</v>
+      </c>
+      <c r="S97">
+        <v>2.75</v>
+      </c>
+      <c r="T97">
         <v>1.8</v>
       </c>
-      <c r="K97">
-        <v>4</v>
-      </c>
-      <c r="L97">
-        <v>3.5</v>
-      </c>
-      <c r="M97">
-        <v>2.25</v>
-      </c>
-      <c r="N97">
-        <v>3.5</v>
-      </c>
-      <c r="O97">
-        <v>2.7</v>
-      </c>
-      <c r="P97">
-        <v>-0.25</v>
-      </c>
-      <c r="Q97">
-        <v>2.025</v>
-      </c>
-      <c r="R97">
-        <v>1.775</v>
-      </c>
-      <c r="S97">
-        <v>2.25</v>
-      </c>
-      <c r="T97">
-        <v>1.775</v>
-      </c>
       <c r="U97">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V97">
         <v>-1</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X97">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.7749999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA97">
         <v>-1</v>
       </c>
       <c r="AB97">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:28">
@@ -8848,7 +8848,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6845809</v>
+        <v>6848402</v>
       </c>
       <c r="C98" t="s">
         <v>27</v>
@@ -8857,76 +8857,76 @@
         <v>45304.5</v>
       </c>
       <c r="E98" t="s">
+        <v>29</v>
+      </c>
+      <c r="F98" t="s">
         <v>31</v>
       </c>
-      <c r="F98" t="s">
-        <v>33</v>
-      </c>
       <c r="G98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J98">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="K98">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M98">
-        <v>1.444</v>
+        <v>2.25</v>
       </c>
       <c r="N98">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="O98">
-        <v>5.25</v>
+        <v>2.7</v>
       </c>
       <c r="P98">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q98">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R98">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S98">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T98">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U98">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V98">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="Y98">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:28">
@@ -8934,7 +8934,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6848401</v>
+        <v>6848403</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -8943,10 +8943,10 @@
         <v>45304.5</v>
       </c>
       <c r="E99" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8958,61 +8958,61 @@
         <v>40</v>
       </c>
       <c r="J99">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="K99">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L99">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="M99">
+        <v>2.7</v>
+      </c>
+      <c r="N99">
+        <v>3.25</v>
+      </c>
+      <c r="O99">
+        <v>2.3</v>
+      </c>
+      <c r="P99">
+        <v>0.25</v>
+      </c>
+      <c r="Q99">
+        <v>1.775</v>
+      </c>
+      <c r="R99">
+        <v>2.025</v>
+      </c>
+      <c r="S99">
+        <v>2.5</v>
+      </c>
+      <c r="T99">
         <v>1.85</v>
       </c>
-      <c r="N99">
-        <v>3.75</v>
-      </c>
-      <c r="O99">
-        <v>3.3</v>
-      </c>
-      <c r="P99">
+      <c r="U99">
+        <v>1.95</v>
+      </c>
+      <c r="V99">
+        <v>-1</v>
+      </c>
+      <c r="W99">
+        <v>2.25</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>0.3875</v>
+      </c>
+      <c r="Z99">
         <v>-0.5</v>
       </c>
-      <c r="Q99">
-        <v>1.95</v>
-      </c>
-      <c r="R99">
-        <v>1.85</v>
-      </c>
-      <c r="S99">
-        <v>2.75</v>
-      </c>
-      <c r="T99">
-        <v>1.8</v>
-      </c>
-      <c r="U99">
-        <v>2</v>
-      </c>
-      <c r="V99">
-        <v>-1</v>
-      </c>
-      <c r="W99">
-        <v>2.75</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AA99">
         <v>-1</v>
       </c>
       <c r="AB99">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9020,7 +9020,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6848403</v>
+        <v>6845809</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9029,76 +9029,76 @@
         <v>45304.5</v>
       </c>
       <c r="E100" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G100">
+        <v>2</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>39</v>
+      </c>
+      <c r="J100">
+        <v>1.666</v>
+      </c>
+      <c r="K100">
+        <v>4.1</v>
+      </c>
+      <c r="L100">
+        <v>4</v>
+      </c>
+      <c r="M100">
+        <v>1.444</v>
+      </c>
+      <c r="N100">
+        <v>4.75</v>
+      </c>
+      <c r="O100">
+        <v>5.25</v>
+      </c>
+      <c r="P100">
+        <v>-1.25</v>
+      </c>
+      <c r="Q100">
+        <v>2</v>
+      </c>
+      <c r="R100">
+        <v>1.8</v>
+      </c>
+      <c r="S100">
+        <v>3</v>
+      </c>
+      <c r="T100">
+        <v>1.95</v>
+      </c>
+      <c r="U100">
+        <v>1.85</v>
+      </c>
+      <c r="V100">
+        <v>0.444</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
         <v>1</v>
       </c>
-      <c r="H100">
-        <v>1</v>
-      </c>
-      <c r="I100" t="s">
-        <v>40</v>
-      </c>
-      <c r="J100">
-        <v>2</v>
-      </c>
-      <c r="K100">
-        <v>4</v>
-      </c>
-      <c r="L100">
-        <v>2.9</v>
-      </c>
-      <c r="M100">
-        <v>2.7</v>
-      </c>
-      <c r="N100">
-        <v>3.25</v>
-      </c>
-      <c r="O100">
-        <v>2.3</v>
-      </c>
-      <c r="P100">
-        <v>0.25</v>
-      </c>
-      <c r="Q100">
-        <v>1.775</v>
-      </c>
-      <c r="R100">
-        <v>2.025</v>
-      </c>
-      <c r="S100">
-        <v>2.5</v>
-      </c>
-      <c r="T100">
-        <v>1.85</v>
-      </c>
-      <c r="U100">
-        <v>1.95</v>
-      </c>
-      <c r="V100">
-        <v>-1</v>
-      </c>
-      <c r="W100">
-        <v>2.25</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>0.3875</v>
-      </c>
       <c r="Z100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
         <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9118,7 +9118,7 @@
         <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9287,7 +9287,7 @@
         <v>45318.5</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F103" t="s">
         <v>29</v>
@@ -9376,7 +9376,7 @@
         <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9545,7 +9545,7 @@
         <v>45318.5</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F106" t="s">
         <v>34</v>
@@ -9803,7 +9803,7 @@
         <v>45325.5</v>
       </c>
       <c r="E109" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F109" t="s">
         <v>33</v>
@@ -9892,7 +9892,7 @@
         <v>28</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>45328.69791666666</v>
       </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F111" t="s">
         <v>29</v>
@@ -10052,7 +10052,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>6848412</v>
+        <v>6848411</v>
       </c>
       <c r="C112" t="s">
         <v>27</v>
@@ -10061,76 +10061,76 @@
         <v>45332.5</v>
       </c>
       <c r="E112" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F112" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J112">
-        <v>1.1</v>
+        <v>2.25</v>
       </c>
       <c r="K112">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="L112">
-        <v>15</v>
+        <v>2.7</v>
       </c>
       <c r="M112">
-        <v>1.142</v>
+        <v>2.375</v>
       </c>
       <c r="N112">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="O112">
-        <v>15</v>
+        <v>2.6</v>
       </c>
       <c r="P112">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="Q112">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="R112">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S112">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="T112">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U112">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V112">
-        <v>0.1419999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X112">
         <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="113" spans="1:28">
@@ -10138,7 +10138,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6845806</v>
+        <v>6848412</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
@@ -10147,76 +10147,76 @@
         <v>45332.5</v>
       </c>
       <c r="E113" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J113">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="K113">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="L113">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="M113">
-        <v>1.2</v>
+        <v>1.142</v>
       </c>
       <c r="N113">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O113">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="P113">
-        <v>-2</v>
+        <v>-2.25</v>
       </c>
       <c r="Q113">
+        <v>1.95</v>
+      </c>
+      <c r="R113">
+        <v>1.85</v>
+      </c>
+      <c r="S113">
+        <v>3.5</v>
+      </c>
+      <c r="T113">
         <v>1.975</v>
       </c>
-      <c r="R113">
+      <c r="U113">
         <v>1.825</v>
       </c>
-      <c r="S113">
-        <v>3.25</v>
-      </c>
-      <c r="T113">
-        <v>1.95</v>
-      </c>
-      <c r="U113">
-        <v>1.85</v>
-      </c>
       <c r="V113">
-        <v>-1</v>
+        <v>0.1419999999999999</v>
       </c>
       <c r="W113">
         <v>-1</v>
       </c>
       <c r="X113">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="Y113">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z113">
+        <v>-1</v>
+      </c>
+      <c r="AA113">
+        <v>-1</v>
+      </c>
+      <c r="AB113">
         <v>0.825</v>
-      </c>
-      <c r="AA113">
-        <v>0.95</v>
-      </c>
-      <c r="AB113">
-        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:28">
@@ -10224,7 +10224,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6848410</v>
+        <v>6845806</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
@@ -10233,40 +10233,40 @@
         <v>45332.5</v>
       </c>
       <c r="E114" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J114">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="K114">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="L114">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="M114">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="N114">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="O114">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="P114">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q114">
         <v>1.975</v>
@@ -10275,34 +10275,34 @@
         <v>1.825</v>
       </c>
       <c r="S114">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T114">
+        <v>1.95</v>
+      </c>
+      <c r="U114">
         <v>1.85</v>
       </c>
-      <c r="U114">
-        <v>1.95</v>
-      </c>
       <c r="V114">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="W114">
         <v>-1</v>
       </c>
       <c r="X114">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Y114">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:28">
@@ -10310,7 +10310,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6848411</v>
+        <v>6848410</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
@@ -10319,76 +10319,76 @@
         <v>45332.5</v>
       </c>
       <c r="E115" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H115">
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J115">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="K115">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L115">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="M115">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="N115">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O115">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="P115">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q115">
+        <v>1.975</v>
+      </c>
+      <c r="R115">
         <v>1.825</v>
       </c>
-      <c r="R115">
-        <v>1.975</v>
-      </c>
       <c r="S115">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T115">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U115">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V115">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="W115">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="116" spans="1:28">
@@ -10580,7 +10580,7 @@
         <v>36</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G118">
         <v>2</v>
@@ -10663,10 +10663,10 @@
         <v>45339.5</v>
       </c>
       <c r="E119" t="s">
+        <v>32</v>
+      </c>
+      <c r="F119" t="s">
         <v>30</v>
-      </c>
-      <c r="F119" t="s">
-        <v>31</v>
       </c>
       <c r="G119">
         <v>3</v>
@@ -10826,7 +10826,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6848415</v>
+        <v>6848414</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
@@ -10835,76 +10835,76 @@
         <v>45339.5</v>
       </c>
       <c r="E121" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G121">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J121">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="K121">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="L121">
-        <v>2.9</v>
+        <v>1.166</v>
       </c>
       <c r="M121">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="N121">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="O121">
-        <v>3.2</v>
+        <v>1.125</v>
       </c>
       <c r="P121">
-        <v>-0.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q121">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="R121">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S121">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="T121">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U121">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V121">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>6.5</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="Z121">
         <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="122" spans="1:28">
@@ -10912,7 +10912,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6848414</v>
+        <v>6848415</v>
       </c>
       <c r="C122" t="s">
         <v>27</v>
@@ -10921,76 +10921,76 @@
         <v>45339.5</v>
       </c>
       <c r="E122" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F122" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G122">
+        <v>4</v>
+      </c>
+      <c r="H122">
+        <v>2</v>
+      </c>
+      <c r="I122" t="s">
+        <v>39</v>
+      </c>
+      <c r="J122">
+        <v>2.1</v>
+      </c>
+      <c r="K122">
+        <v>3.6</v>
+      </c>
+      <c r="L122">
+        <v>2.9</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>3.5</v>
+      </c>
+      <c r="O122">
+        <v>3.2</v>
+      </c>
+      <c r="P122">
+        <v>-0.25</v>
+      </c>
+      <c r="Q122">
+        <v>1.775</v>
+      </c>
+      <c r="R122">
+        <v>2.025</v>
+      </c>
+      <c r="S122">
+        <v>2.5</v>
+      </c>
+      <c r="T122">
+        <v>1.8</v>
+      </c>
+      <c r="U122">
+        <v>2</v>
+      </c>
+      <c r="V122">
         <v>1</v>
       </c>
-      <c r="H122">
-        <v>1</v>
-      </c>
-      <c r="I122" t="s">
-        <v>40</v>
-      </c>
-      <c r="J122">
-        <v>10</v>
-      </c>
-      <c r="K122">
-        <v>7.5</v>
-      </c>
-      <c r="L122">
-        <v>1.166</v>
-      </c>
-      <c r="M122">
-        <v>15</v>
-      </c>
-      <c r="N122">
-        <v>7.5</v>
-      </c>
-      <c r="O122">
-        <v>1.125</v>
-      </c>
-      <c r="P122">
-        <v>2.25</v>
-      </c>
-      <c r="Q122">
-        <v>1.875</v>
-      </c>
-      <c r="R122">
-        <v>1.925</v>
-      </c>
-      <c r="S122">
-        <v>3.25</v>
-      </c>
-      <c r="T122">
-        <v>1.875</v>
-      </c>
-      <c r="U122">
-        <v>1.925</v>
-      </c>
-      <c r="V122">
-        <v>-1</v>
-      </c>
       <c r="W122">
-        <v>6.5</v>
+        <v>-1</v>
       </c>
       <c r="X122">
         <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="Z122">
         <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB122">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:28">
@@ -11007,7 +11007,7 @@
         <v>45342.69791666666</v>
       </c>
       <c r="E123" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F123" t="s">
         <v>29</v>
@@ -11182,7 +11182,7 @@
         <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -11265,7 +11265,7 @@
         <v>45346.5</v>
       </c>
       <c r="E126" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F126" t="s">
         <v>37</v>
@@ -11351,7 +11351,7 @@
         <v>45346.5</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F127" t="s">
         <v>35</v>
@@ -11523,10 +11523,10 @@
         <v>45349.69791666666</v>
       </c>
       <c r="E129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11612,7 +11612,7 @@
         <v>34</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -11784,7 +11784,7 @@
         <v>28</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G132">
         <v>2</v>
@@ -11953,7 +11953,7 @@
         <v>45353.5</v>
       </c>
       <c r="E134" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F134" t="s">
         <v>36</v>
@@ -12042,7 +12042,7 @@
         <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12297,10 +12297,10 @@
         <v>45360.5</v>
       </c>
       <c r="E138" t="s">
+        <v>31</v>
+      </c>
+      <c r="F138" t="s">
         <v>32</v>
-      </c>
-      <c r="F138" t="s">
-        <v>30</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12469,7 +12469,7 @@
         <v>45360.5</v>
       </c>
       <c r="E140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F140" t="s">
         <v>37</v>
@@ -12641,10 +12641,10 @@
         <v>45367.5</v>
       </c>
       <c r="E142" t="s">
+        <v>30</v>
+      </c>
+      <c r="F142" t="s">
         <v>31</v>
-      </c>
-      <c r="F142" t="s">
-        <v>32</v>
       </c>
       <c r="G142">
         <v>3</v>
@@ -12902,7 +12902,7 @@
         <v>28</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -13071,7 +13071,7 @@
         <v>45374.5</v>
       </c>
       <c r="E147" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F147" t="s">
         <v>37</v>
@@ -13320,7 +13320,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6994939</v>
+        <v>6994937</v>
       </c>
       <c r="C150" t="s">
         <v>27</v>
@@ -13329,40 +13329,40 @@
         <v>45374.5</v>
       </c>
       <c r="E150" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F150" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G150">
         <v>1</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I150" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J150">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="K150">
         <v>3.5</v>
       </c>
       <c r="L150">
-        <v>2.25</v>
+        <v>1.909</v>
       </c>
       <c r="M150">
-        <v>2.45</v>
+        <v>4.2</v>
       </c>
       <c r="N150">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O150">
-        <v>2.45</v>
+        <v>1.666</v>
       </c>
       <c r="P150">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q150">
         <v>1.875</v>
@@ -13371,34 +13371,34 @@
         <v>1.925</v>
       </c>
       <c r="S150">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T150">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U150">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V150">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="W150">
         <v>-1</v>
       </c>
       <c r="X150">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y150">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z150">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA150">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB150">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:28">
@@ -13406,7 +13406,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>6994937</v>
+        <v>6994939</v>
       </c>
       <c r="C151" t="s">
         <v>27</v>
@@ -13415,40 +13415,40 @@
         <v>45374.5</v>
       </c>
       <c r="E151" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G151">
         <v>1</v>
       </c>
       <c r="H151">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J151">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="K151">
         <v>3.5</v>
       </c>
       <c r="L151">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="M151">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="N151">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O151">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="P151">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q151">
         <v>1.875</v>
@@ -13457,34 +13457,34 @@
         <v>1.925</v>
       </c>
       <c r="S151">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T151">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U151">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V151">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="W151">
         <v>-1</v>
       </c>
       <c r="X151">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y151">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z151">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA151">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="152" spans="1:28">
@@ -13492,7 +13492,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7024091</v>
+        <v>7024092</v>
       </c>
       <c r="C152" t="s">
         <v>27</v>
@@ -13501,49 +13501,49 @@
         <v>45381.5</v>
       </c>
       <c r="E152" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J152">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="K152">
         <v>3.6</v>
       </c>
       <c r="L152">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M152">
+        <v>2.1</v>
+      </c>
+      <c r="N152">
+        <v>3.4</v>
+      </c>
+      <c r="O152">
+        <v>3.1</v>
+      </c>
+      <c r="P152">
+        <v>-0.25</v>
+      </c>
+      <c r="Q152">
+        <v>1.9</v>
+      </c>
+      <c r="R152">
         <v>1.95</v>
       </c>
-      <c r="N152">
-        <v>3.5</v>
-      </c>
-      <c r="O152">
-        <v>3.3</v>
-      </c>
-      <c r="P152">
-        <v>-0.5</v>
-      </c>
-      <c r="Q152">
-        <v>1.95</v>
-      </c>
-      <c r="R152">
-        <v>1.9</v>
-      </c>
       <c r="S152">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T152">
         <v>1.85</v>
@@ -13552,25 +13552,25 @@
         <v>2</v>
       </c>
       <c r="V152">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="W152">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="X152">
         <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z152">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA152">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB152">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="153" spans="1:28">
@@ -13578,7 +13578,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7024092</v>
+        <v>7024091</v>
       </c>
       <c r="C153" t="s">
         <v>27</v>
@@ -13587,49 +13587,49 @@
         <v>45381.5</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G153">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J153">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="K153">
         <v>3.6</v>
       </c>
       <c r="L153">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M153">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="N153">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="O153">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P153">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q153">
+        <v>1.95</v>
+      </c>
+      <c r="R153">
         <v>1.9</v>
       </c>
-      <c r="R153">
-        <v>1.95</v>
-      </c>
       <c r="S153">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T153">
         <v>1.85</v>
@@ -13638,25 +13638,25 @@
         <v>2</v>
       </c>
       <c r="V153">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="W153">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="X153">
         <v>-1</v>
       </c>
       <c r="Y153">
+        <v>-1</v>
+      </c>
+      <c r="Z153">
         <v>0.8999999999999999</v>
       </c>
-      <c r="Z153">
-        <v>-1</v>
-      </c>
       <c r="AA153">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB153">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:28">
@@ -13664,7 +13664,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7024093</v>
+        <v>7024094</v>
       </c>
       <c r="C154" t="s">
         <v>27</v>
@@ -13673,76 +13673,76 @@
         <v>45381.5</v>
       </c>
       <c r="E154" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F154" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J154">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="K154">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="L154">
         <v>6.5</v>
       </c>
       <c r="M154">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="N154">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="O154">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="P154">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q154">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R154">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S154">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T154">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U154">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V154">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="W154">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z154">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA154">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB154">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="155" spans="1:28">
@@ -13750,7 +13750,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7024094</v>
+        <v>7024093</v>
       </c>
       <c r="C155" t="s">
         <v>27</v>
@@ -13759,76 +13759,76 @@
         <v>45381.5</v>
       </c>
       <c r="E155" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J155">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="K155">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="L155">
         <v>6.5</v>
       </c>
       <c r="M155">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="N155">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="O155">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="P155">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q155">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R155">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S155">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T155">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U155">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="V155">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA155">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="156" spans="1:28">
@@ -13848,7 +13848,7 @@
         <v>29</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -14106,7 +14106,7 @@
         <v>36</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -14189,7 +14189,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E160" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F160" t="s">
         <v>35</v>
@@ -14275,7 +14275,7 @@
         <v>45388.5625</v>
       </c>
       <c r="E161" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F161" t="s">
         <v>33</v>
@@ -14352,7 +14352,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7128380</v>
+        <v>7107442</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
@@ -14361,37 +14361,37 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F162" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J162">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K162">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="L162">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="M162">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="N162">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O162">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="P162">
         <v>-0.25</v>
@@ -14400,37 +14400,37 @@
         <v>1.975</v>
       </c>
       <c r="R162">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S162">
         <v>2.75</v>
       </c>
       <c r="T162">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U162">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V162">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="W162">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X162">
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z162">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="163" spans="1:28">
@@ -14438,7 +14438,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7107442</v>
+        <v>7128380</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
@@ -14447,37 +14447,37 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163">
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J163">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K163">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="L163">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="M163">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="N163">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O163">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="P163">
         <v>-0.25</v>
@@ -14486,37 +14486,37 @@
         <v>1.975</v>
       </c>
       <c r="R163">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S163">
         <v>2.75</v>
       </c>
       <c r="T163">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="U163">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V163">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W163">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="Z163">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA163">
         <v>-1</v>
       </c>
       <c r="AB163">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:28">
@@ -14705,10 +14705,10 @@
         <v>45395.5625</v>
       </c>
       <c r="E166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14877,7 +14877,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F168" t="s">
         <v>28</v>
@@ -15049,7 +15049,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F170" t="s">
         <v>34</v>
@@ -15138,7 +15138,7 @@
         <v>29</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G171">
         <v>1</v>
@@ -15482,7 +15482,7 @@
         <v>35</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -15568,7 +15568,7 @@
         <v>36</v>
       </c>
       <c r="F176" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G176">
         <v>3</v>
@@ -15654,7 +15654,7 @@
         <v>37</v>
       </c>
       <c r="F177" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G177">
         <v>1</v>
@@ -15737,7 +15737,7 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E178" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F178" t="s">
         <v>36</v>
@@ -15909,7 +15909,7 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F180" t="s">
         <v>34</v>
@@ -15995,7 +15995,7 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E181" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F181" t="s">
         <v>35</v>

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -100,16 +100,16 @@
     <t>Scotland League One</t>
   </si>
   <si>
+    <t>Falkirk</t>
+  </si>
+  <si>
     <t>Montrose</t>
   </si>
   <si>
-    <t>Falkirk</t>
+    <t>Hamilton</t>
   </si>
   <si>
     <t>Queen of South</t>
-  </si>
-  <si>
-    <t>Hamilton</t>
   </si>
   <si>
     <t>Stirling</t>
@@ -130,10 +130,10 @@
     <t>Annan Athletic</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6848339</v>
+        <v>6848338</v>
       </c>
       <c r="C2" t="s">
         <v>27</v>
@@ -604,73 +604,73 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
         <v>38</v>
       </c>
       <c r="J2">
-        <v>2.4</v>
+        <v>1.444</v>
       </c>
       <c r="K2">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="L2">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="M2">
-        <v>2</v>
+        <v>1.333</v>
       </c>
       <c r="N2">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="O2">
-        <v>3.1</v>
+        <v>8</v>
       </c>
       <c r="P2">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q2">
+        <v>1.925</v>
+      </c>
+      <c r="R2">
+        <v>1.875</v>
+      </c>
+      <c r="S2">
+        <v>3</v>
+      </c>
+      <c r="T2">
         <v>1.775</v>
       </c>
-      <c r="R2">
+      <c r="U2">
         <v>2.025</v>
       </c>
-      <c r="S2">
-        <v>2.5</v>
-      </c>
-      <c r="T2">
-        <v>1.825</v>
-      </c>
-      <c r="U2">
-        <v>1.975</v>
-      </c>
       <c r="V2">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="Z2">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -678,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6848338</v>
+        <v>6848339</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -690,73 +690,73 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
         <v>39</v>
       </c>
       <c r="J3">
-        <v>1.444</v>
+        <v>2.4</v>
       </c>
       <c r="K3">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="L3">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="M3">
-        <v>1.333</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O3">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q3">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="R3">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T3">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="U3">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V3">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -764,7 +764,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6848340</v>
+        <v>6845830</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -776,73 +776,73 @@
         <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4" t="s">
         <v>38</v>
       </c>
       <c r="J4">
-        <v>1.909</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <v>3.75</v>
       </c>
       <c r="L4">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="M4">
-        <v>1.833</v>
+        <v>1.95</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O4">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="P4">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="Q4">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S4">
         <v>2.75</v>
       </c>
       <c r="T4">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U4">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -850,7 +850,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6845830</v>
+        <v>6848340</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
@@ -862,73 +862,73 @@
         <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
         <v>39</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>1.909</v>
       </c>
       <c r="K5">
         <v>3.75</v>
       </c>
       <c r="L5">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="M5">
-        <v>1.95</v>
+        <v>1.833</v>
       </c>
       <c r="N5">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="O5">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="P5">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q5">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R5">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
         <v>2.75</v>
       </c>
       <c r="T5">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U5">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V5">
+        <v>-1</v>
+      </c>
+      <c r="W5">
+        <v>-1</v>
+      </c>
+      <c r="X5">
+        <v>2.4</v>
+      </c>
+      <c r="Y5">
+        <v>-1</v>
+      </c>
+      <c r="Z5">
+        <v>0.925</v>
+      </c>
+      <c r="AA5">
         <v>0.95</v>
       </c>
-      <c r="W5">
-        <v>-1</v>
-      </c>
-      <c r="X5">
-        <v>-1</v>
-      </c>
-      <c r="Y5">
-        <v>0.8</v>
-      </c>
-      <c r="Z5">
-        <v>-1</v>
-      </c>
-      <c r="AA5">
-        <v>-1</v>
-      </c>
       <c r="AB5">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J6">
         <v>2.4</v>
@@ -1034,7 +1034,7 @@
         <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J7">
         <v>3.3</v>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -1206,7 +1206,7 @@
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1292,7 +1292,7 @@
         <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J10">
         <v>2.8</v>
@@ -1378,7 +1378,7 @@
         <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1387,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J11">
         <v>2.7</v>
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J12">
         <v>2.4</v>
@@ -1550,7 +1550,7 @@
         <v>36</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1559,7 +1559,7 @@
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J13">
         <v>3</v>
@@ -1633,7 +1633,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F14" t="s">
         <v>35</v>
@@ -1645,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J14">
         <v>2.5</v>
@@ -1719,7 +1719,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
         <v>37</v>
@@ -1731,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J15">
         <v>1.8</v>
@@ -1805,7 +1805,7 @@
         <v>45160.65625</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
@@ -1817,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J16">
         <v>1.615</v>
@@ -1903,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J17">
         <v>1.75</v>
@@ -1989,7 +1989,7 @@
         <v>2</v>
       </c>
       <c r="I18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J18">
         <v>2.1</v>
@@ -2063,10 +2063,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J19">
         <v>1.571</v>
@@ -2152,7 +2152,7 @@
         <v>35</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2161,7 +2161,7 @@
         <v>2</v>
       </c>
       <c r="I20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J20">
         <v>2.05</v>
@@ -2238,7 +2238,7 @@
         <v>34</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2247,7 +2247,7 @@
         <v>4</v>
       </c>
       <c r="I21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J21">
         <v>2.8</v>
@@ -2321,10 +2321,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>2</v>
@@ -2333,7 +2333,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J22">
         <v>1.8</v>
@@ -2496,7 +2496,7 @@
         <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J25">
         <v>2.4</v>
@@ -2668,7 +2668,7 @@
         <v>36</v>
       </c>
       <c r="F26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2677,7 +2677,7 @@
         <v>2</v>
       </c>
       <c r="I26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J26">
         <v>4</v>
@@ -2742,7 +2742,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6848355</v>
+        <v>6848354</v>
       </c>
       <c r="C27" t="s">
         <v>27</v>
@@ -2751,58 +2751,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="F27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J27">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="L27">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="M27">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="N27">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="O27">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="P27">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q27">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S27">
         <v>3</v>
       </c>
       <c r="T27">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="U27">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V27">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="W27">
         <v>-1</v>
@@ -2811,16 +2811,16 @@
         <v>-1</v>
       </c>
       <c r="Y27">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z27">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:28">
@@ -2828,7 +2828,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6848356</v>
+        <v>6848355</v>
       </c>
       <c r="C28" t="s">
         <v>27</v>
@@ -2840,52 +2840,52 @@
         <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G28">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J28">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="K28">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="M28">
         <v>1.5</v>
       </c>
       <c r="N28">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="O28">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="P28">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="Q28">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R28">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T28">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U28">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="V28">
         <v>0.5</v>
@@ -2897,16 +2897,16 @@
         <v>-1</v>
       </c>
       <c r="Y28">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z28">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:28">
@@ -2914,7 +2914,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6848354</v>
+        <v>6848356</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
@@ -2923,58 +2923,58 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J29">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="K29">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L29">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="M29">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="N29">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="O29">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="P29">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q29">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="R29">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T29">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="U29">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="W29">
         <v>-1</v>
@@ -2983,16 +2983,16 @@
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="Z29">
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:28">
@@ -3000,7 +3000,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6845662</v>
+        <v>6845824</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
@@ -3009,40 +3009,40 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G30">
         <v>2</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J30">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="K30">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="L30">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M30">
-        <v>1.727</v>
+        <v>1.4</v>
       </c>
       <c r="N30">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="O30">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P30">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="Q30">
         <v>1.925</v>
@@ -3054,31 +3054,31 @@
         <v>2.75</v>
       </c>
       <c r="T30">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U30">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="W30">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z30">
-        <v>0.875</v>
+        <v>0.4375</v>
       </c>
       <c r="AA30">
-        <v>0.8999999999999999</v>
+        <v>0.4125</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="31" spans="1:28">
@@ -3086,7 +3086,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6845824</v>
+        <v>6845662</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
@@ -3095,40 +3095,40 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G31">
         <v>2</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J31">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="K31">
+        <v>3.5</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>1.727</v>
+      </c>
+      <c r="N31">
+        <v>3.8</v>
+      </c>
+      <c r="O31">
         <v>4</v>
       </c>
-      <c r="L31">
-        <v>5.5</v>
-      </c>
-      <c r="M31">
-        <v>1.4</v>
-      </c>
-      <c r="N31">
-        <v>4.2</v>
-      </c>
-      <c r="O31">
-        <v>6.5</v>
-      </c>
       <c r="P31">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q31">
         <v>1.925</v>
@@ -3140,31 +3140,31 @@
         <v>2.75</v>
       </c>
       <c r="T31">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V31">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AA31">
-        <v>0.4125</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:28">
@@ -3181,7 +3181,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
         <v>32</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J32">
         <v>2.2</v>
@@ -3353,10 +3353,10 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" t="s">
         <v>30</v>
-      </c>
-      <c r="F34" t="s">
-        <v>31</v>
       </c>
       <c r="G34">
         <v>1</v>
@@ -3365,7 +3365,7 @@
         <v>2</v>
       </c>
       <c r="I34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J34">
         <v>2.7</v>
@@ -3528,7 +3528,7 @@
         <v>33</v>
       </c>
       <c r="F36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3537,7 +3537,7 @@
         <v>5</v>
       </c>
       <c r="I36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J36">
         <v>3.6</v>
@@ -3611,7 +3611,7 @@
         <v>45198.65625</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
         <v>37</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J37">
         <v>1.444</v>
@@ -3700,7 +3700,7 @@
         <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -3709,7 +3709,7 @@
         <v>1</v>
       </c>
       <c r="I38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J38">
         <v>2.25</v>
@@ -3783,10 +3783,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E39" t="s">
+        <v>28</v>
+      </c>
+      <c r="F39" t="s">
         <v>29</v>
-      </c>
-      <c r="F39" t="s">
-        <v>28</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -3795,7 +3795,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J39">
         <v>1.5</v>
@@ -4032,7 +4032,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6848363</v>
+        <v>6848365</v>
       </c>
       <c r="C42" t="s">
         <v>27</v>
@@ -4041,55 +4041,55 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
         <v>1</v>
       </c>
-      <c r="H42">
-        <v>4</v>
-      </c>
       <c r="I42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J42">
+        <v>2.15</v>
+      </c>
+      <c r="K42">
+        <v>3.5</v>
+      </c>
+      <c r="L42">
         <v>2.9</v>
       </c>
-      <c r="K42">
-        <v>3.6</v>
-      </c>
-      <c r="L42">
-        <v>2.1</v>
-      </c>
       <c r="M42">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="N42">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="O42">
+        <v>3.2</v>
+      </c>
+      <c r="P42">
+        <v>-0.25</v>
+      </c>
+      <c r="Q42">
         <v>1.8</v>
       </c>
-      <c r="P42">
-        <v>0.5</v>
-      </c>
-      <c r="Q42">
-        <v>2.025</v>
-      </c>
       <c r="R42">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S42">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T42">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U42">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V42">
         <v>-1</v>
@@ -4098,19 +4098,19 @@
         <v>-1</v>
       </c>
       <c r="X42">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA42">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="43" spans="1:28">
@@ -4139,7 +4139,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J43">
         <v>1.75</v>
@@ -4204,7 +4204,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6848365</v>
+        <v>6848363</v>
       </c>
       <c r="C44" t="s">
         <v>27</v>
@@ -4213,55 +4213,55 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J44">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="K44">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="L44">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="M44">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N44">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="O44">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="P44">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q44">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S44">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T44">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U44">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V44">
         <v>-1</v>
@@ -4270,19 +4270,19 @@
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB44">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45" spans="1:28">
@@ -4299,7 +4299,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F45" t="s">
         <v>34</v>
@@ -4311,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J45">
         <v>1.85</v>
@@ -4385,10 +4385,10 @@
         <v>45206.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4471,7 +4471,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F47" t="s">
         <v>36</v>
@@ -4560,7 +4560,7 @@
         <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4569,7 +4569,7 @@
         <v>2</v>
       </c>
       <c r="I48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J48">
         <v>4.333</v>
@@ -4646,7 +4646,7 @@
         <v>37</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J49">
         <v>2.1</v>
@@ -4741,7 +4741,7 @@
         <v>1</v>
       </c>
       <c r="I50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J50">
         <v>2.1</v>
@@ -4815,7 +4815,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F51" t="s">
         <v>35</v>
@@ -4827,7 +4827,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J51">
         <v>2.625</v>
@@ -4913,7 +4913,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J52">
         <v>3.2</v>
@@ -4987,7 +4987,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F53" t="s">
         <v>34</v>
@@ -4999,7 +4999,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J53">
         <v>1.2</v>
@@ -5085,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J54">
         <v>2.25</v>
@@ -5159,10 +5159,10 @@
         <v>45227.5625</v>
       </c>
       <c r="E55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5171,7 +5171,7 @@
         <v>3</v>
       </c>
       <c r="I55" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J55">
         <v>4.5</v>
@@ -5245,10 +5245,10 @@
         <v>45234.5</v>
       </c>
       <c r="E56" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G56">
         <v>1</v>
@@ -5408,7 +5408,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6845818</v>
+        <v>6848373</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
@@ -5417,76 +5417,76 @@
         <v>45234.5</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I58" t="s">
         <v>39</v>
       </c>
       <c r="J58">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="K58">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L58">
-        <v>2.2</v>
+        <v>1.909</v>
       </c>
       <c r="M58">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="N58">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O58">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="P58">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q58">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R58">
         <v>1.85</v>
       </c>
       <c r="S58">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T58">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U58">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V58">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="W58">
         <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y58">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB58">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:28">
@@ -5494,7 +5494,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6848373</v>
+        <v>6845818</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
@@ -5503,76 +5503,76 @@
         <v>45234.5</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I59" t="s">
         <v>38</v>
       </c>
       <c r="J59">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="K59">
+        <v>3.5</v>
+      </c>
+      <c r="L59">
+        <v>2.2</v>
+      </c>
+      <c r="M59">
+        <v>3.6</v>
+      </c>
+      <c r="N59">
         <v>3.75</v>
       </c>
-      <c r="L59">
-        <v>1.909</v>
-      </c>
-      <c r="M59">
-        <v>2.8</v>
-      </c>
-      <c r="N59">
-        <v>3.8</v>
-      </c>
       <c r="O59">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="P59">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q59">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R59">
         <v>1.85</v>
       </c>
       <c r="S59">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T59">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="U59">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V59">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="W59">
         <v>-1</v>
       </c>
       <c r="X59">
+        <v>-1</v>
+      </c>
+      <c r="Y59">
         <v>1</v>
       </c>
-      <c r="Y59">
-        <v>-1</v>
-      </c>
       <c r="Z59">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA59">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="60" spans="1:28">
@@ -5601,7 +5601,7 @@
         <v>2</v>
       </c>
       <c r="I60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J60">
         <v>2.1</v>
@@ -5675,7 +5675,7 @@
         <v>45241.5</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
         <v>32</v>
@@ -5687,7 +5687,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J61">
         <v>1.4</v>
@@ -5761,7 +5761,7 @@
         <v>45241.5</v>
       </c>
       <c r="E62" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F62" t="s">
         <v>36</v>
@@ -5773,7 +5773,7 @@
         <v>1</v>
       </c>
       <c r="I62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J62">
         <v>1.166</v>
@@ -5850,7 +5850,7 @@
         <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G63">
         <v>1</v>
@@ -5859,7 +5859,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J63">
         <v>2.5</v>
@@ -5945,7 +5945,7 @@
         <v>1</v>
       </c>
       <c r="I64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J64">
         <v>2.2</v>
@@ -6019,7 +6019,7 @@
         <v>45241.5</v>
       </c>
       <c r="E65" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F65" t="s">
         <v>37</v>
@@ -6108,7 +6108,7 @@
         <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6117,7 +6117,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J66">
         <v>1.85</v>
@@ -6203,7 +6203,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J67">
         <v>1.666</v>
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J68">
         <v>3.2</v>
@@ -6363,7 +6363,7 @@
         <v>45248.5</v>
       </c>
       <c r="E69" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F69" t="s">
         <v>33</v>
@@ -6375,7 +6375,7 @@
         <v>3</v>
       </c>
       <c r="I69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J69">
         <v>2.4</v>
@@ -6449,10 +6449,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70" t="s">
         <v>28</v>
-      </c>
-      <c r="F70" t="s">
-        <v>29</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6538,7 +6538,7 @@
         <v>37</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G71">
         <v>1</v>
@@ -6547,7 +6547,7 @@
         <v>2</v>
       </c>
       <c r="I71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J71">
         <v>6.5</v>
@@ -6621,10 +6621,10 @@
         <v>45262.5</v>
       </c>
       <c r="E72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F72" t="s">
         <v>31</v>
-      </c>
-      <c r="F72" t="s">
-        <v>30</v>
       </c>
       <c r="G72">
         <v>5</v>
@@ -6633,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J72">
         <v>1.5</v>
@@ -6698,7 +6698,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6845671</v>
+        <v>6845814</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
@@ -6707,76 +6707,76 @@
         <v>45269.5</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J73">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="K73">
-        <v>3.9</v>
+        <v>4.333</v>
       </c>
       <c r="L73">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="M73">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="N73">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="O73">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="P73">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R73">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S73">
         <v>2.75</v>
       </c>
       <c r="T73">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U73">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V73">
         <v>-1</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="X73">
+        <v>-1</v>
+      </c>
+      <c r="Y73">
+        <v>0.925</v>
+      </c>
+      <c r="Z73">
+        <v>-1</v>
+      </c>
+      <c r="AA73">
+        <v>-1</v>
+      </c>
+      <c r="AB73">
         <v>0.95</v>
-      </c>
-      <c r="Y73">
-        <v>-1</v>
-      </c>
-      <c r="Z73">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AA73">
-        <v>0.8</v>
-      </c>
-      <c r="AB73">
-        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:28">
@@ -6784,7 +6784,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6845814</v>
+        <v>6845671</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
@@ -6793,76 +6793,76 @@
         <v>45269.5</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J74">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="K74">
-        <v>4.333</v>
+        <v>3.9</v>
       </c>
       <c r="L74">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="M74">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N74">
-        <v>4.333</v>
+        <v>3.8</v>
       </c>
       <c r="O74">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="P74">
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S74">
         <v>2.75</v>
       </c>
       <c r="T74">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V74">
         <v>-1</v>
       </c>
       <c r="W74">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="X74">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y74">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB74">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:28">
@@ -6891,7 +6891,7 @@
         <v>3</v>
       </c>
       <c r="I75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J75">
         <v>2.75</v>
@@ -6965,7 +6965,7 @@
         <v>45269.5</v>
       </c>
       <c r="E76" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F76" t="s">
         <v>33</v>
@@ -6977,7 +6977,7 @@
         <v>1</v>
       </c>
       <c r="I76" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J76">
         <v>1.4</v>
@@ -7051,10 +7051,10 @@
         <v>45269.5</v>
       </c>
       <c r="E77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7063,7 +7063,7 @@
         <v>4</v>
       </c>
       <c r="I77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J77">
         <v>2.1</v>
@@ -7149,7 +7149,7 @@
         <v>2</v>
       </c>
       <c r="I78" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J78">
         <v>1.571</v>
@@ -7223,10 +7223,10 @@
         <v>45276.5</v>
       </c>
       <c r="E79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -7235,7 +7235,7 @@
         <v>3</v>
       </c>
       <c r="I79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J79">
         <v>2.375</v>
@@ -7398,7 +7398,7 @@
         <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -7407,7 +7407,7 @@
         <v>1</v>
       </c>
       <c r="I81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J81">
         <v>2.1</v>
@@ -7481,7 +7481,7 @@
         <v>45276.5</v>
       </c>
       <c r="E82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F82" t="s">
         <v>36</v>
@@ -7493,7 +7493,7 @@
         <v>1</v>
       </c>
       <c r="I82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J82">
         <v>1.333</v>
@@ -7558,7 +7558,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6845812</v>
+        <v>6848391</v>
       </c>
       <c r="C83" t="s">
         <v>27</v>
@@ -7567,76 +7567,76 @@
         <v>45283.5</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="s">
         <v>40</v>
       </c>
       <c r="J83">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="K83">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="L83">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="M83">
-        <v>1.363</v>
+        <v>2.05</v>
       </c>
       <c r="N83">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="O83">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="P83">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q83">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="R83">
         <v>2.025</v>
       </c>
       <c r="S83">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="T83">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U83">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="V83">
         <v>-1</v>
       </c>
       <c r="W83">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z83">
-        <v>1.025</v>
+        <v>0.5125</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB83">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="84" spans="1:28">
@@ -7644,7 +7644,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6848391</v>
+        <v>6845812</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -7653,76 +7653,76 @@
         <v>45283.5</v>
       </c>
       <c r="E84" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F84" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="s">
         <v>40</v>
       </c>
       <c r="J84">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="K84">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L84">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="M84">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="N84">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="O84">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P84">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="Q84">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="R84">
         <v>2.025</v>
       </c>
       <c r="S84">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="T84">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U84">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V84">
         <v>-1</v>
       </c>
       <c r="W84">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AA84">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="85" spans="1:28">
@@ -7742,7 +7742,7 @@
         <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7751,7 +7751,7 @@
         <v>3</v>
       </c>
       <c r="I85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J85">
         <v>6</v>
@@ -7828,7 +7828,7 @@
         <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7923,7 +7923,7 @@
         <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J87">
         <v>1.083</v>
@@ -8000,7 +8000,7 @@
         <v>36</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8009,7 +8009,7 @@
         <v>5</v>
       </c>
       <c r="I88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J88">
         <v>9</v>
@@ -8074,7 +8074,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6848394</v>
+        <v>6848396</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
@@ -8083,58 +8083,58 @@
         <v>45290.5</v>
       </c>
       <c r="E89" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F89" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G89">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J89">
-        <v>1.285</v>
+        <v>1.833</v>
       </c>
       <c r="K89">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="L89">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M89">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="N89">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="O89">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="P89">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="Q89">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="R89">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S89">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T89">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="U89">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V89">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="W89">
         <v>-1</v>
@@ -8143,16 +8143,16 @@
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z89">
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:28">
@@ -8160,7 +8160,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6848396</v>
+        <v>6845674</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
@@ -8169,61 +8169,61 @@
         <v>45290.5</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F90" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90">
         <v>1</v>
       </c>
       <c r="I90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J90">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="K90">
         <v>3.5</v>
       </c>
       <c r="L90">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="M90">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="N90">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O90">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="P90">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q90">
         <v>1.875</v>
       </c>
       <c r="R90">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S90">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T90">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="U90">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V90">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8235,10 +8235,10 @@
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:28">
@@ -8246,7 +8246,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6845674</v>
+        <v>6848394</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
@@ -8258,46 +8258,46 @@
         <v>28</v>
       </c>
       <c r="F91" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G91">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J91">
-        <v>2.55</v>
+        <v>1.285</v>
       </c>
       <c r="K91">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="L91">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="M91">
-        <v>3.4</v>
+        <v>1.166</v>
       </c>
       <c r="N91">
-        <v>3.6</v>
+        <v>6.5</v>
       </c>
       <c r="O91">
+        <v>11</v>
+      </c>
+      <c r="P91">
+        <v>-2</v>
+      </c>
+      <c r="Q91">
         <v>1.85</v>
       </c>
-      <c r="P91">
-        <v>0.5</v>
-      </c>
-      <c r="Q91">
-        <v>1.875</v>
-      </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S91">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T91">
         <v>1.95</v>
@@ -8306,25 +8306,25 @@
         <v>1.85</v>
       </c>
       <c r="V91">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="W91">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X91">
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB91">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8439,7 +8439,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J93">
         <v>1.05</v>
@@ -8516,7 +8516,7 @@
         <v>37</v>
       </c>
       <c r="F94" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8599,10 +8599,10 @@
         <v>45297.5</v>
       </c>
       <c r="E95" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -8611,7 +8611,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J95">
         <v>1.333</v>
@@ -8685,7 +8685,7 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E96" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F96" t="s">
         <v>35</v>
@@ -8697,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J96">
         <v>1.444</v>
@@ -8771,7 +8771,7 @@
         <v>45304.5</v>
       </c>
       <c r="E97" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F97" t="s">
         <v>34</v>
@@ -8857,7 +8857,7 @@
         <v>45304.5</v>
       </c>
       <c r="E98" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F98" t="s">
         <v>32</v>
@@ -8869,7 +8869,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J98">
         <v>1.8</v>
@@ -8934,7 +8934,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6848401</v>
+        <v>6845809</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -8943,76 +8943,76 @@
         <v>45304.5</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J99">
         <v>1.666</v>
       </c>
       <c r="K99">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L99">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M99">
+        <v>1.444</v>
+      </c>
+      <c r="N99">
+        <v>4.75</v>
+      </c>
+      <c r="O99">
+        <v>5.25</v>
+      </c>
+      <c r="P99">
+        <v>-1.25</v>
+      </c>
+      <c r="Q99">
+        <v>2</v>
+      </c>
+      <c r="R99">
+        <v>1.8</v>
+      </c>
+      <c r="S99">
+        <v>3</v>
+      </c>
+      <c r="T99">
+        <v>1.95</v>
+      </c>
+      <c r="U99">
         <v>1.85</v>
       </c>
-      <c r="N99">
-        <v>3.75</v>
-      </c>
-      <c r="O99">
-        <v>3.3</v>
-      </c>
-      <c r="P99">
-        <v>-0.5</v>
-      </c>
-      <c r="Q99">
-        <v>1.95</v>
-      </c>
-      <c r="R99">
-        <v>1.85</v>
-      </c>
-      <c r="S99">
-        <v>2.75</v>
-      </c>
-      <c r="T99">
-        <v>1.8</v>
-      </c>
-      <c r="U99">
-        <v>2</v>
-      </c>
       <c r="V99">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="W99">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
+        <v>-1</v>
+      </c>
+      <c r="AB99">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA99">
-        <v>-1</v>
-      </c>
-      <c r="AB99">
-        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:28">
@@ -9020,7 +9020,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6845809</v>
+        <v>6848401</v>
       </c>
       <c r="C100" t="s">
         <v>27</v>
@@ -9029,76 +9029,76 @@
         <v>45304.5</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J100">
         <v>1.666</v>
       </c>
       <c r="K100">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M100">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="N100">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="O100">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P100">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q100">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R100">
+        <v>1.85</v>
+      </c>
+      <c r="S100">
+        <v>2.75</v>
+      </c>
+      <c r="T100">
         <v>1.8</v>
       </c>
-      <c r="S100">
-        <v>3</v>
-      </c>
-      <c r="T100">
-        <v>1.95</v>
-      </c>
       <c r="U100">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V100">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="W100">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
+        <v>-1</v>
+      </c>
+      <c r="Z100">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA100">
+        <v>-1</v>
+      </c>
+      <c r="AB100">
         <v>1</v>
-      </c>
-      <c r="Z100">
-        <v>-1</v>
-      </c>
-      <c r="AA100">
-        <v>-1</v>
-      </c>
-      <c r="AB100">
-        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -9118,7 +9118,7 @@
         <v>36</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9204,7 +9204,7 @@
         <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G102">
         <v>0</v>
@@ -9213,7 +9213,7 @@
         <v>2</v>
       </c>
       <c r="I102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J102">
         <v>1.666</v>
@@ -9287,10 +9287,10 @@
         <v>45318.5</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F103" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -9376,7 +9376,7 @@
         <v>34</v>
       </c>
       <c r="F104" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -9385,7 +9385,7 @@
         <v>5</v>
       </c>
       <c r="I104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J104">
         <v>6</v>
@@ -9471,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J105">
         <v>1.444</v>
@@ -9557,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J106">
         <v>2.4</v>
@@ -9631,11 +9631,11 @@
         <v>45325.5</v>
       </c>
       <c r="E107" t="s">
+        <v>31</v>
+      </c>
+      <c r="F107" t="s">
         <v>30</v>
       </c>
-      <c r="F107" t="s">
-        <v>31</v>
-      </c>
       <c r="G107">
         <v>0</v>
       </c>
@@ -9643,7 +9643,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J107">
         <v>5.5</v>
@@ -9729,7 +9729,7 @@
         <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J108">
         <v>2.625</v>
@@ -9815,7 +9815,7 @@
         <v>3</v>
       </c>
       <c r="I109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J109">
         <v>9</v>
@@ -9978,7 +9978,7 @@
         <v>32</v>
       </c>
       <c r="F111" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9987,7 +9987,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J111">
         <v>2.3</v>
@@ -10061,7 +10061,7 @@
         <v>45332.5</v>
       </c>
       <c r="E112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F112" t="s">
         <v>37</v>
@@ -10073,7 +10073,7 @@
         <v>3</v>
       </c>
       <c r="I112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J112">
         <v>1.2</v>
@@ -10159,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J113">
         <v>2</v>
@@ -10236,7 +10236,7 @@
         <v>33</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -10319,7 +10319,7 @@
         <v>45332.5</v>
       </c>
       <c r="E115" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F115" t="s">
         <v>36</v>
@@ -10331,7 +10331,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J115">
         <v>1.1</v>
@@ -10417,7 +10417,7 @@
         <v>2</v>
       </c>
       <c r="I116" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J116">
         <v>1.125</v>
@@ -10503,7 +10503,7 @@
         <v>1</v>
       </c>
       <c r="I117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J117">
         <v>1.727</v>
@@ -10577,7 +10577,7 @@
         <v>45339.5</v>
       </c>
       <c r="E118" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F118" t="s">
         <v>33</v>
@@ -10589,7 +10589,7 @@
         <v>2</v>
       </c>
       <c r="I118" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J118">
         <v>2.1</v>
@@ -10666,7 +10666,7 @@
         <v>36</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -10761,7 +10761,7 @@
         <v>1</v>
       </c>
       <c r="I120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J120">
         <v>2.25</v>
@@ -10835,10 +10835,10 @@
         <v>45339.5</v>
       </c>
       <c r="E121" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -10847,7 +10847,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J121">
         <v>2</v>
@@ -10933,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J122">
         <v>2.6</v>
@@ -11007,10 +11007,10 @@
         <v>45342.69791666666</v>
       </c>
       <c r="E123" t="s">
+        <v>28</v>
+      </c>
+      <c r="F123" t="s">
         <v>29</v>
-      </c>
-      <c r="F123" t="s">
-        <v>28</v>
       </c>
       <c r="G123">
         <v>3</v>
@@ -11019,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="I123" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J123">
         <v>1.25</v>
@@ -11084,7 +11084,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6848417</v>
+        <v>6848419</v>
       </c>
       <c r="C124" t="s">
         <v>27</v>
@@ -11093,76 +11093,76 @@
         <v>45346.5</v>
       </c>
       <c r="E124" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F124" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="s">
         <v>38</v>
       </c>
       <c r="J124">
-        <v>5.5</v>
+        <v>1.166</v>
       </c>
       <c r="K124">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L124">
-        <v>1.363</v>
+        <v>11</v>
       </c>
       <c r="M124">
-        <v>8.5</v>
+        <v>1.222</v>
       </c>
       <c r="N124">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="O124">
-        <v>1.25</v>
+        <v>10</v>
       </c>
       <c r="P124">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="Q124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S124">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T124">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U124">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="Z124">
         <v>-1</v>
       </c>
       <c r="AA124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB124">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:28">
@@ -11170,7 +11170,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6848419</v>
+        <v>6848417</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
@@ -11179,76 +11179,76 @@
         <v>45346.5</v>
       </c>
       <c r="E125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G125">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I125" t="s">
         <v>39</v>
       </c>
       <c r="J125">
-        <v>1.166</v>
+        <v>5.5</v>
       </c>
       <c r="K125">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L125">
-        <v>11</v>
+        <v>1.363</v>
       </c>
       <c r="M125">
-        <v>1.222</v>
+        <v>8.5</v>
       </c>
       <c r="N125">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="O125">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="P125">
-        <v>-1.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="R125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T125">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="U125">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V125">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y125">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z125">
         <v>-1</v>
       </c>
       <c r="AA125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:28">
@@ -11277,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="I126" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J126">
         <v>1.666</v>
@@ -11351,7 +11351,7 @@
         <v>45346.5</v>
       </c>
       <c r="E127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F127" t="s">
         <v>34</v>
@@ -11363,7 +11363,7 @@
         <v>2</v>
       </c>
       <c r="I127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J127">
         <v>1.4</v>
@@ -11437,10 +11437,10 @@
         <v>45346.60416666666</v>
       </c>
       <c r="E128" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F128" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -11449,7 +11449,7 @@
         <v>3</v>
       </c>
       <c r="I128" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J128">
         <v>2</v>
@@ -11526,7 +11526,7 @@
         <v>32</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -11600,7 +11600,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6937667</v>
+        <v>6920595</v>
       </c>
       <c r="C130" t="s">
         <v>27</v>
@@ -11609,76 +11609,76 @@
         <v>45353.5</v>
       </c>
       <c r="E130" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I130" t="s">
         <v>38</v>
       </c>
       <c r="J130">
-        <v>6.5</v>
+        <v>2.15</v>
       </c>
       <c r="K130">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="L130">
-        <v>1.333</v>
+        <v>2.9</v>
       </c>
       <c r="M130">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="N130">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="O130">
+        <v>2.8</v>
+      </c>
+      <c r="P130">
+        <v>-0.25</v>
+      </c>
+      <c r="Q130">
+        <v>2.025</v>
+      </c>
+      <c r="R130">
+        <v>1.825</v>
+      </c>
+      <c r="S130">
+        <v>2.5</v>
+      </c>
+      <c r="T130">
+        <v>1.825</v>
+      </c>
+      <c r="U130">
+        <v>2.025</v>
+      </c>
+      <c r="V130">
         <v>1.25</v>
       </c>
-      <c r="P130">
-        <v>1.75</v>
-      </c>
-      <c r="Q130">
-        <v>1.95</v>
-      </c>
-      <c r="R130">
-        <v>1.85</v>
-      </c>
-      <c r="S130">
-        <v>3.5</v>
-      </c>
-      <c r="T130">
-        <v>1.925</v>
-      </c>
-      <c r="U130">
-        <v>1.875</v>
-      </c>
-      <c r="V130">
-        <v>-1</v>
-      </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="Z130">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB130">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11686,7 +11686,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6937668</v>
+        <v>6937667</v>
       </c>
       <c r="C131" t="s">
         <v>27</v>
@@ -11695,76 +11695,76 @@
         <v>45353.5</v>
       </c>
       <c r="E131" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J131">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="K131">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="L131">
-        <v>9.5</v>
+        <v>1.333</v>
       </c>
       <c r="M131">
-        <v>1.125</v>
+        <v>9</v>
       </c>
       <c r="N131">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="O131">
-        <v>12</v>
+        <v>1.25</v>
       </c>
       <c r="P131">
-        <v>-2.25</v>
+        <v>1.75</v>
       </c>
       <c r="Q131">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S131">
         <v>3.5</v>
       </c>
       <c r="T131">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V131">
         <v>-1</v>
       </c>
       <c r="W131">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z131">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -11772,7 +11772,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6921319</v>
+        <v>6937668</v>
       </c>
       <c r="C132" t="s">
         <v>27</v>
@@ -11781,76 +11781,76 @@
         <v>45353.5</v>
       </c>
       <c r="E132" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="s">
         <v>40</v>
       </c>
       <c r="J132">
+        <v>1.166</v>
+      </c>
+      <c r="K132">
+        <v>7.5</v>
+      </c>
+      <c r="L132">
+        <v>9.5</v>
+      </c>
+      <c r="M132">
+        <v>1.125</v>
+      </c>
+      <c r="N132">
+        <v>9</v>
+      </c>
+      <c r="O132">
+        <v>12</v>
+      </c>
+      <c r="P132">
+        <v>-2.25</v>
+      </c>
+      <c r="Q132">
+        <v>1.8</v>
+      </c>
+      <c r="R132">
+        <v>2</v>
+      </c>
+      <c r="S132">
+        <v>3.5</v>
+      </c>
+      <c r="T132">
+        <v>1.85</v>
+      </c>
+      <c r="U132">
         <v>1.95</v>
       </c>
-      <c r="K132">
-        <v>3.5</v>
-      </c>
-      <c r="L132">
-        <v>3.4</v>
-      </c>
-      <c r="M132">
-        <v>2.25</v>
-      </c>
-      <c r="N132">
-        <v>3.2</v>
-      </c>
-      <c r="O132">
-        <v>3</v>
-      </c>
-      <c r="P132">
-        <v>-0.25</v>
-      </c>
-      <c r="Q132">
-        <v>2.025</v>
-      </c>
-      <c r="R132">
-        <v>1.825</v>
-      </c>
-      <c r="S132">
-        <v>2.5</v>
-      </c>
-      <c r="T132">
-        <v>2.05</v>
-      </c>
-      <c r="U132">
-        <v>1.8</v>
-      </c>
       <c r="V132">
         <v>-1</v>
       </c>
       <c r="W132">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AA132">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="133" spans="1:28">
@@ -11858,7 +11858,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6920595</v>
+        <v>6920622</v>
       </c>
       <c r="C133" t="s">
         <v>27</v>
@@ -11867,73 +11867,73 @@
         <v>45353.5</v>
       </c>
       <c r="E133" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F133" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G133">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I133" t="s">
         <v>39</v>
       </c>
       <c r="J133">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="K133">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="L133">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="M133">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="N133">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O133">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="P133">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q133">
+        <v>1.775</v>
+      </c>
+      <c r="R133">
         <v>2.025</v>
       </c>
-      <c r="R133">
-        <v>1.825</v>
-      </c>
       <c r="S133">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T133">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U133">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V133">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y133">
+        <v>-1</v>
+      </c>
+      <c r="Z133">
         <v>1.025</v>
       </c>
-      <c r="Z133">
-        <v>-1</v>
-      </c>
       <c r="AA133">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AB133">
         <v>-1</v>
@@ -11944,7 +11944,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6920622</v>
+        <v>6921319</v>
       </c>
       <c r="C134" t="s">
         <v>27</v>
@@ -11953,52 +11953,52 @@
         <v>45353.5</v>
       </c>
       <c r="E134" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H134">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I134" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J134">
-        <v>4</v>
+        <v>1.95</v>
       </c>
       <c r="K134">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="L134">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>4.333</v>
+        <v>2.25</v>
       </c>
       <c r="N134">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="O134">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="P134">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q134">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="R134">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S134">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T134">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U134">
         <v>1.8</v>
@@ -12007,19 +12007,19 @@
         <v>-1</v>
       </c>
       <c r="W134">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X134">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="Z134">
-        <v>1.025</v>
+        <v>0.4125</v>
       </c>
       <c r="AA134">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AB134">
         <v>-1</v>
@@ -12042,7 +12042,7 @@
         <v>35</v>
       </c>
       <c r="F135" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12051,7 +12051,7 @@
         <v>1</v>
       </c>
       <c r="I135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J135">
         <v>5.5</v>
@@ -12137,7 +12137,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J136">
         <v>1.909</v>
@@ -12214,7 +12214,7 @@
         <v>32</v>
       </c>
       <c r="F137" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12223,7 +12223,7 @@
         <v>2</v>
       </c>
       <c r="I137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J137">
         <v>7</v>
@@ -12300,7 +12300,7 @@
         <v>35</v>
       </c>
       <c r="F138" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12309,7 +12309,7 @@
         <v>4</v>
       </c>
       <c r="I138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J138">
         <v>1.727</v>
@@ -12383,7 +12383,7 @@
         <v>45360.5</v>
       </c>
       <c r="E139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F139" t="s">
         <v>36</v>
@@ -12395,7 +12395,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J139">
         <v>1.111</v>
@@ -12472,7 +12472,7 @@
         <v>37</v>
       </c>
       <c r="F140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -12481,7 +12481,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J140">
         <v>2.375</v>
@@ -12555,7 +12555,7 @@
         <v>45367.5</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F141" t="s">
         <v>32</v>
@@ -12567,7 +12567,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J141">
         <v>1.25</v>
@@ -12653,7 +12653,7 @@
         <v>5</v>
       </c>
       <c r="I142" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J142">
         <v>10</v>
@@ -12727,7 +12727,7 @@
         <v>45367.5</v>
       </c>
       <c r="E143" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F143" t="s">
         <v>37</v>
@@ -12825,7 +12825,7 @@
         <v>1</v>
       </c>
       <c r="I144" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J144">
         <v>2.55</v>
@@ -12899,10 +12899,10 @@
         <v>45367.60416666666</v>
       </c>
       <c r="E145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F145" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12911,7 +12911,7 @@
         <v>4</v>
       </c>
       <c r="I145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J145">
         <v>8</v>
@@ -12997,7 +12997,7 @@
         <v>1</v>
       </c>
       <c r="I146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J146">
         <v>2.6</v>
@@ -13083,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J147">
         <v>2.3</v>
@@ -13160,7 +13160,7 @@
         <v>32</v>
       </c>
       <c r="F148" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -13169,7 +13169,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J148">
         <v>2.625</v>
@@ -13243,7 +13243,7 @@
         <v>45374.5</v>
       </c>
       <c r="E149" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F149" t="s">
         <v>36</v>
@@ -13255,7 +13255,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J149">
         <v>1.04</v>
@@ -13332,7 +13332,7 @@
         <v>34</v>
       </c>
       <c r="F150" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13341,7 +13341,7 @@
         <v>2</v>
       </c>
       <c r="I150" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J150">
         <v>1.909</v>
@@ -13418,7 +13418,7 @@
         <v>35</v>
       </c>
       <c r="F151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13427,7 +13427,7 @@
         <v>3</v>
       </c>
       <c r="I151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J151">
         <v>3.3</v>
@@ -13513,7 +13513,7 @@
         <v>1</v>
       </c>
       <c r="I152" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J152">
         <v>1.3</v>
@@ -13587,10 +13587,10 @@
         <v>45381.5</v>
       </c>
       <c r="E153" t="s">
+        <v>30</v>
+      </c>
+      <c r="F153" t="s">
         <v>31</v>
-      </c>
-      <c r="F153" t="s">
-        <v>30</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13685,7 +13685,7 @@
         <v>2</v>
       </c>
       <c r="I154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J154">
         <v>1.75</v>
@@ -13845,10 +13845,10 @@
         <v>45381.60416666666</v>
       </c>
       <c r="E156" t="s">
+        <v>29</v>
+      </c>
+      <c r="F156" t="s">
         <v>28</v>
-      </c>
-      <c r="F156" t="s">
-        <v>29</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13857,7 +13857,7 @@
         <v>7</v>
       </c>
       <c r="I156" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J156">
         <v>4.75</v>
@@ -13934,7 +13934,7 @@
         <v>36</v>
       </c>
       <c r="F157" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -14017,7 +14017,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F158" t="s">
         <v>33</v>
@@ -14029,7 +14029,7 @@
         <v>2</v>
       </c>
       <c r="I158" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J158">
         <v>2.2</v>
@@ -14094,7 +14094,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7060651</v>
+        <v>7060654</v>
       </c>
       <c r="C159" t="s">
         <v>27</v>
@@ -14103,55 +14103,55 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E159" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G159">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I159" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J159">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="K159">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="L159">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="M159">
+        <v>2.55</v>
+      </c>
+      <c r="N159">
         <v>3.5</v>
       </c>
-      <c r="N159">
-        <v>4.75</v>
-      </c>
       <c r="O159">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="P159">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q159">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R159">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S159">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T159">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="U159">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V159">
         <v>-1</v>
@@ -14160,16 +14160,16 @@
         <v>-1</v>
       </c>
       <c r="X159">
-        <v>0.6659999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="Y159">
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA159">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB159">
         <v>-1</v>
@@ -14180,7 +14180,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>7060654</v>
+        <v>7060651</v>
       </c>
       <c r="C160" t="s">
         <v>27</v>
@@ -14189,55 +14189,55 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E160" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G160">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I160" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J160">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="K160">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="L160">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="M160">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="N160">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="O160">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="P160">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q160">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R160">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S160">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T160">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U160">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V160">
         <v>-1</v>
@@ -14246,16 +14246,16 @@
         <v>-1</v>
       </c>
       <c r="X160">
-        <v>1.375</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y160">
         <v>-1</v>
       </c>
       <c r="Z160">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA160">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB160">
         <v>-1</v>
@@ -14275,7 +14275,7 @@
         <v>45388.5625</v>
       </c>
       <c r="E161" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F161" t="s">
         <v>35</v>
@@ -14287,7 +14287,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J161">
         <v>1.571</v>
@@ -14352,7 +14352,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7128383</v>
+        <v>7107442</v>
       </c>
       <c r="C162" t="s">
         <v>27</v>
@@ -14361,58 +14361,58 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J162">
-        <v>1.111</v>
+        <v>2</v>
       </c>
       <c r="K162">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="L162">
-        <v>13</v>
+        <v>3.25</v>
       </c>
       <c r="M162">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="N162">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="O162">
-        <v>9.5</v>
+        <v>2.75</v>
       </c>
       <c r="P162">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="Q162">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="R162">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S162">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T162">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U162">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V162">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="W162">
         <v>-1</v>
@@ -14421,16 +14421,16 @@
         <v>-1</v>
       </c>
       <c r="Y162">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="Z162">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA162">
         <v>-1</v>
       </c>
       <c r="AB162">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="163" spans="1:28">
@@ -14438,7 +14438,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7128380</v>
+        <v>7128383</v>
       </c>
       <c r="C163" t="s">
         <v>27</v>
@@ -14447,70 +14447,70 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F163" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H163">
         <v>0</v>
       </c>
       <c r="I163" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J163">
-        <v>2.1</v>
+        <v>1.111</v>
       </c>
       <c r="K163">
-        <v>3.7</v>
+        <v>8.5</v>
       </c>
       <c r="L163">
-        <v>2.875</v>
+        <v>13</v>
       </c>
       <c r="M163">
-        <v>2.15</v>
+        <v>1.2</v>
       </c>
       <c r="N163">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="O163">
-        <v>2.8</v>
+        <v>9.5</v>
       </c>
       <c r="P163">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="Q163">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="R163">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S163">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T163">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U163">
         <v>2</v>
       </c>
       <c r="V163">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="W163">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X163">
         <v>-1</v>
       </c>
       <c r="Y163">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Z163">
-        <v>0.4375</v>
+        <v>0</v>
       </c>
       <c r="AA163">
         <v>-1</v>
@@ -14524,7 +14524,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7107442</v>
+        <v>7128381</v>
       </c>
       <c r="C164" t="s">
         <v>27</v>
@@ -14533,58 +14533,58 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F164" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J164">
-        <v>2</v>
+        <v>2.95</v>
       </c>
       <c r="K164">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L164">
+        <v>2.05</v>
+      </c>
+      <c r="M164">
+        <v>2.3</v>
+      </c>
+      <c r="N164">
+        <v>3.8</v>
+      </c>
+      <c r="O164">
+        <v>2.55</v>
+      </c>
+      <c r="P164">
+        <v>0</v>
+      </c>
+      <c r="Q164">
+        <v>1.875</v>
+      </c>
+      <c r="R164">
+        <v>1.975</v>
+      </c>
+      <c r="S164">
         <v>3.25</v>
       </c>
-      <c r="M164">
-        <v>2.25</v>
-      </c>
-      <c r="N164">
-        <v>3.5</v>
-      </c>
-      <c r="O164">
-        <v>2.75</v>
-      </c>
-      <c r="P164">
-        <v>-0.25</v>
-      </c>
-      <c r="Q164">
-        <v>1.975</v>
-      </c>
-      <c r="R164">
-        <v>1.825</v>
-      </c>
-      <c r="S164">
-        <v>2.75</v>
-      </c>
       <c r="T164">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U164">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V164">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="W164">
         <v>-1</v>
@@ -14593,16 +14593,16 @@
         <v>-1</v>
       </c>
       <c r="Y164">
-        <v>0.9750000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB164">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="165" spans="1:28">
@@ -14610,7 +14610,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7128381</v>
+        <v>7128380</v>
       </c>
       <c r="C165" t="s">
         <v>27</v>
@@ -14619,76 +14619,76 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E165" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G165">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J165">
-        <v>2.95</v>
+        <v>2.1</v>
       </c>
       <c r="K165">
+        <v>3.7</v>
+      </c>
+      <c r="L165">
+        <v>2.875</v>
+      </c>
+      <c r="M165">
+        <v>2.15</v>
+      </c>
+      <c r="N165">
         <v>3.75</v>
       </c>
-      <c r="L165">
-        <v>2.05</v>
-      </c>
-      <c r="M165">
-        <v>2.3</v>
-      </c>
-      <c r="N165">
-        <v>3.8</v>
-      </c>
       <c r="O165">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="P165">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q165">
+        <v>1.975</v>
+      </c>
+      <c r="R165">
         <v>1.875</v>
       </c>
-      <c r="R165">
-        <v>1.975</v>
-      </c>
       <c r="S165">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="T165">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U165">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V165">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W165">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X165">
         <v>-1</v>
       </c>
       <c r="Y165">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="Z165">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AA165">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB165">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:28">
@@ -14705,10 +14705,10 @@
         <v>45395.5625</v>
       </c>
       <c r="E166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F166" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -14717,7 +14717,7 @@
         <v>2</v>
       </c>
       <c r="I166" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J166">
         <v>2.625</v>
@@ -14794,7 +14794,7 @@
         <v>36</v>
       </c>
       <c r="F167" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -14803,7 +14803,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J167">
         <v>11</v>
@@ -14880,7 +14880,7 @@
         <v>32</v>
       </c>
       <c r="F168" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14963,10 +14963,10 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E169" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -14975,7 +14975,7 @@
         <v>2</v>
       </c>
       <c r="I169" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J169">
         <v>4.333</v>
@@ -15049,7 +15049,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F170" t="s">
         <v>33</v>
@@ -15147,7 +15147,7 @@
         <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J171">
         <v>5.5</v>
@@ -15233,7 +15233,7 @@
         <v>3</v>
       </c>
       <c r="I172" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J172">
         <v>2.4</v>
@@ -15319,7 +15319,7 @@
         <v>3</v>
       </c>
       <c r="I173" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J173">
         <v>5</v>
@@ -15396,7 +15396,7 @@
         <v>37</v>
       </c>
       <c r="F174" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G174">
         <v>3</v>
@@ -15482,7 +15482,7 @@
         <v>34</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G175">
         <v>0</v>
@@ -15491,7 +15491,7 @@
         <v>1</v>
       </c>
       <c r="I175" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J175">
         <v>3.8</v>
@@ -15568,7 +15568,7 @@
         <v>33</v>
       </c>
       <c r="F176" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G176">
         <v>0</v>
@@ -15577,7 +15577,7 @@
         <v>2</v>
       </c>
       <c r="I176" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J176">
         <v>2.3</v>
@@ -15651,7 +15651,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E177" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F177" t="s">
         <v>35</v>
@@ -15663,7 +15663,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J177">
         <v>2.25</v>
@@ -15728,7 +15728,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7222590</v>
+        <v>7222591</v>
       </c>
       <c r="C178" t="s">
         <v>27</v>
@@ -15737,76 +15737,76 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E178" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J178">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="K178">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="L178">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M178">
-        <v>1.25</v>
+        <v>1.142</v>
       </c>
       <c r="N178">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O178">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="P178">
-        <v>-1.75</v>
+        <v>-2.5</v>
       </c>
       <c r="Q178">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="R178">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S178">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T178">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="U178">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA178">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:28">
@@ -15814,7 +15814,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>7222591</v>
+        <v>7222590</v>
       </c>
       <c r="C179" t="s">
         <v>27</v>
@@ -15823,76 +15823,76 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E179" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J179">
-        <v>1.285</v>
+        <v>1.5</v>
       </c>
       <c r="K179">
-        <v>5.75</v>
+        <v>4.333</v>
       </c>
       <c r="L179">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M179">
-        <v>1.142</v>
+        <v>1.25</v>
       </c>
       <c r="N179">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="O179">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="P179">
-        <v>-2.5</v>
+        <v>-1.75</v>
       </c>
       <c r="Q179">
+        <v>1.85</v>
+      </c>
+      <c r="R179">
+        <v>1.95</v>
+      </c>
+      <c r="S179">
+        <v>3.5</v>
+      </c>
+      <c r="T179">
+        <v>1.825</v>
+      </c>
+      <c r="U179">
         <v>1.975</v>
       </c>
-      <c r="R179">
-        <v>1.825</v>
-      </c>
-      <c r="S179">
-        <v>4</v>
-      </c>
-      <c r="T179">
-        <v>1.8</v>
-      </c>
-      <c r="U179">
-        <v>2</v>
-      </c>
       <c r="V179">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W179">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="Z179">
+        <v>-0.5</v>
+      </c>
+      <c r="AA179">
         <v>0.825</v>
       </c>
-      <c r="AA179">
-        <v>0</v>
-      </c>
       <c r="AB179">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:28">
@@ -15995,10 +15995,10 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E181" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F181" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G181">
         <v>3</v>
@@ -16007,7 +16007,7 @@
         <v>2</v>
       </c>
       <c r="I181" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J181">
         <v>2.5</v>
@@ -16081,7 +16081,7 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F182" t="s">
         <v>33</v>
@@ -16093,7 +16093,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J182">
         <v>1.666</v>

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -2168,7 +2168,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6848349</v>
+        <v>6848350</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
@@ -2177,64 +2177,64 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K19" t="s">
         <v>41</v>
       </c>
       <c r="L19">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="M19">
+        <v>3.6</v>
+      </c>
+      <c r="N19">
+        <v>3.8</v>
+      </c>
+      <c r="O19">
+        <v>2.05</v>
+      </c>
+      <c r="P19">
         <v>3.4</v>
       </c>
-      <c r="N19">
-        <v>2.9</v>
-      </c>
-      <c r="O19">
-        <v>2</v>
-      </c>
-      <c r="P19">
-        <v>3.75</v>
-      </c>
       <c r="Q19">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R19">
         <v>-0.25</v>
       </c>
       <c r="S19">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T19">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="U19">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V19">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W19">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="Y19">
         <v>-1</v>
@@ -2243,16 +2243,16 @@
         <v>-1</v>
       </c>
       <c r="AA19">
-        <v>0.7749999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="AB19">
         <v>-1</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -2260,7 +2260,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6848350</v>
+        <v>6848349</v>
       </c>
       <c r="C20" t="s">
         <v>29</v>
@@ -2269,64 +2269,64 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" t="s">
         <v>41</v>
       </c>
       <c r="L20">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="M20">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N20">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="O20">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="P20">
+        <v>3.75</v>
+      </c>
+      <c r="Q20">
         <v>3.4</v>
-      </c>
-      <c r="Q20">
-        <v>3.5</v>
       </c>
       <c r="R20">
         <v>-0.25</v>
       </c>
       <c r="S20">
+        <v>1.775</v>
+      </c>
+      <c r="T20">
+        <v>2.025</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20">
         <v>1.8</v>
       </c>
-      <c r="T20">
-        <v>2.05</v>
-      </c>
-      <c r="U20">
-        <v>2.75</v>
-      </c>
-      <c r="V20">
-        <v>1.975</v>
-      </c>
-      <c r="W20">
-        <v>1.875</v>
-      </c>
       <c r="X20">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
@@ -2335,16 +2335,16 @@
         <v>-1</v>
       </c>
       <c r="AA20">
-        <v>0.8</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB20">
         <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -2444,7 +2444,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6848353</v>
+        <v>6848351</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -2453,61 +2453,61 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" t="s">
         <v>40</v>
       </c>
       <c r="L22">
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>3.75</v>
+      </c>
+      <c r="N22">
+        <v>1.666</v>
+      </c>
+      <c r="O22">
+        <v>10</v>
+      </c>
+      <c r="P22">
+        <v>5.5</v>
+      </c>
+      <c r="Q22">
+        <v>1.222</v>
+      </c>
+      <c r="R22">
+        <v>1.75</v>
+      </c>
+      <c r="S22">
+        <v>2</v>
+      </c>
+      <c r="T22">
         <v>1.8</v>
       </c>
-      <c r="M22">
-        <v>3.6</v>
-      </c>
-      <c r="N22">
-        <v>3.6</v>
-      </c>
-      <c r="O22">
-        <v>1.666</v>
-      </c>
-      <c r="P22">
-        <v>3.75</v>
-      </c>
-      <c r="Q22">
-        <v>4.5</v>
-      </c>
-      <c r="R22">
-        <v>-0.75</v>
-      </c>
-      <c r="S22">
-        <v>1.85</v>
-      </c>
-      <c r="T22">
-        <v>1.95</v>
-      </c>
       <c r="U22">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V22">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W22">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X22">
         <v>-1</v>
@@ -2516,19 +2516,19 @@
         <v>-1</v>
       </c>
       <c r="Z22">
-        <v>3.5</v>
+        <v>0.222</v>
       </c>
       <c r="AA22">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB22">
-        <v>0.95</v>
+        <v>0.4</v>
       </c>
       <c r="AC22">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD22">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -2536,7 +2536,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6848351</v>
+        <v>6848353</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2545,82 +2545,82 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K23" t="s">
         <v>40</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="M23">
+        <v>3.6</v>
+      </c>
+      <c r="N23">
+        <v>3.6</v>
+      </c>
+      <c r="O23">
+        <v>1.666</v>
+      </c>
+      <c r="P23">
         <v>3.75</v>
       </c>
-      <c r="N23">
-        <v>1.666</v>
-      </c>
-      <c r="O23">
-        <v>10</v>
-      </c>
-      <c r="P23">
-        <v>5.5</v>
-      </c>
       <c r="Q23">
-        <v>1.222</v>
+        <v>4.5</v>
       </c>
       <c r="R23">
-        <v>1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="T23">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U23">
+        <v>3</v>
+      </c>
+      <c r="V23">
+        <v>1.875</v>
+      </c>
+      <c r="W23">
+        <v>1.925</v>
+      </c>
+      <c r="X23">
+        <v>-1</v>
+      </c>
+      <c r="Y23">
+        <v>-1</v>
+      </c>
+      <c r="Z23">
         <v>3.5</v>
       </c>
-      <c r="V23">
-        <v>2</v>
-      </c>
-      <c r="W23">
-        <v>1.8</v>
-      </c>
-      <c r="X23">
-        <v>-1</v>
-      </c>
-      <c r="Y23">
-        <v>-1</v>
-      </c>
-      <c r="Z23">
-        <v>0.222</v>
-      </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="AC23">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD23">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -3088,7 +3088,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6848355</v>
+        <v>6845824</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3097,16 +3097,16 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3118,43 +3118,43 @@
         <v>41</v>
       </c>
       <c r="L29">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="M29">
         <v>4</v>
       </c>
       <c r="N29">
+        <v>5.5</v>
+      </c>
+      <c r="O29">
+        <v>1.4</v>
+      </c>
+      <c r="P29">
         <v>4.2</v>
       </c>
-      <c r="O29">
-        <v>1.5</v>
-      </c>
-      <c r="P29">
-        <v>4.75</v>
-      </c>
       <c r="Q29">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="R29">
         <v>-1.25</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="U29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W29">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="X29">
-        <v>0.5</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y29">
         <v>-1</v>
@@ -3166,13 +3166,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>0.4</v>
+        <v>0.4375</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AD29">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3272,7 +3272,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6845824</v>
+        <v>6848355</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -3281,16 +3281,16 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>0</v>
@@ -3302,43 +3302,43 @@
         <v>41</v>
       </c>
       <c r="L31">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="M31">
         <v>4</v>
       </c>
       <c r="N31">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="O31">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P31">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q31">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="R31">
         <v>-1.25</v>
       </c>
       <c r="S31">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T31">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U31">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V31">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W31">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X31">
-        <v>0.3999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="Y31">
         <v>-1</v>
@@ -3350,13 +3350,13 @@
         <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>0.4375</v>
+        <v>0.4</v>
       </c>
       <c r="AC31">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD31">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3364,7 +3364,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6845823</v>
+        <v>6848359</v>
       </c>
       <c r="C32" t="s">
         <v>29</v>
@@ -3373,82 +3373,82 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>1</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L32">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="M32">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N32">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O32">
+        <v>2</v>
+      </c>
+      <c r="P32">
+        <v>3.6</v>
+      </c>
+      <c r="Q32">
         <v>3.1</v>
       </c>
-      <c r="P32">
-        <v>3.5</v>
-      </c>
-      <c r="Q32">
-        <v>2.1</v>
-      </c>
       <c r="R32">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S32">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T32">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U32">
         <v>2.75</v>
       </c>
       <c r="V32">
+        <v>1.925</v>
+      </c>
+      <c r="W32">
         <v>1.875</v>
       </c>
-      <c r="W32">
-        <v>1.975</v>
-      </c>
       <c r="X32">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
+        <v>-1</v>
+      </c>
+      <c r="AD32">
         <v>0.875</v>
-      </c>
-      <c r="AC32">
-        <v>0.4375</v>
-      </c>
-      <c r="AD32">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -3456,7 +3456,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6848359</v>
+        <v>6845823</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3465,82 +3465,82 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L33">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="M33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N33">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O33">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="P33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q33">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="R33">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S33">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T33">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U33">
         <v>2.75</v>
       </c>
       <c r="V33">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X33">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA33">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AD33">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -4284,7 +4284,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6848365</v>
+        <v>6848363</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -4293,61 +4293,61 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K42" t="s">
         <v>40</v>
       </c>
       <c r="L42">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="M42">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N42">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="O42">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="P42">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q42">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="R42">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S42">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U42">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V42">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W42">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X42">
         <v>-1</v>
@@ -4356,19 +4356,19 @@
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="AA42">
         <v>-1</v>
       </c>
       <c r="AB42">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AD42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -4376,7 +4376,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6848363</v>
+        <v>6848364</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4385,82 +4385,82 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L43">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="M43">
         <v>3.6</v>
       </c>
       <c r="N43">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O43">
+        <v>1.909</v>
+      </c>
+      <c r="P43">
         <v>3.6</v>
       </c>
-      <c r="P43">
-        <v>4</v>
-      </c>
       <c r="Q43">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="R43">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S43">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T43">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U43">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V43">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W43">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="X43">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA43">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB43">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC43">
-        <v>1.025</v>
+        <v>0.4375</v>
       </c>
       <c r="AD43">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:30">
@@ -4468,7 +4468,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6848364</v>
+        <v>6848365</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -4477,82 +4477,82 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44">
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L44">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="M44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N44">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O44">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="P44">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q44">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="R44">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S44">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T44">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U44">
         <v>2.75</v>
       </c>
       <c r="V44">
+        <v>1.925</v>
+      </c>
+      <c r="W44">
         <v>1.875</v>
       </c>
-      <c r="W44">
-        <v>1.975</v>
-      </c>
       <c r="X44">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC44">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AD44">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -4744,7 +4744,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6848367</v>
+        <v>6848368</v>
       </c>
       <c r="C47" t="s">
         <v>29</v>
@@ -4753,19 +4753,19 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -4774,40 +4774,40 @@
         <v>40</v>
       </c>
       <c r="L47">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="M47">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N47">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="O47">
-        <v>2.75</v>
+        <v>5.75</v>
       </c>
       <c r="P47">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q47">
-        <v>2.3</v>
+        <v>1.45</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S47">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T47">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U47">
         <v>3</v>
       </c>
       <c r="V47">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W47">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X47">
         <v>-1</v>
@@ -4816,19 +4816,19 @@
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>1.3</v>
+        <v>0.45</v>
       </c>
       <c r="AA47">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB47">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AC47">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD47">
-        <v>0.875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:30">
@@ -4836,7 +4836,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>6848366</v>
+        <v>6848367</v>
       </c>
       <c r="C48" t="s">
         <v>29</v>
@@ -4845,82 +4845,82 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E48" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G48">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <v>1</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J48">
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L48">
         <v>2.1</v>
       </c>
       <c r="M48">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="N48">
+        <v>2.875</v>
+      </c>
+      <c r="O48">
+        <v>2.75</v>
+      </c>
+      <c r="P48">
+        <v>3.5</v>
+      </c>
+      <c r="Q48">
+        <v>2.3</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>2.05</v>
+      </c>
+      <c r="T48">
+        <v>1.8</v>
+      </c>
+      <c r="U48">
         <v>3</v>
       </c>
-      <c r="O48">
-        <v>2.6</v>
-      </c>
-      <c r="P48">
-        <v>3.3</v>
-      </c>
-      <c r="Q48">
-        <v>2.4</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
+      <c r="V48">
         <v>1.975</v>
-      </c>
-      <c r="T48">
-        <v>1.825</v>
-      </c>
-      <c r="U48">
-        <v>2.75</v>
-      </c>
-      <c r="V48">
-        <v>1.925</v>
       </c>
       <c r="W48">
         <v>1.875</v>
       </c>
       <c r="X48">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y48">
         <v>-1</v>
       </c>
       <c r="Z48">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="AA48">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB48">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC48">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD48">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="49" spans="1:30">
@@ -4928,7 +4928,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6845820</v>
+        <v>6848366</v>
       </c>
       <c r="C49" t="s">
         <v>29</v>
@@ -4937,13 +4937,13 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H49">
         <v>1</v>
@@ -4952,67 +4952,67 @@
         <v>1</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L49">
-        <v>1.181</v>
+        <v>2.1</v>
       </c>
       <c r="M49">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="N49">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O49">
-        <v>1.166</v>
+        <v>2.6</v>
       </c>
       <c r="P49">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q49">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="R49">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="S49">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T49">
         <v>1.825</v>
       </c>
       <c r="U49">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y49">
-        <v>5.5</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
         <v>-1</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB49">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD49">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:30">
@@ -5020,7 +5020,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6848368</v>
+        <v>6845820</v>
       </c>
       <c r="C50" t="s">
         <v>29</v>
@@ -5029,82 +5029,82 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K50" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L50">
-        <v>4.333</v>
+        <v>1.181</v>
       </c>
       <c r="M50">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="N50">
-        <v>1.65</v>
+        <v>12</v>
       </c>
       <c r="O50">
-        <v>5.75</v>
+        <v>1.166</v>
       </c>
       <c r="P50">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="Q50">
-        <v>1.45</v>
+        <v>12</v>
       </c>
       <c r="R50">
-        <v>1.25</v>
+        <v>-2.25</v>
       </c>
       <c r="S50">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T50">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="U50">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V50">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="Z50">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA50">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC50">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:30">
@@ -5112,7 +5112,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6848369</v>
+        <v>6848371</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -5121,64 +5121,64 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F51" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51" t="s">
         <v>41</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>2.25</v>
       </c>
       <c r="M51">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N51">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="P51">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q51">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="R51">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S51">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T51">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U51">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W51">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X51">
-        <v>2.2</v>
+        <v>1.375</v>
       </c>
       <c r="Y51">
         <v>-1</v>
@@ -5187,16 +5187,16 @@
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD51">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -5204,7 +5204,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6848371</v>
+        <v>6848370</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
@@ -5213,19 +5213,19 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F52" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -5234,43 +5234,43 @@
         <v>41</v>
       </c>
       <c r="L52">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="M52">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="O52">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="P52">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q52">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="R52">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S52">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U52">
         <v>2.75</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X52">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="Y52">
         <v>-1</v>
@@ -5279,16 +5279,16 @@
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AD52">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="53" spans="1:30">
@@ -5296,7 +5296,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6848370</v>
+        <v>6848369</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5305,64 +5305,64 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G53">
         <v>3</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" t="s">
         <v>41</v>
       </c>
       <c r="L53">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="M53">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N53">
-        <v>13</v>
+        <v>2.1</v>
       </c>
       <c r="O53">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="P53">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q53">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="R53">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="S53">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T53">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U53">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V53">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W53">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X53">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y53">
         <v>-1</v>
@@ -5371,16 +5371,16 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AD53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -6216,7 +6216,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6848376</v>
+        <v>6845817</v>
       </c>
       <c r="C63" t="s">
         <v>29</v>
@@ -6225,19 +6225,19 @@
         <v>45241.5</v>
       </c>
       <c r="E63" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -6246,31 +6246,31 @@
         <v>41</v>
       </c>
       <c r="L63">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="M63">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="N63">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="O63">
-        <v>2.4</v>
+        <v>1.333</v>
       </c>
       <c r="P63">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q63">
-        <v>2.625</v>
+        <v>8</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="S63">
+        <v>2.025</v>
+      </c>
+      <c r="T63">
         <v>1.825</v>
-      </c>
-      <c r="T63">
-        <v>2.025</v>
       </c>
       <c r="U63">
         <v>2.75</v>
@@ -6282,7 +6282,7 @@
         <v>1.975</v>
       </c>
       <c r="X63">
-        <v>1.4</v>
+        <v>0.333</v>
       </c>
       <c r="Y63">
         <v>-1</v>
@@ -6291,16 +6291,16 @@
         <v>-1</v>
       </c>
       <c r="AA63">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB63">
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD63">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:30">
@@ -6308,7 +6308,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6845817</v>
+        <v>6848376</v>
       </c>
       <c r="C64" t="s">
         <v>29</v>
@@ -6317,19 +6317,19 @@
         <v>45241.5</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F64" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G64">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>0</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -6338,31 +6338,31 @@
         <v>41</v>
       </c>
       <c r="L64">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="M64">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="N64">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="O64">
-        <v>1.333</v>
+        <v>2.4</v>
       </c>
       <c r="P64">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q64">
-        <v>8</v>
+        <v>2.625</v>
       </c>
       <c r="R64">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="S64">
+        <v>1.825</v>
+      </c>
+      <c r="T64">
         <v>2.025</v>
-      </c>
-      <c r="T64">
-        <v>1.825</v>
       </c>
       <c r="U64">
         <v>2.75</v>
@@ -6374,7 +6374,7 @@
         <v>1.975</v>
       </c>
       <c r="X64">
-        <v>0.333</v>
+        <v>1.4</v>
       </c>
       <c r="Y64">
         <v>-1</v>
@@ -6383,16 +6383,16 @@
         <v>-1</v>
       </c>
       <c r="AA64">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB64">
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD64">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="65" spans="1:30">
@@ -6676,7 +6676,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6848381</v>
+        <v>6845669</v>
       </c>
       <c r="C68" t="s">
         <v>29</v>
@@ -6685,16 +6685,16 @@
         <v>45248.5</v>
       </c>
       <c r="E68" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -6703,28 +6703,28 @@
         <v>1</v>
       </c>
       <c r="K68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L68">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="M68">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N68">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O68">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="P68">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q68">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="R68">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S68">
         <v>1.825</v>
@@ -6736,28 +6736,28 @@
         <v>2.75</v>
       </c>
       <c r="V68">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W68">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X68">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y68">
         <v>-1</v>
       </c>
       <c r="Z68">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AD68">
         <v>-1</v>
@@ -6768,7 +6768,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6845669</v>
+        <v>6848381</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
@@ -6777,17 +6777,17 @@
         <v>45248.5</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
         <v>3</v>
       </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
       <c r="I69">
         <v>1</v>
       </c>
@@ -6795,28 +6795,28 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L69">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="M69">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N69">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="O69">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="P69">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q69">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="R69">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S69">
         <v>1.825</v>
@@ -6828,28 +6828,28 @@
         <v>2.75</v>
       </c>
       <c r="V69">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W69">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X69">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA69">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC69">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AD69">
         <v>-1</v>
@@ -6860,7 +6860,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7392209</v>
+        <v>7414972</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
@@ -6869,25 +6869,25 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K70" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L70">
         <v>6.5</v>
@@ -6899,52 +6899,52 @@
         <v>1.444</v>
       </c>
       <c r="O70">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="P70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q70">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="R70">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="S70">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U70">
         <v>3</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W70">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AA70">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -6952,7 +6952,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7414972</v>
+        <v>7392209</v>
       </c>
       <c r="C71" t="s">
         <v>29</v>
@@ -6961,25 +6961,25 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L71">
         <v>6.5</v>
@@ -6991,52 +6991,52 @@
         <v>1.444</v>
       </c>
       <c r="O71">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="P71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q71">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="R71">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U71">
         <v>3</v>
       </c>
       <c r="V71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z71">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB71">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:30">
@@ -7412,7 +7412,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6848387</v>
+        <v>6848386</v>
       </c>
       <c r="C76" t="s">
         <v>29</v>
@@ -7421,82 +7421,82 @@
         <v>45269.5</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G76">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L76">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="M76">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="N76">
-        <v>3.25</v>
+        <v>7</v>
       </c>
       <c r="O76">
-        <v>2.05</v>
+        <v>1.3</v>
       </c>
       <c r="P76">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q76">
-        <v>3.3</v>
+        <v>10</v>
       </c>
       <c r="R76">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S76">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T76">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U76">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V76">
+        <v>1.975</v>
+      </c>
+      <c r="W76">
         <v>1.825</v>
       </c>
-      <c r="W76">
-        <v>1.975</v>
-      </c>
       <c r="X76">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="AA76">
         <v>-1</v>
       </c>
       <c r="AB76">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC76">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AD76">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:30">
@@ -7504,7 +7504,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>6848386</v>
+        <v>6848387</v>
       </c>
       <c r="C77" t="s">
         <v>29</v>
@@ -7513,82 +7513,82 @@
         <v>45269.5</v>
       </c>
       <c r="E77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G77">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L77">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="M77">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="N77">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="O77">
-        <v>1.3</v>
+        <v>2.05</v>
       </c>
       <c r="P77">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q77">
-        <v>10</v>
+        <v>3.3</v>
       </c>
       <c r="R77">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S77">
+        <v>1.8</v>
+      </c>
+      <c r="T77">
+        <v>2</v>
+      </c>
+      <c r="U77">
+        <v>2.75</v>
+      </c>
+      <c r="V77">
         <v>1.825</v>
       </c>
-      <c r="T77">
+      <c r="W77">
         <v>1.975</v>
       </c>
-      <c r="U77">
-        <v>3</v>
-      </c>
-      <c r="V77">
-        <v>1.975</v>
-      </c>
-      <c r="W77">
-        <v>1.825</v>
-      </c>
       <c r="X77">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="Y77">
         <v>-1</v>
       </c>
       <c r="Z77">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="AA77">
         <v>-1</v>
       </c>
       <c r="AB77">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC77">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AD77">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="78" spans="1:30">
@@ -7872,7 +7872,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6845672</v>
+        <v>6845813</v>
       </c>
       <c r="C81" t="s">
         <v>29</v>
@@ -7881,61 +7881,61 @@
         <v>45276.5</v>
       </c>
       <c r="E81" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K81" t="s">
         <v>40</v>
       </c>
       <c r="L81">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="M81">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N81">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O81">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="P81">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q81">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="R81">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S81">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T81">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U81">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V81">
         <v>1.8</v>
       </c>
       <c r="W81">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7944,13 +7944,13 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC81">
         <v>0.8</v>
@@ -7964,7 +7964,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6845813</v>
+        <v>6845672</v>
       </c>
       <c r="C82" t="s">
         <v>29</v>
@@ -7973,61 +7973,61 @@
         <v>45276.5</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K82" t="s">
         <v>40</v>
       </c>
       <c r="L82">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="M82">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N82">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O82">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="P82">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q82">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="R82">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S82">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T82">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U82">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V82">
         <v>1.8</v>
       </c>
       <c r="W82">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -8036,13 +8036,13 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC82">
         <v>0.8</v>
@@ -8700,7 +8700,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6848396</v>
+        <v>6845811</v>
       </c>
       <c r="C90" t="s">
         <v>29</v>
@@ -8709,82 +8709,82 @@
         <v>45290.5</v>
       </c>
       <c r="E90" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G90">
         <v>2</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L90">
-        <v>1.833</v>
+        <v>9</v>
       </c>
       <c r="M90">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N90">
-        <v>3.5</v>
+        <v>1.222</v>
       </c>
       <c r="O90">
-        <v>1.833</v>
+        <v>34</v>
       </c>
       <c r="P90">
-        <v>3.5</v>
+        <v>13</v>
       </c>
       <c r="Q90">
-        <v>3.5</v>
+        <v>1.045</v>
       </c>
       <c r="R90">
+        <v>3.25</v>
+      </c>
+      <c r="S90">
+        <v>1.975</v>
+      </c>
+      <c r="T90">
+        <v>1.875</v>
+      </c>
+      <c r="U90">
+        <v>4.25</v>
+      </c>
+      <c r="V90">
+        <v>1.925</v>
+      </c>
+      <c r="W90">
+        <v>1.925</v>
+      </c>
+      <c r="X90">
+        <v>-1</v>
+      </c>
+      <c r="Y90">
+        <v>-1</v>
+      </c>
+      <c r="Z90">
+        <v>0.04499999999999993</v>
+      </c>
+      <c r="AA90">
+        <v>0.4875</v>
+      </c>
+      <c r="AB90">
         <v>-0.5</v>
       </c>
-      <c r="S90">
-        <v>1.875</v>
-      </c>
-      <c r="T90">
-        <v>1.975</v>
-      </c>
-      <c r="U90">
-        <v>3</v>
-      </c>
-      <c r="V90">
-        <v>2.025</v>
-      </c>
-      <c r="W90">
-        <v>1.825</v>
-      </c>
-      <c r="X90">
-        <v>0.833</v>
-      </c>
-      <c r="Y90">
-        <v>-1</v>
-      </c>
-      <c r="Z90">
-        <v>-1</v>
-      </c>
-      <c r="AA90">
-        <v>0.875</v>
-      </c>
-      <c r="AB90">
-        <v>-1</v>
-      </c>
       <c r="AC90">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AD90">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:30">
@@ -8792,7 +8792,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6845811</v>
+        <v>6848396</v>
       </c>
       <c r="C91" t="s">
         <v>29</v>
@@ -8801,82 +8801,82 @@
         <v>45290.5</v>
       </c>
       <c r="E91" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F91" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G91">
         <v>2</v>
       </c>
       <c r="H91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L91">
-        <v>9</v>
+        <v>1.833</v>
       </c>
       <c r="M91">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N91">
-        <v>1.222</v>
+        <v>3.5</v>
       </c>
       <c r="O91">
-        <v>34</v>
+        <v>1.833</v>
       </c>
       <c r="P91">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="Q91">
-        <v>1.045</v>
+        <v>3.5</v>
       </c>
       <c r="R91">
-        <v>3.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S91">
+        <v>1.875</v>
+      </c>
+      <c r="T91">
         <v>1.975</v>
       </c>
-      <c r="T91">
-        <v>1.875</v>
-      </c>
       <c r="U91">
-        <v>4.25</v>
+        <v>3</v>
       </c>
       <c r="V91">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W91">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.04499999999999993</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.4875</v>
+        <v>0.875</v>
       </c>
       <c r="AB91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AD91">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:30">
@@ -8884,7 +8884,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6848398</v>
+        <v>6848399</v>
       </c>
       <c r="C92" t="s">
         <v>29</v>
@@ -8893,82 +8893,82 @@
         <v>45297.5</v>
       </c>
       <c r="E92" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>1.333</v>
       </c>
       <c r="M92">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N92">
-        <v>1.909</v>
+        <v>8</v>
       </c>
       <c r="O92">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="P92">
-        <v>3.3</v>
+        <v>5.75</v>
       </c>
       <c r="Q92">
-        <v>2.15</v>
+        <v>12</v>
       </c>
       <c r="R92">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T92">
+        <v>1.8</v>
+      </c>
+      <c r="U92">
+        <v>3.25</v>
+      </c>
+      <c r="V92">
+        <v>2</v>
+      </c>
+      <c r="W92">
         <v>1.85</v>
       </c>
-      <c r="U92">
-        <v>2.75</v>
-      </c>
-      <c r="V92">
-        <v>1.975</v>
-      </c>
-      <c r="W92">
-        <v>1.825</v>
-      </c>
       <c r="X92">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Y92">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD92">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="93" spans="1:30">
@@ -8976,7 +8976,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6848397</v>
+        <v>6848398</v>
       </c>
       <c r="C93" t="s">
         <v>29</v>
@@ -8985,82 +8985,82 @@
         <v>45297.5</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G93">
+        <v>2</v>
+      </c>
+      <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93" t="s">
+        <v>42</v>
+      </c>
+      <c r="L93">
+        <v>3.4</v>
+      </c>
+      <c r="M93">
+        <v>3.6</v>
+      </c>
+      <c r="N93">
+        <v>1.909</v>
+      </c>
+      <c r="O93">
         <v>3</v>
       </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-      <c r="J93">
-        <v>0</v>
-      </c>
-      <c r="K93" t="s">
-        <v>41</v>
-      </c>
-      <c r="L93">
-        <v>1.05</v>
-      </c>
-      <c r="M93">
-        <v>11</v>
-      </c>
-      <c r="N93">
-        <v>15</v>
-      </c>
-      <c r="O93">
-        <v>1.083</v>
-      </c>
       <c r="P93">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q93">
-        <v>23</v>
+        <v>2.15</v>
       </c>
       <c r="R93">
-        <v>-2.75</v>
+        <v>0.25</v>
       </c>
       <c r="S93">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
+        <v>1.85</v>
+      </c>
+      <c r="U93">
+        <v>2.75</v>
+      </c>
+      <c r="V93">
         <v>1.975</v>
       </c>
-      <c r="U93">
-        <v>3.75</v>
-      </c>
-      <c r="V93">
-        <v>1.8</v>
-      </c>
       <c r="W93">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="X93">
-        <v>0.08299999999999996</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Z93">
         <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AB93">
+        <v>-0.5</v>
+      </c>
+      <c r="AC93">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AC93">
-        <v>0.4</v>
-      </c>
       <c r="AD93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="94" spans="1:30">
@@ -9068,7 +9068,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6845675</v>
+        <v>6848397</v>
       </c>
       <c r="C94" t="s">
         <v>29</v>
@@ -9077,67 +9077,67 @@
         <v>45297.5</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F94" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G94">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J94">
         <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L94">
-        <v>1.666</v>
+        <v>1.05</v>
       </c>
       <c r="M94">
-        <v>3.75</v>
+        <v>11</v>
       </c>
       <c r="N94">
-        <v>4.333</v>
+        <v>15</v>
       </c>
       <c r="O94">
-        <v>1.666</v>
+        <v>1.083</v>
       </c>
       <c r="P94">
-        <v>3.75</v>
+        <v>9.5</v>
       </c>
       <c r="Q94">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="R94">
-        <v>-0.75</v>
+        <v>-2.75</v>
       </c>
       <c r="S94">
         <v>1.875</v>
       </c>
       <c r="T94">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U94">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="V94">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W94">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="X94">
-        <v>-1</v>
+        <v>0.08299999999999996</v>
       </c>
       <c r="Y94">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
         <v>-1</v>
@@ -9146,13 +9146,13 @@
         <v>-1</v>
       </c>
       <c r="AB94">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC94">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AD94">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="95" spans="1:30">
@@ -9160,7 +9160,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6848399</v>
+        <v>6845675</v>
       </c>
       <c r="C95" t="s">
         <v>29</v>
@@ -9169,67 +9169,67 @@
         <v>45297.5</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J95">
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L95">
-        <v>1.333</v>
+        <v>1.666</v>
       </c>
       <c r="M95">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="N95">
-        <v>8</v>
+        <v>4.333</v>
       </c>
       <c r="O95">
-        <v>1.2</v>
+        <v>1.666</v>
       </c>
       <c r="P95">
-        <v>5.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q95">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="R95">
-        <v>-2</v>
+        <v>-0.75</v>
       </c>
       <c r="S95">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
+        <v>1.925</v>
+      </c>
+      <c r="U95">
+        <v>3</v>
+      </c>
+      <c r="V95">
+        <v>2</v>
+      </c>
+      <c r="W95">
         <v>1.8</v>
       </c>
-      <c r="U95">
-        <v>3.25</v>
-      </c>
-      <c r="V95">
-        <v>2</v>
-      </c>
-      <c r="W95">
-        <v>1.85</v>
-      </c>
       <c r="X95">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z95">
         <v>-1</v>
@@ -9238,13 +9238,13 @@
         <v>-1</v>
       </c>
       <c r="AB95">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD95">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:30">
@@ -9436,7 +9436,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6848401</v>
+        <v>6848403</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
@@ -9445,10 +9445,10 @@
         <v>45304.5</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G98">
         <v>1</v>
@@ -9460,67 +9460,67 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98" t="s">
         <v>42</v>
       </c>
       <c r="L98">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="M98">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N98">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O98">
+        <v>2.7</v>
+      </c>
+      <c r="P98">
+        <v>3.25</v>
+      </c>
+      <c r="Q98">
+        <v>2.3</v>
+      </c>
+      <c r="R98">
+        <v>0.25</v>
+      </c>
+      <c r="S98">
+        <v>1.775</v>
+      </c>
+      <c r="T98">
+        <v>2.025</v>
+      </c>
+      <c r="U98">
+        <v>2.5</v>
+      </c>
+      <c r="V98">
         <v>1.85</v>
       </c>
-      <c r="P98">
-        <v>3.75</v>
-      </c>
-      <c r="Q98">
-        <v>3.3</v>
-      </c>
-      <c r="R98">
+      <c r="W98">
+        <v>1.95</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
+        <v>2.25</v>
+      </c>
+      <c r="Z98">
+        <v>-1</v>
+      </c>
+      <c r="AA98">
+        <v>0.3875</v>
+      </c>
+      <c r="AB98">
         <v>-0.5</v>
       </c>
-      <c r="S98">
-        <v>1.95</v>
-      </c>
-      <c r="T98">
-        <v>1.85</v>
-      </c>
-      <c r="U98">
-        <v>2.75</v>
-      </c>
-      <c r="V98">
-        <v>1.8</v>
-      </c>
-      <c r="W98">
-        <v>2</v>
-      </c>
-      <c r="X98">
-        <v>-1</v>
-      </c>
-      <c r="Y98">
-        <v>2.75</v>
-      </c>
-      <c r="Z98">
-        <v>-1</v>
-      </c>
-      <c r="AA98">
-        <v>-1</v>
-      </c>
-      <c r="AB98">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC98">
         <v>-1</v>
       </c>
       <c r="AD98">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -9528,7 +9528,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6848403</v>
+        <v>6848401</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -9537,10 +9537,10 @@
         <v>45304.5</v>
       </c>
       <c r="E99" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -9552,67 +9552,67 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="s">
         <v>42</v>
       </c>
       <c r="L99">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="N99">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="O99">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="P99">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q99">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="R99">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S99">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U99">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W99">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC99">
         <v>-1</v>
       </c>
       <c r="AD99">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -9804,7 +9804,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6845676</v>
+        <v>6848406</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -9813,55 +9813,55 @@
         <v>45318.5</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L102">
-        <v>1.666</v>
+        <v>2.4</v>
       </c>
       <c r="M102">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="N102">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="O102">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="P102">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q102">
-        <v>4</v>
+        <v>2.55</v>
       </c>
       <c r="R102">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S102">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T102">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U102">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V102">
         <v>2</v>
@@ -9870,25 +9870,25 @@
         <v>1.8</v>
       </c>
       <c r="X102">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Y102">
         <v>-1</v>
       </c>
       <c r="Z102">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB102">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -9896,7 +9896,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>6845808</v>
+        <v>6845676</v>
       </c>
       <c r="C103" t="s">
         <v>29</v>
@@ -9905,82 +9905,82 @@
         <v>45318.5</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L103">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="M103">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N103">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="O103">
-        <v>1.333</v>
+        <v>1.7</v>
       </c>
       <c r="P103">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q103">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R103">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S103">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T103">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U103">
+        <v>2.75</v>
+      </c>
+      <c r="V103">
+        <v>2</v>
+      </c>
+      <c r="W103">
+        <v>1.8</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
+        <v>-1</v>
+      </c>
+      <c r="Z103">
         <v>3</v>
       </c>
-      <c r="V103">
-        <v>1.95</v>
-      </c>
-      <c r="W103">
-        <v>1.85</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>3.5</v>
-      </c>
-      <c r="Z103">
-        <v>-1</v>
-      </c>
       <c r="AA103">
         <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC103">
         <v>-1</v>
       </c>
       <c r="AD103">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="104" spans="1:30">
@@ -9988,7 +9988,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6848404</v>
+        <v>6845808</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -9997,82 +9997,82 @@
         <v>45318.5</v>
       </c>
       <c r="E104" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L104">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="M104">
         <v>4.333</v>
       </c>
       <c r="N104">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="O104">
+        <v>1.333</v>
+      </c>
+      <c r="P104">
+        <v>4.5</v>
+      </c>
+      <c r="Q104">
         <v>9</v>
       </c>
-      <c r="P104">
-        <v>4.75</v>
-      </c>
-      <c r="Q104">
-        <v>1.25</v>
-      </c>
       <c r="R104">
-        <v>1.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S104">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T104">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V104">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z104">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC104">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD104">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -10080,7 +10080,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6848406</v>
+        <v>6848404</v>
       </c>
       <c r="C105" t="s">
         <v>29</v>
@@ -10089,79 +10089,79 @@
         <v>45318.5</v>
       </c>
       <c r="E105" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F105" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
         <v>5</v>
       </c>
-      <c r="H105">
-        <v>0</v>
-      </c>
       <c r="I105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L105">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="M105">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="N105">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="O105">
-        <v>2.5</v>
+        <v>9</v>
       </c>
       <c r="P105">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q105">
-        <v>2.55</v>
+        <v>1.25</v>
       </c>
       <c r="R105">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S105">
+        <v>1.925</v>
+      </c>
+      <c r="T105">
+        <v>1.875</v>
+      </c>
+      <c r="U105">
+        <v>2.75</v>
+      </c>
+      <c r="V105">
         <v>1.8</v>
       </c>
-      <c r="T105">
-        <v>2</v>
-      </c>
-      <c r="U105">
-        <v>2.5</v>
-      </c>
-      <c r="V105">
-        <v>2</v>
-      </c>
       <c r="W105">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="X105">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="AA105">
+        <v>-1</v>
+      </c>
+      <c r="AB105">
+        <v>0.875</v>
+      </c>
+      <c r="AC105">
         <v>0.8</v>
-      </c>
-      <c r="AB105">
-        <v>-1</v>
-      </c>
-      <c r="AC105">
-        <v>1</v>
       </c>
       <c r="AD105">
         <v>-1</v>
@@ -11092,7 +11092,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7572536</v>
+        <v>7705415</v>
       </c>
       <c r="C116" t="s">
         <v>29</v>
@@ -11101,64 +11101,64 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116">
         <v>1</v>
       </c>
       <c r="J116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K116" t="s">
         <v>41</v>
       </c>
       <c r="L116">
-        <v>1.727</v>
+        <v>1.125</v>
       </c>
       <c r="M116">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="N116">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="O116">
-        <v>1.909</v>
+        <v>1.125</v>
       </c>
       <c r="P116">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="Q116">
-        <v>3.5</v>
+        <v>17</v>
       </c>
       <c r="R116">
-        <v>-0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="S116">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T116">
         <v>1.875</v>
       </c>
       <c r="U116">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V116">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W116">
         <v>1.825</v>
       </c>
       <c r="X116">
-        <v>0.909</v>
+        <v>0.125</v>
       </c>
       <c r="Y116">
         <v>-1</v>
@@ -11167,16 +11167,16 @@
         <v>-1</v>
       </c>
       <c r="AA116">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC116">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AD116">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="117" spans="1:30">
@@ -11184,7 +11184,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>7705415</v>
+        <v>7572536</v>
       </c>
       <c r="C117" t="s">
         <v>29</v>
@@ -11193,64 +11193,64 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E117" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117">
         <v>1</v>
       </c>
       <c r="J117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K117" t="s">
         <v>41</v>
       </c>
       <c r="L117">
-        <v>1.125</v>
+        <v>1.727</v>
       </c>
       <c r="M117">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N117">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="O117">
-        <v>1.125</v>
+        <v>1.909</v>
       </c>
       <c r="P117">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q117">
-        <v>17</v>
+        <v>3.5</v>
       </c>
       <c r="R117">
-        <v>-2.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S117">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T117">
         <v>1.875</v>
       </c>
       <c r="U117">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V117">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>1.825</v>
       </c>
       <c r="X117">
-        <v>0.125</v>
+        <v>0.909</v>
       </c>
       <c r="Y117">
         <v>-1</v>
@@ -11259,16 +11259,16 @@
         <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB117">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AD117">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:30">
@@ -13392,7 +13392,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6958684</v>
+        <v>6974333</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
@@ -13401,52 +13401,52 @@
         <v>45367.5</v>
       </c>
       <c r="E141" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G141">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141">
         <v>0</v>
       </c>
       <c r="K141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L141">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="M141">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N141">
-        <v>8.5</v>
+        <v>2.4</v>
       </c>
       <c r="O141">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="P141">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q141">
-        <v>6</v>
+        <v>2.2</v>
       </c>
       <c r="R141">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T141">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U141">
         <v>2.75</v>
@@ -13458,25 +13458,25 @@
         <v>1.925</v>
       </c>
       <c r="X141">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
         <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="AA141">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC141">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AD141">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -13484,7 +13484,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6974333</v>
+        <v>6974332</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
@@ -13493,61 +13493,61 @@
         <v>45367.5</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K142" t="s">
         <v>40</v>
       </c>
       <c r="L142">
-        <v>2.55</v>
+        <v>10</v>
       </c>
       <c r="M142">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="N142">
-        <v>2.4</v>
+        <v>1.166</v>
       </c>
       <c r="O142">
-        <v>2.8</v>
+        <v>10</v>
       </c>
       <c r="P142">
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="Q142">
-        <v>2.2</v>
+        <v>1.181</v>
       </c>
       <c r="R142">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="S142">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T142">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="U142">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V142">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13556,19 +13556,19 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>1.2</v>
+        <v>0.181</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD142">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:30">
@@ -13576,7 +13576,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6974332</v>
+        <v>6958685</v>
       </c>
       <c r="C143" t="s">
         <v>29</v>
@@ -13585,82 +13585,82 @@
         <v>45367.5</v>
       </c>
       <c r="E143" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F143" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G143">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H143">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I143">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J143">
         <v>1</v>
       </c>
       <c r="K143" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L143">
-        <v>10</v>
+        <v>1.615</v>
       </c>
       <c r="M143">
-        <v>7.5</v>
+        <v>3.75</v>
       </c>
       <c r="N143">
-        <v>1.166</v>
+        <v>4.75</v>
       </c>
       <c r="O143">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="P143">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="Q143">
-        <v>1.181</v>
+        <v>4</v>
       </c>
       <c r="R143">
-        <v>2</v>
+        <v>-0.5</v>
       </c>
       <c r="S143">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T143">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U143">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W143">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X143">
         <v>-1</v>
       </c>
       <c r="Y143">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z143">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC143">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD143">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="144" spans="1:30">
@@ -13668,7 +13668,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6958685</v>
+        <v>6958684</v>
       </c>
       <c r="C144" t="s">
         <v>29</v>
@@ -13677,82 +13677,82 @@
         <v>45367.5</v>
       </c>
       <c r="E144" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K144" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L144">
-        <v>1.615</v>
+        <v>1.25</v>
       </c>
       <c r="M144">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N144">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="O144">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="P144">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q144">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R144">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S144">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T144">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U144">
         <v>2.75</v>
       </c>
       <c r="V144">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W144">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X144">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y144">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
         <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB144">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AD144">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="145" spans="1:30">

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -106,13 +106,13 @@
     <t>Scotland League One</t>
   </si>
   <si>
-    <t>Falkirk</t>
+    <t>Queen of South</t>
   </si>
   <si>
     <t>Montrose</t>
   </si>
   <si>
-    <t>Queen of South</t>
+    <t>Falkirk</t>
   </si>
   <si>
     <t>Hamilton</t>
@@ -121,7 +121,7 @@
     <t>Stirling</t>
   </si>
   <si>
-    <t>Kelty Hearts</t>
+    <t>Alloa</t>
   </si>
   <si>
     <t>Annan Athletic</t>
@@ -130,16 +130,16 @@
     <t>FC Edinburgh</t>
   </si>
   <si>
-    <t>Alloa</t>
+    <t>Kelty Hearts</t>
   </si>
   <si>
     <t>Cove Rangers</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
   <si>
     <t>D</t>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6848338</v>
+        <v>6848340</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
@@ -616,79 +616,79 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
         <v>40</v>
       </c>
       <c r="L2">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="M2">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="N2">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="O2">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="P2">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q2">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="R2">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S2">
+        <v>1.875</v>
+      </c>
+      <c r="T2">
         <v>1.925</v>
       </c>
-      <c r="T2">
-        <v>1.875</v>
-      </c>
       <c r="U2">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V2">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W2">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X2">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA2">
+        <v>-1</v>
+      </c>
+      <c r="AB2">
         <v>0.925</v>
       </c>
-      <c r="AB2">
-        <v>-1</v>
-      </c>
       <c r="AC2">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -708,7 +708,7 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -723,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L3">
         <v>2.4</v>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6848340</v>
+        <v>6848338</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -800,79 +800,79 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
         <v>41</v>
       </c>
       <c r="L4">
-        <v>1.909</v>
+        <v>1.444</v>
       </c>
       <c r="M4">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="N4">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="O4">
-        <v>1.833</v>
+        <v>1.333</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="Q4">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="R4">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="S4">
+        <v>1.925</v>
+      </c>
+      <c r="T4">
         <v>1.875</v>
       </c>
-      <c r="T4">
-        <v>1.925</v>
-      </c>
       <c r="U4">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="W4">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L6">
         <v>2.4</v>
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6845829</v>
+        <v>6848342</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1076,13 +1076,13 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1091,34 +1091,34 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="M7">
         <v>3.6</v>
       </c>
       <c r="N7">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="O7">
+        <v>2.25</v>
+      </c>
+      <c r="P7">
+        <v>3.4</v>
+      </c>
+      <c r="Q7">
         <v>2.8</v>
       </c>
-      <c r="P7">
-        <v>3.5</v>
-      </c>
-      <c r="Q7">
-        <v>2.2</v>
-      </c>
       <c r="R7">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S7">
+        <v>2.025</v>
+      </c>
+      <c r="T7">
         <v>1.825</v>
-      </c>
-      <c r="T7">
-        <v>1.975</v>
       </c>
       <c r="U7">
         <v>2.75</v>
@@ -1127,7 +1127,7 @@
         <v>1.975</v>
       </c>
       <c r="W7">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1136,19 +1136,19 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC7">
         <v>-1</v>
       </c>
       <c r="AD7">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1183,7 +1183,7 @@
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L8">
         <v>2.7</v>
@@ -1260,7 +1260,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L9">
         <v>2.8</v>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6848342</v>
+        <v>6845829</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1352,13 +1352,13 @@
         <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1367,34 +1367,34 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="M10">
         <v>3.6</v>
       </c>
       <c r="N10">
-        <v>3.2</v>
+        <v>1.95</v>
       </c>
       <c r="O10">
-        <v>2.25</v>
+        <v>2.8</v>
       </c>
       <c r="P10">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q10">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="R10">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S10">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T10">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="U10">
         <v>2.75</v>
@@ -1403,7 +1403,7 @@
         <v>1.975</v>
       </c>
       <c r="W10">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X10">
         <v>-1</v>
@@ -1412,19 +1412,19 @@
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC10">
+        <v>-1</v>
+      </c>
+      <c r="AD10">
         <v>0.825</v>
-      </c>
-      <c r="AC10">
-        <v>-1</v>
-      </c>
-      <c r="AD10">
-        <v>0.875</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -1444,7 +1444,7 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>2</v>
@@ -1551,7 +1551,7 @@
         <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L12">
         <v>2.5</v>
@@ -1643,7 +1643,7 @@
         <v>1</v>
       </c>
       <c r="K13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L13">
         <v>3</v>
@@ -1717,7 +1717,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
         <v>36</v>
@@ -1735,7 +1735,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L14">
         <v>1.8</v>
@@ -1809,11 +1809,11 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" t="s">
         <v>35</v>
       </c>
-      <c r="F15" t="s">
-        <v>38</v>
-      </c>
       <c r="G15">
         <v>2</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L15">
         <v>2.4</v>
@@ -1901,7 +1901,7 @@
         <v>45160.65625</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
         <v>34</v>
@@ -1919,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L16">
         <v>1.615</v>
@@ -1996,7 +1996,7 @@
         <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L17">
         <v>1.75</v>
@@ -2103,7 +2103,7 @@
         <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L18">
         <v>2.1</v>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L19">
         <v>1.571</v>
@@ -2272,7 +2272,7 @@
         <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2287,7 +2287,7 @@
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L20">
         <v>2.05</v>
@@ -2361,10 +2361,10 @@
         <v>45164.5625</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2379,7 +2379,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L21">
         <v>2.8</v>
@@ -2453,7 +2453,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F22" t="s">
         <v>31</v>
@@ -2471,7 +2471,7 @@
         <v>2</v>
       </c>
       <c r="K22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L22">
         <v>1.8</v>
@@ -2545,7 +2545,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F23" t="s">
         <v>39</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L23">
         <v>2.4</v>
@@ -2637,7 +2637,7 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F24" t="s">
         <v>36</v>
@@ -2732,7 +2732,7 @@
         <v>37</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L25">
         <v>4</v>
@@ -2916,7 +2916,7 @@
         <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G27">
         <v>2</v>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L28">
         <v>2.5</v>
@@ -3100,7 +3100,7 @@
         <v>33</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G29">
         <v>2</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L29">
         <v>1.5</v>
@@ -3189,11 +3189,11 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E30" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" t="s">
         <v>30</v>
       </c>
-      <c r="F30" t="s">
-        <v>32</v>
-      </c>
       <c r="G30">
         <v>1</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L30">
         <v>1.65</v>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L31">
         <v>1.909</v>
@@ -3376,7 +3376,7 @@
         <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3465,7 +3465,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F33" t="s">
         <v>33</v>
@@ -3483,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L33">
         <v>2.7</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L34">
         <v>2.2</v>
@@ -3741,10 +3741,10 @@
         <v>45192.5625</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3759,7 +3759,7 @@
         <v>3</v>
       </c>
       <c r="K36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L36">
         <v>3.6</v>
@@ -3851,7 +3851,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L37">
         <v>1.444</v>
@@ -3925,7 +3925,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
         <v>31</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L38">
         <v>1.5</v>
@@ -4017,10 +4017,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G39">
         <v>3</v>
@@ -4035,7 +4035,7 @@
         <v>1</v>
       </c>
       <c r="K39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L39">
         <v>2.25</v>
@@ -4109,7 +4109,7 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F40" t="s">
         <v>37</v>
@@ -4293,7 +4293,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
         <v>34</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L42">
         <v>2.15</v>
@@ -4388,7 +4388,7 @@
         <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G43">
         <v>1</v>
@@ -4403,7 +4403,7 @@
         <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L43">
         <v>2.9</v>
@@ -4495,7 +4495,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L44">
         <v>1.75</v>
@@ -4572,7 +4572,7 @@
         <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G45">
         <v>2</v>
@@ -4587,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L45">
         <v>1.85</v>
@@ -4661,7 +4661,7 @@
         <v>45206.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
         <v>33</v>
@@ -4845,10 +4845,10 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E48" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" t="s">
         <v>38</v>
-      </c>
-      <c r="F48" t="s">
-        <v>35</v>
       </c>
       <c r="G48">
         <v>3</v>
@@ -4863,7 +4863,7 @@
         <v>1</v>
       </c>
       <c r="K48" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L48">
         <v>2.1</v>
@@ -4940,7 +4940,7 @@
         <v>36</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4955,7 +4955,7 @@
         <v>1</v>
       </c>
       <c r="K49" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L49">
         <v>2.1</v>
@@ -5032,7 +5032,7 @@
         <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G50">
         <v>1</v>
@@ -5047,7 +5047,7 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L50">
         <v>4.333</v>
@@ -5121,7 +5121,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
         <v>39</v>
@@ -5139,7 +5139,7 @@
         <v>0</v>
       </c>
       <c r="K51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L51">
         <v>2.625</v>
@@ -5231,7 +5231,7 @@
         <v>1</v>
       </c>
       <c r="K52" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L52">
         <v>3.2</v>
@@ -5296,7 +5296,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6848371</v>
+        <v>6848370</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5305,64 +5305,64 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E53" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" t="s">
         <v>35</v>
       </c>
-      <c r="F53" t="s">
-        <v>34</v>
-      </c>
       <c r="G53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H53">
         <v>0</v>
       </c>
       <c r="I53">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L53">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="M53">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N53">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="O53">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="P53">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q53">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="R53">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S53">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T53">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U53">
         <v>2.75</v>
       </c>
       <c r="V53">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W53">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X53">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="Y53">
         <v>-1</v>
@@ -5371,16 +5371,16 @@
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB53">
         <v>-1</v>
       </c>
       <c r="AC53">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AD53">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5388,7 +5388,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6848370</v>
+        <v>6848371</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -5397,64 +5397,64 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>41</v>
+      </c>
+      <c r="L54">
+        <v>2.25</v>
+      </c>
+      <c r="M54">
+        <v>3.5</v>
+      </c>
+      <c r="N54">
         <v>3</v>
       </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>3</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54" t="s">
-        <v>40</v>
-      </c>
-      <c r="L54">
-        <v>1.2</v>
-      </c>
-      <c r="M54">
-        <v>6.5</v>
-      </c>
-      <c r="N54">
-        <v>13</v>
-      </c>
       <c r="O54">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="P54">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q54">
-        <v>8.5</v>
+        <v>2.9</v>
       </c>
       <c r="R54">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S54">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="T54">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="U54">
         <v>2.75</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W54">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="X54">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="Y54">
         <v>-1</v>
@@ -5463,16 +5463,16 @@
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB54">
         <v>-1</v>
       </c>
       <c r="AC54">
-        <v>0.4125</v>
+        <v>-1</v>
       </c>
       <c r="AD54">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -5507,7 +5507,7 @@
         <v>1</v>
       </c>
       <c r="K55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L55">
         <v>4.5</v>
@@ -5584,7 +5584,7 @@
         <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -5599,7 +5599,7 @@
         <v>1</v>
       </c>
       <c r="K56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L56">
         <v>2.1</v>
@@ -5673,10 +5673,10 @@
         <v>45234.5</v>
       </c>
       <c r="E57" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57" t="s">
         <v>32</v>
-      </c>
-      <c r="F57" t="s">
-        <v>30</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5783,7 +5783,7 @@
         <v>2</v>
       </c>
       <c r="K58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L58">
         <v>3.1</v>
@@ -5875,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="K59" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L59">
         <v>2.7</v>
@@ -5952,7 +5952,7 @@
         <v>36</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -6041,10 +6041,10 @@
         <v>45241.5</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6059,7 +6059,7 @@
         <v>0</v>
       </c>
       <c r="K61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L61">
         <v>2.5</v>
@@ -6133,7 +6133,7 @@
         <v>45241.5</v>
       </c>
       <c r="E62" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
         <v>37</v>
@@ -6151,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="K62" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L62">
         <v>1.166</v>
@@ -6317,7 +6317,7 @@
         <v>45241.5</v>
       </c>
       <c r="E64" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F64" t="s">
         <v>39</v>
@@ -6335,7 +6335,7 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L64">
         <v>2.2</v>
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="K65" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L65">
         <v>1.4</v>
@@ -6519,7 +6519,7 @@
         <v>0</v>
       </c>
       <c r="K66" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L66">
         <v>1.85</v>
@@ -6611,7 +6611,7 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L67">
         <v>1.666</v>
@@ -6688,7 +6688,7 @@
         <v>37</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G68">
         <v>3</v>
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L68">
         <v>3.2</v>
@@ -6777,10 +6777,10 @@
         <v>45248.5</v>
       </c>
       <c r="E69" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -6795,7 +6795,7 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L69">
         <v>2.4</v>
@@ -6872,7 +6872,7 @@
         <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G70">
         <v>0</v>
@@ -6979,7 +6979,7 @@
         <v>2</v>
       </c>
       <c r="K71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L71">
         <v>6.5</v>
@@ -7056,7 +7056,7 @@
         <v>33</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G72">
         <v>5</v>
@@ -7071,7 +7071,7 @@
         <v>0</v>
       </c>
       <c r="K72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L72">
         <v>1.5</v>
@@ -7145,7 +7145,7 @@
         <v>45269.5</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F73" t="s">
         <v>33</v>
@@ -7255,7 +7255,7 @@
         <v>2</v>
       </c>
       <c r="K74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L74">
         <v>2.75</v>
@@ -7347,7 +7347,7 @@
         <v>2</v>
       </c>
       <c r="K75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L75">
         <v>4</v>
@@ -7421,10 +7421,10 @@
         <v>45269.5</v>
       </c>
       <c r="E76" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F76" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7439,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="K76" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L76">
         <v>1.4</v>
@@ -7516,7 +7516,7 @@
         <v>31</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7531,7 +7531,7 @@
         <v>4</v>
       </c>
       <c r="K77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L77">
         <v>2.1</v>
@@ -7605,7 +7605,7 @@
         <v>45276.5</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F78" t="s">
         <v>37</v>
@@ -7623,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="K78" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L78">
         <v>1.333</v>
@@ -7789,7 +7789,7 @@
         <v>45276.5</v>
       </c>
       <c r="E80" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
         <v>31</v>
@@ -7807,7 +7807,7 @@
         <v>1</v>
       </c>
       <c r="K80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L80">
         <v>2.1</v>
@@ -7884,7 +7884,7 @@
         <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -7899,7 +7899,7 @@
         <v>2</v>
       </c>
       <c r="K81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L81">
         <v>2.375</v>
@@ -7976,7 +7976,7 @@
         <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L82">
         <v>1.571</v>
@@ -8068,7 +8068,7 @@
         <v>36</v>
       </c>
       <c r="F83" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -8083,7 +8083,7 @@
         <v>1</v>
       </c>
       <c r="K83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L83">
         <v>6</v>
@@ -8160,7 +8160,7 @@
         <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -8252,7 +8252,7 @@
         <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -8341,7 +8341,7 @@
         <v>45283.5</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F86" t="s">
         <v>31</v>
@@ -8451,7 +8451,7 @@
         <v>1</v>
       </c>
       <c r="K87" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L87">
         <v>1.083</v>
@@ -8608,7 +8608,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6848396</v>
+        <v>6848394</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
@@ -8620,61 +8620,61 @@
         <v>32</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L89">
-        <v>1.833</v>
+        <v>1.285</v>
       </c>
       <c r="M89">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N89">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="O89">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="P89">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q89">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="R89">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="S89">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T89">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U89">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V89">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W89">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X89">
-        <v>0.833</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y89">
         <v>-1</v>
@@ -8683,16 +8683,16 @@
         <v>-1</v>
       </c>
       <c r="AA89">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB89">
         <v>-1</v>
       </c>
       <c r="AC89">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AD89">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -8700,7 +8700,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6848394</v>
+        <v>6848396</v>
       </c>
       <c r="C90" t="s">
         <v>29</v>
@@ -8712,61 +8712,61 @@
         <v>30</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L90">
-        <v>1.285</v>
+        <v>1.833</v>
       </c>
       <c r="M90">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N90">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="O90">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="P90">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q90">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="R90">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T90">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U90">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W90">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X90">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="Y90">
         <v>-1</v>
@@ -8775,16 +8775,16 @@
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AD90">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:30">
@@ -8819,7 +8819,7 @@
         <v>5</v>
       </c>
       <c r="K91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L91">
         <v>9</v>
@@ -8896,7 +8896,7 @@
         <v>39</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G92">
         <v>2</v>
@@ -8985,11 +8985,11 @@
         <v>45297.5</v>
       </c>
       <c r="E93" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93" t="s">
         <v>30</v>
       </c>
-      <c r="F93" t="s">
-        <v>32</v>
-      </c>
       <c r="G93">
         <v>1</v>
       </c>
@@ -9003,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L93">
         <v>1.333</v>
@@ -9169,7 +9169,7 @@
         <v>45297.5</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F95" t="s">
         <v>37</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="K95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L95">
         <v>1.05</v>
@@ -9261,7 +9261,7 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E96" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F96" t="s">
         <v>39</v>
@@ -9279,7 +9279,7 @@
         <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L96">
         <v>1.444</v>
@@ -9353,7 +9353,7 @@
         <v>45304.5</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F97" t="s">
         <v>36</v>
@@ -9463,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L98">
         <v>1.8</v>
@@ -9555,7 +9555,7 @@
         <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L99">
         <v>1.666</v>
@@ -9629,10 +9629,10 @@
         <v>45304.5</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G100">
         <v>1</v>
@@ -9724,7 +9724,7 @@
         <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9816,7 +9816,7 @@
         <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G102">
         <v>5</v>
@@ -9831,7 +9831,7 @@
         <v>0</v>
       </c>
       <c r="K102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L102">
         <v>2.4</v>
@@ -9923,7 +9923,7 @@
         <v>0</v>
       </c>
       <c r="K103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L103">
         <v>1.444</v>
@@ -9997,10 +9997,10 @@
         <v>45318.5</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F104" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G104">
         <v>0</v>
@@ -10015,7 +10015,7 @@
         <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L104">
         <v>6</v>
@@ -10184,7 +10184,7 @@
         <v>39</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>1</v>
       </c>
       <c r="K106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L106">
         <v>1.666</v>
@@ -10365,7 +10365,7 @@
         <v>45325.5</v>
       </c>
       <c r="E108" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F108" t="s">
         <v>33</v>
@@ -10383,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="K108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L108">
         <v>5.5</v>
@@ -10460,7 +10460,7 @@
         <v>36</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G109">
         <v>2</v>
@@ -10475,7 +10475,7 @@
         <v>2</v>
       </c>
       <c r="K109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L109">
         <v>2.625</v>
@@ -10552,7 +10552,7 @@
         <v>37</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -10567,7 +10567,7 @@
         <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L110">
         <v>9</v>
@@ -10659,7 +10659,7 @@
         <v>1</v>
       </c>
       <c r="K111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L111">
         <v>2.3</v>
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="K112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L112">
         <v>1.1</v>
@@ -10825,10 +10825,10 @@
         <v>45332.5</v>
       </c>
       <c r="E113" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F113" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -10908,7 +10908,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>6848410</v>
+        <v>6845806</v>
       </c>
       <c r="C114" t="s">
         <v>29</v>
@@ -10917,46 +10917,46 @@
         <v>45332.5</v>
       </c>
       <c r="E114" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F114" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I114">
         <v>0</v>
       </c>
       <c r="J114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K114" t="s">
         <v>40</v>
       </c>
       <c r="L114">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="M114">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="N114">
-        <v>3.3</v>
+        <v>11</v>
       </c>
       <c r="O114">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="P114">
-        <v>3.3</v>
+        <v>6</v>
       </c>
       <c r="Q114">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="R114">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="S114">
         <v>1.975</v>
@@ -10965,34 +10965,34 @@
         <v>1.825</v>
       </c>
       <c r="U114">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="V114">
+        <v>1.95</v>
+      </c>
+      <c r="W114">
         <v>1.85</v>
       </c>
-      <c r="W114">
-        <v>1.95</v>
-      </c>
       <c r="X114">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
         <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AA114">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD114">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:30">
@@ -11000,7 +11000,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6845806</v>
+        <v>6848410</v>
       </c>
       <c r="C115" t="s">
         <v>29</v>
@@ -11009,46 +11009,46 @@
         <v>45332.5</v>
       </c>
       <c r="E115" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F115" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H115">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115" t="s">
         <v>41</v>
       </c>
       <c r="L115">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="M115">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="N115">
-        <v>11</v>
+        <v>3.3</v>
       </c>
       <c r="O115">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="P115">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="Q115">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="R115">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="S115">
         <v>1.975</v>
@@ -11057,34 +11057,34 @@
         <v>1.825</v>
       </c>
       <c r="U115">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V115">
+        <v>1.85</v>
+      </c>
+      <c r="W115">
         <v>1.95</v>
       </c>
-      <c r="W115">
-        <v>1.85</v>
-      </c>
       <c r="X115">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB115">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC115">
+        <v>-1</v>
+      </c>
+      <c r="AD115">
         <v>0.95</v>
-      </c>
-      <c r="AD115">
-        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:30">
@@ -11101,7 +11101,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E116" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F116" t="s">
         <v>37</v>
@@ -11119,7 +11119,7 @@
         <v>1</v>
       </c>
       <c r="K116" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L116">
         <v>1.125</v>
@@ -11193,7 +11193,7 @@
         <v>45335.69791666666</v>
       </c>
       <c r="E117" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F117" t="s">
         <v>36</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="K117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L117">
         <v>1.727</v>
@@ -11288,7 +11288,7 @@
         <v>31</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G118">
         <v>4</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="K118" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L118">
         <v>2.1</v>
@@ -11377,7 +11377,7 @@
         <v>45339.5</v>
       </c>
       <c r="E119" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
         <v>39</v>
@@ -11395,7 +11395,7 @@
         <v>0</v>
       </c>
       <c r="K119" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L119">
         <v>2.25</v>
@@ -11469,7 +11469,7 @@
         <v>45339.5</v>
       </c>
       <c r="E120" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F120" t="s">
         <v>33</v>
@@ -11487,7 +11487,7 @@
         <v>1</v>
       </c>
       <c r="K120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L120">
         <v>2</v>
@@ -11579,7 +11579,7 @@
         <v>1</v>
       </c>
       <c r="K121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L121">
         <v>2.6</v>
@@ -11656,7 +11656,7 @@
         <v>37</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -11745,7 +11745,7 @@
         <v>45342.69791666666</v>
       </c>
       <c r="E123" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F123" t="s">
         <v>31</v>
@@ -11763,7 +11763,7 @@
         <v>0</v>
       </c>
       <c r="K123" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L123">
         <v>1.25</v>
@@ -11855,7 +11855,7 @@
         <v>0</v>
       </c>
       <c r="K124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L124">
         <v>1.166</v>
@@ -11947,7 +11947,7 @@
         <v>0</v>
       </c>
       <c r="K125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L125">
         <v>1.666</v>
@@ -12021,10 +12021,10 @@
         <v>45346.5</v>
       </c>
       <c r="E126" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F126" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -12039,7 +12039,7 @@
         <v>1</v>
       </c>
       <c r="K126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L126">
         <v>5.5</v>
@@ -12116,7 +12116,7 @@
         <v>33</v>
       </c>
       <c r="F127" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -12131,7 +12131,7 @@
         <v>0</v>
       </c>
       <c r="K127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L127">
         <v>1.4</v>
@@ -12205,7 +12205,7 @@
         <v>45346.60416666666</v>
       </c>
       <c r="E128" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F128" t="s">
         <v>31</v>
@@ -12223,7 +12223,7 @@
         <v>0</v>
       </c>
       <c r="K128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L128">
         <v>2</v>
@@ -12389,7 +12389,7 @@
         <v>45353.5</v>
       </c>
       <c r="E130" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F130" t="s">
         <v>36</v>
@@ -12499,7 +12499,7 @@
         <v>1</v>
       </c>
       <c r="K131" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L131">
         <v>6.5</v>
@@ -12573,7 +12573,7 @@
         <v>45353.5</v>
       </c>
       <c r="E132" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F132" t="s">
         <v>33</v>
@@ -12591,7 +12591,7 @@
         <v>3</v>
       </c>
       <c r="K132" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L132">
         <v>4</v>
@@ -12668,7 +12668,7 @@
         <v>31</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G133">
         <v>4</v>
@@ -12683,7 +12683,7 @@
         <v>2</v>
       </c>
       <c r="K133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L133">
         <v>2.15</v>
@@ -12757,7 +12757,7 @@
         <v>45353.5</v>
       </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F134" t="s">
         <v>34</v>
@@ -12852,7 +12852,7 @@
         <v>39</v>
       </c>
       <c r="F135" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12867,7 +12867,7 @@
         <v>0</v>
       </c>
       <c r="K135" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L135">
         <v>5.5</v>
@@ -12959,7 +12959,7 @@
         <v>0</v>
       </c>
       <c r="K136" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L136">
         <v>1.111</v>
@@ -13036,7 +13036,7 @@
         <v>34</v>
       </c>
       <c r="F137" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -13051,7 +13051,7 @@
         <v>1</v>
       </c>
       <c r="K137" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L137">
         <v>7</v>
@@ -13143,7 +13143,7 @@
         <v>3</v>
       </c>
       <c r="K138" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L138">
         <v>1.727</v>
@@ -13220,7 +13220,7 @@
         <v>36</v>
       </c>
       <c r="F139" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G139">
         <v>2</v>
@@ -13235,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="K139" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L139">
         <v>2.375</v>
@@ -13309,10 +13309,10 @@
         <v>45360.5</v>
       </c>
       <c r="E140" t="s">
+        <v>35</v>
+      </c>
+      <c r="F140" t="s">
         <v>38</v>
-      </c>
-      <c r="F140" t="s">
-        <v>35</v>
       </c>
       <c r="G140">
         <v>3</v>
@@ -13327,7 +13327,7 @@
         <v>0</v>
       </c>
       <c r="K140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L140">
         <v>1.909</v>
@@ -13419,7 +13419,7 @@
         <v>0</v>
       </c>
       <c r="K141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L141">
         <v>1.25</v>
@@ -13496,7 +13496,7 @@
         <v>37</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G142">
         <v>2</v>
@@ -13511,7 +13511,7 @@
         <v>1</v>
       </c>
       <c r="K142" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L142">
         <v>10</v>
@@ -13585,7 +13585,7 @@
         <v>45367.5</v>
       </c>
       <c r="E143" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F143" t="s">
         <v>39</v>
@@ -13603,7 +13603,7 @@
         <v>0</v>
       </c>
       <c r="K143" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L143">
         <v>2.55</v>
@@ -13769,10 +13769,10 @@
         <v>45367.60416666666</v>
       </c>
       <c r="E145" t="s">
+        <v>30</v>
+      </c>
+      <c r="F145" t="s">
         <v>32</v>
-      </c>
-      <c r="F145" t="s">
-        <v>30</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -13787,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="K145" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L145">
         <v>8</v>
@@ -13861,11 +13861,11 @@
         <v>45370.69791666666</v>
       </c>
       <c r="E146" t="s">
+        <v>38</v>
+      </c>
+      <c r="F146" t="s">
         <v>35</v>
       </c>
-      <c r="F146" t="s">
-        <v>38</v>
-      </c>
       <c r="G146">
         <v>2</v>
       </c>
@@ -13879,7 +13879,7 @@
         <v>0</v>
       </c>
       <c r="K146" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L146">
         <v>2.6</v>
@@ -13944,7 +13944,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6994938</v>
+        <v>6994939</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -13953,64 +13953,64 @@
         <v>45374.5</v>
       </c>
       <c r="E147" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F147" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G147">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147">
         <v>0</v>
       </c>
       <c r="K147" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L147">
-        <v>1.04</v>
+        <v>2.625</v>
       </c>
       <c r="M147">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="N147">
-        <v>26</v>
+        <v>2.25</v>
       </c>
       <c r="O147">
-        <v>1.025</v>
+        <v>2.45</v>
       </c>
       <c r="P147">
-        <v>12</v>
+        <v>3.4</v>
       </c>
       <c r="Q147">
-        <v>34</v>
+        <v>2.45</v>
       </c>
       <c r="R147">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
       <c r="S147">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T147">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U147">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="V147">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="X147">
-        <v>0.02499999999999991</v>
+        <v>1.45</v>
       </c>
       <c r="Y147">
         <v>-1</v>
@@ -14019,16 +14019,16 @@
         <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:30">
@@ -14036,7 +14036,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6994937</v>
+        <v>6994938</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -14045,79 +14045,79 @@
         <v>45374.5</v>
       </c>
       <c r="E148" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148" t="s">
         <v>41</v>
       </c>
       <c r="L148">
-        <v>3.3</v>
+        <v>1.04</v>
       </c>
       <c r="M148">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="N148">
-        <v>1.909</v>
+        <v>26</v>
       </c>
       <c r="O148">
-        <v>4.2</v>
+        <v>1.025</v>
       </c>
       <c r="P148">
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="Q148">
-        <v>1.666</v>
+        <v>34</v>
       </c>
       <c r="R148">
-        <v>0.75</v>
+        <v>-3.75</v>
       </c>
       <c r="S148">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U148">
-        <v>2.75</v>
+        <v>4.5</v>
       </c>
       <c r="V148">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="X148">
-        <v>-1</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="Y148">
         <v>-1</v>
       </c>
       <c r="Z148">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA148">
         <v>-1</v>
       </c>
       <c r="AB148">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC148">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD148">
         <v>-1</v>
@@ -14128,7 +14128,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6994936</v>
+        <v>6994937</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14137,19 +14137,19 @@
         <v>45374.5</v>
       </c>
       <c r="E149" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149">
         <v>3</v>
       </c>
-      <c r="H149">
-        <v>2</v>
-      </c>
       <c r="I149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J149">
         <v>1</v>
@@ -14158,58 +14158,58 @@
         <v>40</v>
       </c>
       <c r="L149">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="M149">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="N149">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="O149">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="P149">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q149">
-        <v>3.1</v>
+        <v>1.666</v>
       </c>
       <c r="R149">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="S149">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T149">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U149">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X149">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="AA149">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB149">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC149">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD149">
         <v>-1</v>
@@ -14220,7 +14220,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6994939</v>
+        <v>6994936</v>
       </c>
       <c r="C150" t="s">
         <v>29</v>
@@ -14229,64 +14229,64 @@
         <v>45374.5</v>
       </c>
       <c r="E150" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F150" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G150">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L150">
-        <v>2.625</v>
+        <v>2.3</v>
       </c>
       <c r="M150">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="N150">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="O150">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="P150">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q150">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="R150">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S150">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T150">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U150">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V150">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W150">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X150">
-        <v>1.45</v>
+        <v>0.95</v>
       </c>
       <c r="Y150">
         <v>-1</v>
@@ -14295,16 +14295,16 @@
         <v>-1</v>
       </c>
       <c r="AA150">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB150">
         <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD150">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="151" spans="1:30">
@@ -14321,10 +14321,10 @@
         <v>45374.5</v>
       </c>
       <c r="E151" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -14339,7 +14339,7 @@
         <v>1</v>
       </c>
       <c r="K151" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L151">
         <v>1.909</v>
@@ -14404,7 +14404,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7024094</v>
+        <v>7024093</v>
       </c>
       <c r="C152" t="s">
         <v>29</v>
@@ -14413,82 +14413,82 @@
         <v>45381.5</v>
       </c>
       <c r="E152" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F152" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L152">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="M152">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="N152">
         <v>6.5</v>
       </c>
       <c r="O152">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="P152">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q152">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="R152">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U152">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V152">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W152">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X152">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC152">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD152">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:30">
@@ -14496,7 +14496,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7024093</v>
+        <v>7024094</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -14505,82 +14505,82 @@
         <v>45381.5</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L153">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="M153">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="N153">
         <v>6.5</v>
       </c>
       <c r="O153">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="P153">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q153">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="R153">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="S153">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T153">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U153">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V153">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W153">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X153">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y153">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z153">
         <v>-1</v>
       </c>
       <c r="AA153">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB153">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC153">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD153">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -14588,7 +14588,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7024092</v>
+        <v>7024091</v>
       </c>
       <c r="C154" t="s">
         <v>29</v>
@@ -14597,55 +14597,55 @@
         <v>45381.5</v>
       </c>
       <c r="E154" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F154" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G154">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J154">
         <v>1</v>
       </c>
       <c r="K154" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L154">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="M154">
         <v>3.6</v>
       </c>
       <c r="N154">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="O154">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="P154">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q154">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="R154">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S154">
+        <v>1.95</v>
+      </c>
+      <c r="T154">
         <v>1.9</v>
       </c>
-      <c r="T154">
-        <v>1.95</v>
-      </c>
       <c r="U154">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V154">
         <v>1.85</v>
@@ -14654,25 +14654,25 @@
         <v>2</v>
       </c>
       <c r="X154">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z154">
         <v>-1</v>
       </c>
       <c r="AA154">
+        <v>-1</v>
+      </c>
+      <c r="AB154">
         <v>0.8999999999999999</v>
       </c>
-      <c r="AB154">
-        <v>-1</v>
-      </c>
       <c r="AC154">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AD154">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:30">
@@ -14680,7 +14680,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7024091</v>
+        <v>7024092</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
@@ -14689,55 +14689,55 @@
         <v>45381.5</v>
       </c>
       <c r="E155" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G155">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J155">
         <v>1</v>
       </c>
       <c r="K155" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L155">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="M155">
         <v>3.6</v>
       </c>
       <c r="N155">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="O155">
+        <v>2.1</v>
+      </c>
+      <c r="P155">
+        <v>3.4</v>
+      </c>
+      <c r="Q155">
+        <v>3.1</v>
+      </c>
+      <c r="R155">
+        <v>-0.25</v>
+      </c>
+      <c r="S155">
+        <v>1.9</v>
+      </c>
+      <c r="T155">
         <v>1.95</v>
       </c>
-      <c r="P155">
-        <v>3.5</v>
-      </c>
-      <c r="Q155">
-        <v>3.3</v>
-      </c>
-      <c r="R155">
-        <v>-0.5</v>
-      </c>
-      <c r="S155">
-        <v>1.95</v>
-      </c>
-      <c r="T155">
-        <v>1.9</v>
-      </c>
       <c r="U155">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="V155">
         <v>1.85</v>
@@ -14746,25 +14746,25 @@
         <v>2</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y155">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB155">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AD155">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:30">
@@ -14784,7 +14784,7 @@
         <v>31</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -14799,7 +14799,7 @@
         <v>3</v>
       </c>
       <c r="K156" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L156">
         <v>4.75</v>
@@ -14873,10 +14873,10 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G157">
         <v>1</v>
@@ -14891,7 +14891,7 @@
         <v>1</v>
       </c>
       <c r="K157" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L157">
         <v>2.2</v>
@@ -14983,7 +14983,7 @@
         <v>1</v>
       </c>
       <c r="K158" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L158">
         <v>3.75</v>
@@ -15060,7 +15060,7 @@
         <v>34</v>
       </c>
       <c r="F159" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G159">
         <v>1</v>
@@ -15075,7 +15075,7 @@
         <v>3</v>
       </c>
       <c r="K159" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L159">
         <v>2.75</v>
@@ -15235,7 +15235,7 @@
         <v>45388.5625</v>
       </c>
       <c r="E161" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F161" t="s">
         <v>39</v>
@@ -15253,7 +15253,7 @@
         <v>1</v>
       </c>
       <c r="K161" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L161">
         <v>1.571</v>
@@ -15327,7 +15327,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F162" t="s">
         <v>37</v>
@@ -15345,7 +15345,7 @@
         <v>0</v>
       </c>
       <c r="K162" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L162">
         <v>1.111</v>
@@ -15437,7 +15437,7 @@
         <v>2</v>
       </c>
       <c r="K163" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L163">
         <v>2.95</v>
@@ -15511,7 +15511,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F164" t="s">
         <v>31</v>
@@ -15603,7 +15603,7 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E165" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F165" t="s">
         <v>34</v>
@@ -15621,7 +15621,7 @@
         <v>0</v>
       </c>
       <c r="K165" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L165">
         <v>2</v>
@@ -15698,7 +15698,7 @@
         <v>33</v>
       </c>
       <c r="F166" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -15713,7 +15713,7 @@
         <v>0</v>
       </c>
       <c r="K166" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L166">
         <v>2.625</v>
@@ -15805,7 +15805,7 @@
         <v>0</v>
       </c>
       <c r="K167" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L167">
         <v>11</v>
@@ -15897,7 +15897,7 @@
         <v>1</v>
       </c>
       <c r="K168" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L168">
         <v>4.333</v>
@@ -15974,7 +15974,7 @@
         <v>34</v>
       </c>
       <c r="F169" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G169">
         <v>0</v>
@@ -16081,7 +16081,7 @@
         <v>1</v>
       </c>
       <c r="K170" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L170">
         <v>5.5</v>
@@ -16155,10 +16155,10 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G171">
         <v>2</v>
@@ -16250,7 +16250,7 @@
         <v>39</v>
       </c>
       <c r="F172" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G172">
         <v>2</v>
@@ -16265,7 +16265,7 @@
         <v>1</v>
       </c>
       <c r="K172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L172">
         <v>2.4</v>
@@ -16339,7 +16339,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E173" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F173" t="s">
         <v>39</v>
@@ -16357,7 +16357,7 @@
         <v>0</v>
       </c>
       <c r="K173" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L173">
         <v>2.25</v>
@@ -16431,7 +16431,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E174" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F174" t="s">
         <v>31</v>
@@ -16449,7 +16449,7 @@
         <v>1</v>
       </c>
       <c r="K174" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L174">
         <v>2.3</v>
@@ -16514,7 +16514,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7190971</v>
+        <v>7171741</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
@@ -16523,82 +16523,82 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F175" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175">
         <v>1</v>
       </c>
       <c r="K175" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L175">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="M175">
-        <v>3.8</v>
+        <v>4.333</v>
       </c>
       <c r="N175">
-        <v>1.7</v>
+        <v>1.533</v>
       </c>
       <c r="O175">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P175">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q175">
-        <v>1.75</v>
+        <v>1.444</v>
       </c>
       <c r="R175">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T175">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="U175">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V175">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W175">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X175">
         <v>-1</v>
       </c>
       <c r="Y175">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z175">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB175">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD175">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="176" spans="1:30">
@@ -16606,7 +16606,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7171741</v>
+        <v>7158346</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16615,13 +16615,13 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F176" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G176">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H176">
         <v>3</v>
@@ -16633,61 +16633,61 @@
         <v>1</v>
       </c>
       <c r="K176" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L176">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M176">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N176">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="O176">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="P176">
         <v>4.75</v>
       </c>
       <c r="Q176">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="R176">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="S176">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T176">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U176">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V176">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W176">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X176">
         <v>-1</v>
       </c>
       <c r="Y176">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="AA176">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC176">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AD176">
         <v>-1</v>
@@ -16698,7 +16698,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>7158346</v>
+        <v>7190971</v>
       </c>
       <c r="C177" t="s">
         <v>29</v>
@@ -16707,61 +16707,61 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E177" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H177">
+        <v>1</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177" t="s">
+        <v>40</v>
+      </c>
+      <c r="L177">
+        <v>3.8</v>
+      </c>
+      <c r="M177">
+        <v>3.8</v>
+      </c>
+      <c r="N177">
+        <v>1.7</v>
+      </c>
+      <c r="O177">
+        <v>3.4</v>
+      </c>
+      <c r="P177">
+        <v>3.8</v>
+      </c>
+      <c r="Q177">
+        <v>1.75</v>
+      </c>
+      <c r="R177">
+        <v>0.5</v>
+      </c>
+      <c r="S177">
+        <v>2</v>
+      </c>
+      <c r="T177">
+        <v>1.8</v>
+      </c>
+      <c r="U177">
         <v>3</v>
       </c>
-      <c r="I177">
-        <v>1</v>
-      </c>
-      <c r="J177">
-        <v>1</v>
-      </c>
-      <c r="K177" t="s">
-        <v>41</v>
-      </c>
-      <c r="L177">
-        <v>5</v>
-      </c>
-      <c r="M177">
-        <v>5</v>
-      </c>
-      <c r="N177">
-        <v>1.4</v>
-      </c>
-      <c r="O177">
-        <v>8</v>
-      </c>
-      <c r="P177">
-        <v>4.75</v>
-      </c>
-      <c r="Q177">
-        <v>1.333</v>
-      </c>
-      <c r="R177">
-        <v>1.5</v>
-      </c>
-      <c r="S177">
-        <v>1.9</v>
-      </c>
-      <c r="T177">
-        <v>1.95</v>
-      </c>
-      <c r="U177">
-        <v>3.25</v>
-      </c>
       <c r="V177">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W177">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X177">
         <v>-1</v>
@@ -16770,19 +16770,19 @@
         <v>-1</v>
       </c>
       <c r="Z177">
-        <v>0.333</v>
+        <v>0.75</v>
       </c>
       <c r="AA177">
         <v>-1</v>
       </c>
       <c r="AB177">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AC177">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD177">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:30">
@@ -16817,7 +16817,7 @@
         <v>1</v>
       </c>
       <c r="K178" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L178">
         <v>1.5</v>
@@ -16894,7 +16894,7 @@
         <v>33</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G179">
         <v>4</v>
@@ -16909,7 +16909,7 @@
         <v>1</v>
       </c>
       <c r="K179" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L179">
         <v>1.666</v>
@@ -17075,10 +17075,10 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E181" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G181">
         <v>2</v>
@@ -17170,7 +17170,7 @@
         <v>31</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G182">
         <v>3</v>
@@ -17185,7 +17185,7 @@
         <v>2</v>
       </c>
       <c r="K182" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L182">
         <v>2.5</v>

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -121,7 +121,7 @@
     <t>Queen of South</t>
   </si>
   <si>
-    <t>FC Edinburgh</t>
+    <t>Annan Athletic</t>
   </si>
   <si>
     <t>Alloa</t>
@@ -133,7 +133,7 @@
     <t>Cove Rangers</t>
   </si>
   <si>
-    <t>Annan Athletic</t>
+    <t>FC Edinburgh</t>
   </si>
   <si>
     <t>H</t>
@@ -616,7 +616,7 @@
         <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -800,7 +800,7 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1064,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6848344</v>
+        <v>6848343</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
@@ -1076,59 +1076,59 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" t="s">
         <v>41</v>
       </c>
       <c r="L7">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M7">
         <v>3.5</v>
       </c>
       <c r="N7">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O7">
+        <v>2.6</v>
+      </c>
+      <c r="P7">
         <v>3.5</v>
       </c>
-      <c r="P7">
-        <v>3.6</v>
-      </c>
       <c r="Q7">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="R7">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="S7">
+        <v>1.8</v>
+      </c>
+      <c r="T7">
+        <v>2.05</v>
+      </c>
+      <c r="U7">
+        <v>2.75</v>
+      </c>
+      <c r="V7">
+        <v>1.95</v>
+      </c>
+      <c r="W7">
         <v>1.9</v>
       </c>
-      <c r="T7">
-        <v>1.95</v>
-      </c>
-      <c r="U7">
-        <v>3</v>
-      </c>
-      <c r="V7">
-        <v>2</v>
-      </c>
-      <c r="W7">
-        <v>1.85</v>
-      </c>
       <c r="X7">
         <v>-1</v>
       </c>
@@ -1136,19 +1136,19 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.8500000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
+        <v>1.05</v>
+      </c>
+      <c r="AC7">
         <v>0.95</v>
       </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
       <c r="AD7">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1432,7 +1432,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6848343</v>
+        <v>6848344</v>
       </c>
       <c r="C11" t="s">
         <v>29</v>
@@ -1444,58 +1444,58 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K11" t="s">
         <v>41</v>
       </c>
       <c r="L11">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="M11">
         <v>3.5</v>
       </c>
       <c r="N11">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O11">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="P11">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q11">
-        <v>2.4</v>
+        <v>1.85</v>
       </c>
       <c r="R11">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S11">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T11">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="U11">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X11">
         <v>-1</v>
@@ -1504,19 +1504,19 @@
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>1.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
       <c r="AC11">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AD11">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -1536,7 +1536,7 @@
         <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>3</v>
@@ -1717,7 +1717,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
         <v>31</v>
@@ -2269,10 +2269,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -2536,7 +2536,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6848351</v>
+        <v>6848352</v>
       </c>
       <c r="C23" t="s">
         <v>29</v>
@@ -2545,82 +2545,82 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s">
         <v>35</v>
       </c>
-      <c r="F23" t="s">
-        <v>32</v>
-      </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L23">
+        <v>1.6</v>
+      </c>
+      <c r="M23">
         <v>4</v>
       </c>
-      <c r="M23">
-        <v>3.75</v>
-      </c>
       <c r="N23">
-        <v>1.666</v>
+        <v>4.2</v>
       </c>
       <c r="O23">
-        <v>10</v>
+        <v>1.8</v>
       </c>
       <c r="P23">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q23">
-        <v>1.222</v>
+        <v>3.4</v>
       </c>
       <c r="R23">
-        <v>1.75</v>
+        <v>-0.5</v>
       </c>
       <c r="S23">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T23">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U23">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="V23">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W23">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X23">
         <v>-1</v>
       </c>
       <c r="Y23">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z23">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="AA23">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB23">
-        <v>0.4</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC23">
         <v>-1</v>
       </c>
       <c r="AD23">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -2628,7 +2628,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6848353</v>
+        <v>6845661</v>
       </c>
       <c r="C24" t="s">
         <v>29</v>
@@ -2637,82 +2637,82 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L24">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="M24">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="N24">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="O24">
-        <v>1.666</v>
+        <v>2.875</v>
       </c>
       <c r="P24">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q24">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="R24">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T24">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U24">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V24">
+        <v>1.9</v>
+      </c>
+      <c r="W24">
+        <v>1.9</v>
+      </c>
+      <c r="X24">
         <v>1.875</v>
       </c>
-      <c r="W24">
-        <v>1.925</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>3.5</v>
+        <v>-1</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB24">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD24">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -2720,7 +2720,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6845661</v>
+        <v>6848351</v>
       </c>
       <c r="C25" t="s">
         <v>29</v>
@@ -2729,82 +2729,82 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L25">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N25">
-        <v>2.5</v>
+        <v>1.666</v>
       </c>
       <c r="O25">
-        <v>2.875</v>
+        <v>10</v>
       </c>
       <c r="P25">
+        <v>5.5</v>
+      </c>
+      <c r="Q25">
+        <v>1.222</v>
+      </c>
+      <c r="R25">
+        <v>1.75</v>
+      </c>
+      <c r="S25">
+        <v>2</v>
+      </c>
+      <c r="T25">
+        <v>1.8</v>
+      </c>
+      <c r="U25">
         <v>3.5</v>
       </c>
-      <c r="Q25">
-        <v>2.2</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>2.025</v>
-      </c>
-      <c r="T25">
-        <v>1.775</v>
-      </c>
-      <c r="U25">
-        <v>2.75</v>
-      </c>
       <c r="V25">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W25">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X25">
-        <v>1.875</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="AA25">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC25">
         <v>-1</v>
       </c>
       <c r="AD25">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -2812,7 +2812,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6848352</v>
+        <v>6848353</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -2821,82 +2821,82 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L26">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="N26">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="O26">
-        <v>1.8</v>
+        <v>1.666</v>
       </c>
       <c r="P26">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q26">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="R26">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S26">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T26">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U26">
         <v>3</v>
       </c>
       <c r="V26">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X26">
         <v>-1</v>
       </c>
       <c r="Y26">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z26">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD26">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -3088,7 +3088,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6848355</v>
+        <v>6848354</v>
       </c>
       <c r="C29" t="s">
         <v>29</v>
@@ -3097,19 +3097,19 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E29" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3118,43 +3118,43 @@
         <v>40</v>
       </c>
       <c r="L29">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="M29">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N29">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="O29">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="P29">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q29">
-        <v>5.25</v>
+        <v>2.4</v>
       </c>
       <c r="R29">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="S29">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T29">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="U29">
         <v>3</v>
       </c>
       <c r="V29">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="W29">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X29">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="Y29">
         <v>-1</v>
@@ -3163,16 +3163,16 @@
         <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB29">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD29">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -3180,7 +3180,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6848356</v>
+        <v>6848355</v>
       </c>
       <c r="C30" t="s">
         <v>29</v>
@@ -3189,19 +3189,19 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3210,40 +3210,40 @@
         <v>40</v>
       </c>
       <c r="L30">
-        <v>1.909</v>
+        <v>1.65</v>
       </c>
       <c r="M30">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="N30">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O30">
         <v>1.5</v>
       </c>
       <c r="P30">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q30">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="R30">
-        <v>-1</v>
+        <v>-1.25</v>
       </c>
       <c r="S30">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T30">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="U30">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V30">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W30">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X30">
         <v>0.5</v>
@@ -3255,16 +3255,16 @@
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -3272,7 +3272,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6848354</v>
+        <v>6848356</v>
       </c>
       <c r="C31" t="s">
         <v>29</v>
@@ -3281,19 +3281,19 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E31" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" t="s">
         <v>39</v>
       </c>
-      <c r="F31" t="s">
-        <v>30</v>
-      </c>
       <c r="G31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3302,43 +3302,43 @@
         <v>40</v>
       </c>
       <c r="L31">
-        <v>2.5</v>
+        <v>1.909</v>
       </c>
       <c r="M31">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="N31">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="O31">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="P31">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="Q31">
-        <v>2.4</v>
+        <v>5.75</v>
       </c>
       <c r="R31">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="S31">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T31">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U31">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V31">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="W31">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="X31">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="Y31">
         <v>-1</v>
@@ -3347,16 +3347,16 @@
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.8999999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AB31">
         <v>-1</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -3373,7 +3373,7 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
         <v>38</v>
@@ -3456,7 +3456,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6845823</v>
+        <v>6848357</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3465,82 +3465,82 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L33">
+        <v>2.25</v>
+      </c>
+      <c r="M33">
+        <v>3.6</v>
+      </c>
+      <c r="N33">
         <v>2.7</v>
       </c>
-      <c r="M33">
-        <v>3.5</v>
-      </c>
-      <c r="N33">
-        <v>2.3</v>
-      </c>
       <c r="O33">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="P33">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q33">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="R33">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="T33">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="U33">
         <v>2.75</v>
       </c>
       <c r="V33">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W33">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z33">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB33">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AD33">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3548,7 +3548,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6848357</v>
+        <v>6848359</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3557,82 +3557,82 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L34">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="M34">
         <v>3.6</v>
       </c>
       <c r="N34">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="O34">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="P34">
         <v>3.6</v>
       </c>
       <c r="Q34">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S34">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T34">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="U34">
         <v>2.75</v>
       </c>
       <c r="V34">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W34">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y34">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC34">
         <v>-1</v>
       </c>
       <c r="AD34">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3640,7 +3640,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6848359</v>
+        <v>6845823</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3649,82 +3649,82 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L35">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="M35">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N35">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="O35">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="P35">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q35">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="R35">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="S35">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U35">
         <v>2.75</v>
       </c>
       <c r="V35">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X35">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA35">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AD35">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3836,7 +3836,7 @@
         <v>31</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>5</v>
@@ -3928,7 +3928,7 @@
         <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -4296,7 +4296,7 @@
         <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4385,7 +4385,7 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
         <v>37</v>
@@ -4756,7 +4756,7 @@
         <v>31</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4937,7 +4937,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F49" t="s">
         <v>34</v>
@@ -5112,7 +5112,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6848370</v>
+        <v>6848369</v>
       </c>
       <c r="C51" t="s">
         <v>29</v>
@@ -5121,64 +5121,64 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G51">
         <v>3</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" t="s">
         <v>40</v>
       </c>
       <c r="L51">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="M51">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="N51">
-        <v>13</v>
+        <v>2.1</v>
       </c>
       <c r="O51">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="P51">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="Q51">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="R51">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T51">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U51">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V51">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="X51">
-        <v>0.3</v>
+        <v>2.2</v>
       </c>
       <c r="Y51">
         <v>-1</v>
@@ -5187,16 +5187,16 @@
         <v>-1</v>
       </c>
       <c r="AA51">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.4125</v>
+        <v>0.925</v>
       </c>
       <c r="AD51">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:30">
@@ -5204,7 +5204,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6848371</v>
+        <v>6848370</v>
       </c>
       <c r="C52" t="s">
         <v>29</v>
@@ -5213,19 +5213,19 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H52">
         <v>0</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -5234,43 +5234,43 @@
         <v>40</v>
       </c>
       <c r="L52">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="M52">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="N52">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="O52">
-        <v>2.375</v>
+        <v>1.3</v>
       </c>
       <c r="P52">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q52">
-        <v>2.9</v>
+        <v>8.5</v>
       </c>
       <c r="R52">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S52">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="U52">
         <v>2.75</v>
       </c>
       <c r="V52">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W52">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="X52">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="Y52">
         <v>-1</v>
@@ -5279,16 +5279,16 @@
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.4125</v>
       </c>
       <c r="AD52">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="53" spans="1:30">
@@ -5296,7 +5296,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6845667</v>
+        <v>6848371</v>
       </c>
       <c r="C53" t="s">
         <v>29</v>
@@ -5305,16 +5305,16 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E53" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -5323,64 +5323,64 @@
         <v>0</v>
       </c>
       <c r="K53" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L53">
-        <v>2.625</v>
+        <v>2.25</v>
       </c>
       <c r="M53">
         <v>3.5</v>
       </c>
       <c r="N53">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O53">
-        <v>2.45</v>
+        <v>2.375</v>
       </c>
       <c r="P53">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q53">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="R53">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S53">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="T53">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U53">
         <v>2.75</v>
       </c>
       <c r="V53">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W53">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X53">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Y53">
         <v>-1</v>
       </c>
       <c r="Z53">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA53">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB53">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
         <v>-1</v>
       </c>
       <c r="AD53">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="54" spans="1:30">
@@ -5388,7 +5388,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6848369</v>
+        <v>6845667</v>
       </c>
       <c r="C54" t="s">
         <v>29</v>
@@ -5397,46 +5397,46 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E54" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L54">
-        <v>3.2</v>
+        <v>2.625</v>
       </c>
       <c r="M54">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N54">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="O54">
-        <v>3.2</v>
+        <v>2.45</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q54">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="R54">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S54">
         <v>1.85</v>
@@ -5445,34 +5445,34 @@
         <v>1.95</v>
       </c>
       <c r="U54">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="V54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W54">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="X54">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y54">
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA54">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="55" spans="1:30">
@@ -5765,7 +5765,7 @@
         <v>45234.5</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
         <v>37</v>
@@ -5857,7 +5857,7 @@
         <v>45234.5</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
         <v>33</v>
@@ -6044,7 +6044,7 @@
         <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -6412,7 +6412,7 @@
         <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G65">
         <v>2</v>
@@ -6593,7 +6593,7 @@
         <v>45248.5</v>
       </c>
       <c r="E67" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
         <v>36</v>
@@ -6860,7 +6860,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7392209</v>
+        <v>7414972</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
@@ -6869,25 +6869,25 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L70">
         <v>6.5</v>
@@ -6899,52 +6899,52 @@
         <v>1.444</v>
       </c>
       <c r="O70">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="P70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q70">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="R70">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="S70">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T70">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U70">
         <v>3</v>
       </c>
       <c r="V70">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W70">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AA70">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -6952,7 +6952,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7414972</v>
+        <v>7392209</v>
       </c>
       <c r="C71" t="s">
         <v>29</v>
@@ -6961,25 +6961,25 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L71">
         <v>6.5</v>
@@ -6991,52 +6991,52 @@
         <v>1.444</v>
       </c>
       <c r="O71">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="P71">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q71">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="R71">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="S71">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U71">
         <v>3</v>
       </c>
       <c r="V71">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W71">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z71">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB71">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD71">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:30">
@@ -7145,7 +7145,7 @@
         <v>45269.5</v>
       </c>
       <c r="E73" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F73" t="s">
         <v>30</v>
@@ -7513,7 +7513,7 @@
         <v>45269.5</v>
       </c>
       <c r="E77" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
         <v>38</v>
@@ -7688,7 +7688,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6845672</v>
+        <v>6845813</v>
       </c>
       <c r="C79" t="s">
         <v>29</v>
@@ -7697,61 +7697,61 @@
         <v>45276.5</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K79" t="s">
         <v>41</v>
       </c>
       <c r="L79">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N79">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="O79">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="P79">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="Q79">
-        <v>4.75</v>
+        <v>2.7</v>
       </c>
       <c r="R79">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="S79">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T79">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="U79">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V79">
         <v>1.8</v>
       </c>
       <c r="W79">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X79">
         <v>-1</v>
@@ -7760,13 +7760,13 @@
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>3.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA79">
         <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC79">
         <v>0.8</v>
@@ -7780,7 +7780,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6845813</v>
+        <v>6845672</v>
       </c>
       <c r="C80" t="s">
         <v>29</v>
@@ -7789,61 +7789,61 @@
         <v>45276.5</v>
       </c>
       <c r="E80" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K80" t="s">
         <v>41</v>
       </c>
       <c r="L80">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="M80">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N80">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="O80">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="P80">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q80">
-        <v>2.7</v>
+        <v>4.75</v>
       </c>
       <c r="R80">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="S80">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T80">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="U80">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="V80">
         <v>1.8</v>
       </c>
       <c r="W80">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="X80">
         <v>-1</v>
@@ -7852,13 +7852,13 @@
         <v>-1</v>
       </c>
       <c r="Z80">
-        <v>1.7</v>
+        <v>3.75</v>
       </c>
       <c r="AA80">
         <v>-1</v>
       </c>
       <c r="AB80">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC80">
         <v>0.8</v>
@@ -7884,7 +7884,7 @@
         <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7976,7 +7976,7 @@
         <v>30</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>1</v>
@@ -8249,7 +8249,7 @@
         <v>45283.5</v>
       </c>
       <c r="E85" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
         <v>32</v>
@@ -8436,7 +8436,7 @@
         <v>38</v>
       </c>
       <c r="F87" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G87">
         <v>7</v>
@@ -8617,7 +8617,7 @@
         <v>45290.5</v>
       </c>
       <c r="E89" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
         <v>31</v>
@@ -8804,7 +8804,7 @@
         <v>34</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G91">
         <v>2</v>
@@ -8896,7 +8896,7 @@
         <v>36</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G92">
         <v>3</v>
@@ -8985,7 +8985,7 @@
         <v>45297.5</v>
       </c>
       <c r="E93" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F93" t="s">
         <v>33</v>
@@ -9344,7 +9344,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6845809</v>
+        <v>6848401</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
@@ -9353,16 +9353,16 @@
         <v>45304.5</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -9371,64 +9371,64 @@
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L97">
         <v>1.666</v>
       </c>
       <c r="M97">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="N97">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O97">
-        <v>1.444</v>
+        <v>1.85</v>
       </c>
       <c r="P97">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q97">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="R97">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S97">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T97">
+        <v>1.85</v>
+      </c>
+      <c r="U97">
+        <v>2.75</v>
+      </c>
+      <c r="V97">
         <v>1.8</v>
       </c>
-      <c r="U97">
-        <v>3</v>
-      </c>
-      <c r="V97">
-        <v>1.95</v>
-      </c>
       <c r="W97">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="X97">
-        <v>0.444</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC97">
         <v>-1</v>
       </c>
       <c r="AD97">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -9436,7 +9436,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>6848401</v>
+        <v>6848402</v>
       </c>
       <c r="C98" t="s">
         <v>29</v>
@@ -9445,82 +9445,82 @@
         <v>45304.5</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98">
         <v>1</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98">
         <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L98">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="M98">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N98">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="O98">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="P98">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q98">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="R98">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S98">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T98">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="U98">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V98">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W98">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X98">
         <v>-1</v>
       </c>
       <c r="Y98">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="AA98">
         <v>-1</v>
       </c>
       <c r="AB98">
-        <v>0.8500000000000001</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC98">
         <v>-1</v>
       </c>
       <c r="AD98">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="99" spans="1:30">
@@ -9528,7 +9528,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6848402</v>
+        <v>6848403</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -9537,82 +9537,82 @@
         <v>45304.5</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H99">
         <v>1</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L99">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="M99">
         <v>4</v>
       </c>
       <c r="N99">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="O99">
+        <v>2.7</v>
+      </c>
+      <c r="P99">
+        <v>3.25</v>
+      </c>
+      <c r="Q99">
+        <v>2.3</v>
+      </c>
+      <c r="R99">
+        <v>0.25</v>
+      </c>
+      <c r="S99">
+        <v>1.775</v>
+      </c>
+      <c r="T99">
+        <v>2.025</v>
+      </c>
+      <c r="U99">
+        <v>2.5</v>
+      </c>
+      <c r="V99">
+        <v>1.85</v>
+      </c>
+      <c r="W99">
+        <v>1.95</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
         <v>2.25</v>
       </c>
-      <c r="P99">
-        <v>3.5</v>
-      </c>
-      <c r="Q99">
-        <v>2.7</v>
-      </c>
-      <c r="R99">
-        <v>-0.25</v>
-      </c>
-      <c r="S99">
-        <v>2.025</v>
-      </c>
-      <c r="T99">
-        <v>1.775</v>
-      </c>
-      <c r="U99">
-        <v>2.25</v>
-      </c>
-      <c r="V99">
-        <v>1.775</v>
-      </c>
-      <c r="W99">
-        <v>2.025</v>
-      </c>
-      <c r="X99">
-        <v>-1</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
       <c r="Z99">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-1</v>
+        <v>0.3875</v>
       </c>
       <c r="AB99">
-        <v>0.7749999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
         <v>-1</v>
       </c>
       <c r="AD99">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -9620,7 +9620,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>6848403</v>
+        <v>6845809</v>
       </c>
       <c r="C100" t="s">
         <v>29</v>
@@ -9629,82 +9629,82 @@
         <v>45304.5</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F100" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>1</v>
       </c>
       <c r="J100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L100">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="M100">
+        <v>4.1</v>
+      </c>
+      <c r="N100">
         <v>4</v>
       </c>
-      <c r="N100">
-        <v>2.9</v>
-      </c>
       <c r="O100">
-        <v>2.7</v>
+        <v>1.444</v>
       </c>
       <c r="P100">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="Q100">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="R100">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S100">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T100">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="U100">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="V100">
+        <v>1.95</v>
+      </c>
+      <c r="W100">
         <v>1.85</v>
       </c>
-      <c r="W100">
-        <v>1.95</v>
-      </c>
       <c r="X100">
-        <v>-1</v>
+        <v>0.444</v>
       </c>
       <c r="Y100">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.3875</v>
+        <v>1</v>
       </c>
       <c r="AB100">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC100">
         <v>-1</v>
       </c>
       <c r="AD100">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="101" spans="1:30">
@@ -9721,7 +9721,7 @@
         <v>45304.52083333334</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
         <v>32</v>
@@ -10181,10 +10181,10 @@
         <v>45318.5</v>
       </c>
       <c r="E106" t="s">
+        <v>35</v>
+      </c>
+      <c r="F106" t="s">
         <v>39</v>
-      </c>
-      <c r="F106" t="s">
-        <v>35</v>
       </c>
       <c r="G106">
         <v>3</v>
@@ -10457,7 +10457,7 @@
         <v>45325.5</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F109" t="s">
         <v>37</v>
@@ -10549,7 +10549,7 @@
         <v>45325.5</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F110" t="s">
         <v>36</v>
@@ -10920,7 +10920,7 @@
         <v>33</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G114">
         <v>3</v>
@@ -11012,7 +11012,7 @@
         <v>31</v>
       </c>
       <c r="F115" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G115">
         <v>2</v>
@@ -11104,7 +11104,7 @@
         <v>37</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G116">
         <v>3</v>
@@ -11196,7 +11196,7 @@
         <v>36</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G117">
         <v>2</v>
@@ -11285,7 +11285,7 @@
         <v>45339.5</v>
       </c>
       <c r="E118" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F118" t="s">
         <v>34</v>
@@ -11469,7 +11469,7 @@
         <v>45339.5</v>
       </c>
       <c r="E120" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F120" t="s">
         <v>30</v>
@@ -11932,7 +11932,7 @@
         <v>30</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G125">
         <v>4</v>
@@ -12116,7 +12116,7 @@
         <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G127">
         <v>2</v>
@@ -12380,7 +12380,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6937668</v>
+        <v>6920595</v>
       </c>
       <c r="C130" t="s">
         <v>29</v>
@@ -12389,82 +12389,82 @@
         <v>45353.5</v>
       </c>
       <c r="E130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K130" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L130">
-        <v>1.166</v>
+        <v>2.15</v>
       </c>
       <c r="M130">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="N130">
-        <v>9.5</v>
+        <v>2.9</v>
       </c>
       <c r="O130">
-        <v>1.125</v>
+        <v>2.25</v>
       </c>
       <c r="P130">
-        <v>9</v>
+        <v>3.4</v>
       </c>
       <c r="Q130">
-        <v>12</v>
+        <v>2.8</v>
       </c>
       <c r="R130">
-        <v>-2.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S130">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T130">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U130">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W130">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y130">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB130">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD130">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:30">
@@ -12472,7 +12472,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6920595</v>
+        <v>6937667</v>
       </c>
       <c r="C131" t="s">
         <v>29</v>
@@ -12481,82 +12481,82 @@
         <v>45353.5</v>
       </c>
       <c r="E131" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G131">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K131" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L131">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="M131">
+        <v>5.25</v>
+      </c>
+      <c r="N131">
+        <v>1.333</v>
+      </c>
+      <c r="O131">
+        <v>9</v>
+      </c>
+      <c r="P131">
+        <v>5.5</v>
+      </c>
+      <c r="Q131">
+        <v>1.25</v>
+      </c>
+      <c r="R131">
+        <v>1.75</v>
+      </c>
+      <c r="S131">
+        <v>1.95</v>
+      </c>
+      <c r="T131">
+        <v>1.85</v>
+      </c>
+      <c r="U131">
         <v>3.5</v>
       </c>
-      <c r="N131">
-        <v>2.9</v>
-      </c>
-      <c r="O131">
-        <v>2.25</v>
-      </c>
-      <c r="P131">
-        <v>3.4</v>
-      </c>
-      <c r="Q131">
-        <v>2.8</v>
-      </c>
-      <c r="R131">
-        <v>-0.25</v>
-      </c>
-      <c r="S131">
-        <v>2.025</v>
-      </c>
-      <c r="T131">
-        <v>1.825</v>
-      </c>
-      <c r="U131">
-        <v>2.5</v>
-      </c>
       <c r="V131">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="W131">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="X131">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="AA131">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AC131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AD131">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="132" spans="1:30">
@@ -12564,7 +12564,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6937667</v>
+        <v>6921319</v>
       </c>
       <c r="C132" t="s">
         <v>29</v>
@@ -12573,82 +12573,82 @@
         <v>45353.5</v>
       </c>
       <c r="E132" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H132">
         <v>2</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132">
         <v>1</v>
       </c>
       <c r="K132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L132">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="M132">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="N132">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O132">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="P132">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q132">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="R132">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S132">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T132">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U132">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="V132">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W132">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z132">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="AA132">
         <v>-0.5</v>
       </c>
       <c r="AB132">
-        <v>0.425</v>
+        <v>0.4125</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AD132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:30">
@@ -12656,7 +12656,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6921319</v>
+        <v>6920622</v>
       </c>
       <c r="C133" t="s">
         <v>29</v>
@@ -12665,58 +12665,58 @@
         <v>45353.5</v>
       </c>
       <c r="E133" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K133" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L133">
-        <v>1.95</v>
+        <v>4</v>
       </c>
       <c r="M133">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="N133">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="O133">
-        <v>2.25</v>
+        <v>4.333</v>
       </c>
       <c r="P133">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="Q133">
+        <v>1.6</v>
+      </c>
+      <c r="R133">
+        <v>1</v>
+      </c>
+      <c r="S133">
+        <v>1.775</v>
+      </c>
+      <c r="T133">
+        <v>2.025</v>
+      </c>
+      <c r="U133">
         <v>3</v>
       </c>
-      <c r="R133">
-        <v>-0.25</v>
-      </c>
-      <c r="S133">
-        <v>2.025</v>
-      </c>
-      <c r="T133">
-        <v>1.825</v>
-      </c>
-      <c r="U133">
-        <v>2.5</v>
-      </c>
       <c r="V133">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W133">
         <v>1.8</v>
@@ -12725,19 +12725,19 @@
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AA133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.4125</v>
+        <v>1.025</v>
       </c>
       <c r="AC133">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AD133">
         <v>-1</v>
@@ -12748,7 +12748,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6920622</v>
+        <v>6937668</v>
       </c>
       <c r="C134" t="s">
         <v>29</v>
@@ -12757,82 +12757,82 @@
         <v>45353.5</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F134" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I134">
         <v>0</v>
       </c>
       <c r="J134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>1.166</v>
       </c>
       <c r="M134">
-        <v>3.9</v>
+        <v>7.5</v>
       </c>
       <c r="N134">
-        <v>1.7</v>
+        <v>9.5</v>
       </c>
       <c r="O134">
-        <v>4.333</v>
+        <v>1.125</v>
       </c>
       <c r="P134">
-        <v>4.2</v>
+        <v>9</v>
       </c>
       <c r="Q134">
-        <v>1.6</v>
+        <v>12</v>
       </c>
       <c r="R134">
-        <v>1</v>
+        <v>-2.25</v>
       </c>
       <c r="S134">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T134">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U134">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V134">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W134">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X134">
         <v>-1</v>
       </c>
       <c r="Y134">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Z134">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA134">
         <v>-1</v>
       </c>
       <c r="AB134">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC134">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD134">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="135" spans="1:30">
@@ -12944,7 +12944,7 @@
         <v>31</v>
       </c>
       <c r="F136" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G136">
         <v>1</v>
@@ -13309,7 +13309,7 @@
         <v>45360.5</v>
       </c>
       <c r="E140" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F140" t="s">
         <v>34</v>
@@ -13588,7 +13588,7 @@
         <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G143">
         <v>1</v>
@@ -13677,7 +13677,7 @@
         <v>45367.5</v>
       </c>
       <c r="E144" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F144" t="s">
         <v>36</v>
@@ -13944,7 +13944,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>6994937</v>
+        <v>6994939</v>
       </c>
       <c r="C147" t="s">
         <v>29</v>
@@ -13953,46 +13953,46 @@
         <v>45374.5</v>
       </c>
       <c r="E147" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F147" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G147">
         <v>1</v>
       </c>
       <c r="H147">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>0</v>
       </c>
       <c r="J147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K147" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L147">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="M147">
         <v>3.5</v>
       </c>
       <c r="N147">
-        <v>1.909</v>
+        <v>2.25</v>
       </c>
       <c r="O147">
-        <v>4.2</v>
+        <v>2.45</v>
       </c>
       <c r="P147">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q147">
-        <v>1.666</v>
+        <v>2.45</v>
       </c>
       <c r="R147">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S147">
         <v>1.875</v>
@@ -14001,34 +14001,34 @@
         <v>1.925</v>
       </c>
       <c r="U147">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V147">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="W147">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X147">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="Y147">
         <v>-1</v>
       </c>
       <c r="Z147">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA147">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB147">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC147">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD147">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="148" spans="1:30">
@@ -14036,7 +14036,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>6994939</v>
+        <v>6994938</v>
       </c>
       <c r="C148" t="s">
         <v>29</v>
@@ -14045,19 +14045,19 @@
         <v>45374.5</v>
       </c>
       <c r="E148" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F148" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -14066,43 +14066,43 @@
         <v>40</v>
       </c>
       <c r="L148">
-        <v>2.625</v>
+        <v>1.04</v>
       </c>
       <c r="M148">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="N148">
-        <v>2.25</v>
+        <v>26</v>
       </c>
       <c r="O148">
-        <v>2.45</v>
+        <v>1.025</v>
       </c>
       <c r="P148">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="Q148">
-        <v>2.45</v>
+        <v>34</v>
       </c>
       <c r="R148">
-        <v>0</v>
+        <v>-3.75</v>
       </c>
       <c r="S148">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T148">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="U148">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="V148">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W148">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X148">
-        <v>1.45</v>
+        <v>0.02499999999999991</v>
       </c>
       <c r="Y148">
         <v>-1</v>
@@ -14111,16 +14111,16 @@
         <v>-1</v>
       </c>
       <c r="AA148">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB148">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC148">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD148">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="149" spans="1:30">
@@ -14128,7 +14128,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>6994938</v>
+        <v>6994937</v>
       </c>
       <c r="C149" t="s">
         <v>29</v>
@@ -14137,79 +14137,79 @@
         <v>45374.5</v>
       </c>
       <c r="E149" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G149">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K149" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L149">
-        <v>1.04</v>
+        <v>3.3</v>
       </c>
       <c r="M149">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="N149">
-        <v>26</v>
+        <v>1.909</v>
       </c>
       <c r="O149">
-        <v>1.025</v>
+        <v>4.2</v>
       </c>
       <c r="P149">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="Q149">
-        <v>34</v>
+        <v>1.666</v>
       </c>
       <c r="R149">
-        <v>-3.75</v>
+        <v>0.75</v>
       </c>
       <c r="S149">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T149">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="U149">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="V149">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W149">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="X149">
-        <v>0.02499999999999991</v>
+        <v>-1</v>
       </c>
       <c r="Y149">
         <v>-1</v>
       </c>
       <c r="Z149">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="AA149">
         <v>-1</v>
       </c>
       <c r="AB149">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC149">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AD149">
         <v>-1</v>
@@ -14229,7 +14229,7 @@
         <v>45374.5</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F150" t="s">
         <v>37</v>
@@ -14508,7 +14508,7 @@
         <v>36</v>
       </c>
       <c r="F153" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G153">
         <v>1</v>
@@ -14692,7 +14692,7 @@
         <v>37</v>
       </c>
       <c r="F155" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G155">
         <v>3</v>
@@ -14864,7 +14864,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>7060651</v>
+        <v>7060654</v>
       </c>
       <c r="C157" t="s">
         <v>29</v>
@@ -14873,61 +14873,61 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F157" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G157">
         <v>1</v>
       </c>
       <c r="H157">
+        <v>5</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
         <v>3</v>
-      </c>
-      <c r="I157">
-        <v>0</v>
-      </c>
-      <c r="J157">
-        <v>1</v>
       </c>
       <c r="K157" t="s">
         <v>41</v>
       </c>
       <c r="L157">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M157">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="N157">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O157">
+        <v>2.55</v>
+      </c>
+      <c r="P157">
         <v>3.5</v>
       </c>
-      <c r="P157">
-        <v>4.75</v>
-      </c>
       <c r="Q157">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="R157">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S157">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T157">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U157">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V157">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W157">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14936,16 +14936,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.6659999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="AA157">
         <v>-1</v>
       </c>
       <c r="AB157">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC157">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD157">
         <v>-1</v>
@@ -14956,7 +14956,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7060654</v>
+        <v>7060651</v>
       </c>
       <c r="C158" t="s">
         <v>29</v>
@@ -14965,61 +14965,61 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G158">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K158" t="s">
         <v>41</v>
       </c>
       <c r="L158">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M158">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="N158">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O158">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="P158">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q158">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="R158">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U158">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V158">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W158">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -15028,16 +15028,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>1.375</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC158">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD158">
         <v>-1</v>
@@ -15149,7 +15149,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E160" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F160" t="s">
         <v>33</v>
@@ -15318,7 +15318,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7128381</v>
+        <v>7107442</v>
       </c>
       <c r="C162" t="s">
         <v>29</v>
@@ -15327,64 +15327,64 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G162">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K162" t="s">
         <v>40</v>
       </c>
       <c r="L162">
-        <v>2.95</v>
+        <v>2</v>
       </c>
       <c r="M162">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="N162">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="O162">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="P162">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="Q162">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="R162">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S162">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T162">
+        <v>1.825</v>
+      </c>
+      <c r="U162">
+        <v>2.75</v>
+      </c>
+      <c r="V162">
         <v>1.975</v>
       </c>
-      <c r="U162">
-        <v>3.25</v>
-      </c>
-      <c r="V162">
-        <v>1.925</v>
-      </c>
       <c r="W162">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X162">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="Y162">
         <v>-1</v>
@@ -15393,16 +15393,16 @@
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.875</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB162">
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD162">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -15410,7 +15410,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7128380</v>
+        <v>7128381</v>
       </c>
       <c r="C163" t="s">
         <v>29</v>
@@ -15419,82 +15419,82 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F163" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K163" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L163">
-        <v>2.1</v>
+        <v>2.95</v>
       </c>
       <c r="M163">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="N163">
-        <v>2.875</v>
+        <v>2.05</v>
       </c>
       <c r="O163">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="P163">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q163">
-        <v>2.8</v>
+        <v>2.55</v>
       </c>
       <c r="R163">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S163">
+        <v>1.875</v>
+      </c>
+      <c r="T163">
         <v>1.975</v>
       </c>
-      <c r="T163">
-        <v>1.875</v>
-      </c>
       <c r="U163">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V163">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y163">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB163">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD163">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -15502,7 +15502,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7107442</v>
+        <v>7128380</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
@@ -15511,43 +15511,43 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164">
         <v>0</v>
       </c>
       <c r="K164" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L164">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="M164">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="N164">
-        <v>3.25</v>
+        <v>2.875</v>
       </c>
       <c r="O164">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="P164">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q164">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="R164">
         <v>-0.25</v>
@@ -15556,37 +15556,37 @@
         <v>1.975</v>
       </c>
       <c r="T164">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U164">
         <v>2.75</v>
       </c>
       <c r="V164">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X164">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC164">
         <v>-1</v>
       </c>
       <c r="AD164">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -15606,7 +15606,7 @@
         <v>34</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G165">
         <v>2</v>
@@ -15787,7 +15787,7 @@
         <v>45398.65625</v>
       </c>
       <c r="E167" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F167" t="s">
         <v>33</v>
@@ -15870,7 +15870,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>7157542</v>
+        <v>7157543</v>
       </c>
       <c r="C168" t="s">
         <v>29</v>
@@ -15879,82 +15879,82 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E168" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H168">
         <v>2</v>
       </c>
       <c r="I168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K168" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L168">
-        <v>1.2</v>
+        <v>4.333</v>
       </c>
       <c r="M168">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="N168">
-        <v>8</v>
+        <v>1.571</v>
       </c>
       <c r="O168">
-        <v>1.181</v>
+        <v>3.4</v>
       </c>
       <c r="P168">
-        <v>6</v>
+        <v>4.2</v>
       </c>
       <c r="Q168">
-        <v>10</v>
+        <v>1.75</v>
       </c>
       <c r="R168">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="S168">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T168">
+        <v>2.025</v>
+      </c>
+      <c r="U168">
+        <v>3</v>
+      </c>
+      <c r="V168">
+        <v>1.9</v>
+      </c>
+      <c r="W168">
         <v>1.95</v>
       </c>
-      <c r="U168">
-        <v>3.5</v>
-      </c>
-      <c r="V168">
-        <v>1.825</v>
-      </c>
-      <c r="W168">
-        <v>1.975</v>
-      </c>
       <c r="X168">
         <v>-1</v>
       </c>
       <c r="Y168">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z168">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA168">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB168">
-        <v>0.95</v>
+        <v>0.5125</v>
       </c>
       <c r="AC168">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AD168">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:30">
@@ -16063,10 +16063,10 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E170" t="s">
+        <v>39</v>
+      </c>
+      <c r="F170" t="s">
         <v>35</v>
-      </c>
-      <c r="F170" t="s">
-        <v>39</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -16146,7 +16146,7 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>7157543</v>
+        <v>7157542</v>
       </c>
       <c r="C171" t="s">
         <v>29</v>
@@ -16155,82 +16155,82 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H171">
         <v>2</v>
       </c>
       <c r="I171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K171" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L171">
-        <v>4.333</v>
+        <v>1.2</v>
       </c>
       <c r="M171">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="N171">
-        <v>1.571</v>
+        <v>8</v>
       </c>
       <c r="O171">
-        <v>3.4</v>
+        <v>1.181</v>
       </c>
       <c r="P171">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q171">
-        <v>1.75</v>
+        <v>10</v>
       </c>
       <c r="R171">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="S171">
+        <v>1.85</v>
+      </c>
+      <c r="T171">
+        <v>1.95</v>
+      </c>
+      <c r="U171">
+        <v>3.5</v>
+      </c>
+      <c r="V171">
         <v>1.825</v>
       </c>
-      <c r="T171">
-        <v>2.025</v>
-      </c>
-      <c r="U171">
-        <v>3</v>
-      </c>
-      <c r="V171">
-        <v>1.9</v>
-      </c>
       <c r="W171">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X171">
         <v>-1</v>
       </c>
       <c r="Y171">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z171">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA171">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB171">
-        <v>0.5125</v>
+        <v>0.95</v>
       </c>
       <c r="AC171">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AD171">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="172" spans="1:30">
@@ -16523,7 +16523,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F175" t="s">
         <v>32</v>
@@ -16615,7 +16615,7 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F176" t="s">
         <v>30</v>
@@ -16790,7 +16790,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>7222590</v>
+        <v>7222591</v>
       </c>
       <c r="C178" t="s">
         <v>29</v>
@@ -16799,82 +16799,82 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E178" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G178">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K178" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L178">
-        <v>1.5</v>
+        <v>1.285</v>
       </c>
       <c r="M178">
-        <v>4.333</v>
+        <v>5.75</v>
       </c>
       <c r="N178">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O178">
-        <v>1.25</v>
+        <v>1.142</v>
       </c>
       <c r="P178">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="Q178">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R178">
-        <v>-1.75</v>
+        <v>-2.5</v>
       </c>
       <c r="S178">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T178">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="U178">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="V178">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W178">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X178">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Z178">
         <v>-1</v>
       </c>
       <c r="AA178">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AC178">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AD178">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:30">
@@ -17066,7 +17066,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>7222592</v>
+        <v>7222590</v>
       </c>
       <c r="C181" t="s">
         <v>29</v>
@@ -17075,46 +17075,46 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E181" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="F181" t="s">
         <v>39</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H181">
         <v>1</v>
       </c>
       <c r="I181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J181">
         <v>1</v>
       </c>
       <c r="K181" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L181">
-        <v>2.375</v>
+        <v>1.5</v>
       </c>
       <c r="M181">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N181">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="O181">
-        <v>2.05</v>
+        <v>1.25</v>
       </c>
       <c r="P181">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="Q181">
-        <v>2.9</v>
+        <v>9</v>
       </c>
       <c r="R181">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="S181">
         <v>1.85</v>
@@ -17123,34 +17123,34 @@
         <v>1.95</v>
       </c>
       <c r="U181">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V181">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="W181">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X181">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y181">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z181">
         <v>-1</v>
       </c>
       <c r="AA181">
+        <v>0.425</v>
+      </c>
+      <c r="AB181">
         <v>-0.5</v>
       </c>
-      <c r="AB181">
-        <v>0.475</v>
-      </c>
       <c r="AC181">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD181">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:30">
@@ -17158,7 +17158,7 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>7222591</v>
+        <v>7222592</v>
       </c>
       <c r="C182" t="s">
         <v>29</v>
@@ -17167,82 +17167,82 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E182" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F182" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182">
         <v>1</v>
       </c>
       <c r="J182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K182" t="s">
         <v>42</v>
       </c>
       <c r="L182">
-        <v>1.285</v>
+        <v>2.375</v>
       </c>
       <c r="M182">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="N182">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="O182">
-        <v>1.142</v>
+        <v>2.05</v>
       </c>
       <c r="P182">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q182">
-        <v>11</v>
+        <v>2.9</v>
       </c>
       <c r="R182">
-        <v>-2.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S182">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T182">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="U182">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V182">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W182">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="X182">
         <v>-1</v>
       </c>
       <c r="Y182">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="Z182">
         <v>-1</v>
       </c>
       <c r="AA182">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB182">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AC182">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD182">
-        <v>0</v>
+        <v>1.025</v>
       </c>
     </row>
   </sheetData>

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -109,16 +109,16 @@
     <t>Stirling</t>
   </si>
   <si>
-    <t>Hamilton</t>
+    <t>Falkirk</t>
+  </si>
+  <si>
+    <t>Montrose</t>
   </si>
   <si>
     <t>Queen of South</t>
   </si>
   <si>
-    <t>Falkirk</t>
-  </si>
-  <si>
-    <t>Montrose</t>
+    <t>Hamilton</t>
   </si>
   <si>
     <t>Cove Rangers</t>
@@ -696,7 +696,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6845830</v>
+        <v>6848338</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -708,16 +708,16 @@
         <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -726,43 +726,43 @@
         <v>40</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>1.444</v>
       </c>
       <c r="M3">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="N3">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="O3">
-        <v>1.95</v>
+        <v>1.333</v>
       </c>
       <c r="P3">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q3">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="R3">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S3">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U3">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V3">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="W3">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="X3">
-        <v>0.95</v>
+        <v>0.333</v>
       </c>
       <c r="Y3">
         <v>-1</v>
@@ -771,16 +771,16 @@
         <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6848340</v>
+        <v>6848339</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
@@ -800,58 +800,58 @@
         <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="s">
         <v>41</v>
       </c>
       <c r="L4">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="M4">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N4">
+        <v>2.5</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>3.5</v>
+      </c>
+      <c r="Q4">
         <v>3.1</v>
       </c>
-      <c r="O4">
-        <v>1.833</v>
-      </c>
-      <c r="P4">
-        <v>4</v>
-      </c>
-      <c r="Q4">
-        <v>3.4</v>
-      </c>
       <c r="R4">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S4">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T4">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U4">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="V4">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W4">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="X4">
         <v>-1</v>
@@ -860,19 +860,19 @@
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AA4">
         <v>-1</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AC4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AD4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -880,7 +880,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6848338</v>
+        <v>6848340</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -892,79 +892,79 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G5">
         <v>3</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L5">
-        <v>1.444</v>
+        <v>1.909</v>
       </c>
       <c r="M5">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="N5">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="O5">
-        <v>1.333</v>
+        <v>1.833</v>
       </c>
       <c r="P5">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>3.4</v>
       </c>
       <c r="R5">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S5">
+        <v>1.875</v>
+      </c>
+      <c r="T5">
         <v>1.925</v>
       </c>
-      <c r="T5">
-        <v>1.875</v>
-      </c>
       <c r="U5">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V5">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="W5">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="X5">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
         <v>0.925</v>
       </c>
-      <c r="AB5">
-        <v>-1</v>
-      </c>
       <c r="AC5">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -972,7 +972,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6848339</v>
+        <v>6845830</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -984,79 +984,79 @@
         <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L6">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="N6">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="O6">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="P6">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q6">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="R6">
         <v>-0.25</v>
       </c>
       <c r="S6">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T6">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W6">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB6">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
         <v>-1</v>
       </c>
       <c r="AD6">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -1076,7 +1076,7 @@
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1168,7 +1168,7 @@
         <v>36</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1260,7 +1260,7 @@
         <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1533,7 +1533,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
         <v>36</v>
@@ -1720,7 +1720,7 @@
         <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1809,7 +1809,7 @@
         <v>45157.45833333334</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>35</v>
@@ -1901,7 +1901,7 @@
         <v>45160.65625</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s">
         <v>30</v>
@@ -2085,10 +2085,10 @@
         <v>45164.45833333334</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2180,7 +2180,7 @@
         <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -2548,7 +2548,7 @@
         <v>39</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2640,7 +2640,7 @@
         <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G24">
         <v>2</v>
@@ -2821,10 +2821,10 @@
         <v>45171.45833333334</v>
       </c>
       <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
         <v>32</v>
-      </c>
-      <c r="F26" t="s">
-        <v>34</v>
       </c>
       <c r="G26">
         <v>2</v>
@@ -3005,7 +3005,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
         <v>38</v>
@@ -3189,10 +3189,10 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
         <v>33</v>
-      </c>
-      <c r="F30" t="s">
-        <v>32</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3281,7 +3281,7 @@
         <v>45185.45833333334</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F31" t="s">
         <v>39</v>
@@ -3456,7 +3456,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6848357</v>
+        <v>6845823</v>
       </c>
       <c r="C33" t="s">
         <v>29</v>
@@ -3465,82 +3465,82 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F33" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G33">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L33">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="M33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N33">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="O33">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="P33">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q33">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S33">
+        <v>1.975</v>
+      </c>
+      <c r="T33">
         <v>1.875</v>
-      </c>
-      <c r="T33">
-        <v>1.925</v>
       </c>
       <c r="U33">
         <v>2.75</v>
       </c>
       <c r="V33">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AD33">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -3548,7 +3548,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6848359</v>
+        <v>6848357</v>
       </c>
       <c r="C34" t="s">
         <v>29</v>
@@ -3557,82 +3557,82 @@
         <v>45192.45833333334</v>
       </c>
       <c r="E34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L34">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M34">
         <v>3.6</v>
       </c>
       <c r="N34">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="O34">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="P34">
         <v>3.6</v>
       </c>
       <c r="Q34">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="R34">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U34">
         <v>2.75</v>
       </c>
       <c r="V34">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W34">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="X34">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z34">
         <v>-1</v>
       </c>
       <c r="AA34">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC34">
         <v>-1</v>
       </c>
       <c r="AD34">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -3640,7 +3640,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6845823</v>
+        <v>6848359</v>
       </c>
       <c r="C35" t="s">
         <v>29</v>
@@ -3652,79 +3652,79 @@
         <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L35">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="M35">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N35">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>3.6</v>
+      </c>
+      <c r="Q35">
         <v>3.1</v>
       </c>
-      <c r="P35">
-        <v>3.5</v>
-      </c>
-      <c r="Q35">
-        <v>2.1</v>
-      </c>
       <c r="R35">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="S35">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T35">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="U35">
         <v>2.75</v>
       </c>
       <c r="V35">
+        <v>1.925</v>
+      </c>
+      <c r="W35">
         <v>1.875</v>
       </c>
-      <c r="W35">
-        <v>1.975</v>
-      </c>
       <c r="X35">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y35">
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB35">
+        <v>-1</v>
+      </c>
+      <c r="AC35">
+        <v>-1</v>
+      </c>
+      <c r="AD35">
         <v>0.875</v>
-      </c>
-      <c r="AC35">
-        <v>0.4375</v>
-      </c>
-      <c r="AD35">
-        <v>-0.5</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -3744,7 +3744,7 @@
         <v>37</v>
       </c>
       <c r="F36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G36">
         <v>1</v>
@@ -3833,7 +3833,7 @@
         <v>45198.65625</v>
       </c>
       <c r="E37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F37" t="s">
         <v>36</v>
@@ -3928,7 +3928,7 @@
         <v>37</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G38">
         <v>3</v>
@@ -4109,10 +4109,10 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G40">
         <v>3</v>
@@ -4284,7 +4284,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6848364</v>
+        <v>6845665</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -4293,19 +4293,19 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -4314,43 +4314,43 @@
         <v>40</v>
       </c>
       <c r="L42">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="M42">
         <v>3.6</v>
       </c>
       <c r="N42">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O42">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="P42">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="Q42">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="R42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="S42">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T42">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U42">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V42">
         <v>1.875</v>
       </c>
       <c r="W42">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="X42">
-        <v>0.909</v>
+        <v>0.571</v>
       </c>
       <c r="Y42">
         <v>-1</v>
@@ -4359,16 +4359,16 @@
         <v>-1</v>
       </c>
       <c r="AA42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>0.4375</v>
+        <v>0.875</v>
       </c>
       <c r="AD42">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -4376,7 +4376,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6845665</v>
+        <v>6848363</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4385,79 +4385,79 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L43">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="M43">
         <v>3.6</v>
       </c>
       <c r="N43">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O43">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="P43">
         <v>4</v>
       </c>
       <c r="Q43">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="R43">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T43">
         <v>1.825</v>
       </c>
       <c r="U43">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W43">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X43">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC43">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AD43">
         <v>-1</v>
@@ -4468,7 +4468,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6848363</v>
+        <v>6848365</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -4477,61 +4477,61 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44" t="s">
         <v>41</v>
       </c>
       <c r="L44">
+        <v>2.15</v>
+      </c>
+      <c r="M44">
+        <v>3.5</v>
+      </c>
+      <c r="N44">
         <v>2.9</v>
       </c>
-      <c r="M44">
-        <v>3.6</v>
-      </c>
-      <c r="N44">
-        <v>2.1</v>
-      </c>
       <c r="O44">
-        <v>3.6</v>
+        <v>2.05</v>
       </c>
       <c r="P44">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q44">
+        <v>3.2</v>
+      </c>
+      <c r="R44">
+        <v>-0.25</v>
+      </c>
+      <c r="S44">
         <v>1.8</v>
       </c>
-      <c r="R44">
-        <v>0.5</v>
-      </c>
-      <c r="S44">
-        <v>2.025</v>
-      </c>
       <c r="T44">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="U44">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V44">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W44">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X44">
         <v>-1</v>
@@ -4540,19 +4540,19 @@
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="AA44">
         <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC44">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AD44">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -4560,7 +4560,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6848365</v>
+        <v>6848364</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
@@ -4572,79 +4572,79 @@
         <v>32</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L45">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="M45">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N45">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="O45">
-        <v>2.05</v>
+        <v>1.909</v>
       </c>
       <c r="P45">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q45">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="R45">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S45">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T45">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U45">
         <v>2.75</v>
       </c>
       <c r="V45">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AD45">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -4661,10 +4661,10 @@
         <v>45206.5625</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>30</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4848,7 +4848,7 @@
         <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G48">
         <v>0</v>
@@ -5029,7 +5029,7 @@
         <v>45220.45833333334</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
         <v>39</v>
@@ -5121,7 +5121,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F51" t="s">
         <v>38</v>
@@ -5213,7 +5213,7 @@
         <v>45227.45833333334</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F52" t="s">
         <v>35</v>
@@ -5489,10 +5489,10 @@
         <v>45227.5625</v>
       </c>
       <c r="E55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" t="s">
         <v>34</v>
-      </c>
-      <c r="F55" t="s">
-        <v>31</v>
       </c>
       <c r="G55">
         <v>0</v>
@@ -5673,10 +5673,10 @@
         <v>45234.5</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -5768,7 +5768,7 @@
         <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G58">
         <v>1</v>
@@ -5952,7 +5952,7 @@
         <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G60">
         <v>1</v>
@@ -6032,7 +6032,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>6845817</v>
+        <v>6845668</v>
       </c>
       <c r="C61" t="s">
         <v>29</v>
@@ -6041,82 +6041,82 @@
         <v>45241.5</v>
       </c>
       <c r="E61" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G61">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K61" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L61">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="M61">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N61">
-        <v>6</v>
+        <v>2.6</v>
       </c>
       <c r="O61">
-        <v>1.333</v>
+        <v>2.5</v>
       </c>
       <c r="P61">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q61">
-        <v>8</v>
+        <v>2.25</v>
       </c>
       <c r="R61">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="S61">
+        <v>1.775</v>
+      </c>
+      <c r="T61">
         <v>2.025</v>
-      </c>
-      <c r="T61">
-        <v>1.825</v>
       </c>
       <c r="U61">
         <v>2.75</v>
       </c>
       <c r="V61">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W61">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="X61">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="Y61">
         <v>-1</v>
       </c>
       <c r="Z61">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="AA61">
+        <v>-1</v>
+      </c>
+      <c r="AB61">
         <v>1.025</v>
       </c>
-      <c r="AB61">
-        <v>-1</v>
-      </c>
       <c r="AC61">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AD61">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="62" spans="1:30">
@@ -6124,7 +6124,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6845668</v>
+        <v>6845817</v>
       </c>
       <c r="C62" t="s">
         <v>29</v>
@@ -6133,82 +6133,82 @@
         <v>45241.5</v>
       </c>
       <c r="E62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L62">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="M62">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N62">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="O62">
-        <v>2.5</v>
+        <v>1.333</v>
       </c>
       <c r="P62">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="Q62">
-        <v>2.25</v>
+        <v>8</v>
       </c>
       <c r="R62">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="S62">
-        <v>1.775</v>
+        <v>2.025</v>
       </c>
       <c r="T62">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="U62">
         <v>2.75</v>
       </c>
       <c r="V62">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="W62">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:30">
@@ -6225,7 +6225,7 @@
         <v>45241.5</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
         <v>36</v>
@@ -6317,7 +6317,7 @@
         <v>45241.5</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F64" t="s">
         <v>39</v>
@@ -6412,7 +6412,7 @@
         <v>38</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -6504,7 +6504,7 @@
         <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G66">
         <v>1</v>
@@ -6685,7 +6685,7 @@
         <v>45248.5</v>
       </c>
       <c r="E68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F68" t="s">
         <v>37</v>
@@ -6872,7 +6872,7 @@
         <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G70">
         <v>1</v>
@@ -6961,10 +6961,10 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -7053,10 +7053,10 @@
         <v>45262.5</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G72">
         <v>5</v>
@@ -7240,7 +7240,7 @@
         <v>38</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -7421,7 +7421,7 @@
         <v>45269.5</v>
       </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F76" t="s">
         <v>37</v>
@@ -7513,10 +7513,10 @@
         <v>45269.5</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -7605,7 +7605,7 @@
         <v>45276.5</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -7789,10 +7789,10 @@
         <v>45276.5</v>
       </c>
       <c r="E80" t="s">
+        <v>34</v>
+      </c>
+      <c r="F80" t="s">
         <v>31</v>
-      </c>
-      <c r="F80" t="s">
-        <v>33</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -7884,7 +7884,7 @@
         <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -8068,7 +8068,7 @@
         <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G83">
         <v>2</v>
@@ -8157,7 +8157,7 @@
         <v>45283.5</v>
       </c>
       <c r="E84" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F84" t="s">
         <v>37</v>
@@ -8252,7 +8252,7 @@
         <v>30</v>
       </c>
       <c r="F85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -8344,7 +8344,7 @@
         <v>36</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G86">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G88">
         <v>2</v>
@@ -8617,7 +8617,7 @@
         <v>45290.5</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F89" t="s">
         <v>35</v>
@@ -8700,7 +8700,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6848394</v>
+        <v>6848396</v>
       </c>
       <c r="C90" t="s">
         <v>29</v>
@@ -8712,61 +8712,61 @@
         <v>33</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K90" t="s">
         <v>40</v>
       </c>
       <c r="L90">
-        <v>1.285</v>
+        <v>1.833</v>
       </c>
       <c r="M90">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N90">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="O90">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="P90">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q90">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="R90">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="S90">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T90">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U90">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W90">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X90">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="Y90">
         <v>-1</v>
@@ -8775,16 +8775,16 @@
         <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB90">
         <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AD90">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:30">
@@ -8792,7 +8792,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6848396</v>
+        <v>6848394</v>
       </c>
       <c r="C91" t="s">
         <v>29</v>
@@ -8801,64 +8801,64 @@
         <v>45290.5</v>
       </c>
       <c r="E91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91" t="s">
         <v>40</v>
       </c>
       <c r="L91">
-        <v>1.833</v>
+        <v>1.285</v>
       </c>
       <c r="M91">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="N91">
-        <v>3.5</v>
+        <v>7.5</v>
       </c>
       <c r="O91">
-        <v>1.833</v>
+        <v>1.166</v>
       </c>
       <c r="P91">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q91">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="R91">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="S91">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T91">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="U91">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V91">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X91">
-        <v>0.833</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y91">
         <v>-1</v>
@@ -8867,16 +8867,16 @@
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AD91">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:30">
@@ -9080,7 +9080,7 @@
         <v>36</v>
       </c>
       <c r="F94" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -9169,10 +9169,10 @@
         <v>45297.5</v>
       </c>
       <c r="E95" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" t="s">
         <v>33</v>
-      </c>
-      <c r="F95" t="s">
-        <v>32</v>
       </c>
       <c r="G95">
         <v>1</v>
@@ -9261,7 +9261,7 @@
         <v>45300.69791666666</v>
       </c>
       <c r="E96" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F96" t="s">
         <v>35</v>
@@ -9353,7 +9353,7 @@
         <v>45304.5</v>
       </c>
       <c r="E97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
         <v>38</v>
@@ -9445,7 +9445,7 @@
         <v>45304.5</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F98" t="s">
         <v>30</v>
@@ -9629,7 +9629,7 @@
         <v>45304.5</v>
       </c>
       <c r="E100" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F100" t="s">
         <v>35</v>
@@ -9724,7 +9724,7 @@
         <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G101">
         <v>2</v>
@@ -9908,7 +9908,7 @@
         <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G103">
         <v>0</v>
@@ -10089,10 +10089,10 @@
         <v>45318.5</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G105">
         <v>1</v>
@@ -10184,7 +10184,7 @@
         <v>35</v>
       </c>
       <c r="F106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G106">
         <v>0</v>
@@ -10549,10 +10549,10 @@
         <v>45325.5</v>
       </c>
       <c r="E110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -10644,7 +10644,7 @@
         <v>30</v>
       </c>
       <c r="F111" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10733,7 +10733,7 @@
         <v>45332.5</v>
       </c>
       <c r="E112" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F112" t="s">
         <v>36</v>
@@ -10920,7 +10920,7 @@
         <v>37</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -11009,7 +11009,7 @@
         <v>45332.5</v>
       </c>
       <c r="E115" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F115" t="s">
         <v>39</v>
@@ -11285,7 +11285,7 @@
         <v>45339.5</v>
       </c>
       <c r="E118" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F118" t="s">
         <v>37</v>
@@ -11380,7 +11380,7 @@
         <v>39</v>
       </c>
       <c r="F119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G119">
         <v>1</v>
@@ -11561,10 +11561,10 @@
         <v>45339.5</v>
       </c>
       <c r="E121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G121">
         <v>3</v>
@@ -11745,10 +11745,10 @@
         <v>45342.69791666666</v>
       </c>
       <c r="E123" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G123">
         <v>3</v>
@@ -11837,7 +11837,7 @@
         <v>45346.5</v>
       </c>
       <c r="E124" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F124" t="s">
         <v>38</v>
@@ -11920,7 +11920,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6848416</v>
+        <v>6848417</v>
       </c>
       <c r="C125" t="s">
         <v>29</v>
@@ -11929,82 +11929,82 @@
         <v>45346.5</v>
       </c>
       <c r="E125" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H125">
         <v>1</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L125">
-        <v>1.666</v>
+        <v>5.5</v>
       </c>
       <c r="M125">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N125">
-        <v>4</v>
+        <v>1.363</v>
       </c>
       <c r="O125">
-        <v>1.6</v>
+        <v>8.5</v>
       </c>
       <c r="P125">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="Q125">
-        <v>4.333</v>
+        <v>1.25</v>
       </c>
       <c r="R125">
-        <v>-0.75</v>
+        <v>1.75</v>
       </c>
       <c r="S125">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="U125">
         <v>3</v>
       </c>
       <c r="V125">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W125">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X125">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="AA125">
-        <v>0.3875</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB125">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:30">
@@ -12012,7 +12012,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>6848419</v>
+        <v>6848416</v>
       </c>
       <c r="C126" t="s">
         <v>29</v>
@@ -12021,16 +12021,16 @@
         <v>45346.5</v>
       </c>
       <c r="E126" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F126" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G126">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126">
         <v>1</v>
@@ -12042,43 +12042,43 @@
         <v>40</v>
       </c>
       <c r="L126">
-        <v>1.166</v>
+        <v>1.666</v>
       </c>
       <c r="M126">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="N126">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O126">
-        <v>1.222</v>
+        <v>1.6</v>
       </c>
       <c r="P126">
-        <v>5.75</v>
+        <v>4</v>
       </c>
       <c r="Q126">
-        <v>10</v>
+        <v>4.333</v>
       </c>
       <c r="R126">
-        <v>-1.75</v>
+        <v>-0.75</v>
       </c>
       <c r="S126">
+        <v>1.775</v>
+      </c>
+      <c r="T126">
+        <v>2.025</v>
+      </c>
+      <c r="U126">
+        <v>3</v>
+      </c>
+      <c r="V126">
+        <v>1.975</v>
+      </c>
+      <c r="W126">
         <v>1.825</v>
       </c>
-      <c r="T126">
-        <v>1.975</v>
-      </c>
-      <c r="U126">
-        <v>3.25</v>
-      </c>
-      <c r="V126">
-        <v>1.95</v>
-      </c>
-      <c r="W126">
-        <v>1.85</v>
-      </c>
       <c r="X126">
-        <v>0.222</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Y126">
         <v>-1</v>
@@ -12087,16 +12087,16 @@
         <v>-1</v>
       </c>
       <c r="AA126">
-        <v>0.825</v>
+        <v>0.3875</v>
       </c>
       <c r="AB126">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC126">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AD126">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:30">
@@ -12104,7 +12104,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6848417</v>
+        <v>6848419</v>
       </c>
       <c r="C127" t="s">
         <v>29</v>
@@ -12113,82 +12113,82 @@
         <v>45346.5</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K127" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L127">
-        <v>5.5</v>
+        <v>1.166</v>
       </c>
       <c r="M127">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N127">
-        <v>1.363</v>
+        <v>11</v>
       </c>
       <c r="O127">
-        <v>8.5</v>
+        <v>1.222</v>
       </c>
       <c r="P127">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="Q127">
-        <v>1.25</v>
+        <v>10</v>
       </c>
       <c r="R127">
-        <v>1.75</v>
+        <v>-1.75</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T127">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U127">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V127">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W127">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X127">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Y127">
         <v>-1</v>
       </c>
       <c r="Z127">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AB127">
         <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AD127">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="128" spans="1:30">
@@ -12205,10 +12205,10 @@
         <v>45346.60416666666</v>
       </c>
       <c r="E128" t="s">
+        <v>33</v>
+      </c>
+      <c r="F128" t="s">
         <v>32</v>
-      </c>
-      <c r="F128" t="s">
-        <v>34</v>
       </c>
       <c r="G128">
         <v>2</v>
@@ -12300,7 +12300,7 @@
         <v>30</v>
       </c>
       <c r="F129" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -12392,7 +12392,7 @@
         <v>37</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -12472,7 +12472,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6937667</v>
+        <v>6921319</v>
       </c>
       <c r="C131" t="s">
         <v>29</v>
@@ -12481,82 +12481,82 @@
         <v>45353.5</v>
       </c>
       <c r="E131" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H131">
         <v>2</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131">
         <v>1</v>
       </c>
       <c r="K131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L131">
-        <v>6.5</v>
+        <v>1.95</v>
       </c>
       <c r="M131">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="N131">
-        <v>1.333</v>
+        <v>3.4</v>
       </c>
       <c r="O131">
-        <v>9</v>
+        <v>2.25</v>
       </c>
       <c r="P131">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q131">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="R131">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S131">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T131">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U131">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="V131">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="W131">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z131">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
         <v>-0.5</v>
       </c>
       <c r="AB131">
-        <v>0.425</v>
+        <v>0.4125</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AD131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:30">
@@ -12564,7 +12564,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6937668</v>
+        <v>6937667</v>
       </c>
       <c r="C132" t="s">
         <v>29</v>
@@ -12573,82 +12573,82 @@
         <v>45353.5</v>
       </c>
       <c r="E132" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132">
         <v>0</v>
       </c>
       <c r="J132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K132" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L132">
-        <v>1.166</v>
+        <v>6.5</v>
       </c>
       <c r="M132">
-        <v>7.5</v>
+        <v>5.25</v>
       </c>
       <c r="N132">
-        <v>9.5</v>
+        <v>1.333</v>
       </c>
       <c r="O132">
-        <v>1.125</v>
+        <v>9</v>
       </c>
       <c r="P132">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="Q132">
-        <v>12</v>
+        <v>1.25</v>
       </c>
       <c r="R132">
-        <v>-2.25</v>
+        <v>1.75</v>
       </c>
       <c r="S132">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T132">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U132">
         <v>3.5</v>
       </c>
       <c r="V132">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W132">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB132">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AC132">
         <v>-1</v>
       </c>
       <c r="AD132">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="133" spans="1:30">
@@ -12656,7 +12656,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6921319</v>
+        <v>6937668</v>
       </c>
       <c r="C133" t="s">
         <v>29</v>
@@ -12665,82 +12665,82 @@
         <v>45353.5</v>
       </c>
       <c r="E133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F133" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K133" t="s">
         <v>42</v>
       </c>
       <c r="L133">
+        <v>1.166</v>
+      </c>
+      <c r="M133">
+        <v>7.5</v>
+      </c>
+      <c r="N133">
+        <v>9.5</v>
+      </c>
+      <c r="O133">
+        <v>1.125</v>
+      </c>
+      <c r="P133">
+        <v>9</v>
+      </c>
+      <c r="Q133">
+        <v>12</v>
+      </c>
+      <c r="R133">
+        <v>-2.25</v>
+      </c>
+      <c r="S133">
+        <v>1.8</v>
+      </c>
+      <c r="T133">
+        <v>2</v>
+      </c>
+      <c r="U133">
+        <v>3.5</v>
+      </c>
+      <c r="V133">
+        <v>1.85</v>
+      </c>
+      <c r="W133">
         <v>1.95</v>
       </c>
-      <c r="M133">
-        <v>3.5</v>
-      </c>
-      <c r="N133">
-        <v>3.4</v>
-      </c>
-      <c r="O133">
-        <v>2.25</v>
-      </c>
-      <c r="P133">
-        <v>3.2</v>
-      </c>
-      <c r="Q133">
-        <v>3</v>
-      </c>
-      <c r="R133">
-        <v>-0.25</v>
-      </c>
-      <c r="S133">
-        <v>2.025</v>
-      </c>
-      <c r="T133">
-        <v>1.825</v>
-      </c>
-      <c r="U133">
-        <v>2.5</v>
-      </c>
-      <c r="V133">
-        <v>2.05</v>
-      </c>
-      <c r="W133">
-        <v>1.8</v>
-      </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>2.2</v>
+        <v>8</v>
       </c>
       <c r="Z133">
         <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.4125</v>
+        <v>1</v>
       </c>
       <c r="AC133">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AD133">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="134" spans="1:30">
@@ -12757,7 +12757,7 @@
         <v>45353.5</v>
       </c>
       <c r="E134" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F134" t="s">
         <v>38</v>
@@ -12852,7 +12852,7 @@
         <v>35</v>
       </c>
       <c r="F135" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12941,7 +12941,7 @@
         <v>45360.5</v>
       </c>
       <c r="E136" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F136" t="s">
         <v>39</v>
@@ -13036,7 +13036,7 @@
         <v>35</v>
       </c>
       <c r="F137" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -13128,7 +13128,7 @@
         <v>30</v>
       </c>
       <c r="F138" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -13312,7 +13312,7 @@
         <v>36</v>
       </c>
       <c r="F140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G140">
         <v>2</v>
@@ -13392,7 +13392,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6958684</v>
+        <v>6958685</v>
       </c>
       <c r="C141" t="s">
         <v>29</v>
@@ -13401,82 +13401,82 @@
         <v>45367.5</v>
       </c>
       <c r="E141" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F141" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L141">
-        <v>1.25</v>
+        <v>1.615</v>
       </c>
       <c r="M141">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="N141">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="O141">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="P141">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q141">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R141">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S141">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T141">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U141">
         <v>2.75</v>
       </c>
       <c r="V141">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W141">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="X141">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Z141">
         <v>-1</v>
       </c>
       <c r="AA141">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC141">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AD141">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="142" spans="1:30">
@@ -13484,7 +13484,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6958685</v>
+        <v>6958684</v>
       </c>
       <c r="C142" t="s">
         <v>29</v>
@@ -13496,79 +13496,79 @@
         <v>34</v>
       </c>
       <c r="F142" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G142">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L142">
-        <v>1.615</v>
+        <v>1.25</v>
       </c>
       <c r="M142">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="N142">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="O142">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="P142">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q142">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R142">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S142">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T142">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="U142">
         <v>2.75</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W142">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="X142">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y142">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Z142">
         <v>-1</v>
       </c>
       <c r="AA142">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB142">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC142">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AD142">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="143" spans="1:30">
@@ -13769,10 +13769,10 @@
         <v>45367.60416666666</v>
       </c>
       <c r="E145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -13956,7 +13956,7 @@
         <v>30</v>
       </c>
       <c r="F147" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -14048,7 +14048,7 @@
         <v>35</v>
       </c>
       <c r="F148" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -14137,7 +14137,7 @@
         <v>45374.5</v>
       </c>
       <c r="E149" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F149" t="s">
         <v>39</v>
@@ -14324,7 +14324,7 @@
         <v>38</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G151">
         <v>0</v>
@@ -14496,7 +14496,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>7024091</v>
+        <v>7024093</v>
       </c>
       <c r="C153" t="s">
         <v>29</v>
@@ -14505,68 +14505,68 @@
         <v>45381.5</v>
       </c>
       <c r="E153" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F153" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153" t="s">
         <v>42</v>
       </c>
       <c r="L153">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="M153">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N153">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="O153">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="P153">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q153">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="R153">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="S153">
         <v>1.95</v>
       </c>
       <c r="T153">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U153">
+        <v>2.75</v>
+      </c>
+      <c r="V153">
+        <v>1.875</v>
+      </c>
+      <c r="W153">
+        <v>1.925</v>
+      </c>
+      <c r="X153">
+        <v>-1</v>
+      </c>
+      <c r="Y153">
         <v>3</v>
       </c>
-      <c r="V153">
-        <v>1.85</v>
-      </c>
-      <c r="W153">
-        <v>2</v>
-      </c>
-      <c r="X153">
-        <v>-1</v>
-      </c>
-      <c r="Y153">
-        <v>2.5</v>
-      </c>
       <c r="Z153">
         <v>-1</v>
       </c>
@@ -14574,13 +14574,13 @@
         <v>-1</v>
       </c>
       <c r="AB153">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC153">
         <v>-1</v>
       </c>
       <c r="AD153">
-        <v>1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="154" spans="1:30">
@@ -14588,7 +14588,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>7024093</v>
+        <v>7024091</v>
       </c>
       <c r="C154" t="s">
         <v>29</v>
@@ -14597,67 +14597,67 @@
         <v>45381.5</v>
       </c>
       <c r="E154" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154" t="s">
         <v>42</v>
       </c>
       <c r="L154">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="M154">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N154">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="O154">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="P154">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q154">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="R154">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S154">
         <v>1.95</v>
       </c>
       <c r="T154">
+        <v>1.9</v>
+      </c>
+      <c r="U154">
+        <v>3</v>
+      </c>
+      <c r="V154">
         <v>1.85</v>
       </c>
-      <c r="U154">
-        <v>2.75</v>
-      </c>
-      <c r="V154">
-        <v>1.875</v>
-      </c>
       <c r="W154">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X154">
         <v>-1</v>
       </c>
       <c r="Y154">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Z154">
         <v>-1</v>
@@ -14666,13 +14666,13 @@
         <v>-1</v>
       </c>
       <c r="AB154">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC154">
         <v>-1</v>
       </c>
       <c r="AD154">
-        <v>0.925</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:30">
@@ -14781,10 +14781,10 @@
         <v>45381.60416666666</v>
       </c>
       <c r="E156" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -14873,7 +14873,7 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E157" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F157" t="s">
         <v>37</v>
@@ -14956,7 +14956,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>7060654</v>
+        <v>7060651</v>
       </c>
       <c r="C158" t="s">
         <v>29</v>
@@ -14965,61 +14965,61 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F158" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G158">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I158">
         <v>0</v>
       </c>
       <c r="J158">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K158" t="s">
         <v>41</v>
       </c>
       <c r="L158">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M158">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="N158">
-        <v>2.2</v>
+        <v>1.615</v>
       </c>
       <c r="O158">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="P158">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q158">
-        <v>2.375</v>
+        <v>1.666</v>
       </c>
       <c r="R158">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="S158">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T158">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="U158">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V158">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W158">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="X158">
         <v>-1</v>
@@ -15028,16 +15028,16 @@
         <v>-1</v>
       </c>
       <c r="Z158">
-        <v>1.375</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="AA158">
         <v>-1</v>
       </c>
       <c r="AB158">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC158">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD158">
         <v>-1</v>
@@ -15048,7 +15048,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>7060651</v>
+        <v>7060654</v>
       </c>
       <c r="C159" t="s">
         <v>29</v>
@@ -15057,61 +15057,61 @@
         <v>45388.45833333334</v>
       </c>
       <c r="E159" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F159" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G159">
         <v>1</v>
       </c>
       <c r="H159">
+        <v>5</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
         <v>3</v>
-      </c>
-      <c r="I159">
-        <v>0</v>
-      </c>
-      <c r="J159">
-        <v>1</v>
       </c>
       <c r="K159" t="s">
         <v>41</v>
       </c>
       <c r="L159">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="M159">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="N159">
-        <v>1.615</v>
+        <v>2.2</v>
       </c>
       <c r="O159">
+        <v>2.55</v>
+      </c>
+      <c r="P159">
         <v>3.5</v>
       </c>
-      <c r="P159">
-        <v>4.75</v>
-      </c>
       <c r="Q159">
-        <v>1.666</v>
+        <v>2.375</v>
       </c>
       <c r="R159">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="S159">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T159">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="U159">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V159">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W159">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -15120,16 +15120,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.6659999999999999</v>
+        <v>1.375</v>
       </c>
       <c r="AA159">
         <v>-1</v>
       </c>
       <c r="AB159">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC159">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD159">
         <v>-1</v>
@@ -15152,7 +15152,7 @@
         <v>39</v>
       </c>
       <c r="F160" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G160">
         <v>0</v>
@@ -15235,7 +15235,7 @@
         <v>45388.5625</v>
       </c>
       <c r="E161" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F161" t="s">
         <v>35</v>
@@ -15318,7 +15318,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7107442</v>
+        <v>7128383</v>
       </c>
       <c r="C162" t="s">
         <v>29</v>
@@ -15327,19 +15327,19 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F162" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H162">
         <v>0</v>
       </c>
       <c r="I162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -15348,43 +15348,43 @@
         <v>40</v>
       </c>
       <c r="L162">
-        <v>2</v>
+        <v>1.111</v>
       </c>
       <c r="M162">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="N162">
+        <v>13</v>
+      </c>
+      <c r="O162">
+        <v>1.2</v>
+      </c>
+      <c r="P162">
+        <v>6.5</v>
+      </c>
+      <c r="Q162">
+        <v>9.5</v>
+      </c>
+      <c r="R162">
+        <v>-2</v>
+      </c>
+      <c r="S162">
+        <v>1.95</v>
+      </c>
+      <c r="T162">
+        <v>1.85</v>
+      </c>
+      <c r="U162">
         <v>3.25</v>
       </c>
-      <c r="O162">
-        <v>2.25</v>
-      </c>
-      <c r="P162">
-        <v>3.5</v>
-      </c>
-      <c r="Q162">
-        <v>2.75</v>
-      </c>
-      <c r="R162">
-        <v>-0.25</v>
-      </c>
-      <c r="S162">
-        <v>1.975</v>
-      </c>
-      <c r="T162">
-        <v>1.825</v>
-      </c>
-      <c r="U162">
-        <v>2.75</v>
-      </c>
       <c r="V162">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W162">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X162">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="Y162">
         <v>-1</v>
@@ -15393,16 +15393,16 @@
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB162">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC162">
         <v>-1</v>
       </c>
       <c r="AD162">
-        <v>0.825</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:30">
@@ -15410,7 +15410,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7128383</v>
+        <v>7128381</v>
       </c>
       <c r="C163" t="s">
         <v>29</v>
@@ -15419,64 +15419,64 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G163">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K163" t="s">
         <v>40</v>
       </c>
       <c r="L163">
-        <v>1.111</v>
+        <v>2.95</v>
       </c>
       <c r="M163">
-        <v>8.5</v>
+        <v>3.75</v>
       </c>
       <c r="N163">
-        <v>13</v>
+        <v>2.05</v>
       </c>
       <c r="O163">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="P163">
-        <v>6.5</v>
+        <v>3.8</v>
       </c>
       <c r="Q163">
-        <v>9.5</v>
+        <v>2.55</v>
       </c>
       <c r="R163">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="S163">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T163">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="U163">
         <v>3.25</v>
       </c>
       <c r="V163">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W163">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="X163">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="Y163">
         <v>-1</v>
@@ -15485,16 +15485,16 @@
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AB163">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD163">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -15502,7 +15502,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7128381</v>
+        <v>7128380</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
@@ -15511,82 +15511,82 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G164">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K164" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L164">
-        <v>2.95</v>
+        <v>2.1</v>
       </c>
       <c r="M164">
+        <v>3.7</v>
+      </c>
+      <c r="N164">
+        <v>2.875</v>
+      </c>
+      <c r="O164">
+        <v>2.15</v>
+      </c>
+      <c r="P164">
         <v>3.75</v>
       </c>
-      <c r="N164">
-        <v>2.05</v>
-      </c>
-      <c r="O164">
-        <v>2.3</v>
-      </c>
-      <c r="P164">
-        <v>3.8</v>
-      </c>
       <c r="Q164">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="R164">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S164">
+        <v>1.975</v>
+      </c>
+      <c r="T164">
         <v>1.875</v>
       </c>
-      <c r="T164">
-        <v>1.975</v>
-      </c>
       <c r="U164">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V164">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W164">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="X164">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y164">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z164">
         <v>-1</v>
       </c>
       <c r="AA164">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB164">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC164">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AD164">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:30">
@@ -15594,7 +15594,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>7128380</v>
+        <v>7107442</v>
       </c>
       <c r="C165" t="s">
         <v>29</v>
@@ -15603,43 +15603,43 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E165" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F165" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H165">
         <v>0</v>
       </c>
       <c r="I165">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165">
         <v>0</v>
       </c>
       <c r="K165" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L165">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M165">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="N165">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="O165">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P165">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q165">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R165">
         <v>-0.25</v>
@@ -15648,37 +15648,37 @@
         <v>1.975</v>
       </c>
       <c r="T165">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U165">
         <v>2.75</v>
       </c>
       <c r="V165">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W165">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X165">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y165">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z165">
         <v>-1</v>
       </c>
       <c r="AA165">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB165">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC165">
         <v>-1</v>
       </c>
       <c r="AD165">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="166" spans="1:30">
@@ -15695,10 +15695,10 @@
         <v>45395.5625</v>
       </c>
       <c r="E166" t="s">
+        <v>34</v>
+      </c>
+      <c r="F166" t="s">
         <v>31</v>
-      </c>
-      <c r="F166" t="s">
-        <v>33</v>
       </c>
       <c r="G166">
         <v>0</v>
@@ -15790,7 +15790,7 @@
         <v>39</v>
       </c>
       <c r="F167" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G167">
         <v>1</v>
@@ -15879,10 +15879,10 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E168" t="s">
+        <v>32</v>
+      </c>
+      <c r="F168" t="s">
         <v>34</v>
-      </c>
-      <c r="F168" t="s">
-        <v>31</v>
       </c>
       <c r="G168">
         <v>1</v>
@@ -15971,7 +15971,7 @@
         <v>45402.45833333334</v>
       </c>
       <c r="E169" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F169" t="s">
         <v>37</v>
@@ -16158,7 +16158,7 @@
         <v>30</v>
       </c>
       <c r="F171" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G171">
         <v>0</v>
@@ -16330,7 +16330,7 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>7171741</v>
+        <v>7158346</v>
       </c>
       <c r="C173" t="s">
         <v>29</v>
@@ -16339,13 +16339,13 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E173" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F173" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H173">
         <v>3</v>
@@ -16357,61 +16357,61 @@
         <v>1</v>
       </c>
       <c r="K173" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L173">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M173">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="N173">
-        <v>1.533</v>
+        <v>1.4</v>
       </c>
       <c r="O173">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="P173">
         <v>4.75</v>
       </c>
       <c r="Q173">
-        <v>1.444</v>
+        <v>1.333</v>
       </c>
       <c r="R173">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="S173">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T173">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="U173">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V173">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="W173">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="X173">
         <v>-1</v>
       </c>
       <c r="Y173">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Z173">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="AA173">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB173">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC173">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AD173">
         <v>-1</v>
@@ -16422,7 +16422,7 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>7158346</v>
+        <v>7171741</v>
       </c>
       <c r="C174" t="s">
         <v>29</v>
@@ -16431,13 +16431,13 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E174" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G174">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H174">
         <v>3</v>
@@ -16449,61 +16449,61 @@
         <v>1</v>
       </c>
       <c r="K174" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L174">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M174">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="N174">
-        <v>1.4</v>
+        <v>1.533</v>
       </c>
       <c r="O174">
-        <v>8</v>
+        <v>4.75</v>
       </c>
       <c r="P174">
         <v>4.75</v>
       </c>
       <c r="Q174">
-        <v>1.333</v>
+        <v>1.444</v>
       </c>
       <c r="R174">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="S174">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T174">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="U174">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V174">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W174">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="X174">
         <v>-1</v>
       </c>
       <c r="Y174">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Z174">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="AA174">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB174">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC174">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AD174">
         <v>-1</v>
@@ -16514,7 +16514,7 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>7190971</v>
+        <v>7190972</v>
       </c>
       <c r="C175" t="s">
         <v>29</v>
@@ -16523,55 +16523,55 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E175" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F175" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K175" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L175">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="M175">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N175">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="O175">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="P175">
         <v>3.8</v>
       </c>
       <c r="Q175">
-        <v>1.75</v>
+        <v>2.875</v>
       </c>
       <c r="R175">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S175">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T175">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="U175">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V175">
         <v>1.8</v>
@@ -16580,19 +16580,19 @@
         <v>2</v>
       </c>
       <c r="X175">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Y175">
         <v>-1</v>
       </c>
       <c r="Z175">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="AA175">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB175">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AC175">
         <v>-1</v>
@@ -16606,7 +16606,7 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>7190972</v>
+        <v>7190971</v>
       </c>
       <c r="C176" t="s">
         <v>29</v>
@@ -16615,55 +16615,55 @@
         <v>45409.45833333334</v>
       </c>
       <c r="E176" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K176" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L176">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="M176">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N176">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="O176">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="P176">
         <v>3.8</v>
       </c>
       <c r="Q176">
-        <v>2.875</v>
+        <v>1.75</v>
       </c>
       <c r="R176">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="S176">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T176">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="U176">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V176">
         <v>1.8</v>
@@ -16672,19 +16672,19 @@
         <v>2</v>
       </c>
       <c r="X176">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Y176">
         <v>-1</v>
       </c>
       <c r="Z176">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="AA176">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB176">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC176">
         <v>-1</v>
@@ -16710,7 +16710,7 @@
         <v>37</v>
       </c>
       <c r="F177" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -16891,10 +16891,10 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E179" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G179">
         <v>3</v>
@@ -17075,7 +17075,7 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E181" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F181" t="s">
         <v>38</v>
@@ -17167,7 +17167,7 @@
         <v>45416.45833333334</v>
       </c>
       <c r="E182" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F182" t="s">
         <v>37</v>

--- a/Scotland League One/Scotland League One.xlsx
+++ b/Scotland League One/Scotland League One.xlsx
@@ -3916,7 +3916,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6848361</v>
+        <v>6848362</v>
       </c>
       <c r="C38" t="s">
         <v>29</v>
@@ -3925,64 +3925,64 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E38" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G38">
         <v>3</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="s">
         <v>40</v>
       </c>
       <c r="L38">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="M38">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="N38">
-        <v>4.75</v>
+        <v>2.625</v>
       </c>
       <c r="O38">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="P38">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q38">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
       <c r="R38">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="S38">
+        <v>1.85</v>
+      </c>
+      <c r="T38">
         <v>1.95</v>
       </c>
-      <c r="T38">
-        <v>1.85</v>
-      </c>
       <c r="U38">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V38">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W38">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="X38">
-        <v>0.25</v>
+        <v>1.4</v>
       </c>
       <c r="Y38">
         <v>-1</v>
@@ -3991,13 +3991,13 @@
         <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AD38">
         <v>-1</v>
@@ -4008,7 +4008,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6848360</v>
+        <v>6848361</v>
       </c>
       <c r="C39" t="s">
         <v>29</v>
@@ -4017,16 +4017,16 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -4035,49 +4035,49 @@
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L39">
-        <v>1.727</v>
+        <v>1.5</v>
       </c>
       <c r="M39">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N39">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="O39">
-        <v>1.7</v>
+        <v>1.25</v>
       </c>
       <c r="P39">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="Q39">
-        <v>4.5</v>
+        <v>9.5</v>
       </c>
       <c r="R39">
-        <v>-0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="S39">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T39">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="U39">
         <v>3</v>
       </c>
       <c r="V39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W39">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Y39">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
         <v>-1</v>
@@ -4086,13 +4086,13 @@
         <v>-1</v>
       </c>
       <c r="AB39">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AD39">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -4100,7 +4100,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6848362</v>
+        <v>6848360</v>
       </c>
       <c r="C40" t="s">
         <v>29</v>
@@ -4109,82 +4109,82 @@
         <v>45199.45833333334</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40" t="s">
+        <v>42</v>
+      </c>
+      <c r="L40">
+        <v>1.727</v>
+      </c>
+      <c r="M40">
+        <v>3.75</v>
+      </c>
+      <c r="N40">
+        <v>3.75</v>
+      </c>
+      <c r="O40">
+        <v>1.7</v>
+      </c>
+      <c r="P40">
+        <v>3.8</v>
+      </c>
+      <c r="Q40">
+        <v>4.5</v>
+      </c>
+      <c r="R40">
+        <v>-0.75</v>
+      </c>
+      <c r="S40">
+        <v>1.875</v>
+      </c>
+      <c r="T40">
+        <v>1.925</v>
+      </c>
+      <c r="U40">
         <v>3</v>
       </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>1</v>
-      </c>
-      <c r="K40" t="s">
-        <v>40</v>
-      </c>
-      <c r="L40">
-        <v>2.25</v>
-      </c>
-      <c r="M40">
-        <v>3.5</v>
-      </c>
-      <c r="N40">
-        <v>2.625</v>
-      </c>
-      <c r="O40">
-        <v>2.4</v>
-      </c>
-      <c r="P40">
-        <v>3.5</v>
-      </c>
-      <c r="Q40">
-        <v>2.5</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
-      </c>
-      <c r="S40">
-        <v>1.85</v>
-      </c>
-      <c r="T40">
-        <v>1.95</v>
-      </c>
-      <c r="U40">
-        <v>2.75</v>
-      </c>
       <c r="V40">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W40">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="X40">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC40">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AD40">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="41" spans="1:30">
@@ -4284,7 +4284,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>6848365</v>
+        <v>6845665</v>
       </c>
       <c r="C42" t="s">
         <v>29</v>
@@ -4293,82 +4293,82 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L42">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="M42">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="N42">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="O42">
-        <v>2.05</v>
+        <v>1.571</v>
       </c>
       <c r="P42">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q42">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="R42">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="S42">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T42">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="U42">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V42">
+        <v>1.875</v>
+      </c>
+      <c r="W42">
         <v>1.925</v>
       </c>
-      <c r="W42">
-        <v>1.875</v>
-      </c>
       <c r="X42">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="Y42">
         <v>-1</v>
       </c>
       <c r="Z42">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA42">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AD42">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43" spans="1:30">
@@ -4376,7 +4376,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>6845665</v>
+        <v>6848363</v>
       </c>
       <c r="C43" t="s">
         <v>29</v>
@@ -4385,79 +4385,79 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E43" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G43">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L43">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="M43">
         <v>3.6</v>
       </c>
       <c r="N43">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="O43">
-        <v>1.571</v>
+        <v>3.6</v>
       </c>
       <c r="P43">
         <v>4</v>
       </c>
       <c r="Q43">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="R43">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="S43">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T43">
         <v>1.825</v>
       </c>
       <c r="U43">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V43">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W43">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="X43">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="Y43">
         <v>-1</v>
       </c>
       <c r="Z43">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AC43">
-        <v>0.875</v>
+        <v>1.025</v>
       </c>
       <c r="AD43">
         <v>-1</v>
@@ -4468,7 +4468,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6848363</v>
+        <v>6848364</v>
       </c>
       <c r="C44" t="s">
         <v>29</v>
@@ -4477,82 +4477,82 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H44">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L44">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="M44">
         <v>3.6</v>
       </c>
       <c r="N44">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="O44">
+        <v>1.909</v>
+      </c>
+      <c r="P44">
         <v>3.6</v>
       </c>
-      <c r="P44">
-        <v>4</v>
-      </c>
       <c r="Q44">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="R44">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="S44">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T44">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U44">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V44">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB44">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>1.025</v>
+        <v>0.4375</v>
       </c>
       <c r="AD44">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="45" spans="1:30">
@@ -4560,7 +4560,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6848364</v>
+        <v>6848365</v>
       </c>
       <c r="C45" t="s">
         <v>29</v>
@@ -4569,82 +4569,82 @@
         <v>45206.45833333334</v>
       </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45">
         <v>0</v>
       </c>
       <c r="K45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L45">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="M45">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="N45">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="O45">
-        <v>1.909</v>
+        <v>2.05</v>
       </c>
       <c r="P45">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q45">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="R45">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="S45">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T45">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U45">
         <v>2.75</v>
       </c>
       <c r="V45">
+        <v>1.925</v>
+      </c>
+      <c r="W45">
         <v>1.875</v>
       </c>
-      <c r="W45">
-        <v>1.975</v>
-      </c>
       <c r="X45">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC45">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AD45">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46" spans="1:30">
@@ -6584,7 +6584,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6848381</v>
+        <v>6845669</v>
       </c>
       <c r="C67" t="s">
         <v>29</v>
@@ -6593,16 +6593,16 @@
         <v>45248.5</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G67">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H67">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -6611,28 +6611,28 @@
         <v>1</v>
       </c>
       <c r="K67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L67">
-        <v>2.4</v>
+        <v>1.666</v>
       </c>
       <c r="M67">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="N67">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="O67">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="P67">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q67">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="R67">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="S67">
         <v>1.825</v>
@@ -6644,28 +6644,28 @@
         <v>2.75</v>
       </c>
       <c r="V67">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W67">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB67">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC67">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AD67">
         <v>-1</v>
@@ -6676,7 +6676,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6845669</v>
+        <v>6848379</v>
       </c>
       <c r="C68" t="s">
         <v>29</v>
@@ -6685,64 +6685,64 @@
         <v>45248.5</v>
       </c>
       <c r="E68" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G68">
         <v>3</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68" t="s">
         <v>40</v>
       </c>
       <c r="L68">
-        <v>1.666</v>
+        <v>3.2</v>
       </c>
       <c r="M68">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="N68">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="O68">
-        <v>1.666</v>
+        <v>4</v>
       </c>
       <c r="P68">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="Q68">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="R68">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="S68">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T68">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U68">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V68">
+        <v>1.9</v>
+      </c>
+      <c r="W68">
         <v>1.95</v>
       </c>
-      <c r="W68">
-        <v>1.85</v>
-      </c>
       <c r="X68">
-        <v>0.6659999999999999</v>
+        <v>3</v>
       </c>
       <c r="Y68">
         <v>-1</v>
@@ -6751,16 +6751,16 @@
         <v>-1</v>
       </c>
       <c r="AA68">
-        <v>0.825</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB68">
         <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AD68">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:30">
@@ -6768,7 +6768,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6848379</v>
+        <v>6848381</v>
       </c>
       <c r="C69" t="s">
         <v>29</v>
@@ -6777,82 +6777,82 @@
         <v>45248.5</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
         <v>3</v>
       </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L69">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="M69">
         <v>3.6</v>
       </c>
       <c r="N69">
+        <v>2.7</v>
+      </c>
+      <c r="O69">
         <v>2.1</v>
       </c>
-      <c r="O69">
-        <v>4</v>
-      </c>
       <c r="P69">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="Q69">
-        <v>1.75</v>
+        <v>3.2</v>
       </c>
       <c r="R69">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="S69">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T69">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U69">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V69">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="W69">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X69">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="AA69">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC69">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AD69">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:30">
@@ -6860,7 +6860,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>7414972</v>
+        <v>7392209</v>
       </c>
       <c r="C70" t="s">
         <v>29</v>
@@ -6869,25 +6869,25 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L70">
         <v>6.5</v>
@@ -6899,52 +6899,52 @@
         <v>1.444</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>9.5</v>
       </c>
       <c r="P70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q70">
-        <v>1.65</v>
+        <v>1.333</v>
       </c>
       <c r="R70">
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="S70">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="U70">
         <v>3</v>
       </c>
       <c r="V70">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W70">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="Z70">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB70">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD70">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:30">
@@ -6952,7 +6952,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>7392209</v>
+        <v>7414972</v>
       </c>
       <c r="C71" t="s">
         <v>29</v>
@@ -6961,25 +6961,25 @@
         <v>45258.69791666666</v>
       </c>
       <c r="E71" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L71">
         <v>6.5</v>
@@ -6991,52 +6991,52 @@
         <v>1.444</v>
       </c>
       <c r="O71">
-        <v>9.5</v>
+        <v>4.75</v>
       </c>
       <c r="P71">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q71">
-        <v>1.333</v>
+        <v>1.65</v>
       </c>
       <c r="R71">
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="S71">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T71">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U71">
         <v>3</v>
       </c>
       <c r="V71">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W71">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AA71">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:30">
@@ -7872,7 +7872,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>6848390</v>
+        <v>6848389</v>
       </c>
       <c r="C81" t="s">
         <v>29</v>
@@ -7881,13 +7881,13 @@
         <v>45276.5</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H81">
         <v>1</v>
@@ -7896,67 +7896,67 @@
         <v>1</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L81">
-        <v>2.15</v>
+        <v>1.333</v>
       </c>
       <c r="M81">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N81">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="O81">
-        <v>2.15</v>
+        <v>1.181</v>
       </c>
       <c r="P81">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="Q81">
-        <v>3.2</v>
+        <v>12</v>
       </c>
       <c r="R81">
-        <v>-0.25</v>
+        <v>-2</v>
       </c>
       <c r="S81">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T81">
         <v>1.95</v>
       </c>
       <c r="U81">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V81">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W81">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="X81">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Y81">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Z81">
         <v>-1</v>
       </c>
       <c r="AA81">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AB81">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AC81">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AD81">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:30">
@@ -7964,7 +7964,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6848389</v>
+        <v>6848390</v>
       </c>
       <c r="C82" t="s">
         <v>29</v>
@@ -7973,13 +7973,13 @@
         <v>45276.5</v>
       </c>
       <c r="E82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H82">
         <v>1</v>
@@ -7988,67 +7988,67 @@
         <v>1</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L82">
-        <v>1.333</v>
+        <v>2.15</v>
       </c>
       <c r="M82">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N82">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="O82">
-        <v>1.181</v>
+        <v>2.15</v>
       </c>
       <c r="P82">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="Q82">
-        <v>12</v>
+        <v>3.2</v>
       </c>
       <c r="R82">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="S82">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T82">
         <v>1.95</v>
       </c>
       <c r="U82">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V82">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W82">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="X82">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Y82">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Z82">
         <v>-1</v>
       </c>
       <c r="AA82">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB82">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AC82">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD82">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="83" spans="1:30">
@@ -8056,7 +8056,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>6845812</v>
+        <v>6848393</v>
       </c>
       <c r="C83" t="s">
         <v>29</v>
@@ -8065,10 +8065,10 @@
         <v>45283.5</v>
       </c>
       <c r="E83" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F83" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -8077,7 +8077,7 @@
         <v>1</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -8086,61 +8086,61 @@
         <v>42</v>
       </c>
       <c r="L83">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="M83">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="N83">
-        <v>6.5</v>
+        <v>3.1</v>
       </c>
       <c r="O83">
-        <v>1.363</v>
+        <v>2.5</v>
       </c>
       <c r="P83">
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q83">
-        <v>6.5</v>
+        <v>2.55</v>
       </c>
       <c r="R83">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="S83">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T83">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="U83">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V83">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W83">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="X83">
         <v>-1</v>
       </c>
       <c r="Y83">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="Z83">
         <v>-1</v>
       </c>
       <c r="AA83">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB83">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC83">
         <v>-1</v>
       </c>
       <c r="AD83">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="84" spans="1:30">
@@ -8240,7 +8240,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6848393</v>
+        <v>6848391</v>
       </c>
       <c r="C85" t="s">
         <v>29</v>
@@ -8249,19 +8249,19 @@
         <v>45283.5</v>
       </c>
       <c r="E85" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85">
         <v>0</v>
@@ -8270,61 +8270,61 @@
         <v>42</v>
       </c>
       <c r="L85">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="M85">
         <v>3.4</v>
       </c>
       <c r="N85">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="O85">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="P85">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q85">
-        <v>2.55</v>
+        <v>3.4</v>
       </c>
       <c r="R85">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="S85">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T85">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="U85">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W85">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="Z85">
         <v>-1</v>
       </c>
       <c r="AA85">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>0</v>
+        <v>0.5125</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AD85">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:30">
@@ -8332,7 +8332,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6848391</v>
+        <v>6845812</v>
       </c>
       <c r="C86" t="s">
         <v>29</v>
@@ -8341,16 +8341,16 @@
         <v>45283.5</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F86" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -8362,61 +8362,61 @@
         <v>42</v>
       </c>
       <c r="L86">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="M86">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="N86">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="O86">
-        <v>2.05</v>
+        <v>1.363</v>
       </c>
       <c r="P86">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="Q86">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="R86">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="S86">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="T86">
         <v>2.025</v>
       </c>
       <c r="U86">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="V86">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W86">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="Z86">
         <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.5125</v>
+        <v>1.025</v>
       </c>
       <c r="AC86">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AD86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:30">
@@ -8516,7 +8516,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>6848396</v>
+        <v>6845674</v>
       </c>
       <c r="C88" t="s">
         <v>29</v>
@@ -8525,13 +8525,13 @@
         <v>45290.5</v>
       </c>
       <c r="E88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H88">
         <v>1</v>
@@ -8543,49 +8543,49 @@
         <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L88">
-        <v>1.833</v>
+        <v>2.55</v>
       </c>
       <c r="M88">
         <v>3.5</v>
       </c>
       <c r="N88">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="O88">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="P88">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q88">
-        <v>3.5</v>
+        <v>1.85</v>
       </c>
       <c r="R88">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="S88">
         <v>1.875</v>
       </c>
       <c r="T88">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U88">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V88">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W88">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="X88">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="Y88">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z88">
         <v>-1</v>
@@ -8597,10 +8597,10 @@
         <v>-1</v>
       </c>
       <c r="AC88">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AD88">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:30">
@@ -8608,7 +8608,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>6845674</v>
+        <v>6845811</v>
       </c>
       <c r="C89" t="s">
         <v>29</v>
@@ -8617,82 +8617,82 @@
         <v>45290.5</v>
       </c>
       <c r="E89" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G89">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L89">
-        <v>2.55</v>
+        <v>9</v>
       </c>
       <c r="M89">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N89">
-        <v>2.3</v>
+        <v>1.222</v>
       </c>
       <c r="O89">
-        <v>3.4</v>
+        <v>34</v>
       </c>
       <c r="P89">
-        <v>3.6</v>
+        <v>13</v>
       </c>
       <c r="Q89">
-        <v>1.85</v>
+        <v>1.045</v>
       </c>
       <c r="R89">
-        <v>0.5</v>
+        <v>3.25</v>
       </c>
       <c r="S89">
+        <v>1.975</v>
+      </c>
+      <c r="T89">
         <v>1.875</v>
       </c>
-      <c r="T89">
+      <c r="U89">
+        <v>4.25</v>
+      </c>
+      <c r="V89">
         <v>1.925</v>
       </c>
-      <c r="U89">
-        <v>2.75</v>
-      </c>
-      <c r="V89">
-        <v>1.95</v>
-      </c>
       <c r="W89">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="X89">
         <v>-1</v>
       </c>
       <c r="Y89">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z89">
-        <v>-1</v>
+        <v>0.04499999999999993</v>
       </c>
       <c r="AA89">
-        <v>0.875</v>
+        <v>0.4875</v>
       </c>
       <c r="AB89">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC89">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AD89">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="90" spans="1:30">
@@ -8700,7 +8700,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6845811</v>
+        <v>6848394</v>
       </c>
       <c r="C90" t="s">
         <v>29</v>
@@ -8709,79 +8709,79 @@
         <v>45290.5</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <v>4</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
+      </c>
+      <c r="K90" t="s">
+        <v>40</v>
+      </c>
+      <c r="L90">
+        <v>1.285</v>
+      </c>
+      <c r="M90">
         <v>5</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
-      <c r="J90">
-        <v>5</v>
-      </c>
-      <c r="K90" t="s">
-        <v>41</v>
-      </c>
-      <c r="L90">
-        <v>9</v>
-      </c>
-      <c r="M90">
-        <v>5.5</v>
-      </c>
       <c r="N90">
-        <v>1.222</v>
+        <v>7.5</v>
       </c>
       <c r="O90">
-        <v>34</v>
+        <v>1.166</v>
       </c>
       <c r="P90">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="Q90">
-        <v>1.045</v>
+        <v>11</v>
       </c>
       <c r="R90">
+        <v>-2</v>
+      </c>
+      <c r="S90">
+        <v>1.85</v>
+      </c>
+      <c r="T90">
+        <v>1.95</v>
+      </c>
+      <c r="U90">
         <v>3.25</v>
       </c>
-      <c r="S90">
-        <v>1.975</v>
-      </c>
-      <c r="T90">
-        <v>1.875</v>
-      </c>
-      <c r="U90">
-        <v>4.25</v>
-      </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="X90">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="Y90">
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.04499999999999993</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>0.4875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC90">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AD90">
         <v>-1</v>
@@ -8792,7 +8792,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6848394</v>
+        <v>6848396</v>
       </c>
       <c r="C91" t="s">
         <v>29</v>
@@ -8801,64 +8801,64 @@
         <v>45290.5</v>
       </c>
       <c r="E91" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91" t="s">
         <v>40</v>
       </c>
       <c r="L91">
-        <v>1.285</v>
+        <v>1.833</v>
       </c>
       <c r="M91">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N91">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="O91">
-        <v>1.166</v>
+        <v>1.833</v>
       </c>
       <c r="P91">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q91">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="R91">
-        <v>-2</v>
+        <v>-0.5</v>
       </c>
       <c r="S91">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T91">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="U91">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W91">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="X91">
-        <v>0.1659999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="Y91">
         <v>-1</v>
@@ -8867,16 +8867,16 @@
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AB91">
         <v>-1</v>
       </c>
       <c r="AC91">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AD91">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:30">
@@ -9344,7 +9344,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>6848401</v>
+        <v>6848403</v>
       </c>
       <c r="C97" t="s">
         <v>29</v>
@@ -9353,10 +9353,10 @@
         <v>45304.5</v>
       </c>
       <c r="E97" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -9368,67 +9368,67 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K97" t="s">
         <v>42</v>
       </c>
       <c r="L97">
-        <v>1.666</v>
+        <v>2</v>
       </c>
       <c r="M97">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="N97">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O97">
+        <v>2.7</v>
+      </c>
+      <c r="P97">
+        <v>3.25</v>
+      </c>
+      <c r="Q97">
+        <v>2.3</v>
+      </c>
+      <c r="R97">
+        <v>0.25</v>
+      </c>
+      <c r="S97">
+        <v>1.775</v>
+      </c>
+      <c r="T97">
+        <v>2.025</v>
+      </c>
+      <c r="U97">
+        <v>2.5</v>
+      </c>
+      <c r="V97">
         <v>1.85</v>
       </c>
-      <c r="P97">
-        <v>3.75</v>
-      </c>
-      <c r="Q97">
-        <v>3.3</v>
-      </c>
-      <c r="R97">
+      <c r="W97">
+        <v>1.95</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>2.25</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>0.3875</v>
+      </c>
+      <c r="AB97">
         <v>-0.5</v>
       </c>
-      <c r="S97">
-        <v>1.95</v>
-      </c>
-      <c r="T97">
-        <v>1.85</v>
-      </c>
-      <c r="U97">
-        <v>2.75</v>
-      </c>
-      <c r="V97">
-        <v>1.8</v>
-      </c>
-      <c r="W97">
-        <v>2</v>
-      </c>
-      <c r="X97">
-        <v>-1</v>
-      </c>
-      <c r="Y97">
-        <v>2.75</v>
-      </c>
-      <c r="Z97">
-        <v>-1</v>
-      </c>
-      <c r="AA97">
-        <v>-1</v>
-      </c>
-      <c r="AB97">
-        <v>0.8500000000000001</v>
-      </c>
       <c r="AC97">
         <v>-1</v>
       </c>
       <c r="AD97">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="98" spans="1:30">
@@ -9528,7 +9528,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>6848403</v>
+        <v>6848401</v>
       </c>
       <c r="C99" t="s">
         <v>29</v>
@@ -9537,10 +9537,10 @@
         <v>45304.5</v>
       </c>
       <c r="E99" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -9552,67 +9552,67 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" t="s">
         <v>42</v>
       </c>
       <c r="L99">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="M99">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="N99">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="O99">
-        <v>2.7</v>
+        <v>1.85</v>
       </c>
       <c r="P99">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q99">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="R99">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="S99">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T99">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="U99">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V99">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W99">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.3875</v>
+        <v>-1</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC99">
         <v>-1</v>
       </c>
       <c r="AD99">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:30">
@@ -9804,7 +9804,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>6845808</v>
+        <v>6845676</v>
       </c>
       <c r="C102" t="s">
         <v>29</v>
@@ -9813,82 +9813,82 @@
         <v>45318.5</v>
       </c>
       <c r="E102" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L102">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="M102">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N102">
-        <v>6</v>
+        <v>3.8</v>
       </c>
       <c r="O102">
-        <v>1.333</v>
+        <v>1.7</v>
       </c>
       <c r="P102">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q102">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R102">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="S102">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T102">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="U102">
+        <v>2.75</v>
+      </c>
+      <c r="V102">
+        <v>2</v>
+      </c>
+      <c r="W102">
+        <v>1.8</v>
+      </c>
+      <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
+        <v>-1</v>
+      </c>
+      <c r="Z102">
         <v>3</v>
       </c>
-      <c r="V102">
-        <v>1.95</v>
-      </c>
-      <c r="W102">
-        <v>1.85</v>
-      </c>
-      <c r="X102">
-        <v>-1</v>
-      </c>
-      <c r="Y102">
-        <v>3.5</v>
-      </c>
-      <c r="Z102">
-        <v>-1</v>
-      </c>
       <c r="AA102">
         <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
         <v>-1</v>
       </c>
       <c r="AD102">
-        <v>0.8500000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="103" spans="1:30">
@@ -9988,7 +9988,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6845676</v>
+        <v>6845808</v>
       </c>
       <c r="C104" t="s">
         <v>29</v>
@@ -9997,82 +9997,82 @@
         <v>45318.5</v>
       </c>
       <c r="E104" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L104">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="M104">
-        <v>4</v>
+        <v>4.333</v>
       </c>
       <c r="N104">
-        <v>3.8</v>
+        <v>6</v>
       </c>
       <c r="O104">
-        <v>1.7</v>
+        <v>1.333</v>
       </c>
       <c r="P104">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="Q104">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="R104">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="S104">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T104">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U104">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V104">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="X104">
         <v>-1</v>
       </c>
       <c r="Y104">
-        <v>-1</v>
+        <v>3.5</v>
       </c>
       <c r="Z104">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AA104">
         <v>-1</v>
       </c>
       <c r="AB104">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AC104">
         <v>-1</v>
       </c>
       <c r="AD104">
-        <v>0.8</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="105" spans="1:30">
@@ -14404,7 +14404,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>7024094</v>
+        <v>7024093</v>
       </c>
       <c r="C152" t="s">
         <v>29</v>
@@ -14413,82 +14413,82 @@
         <v>45381.5</v>
       </c>
       <c r="E152" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F152" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G152">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K152" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L152">
-        <v>1.3</v>
+        <v>1.363</v>
       </c>
       <c r="M152">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="N152">
         <v>6.5</v>
       </c>
       <c r="O152">
-        <v>1.285</v>
+        <v>1.4</v>
       </c>
       <c r="P152">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q152">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="R152">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="S152">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="T152">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U152">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V152">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W152">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="X152">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y152">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z152">
         <v>-1</v>
       </c>
       <c r="AA152">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AB152">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC152">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AD152">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="153" spans="1:30">
@@ -14680,7 +14680,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7024093</v>
+        <v>7024094</v>
       </c>
       <c r="C155" t="s">
         <v>29</v>
@@ -14689,82 +14689,82 @@
         <v>45381.5</v>
       </c>
       <c r="E155" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F155" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K155" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L155">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="M155">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="N155">
         <v>6.5</v>
       </c>
       <c r="O155">
-        <v>1.4</v>
+        <v>1.285</v>
       </c>
       <c r="P155">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q155">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="R155">
-        <v>-1.25</v>
+        <v>-1.75</v>
       </c>
       <c r="S155">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T155">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U155">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V155">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W155">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="Y155">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
         <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AB155">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AD155">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:30">
@@ -15318,7 +15318,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>7128383</v>
+        <v>7128380</v>
       </c>
       <c r="C162" t="s">
         <v>29</v>
@@ -15327,13 +15327,13 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E162" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G162">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -15345,58 +15345,58 @@
         <v>0</v>
       </c>
       <c r="K162" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L162">
-        <v>1.111</v>
+        <v>2.1</v>
       </c>
       <c r="M162">
-        <v>8.5</v>
+        <v>3.7</v>
       </c>
       <c r="N162">
-        <v>13</v>
+        <v>2.875</v>
       </c>
       <c r="O162">
-        <v>1.2</v>
+        <v>2.15</v>
       </c>
       <c r="P162">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q162">
-        <v>9.5</v>
+        <v>2.8</v>
       </c>
       <c r="R162">
-        <v>-2</v>
+        <v>-0.25</v>
       </c>
       <c r="S162">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T162">
+        <v>1.875</v>
+      </c>
+      <c r="U162">
+        <v>2.75</v>
+      </c>
+      <c r="V162">
         <v>1.85</v>
       </c>
-      <c r="U162">
-        <v>3.25</v>
-      </c>
-      <c r="V162">
-        <v>1.8</v>
-      </c>
       <c r="W162">
         <v>2</v>
       </c>
       <c r="X162">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Z162">
         <v>-1</v>
       </c>
       <c r="AA162">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB162">
-        <v>0</v>
+        <v>0.4375</v>
       </c>
       <c r="AC162">
         <v>-1</v>
@@ -15410,7 +15410,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>7128380</v>
+        <v>7107442</v>
       </c>
       <c r="C163" t="s">
         <v>29</v>
@@ -15419,43 +15419,43 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
         <v>0</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163">
         <v>0</v>
       </c>
       <c r="K163" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L163">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="M163">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="N163">
-        <v>2.875</v>
+        <v>3.25</v>
       </c>
       <c r="O163">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="P163">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q163">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="R163">
         <v>-0.25</v>
@@ -15464,37 +15464,37 @@
         <v>1.975</v>
       </c>
       <c r="T163">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="U163">
         <v>2.75</v>
       </c>
       <c r="V163">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W163">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Y163">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Z163">
         <v>-1</v>
       </c>
       <c r="AA163">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB163">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC163">
         <v>-1</v>
       </c>
       <c r="AD163">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="164" spans="1:30">
@@ -15502,7 +15502,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>7107442</v>
+        <v>7128383</v>
       </c>
       <c r="C164" t="s">
         <v>29</v>
@@ -15511,19 +15511,19 @@
         <v>45395.45833333334</v>
       </c>
       <c r="E164" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F164" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H164">
         <v>0</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164">
         <v>0</v>
@@ -15532,43 +